--- a/leagues/The Girl's Room 💞🏈 2025.xlsx
+++ b/leagues/The Girl's Room 💞🏈 2025.xlsx
@@ -11,16 +11,17 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Louie Power Index" sheetId="5" r:id="rId5"/>
-    <sheet name="LPI By Week" sheetId="6" r:id="rId6"/>
-    <sheet name="Biggest Upsets" sheetId="7" r:id="rId7"/>
+    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
+    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
+    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
+    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="110">
   <si>
     <t>Tush Push Director 🍑</t>
   </si>
@@ -76,13 +77,16 @@
     <t>Lamb of Goedert</t>
   </si>
   <si>
-    <t>1-0-0</t>
-  </si>
-  <si>
-    <t>0-1-0</t>
-  </si>
-  <si>
-    <t>0-0-1</t>
+    <t>2-0-0</t>
+  </si>
+  <si>
+    <t>0-2-0</t>
+  </si>
+  <si>
+    <t>1-1-0</t>
+  </si>
+  <si>
+    <t>0-1-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -103,61 +107,175 @@
     <t>Difference</t>
   </si>
   <si>
-    <t>Place 1</t>
-  </si>
-  <si>
-    <t>Place 2</t>
-  </si>
-  <si>
-    <t>Place 3</t>
-  </si>
-  <si>
-    <t>Place 4</t>
-  </si>
-  <si>
-    <t>Place 5</t>
-  </si>
-  <si>
-    <t>Place 6</t>
-  </si>
-  <si>
-    <t>Place 7</t>
-  </si>
-  <si>
-    <t>Place 8</t>
-  </si>
-  <si>
-    <t>Place 9</t>
-  </si>
-  <si>
-    <t>Place 10</t>
-  </si>
-  <si>
-    <t>Place 11</t>
-  </si>
-  <si>
-    <t>Place 12</t>
-  </si>
-  <si>
-    <t>Place 13</t>
-  </si>
-  <si>
-    <t>Place 14</t>
-  </si>
-  <si>
-    <t>Place 15</t>
-  </si>
-  <si>
-    <t>Place 16</t>
-  </si>
-  <si>
-    <t>Place 17</t>
-  </si>
-  <si>
-    <t>Place 18</t>
-  </si>
-  <si>
-    <t>Chance of making playoffs</t>
+    <t>1st Place</t>
+  </si>
+  <si>
+    <t>2nd Place</t>
+  </si>
+  <si>
+    <t>3rd Place</t>
+  </si>
+  <si>
+    <t>4th Place</t>
+  </si>
+  <si>
+    <t>5th Place</t>
+  </si>
+  <si>
+    <t>6th Place</t>
+  </si>
+  <si>
+    <t>7th Place</t>
+  </si>
+  <si>
+    <t>8th Place</t>
+  </si>
+  <si>
+    <t>9th Place</t>
+  </si>
+  <si>
+    <t>10th Place</t>
+  </si>
+  <si>
+    <t>11th Place</t>
+  </si>
+  <si>
+    <t>12th Place</t>
+  </si>
+  <si>
+    <t>13th Place</t>
+  </si>
+  <si>
+    <t>14th Place</t>
+  </si>
+  <si>
+    <t>15th Place</t>
+  </si>
+  <si>
+    <t>16th Place</t>
+  </si>
+  <si>
+    <t>17th Place</t>
+  </si>
+  <si>
+    <t>18th Place</t>
+  </si>
+  <si>
+    <t>Chance of Making Playoffs</t>
+  </si>
+  <si>
+    <t>Current_Record</t>
+  </si>
+  <si>
+    <t>Current_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Score</t>
+  </si>
+  <si>
+    <t>Total_Points_For</t>
+  </si>
+  <si>
+    <t>Playoff_Chance_Pct</t>
+  </si>
+  <si>
+    <t>Expected_Final_Record</t>
+  </si>
+  <si>
+    <t>Most_Likely_Record</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>11.3-3.7</t>
+  </si>
+  <si>
+    <t>10.8-4.2</t>
+  </si>
+  <si>
+    <t>10.6-4.4</t>
+  </si>
+  <si>
+    <t>9.9-5.1</t>
+  </si>
+  <si>
+    <t>9.3-5.7</t>
+  </si>
+  <si>
+    <t>9.1-5.9</t>
+  </si>
+  <si>
+    <t>8.7-6.3</t>
+  </si>
+  <si>
+    <t>8.5-6.5</t>
+  </si>
+  <si>
+    <t>6.8-8.2</t>
+  </si>
+  <si>
+    <t>7.1-7.9</t>
+  </si>
+  <si>
+    <t>6.2-8.8</t>
+  </si>
+  <si>
+    <t>5.0-10.0</t>
+  </si>
+  <si>
+    <t>4.3-10.7</t>
+  </si>
+  <si>
+    <t>5.2-9.8</t>
+  </si>
+  <si>
+    <t>1.3-13.7</t>
+  </si>
+  <si>
+    <t>2.9-12.2</t>
+  </si>
+  <si>
+    <t>11-4</t>
+  </si>
+  <si>
+    <t>10-5</t>
+  </si>
+  <si>
+    <t>9-6</t>
+  </si>
+  <si>
+    <t>8-7</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>6-9</t>
+  </si>
+  <si>
+    <t>5-10</t>
+  </si>
+  <si>
+    <t>4-11</t>
+  </si>
+  <si>
+    <t>1-14</t>
+  </si>
+  <si>
+    <t>3-12</t>
   </si>
   <si>
     <t>Louie Power Index (LPI)</t>
@@ -166,7 +284,52 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
     <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
   </si>
   <si>
     <t>Week</t>
@@ -615,16 +778,16 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -642,19 +805,19 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
         <v>18</v>
       </c>
       <c r="N2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -663,7 +826,7 @@
         <v>18</v>
       </c>
       <c r="S2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -674,13 +837,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
@@ -701,25 +864,25 @@
         <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O3" t="s">
         <v>19</v>
       </c>
       <c r="P3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="s">
         <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S3" t="s">
         <v>19</v>
@@ -792,13 +955,13 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -807,7 +970,7 @@
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
@@ -819,25 +982,25 @@
         <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O5" t="s">
         <v>19</v>
       </c>
       <c r="P5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q5" t="s">
         <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S5" t="s">
         <v>19</v>
@@ -848,46 +1011,46 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N6" t="s">
         <v>19</v>
       </c>
       <c r="O6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P6" t="s">
         <v>19</v>
@@ -896,10 +1059,10 @@
         <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -907,19 +1070,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
@@ -934,25 +1097,25 @@
         <v>18</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M7" t="s">
         <v>18</v>
       </c>
       <c r="N7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O7" t="s">
         <v>19</v>
       </c>
       <c r="P7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R7" t="s">
         <v>19</v>
@@ -966,19 +1129,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
@@ -993,25 +1156,25 @@
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
         <v>18</v>
       </c>
       <c r="N8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R8" t="s">
         <v>18</v>
@@ -1031,7 +1194,7 @@
         <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -1052,28 +1215,28 @@
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M9" t="s">
         <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O9" t="s">
         <v>19</v>
       </c>
       <c r="P9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q9" t="s">
         <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S9" t="s">
         <v>19</v>
@@ -1087,22 +1250,22 @@
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
@@ -1111,19 +1274,19 @@
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P10" t="s">
         <v>18</v>
@@ -1132,10 +1295,10 @@
         <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1143,7 +1306,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1161,25 +1324,25 @@
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K11" t="s">
         <v>19</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O11" t="s">
         <v>19</v>
@@ -1188,10 +1351,10 @@
         <v>19</v>
       </c>
       <c r="Q11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S11" t="s">
         <v>19</v>
@@ -1205,13 +1368,13 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -1232,16 +1395,16 @@
         <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M12" t="s">
         <v>18</v>
       </c>
       <c r="N12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P12" t="s">
         <v>18</v>
@@ -1250,10 +1413,10 @@
         <v>18</v>
       </c>
       <c r="R12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1261,22 +1424,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
         <v>18</v>
@@ -1288,31 +1451,31 @@
         <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1323,13 +1486,13 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -1350,19 +1513,19 @@
         <v>18</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M14" t="s">
         <v>18</v>
       </c>
       <c r="N14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q14" t="s">
         <v>18</v>
@@ -1385,13 +1548,13 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
@@ -1415,13 +1578,13 @@
         <v>18</v>
       </c>
       <c r="N15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q15" t="s">
         <v>18</v>
@@ -1430,7 +1593,7 @@
         <v>18</v>
       </c>
       <c r="S15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1438,7 +1601,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>19</v>
@@ -1453,16 +1616,16 @@
         <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K16" t="s">
         <v>19</v>
@@ -1474,7 +1637,7 @@
         <v>19</v>
       </c>
       <c r="N16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O16" t="s">
         <v>19</v>
@@ -1483,7 +1646,7 @@
         <v>19</v>
       </c>
       <c r="Q16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R16" t="s">
         <v>19</v>
@@ -1497,13 +1660,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
         <v>19</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -1512,13 +1675,13 @@
         <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
         <v>19</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
         <v>18</v>
@@ -1533,7 +1696,7 @@
         <v>19</v>
       </c>
       <c r="N17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O17" t="s">
         <v>19</v>
@@ -1542,7 +1705,7 @@
         <v>19</v>
       </c>
       <c r="Q17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R17" t="s">
         <v>19</v>
@@ -1556,7 +1719,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
@@ -1571,16 +1734,16 @@
         <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
         <v>19</v>
       </c>
       <c r="I18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s">
         <v>19</v>
@@ -1601,7 +1764,7 @@
         <v>19</v>
       </c>
       <c r="Q18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R18" t="s">
         <v>19</v>
@@ -1615,58 +1778,58 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="L19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="O19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q19" t="s">
         <v>18</v>
       </c>
       <c r="R19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="S19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1684,13 +1847,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1698,13 +1861,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C2">
-        <v>0.05555555555555555</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1712,13 +1875,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.1111111111111111</v>
+        <v>0.5</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1726,13 +1889,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>0.1666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1740,13 +1903,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0.2222222222222222</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1754,13 +1917,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>0.2222222222222222</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1768,13 +1931,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>0.2777777777777778</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1782,13 +1945,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>0.3888888888888889</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1796,13 +1959,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>0.3888888888888889</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1810,13 +1973,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>0.3888888888888889</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1824,13 +1987,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>0.5555555555555556</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1838,13 +2001,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>0.5555555555555556</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1852,13 +2015,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>0.6666666666666666</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1866,13 +2029,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>0.7222222222222222</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1880,10 +2043,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.7222222222222222</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -1894,13 +2057,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>0.7777777777777778</v>
+        <v>1.5</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1908,10 +2071,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17">
-        <v>0.8333333333333334</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -1925,7 +2088,7 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>0.8888888888888888</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -1939,7 +2102,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>0.9444444444444444</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -1960,16 +2123,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1977,16 +2140,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.6666666666666667</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1994,13 +2157,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.9444444444444444</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="D3">
-        <v>-0.05555555555555558</v>
+        <v>-0.4444444444444444</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -2014,13 +2177,13 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.8888888888888888</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="D4">
-        <v>-0.1111111111111112</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2028,16 +2191,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>0.8333333333333334</v>
+        <v>1.5</v>
       </c>
       <c r="D5">
-        <v>-0.1666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2045,16 +2208,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>0.7222222222222222</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="D6">
-        <v>0.7222222222222222</v>
+        <v>-0.6111111111111112</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2062,13 +2225,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>0.6666666666666666</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="D7">
-        <v>-0.3333333333333334</v>
+        <v>-0.7777777777777777</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -2079,16 +2242,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>0.6666666666666666</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D8">
-        <v>0.6666666666666666</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2099,10 +2262,10 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="D9">
-        <v>-0.5</v>
+        <v>-0.8888888888888888</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -2113,13 +2276,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="D10">
-        <v>0.5</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="E10" t="s">
         <v>20</v>
@@ -2130,16 +2293,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2147,16 +2310,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0.3888888888888889</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>-0.6111111111111112</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2164,16 +2327,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>0.3888888888888889</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="D13">
-        <v>0.3888888888888889</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2181,16 +2344,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>0.3333333333333333</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D14">
-        <v>-0.6666666666666667</v>
+        <v>-0.1111111111111112</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2198,13 +2361,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>0.2222222222222222</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="D15">
-        <v>0.2222222222222222</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
@@ -2215,16 +2378,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>0.1666666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D16">
-        <v>0.1666666666666667</v>
+        <v>-0.5555555555555556</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2232,13 +2395,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>0.1111111111111111</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D17">
-        <v>0.1111111111111111</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -2249,13 +2412,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>0.05555555555555555</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="D18">
-        <v>0.05555555555555555</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
@@ -2293,105 +2456,105 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>41.5</v>
+        <v>32.7</v>
       </c>
       <c r="C2">
-        <v>47.73</v>
+        <v>22.9</v>
       </c>
       <c r="D2">
-        <v>10.24</v>
+        <v>17.5</v>
       </c>
       <c r="E2">
-        <v>0.53</v>
+        <v>10.9</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2412,57 +2575,57 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>99.99999999999999</v>
+        <v>94.59999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>33.12</v>
+        <v>23.1</v>
       </c>
       <c r="C3">
-        <v>19.7</v>
+        <v>16.4</v>
       </c>
       <c r="D3">
-        <v>22.98</v>
+        <v>16.9</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>14.4</v>
       </c>
       <c r="F3">
-        <v>6.43</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G3">
-        <v>2.07</v>
+        <v>6.2</v>
       </c>
       <c r="H3">
-        <v>0.5700000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="I3">
-        <v>0.09</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>0.03</v>
+        <v>2.4</v>
       </c>
       <c r="K3">
-        <v>0.01</v>
+        <v>1.7</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2474,51 +2637,51 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>99.29999999999998</v>
+        <v>85.8</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>15.83</v>
+        <v>15.1</v>
       </c>
       <c r="C4">
-        <v>13.07</v>
+        <v>17.8</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="E4">
-        <v>21.07</v>
+        <v>14.7</v>
       </c>
       <c r="F4">
-        <v>14.34</v>
+        <v>11.2</v>
       </c>
       <c r="G4">
-        <v>7.99</v>
+        <v>8.4</v>
       </c>
       <c r="H4">
-        <v>3.09</v>
+        <v>7.2</v>
       </c>
       <c r="I4">
-        <v>1.14</v>
+        <v>3.9</v>
       </c>
       <c r="J4">
-        <v>0.37</v>
+        <v>3</v>
       </c>
       <c r="K4">
-        <v>0.09</v>
+        <v>2.4</v>
       </c>
       <c r="L4">
-        <v>0.01</v>
+        <v>1.2</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2536,54 +2699,54 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>95.3</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>14.2</v>
+      </c>
+      <c r="C5">
+        <v>14.9</v>
+      </c>
+      <c r="D5">
+        <v>14.8</v>
+      </c>
+      <c r="E5">
+        <v>13.5</v>
+      </c>
+      <c r="F5">
+        <v>10.2</v>
+      </c>
+      <c r="G5">
+        <v>8.4</v>
+      </c>
+      <c r="H5">
+        <v>7.4</v>
+      </c>
+      <c r="I5">
+        <v>5.6</v>
+      </c>
+      <c r="J5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>6.16</v>
-      </c>
-      <c r="C5">
-        <v>9.379999999999999</v>
-      </c>
-      <c r="D5">
-        <v>18.12</v>
-      </c>
-      <c r="E5">
-        <v>20.08</v>
-      </c>
-      <c r="F5">
-        <v>18.29</v>
-      </c>
-      <c r="G5">
-        <v>13.27</v>
-      </c>
-      <c r="H5">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="I5">
-        <v>4.17</v>
-      </c>
-      <c r="J5">
-        <v>1.59</v>
-      </c>
       <c r="K5">
-        <v>0.61</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>0.17</v>
+        <v>2.7</v>
       </c>
       <c r="M5">
-        <v>0.02</v>
+        <v>0.9</v>
       </c>
       <c r="N5">
-        <v>0.02</v>
+        <v>0.7</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2598,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>85.3</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -2606,49 +2769,49 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>2.36</v>
+        <v>2.6</v>
       </c>
       <c r="C6">
-        <v>5.510000000000001</v>
+        <v>5.7</v>
       </c>
       <c r="D6">
-        <v>12.48</v>
+        <v>6.9</v>
       </c>
       <c r="E6">
-        <v>16.74</v>
+        <v>11.3</v>
       </c>
       <c r="F6">
-        <v>18.12</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>16.87</v>
+        <v>13.4</v>
       </c>
       <c r="H6">
-        <v>12.73</v>
+        <v>13.8</v>
       </c>
       <c r="I6">
-        <v>7.630000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="J6">
-        <v>4.43</v>
+        <v>9.9</v>
       </c>
       <c r="K6">
-        <v>2.05</v>
+        <v>4.7</v>
       </c>
       <c r="L6">
-        <v>0.8</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
+        <v>1.1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
         <v>0.2</v>
       </c>
-      <c r="N6">
-        <v>0.06999999999999999</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2660,60 +2823,60 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>72.08000000000001</v>
+        <v>54.9</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.8200000000000001</v>
+        <v>4.3</v>
       </c>
       <c r="C7">
-        <v>2.83</v>
+        <v>6.5</v>
       </c>
       <c r="D7">
-        <v>7.380000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E7">
-        <v>12.22</v>
+        <v>10.3</v>
       </c>
       <c r="F7">
-        <v>16.3</v>
+        <v>9.4</v>
       </c>
       <c r="G7">
-        <v>17.72</v>
+        <v>12.4</v>
       </c>
       <c r="H7">
-        <v>15.33</v>
+        <v>11.1</v>
       </c>
       <c r="I7">
-        <v>11.67</v>
+        <v>9.4</v>
       </c>
       <c r="J7">
-        <v>7.71</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K7">
-        <v>4.43</v>
+        <v>7.9</v>
       </c>
       <c r="L7">
-        <v>2.38</v>
+        <v>4.1</v>
       </c>
       <c r="M7">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="N7">
-        <v>0.26</v>
+        <v>1.6</v>
       </c>
       <c r="O7">
-        <v>0.14</v>
+        <v>1.5</v>
       </c>
       <c r="P7">
-        <v>0.01</v>
+        <v>0.4</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2722,184 +2885,184 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>57.27</v>
+        <v>51.6</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.17</v>
+        <v>4.5</v>
       </c>
       <c r="C8">
-        <v>1.29</v>
+        <v>6.8</v>
       </c>
       <c r="D8">
-        <v>3.79</v>
+        <v>8.4</v>
       </c>
       <c r="E8">
-        <v>8.559999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="F8">
-        <v>12.25</v>
+        <v>7.4</v>
       </c>
       <c r="G8">
-        <v>14.92</v>
+        <v>12.3</v>
       </c>
       <c r="H8">
-        <v>16.32</v>
+        <v>9</v>
       </c>
       <c r="I8">
-        <v>14.23</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J8">
-        <v>11.98</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K8">
-        <v>8.08</v>
+        <v>6.3</v>
       </c>
       <c r="L8">
-        <v>4.53</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>2.36</v>
+        <v>4.1</v>
       </c>
       <c r="N8">
-        <v>1.03</v>
+        <v>4</v>
       </c>
       <c r="O8">
-        <v>0.41</v>
+        <v>2</v>
       </c>
       <c r="P8">
-        <v>0.06999999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0.01</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>40.98</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1.5</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>0.03</v>
-      </c>
-      <c r="C9">
-        <v>0.19</v>
-      </c>
       <c r="D9">
-        <v>0.8999999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="E9">
-        <v>2.29</v>
+        <v>5.6</v>
       </c>
       <c r="F9">
-        <v>5.34</v>
+        <v>9.4</v>
       </c>
       <c r="G9">
-        <v>9.77</v>
+        <v>8.6</v>
       </c>
       <c r="H9">
-        <v>15.01</v>
+        <v>11.3</v>
       </c>
       <c r="I9">
-        <v>17.31</v>
+        <v>12.6</v>
       </c>
       <c r="J9">
-        <v>16.31</v>
+        <v>10.2</v>
       </c>
       <c r="K9">
-        <v>13.98</v>
+        <v>9.6</v>
       </c>
       <c r="L9">
-        <v>9.379999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="M9">
-        <v>5.45</v>
+        <v>8.1</v>
       </c>
       <c r="N9">
-        <v>2.58</v>
+        <v>5.3</v>
       </c>
       <c r="O9">
-        <v>1.15</v>
+        <v>1.8</v>
       </c>
       <c r="P9">
-        <v>0.23</v>
+        <v>0.4</v>
       </c>
       <c r="Q9">
-        <v>0.06</v>
+        <v>0.3</v>
       </c>
       <c r="R9">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>18.52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>0.01</v>
+        <v>1.2</v>
       </c>
       <c r="C10">
-        <v>0.23</v>
+        <v>3.1</v>
       </c>
       <c r="D10">
-        <v>0.72</v>
+        <v>4.1</v>
       </c>
       <c r="E10">
-        <v>2.38</v>
+        <v>5.4</v>
       </c>
       <c r="F10">
-        <v>5.04</v>
+        <v>7.3</v>
       </c>
       <c r="G10">
-        <v>8.890000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="H10">
-        <v>12.99</v>
+        <v>9.5</v>
       </c>
       <c r="I10">
-        <v>16.48</v>
+        <v>11.5</v>
       </c>
       <c r="J10">
-        <v>17.79</v>
+        <v>12.9</v>
       </c>
       <c r="K10">
-        <v>14.45</v>
+        <v>12.1</v>
       </c>
       <c r="L10">
-        <v>10.71</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M10">
-        <v>5.55</v>
+        <v>7.1</v>
       </c>
       <c r="N10">
-        <v>2.91</v>
+        <v>3.8</v>
       </c>
       <c r="O10">
-        <v>1.28</v>
+        <v>1.7</v>
       </c>
       <c r="P10">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="Q10">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -2908,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>17.27</v>
+        <v>30.9</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -2916,309 +3079,309 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>0.06999999999999999</v>
+        <v>2.4</v>
       </c>
       <c r="D11">
-        <v>0.25</v>
+        <v>3.5</v>
       </c>
       <c r="E11">
-        <v>0.75</v>
+        <v>4.7</v>
       </c>
       <c r="F11">
-        <v>2.57</v>
+        <v>9.5</v>
       </c>
       <c r="G11">
-        <v>4.89</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H11">
-        <v>7.95</v>
+        <v>10.1</v>
       </c>
       <c r="I11">
-        <v>11.64</v>
+        <v>10.2</v>
       </c>
       <c r="J11">
-        <v>14.03</v>
+        <v>11.1</v>
       </c>
       <c r="K11">
-        <v>15.26</v>
+        <v>12.3</v>
       </c>
       <c r="L11">
-        <v>15.04</v>
+        <v>10.9</v>
       </c>
       <c r="M11">
-        <v>11.84</v>
+        <v>9</v>
       </c>
       <c r="N11">
-        <v>8.4</v>
+        <v>4.2</v>
       </c>
       <c r="O11">
-        <v>4.46</v>
+        <v>1.9</v>
       </c>
       <c r="P11">
-        <v>2.04</v>
+        <v>0.7</v>
       </c>
       <c r="Q11">
-        <v>0.66</v>
+        <v>0.1</v>
       </c>
       <c r="R11">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>8.530000000000001</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D12">
-        <v>0.11</v>
+        <v>0.3</v>
       </c>
       <c r="E12">
-        <v>0.28</v>
+        <v>0.6</v>
       </c>
       <c r="F12">
-        <v>0.9900000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="G12">
-        <v>2.37</v>
+        <v>3</v>
       </c>
       <c r="H12">
-        <v>4.53</v>
+        <v>4.5</v>
       </c>
       <c r="I12">
-        <v>7.81</v>
+        <v>9.6</v>
       </c>
       <c r="J12">
-        <v>11.46</v>
+        <v>10.8</v>
       </c>
       <c r="K12">
-        <v>14.72</v>
+        <v>12.8</v>
       </c>
       <c r="L12">
-        <v>15.85</v>
+        <v>16.1</v>
       </c>
       <c r="M12">
-        <v>15.43</v>
+        <v>14.3</v>
       </c>
       <c r="N12">
-        <v>12.23</v>
+        <v>11.2</v>
       </c>
       <c r="O12">
-        <v>7.86</v>
+        <v>7.7</v>
       </c>
       <c r="P12">
-        <v>4.26</v>
+        <v>5.3</v>
       </c>
       <c r="Q12">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="R12">
-        <v>0.38</v>
+        <v>0.1</v>
       </c>
       <c r="S12">
-        <v>0.06999999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="T12">
-        <v>3.75</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D13">
-        <v>0.03</v>
+        <v>0.3</v>
       </c>
       <c r="E13">
-        <v>0.06999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="F13">
-        <v>0.22</v>
+        <v>1.4</v>
       </c>
       <c r="G13">
-        <v>0.84</v>
+        <v>2.8</v>
       </c>
       <c r="H13">
-        <v>2.18</v>
+        <v>5.5</v>
       </c>
       <c r="I13">
-        <v>4.53</v>
+        <v>7.2</v>
       </c>
       <c r="J13">
-        <v>7.580000000000001</v>
+        <v>12.2</v>
       </c>
       <c r="K13">
-        <v>12.16</v>
+        <v>16.2</v>
       </c>
       <c r="L13">
-        <v>15.32</v>
+        <v>16.9</v>
       </c>
       <c r="M13">
-        <v>16.84</v>
+        <v>16</v>
       </c>
       <c r="N13">
-        <v>15.01</v>
+        <v>11.2</v>
       </c>
       <c r="O13">
-        <v>12.09</v>
+        <v>5.7</v>
       </c>
       <c r="P13">
-        <v>7.61</v>
+        <v>2.6</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="R13">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>1.16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E14">
-        <v>0.03</v>
+        <v>0.4</v>
       </c>
       <c r="F14">
-        <v>0.1</v>
+        <v>1.1</v>
       </c>
       <c r="G14">
-        <v>0.31</v>
+        <v>2.2</v>
       </c>
       <c r="H14">
-        <v>0.8099999999999999</v>
+        <v>1.8</v>
       </c>
       <c r="I14">
-        <v>2.25</v>
+        <v>4.4</v>
       </c>
       <c r="J14">
-        <v>4.41</v>
+        <v>3.9</v>
       </c>
       <c r="K14">
-        <v>7.95</v>
+        <v>6.3</v>
       </c>
       <c r="L14">
-        <v>11.97</v>
+        <v>7.7</v>
       </c>
       <c r="M14">
-        <v>16.46</v>
+        <v>14.2</v>
       </c>
       <c r="N14">
-        <v>17.4</v>
+        <v>17.9</v>
       </c>
       <c r="O14">
-        <v>15.25</v>
+        <v>14.2</v>
       </c>
       <c r="P14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Q14">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="R14">
-        <v>2.76</v>
+        <v>3.6</v>
       </c>
       <c r="S14">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="T14">
-        <v>0.44</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>0.2</v>
+      </c>
+      <c r="H15">
+        <v>0.4</v>
+      </c>
+      <c r="I15">
+        <v>0.8</v>
+      </c>
+      <c r="J15">
+        <v>1.1</v>
+      </c>
+      <c r="K15">
+        <v>2.5</v>
+      </c>
+      <c r="L15">
+        <v>4.4</v>
+      </c>
+      <c r="M15">
+        <v>7.8</v>
+      </c>
+      <c r="N15">
         <v>11</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0.01</v>
-      </c>
-      <c r="G15">
-        <v>0.06999999999999999</v>
-      </c>
-      <c r="H15">
-        <v>0.33</v>
-      </c>
-      <c r="I15">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="J15">
-        <v>1.72</v>
-      </c>
-      <c r="K15">
-        <v>4.06</v>
-      </c>
-      <c r="L15">
-        <v>8.459999999999999</v>
-      </c>
-      <c r="M15">
-        <v>12.8</v>
-      </c>
-      <c r="N15">
-        <v>16.62</v>
-      </c>
       <c r="O15">
-        <v>18.12</v>
+        <v>17.7</v>
       </c>
       <c r="P15">
-        <v>16.17</v>
+        <v>22.7</v>
       </c>
       <c r="Q15">
-        <v>12.43</v>
+        <v>20.2</v>
       </c>
       <c r="R15">
-        <v>5.86</v>
+        <v>10</v>
       </c>
       <c r="S15">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="T15">
-        <v>0.07999999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -3241,51 +3404,51 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="H16">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
       <c r="J16">
-        <v>0.52</v>
+        <v>0.1</v>
       </c>
       <c r="K16">
-        <v>1.76</v>
+        <v>0.6</v>
       </c>
       <c r="L16">
-        <v>4.03</v>
+        <v>1.8</v>
       </c>
       <c r="M16">
-        <v>8.630000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="N16">
-        <v>13.63</v>
+        <v>6.2</v>
       </c>
       <c r="O16">
-        <v>18.08</v>
+        <v>17.3</v>
       </c>
       <c r="P16">
-        <v>20.28</v>
+        <v>22.8</v>
       </c>
       <c r="Q16">
-        <v>17.43</v>
+        <v>32</v>
       </c>
       <c r="R16">
-        <v>8.9</v>
+        <v>14</v>
       </c>
       <c r="S16">
-        <v>6.5</v>
+        <v>1.9</v>
       </c>
       <c r="T16">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3297,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -3306,48 +3469,48 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I17">
-        <v>0.02</v>
+        <v>0.6</v>
       </c>
       <c r="J17">
-        <v>0.06</v>
+        <v>0.7</v>
       </c>
       <c r="K17">
-        <v>0.37</v>
+        <v>1.9</v>
       </c>
       <c r="L17">
-        <v>1.14</v>
+        <v>3.9</v>
       </c>
       <c r="M17">
-        <v>2.97</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="N17">
-        <v>7.59</v>
+        <v>20.4</v>
       </c>
       <c r="O17">
-        <v>14.5</v>
+        <v>25.6</v>
       </c>
       <c r="P17">
-        <v>20.84</v>
+        <v>22.2</v>
       </c>
       <c r="Q17">
-        <v>23.17</v>
+        <v>12.2</v>
       </c>
       <c r="R17">
-        <v>12.76</v>
+        <v>2.6</v>
       </c>
       <c r="S17">
-        <v>16.58</v>
+        <v>0.3</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3374,34 +3537,34 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.65</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>2.25</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>6.660000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>15.5</v>
+        <v>0.5</v>
       </c>
       <c r="Q18">
-        <v>22.46</v>
+        <v>1.9</v>
       </c>
       <c r="R18">
-        <v>19.82</v>
+        <v>11.1</v>
       </c>
       <c r="S18">
-        <v>32.42</v>
+        <v>86.5</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -3409,61 +3572,61 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0.1</v>
+      </c>
+      <c r="L19">
+        <v>0.1</v>
+      </c>
+      <c r="M19">
+        <v>0.2</v>
+      </c>
+      <c r="N19">
+        <v>0.8</v>
+      </c>
+      <c r="O19">
         <v>2</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
       <c r="P19">
-        <v>0.54</v>
+        <v>7.5</v>
       </c>
       <c r="Q19">
-        <v>10.5</v>
+        <v>20.9</v>
       </c>
       <c r="R19">
-        <v>48.09</v>
+        <v>58.2</v>
       </c>
       <c r="S19">
-        <v>40.87</v>
+        <v>10.2</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -3475,6 +3638,513 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>118.5</v>
+      </c>
+      <c r="E2">
+        <v>237</v>
+      </c>
+      <c r="F2">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>118.01</v>
+      </c>
+      <c r="E3">
+        <v>236.02</v>
+      </c>
+      <c r="F3">
+        <v>85.8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>114.61</v>
+      </c>
+      <c r="E4">
+        <v>229.22</v>
+      </c>
+      <c r="F4">
+        <v>81.69999999999999</v>
+      </c>
+      <c r="G4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <v>124.1</v>
+      </c>
+      <c r="E5">
+        <v>248.2</v>
+      </c>
+      <c r="F5">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>112.23</v>
+      </c>
+      <c r="E6">
+        <v>224.46</v>
+      </c>
+      <c r="F6">
+        <v>54.90000000000001</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>113.98</v>
+      </c>
+      <c r="E7">
+        <v>227.96</v>
+      </c>
+      <c r="F7">
+        <v>51.6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>116.54</v>
+      </c>
+      <c r="E8">
+        <v>233.08</v>
+      </c>
+      <c r="F8">
+        <v>47.2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>106.66</v>
+      </c>
+      <c r="E9">
+        <v>213.32</v>
+      </c>
+      <c r="F9">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>104.84</v>
+      </c>
+      <c r="E10">
+        <v>209.68</v>
+      </c>
+      <c r="F10">
+        <v>30.9</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>104.39</v>
+      </c>
+      <c r="E11">
+        <v>208.78</v>
+      </c>
+      <c r="F11">
+        <v>29.5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>107.3</v>
+      </c>
+      <c r="E12">
+        <v>214.6</v>
+      </c>
+      <c r="F12">
+        <v>5.7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>106.21</v>
+      </c>
+      <c r="E13">
+        <v>212.42</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14">
+        <v>96.25999999999999</v>
+      </c>
+      <c r="E14">
+        <v>192.52</v>
+      </c>
+      <c r="F14">
+        <v>4.2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15">
+        <v>0.5</v>
+      </c>
+      <c r="D15">
+        <v>91.89</v>
+      </c>
+      <c r="E15">
+        <v>183.78</v>
+      </c>
+      <c r="F15">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="G15" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>92.21000000000001</v>
+      </c>
+      <c r="E16">
+        <v>184.42</v>
+      </c>
+      <c r="F16">
+        <v>0.1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>97.53999999999999</v>
+      </c>
+      <c r="E17">
+        <v>195.08</v>
+      </c>
+      <c r="F17">
+        <v>0.1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>72.42999999999999</v>
+      </c>
+      <c r="E18">
+        <v>144.86</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>87.19999999999999</v>
+      </c>
+      <c r="E19">
+        <v>174.4</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E19"/>
   <sheetViews>
@@ -3484,16 +4154,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3501,16 +4171,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3518,16 +4188,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3535,16 +4205,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3552,16 +4222,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3572,13 +4242,13 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3586,16 +4256,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3603,16 +4273,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3620,16 +4290,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3637,16 +4307,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3654,16 +4324,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3671,16 +4341,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3688,16 +4358,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="E13">
-        <v>0</v>
+      <c r="E13" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3705,16 +4375,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3722,16 +4392,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>-5</v>
+        <v>-6</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
       </c>
-      <c r="E15">
-        <v>0</v>
+      <c r="E15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3742,13 +4412,13 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
       </c>
-      <c r="E16">
-        <v>0</v>
+      <c r="E16" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3756,16 +4426,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>-6</v>
+        <v>-8</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="E17">
-        <v>0</v>
+      <c r="E17" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3773,16 +4443,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
       </c>
-      <c r="E18">
-        <v>0</v>
+      <c r="E18" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3790,235 +4460,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>-7</v>
+        <v>-13</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="B1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>-1</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>-5</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>-5</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
-        <v>-5</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>-6</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18">
-        <v>-6</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>-7</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4028,33 +4479,465 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>-6</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>-5</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>-3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>-3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>-4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>-5</v>
+      </c>
+      <c r="C15">
+        <v>-6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>-5</v>
+      </c>
+      <c r="C16">
+        <v>-7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>-7</v>
+      </c>
+      <c r="C17">
+        <v>-8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>-9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>-6</v>
+      </c>
+      <c r="C19">
+        <v>-13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>-7</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>6</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>-13</v>
+      </c>
+      <c r="F6">
+        <v>-9</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>-3</v>
+      </c>
+      <c r="F7">
+        <v>-6</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Girl's Room 💞🏈 2025.xlsx
+++ b/leagues/The Girl's Room 💞🏈 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="127">
   <si>
     <t>Tush Push Director 🍑</t>
   </si>
@@ -197,22 +197,22 @@
     <t>0-2</t>
   </si>
   <si>
-    <t>11.3-3.7</t>
+    <t>11.2-3.8</t>
   </si>
   <si>
     <t>10.8-4.2</t>
   </si>
   <si>
-    <t>10.6-4.4</t>
-  </si>
-  <si>
-    <t>9.9-5.1</t>
-  </si>
-  <si>
-    <t>9.3-5.7</t>
-  </si>
-  <si>
-    <t>9.1-5.9</t>
+    <t>10.7-4.3</t>
+  </si>
+  <si>
+    <t>9.8-5.2</t>
+  </si>
+  <si>
+    <t>9.0-6.0</t>
+  </si>
+  <si>
+    <t>9.2-5.8</t>
   </si>
   <si>
     <t>8.7-6.3</t>
@@ -221,28 +221,28 @@
     <t>8.5-6.5</t>
   </si>
   <si>
+    <t>7.2-7.8</t>
+  </si>
+  <si>
     <t>6.8-8.2</t>
   </si>
   <si>
-    <t>7.1-7.9</t>
-  </si>
-  <si>
     <t>6.2-8.8</t>
   </si>
   <si>
     <t>5.0-10.0</t>
   </si>
   <si>
-    <t>4.3-10.7</t>
-  </si>
-  <si>
-    <t>5.2-9.8</t>
+    <t>5.1-9.9</t>
   </si>
   <si>
     <t>1.3-13.7</t>
   </si>
   <si>
-    <t>2.9-12.2</t>
+    <t>4.5-10.5</t>
+  </si>
+  <si>
+    <t>2.8-12.2</t>
   </si>
   <si>
     <t>11-4</t>
@@ -260,28 +260,79 @@
     <t>7-7</t>
   </si>
   <si>
-    <t>8-6</t>
-  </si>
-  <si>
     <t>6-9</t>
   </si>
   <si>
     <t>5-10</t>
   </si>
   <si>
-    <t>4-11</t>
-  </si>
-  <si>
     <t>1-14</t>
   </si>
   <si>
-    <t>3-12</t>
+    <t>2-13</t>
+  </si>
+  <si>
+    <t>Owners</t>
   </si>
   <si>
     <t>Louie Power Index (LPI)</t>
   </si>
   <si>
     <t>Change From Last Week</t>
+  </si>
+  <si>
+    <t>Shae Marx</t>
+  </si>
+  <si>
+    <t>Lily Lamb</t>
+  </si>
+  <si>
+    <t>Hillary Dale</t>
+  </si>
+  <si>
+    <t>Malini Ragoopath</t>
+  </si>
+  <si>
+    <t>Brianna Goebel</t>
+  </si>
+  <si>
+    <t>Kiana McIntosh</t>
+  </si>
+  <si>
+    <t>Swathi Veeravalli</t>
+  </si>
+  <si>
+    <t>Sumita Gangwani</t>
+  </si>
+  <si>
+    <t>Hannah Miller</t>
+  </si>
+  <si>
+    <t>Allie Kardon</t>
+  </si>
+  <si>
+    <t>Rebecca Schneider</t>
+  </si>
+  <si>
+    <t>Emily Carey</t>
+  </si>
+  <si>
+    <t>Amanda Pasquale</t>
+  </si>
+  <si>
+    <t>Nikki Papalia</t>
+  </si>
+  <si>
+    <t>Grace Stockbower</t>
+  </si>
+  <si>
+    <t>Grace Schiavone</t>
+  </si>
+  <si>
+    <t>Faith Pon</t>
+  </si>
+  <si>
+    <t>Nicole Coppins</t>
   </si>
   <si>
     <t>↑9</t>
@@ -2521,31 +2572,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>32.7</v>
+        <v>27.6</v>
       </c>
       <c r="C2">
-        <v>22.9</v>
+        <v>27.7</v>
       </c>
       <c r="D2">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>10.9</v>
+        <v>11.8</v>
       </c>
       <c r="F2">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="G2">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="H2">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="J2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="K2">
         <v>0.5</v>
@@ -2554,7 +2605,7 @@
         <v>0.2</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2575,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2583,49 +2634,49 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>23.1</v>
+        <v>25.9</v>
       </c>
       <c r="C3">
-        <v>16.4</v>
+        <v>16.5</v>
       </c>
       <c r="D3">
-        <v>16.9</v>
+        <v>14.9</v>
       </c>
       <c r="E3">
-        <v>14.4</v>
+        <v>11.3</v>
       </c>
       <c r="F3">
-        <v>8.800000000000001</v>
+        <v>10.9</v>
       </c>
       <c r="G3">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="H3">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J3">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K3">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L3">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="M3">
         <v>0.7</v>
       </c>
       <c r="N3">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="O3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2637,7 +2688,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>85.8</v>
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2645,47 +2696,47 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>15.1</v>
+        <v>15.8</v>
       </c>
       <c r="C4">
         <v>17.8</v>
       </c>
       <c r="D4">
-        <v>14.5</v>
+        <v>16.6</v>
       </c>
       <c r="E4">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="F4">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="G4">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H4">
-        <v>7.2</v>
+        <v>5.3</v>
       </c>
       <c r="I4">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="K4">
-        <v>2.4</v>
+        <v>1.1</v>
       </c>
       <c r="L4">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="M4">
+        <v>0.3</v>
+      </c>
+      <c r="N4">
         <v>0.4</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>0.2</v>
       </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
       <c r="P4">
         <v>0</v>
       </c>
@@ -2699,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>81.7</v>
+        <v>85.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2707,49 +2758,49 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="C5">
-        <v>14.9</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>14.8</v>
+        <v>14.4</v>
       </c>
       <c r="E5">
-        <v>13.5</v>
+        <v>11.1</v>
       </c>
       <c r="F5">
-        <v>10.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G5">
-        <v>8.4</v>
+        <v>9.4</v>
       </c>
       <c r="H5">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="I5">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L5">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="M5">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="N5">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="O5">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -2761,57 +2812,57 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>76</v>
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>2.6</v>
+        <v>4.6</v>
       </c>
       <c r="C6">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="D6">
-        <v>6.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E6">
-        <v>11.3</v>
+        <v>10.4</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>11.9</v>
       </c>
       <c r="G6">
-        <v>13.4</v>
+        <v>11.5</v>
       </c>
       <c r="H6">
-        <v>13.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I6">
-        <v>10.9</v>
+        <v>10.1</v>
       </c>
       <c r="J6">
-        <v>9.9</v>
+        <v>8</v>
       </c>
       <c r="K6">
-        <v>4.7</v>
+        <v>6.1</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>5.9</v>
       </c>
       <c r="M6">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="N6">
+        <v>1.5</v>
+      </c>
+      <c r="O6">
         <v>1</v>
       </c>
-      <c r="O6">
-        <v>0.2</v>
-      </c>
       <c r="P6">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2823,57 +2874,57 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>54.9</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>4.3</v>
+        <v>3.1</v>
       </c>
       <c r="C7">
-        <v>6.5</v>
+        <v>4.7</v>
       </c>
       <c r="D7">
-        <v>8.699999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="E7">
-        <v>10.3</v>
+        <v>11.5</v>
       </c>
       <c r="F7">
-        <v>9.4</v>
+        <v>12.6</v>
       </c>
       <c r="G7">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="H7">
-        <v>11.1</v>
+        <v>14.2</v>
       </c>
       <c r="I7">
-        <v>9.4</v>
+        <v>11.7</v>
       </c>
       <c r="J7">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K7">
-        <v>7.9</v>
+        <v>6.2</v>
       </c>
       <c r="L7">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="M7">
-        <v>3.6</v>
+        <v>1.7</v>
       </c>
       <c r="N7">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="O7">
-        <v>1.5</v>
+        <v>0.3</v>
       </c>
       <c r="P7">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="Q7">
         <v>0.1</v>
@@ -2885,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>51.6</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -2893,61 +2944,61 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="C8">
-        <v>6.8</v>
+        <v>5.2</v>
       </c>
       <c r="D8">
-        <v>8.4</v>
+        <v>6.5</v>
       </c>
       <c r="E8">
-        <v>7.8</v>
+        <v>9.4</v>
       </c>
       <c r="F8">
-        <v>7.4</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G8">
-        <v>12.3</v>
+        <v>11.1</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I8">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="J8">
-        <v>8.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K8">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>6.1</v>
       </c>
       <c r="M8">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="N8">
-        <v>4</v>
+        <v>3.3</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="P8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="R8">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>47.2</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -2955,52 +3006,52 @@
         <v>6</v>
       </c>
       <c r="B9">
-        <v>1.5</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D9">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>5.6</v>
+        <v>6.1</v>
       </c>
       <c r="F9">
-        <v>9.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G9">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="H9">
-        <v>11.3</v>
+        <v>10.5</v>
       </c>
       <c r="I9">
-        <v>12.6</v>
+        <v>10.4</v>
       </c>
       <c r="J9">
-        <v>10.2</v>
+        <v>12.3</v>
       </c>
       <c r="K9">
-        <v>9.6</v>
+        <v>10.7</v>
       </c>
       <c r="L9">
-        <v>8.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="M9">
-        <v>8.1</v>
+        <v>7.9</v>
       </c>
       <c r="N9">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="O9">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="P9">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="Q9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -3009,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>32</v>
+        <v>32.1</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -3017,49 +3068,49 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="C10">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="D10">
         <v>4.1</v>
       </c>
       <c r="E10">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="F10">
-        <v>7.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G10">
-        <v>9.800000000000001</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H10">
-        <v>9.5</v>
+        <v>11.8</v>
       </c>
       <c r="I10">
-        <v>11.5</v>
+        <v>10.4</v>
       </c>
       <c r="J10">
-        <v>12.9</v>
+        <v>11.9</v>
       </c>
       <c r="K10">
-        <v>12.1</v>
+        <v>10.8</v>
       </c>
       <c r="L10">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="M10">
-        <v>7.1</v>
+        <v>8.1</v>
       </c>
       <c r="N10">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="O10">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="P10">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3071,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>30.9</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -3079,185 +3130,185 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="C11">
-        <v>2.4</v>
+        <v>1.8</v>
       </c>
       <c r="D11">
-        <v>3.5</v>
+        <v>4.9</v>
       </c>
       <c r="E11">
-        <v>4.7</v>
+        <v>4.4</v>
       </c>
       <c r="F11">
-        <v>9.5</v>
+        <v>5.9</v>
       </c>
       <c r="G11">
-        <v>8.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="H11">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="I11">
-        <v>10.2</v>
+        <v>10.8</v>
       </c>
       <c r="J11">
-        <v>11.1</v>
+        <v>11.6</v>
       </c>
       <c r="K11">
-        <v>12.3</v>
+        <v>12.7</v>
       </c>
       <c r="L11">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N11">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="O11">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="P11">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>0.1</v>
       </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>29.5</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
+        <v>0.2</v>
+      </c>
+      <c r="D12">
+        <v>0.8</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0.1</v>
-      </c>
-      <c r="D12">
+      <c r="F12">
+        <v>2.4</v>
+      </c>
+      <c r="G12">
+        <v>3.4</v>
+      </c>
+      <c r="H12">
+        <v>5.4</v>
+      </c>
+      <c r="I12">
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>10.9</v>
+      </c>
+      <c r="K12">
+        <v>16.4</v>
+      </c>
+      <c r="L12">
+        <v>16</v>
+      </c>
+      <c r="M12">
+        <v>15.3</v>
+      </c>
+      <c r="N12">
+        <v>11.3</v>
+      </c>
+      <c r="O12">
+        <v>5.8</v>
+      </c>
+      <c r="P12">
+        <v>2.5</v>
+      </c>
+      <c r="Q12">
+        <v>1.2</v>
+      </c>
+      <c r="R12">
         <v>0.3</v>
       </c>
-      <c r="E12">
-        <v>0.6</v>
-      </c>
-      <c r="F12">
-        <v>1.7</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>4.5</v>
-      </c>
-      <c r="I12">
-        <v>9.6</v>
-      </c>
-      <c r="J12">
-        <v>10.8</v>
-      </c>
-      <c r="K12">
-        <v>12.8</v>
-      </c>
-      <c r="L12">
-        <v>16.1</v>
-      </c>
-      <c r="M12">
-        <v>14.3</v>
-      </c>
-      <c r="N12">
-        <v>11.2</v>
-      </c>
-      <c r="O12">
-        <v>7.7</v>
-      </c>
-      <c r="P12">
-        <v>5.3</v>
-      </c>
-      <c r="Q12">
-        <v>1.8</v>
-      </c>
-      <c r="R12">
-        <v>0.1</v>
-      </c>
       <c r="S12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>5.7</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="F13">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="G13">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="H13">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="I13">
-        <v>7.2</v>
+        <v>8.4</v>
       </c>
       <c r="J13">
-        <v>12.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K13">
-        <v>16.2</v>
+        <v>11.9</v>
       </c>
       <c r="L13">
-        <v>16.9</v>
+        <v>14.2</v>
       </c>
       <c r="M13">
-        <v>16</v>
+        <v>16.6</v>
       </c>
       <c r="N13">
-        <v>11.2</v>
+        <v>11.6</v>
       </c>
       <c r="O13">
-        <v>5.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P13">
-        <v>2.6</v>
+        <v>5.8</v>
       </c>
       <c r="Q13">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>5</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -3265,61 +3316,61 @@
         <v>4</v>
       </c>
       <c r="B14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C14">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="F14">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="G14">
         <v>2.2</v>
       </c>
       <c r="H14">
-        <v>1.8</v>
+        <v>3.1</v>
       </c>
       <c r="I14">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="J14">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="K14">
-        <v>6.3</v>
+        <v>6.9</v>
       </c>
       <c r="L14">
-        <v>7.7</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M14">
-        <v>14.2</v>
+        <v>11.4</v>
       </c>
       <c r="N14">
-        <v>17.9</v>
+        <v>17.2</v>
       </c>
       <c r="O14">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="P14">
         <v>13</v>
       </c>
       <c r="Q14">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="R14">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="S14">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="T14">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -3336,57 +3387,57 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F15">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G15">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="H15">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="I15">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="J15">
+        <v>1.9</v>
+      </c>
+      <c r="K15">
+        <v>1.9</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15">
+        <v>6.6</v>
+      </c>
+      <c r="N15">
+        <v>13.4</v>
+      </c>
+      <c r="O15">
+        <v>17.5</v>
+      </c>
+      <c r="P15">
+        <v>20.1</v>
+      </c>
+      <c r="Q15">
+        <v>20.8</v>
+      </c>
+      <c r="R15">
+        <v>9.9</v>
+      </c>
+      <c r="S15">
         <v>1.1</v>
       </c>
-      <c r="K15">
-        <v>2.5</v>
-      </c>
-      <c r="L15">
-        <v>4.4</v>
-      </c>
-      <c r="M15">
-        <v>7.8</v>
-      </c>
-      <c r="N15">
-        <v>11</v>
-      </c>
-      <c r="O15">
-        <v>17.7</v>
-      </c>
-      <c r="P15">
-        <v>22.7</v>
-      </c>
-      <c r="Q15">
-        <v>20.2</v>
-      </c>
-      <c r="R15">
-        <v>10</v>
-      </c>
-      <c r="S15">
-        <v>0.7</v>
-      </c>
       <c r="T15">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3401,54 +3452,54 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G16">
+        <v>0.2</v>
+      </c>
+      <c r="H16">
         <v>0.1</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
       <c r="I16">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="L16">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="M16">
-        <v>3.1</v>
+        <v>7.8</v>
       </c>
       <c r="N16">
-        <v>6.2</v>
+        <v>18.6</v>
       </c>
       <c r="O16">
-        <v>17.3</v>
+        <v>28.1</v>
       </c>
       <c r="P16">
-        <v>22.8</v>
+        <v>21.6</v>
       </c>
       <c r="Q16">
-        <v>32</v>
+        <v>14.2</v>
       </c>
       <c r="R16">
-        <v>14</v>
+        <v>2.4</v>
       </c>
       <c r="S16">
-        <v>1.9</v>
+        <v>0.3</v>
       </c>
       <c r="T16">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3460,111 +3511,111 @@
         <v>0</v>
       </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>0.1</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0.2</v>
-      </c>
-      <c r="I17">
-        <v>0.6</v>
-      </c>
-      <c r="J17">
-        <v>0.7</v>
-      </c>
-      <c r="K17">
-        <v>1.9</v>
-      </c>
-      <c r="L17">
-        <v>3.9</v>
-      </c>
-      <c r="M17">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="N17">
-        <v>20.4</v>
-      </c>
-      <c r="O17">
-        <v>25.6</v>
-      </c>
       <c r="P17">
-        <v>22.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q17">
-        <v>12.2</v>
+        <v>2.3</v>
       </c>
       <c r="R17">
-        <v>2.6</v>
+        <v>12.3</v>
       </c>
       <c r="S17">
-        <v>0.3</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="T17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0.2</v>
+      </c>
+      <c r="I18">
+        <v>0.6</v>
+      </c>
+      <c r="J18">
+        <v>0.9</v>
+      </c>
+      <c r="K18">
+        <v>1.6</v>
+      </c>
+      <c r="L18">
+        <v>2.3</v>
+      </c>
+      <c r="M18">
+        <v>3.6</v>
+      </c>
+      <c r="N18">
+        <v>6.9</v>
+      </c>
+      <c r="O18">
+        <v>14.2</v>
+      </c>
+      <c r="P18">
+        <v>24.2</v>
+      </c>
+      <c r="Q18">
+        <v>31.7</v>
+      </c>
+      <c r="R18">
+        <v>11.8</v>
+      </c>
+      <c r="S18">
         <v>2</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0.5</v>
-      </c>
-      <c r="Q18">
-        <v>1.9</v>
-      </c>
-      <c r="R18">
-        <v>11.1</v>
-      </c>
-      <c r="S18">
-        <v>86.5</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -3605,28 +3656,28 @@
         <v>0.1</v>
       </c>
       <c r="L19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M19">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="P19">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="Q19">
-        <v>20.9</v>
+        <v>19</v>
       </c>
       <c r="R19">
-        <v>58.2</v>
+        <v>58.8</v>
       </c>
       <c r="S19">
-        <v>10.2</v>
+        <v>11.1</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -3688,7 +3739,7 @@
         <v>237</v>
       </c>
       <c r="F2">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="G2" t="s">
         <v>58</v>
@@ -3714,7 +3765,7 @@
         <v>236.02</v>
       </c>
       <c r="F3">
-        <v>85.8</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="G3" t="s">
         <v>59</v>
@@ -3740,7 +3791,7 @@
         <v>229.22</v>
       </c>
       <c r="F4">
-        <v>81.69999999999999</v>
+        <v>85.39999999999999</v>
       </c>
       <c r="G4" t="s">
         <v>60</v>
@@ -3766,7 +3817,7 @@
         <v>248.2</v>
       </c>
       <c r="F5">
-        <v>76</v>
+        <v>71.39999999999999</v>
       </c>
       <c r="G5" t="s">
         <v>61</v>
@@ -3777,7 +3828,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>54</v>
@@ -3786,13 +3837,13 @@
         <v>0.5</v>
       </c>
       <c r="D6">
-        <v>112.23</v>
+        <v>113.98</v>
       </c>
       <c r="E6">
-        <v>224.46</v>
+        <v>227.96</v>
       </c>
       <c r="F6">
-        <v>54.90000000000001</v>
+        <v>53.5</v>
       </c>
       <c r="G6" t="s">
         <v>62</v>
@@ -3803,7 +3854,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>54</v>
@@ -3812,13 +3863,13 @@
         <v>0.5</v>
       </c>
       <c r="D7">
-        <v>113.98</v>
+        <v>112.23</v>
       </c>
       <c r="E7">
-        <v>227.96</v>
+        <v>224.46</v>
       </c>
       <c r="F7">
-        <v>51.6</v>
+        <v>51.8</v>
       </c>
       <c r="G7" t="s">
         <v>63</v>
@@ -3844,7 +3895,7 @@
         <v>233.08</v>
       </c>
       <c r="F8">
-        <v>47.2</v>
+        <v>46.8</v>
       </c>
       <c r="G8" t="s">
         <v>64</v>
@@ -3870,7 +3921,7 @@
         <v>213.32</v>
       </c>
       <c r="F9">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="G9" t="s">
         <v>65</v>
@@ -3896,13 +3947,13 @@
         <v>209.68</v>
       </c>
       <c r="F10">
-        <v>30.9</v>
+        <v>31.8</v>
       </c>
       <c r="G10" t="s">
         <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3922,7 +3973,7 @@
         <v>208.78</v>
       </c>
       <c r="F11">
-        <v>29.5</v>
+        <v>26.4</v>
       </c>
       <c r="G11" t="s">
         <v>65</v>
@@ -3933,7 +3984,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -3942,13 +3993,13 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>107.3</v>
+        <v>106.21</v>
       </c>
       <c r="E12">
-        <v>214.6</v>
+        <v>212.42</v>
       </c>
       <c r="F12">
-        <v>5.7</v>
+        <v>7.9</v>
       </c>
       <c r="G12" t="s">
         <v>66</v>
@@ -3959,7 +4010,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
@@ -3968,19 +4019,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>106.21</v>
+        <v>107.3</v>
       </c>
       <c r="E13">
-        <v>212.42</v>
+        <v>214.6</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="G13" t="s">
         <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4000,13 +4051,13 @@
         <v>192.52</v>
       </c>
       <c r="F14">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="G14" t="s">
         <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4026,18 +4077,18 @@
         <v>183.78</v>
       </c>
       <c r="F15">
-        <v>0.7000000000000001</v>
+        <v>0.6</v>
       </c>
       <c r="G15" t="s">
         <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
         <v>57</v>
@@ -4046,24 +4097,24 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>92.21000000000001</v>
+        <v>97.53999999999999</v>
       </c>
       <c r="E16">
-        <v>184.42</v>
+        <v>195.08</v>
       </c>
       <c r="F16">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G16" t="s">
         <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
         <v>57</v>
@@ -4072,13 +4123,13 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>97.53999999999999</v>
+        <v>72.42999999999999</v>
       </c>
       <c r="E17">
-        <v>195.08</v>
+        <v>144.86</v>
       </c>
       <c r="F17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G17" t="s">
         <v>71</v>
@@ -4089,7 +4140,7 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
@@ -4098,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>72.42999999999999</v>
+        <v>92.21000000000001</v>
       </c>
       <c r="E18">
-        <v>144.86</v>
+        <v>184.42</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -4110,7 +4161,7 @@
         <v>72</v>
       </c>
       <c r="H18" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4136,7 +4187,7 @@
         <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -4146,330 +4197,387 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
       <c r="E9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11">
         <v>-1</v>
       </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
       <c r="E11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D12">
         <v>-3</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
       <c r="E12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13">
         <v>-3</v>
       </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
       <c r="E13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+      <c r="D14">
         <v>-4</v>
       </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
       <c r="E14" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15">
         <v>-6</v>
       </c>
-      <c r="D15" t="s">
-        <v>18</v>
-      </c>
       <c r="E15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16">
         <v>-7</v>
       </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
       <c r="E16" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17">
         <v>-8</v>
       </c>
-      <c r="D17" t="s">
-        <v>19</v>
-      </c>
       <c r="E17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>102</v>
+      </c>
+      <c r="D18">
         <v>-9</v>
       </c>
-      <c r="D18" t="s">
-        <v>19</v>
-      </c>
       <c r="E18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19">
         <v>-13</v>
       </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>20</v>
+      </c>
+      <c r="F19" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4487,13 +4595,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4507,7 +4615,7 @@
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4521,7 +4629,7 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4535,7 +4643,7 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4549,7 +4657,7 @@
         <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4563,7 +4671,7 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4577,7 +4685,7 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4591,7 +4699,7 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4605,7 +4713,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4619,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4633,7 +4741,7 @@
         <v>-1</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4647,7 +4755,7 @@
         <v>-3</v>
       </c>
       <c r="D12" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4661,7 +4769,7 @@
         <v>-3</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4675,7 +4783,7 @@
         <v>-4</v>
       </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4689,7 +4797,7 @@
         <v>-6</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4703,7 +4811,7 @@
         <v>-7</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4717,7 +4825,7 @@
         <v>-8</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4731,7 +4839,7 @@
         <v>-9</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4745,7 +4853,7 @@
         <v>-13</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4763,25 +4871,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/The Girl's Room 💞🏈 2025.xlsx
+++ b/leagues/The Girl's Room 💞🏈 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="127">
   <si>
     <t>Tush Push Director 🍑</t>
   </si>
@@ -56,7 +56,7 @@
     <t>Say Cheese 🧀💚🧀</t>
   </si>
   <si>
-    <t>Hannah's Terrifying Team</t>
+    <t>It's Miller Time</t>
   </si>
   <si>
     <t>Flock Around and Find Out</t>
@@ -77,16 +77,19 @@
     <t>Lamb of Goedert</t>
   </si>
   <si>
-    <t>2-0-0</t>
-  </si>
-  <si>
-    <t>0-2-0</t>
-  </si>
-  <si>
-    <t>1-1-0</t>
-  </si>
-  <si>
-    <t>0-1-1</t>
+    <t>2-1-0</t>
+  </si>
+  <si>
+    <t>3-0-0</t>
+  </si>
+  <si>
+    <t>0-3-0</t>
+  </si>
+  <si>
+    <t>1-2-0</t>
+  </si>
+  <si>
+    <t>1-1-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -185,31 +188,25 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
     <t>1-1</t>
   </si>
   <si>
-    <t>2-0</t>
-  </si>
-  <si>
-    <t>0-1</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>11.2-3.8</t>
-  </si>
-  <si>
-    <t>10.8-4.2</t>
-  </si>
-  <si>
-    <t>10.7-4.3</t>
-  </si>
-  <si>
-    <t>9.8-5.2</t>
-  </si>
-  <si>
-    <t>9.0-6.0</t>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>9.4-5.6</t>
+  </si>
+  <si>
+    <t>8.9-6.1</t>
+  </si>
+  <si>
+    <t>8.8-6.2</t>
   </si>
   <si>
     <t>9.2-5.8</t>
@@ -218,58 +215,58 @@
     <t>8.7-6.3</t>
   </si>
   <si>
-    <t>8.5-6.5</t>
-  </si>
-  <si>
-    <t>7.2-7.8</t>
+    <t>8.2-6.8</t>
+  </si>
+  <si>
+    <t>6.7-8.3</t>
+  </si>
+  <si>
+    <t>7.0-8.0</t>
+  </si>
+  <si>
+    <t>6.9-8.1</t>
+  </si>
+  <si>
+    <t>6.6-8.4</t>
   </si>
   <si>
     <t>6.8-8.2</t>
   </si>
   <si>
-    <t>6.2-8.8</t>
-  </si>
-  <si>
-    <t>5.0-10.0</t>
+    <t>6.1-8.9</t>
+  </si>
+  <si>
+    <t>5.3-9.7</t>
   </si>
   <si>
     <t>5.1-9.9</t>
   </si>
   <si>
-    <t>1.3-13.7</t>
-  </si>
-  <si>
-    <t>4.5-10.5</t>
-  </si>
-  <si>
     <t>2.8-12.2</t>
   </si>
   <si>
-    <t>11-4</t>
+    <t>9-6</t>
   </si>
   <si>
     <t>10-5</t>
   </si>
   <si>
-    <t>9-6</t>
+    <t>9-5</t>
   </si>
   <si>
     <t>8-7</t>
   </si>
   <si>
-    <t>7-7</t>
-  </si>
-  <si>
     <t>6-9</t>
   </si>
   <si>
+    <t>7-8</t>
+  </si>
+  <si>
     <t>5-10</t>
   </si>
   <si>
-    <t>1-14</t>
-  </si>
-  <si>
-    <t>2-13</t>
+    <t>3-12</t>
   </si>
   <si>
     <t>Owners</t>
@@ -281,106 +278,109 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Malini Ragoopath</t>
+  </si>
+  <si>
     <t>Shae Marx</t>
   </si>
   <si>
+    <t>Kiana McIntosh</t>
+  </si>
+  <si>
+    <t>Brianna Goebel</t>
+  </si>
+  <si>
     <t>Lily Lamb</t>
   </si>
   <si>
+    <t>Grace Stockbower</t>
+  </si>
+  <si>
+    <t>Emily Carey</t>
+  </si>
+  <si>
+    <t>Amanda Pasquale</t>
+  </si>
+  <si>
     <t>Hillary Dale</t>
   </si>
   <si>
-    <t>Malini Ragoopath</t>
-  </si>
-  <si>
-    <t>Brianna Goebel</t>
-  </si>
-  <si>
-    <t>Kiana McIntosh</t>
+    <t>Sumita Gangwani</t>
+  </si>
+  <si>
+    <t>Rebecca Schneider</t>
+  </si>
+  <si>
+    <t>Hannah Miller</t>
   </si>
   <si>
     <t>Swathi Veeravalli</t>
   </si>
   <si>
-    <t>Sumita Gangwani</t>
-  </si>
-  <si>
-    <t>Hannah Miller</t>
+    <t>Nikki Papalia</t>
   </si>
   <si>
     <t>Allie Kardon</t>
   </si>
   <si>
-    <t>Rebecca Schneider</t>
-  </si>
-  <si>
-    <t>Emily Carey</t>
-  </si>
-  <si>
-    <t>Amanda Pasquale</t>
-  </si>
-  <si>
-    <t>Nikki Papalia</t>
-  </si>
-  <si>
-    <t>Grace Stockbower</t>
+    <t>Faith Pon</t>
+  </si>
+  <si>
+    <t>Nicole Coppins</t>
   </si>
   <si>
     <t>Grace Schiavone</t>
   </si>
   <si>
-    <t>Faith Pon</t>
-  </si>
-  <si>
-    <t>Nicole Coppins</t>
-  </si>
-  <si>
     <t>↑9</t>
   </si>
   <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑11</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑5</t>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↑2</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
+    <t>↓11</t>
+  </si>
+  <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓10</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓7</t>
+  </si>
+  <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
     <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
   </si>
   <si>
     <t>Week</t>
@@ -829,16 +829,16 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -856,19 +856,19 @@
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -877,7 +877,7 @@
         <v>18</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -885,58 +885,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O3" t="s">
-        <v>19</v>
-      </c>
-      <c r="P3" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>18</v>
-      </c>
       <c r="R3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -944,58 +944,58 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="O4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1003,58 +1003,58 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" t="s">
-        <v>20</v>
-      </c>
-      <c r="M5" t="s">
-        <v>20</v>
-      </c>
-      <c r="N5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O5" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>18</v>
-      </c>
       <c r="R5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1062,58 +1062,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
         <v>20</v>
       </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" t="s">
         <v>20</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>19</v>
-      </c>
-      <c r="O6" t="s">
-        <v>20</v>
-      </c>
-      <c r="P6" t="s">
-        <v>19</v>
-      </c>
       <c r="Q6" t="s">
         <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1121,58 +1121,58 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
         <v>19</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1180,58 +1180,58 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
         <v>20</v>
       </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>21</v>
+      </c>
+      <c r="R8" t="s">
+        <v>18</v>
+      </c>
+      <c r="S8" t="s">
         <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" t="s">
-        <v>18</v>
-      </c>
-      <c r="N8" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P8" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" t="s">
-        <v>18</v>
-      </c>
-      <c r="S8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1242,55 +1242,55 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="N9" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
+      <c r="P9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>18</v>
+      </c>
+      <c r="R9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S9" t="s">
         <v>20</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R9" t="s">
-        <v>20</v>
-      </c>
-      <c r="S9" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1298,25 +1298,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
         <v>18</v>
@@ -1325,19 +1325,19 @@
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P10" t="s">
         <v>18</v>
@@ -1346,10 +1346,10 @@
         <v>18</v>
       </c>
       <c r="R10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1357,58 +1357,58 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>19</v>
-      </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1419,13 +1419,13 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -1446,16 +1446,16 @@
         <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M12" t="s">
         <v>18</v>
       </c>
       <c r="N12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P12" t="s">
         <v>18</v>
@@ -1464,10 +1464,10 @@
         <v>18</v>
       </c>
       <c r="R12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1475,25 +1475,25 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
@@ -1502,31 +1502,31 @@
         <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1534,58 +1534,58 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1593,58 +1593,58 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
         <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
       </c>
       <c r="J15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q15" t="s">
         <v>18</v>
       </c>
       <c r="R15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S15" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1652,58 +1652,58 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" t="s">
         <v>20</v>
       </c>
-      <c r="C16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" t="s">
-        <v>19</v>
-      </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="P16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Q16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="R16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1711,58 +1711,58 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
         <v>20</v>
       </c>
-      <c r="C17" t="s">
-        <v>19</v>
-      </c>
       <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
         <v>20</v>
       </c>
-      <c r="E17" t="s">
-        <v>19</v>
-      </c>
       <c r="F17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G17" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" t="s">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N17" t="s">
+        <v>21</v>
+      </c>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" t="s">
         <v>20</v>
       </c>
-      <c r="H17" t="s">
-        <v>19</v>
-      </c>
-      <c r="I17" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" t="s">
-        <v>19</v>
-      </c>
-      <c r="M17" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" t="s">
-        <v>20</v>
-      </c>
-      <c r="O17" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" t="s">
-        <v>19</v>
-      </c>
       <c r="Q17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1770,58 +1770,58 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" t="s">
         <v>20</v>
       </c>
-      <c r="H18" t="s">
-        <v>19</v>
-      </c>
       <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" t="s">
         <v>20</v>
       </c>
-      <c r="J18" t="s">
+      <c r="O18" t="s">
         <v>20</v>
       </c>
-      <c r="K18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" t="s">
-        <v>19</v>
-      </c>
-      <c r="M18" t="s">
-        <v>19</v>
-      </c>
-      <c r="N18" t="s">
-        <v>19</v>
-      </c>
-      <c r="O18" t="s">
-        <v>19</v>
-      </c>
       <c r="P18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1829,58 +1829,58 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="Q19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1898,13 +1898,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1912,13 +1912,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C2">
-        <v>0.3888888888888889</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1929,10 +1929,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1940,13 +1940,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1954,13 +1954,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>0.6111111111111112</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1968,10 +1968,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>1.055555555555556</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1982,13 +1982,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>0.7777777777777778</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1999,10 +1999,10 @@
         <v>14</v>
       </c>
       <c r="C8">
-        <v>0.7777777777777778</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2013,10 +2013,10 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.8333333333333334</v>
+        <v>1.5</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2024,13 +2024,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>0.8333333333333334</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2038,13 +2038,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>0.8333333333333334</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2052,13 +2052,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>0.9444444444444444</v>
+        <v>1.722222222222222</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2066,13 +2066,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>1.166666666666667</v>
+        <v>1.722222222222222</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2080,10 +2080,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>1.333333333333333</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -2094,13 +2094,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>1.388888888888889</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2108,13 +2108,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>1.5</v>
+        <v>1.944444444444444</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2122,10 +2122,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>1.611111111111111</v>
+        <v>2.055555555555555</v>
       </c>
       <c r="D17" t="s">
         <v>18</v>
@@ -2136,10 +2136,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C18">
-        <v>1.611111111111111</v>
+        <v>2.055555555555555</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -2153,7 +2153,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>1.611111111111111</v>
+        <v>2.055555555555555</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -2174,16 +2174,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2191,16 +2191,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2">
-        <v>1.666666666666667</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D2">
-        <v>0.6666666666666667</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2208,13 +2208,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>1.555555555555556</v>
+        <v>2.277777777777778</v>
       </c>
       <c r="D3">
-        <v>-0.4444444444444444</v>
+        <v>0.2777777777777777</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -2225,16 +2225,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>1.555555555555556</v>
+        <v>1.944444444444444</v>
       </c>
       <c r="D4">
-        <v>0.5555555555555556</v>
+        <v>-0.05555555555555558</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2242,16 +2242,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1.5</v>
+        <v>1.944444444444444</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2259,16 +2259,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>1.388888888888889</v>
+        <v>1.944444444444444</v>
       </c>
       <c r="D6">
-        <v>-0.6111111111111112</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2276,13 +2276,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>1.222222222222222</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D7">
-        <v>-0.7777777777777777</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -2293,16 +2293,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1.166666666666667</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="D8">
-        <v>0.1666666666666667</v>
+        <v>-0.2222222222222223</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2310,13 +2310,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>1.111111111111111</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="D9">
-        <v>-0.8888888888888888</v>
+        <v>-0.3888888888888888</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -2327,16 +2327,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>1.111111111111111</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="D10">
-        <v>0.1111111111111112</v>
+        <v>-0.3888888888888888</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2344,16 +2344,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>1.555555555555556</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2361,13 +2361,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.3888888888888888</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -2378,16 +2378,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>0.9444444444444444</v>
+        <v>1.277777777777778</v>
       </c>
       <c r="D13">
-        <v>0.9444444444444444</v>
+        <v>-0.7222222222222223</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2395,16 +2395,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>0.8888888888888888</v>
+        <v>1.277777777777778</v>
       </c>
       <c r="D14">
-        <v>-0.1111111111111112</v>
+        <v>-0.7222222222222223</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2412,16 +2412,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C15">
-        <v>0.6111111111111112</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="D15">
-        <v>0.6111111111111112</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2429,16 +2429,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>0.4444444444444444</v>
+        <v>1.055555555555556</v>
       </c>
       <c r="D16">
-        <v>-0.5555555555555556</v>
+        <v>-0.9444444444444444</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2446,16 +2446,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>0.4444444444444444</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="D17">
-        <v>0.4444444444444444</v>
+        <v>-0.05555555555555558</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2466,13 +2466,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.2777777777777778</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D18">
-        <v>0.2777777777777778</v>
+        <v>-0.3333333333333334</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2483,13 +2483,13 @@
         <v>2</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2507,1061 +2507,1061 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>27.6</v>
+        <v>19.8</v>
       </c>
       <c r="C2">
-        <v>27.7</v>
+        <v>14.7</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E2">
-        <v>11.8</v>
+        <v>9.5</v>
       </c>
       <c r="F2">
-        <v>6.2</v>
+        <v>9.6</v>
       </c>
       <c r="G2">
-        <v>4.2</v>
+        <v>7.6</v>
       </c>
       <c r="H2">
-        <v>2.6</v>
+        <v>7.1</v>
       </c>
       <c r="I2">
+        <v>4.8</v>
+      </c>
+      <c r="J2">
+        <v>5.4</v>
+      </c>
+      <c r="K2">
+        <v>4.5</v>
+      </c>
+      <c r="L2">
+        <v>2.5</v>
+      </c>
+      <c r="M2">
+        <v>2.3</v>
+      </c>
+      <c r="N2">
         <v>1.4</v>
       </c>
-      <c r="J2">
-        <v>0.8</v>
-      </c>
-      <c r="K2">
-        <v>0.5</v>
-      </c>
-      <c r="L2">
-        <v>0.2</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>94.5</v>
+        <v>70.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B3">
-        <v>25.9</v>
+        <v>20.6</v>
       </c>
       <c r="C3">
-        <v>16.5</v>
+        <v>15.1</v>
       </c>
       <c r="D3">
-        <v>14.9</v>
+        <v>11.2</v>
       </c>
       <c r="E3">
-        <v>11.3</v>
+        <v>8.6</v>
       </c>
       <c r="F3">
-        <v>10.9</v>
+        <v>7.7</v>
       </c>
       <c r="G3">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="H3">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="I3">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="J3">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="K3">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="L3">
-        <v>0.9</v>
+        <v>3.9</v>
       </c>
       <c r="M3">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="N3">
-        <v>0.1</v>
+        <v>2.6</v>
       </c>
       <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0.3</v>
+      </c>
+      <c r="Q3">
         <v>0.2</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
       <c r="R3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>86.40000000000001</v>
+        <v>69.8</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>15.8</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C4">
-        <v>17.8</v>
+        <v>10.3</v>
       </c>
       <c r="D4">
-        <v>16.6</v>
+        <v>13</v>
       </c>
       <c r="E4">
-        <v>14.9</v>
+        <v>10.8</v>
       </c>
       <c r="F4">
-        <v>11.5</v>
+        <v>13.2</v>
       </c>
       <c r="G4">
-        <v>8.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="H4">
-        <v>5.3</v>
+        <v>8.5</v>
       </c>
       <c r="I4">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="J4">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="K4">
-        <v>1.1</v>
+        <v>5.4</v>
       </c>
       <c r="L4">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="M4">
+        <v>2.5</v>
+      </c>
+      <c r="N4">
+        <v>1.9</v>
+      </c>
+      <c r="O4">
+        <v>0.6</v>
+      </c>
+      <c r="P4">
         <v>0.3</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>0.4</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>0.2</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>85.40000000000001</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>14.3</v>
+        <v>11.8</v>
       </c>
       <c r="C5">
-        <v>13</v>
+        <v>11.1</v>
       </c>
       <c r="D5">
-        <v>14.4</v>
+        <v>11.2</v>
       </c>
       <c r="E5">
-        <v>11.1</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>9.199999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="G5">
-        <v>9.4</v>
+        <v>7.7</v>
       </c>
       <c r="H5">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="I5">
-        <v>7.2</v>
+        <v>5.4</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="K5">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="L5">
-        <v>1.9</v>
+        <v>3.8</v>
       </c>
       <c r="M5">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="N5">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="O5">
-        <v>0.3</v>
+        <v>1.2</v>
       </c>
       <c r="P5">
-        <v>0.1</v>
+        <v>1.2</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="T5">
-        <v>71.40000000000001</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>4.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="C6">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="D6">
-        <v>8.300000000000001</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E6">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="F6">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G6">
         <v>10.4</v>
       </c>
-      <c r="F6">
-        <v>11.9</v>
-      </c>
-      <c r="G6">
-        <v>11.5</v>
-      </c>
       <c r="H6">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="I6">
-        <v>10.1</v>
+        <v>8</v>
       </c>
       <c r="J6">
-        <v>8</v>
+        <v>5.1</v>
       </c>
       <c r="K6">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="L6">
-        <v>5.9</v>
+        <v>3.7</v>
       </c>
       <c r="M6">
-        <v>3.8</v>
+        <v>2.1</v>
       </c>
       <c r="N6">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="P6">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>53.5</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>3.1</v>
+        <v>7.7</v>
       </c>
       <c r="C7">
-        <v>4.7</v>
+        <v>8.6</v>
       </c>
       <c r="D7">
-        <v>7.4</v>
+        <v>9.4</v>
       </c>
       <c r="E7">
-        <v>11.5</v>
+        <v>11.1</v>
       </c>
       <c r="F7">
-        <v>12.6</v>
+        <v>9.5</v>
       </c>
       <c r="G7">
-        <v>12.5</v>
+        <v>10.3</v>
       </c>
       <c r="H7">
-        <v>14.2</v>
+        <v>10.8</v>
       </c>
       <c r="I7">
-        <v>11.7</v>
+        <v>8.6</v>
       </c>
       <c r="J7">
-        <v>8.800000000000001</v>
+        <v>5.5</v>
       </c>
       <c r="K7">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="L7">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="M7">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="N7">
+        <v>2.3</v>
+      </c>
+      <c r="O7">
+        <v>1.9</v>
+      </c>
+      <c r="P7">
+        <v>1.1</v>
+      </c>
+      <c r="Q7">
         <v>0.7</v>
       </c>
-      <c r="O7">
-        <v>0.3</v>
-      </c>
-      <c r="P7">
-        <v>0.1</v>
-      </c>
-      <c r="Q7">
-        <v>0.1</v>
-      </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>51.8</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>4.9</v>
+        <v>8.9</v>
       </c>
       <c r="C8">
+        <v>9.9</v>
+      </c>
+      <c r="D8">
+        <v>9.1</v>
+      </c>
+      <c r="E8">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="F8">
+        <v>8.4</v>
+      </c>
+      <c r="G8">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H8">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="I8">
+        <v>8.9</v>
+      </c>
+      <c r="J8">
+        <v>6.2</v>
+      </c>
+      <c r="K8">
+        <v>5.8</v>
+      </c>
+      <c r="L8">
         <v>5.2</v>
       </c>
-      <c r="D8">
-        <v>6.5</v>
-      </c>
-      <c r="E8">
-        <v>9.4</v>
-      </c>
-      <c r="F8">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="G8">
-        <v>11.1</v>
-      </c>
-      <c r="H8">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="I8">
-        <v>10.5</v>
-      </c>
-      <c r="J8">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="K8">
-        <v>6.6</v>
-      </c>
-      <c r="L8">
-        <v>6.1</v>
-      </c>
       <c r="M8">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="N8">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="O8">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="P8">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="Q8">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="R8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>46.8</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>0.9</v>
+        <v>5.9</v>
       </c>
       <c r="C9">
-        <v>3.7</v>
+        <v>7</v>
       </c>
       <c r="D9">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E9">
+        <v>10.8</v>
+      </c>
+      <c r="F9">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="G9">
+        <v>10.1</v>
+      </c>
+      <c r="H9">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I9">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J9">
+        <v>8.6</v>
+      </c>
+      <c r="K9">
+        <v>6.8</v>
+      </c>
+      <c r="L9">
         <v>5</v>
       </c>
-      <c r="E9">
-        <v>6.1</v>
-      </c>
-      <c r="F9">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="G9">
-        <v>8.1</v>
-      </c>
-      <c r="H9">
-        <v>10.5</v>
-      </c>
-      <c r="I9">
-        <v>10.4</v>
-      </c>
-      <c r="J9">
-        <v>12.3</v>
-      </c>
-      <c r="K9">
-        <v>10.7</v>
-      </c>
-      <c r="L9">
-        <v>8.699999999999999</v>
-      </c>
       <c r="M9">
-        <v>7.9</v>
+        <v>3.1</v>
       </c>
       <c r="N9">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="O9">
-        <v>2.1</v>
+        <v>1.1</v>
       </c>
       <c r="P9">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>0.1</v>
+      </c>
+      <c r="S9">
         <v>0.2</v>
       </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
       <c r="T9">
-        <v>32.1</v>
+        <v>52.2</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B10">
+        <v>4.1</v>
+      </c>
+      <c r="C10">
+        <v>5.7</v>
+      </c>
+      <c r="D10">
+        <v>8.4</v>
+      </c>
+      <c r="E10">
+        <v>6.7</v>
+      </c>
+      <c r="F10">
+        <v>6.2</v>
+      </c>
+      <c r="G10">
+        <v>7.1</v>
+      </c>
+      <c r="H10">
+        <v>8.5</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K10">
+        <v>8.6</v>
+      </c>
+      <c r="L10">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="M10">
+        <v>6.3</v>
+      </c>
+      <c r="N10">
+        <v>4.2</v>
+      </c>
+      <c r="O10">
+        <v>3.1</v>
+      </c>
+      <c r="P10">
+        <v>2.9</v>
+      </c>
+      <c r="Q10">
         <v>1.6</v>
       </c>
-      <c r="C10">
-        <v>2.6</v>
-      </c>
-      <c r="D10">
-        <v>4.1</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="G10">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="H10">
-        <v>11.8</v>
-      </c>
-      <c r="I10">
-        <v>10.4</v>
-      </c>
-      <c r="J10">
-        <v>11.9</v>
-      </c>
-      <c r="K10">
-        <v>10.8</v>
-      </c>
-      <c r="L10">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="M10">
-        <v>8.1</v>
-      </c>
-      <c r="N10">
-        <v>3.6</v>
-      </c>
-      <c r="O10">
-        <v>1.4</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T10">
-        <v>31.8</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="D11">
-        <v>4.9</v>
+        <v>1.9</v>
       </c>
       <c r="E11">
-        <v>4.4</v>
+        <v>3.1</v>
       </c>
       <c r="F11">
-        <v>5.9</v>
+        <v>2.6</v>
       </c>
       <c r="G11">
-        <v>8.5</v>
+        <v>3.4</v>
       </c>
       <c r="H11">
-        <v>9.9</v>
+        <v>4.3</v>
       </c>
       <c r="I11">
-        <v>10.8</v>
+        <v>5.2</v>
       </c>
       <c r="J11">
-        <v>11.6</v>
+        <v>6.6</v>
       </c>
       <c r="K11">
-        <v>12.7</v>
+        <v>7.9</v>
       </c>
       <c r="L11">
-        <v>10.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M11">
+        <v>10.5</v>
+      </c>
+      <c r="N11">
+        <v>8.9</v>
+      </c>
+      <c r="O11">
         <v>9.800000000000001</v>
       </c>
-      <c r="N11">
-        <v>5.6</v>
-      </c>
-      <c r="O11">
-        <v>1.8</v>
-      </c>
       <c r="P11">
-        <v>0.5</v>
+        <v>10.4</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="R11">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="T11">
-        <v>26.4</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="D12">
-        <v>0.8</v>
+        <v>2.1</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="F12">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="G12">
-        <v>3.4</v>
+        <v>4.3</v>
       </c>
       <c r="H12">
-        <v>5.4</v>
+        <v>4.5</v>
       </c>
       <c r="I12">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="J12">
-        <v>10.9</v>
+        <v>7.3</v>
       </c>
       <c r="K12">
-        <v>16.4</v>
+        <v>7.1</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>10.5</v>
       </c>
       <c r="M12">
-        <v>15.3</v>
+        <v>9.6</v>
       </c>
       <c r="N12">
-        <v>11.3</v>
+        <v>10.3</v>
       </c>
       <c r="O12">
-        <v>5.8</v>
+        <v>8</v>
       </c>
       <c r="P12">
-        <v>2.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Q12">
-        <v>1.2</v>
+        <v>7.3</v>
       </c>
       <c r="R12">
-        <v>0.3</v>
+        <v>6</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="T12">
-        <v>7.9</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B13">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="D13">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="F13">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="G13">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="H13">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="I13">
-        <v>8.4</v>
+        <v>7.3</v>
       </c>
       <c r="J13">
-        <v>8.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K13">
-        <v>11.9</v>
+        <v>8.6</v>
       </c>
       <c r="L13">
-        <v>14.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M13">
-        <v>16.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="N13">
-        <v>11.6</v>
+        <v>10</v>
       </c>
       <c r="O13">
-        <v>8.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="P13">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="Q13">
-        <v>1.8</v>
+        <v>5.4</v>
       </c>
       <c r="R13">
-        <v>0.4</v>
+        <v>3.9</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T13">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B14">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1.3</v>
+        <v>1.7</v>
       </c>
       <c r="F14">
-        <v>0.8</v>
+        <v>3.6</v>
       </c>
       <c r="G14">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="H14">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="I14">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="J14">
-        <v>4.3</v>
+        <v>7.1</v>
       </c>
       <c r="K14">
-        <v>6.9</v>
+        <v>7.1</v>
       </c>
       <c r="L14">
-        <v>9.800000000000001</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M14">
-        <v>11.4</v>
+        <v>10.8</v>
       </c>
       <c r="N14">
-        <v>17.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="O14">
-        <v>14.3</v>
+        <v>11.1</v>
       </c>
       <c r="P14">
-        <v>13</v>
+        <v>10.3</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="R14">
-        <v>3.8</v>
+        <v>6.1</v>
       </c>
       <c r="S14">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="T14">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="E15">
-        <v>0.2</v>
+        <v>2.1</v>
       </c>
       <c r="F15">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="G15">
-        <v>0.3</v>
+        <v>3.6</v>
       </c>
       <c r="H15">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="I15">
-        <v>0.6</v>
+        <v>4.8</v>
       </c>
       <c r="J15">
-        <v>1.9</v>
+        <v>7.1</v>
       </c>
       <c r="K15">
-        <v>1.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>10.1</v>
       </c>
       <c r="M15">
-        <v>6.6</v>
+        <v>10.3</v>
       </c>
       <c r="N15">
-        <v>13.4</v>
+        <v>9.5</v>
       </c>
       <c r="O15">
-        <v>17.5</v>
+        <v>12.9</v>
       </c>
       <c r="P15">
-        <v>20.1</v>
+        <v>9.5</v>
       </c>
       <c r="Q15">
-        <v>20.8</v>
+        <v>8.5</v>
       </c>
       <c r="R15">
-        <v>9.9</v>
+        <v>4.7</v>
       </c>
       <c r="S15">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="F16">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="G16">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="H16">
-        <v>0.1</v>
+        <v>1.8</v>
       </c>
       <c r="I16">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="K16">
-        <v>1.7</v>
+        <v>3.9</v>
       </c>
       <c r="L16">
-        <v>3.5</v>
+        <v>6.8</v>
       </c>
       <c r="M16">
-        <v>7.8</v>
+        <v>9.6</v>
       </c>
       <c r="N16">
-        <v>18.6</v>
+        <v>10.8</v>
       </c>
       <c r="O16">
-        <v>28.1</v>
+        <v>10.9</v>
       </c>
       <c r="P16">
-        <v>21.6</v>
+        <v>12</v>
       </c>
       <c r="Q16">
-        <v>14.2</v>
+        <v>15.2</v>
       </c>
       <c r="R16">
-        <v>2.4</v>
+        <v>13.2</v>
       </c>
       <c r="S16">
-        <v>0.3</v>
+        <v>4.8</v>
       </c>
       <c r="T16">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.9</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O17">
-        <v>0.1</v>
+        <v>12.4</v>
       </c>
       <c r="P17">
-        <v>0.4</v>
+        <v>13.5</v>
       </c>
       <c r="Q17">
-        <v>2.3</v>
+        <v>17.2</v>
       </c>
       <c r="R17">
-        <v>12.3</v>
+        <v>20.3</v>
       </c>
       <c r="S17">
-        <v>84.90000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3570,60 +3570,60 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I18">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="K18">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="L18">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="M18">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="N18">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="O18">
-        <v>14.2</v>
+        <v>11.1</v>
       </c>
       <c r="P18">
-        <v>24.2</v>
+        <v>16.1</v>
       </c>
       <c r="Q18">
-        <v>31.7</v>
+        <v>19.4</v>
       </c>
       <c r="R18">
-        <v>11.8</v>
+        <v>24.6</v>
       </c>
       <c r="S18">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3647,37 +3647,37 @@
         <v>0</v>
       </c>
       <c r="I19">
+        <v>0.1</v>
+      </c>
+      <c r="J19">
+        <v>0.2</v>
+      </c>
+      <c r="K19">
         <v>0</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>0</v>
       </c>
-      <c r="K19">
-        <v>0.1</v>
-      </c>
-      <c r="L19">
-        <v>0.2</v>
-      </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O19">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="P19">
-        <v>7.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q19">
-        <v>19</v>
+        <v>5.1</v>
       </c>
       <c r="R19">
-        <v>58.8</v>
+        <v>14.2</v>
       </c>
       <c r="S19">
-        <v>11.1</v>
+        <v>75.2</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -3698,51 +3698,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
-        <v>118.5</v>
+        <v>119.12</v>
       </c>
       <c r="E2">
-        <v>237</v>
+        <v>357.36</v>
       </c>
       <c r="F2">
-        <v>94.5</v>
+        <v>70.89999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H2" t="s">
         <v>74</v>
@@ -3750,48 +3750,48 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
         <v>55</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>118.01</v>
+        <v>118.8333333333333</v>
       </c>
       <c r="E3">
-        <v>236.02</v>
+        <v>356.5</v>
       </c>
       <c r="F3">
-        <v>86.40000000000001</v>
+        <v>69.8</v>
       </c>
       <c r="G3" t="s">
         <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D4">
-        <v>114.61</v>
+        <v>117.4333333333333</v>
       </c>
       <c r="E4">
-        <v>229.22</v>
+        <v>352.3</v>
       </c>
       <c r="F4">
-        <v>85.39999999999999</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
         <v>60</v>
@@ -3802,74 +3802,74 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C5">
         <v>0.5</v>
       </c>
       <c r="D5">
-        <v>124.1</v>
+        <v>121.4266666666667</v>
       </c>
       <c r="E5">
-        <v>248.2</v>
+        <v>364.28</v>
       </c>
       <c r="F5">
-        <v>71.39999999999999</v>
+        <v>64</v>
       </c>
       <c r="G5" t="s">
         <v>61</v>
       </c>
       <c r="H5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6">
-        <v>113.98</v>
+        <v>110.72</v>
       </c>
       <c r="E6">
-        <v>227.96</v>
+        <v>332.16</v>
       </c>
       <c r="F6">
-        <v>53.5</v>
+        <v>61.4</v>
       </c>
       <c r="G6" t="s">
         <v>62</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7">
         <v>0.5</v>
       </c>
       <c r="D7">
-        <v>112.23</v>
+        <v>114.66</v>
       </c>
       <c r="E7">
-        <v>224.46</v>
+        <v>343.98</v>
       </c>
       <c r="F7">
-        <v>51.8</v>
+        <v>56.59999999999999</v>
       </c>
       <c r="G7" t="s">
         <v>63</v>
@@ -3880,282 +3880,282 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D8">
-        <v>116.54</v>
+        <v>109.4266666666667</v>
       </c>
       <c r="E8">
-        <v>233.08</v>
+        <v>328.28</v>
       </c>
       <c r="F8">
-        <v>46.8</v>
+        <v>54.3</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D9">
-        <v>106.66</v>
+        <v>107.3666666666667</v>
       </c>
       <c r="E9">
-        <v>213.32</v>
+        <v>322.1</v>
       </c>
       <c r="F9">
-        <v>32.1</v>
+        <v>52.2</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
         <v>55</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D10">
-        <v>104.84</v>
+        <v>108.7</v>
       </c>
       <c r="E10">
-        <v>209.68</v>
+        <v>326.1</v>
       </c>
       <c r="F10">
-        <v>31.8</v>
+        <v>38.2</v>
       </c>
       <c r="G10" t="s">
         <v>64</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>104.39</v>
+        <v>103.7066666666667</v>
       </c>
       <c r="E11">
-        <v>208.78</v>
+        <v>311.12</v>
       </c>
       <c r="F11">
-        <v>26.4</v>
+        <v>13.3</v>
       </c>
       <c r="G11" t="s">
         <v>65</v>
       </c>
       <c r="H11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D12">
-        <v>106.21</v>
+        <v>96.88</v>
       </c>
       <c r="E12">
-        <v>212.42</v>
+        <v>290.64</v>
       </c>
       <c r="F12">
-        <v>7.9</v>
+        <v>13.2</v>
       </c>
       <c r="G12" t="s">
         <v>66</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>56</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D13">
-        <v>107.3</v>
+        <v>104.7333333333333</v>
       </c>
       <c r="E13">
-        <v>214.6</v>
+        <v>314.2</v>
       </c>
       <c r="F13">
-        <v>6.5</v>
+        <v>12.5</v>
       </c>
       <c r="G13" t="s">
         <v>67</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C14">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D14">
-        <v>96.25999999999999</v>
+        <v>100.5866666666667</v>
       </c>
       <c r="E14">
-        <v>192.52</v>
+        <v>301.76</v>
       </c>
       <c r="F14">
-        <v>4.5</v>
+        <v>10.5</v>
       </c>
       <c r="G14" t="s">
         <v>68</v>
       </c>
       <c r="H14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C15">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D15">
-        <v>91.89</v>
+        <v>97.63333333333333</v>
       </c>
       <c r="E15">
-        <v>183.78</v>
+        <v>292.9</v>
       </c>
       <c r="F15">
-        <v>0.6</v>
+        <v>10</v>
       </c>
       <c r="G15" t="s">
         <v>69</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D16">
-        <v>97.53999999999999</v>
+        <v>90.43333333333332</v>
       </c>
       <c r="E16">
-        <v>195.08</v>
+        <v>271.3</v>
       </c>
       <c r="F16">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="G16" t="s">
         <v>70</v>
       </c>
       <c r="H16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D17">
-        <v>72.42999999999999</v>
+        <v>96.43333333333334</v>
       </c>
       <c r="E17">
-        <v>144.86</v>
+        <v>289.3</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="G17" t="s">
         <v>71</v>
       </c>
       <c r="H17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D18">
-        <v>92.21000000000001</v>
+        <v>91.36666666666666</v>
       </c>
       <c r="E18">
-        <v>184.42</v>
+        <v>274.1</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G18" t="s">
         <v>72</v>
@@ -4166,19 +4166,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>87.19999999999999</v>
+        <v>80.48666666666666</v>
       </c>
       <c r="E19">
-        <v>174.4</v>
+        <v>241.46</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -4187,7 +4187,7 @@
         <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4205,19 +4205,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4225,19 +4225,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4245,19 +4245,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D3">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4265,19 +4265,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D4">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4285,19 +4285,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4305,16 +4305,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D6">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>107</v>
@@ -4325,16 +4325,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
         <v>108</v>
@@ -4345,16 +4345,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" t="s">
         <v>109</v>
@@ -4365,16 +4365,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
         <v>110</v>
@@ -4385,16 +4385,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" t="s">
         <v>111</v>
@@ -4405,13 +4405,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -4428,7 +4428,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D12">
         <v>-3</v>
@@ -4437,7 +4437,7 @@
         <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4445,19 +4445,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D13">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4465,19 +4465,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D14">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4488,10 +4488,10 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D15">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -4505,13 +4505,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D16">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -4525,19 +4525,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D17">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4545,19 +4545,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D18">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4565,19 +4565,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D19">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4587,164 +4587,197 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-5</v>
+      </c>
+      <c r="C7">
+        <v>-7</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>-3</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-4</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="B6">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>-6</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>-5</v>
-      </c>
-      <c r="C11">
-        <v>-1</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D11">
+        <v>-3</v>
+      </c>
+      <c r="E11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -4754,39 +4787,48 @@
       <c r="C12">
         <v>-3</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12">
+        <v>-3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-6</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>-7</v>
+      </c>
+      <c r="E14" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>-3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>-4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -4796,64 +4838,79 @@
       <c r="C15">
         <v>-6</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15">
+        <v>-7</v>
+      </c>
+      <c r="E15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>-5</v>
       </c>
       <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <v>-8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>-1</v>
+      </c>
+      <c r="C17">
+        <v>-9</v>
+      </c>
+      <c r="D17">
+        <v>-9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>-6</v>
+      </c>
+      <c r="C18">
+        <v>-13</v>
+      </c>
+      <c r="D18">
+        <v>-11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
         <v>-7</v>
       </c>
-      <c r="D16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <v>-7</v>
-      </c>
-      <c r="C17">
+      <c r="C19">
         <v>-8</v>
       </c>
-      <c r="D17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>-1</v>
-      </c>
-      <c r="C18">
-        <v>-9</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="D19">
+        <v>-12</v>
+      </c>
+      <c r="E19" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>-6</v>
-      </c>
-      <c r="C19">
-        <v>-13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4863,7 +4920,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4923,25 +4980,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
       <c r="E3">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="F3">
+        <v>-3</v>
+      </c>
+      <c r="G3">
         <v>9</v>
       </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
       <c r="H3" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4952,22 +5009,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4" t="s">
         <v>0</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4978,22 +5035,22 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>-1</v>
-      </c>
       <c r="F5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5001,25 +5058,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="F6">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
         <v>4</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5030,22 +5087,100 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>-13</v>
+      </c>
+      <c r="F8">
+        <v>-9</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D9" t="s">
         <v>7</v>
       </c>
-      <c r="E7">
+      <c r="E9">
         <v>-3</v>
       </c>
-      <c r="F7">
+      <c r="F9">
         <v>-6</v>
       </c>
-      <c r="G7">
+      <c r="G9">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H9" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Girl's Room 💞🏈 2025.xlsx
+++ b/leagues/The Girl's Room 💞🏈 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="130">
   <si>
     <t>Tush Push Director 🍑</t>
   </si>
@@ -77,19 +77,25 @@
     <t>Lamb of Goedert</t>
   </si>
   <si>
-    <t>2-1-0</t>
-  </si>
-  <si>
-    <t>3-0-0</t>
-  </si>
-  <si>
-    <t>0-3-0</t>
-  </si>
-  <si>
-    <t>1-2-0</t>
-  </si>
-  <si>
-    <t>1-1-1</t>
+    <t>2-2-0</t>
+  </si>
+  <si>
+    <t>3-1-0</t>
+  </si>
+  <si>
+    <t>0-4-0</t>
+  </si>
+  <si>
+    <t>4-0-0</t>
+  </si>
+  <si>
+    <t>1-3-0</t>
+  </si>
+  <si>
+    <t>2-1-1</t>
+  </si>
+  <si>
+    <t>1-2-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -188,85 +194,88 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
+    <t>2-2</t>
+  </si>
+  <si>
     <t>2-1</t>
   </si>
   <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>1-1</t>
-  </si>
-  <si>
-    <t>0-3</t>
-  </si>
-  <si>
-    <t>9.4-5.6</t>
-  </si>
-  <si>
-    <t>8.9-6.1</t>
-  </si>
-  <si>
-    <t>8.8-6.2</t>
-  </si>
-  <si>
-    <t>9.2-5.8</t>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>9.6-5.4</t>
+  </si>
+  <si>
+    <t>9.7-5.3</t>
   </si>
   <si>
     <t>8.7-6.3</t>
   </si>
   <si>
-    <t>8.2-6.8</t>
-  </si>
-  <si>
-    <t>6.7-8.3</t>
-  </si>
-  <si>
-    <t>7.0-8.0</t>
+    <t>8.5-6.5</t>
+  </si>
+  <si>
+    <t>8.4-6.6</t>
+  </si>
+  <si>
+    <t>8.1-6.9</t>
+  </si>
+  <si>
+    <t>7.8-7.2</t>
+  </si>
+  <si>
+    <t>7.7-7.3</t>
+  </si>
+  <si>
+    <t>7.5-7.5</t>
+  </si>
+  <si>
+    <t>6.6-8.4</t>
   </si>
   <si>
     <t>6.9-8.1</t>
   </si>
   <si>
-    <t>6.6-8.4</t>
-  </si>
-  <si>
-    <t>6.8-8.2</t>
-  </si>
-  <si>
-    <t>6.1-8.9</t>
-  </si>
-  <si>
-    <t>5.3-9.7</t>
-  </si>
-  <si>
-    <t>5.1-9.9</t>
-  </si>
-  <si>
-    <t>2.8-12.2</t>
+    <t>6.3-8.7</t>
+  </si>
+  <si>
+    <t>6.0-9.0</t>
+  </si>
+  <si>
+    <t>5.4-9.6</t>
+  </si>
+  <si>
+    <t>4.4-10.6</t>
+  </si>
+  <si>
+    <t>4.2-10.8</t>
+  </si>
+  <si>
+    <t>10-5</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>9-5</t>
   </si>
   <si>
     <t>9-6</t>
   </si>
   <si>
-    <t>10-5</t>
-  </si>
-  <si>
-    <t>9-5</t>
-  </si>
-  <si>
     <t>8-7</t>
   </si>
   <si>
+    <t>7-8</t>
+  </si>
+  <si>
     <t>6-9</t>
   </si>
   <si>
-    <t>7-8</t>
-  </si>
-  <si>
-    <t>5-10</t>
-  </si>
-  <si>
-    <t>3-12</t>
+    <t>4-11</t>
   </si>
   <si>
     <t>Owners</t>
@@ -278,42 +287,45 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Kiana McIntosh</t>
+  </si>
+  <si>
     <t>Malini Ragoopath</t>
   </si>
   <si>
+    <t>Lily Lamb</t>
+  </si>
+  <si>
+    <t>Brianna Goebel</t>
+  </si>
+  <si>
     <t>Shae Marx</t>
   </si>
   <si>
-    <t>Kiana McIntosh</t>
-  </si>
-  <si>
-    <t>Brianna Goebel</t>
-  </si>
-  <si>
-    <t>Lily Lamb</t>
+    <t>Sumita Gangwani</t>
+  </si>
+  <si>
+    <t>Amanda Pasquale</t>
+  </si>
+  <si>
+    <t>Hillary Dale</t>
+  </si>
+  <si>
+    <t>Emily Carey</t>
   </si>
   <si>
     <t>Grace Stockbower</t>
   </si>
   <si>
-    <t>Emily Carey</t>
-  </si>
-  <si>
-    <t>Amanda Pasquale</t>
-  </si>
-  <si>
-    <t>Hillary Dale</t>
-  </si>
-  <si>
-    <t>Sumita Gangwani</t>
-  </si>
-  <si>
     <t>Rebecca Schneider</t>
   </si>
   <si>
     <t>Hannah Miller</t>
   </si>
   <si>
+    <t>Faith Pon</t>
+  </si>
+  <si>
     <t>Swathi Veeravalli</t>
   </si>
   <si>
@@ -323,57 +335,51 @@
     <t>Allie Kardon</t>
   </si>
   <si>
-    <t>Faith Pon</t>
+    <t>Grace Schiavone</t>
   </si>
   <si>
     <t>Nicole Coppins</t>
   </si>
   <si>
-    <t>Grace Schiavone</t>
-  </si>
-  <si>
-    <t>↑9</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓10</t>
+  </si>
+  <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑2</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
-    <t>↑11</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑3</t>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓7</t>
   </si>
   <si>
     <t>↓11</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -381,6 +387,9 @@
   </si>
   <si>
     <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
   </si>
   <si>
     <t>Week</t>
@@ -829,52 +838,52 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
         <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s">
         <v>18</v>
@@ -888,55 +897,55 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" t="s">
         <v>21</v>
       </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
-        <v>21</v>
-      </c>
-      <c r="O3" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>19</v>
-      </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -947,55 +956,55 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="R4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1003,58 +1012,58 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
         <v>21</v>
       </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" t="s">
         <v>21</v>
       </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>19</v>
-      </c>
       <c r="R5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1062,34 +1071,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L6" t="s">
         <v>18</v>
@@ -1098,22 +1107,22 @@
         <v>18</v>
       </c>
       <c r="N6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P6" t="s">
         <v>20</v>
       </c>
       <c r="Q6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1124,10 +1133,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -1142,10 +1151,10 @@
         <v>19</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K7" t="s">
         <v>18</v>
@@ -1157,22 +1166,22 @@
         <v>19</v>
       </c>
       <c r="N7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P7" t="s">
         <v>18</v>
       </c>
       <c r="Q7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1180,16 +1189,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
@@ -1207,25 +1216,25 @@
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s">
         <v>18</v>
       </c>
       <c r="N8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R8" t="s">
         <v>18</v>
@@ -1242,16 +1251,16 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -1260,13 +1269,13 @@
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
         <v>18</v>
@@ -1275,19 +1284,19 @@
         <v>19</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S9" t="s">
         <v>20</v>
@@ -1301,52 +1310,52 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
         <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M10" t="s">
         <v>18</v>
       </c>
       <c r="N10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S10" t="s">
         <v>18</v>
@@ -1360,16 +1369,16 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
@@ -1378,37 +1387,37 @@
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M11" t="s">
         <v>18</v>
       </c>
       <c r="N11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1419,55 +1428,55 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
         <v>18</v>
       </c>
       <c r="N12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1478,25 +1487,25 @@
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
         <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
         <v>18</v>
@@ -1511,16 +1520,16 @@
         <v>18</v>
       </c>
       <c r="N13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R13" t="s">
         <v>18</v>
@@ -1537,55 +1546,55 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
         <v>21</v>
       </c>
-      <c r="F14" t="s">
-        <v>19</v>
-      </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N14" t="s">
+        <v>18</v>
+      </c>
+      <c r="O14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" t="s">
         <v>21</v>
       </c>
-      <c r="O14" t="s">
-        <v>18</v>
-      </c>
-      <c r="P14" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>19</v>
-      </c>
       <c r="R14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1599,7 +1608,7 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -1629,16 +1638,16 @@
         <v>19</v>
       </c>
       <c r="N15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P15" t="s">
         <v>18</v>
       </c>
       <c r="Q15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R15" t="s">
         <v>19</v>
@@ -1655,55 +1664,55 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="O16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Q16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="S16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1717,52 +1726,52 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
         <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
         <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P17" t="s">
         <v>20</v>
       </c>
       <c r="Q17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="R17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1773,7 +1782,7 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -1782,46 +1791,46 @@
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" t="s">
         <v>20</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N18" t="s">
         <v>20</v>
       </c>
       <c r="O18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P18" t="s">
         <v>20</v>
       </c>
       <c r="Q18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="R18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1832,52 +1841,52 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" t="s">
+        <v>19</v>
+      </c>
+      <c r="M19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" t="s">
+        <v>18</v>
+      </c>
+      <c r="O19" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q19" t="s">
         <v>21</v>
       </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" t="s">
-        <v>18</v>
-      </c>
-      <c r="L19" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" t="s">
-        <v>21</v>
-      </c>
-      <c r="O19" t="s">
-        <v>18</v>
-      </c>
-      <c r="P19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>19</v>
-      </c>
       <c r="R19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S19" t="s">
         <v>18</v>
@@ -1898,13 +1907,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1915,10 +1924,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>0.7222222222222222</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1926,13 +1935,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>0.8333333333333334</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1940,13 +1949,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0.8888888888888888</v>
+        <v>1.5</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1954,10 +1963,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1968,13 +1977,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1.055555555555556</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1982,10 +1991,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>1.166666666666667</v>
+        <v>1.722222222222222</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1996,13 +2005,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>1.222222222222222</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2010,13 +2019,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>1.5</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2024,13 +2033,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>1.611111111111111</v>
+        <v>1.944444444444444</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2038,13 +2047,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C11">
-        <v>1.666666666666667</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2052,10 +2061,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1.722222222222222</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -2066,13 +2075,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>1.722222222222222</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2080,10 +2089,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>1.833333333333333</v>
+        <v>2.277777777777778</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -2094,13 +2103,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>1.833333333333333</v>
+        <v>2.388888888888889</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2111,7 +2120,7 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>1.944444444444444</v>
+        <v>2.388888888888889</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -2122,13 +2131,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>2.055555555555555</v>
+        <v>2.611111111111111</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2136,13 +2145,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>2.055555555555555</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2150,13 +2159,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>2.055555555555555</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2174,16 +2183,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2194,13 +2203,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>2.333333333333333</v>
+        <v>3.277777777777778</v>
       </c>
       <c r="D2">
-        <v>1.333333333333333</v>
+        <v>1.277777777777778</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2208,16 +2217,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>2.277777777777778</v>
+        <v>2.944444444444445</v>
       </c>
       <c r="D3">
-        <v>0.2777777777777777</v>
+        <v>0.9444444444444446</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2225,16 +2234,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1.944444444444444</v>
+        <v>2.555555555555555</v>
       </c>
       <c r="D4">
-        <v>-0.05555555555555558</v>
+        <v>0.5555555555555554</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2242,16 +2251,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>1.944444444444444</v>
+        <v>2.5</v>
       </c>
       <c r="D5">
-        <v>0.9444444444444444</v>
+        <v>-0.5</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2259,16 +2268,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>1.944444444444444</v>
+        <v>2.444444444444445</v>
       </c>
       <c r="D6">
-        <v>0.9444444444444444</v>
+        <v>0.4444444444444446</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2276,13 +2285,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>1.833333333333333</v>
+        <v>2.444444444444445</v>
       </c>
       <c r="D7">
-        <v>-0.1666666666666667</v>
+        <v>0.4444444444444446</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -2293,13 +2302,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>1.777777777777778</v>
+        <v>2.444444444444445</v>
       </c>
       <c r="D8">
-        <v>-0.2222222222222223</v>
+        <v>0.4444444444444446</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -2310,16 +2319,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>1.611111111111111</v>
+        <v>2.388888888888889</v>
       </c>
       <c r="D9">
-        <v>-0.3888888888888888</v>
+        <v>-0.6111111111111112</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2327,13 +2336,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>1.611111111111111</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>-0.3888888888888888</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -2344,16 +2353,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>1.555555555555556</v>
+        <v>1.944444444444444</v>
       </c>
       <c r="D11">
-        <v>0.5555555555555556</v>
+        <v>-0.05555555555555558</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2361,16 +2370,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>1.388888888888889</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D12">
-        <v>0.3888888888888888</v>
+        <v>-0.1666666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2378,16 +2387,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>1.277777777777778</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="D13">
-        <v>-0.7222222222222223</v>
+        <v>0.8333333333333333</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2398,13 +2407,13 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>1.277777777777778</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="D14">
-        <v>-0.7222222222222223</v>
+        <v>-1.388888888888889</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2412,16 +2421,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>1.166666666666667</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="D15">
-        <v>0.1666666666666667</v>
+        <v>-0.6111111111111112</v>
       </c>
       <c r="E15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2429,13 +2438,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>1.055555555555556</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="D16">
-        <v>-0.9444444444444444</v>
+        <v>-0.6111111111111112</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -2446,16 +2455,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>0.9444444444444444</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="D17">
-        <v>-0.05555555555555558</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2463,16 +2472,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>0.6666666666666666</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="D18">
-        <v>-0.3333333333333334</v>
+        <v>-0.05555555555555558</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2480,16 +2489,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C19">
-        <v>0.2777777777777778</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D19">
-        <v>0.2777777777777778</v>
+        <v>-0.1666666666666666</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2507,300 +2516,300 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>19.7</v>
+      </c>
+      <c r="C2">
+        <v>18.5</v>
+      </c>
+      <c r="D2">
+        <v>15.3</v>
+      </c>
+      <c r="E2">
         <v>13</v>
       </c>
-      <c r="B2">
-        <v>19.8</v>
-      </c>
-      <c r="C2">
-        <v>14.7</v>
-      </c>
-      <c r="D2">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="E2">
-        <v>9.5</v>
-      </c>
       <c r="F2">
-        <v>9.6</v>
+        <v>9.1</v>
       </c>
       <c r="G2">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="H2">
-        <v>7.1</v>
+        <v>4.6</v>
       </c>
       <c r="I2">
-        <v>4.8</v>
+        <v>3.8</v>
       </c>
       <c r="J2">
-        <v>5.4</v>
+        <v>3.2</v>
       </c>
       <c r="K2">
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="M2">
-        <v>2.3</v>
+        <v>1.5</v>
       </c>
       <c r="N2">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="O2">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="P2">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q2">
+        <v>0.1</v>
+      </c>
+      <c r="R2">
         <v>0</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>0.1</v>
       </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
       <c r="T2">
-        <v>70.90000000000001</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>20.6</v>
+        <v>28.4</v>
       </c>
       <c r="C3">
-        <v>15.1</v>
+        <v>16.4</v>
       </c>
       <c r="D3">
-        <v>11.2</v>
+        <v>14.3</v>
       </c>
       <c r="E3">
-        <v>8.6</v>
+        <v>10.1</v>
       </c>
       <c r="F3">
-        <v>7.7</v>
+        <v>6.1</v>
       </c>
       <c r="G3">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="H3">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="I3">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="J3">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="K3">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="L3">
-        <v>3.9</v>
+        <v>1.6</v>
       </c>
       <c r="M3">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="N3">
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="P3">
         <v>0.3</v>
       </c>
       <c r="Q3">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>69.8</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>15.3</v>
+      </c>
+      <c r="C4">
+        <v>16.1</v>
+      </c>
+      <c r="D4">
+        <v>12.7</v>
+      </c>
+      <c r="E4">
+        <v>12.2</v>
+      </c>
+      <c r="F4">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="C4">
-        <v>10.3</v>
-      </c>
-      <c r="D4">
-        <v>13</v>
-      </c>
-      <c r="E4">
-        <v>10.8</v>
-      </c>
-      <c r="F4">
-        <v>13.2</v>
-      </c>
       <c r="G4">
-        <v>9.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H4">
-        <v>8.5</v>
+        <v>6</v>
       </c>
       <c r="I4">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="J4">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="K4">
-        <v>5.4</v>
+        <v>2.6</v>
       </c>
       <c r="L4">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="M4">
-        <v>2.5</v>
+        <v>0.9</v>
       </c>
       <c r="N4">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="O4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="P4">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q4">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="R4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>66</v>
+        <v>77.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>11.8</v>
+        <v>7.3</v>
       </c>
       <c r="C5">
-        <v>11.1</v>
+        <v>9.9</v>
       </c>
       <c r="D5">
-        <v>11.2</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F5">
-        <v>10.2</v>
+        <v>11.7</v>
       </c>
       <c r="G5">
-        <v>7.7</v>
+        <v>9.1</v>
       </c>
       <c r="H5">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I5">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
       <c r="J5">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="K5">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="L5">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M5">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="N5">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="O5">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="P5">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q5">
         <v>1.1</v>
@@ -2809,444 +2818,444 @@
         <v>0.2</v>
       </c>
       <c r="S5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>64</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B6">
+        <v>7.7</v>
+      </c>
+      <c r="C6">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="D6">
         <v>9.699999999999999</v>
       </c>
-      <c r="C6">
-        <v>12</v>
-      </c>
-      <c r="D6">
-        <v>9.800000000000001</v>
-      </c>
       <c r="E6">
-        <v>9.699999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="F6">
-        <v>9.800000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="G6">
-        <v>10.4</v>
+        <v>7.6</v>
       </c>
       <c r="H6">
-        <v>10.5</v>
+        <v>8.1</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J6">
-        <v>5.1</v>
+        <v>6.9</v>
       </c>
       <c r="K6">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="L6">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="N6">
-        <v>1.3</v>
+        <v>3.2</v>
       </c>
       <c r="O6">
-        <v>1.1</v>
+        <v>2.6</v>
       </c>
       <c r="P6">
+        <v>2.2</v>
+      </c>
+      <c r="Q6">
         <v>0.5</v>
       </c>
-      <c r="Q6">
-        <v>0.2</v>
-      </c>
       <c r="R6">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>61.4</v>
+        <v>54.1</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B7">
+        <v>8.9</v>
+      </c>
+      <c r="C7">
+        <v>8.1</v>
+      </c>
+      <c r="D7">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="E7">
         <v>7.7</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>8.6</v>
       </c>
-      <c r="D7">
-        <v>9.4</v>
-      </c>
-      <c r="E7">
-        <v>11.1</v>
-      </c>
-      <c r="F7">
-        <v>9.5</v>
-      </c>
       <c r="G7">
-        <v>10.3</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="H7">
-        <v>10.8</v>
+        <v>9.9</v>
       </c>
       <c r="I7">
         <v>8.6</v>
       </c>
       <c r="J7">
-        <v>5.5</v>
+        <v>7.2</v>
       </c>
       <c r="K7">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="L7">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="N7">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="O7">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="P7">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="Q7">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="R7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>56.6</v>
+        <v>50.7</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4.4</v>
+      </c>
+      <c r="D8">
+        <v>6.6</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>9.6</v>
+      </c>
+      <c r="G8">
+        <v>10.1</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="J8">
         <v>8.9</v>
       </c>
-      <c r="C8">
-        <v>9.9</v>
-      </c>
-      <c r="D8">
+      <c r="K8">
         <v>9.1</v>
       </c>
-      <c r="E8">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F8">
-        <v>8.4</v>
-      </c>
-      <c r="G8">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="H8">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="I8">
-        <v>8.9</v>
-      </c>
-      <c r="J8">
-        <v>6.2</v>
-      </c>
-      <c r="K8">
-        <v>5.8</v>
-      </c>
       <c r="L8">
-        <v>5.2</v>
+        <v>6.3</v>
       </c>
       <c r="M8">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="N8">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O8">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="P8">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="Q8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T8">
-        <v>54.3</v>
+        <v>41.7</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B9">
-        <v>5.9</v>
+        <v>2.4</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="D9">
-        <v>8.699999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="E9">
-        <v>10.8</v>
+        <v>6.9</v>
       </c>
       <c r="F9">
-        <v>9.699999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="G9">
-        <v>10.1</v>
+        <v>9.1</v>
       </c>
       <c r="H9">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="I9">
-        <v>8.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="J9">
-        <v>8.6</v>
+        <v>8</v>
       </c>
       <c r="K9">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="M9">
-        <v>3.1</v>
+        <v>5.8</v>
       </c>
       <c r="N9">
+        <v>5.2</v>
+      </c>
+      <c r="O9">
+        <v>4.8</v>
+      </c>
+      <c r="P9">
         <v>2.9</v>
       </c>
-      <c r="O9">
-        <v>1.1</v>
-      </c>
-      <c r="P9">
-        <v>1.4</v>
-      </c>
       <c r="Q9">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="R9">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="S9">
         <v>0.2</v>
       </c>
       <c r="T9">
-        <v>52.2</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B10">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="C10">
+        <v>4.4</v>
+      </c>
+      <c r="D10">
+        <v>5.9</v>
+      </c>
+      <c r="E10">
+        <v>5.9</v>
+      </c>
+      <c r="F10">
+        <v>7.4</v>
+      </c>
+      <c r="G10">
+        <v>7.7</v>
+      </c>
+      <c r="H10">
+        <v>8.4</v>
+      </c>
+      <c r="I10">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="J10">
+        <v>8.9</v>
+      </c>
+      <c r="K10">
+        <v>6.7</v>
+      </c>
+      <c r="L10">
+        <v>6.6</v>
+      </c>
+      <c r="M10">
+        <v>7.7</v>
+      </c>
+      <c r="N10">
         <v>5.7</v>
       </c>
-      <c r="D10">
-        <v>8.4</v>
-      </c>
-      <c r="E10">
-        <v>6.7</v>
-      </c>
-      <c r="F10">
-        <v>6.2</v>
-      </c>
-      <c r="G10">
-        <v>7.1</v>
-      </c>
-      <c r="H10">
-        <v>8.5</v>
-      </c>
-      <c r="I10">
-        <v>9</v>
-      </c>
-      <c r="J10">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="K10">
-        <v>8.6</v>
-      </c>
-      <c r="L10">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="M10">
-        <v>6.3</v>
-      </c>
-      <c r="N10">
+      <c r="O10">
         <v>4.2</v>
       </c>
-      <c r="O10">
-        <v>3.1</v>
-      </c>
       <c r="P10">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="Q10">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R10">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="S10">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="T10">
-        <v>38.2</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="C11">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="D11">
-        <v>1.9</v>
+        <v>3.9</v>
       </c>
       <c r="E11">
-        <v>3.1</v>
+        <v>5.3</v>
       </c>
       <c r="F11">
-        <v>2.6</v>
+        <v>5.7</v>
       </c>
       <c r="G11">
-        <v>3.4</v>
+        <v>6.6</v>
       </c>
       <c r="H11">
-        <v>4.3</v>
+        <v>7.9</v>
       </c>
       <c r="I11">
+        <v>6.9</v>
+      </c>
+      <c r="J11">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K11">
+        <v>9.1</v>
+      </c>
+      <c r="L11">
+        <v>8.5</v>
+      </c>
+      <c r="M11">
+        <v>8</v>
+      </c>
+      <c r="N11">
+        <v>7.8</v>
+      </c>
+      <c r="O11">
+        <v>5.4</v>
+      </c>
+      <c r="P11">
         <v>5.2</v>
       </c>
-      <c r="J11">
-        <v>6.6</v>
-      </c>
-      <c r="K11">
-        <v>7.9</v>
-      </c>
-      <c r="L11">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="M11">
-        <v>10.5</v>
-      </c>
-      <c r="N11">
-        <v>8.9</v>
-      </c>
-      <c r="O11">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="P11">
-        <v>10.4</v>
-      </c>
       <c r="Q11">
-        <v>8.4</v>
+        <v>3</v>
       </c>
       <c r="R11">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="S11">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="T11">
-        <v>13.3</v>
+        <v>25.9</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="C12">
-        <v>0.9</v>
+        <v>2.2</v>
       </c>
       <c r="D12">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="E12">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="F12">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="G12">
-        <v>4.3</v>
+        <v>6.4</v>
       </c>
       <c r="H12">
+        <v>7.5</v>
+      </c>
+      <c r="I12">
+        <v>8.9</v>
+      </c>
+      <c r="J12">
+        <v>10.8</v>
+      </c>
+      <c r="K12">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="L12">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="M12">
+        <v>9.1</v>
+      </c>
+      <c r="N12">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="O12">
+        <v>5.5</v>
+      </c>
+      <c r="P12">
+        <v>5.5</v>
+      </c>
+      <c r="Q12">
         <v>4.5</v>
       </c>
-      <c r="I12">
-        <v>5.3</v>
-      </c>
-      <c r="J12">
-        <v>7.3</v>
-      </c>
-      <c r="K12">
-        <v>7.1</v>
-      </c>
-      <c r="L12">
-        <v>10.5</v>
-      </c>
-      <c r="M12">
-        <v>9.6</v>
-      </c>
-      <c r="N12">
-        <v>10.3</v>
-      </c>
-      <c r="O12">
-        <v>8</v>
-      </c>
-      <c r="P12">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Q12">
-        <v>7.3</v>
-      </c>
       <c r="R12">
-        <v>6</v>
+        <v>1.3</v>
       </c>
       <c r="S12">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="T12">
-        <v>13.2</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -3254,255 +3263,255 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="C13">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="D13">
+        <v>1.3</v>
+      </c>
+      <c r="E13">
+        <v>2.4</v>
+      </c>
+      <c r="F13">
+        <v>2.7</v>
+      </c>
+      <c r="G13">
+        <v>3.9</v>
+      </c>
+      <c r="H13">
+        <v>5.1</v>
+      </c>
+      <c r="I13">
+        <v>5.6</v>
+      </c>
+      <c r="J13">
+        <v>6.8</v>
+      </c>
+      <c r="K13">
+        <v>7.7</v>
+      </c>
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13">
+        <v>12.3</v>
+      </c>
+      <c r="N13">
+        <v>10.4</v>
+      </c>
+      <c r="O13">
+        <v>10.1</v>
+      </c>
+      <c r="P13">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Q13">
+        <v>5.5</v>
+      </c>
+      <c r="R13">
+        <v>4.3</v>
+      </c>
+      <c r="S13">
         <v>2</v>
       </c>
-      <c r="E13">
-        <v>1.5</v>
-      </c>
-      <c r="F13">
-        <v>2.4</v>
-      </c>
-      <c r="G13">
-        <v>4.6</v>
-      </c>
-      <c r="H13">
-        <v>6.1</v>
-      </c>
-      <c r="I13">
-        <v>7.3</v>
-      </c>
-      <c r="J13">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="K13">
-        <v>8.6</v>
-      </c>
-      <c r="L13">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="M13">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="N13">
-        <v>10</v>
-      </c>
-      <c r="O13">
-        <v>10</v>
-      </c>
-      <c r="P13">
-        <v>6.6</v>
-      </c>
-      <c r="Q13">
-        <v>5.4</v>
-      </c>
-      <c r="R13">
-        <v>3.9</v>
-      </c>
-      <c r="S13">
-        <v>0.3</v>
-      </c>
       <c r="T13">
-        <v>12.5</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="C14">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="D14">
+        <v>1.6</v>
+      </c>
+      <c r="E14">
+        <v>1.5</v>
+      </c>
+      <c r="F14">
+        <v>1.6</v>
+      </c>
+      <c r="G14">
+        <v>2.8</v>
+      </c>
+      <c r="H14">
+        <v>4.5</v>
+      </c>
+      <c r="I14">
+        <v>4.9</v>
+      </c>
+      <c r="J14">
+        <v>6.6</v>
+      </c>
+      <c r="K14">
+        <v>7.4</v>
+      </c>
+      <c r="L14">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="M14">
+        <v>9.9</v>
+      </c>
+      <c r="N14">
+        <v>13.5</v>
+      </c>
+      <c r="O14">
+        <v>12.5</v>
+      </c>
+      <c r="P14">
+        <v>10.8</v>
+      </c>
+      <c r="Q14">
+        <v>6.9</v>
+      </c>
+      <c r="R14">
+        <v>3.7</v>
+      </c>
+      <c r="S14">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>1.7</v>
-      </c>
-      <c r="F14">
-        <v>3.6</v>
-      </c>
-      <c r="G14">
-        <v>3.2</v>
-      </c>
-      <c r="H14">
-        <v>3.4</v>
-      </c>
-      <c r="I14">
-        <v>6</v>
-      </c>
-      <c r="J14">
-        <v>7.1</v>
-      </c>
-      <c r="K14">
-        <v>7.1</v>
-      </c>
-      <c r="L14">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="M14">
-        <v>10.8</v>
-      </c>
-      <c r="N14">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="O14">
-        <v>11.1</v>
-      </c>
-      <c r="P14">
-        <v>10.3</v>
-      </c>
-      <c r="Q14">
-        <v>7.8</v>
-      </c>
-      <c r="R14">
-        <v>6.1</v>
-      </c>
-      <c r="S14">
-        <v>1.8</v>
-      </c>
       <c r="T14">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B15">
+        <v>0.2</v>
+      </c>
+      <c r="C15">
+        <v>0.2</v>
+      </c>
+      <c r="D15">
         <v>0.3</v>
       </c>
-      <c r="C15">
-        <v>0.8</v>
-      </c>
-      <c r="D15">
+      <c r="E15">
         <v>1.3</v>
       </c>
-      <c r="E15">
-        <v>2.1</v>
-      </c>
       <c r="F15">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="H15">
+        <v>2.4</v>
+      </c>
+      <c r="I15">
         <v>3.3</v>
       </c>
-      <c r="I15">
+      <c r="J15">
+        <v>4.9</v>
+      </c>
+      <c r="K15">
+        <v>6.5</v>
+      </c>
+      <c r="L15">
+        <v>8.9</v>
+      </c>
+      <c r="M15">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="N15">
+        <v>9.4</v>
+      </c>
+      <c r="O15">
+        <v>12.2</v>
+      </c>
+      <c r="P15">
+        <v>11.6</v>
+      </c>
+      <c r="Q15">
+        <v>11.1</v>
+      </c>
+      <c r="R15">
+        <v>9.9</v>
+      </c>
+      <c r="S15">
+        <v>5.2</v>
+      </c>
+      <c r="T15">
         <v>4.8</v>
-      </c>
-      <c r="J15">
-        <v>7.1</v>
-      </c>
-      <c r="K15">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="L15">
-        <v>10.1</v>
-      </c>
-      <c r="M15">
-        <v>10.3</v>
-      </c>
-      <c r="N15">
-        <v>9.5</v>
-      </c>
-      <c r="O15">
-        <v>12.9</v>
-      </c>
-      <c r="P15">
-        <v>9.5</v>
-      </c>
-      <c r="Q15">
-        <v>8.5</v>
-      </c>
-      <c r="R15">
-        <v>4.7</v>
-      </c>
-      <c r="S15">
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C16">
+        <v>0.5</v>
+      </c>
+      <c r="D16">
         <v>0.3</v>
       </c>
-      <c r="D16">
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+      <c r="F16">
         <v>0.8</v>
       </c>
-      <c r="E16">
-        <v>0.7</v>
-      </c>
-      <c r="F16">
-        <v>1.4</v>
-      </c>
       <c r="G16">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H16">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J16">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="K16">
+        <v>5.6</v>
+      </c>
+      <c r="L16">
+        <v>6.5</v>
+      </c>
+      <c r="M16">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="N16">
+        <v>8.4</v>
+      </c>
+      <c r="O16">
+        <v>13.2</v>
+      </c>
+      <c r="P16">
+        <v>14.7</v>
+      </c>
+      <c r="Q16">
+        <v>15.8</v>
+      </c>
+      <c r="R16">
+        <v>9.9</v>
+      </c>
+      <c r="S16">
+        <v>6.2</v>
+      </c>
+      <c r="T16">
         <v>3.9</v>
-      </c>
-      <c r="L16">
-        <v>6.8</v>
-      </c>
-      <c r="M16">
-        <v>9.6</v>
-      </c>
-      <c r="N16">
-        <v>10.8</v>
-      </c>
-      <c r="O16">
-        <v>10.9</v>
-      </c>
-      <c r="P16">
-        <v>12</v>
-      </c>
-      <c r="Q16">
-        <v>15.2</v>
-      </c>
-      <c r="R16">
-        <v>13.2</v>
-      </c>
-      <c r="S16">
-        <v>4.8</v>
-      </c>
-      <c r="T16">
-        <v>4.2</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -3511,57 +3520,57 @@
         <v>0.2</v>
       </c>
       <c r="E17">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="F17">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G17">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="H17">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J17">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="K17">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L17">
-        <v>4.4</v>
+        <v>5.6</v>
       </c>
       <c r="M17">
-        <v>5.9</v>
+        <v>6.4</v>
       </c>
       <c r="N17">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="O17">
-        <v>12.4</v>
+        <v>11.1</v>
       </c>
       <c r="P17">
-        <v>13.5</v>
+        <v>12.8</v>
       </c>
       <c r="Q17">
-        <v>17.2</v>
+        <v>15.3</v>
       </c>
       <c r="R17">
-        <v>20.3</v>
+        <v>15.4</v>
       </c>
       <c r="S17">
-        <v>5.4</v>
+        <v>14.4</v>
       </c>
       <c r="T17">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3570,60 +3579,60 @@
         <v>0</v>
       </c>
       <c r="D18">
+        <v>0.1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0.1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>0.2</v>
       </c>
-      <c r="E18">
+      <c r="I18">
+        <v>0.3</v>
+      </c>
+      <c r="J18">
+        <v>0.8</v>
+      </c>
+      <c r="K18">
+        <v>1.4</v>
+      </c>
+      <c r="L18">
+        <v>1.9</v>
+      </c>
+      <c r="M18">
+        <v>3.1</v>
+      </c>
+      <c r="N18">
+        <v>4.5</v>
+      </c>
+      <c r="O18">
+        <v>5.8</v>
+      </c>
+      <c r="P18">
+        <v>10.3</v>
+      </c>
+      <c r="Q18">
+        <v>16.5</v>
+      </c>
+      <c r="R18">
+        <v>24.5</v>
+      </c>
+      <c r="S18">
+        <v>30.5</v>
+      </c>
+      <c r="T18">
         <v>0.2</v>
-      </c>
-      <c r="F18">
-        <v>0.3</v>
-      </c>
-      <c r="G18">
-        <v>0.1</v>
-      </c>
-      <c r="H18">
-        <v>0.4</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1.6</v>
-      </c>
-      <c r="K18">
-        <v>2.5</v>
-      </c>
-      <c r="L18">
-        <v>2.1</v>
-      </c>
-      <c r="M18">
-        <v>4.5</v>
-      </c>
-      <c r="N18">
-        <v>7.4</v>
-      </c>
-      <c r="O18">
-        <v>11.1</v>
-      </c>
-      <c r="P18">
-        <v>16.1</v>
-      </c>
-      <c r="Q18">
-        <v>19.4</v>
-      </c>
-      <c r="R18">
-        <v>24.6</v>
-      </c>
-      <c r="S18">
-        <v>8.5</v>
-      </c>
-      <c r="T18">
-        <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -3635,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -3644,43 +3653,43 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J19">
         <v>0.2</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="M19">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="N19">
-        <v>0.8</v>
+        <v>3.7</v>
       </c>
       <c r="O19">
-        <v>1.5</v>
+        <v>5.4</v>
       </c>
       <c r="P19">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="Q19">
-        <v>5.1</v>
+        <v>15.2</v>
       </c>
       <c r="R19">
-        <v>14.2</v>
+        <v>25.1</v>
       </c>
       <c r="S19">
-        <v>75.2</v>
+        <v>38.9</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -3698,314 +3707,314 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
-        <v>119.12</v>
+        <v>122.02</v>
       </c>
       <c r="E2">
-        <v>357.36</v>
+        <v>488.0799999999999</v>
       </c>
       <c r="F2">
-        <v>70.89999999999999</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>118.8333333333333</v>
+        <v>131.095</v>
       </c>
       <c r="E3">
-        <v>356.5</v>
+        <v>524.38</v>
       </c>
       <c r="F3">
-        <v>69.8</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C4">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>117.4333333333333</v>
+        <v>112.015</v>
       </c>
       <c r="E4">
-        <v>352.3</v>
+        <v>448.0599999999999</v>
       </c>
       <c r="F4">
-        <v>66</v>
+        <v>77.60000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C5">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>121.4266666666667</v>
+        <v>114.455</v>
       </c>
       <c r="E5">
-        <v>364.28</v>
+        <v>457.8200000000001</v>
       </c>
       <c r="F5">
-        <v>64</v>
+        <v>59.4</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>110.72</v>
+        <v>117.44</v>
       </c>
       <c r="E6">
-        <v>332.16</v>
+        <v>469.76</v>
       </c>
       <c r="F6">
-        <v>61.4</v>
+        <v>54.1</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D7">
-        <v>114.66</v>
+        <v>110.715</v>
       </c>
       <c r="E7">
-        <v>343.98</v>
+        <v>442.86</v>
       </c>
       <c r="F7">
-        <v>56.59999999999999</v>
+        <v>50.7</v>
       </c>
       <c r="G7" t="s">
         <v>63</v>
       </c>
       <c r="H7" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C8">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>109.4266666666667</v>
+        <v>108.04</v>
       </c>
       <c r="E8">
-        <v>328.28</v>
+        <v>432.16</v>
       </c>
       <c r="F8">
-        <v>54.3</v>
+        <v>41.7</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C9">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>107.3666666666667</v>
+        <v>110.715</v>
       </c>
       <c r="E9">
-        <v>322.1</v>
+        <v>442.86</v>
       </c>
       <c r="F9">
-        <v>52.2</v>
+        <v>39.5</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>108.7</v>
+        <v>111.625</v>
       </c>
       <c r="E10">
-        <v>326.1</v>
+        <v>446.5</v>
       </c>
       <c r="F10">
-        <v>38.2</v>
+        <v>35.5</v>
       </c>
       <c r="G10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>103.7066666666667</v>
+        <v>104.265</v>
       </c>
       <c r="E11">
-        <v>311.12</v>
+        <v>417.0599999999999</v>
       </c>
       <c r="F11">
-        <v>13.3</v>
+        <v>25.9</v>
       </c>
       <c r="G11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
-        <v>96.88</v>
+        <v>105.115</v>
       </c>
       <c r="E12">
-        <v>290.64</v>
+        <v>420.46</v>
       </c>
       <c r="F12">
-        <v>13.2</v>
+        <v>20.4</v>
       </c>
       <c r="G12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4013,181 +4022,181 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C13">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D13">
-        <v>104.7333333333333</v>
+        <v>106.735</v>
       </c>
       <c r="E13">
-        <v>314.2</v>
+        <v>426.94</v>
       </c>
       <c r="F13">
-        <v>12.5</v>
+        <v>10.9</v>
       </c>
       <c r="G13" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C14">
-        <v>0.3333333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="D14">
-        <v>100.5866666666667</v>
+        <v>96.935</v>
       </c>
       <c r="E14">
-        <v>301.76</v>
+        <v>387.74</v>
       </c>
       <c r="F14">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="G14" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="H14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C15">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D15">
-        <v>97.63333333333333</v>
+        <v>95.22999999999999</v>
       </c>
       <c r="E15">
-        <v>292.9</v>
+        <v>380.92</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>4.8</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D16">
-        <v>90.43333333333332</v>
+        <v>94.10499999999999</v>
       </c>
       <c r="E16">
-        <v>271.3</v>
+        <v>376.42</v>
       </c>
       <c r="F16">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C17">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D17">
-        <v>96.43333333333334</v>
+        <v>93.13999999999999</v>
       </c>
       <c r="E17">
-        <v>289.3</v>
+        <v>372.5599999999999</v>
       </c>
       <c r="F17">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C18">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
       <c r="D18">
-        <v>91.36666666666666</v>
+        <v>92.17</v>
       </c>
       <c r="E18">
-        <v>274.1</v>
+        <v>368.68</v>
       </c>
       <c r="F18">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="G18" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D19">
-        <v>80.48666666666666</v>
+        <v>90.70499999999998</v>
       </c>
       <c r="E19">
-        <v>241.46</v>
+        <v>362.8199999999999</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G19" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -4205,19 +4214,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4225,19 +4234,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4245,19 +4254,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4265,19 +4274,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4288,16 +4297,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4305,19 +4314,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4325,19 +4334,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4345,19 +4354,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D8">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4365,19 +4374,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D9">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4385,19 +4394,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D10">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4405,13 +4414,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D11">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -4428,16 +4437,16 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D12">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4448,16 +4457,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D13">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4465,19 +4474,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D14">
-        <v>-7</v>
+        <v>-5</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4485,10 +4494,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D15">
         <v>-7</v>
@@ -4505,16 +4514,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D16">
-        <v>-8</v>
+        <v>-12</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
         <v>115</v>
@@ -4525,19 +4534,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D17">
-        <v>-9</v>
+        <v>-12</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4545,19 +4554,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D18">
-        <v>-11</v>
+        <v>-19</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4565,19 +4574,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D19">
-        <v>-12</v>
+        <v>-22</v>
       </c>
       <c r="E19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4587,78 +4596,90 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>122</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>14</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -4671,113 +4692,134 @@
       <c r="D5">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>-7</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-3</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="D8">
         <v>-1</v>
       </c>
-      <c r="E8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>-2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>-4</v>
-      </c>
-      <c r="D9">
+      <c r="C10">
+        <v>-3</v>
+      </c>
+      <c r="D10">
         <v>-1</v>
       </c>
-      <c r="E9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>-2</v>
-      </c>
-      <c r="E10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B11">
+        <v>-5</v>
+      </c>
+      <c r="C11">
+        <v>-7</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>-3</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -4790,11 +4832,14 @@
       <c r="D12">
         <v>-3</v>
       </c>
-      <c r="E12" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="E12">
+        <v>-2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4807,110 +4852,131 @@
       <c r="D13">
         <v>-5</v>
       </c>
-      <c r="E13" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="E13">
+        <v>-4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-9</v>
+      </c>
+      <c r="D14">
+        <v>-9</v>
+      </c>
+      <c r="E14">
+        <v>-5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>7</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>3</v>
-      </c>
-      <c r="D14">
-        <v>-7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>-5</v>
-      </c>
-      <c r="C15">
-        <v>-6</v>
       </c>
       <c r="D15">
         <v>-7</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15">
+        <v>-7</v>
+      </c>
+      <c r="F15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B16">
         <v>-5</v>
       </c>
       <c r="C16">
+        <v>-6</v>
+      </c>
+      <c r="D16">
+        <v>-7</v>
+      </c>
+      <c r="E16">
+        <v>-12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>-5</v>
+      </c>
+      <c r="C17">
         <v>-1</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>-8</v>
       </c>
-      <c r="E16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17">
-        <v>-1</v>
-      </c>
-      <c r="C17">
-        <v>-9</v>
-      </c>
-      <c r="D17">
-        <v>-9</v>
-      </c>
-      <c r="E17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17">
+        <v>-12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-7</v>
+      </c>
+      <c r="C18">
+        <v>-8</v>
+      </c>
+      <c r="D18">
+        <v>-12</v>
+      </c>
+      <c r="E18">
+        <v>-19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>-6</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>-13</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>-11</v>
       </c>
-      <c r="E18" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>-7</v>
-      </c>
-      <c r="C19">
-        <v>-8</v>
-      </c>
-      <c r="D19">
-        <v>-12</v>
-      </c>
-      <c r="E19" t="s">
-        <v>116</v>
+      <c r="E19">
+        <v>-22</v>
+      </c>
+      <c r="F19" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4920,7 +4986,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4928,25 +4994,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4954,25 +5020,25 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
       <c r="E2">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="G2">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4980,25 +5046,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>-7</v>
+      </c>
+      <c r="F3">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>-12</v>
-      </c>
-      <c r="F3">
-        <v>-3</v>
-      </c>
       <c r="G3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5006,25 +5072,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="F4">
+        <v>-3</v>
+      </c>
+      <c r="G4">
         <v>9</v>
       </c>
-      <c r="G4">
-        <v>7</v>
-      </c>
       <c r="H4" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5035,22 +5101,22 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+      <c r="H5" t="s">
         <v>0</v>
-      </c>
-      <c r="G5">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5058,25 +5124,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5110,25 +5176,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="F8">
-        <v>-9</v>
+        <v>-2</v>
       </c>
       <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
         <v>4</v>
-      </c>
-      <c r="H8" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5139,22 +5205,22 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <v>-3</v>
+        <v>-13</v>
       </c>
       <c r="F9">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5162,24 +5228,50 @@
         <v>8</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>-3</v>
+      </c>
+      <c r="F10">
+        <v>-6</v>
+      </c>
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>15</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>17</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>2</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H11" t="s">
         <v>3</v>
       </c>
     </row>

--- a/leagues/The Girl's Room 💞🏈 2025.xlsx
+++ b/leagues/The Girl's Room 💞🏈 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="132">
   <si>
     <t>Tush Push Director 🍑</t>
   </si>
@@ -197,70 +197,73 @@
     <t>2-2</t>
   </si>
   <si>
-    <t>2-1</t>
-  </si>
-  <si>
     <t>3-1</t>
   </si>
   <si>
     <t>1-3</t>
   </si>
   <si>
-    <t>9.6-5.4</t>
-  </si>
-  <si>
-    <t>9.7-5.3</t>
-  </si>
-  <si>
-    <t>8.7-6.3</t>
-  </si>
-  <si>
-    <t>8.5-6.5</t>
-  </si>
-  <si>
-    <t>8.4-6.6</t>
-  </si>
-  <si>
-    <t>8.1-6.9</t>
-  </si>
-  <si>
-    <t>7.8-7.2</t>
-  </si>
-  <si>
-    <t>7.7-7.3</t>
-  </si>
-  <si>
-    <t>7.5-7.5</t>
-  </si>
-  <si>
-    <t>6.6-8.4</t>
-  </si>
-  <si>
-    <t>6.9-8.1</t>
-  </si>
-  <si>
-    <t>6.3-8.7</t>
-  </si>
-  <si>
-    <t>6.0-9.0</t>
-  </si>
-  <si>
-    <t>5.4-9.6</t>
-  </si>
-  <si>
-    <t>4.4-10.6</t>
-  </si>
-  <si>
-    <t>4.2-10.8</t>
+    <t>9.7-4.3-1.1</t>
+  </si>
+  <si>
+    <t>9.6-5.3-0.1</t>
+  </si>
+  <si>
+    <t>9.7-5.2-0.1</t>
+  </si>
+  <si>
+    <t>8.7-5.1-1.1</t>
+  </si>
+  <si>
+    <t>8.4-6.5-0.1</t>
+  </si>
+  <si>
+    <t>8.6-6.3-0.1</t>
+  </si>
+  <si>
+    <t>8.3-6.5-0.1</t>
+  </si>
+  <si>
+    <t>7.9-7.0-0.1</t>
+  </si>
+  <si>
+    <t>7.8-7.1-0.1</t>
+  </si>
+  <si>
+    <t>7.6-7.3-0.1</t>
+  </si>
+  <si>
+    <t>7.4-7.5-0.1</t>
+  </si>
+  <si>
+    <t>6.6-8.3-0.1</t>
+  </si>
+  <si>
+    <t>6.7-8.2-0.1</t>
+  </si>
+  <si>
+    <t>6.1-8.8-0.1</t>
+  </si>
+  <si>
+    <t>6.0-8.9-0.1</t>
+  </si>
+  <si>
+    <t>5.3-9.6-0.1</t>
+  </si>
+  <si>
+    <t>4.5-10.4-0.1</t>
+  </si>
+  <si>
+    <t>4.2-10.7-0.1</t>
+  </si>
+  <si>
+    <t>10-4-1</t>
   </si>
   <si>
     <t>10-5</t>
   </si>
   <si>
-    <t>10-4</t>
-  </si>
-  <si>
-    <t>9-5</t>
+    <t>9-5-1</t>
   </si>
   <si>
     <t>9-6</t>
@@ -273,6 +276,9 @@
   </si>
   <si>
     <t>6-9</t>
+  </si>
+  <si>
+    <t>5-10</t>
   </si>
   <si>
     <t>4-11</t>
@@ -2578,117 +2584,117 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>19.7</v>
+        <v>30.1</v>
       </c>
       <c r="C2">
-        <v>18.5</v>
+        <v>19.3</v>
       </c>
       <c r="D2">
-        <v>15.3</v>
+        <v>13.4</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>10.2</v>
       </c>
       <c r="F2">
-        <v>9.1</v>
+        <v>6.5</v>
       </c>
       <c r="G2">
-        <v>6.6</v>
+        <v>5.6</v>
       </c>
       <c r="H2">
-        <v>4.6</v>
+        <v>5.6</v>
       </c>
       <c r="I2">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="J2">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1.6</v>
       </c>
       <c r="L2">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="M2">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="N2">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="O2">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="P2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Q2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>82.2</v>
+        <v>85.09999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>28.4</v>
+        <v>17.5</v>
       </c>
       <c r="C3">
-        <v>16.4</v>
+        <v>16.8</v>
       </c>
       <c r="D3">
-        <v>14.3</v>
+        <v>16.2</v>
       </c>
       <c r="E3">
-        <v>10.1</v>
+        <v>11.1</v>
       </c>
       <c r="F3">
+        <v>11.6</v>
+      </c>
+      <c r="G3">
+        <v>7.2</v>
+      </c>
+      <c r="H3">
         <v>6.1</v>
       </c>
-      <c r="G3">
-        <v>6.7</v>
-      </c>
-      <c r="H3">
-        <v>5.1</v>
-      </c>
       <c r="I3">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J3">
+        <v>2.8</v>
+      </c>
+      <c r="K3">
+        <v>2.2</v>
+      </c>
+      <c r="L3">
         <v>1.8</v>
       </c>
-      <c r="K3">
-        <v>2.3</v>
-      </c>
-      <c r="L3">
-        <v>1.6</v>
-      </c>
       <c r="M3">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="N3">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="O3">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="P3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Q3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2697,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>82</v>
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2705,52 +2711,52 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>15.3</v>
+        <v>16.1</v>
       </c>
       <c r="C4">
-        <v>16.1</v>
+        <v>16.6</v>
       </c>
       <c r="D4">
-        <v>12.7</v>
+        <v>13.6</v>
       </c>
       <c r="E4">
-        <v>12.2</v>
+        <v>10.5</v>
       </c>
       <c r="F4">
-        <v>12</v>
+        <v>10.7</v>
       </c>
       <c r="G4">
-        <v>9.300000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="I4">
-        <v>5.9</v>
+        <v>5.3</v>
       </c>
       <c r="J4">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="K4">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="L4">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="M4">
+        <v>1.6</v>
+      </c>
+      <c r="N4">
         <v>0.9</v>
       </c>
-      <c r="N4">
-        <v>0.6</v>
-      </c>
       <c r="O4">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="P4">
+        <v>0.3</v>
+      </c>
+      <c r="Q4">
         <v>0.2</v>
-      </c>
-      <c r="Q4">
-        <v>0.1</v>
       </c>
       <c r="R4">
         <v>0</v>
@@ -2759,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>77.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2767,61 +2773,61 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <v>7.3</v>
+        <v>10.5</v>
       </c>
       <c r="C5">
-        <v>9.9</v>
+        <v>11.5</v>
       </c>
       <c r="D5">
-        <v>9.699999999999999</v>
+        <v>13</v>
       </c>
       <c r="E5">
-        <v>11.7</v>
+        <v>14.6</v>
       </c>
       <c r="F5">
-        <v>11.7</v>
+        <v>8.9</v>
       </c>
       <c r="G5">
         <v>9.1</v>
       </c>
       <c r="H5">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="I5">
-        <v>7.4</v>
+        <v>4.5</v>
       </c>
       <c r="J5">
-        <v>6.3</v>
+        <v>4.7</v>
       </c>
       <c r="K5">
-        <v>5.6</v>
+        <v>4.7</v>
       </c>
       <c r="L5">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="M5">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="N5">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="O5">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="P5">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="Q5">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="R5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T5">
-        <v>59.4</v>
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -2829,61 +2835,61 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>7.7</v>
+        <v>5.8</v>
       </c>
       <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
         <v>8.800000000000001</v>
       </c>
-      <c r="D6">
-        <v>9.699999999999999</v>
-      </c>
       <c r="E6">
-        <v>10.2</v>
+        <v>11.4</v>
       </c>
       <c r="F6">
         <v>10.1</v>
       </c>
       <c r="G6">
-        <v>7.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H6">
-        <v>8.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I6">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="J6">
-        <v>6.9</v>
+        <v>5.8</v>
       </c>
       <c r="K6">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="M6">
+        <v>2.8</v>
+      </c>
+      <c r="N6">
         <v>3.4</v>
       </c>
-      <c r="N6">
-        <v>3.2</v>
-      </c>
       <c r="O6">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="P6">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
         <v>0.5</v>
       </c>
-      <c r="R6">
-        <v>0.6</v>
-      </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T6">
-        <v>54.1</v>
+        <v>52.8</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -2891,40 +2897,40 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>8.9</v>
+        <v>7.4</v>
       </c>
       <c r="C7">
-        <v>8.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D7">
-        <v>8.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="E7">
-        <v>7.7</v>
+        <v>9.5</v>
       </c>
       <c r="F7">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="G7">
         <v>8.6</v>
       </c>
-      <c r="G7">
-        <v>9.199999999999999</v>
-      </c>
       <c r="H7">
-        <v>9.9</v>
+        <v>7.5</v>
       </c>
       <c r="I7">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="J7">
         <v>7.2</v>
       </c>
       <c r="K7">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="M7">
-        <v>3.9</v>
+        <v>5.4</v>
       </c>
       <c r="N7">
         <v>3.8</v>
@@ -2933,19 +2939,19 @@
         <v>2.2</v>
       </c>
       <c r="P7">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q7">
         <v>0.8</v>
       </c>
       <c r="R7">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T7">
-        <v>50.7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -2953,61 +2959,61 @@
         <v>5</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="C8">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>6.8</v>
+      </c>
+      <c r="F8">
+        <v>9.4</v>
+      </c>
+      <c r="G8">
+        <v>10.4</v>
+      </c>
+      <c r="H8">
+        <v>11.2</v>
+      </c>
+      <c r="I8">
+        <v>11.6</v>
+      </c>
+      <c r="J8">
+        <v>7.5</v>
+      </c>
+      <c r="K8">
+        <v>8.1</v>
+      </c>
+      <c r="L8">
         <v>6.6</v>
       </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>9.6</v>
-      </c>
-      <c r="G8">
-        <v>10.1</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>11</v>
-      </c>
-      <c r="J8">
-        <v>8.9</v>
-      </c>
-      <c r="K8">
-        <v>9.1</v>
-      </c>
-      <c r="L8">
-        <v>6.3</v>
-      </c>
       <c r="M8">
-        <v>4.4</v>
+        <v>6.5</v>
       </c>
       <c r="N8">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="O8">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="P8">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="R8">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="S8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>41.7</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -3015,61 +3021,61 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>6.2</v>
+        <v>3.6</v>
       </c>
       <c r="D9">
-        <v>6.4</v>
+        <v>5.6</v>
       </c>
       <c r="E9">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="F9">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="G9">
         <v>9.1</v>
       </c>
       <c r="H9">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="I9">
-        <v>8.1</v>
+        <v>10.8</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="K9">
-        <v>7.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L9">
+        <v>7.3</v>
+      </c>
+      <c r="M9">
         <v>7.2</v>
       </c>
-      <c r="M9">
-        <v>5.8</v>
-      </c>
       <c r="N9">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="O9">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="P9">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="Q9">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="R9">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S9">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="T9">
-        <v>39.5</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -3077,61 +3083,61 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="C10">
-        <v>4.4</v>
+        <v>3.7</v>
       </c>
       <c r="D10">
-        <v>5.9</v>
+        <v>6.2</v>
       </c>
       <c r="E10">
-        <v>5.9</v>
+        <v>7.4</v>
       </c>
       <c r="F10">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="G10">
-        <v>7.7</v>
+        <v>6.5</v>
       </c>
       <c r="H10">
-        <v>8.4</v>
+        <v>7.3</v>
       </c>
       <c r="I10">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J10">
         <v>8.800000000000001</v>
       </c>
-      <c r="J10">
-        <v>8.9</v>
-      </c>
       <c r="K10">
-        <v>6.7</v>
+        <v>8.6</v>
       </c>
       <c r="L10">
-        <v>6.6</v>
+        <v>8.5</v>
       </c>
       <c r="M10">
-        <v>7.7</v>
+        <v>5.5</v>
       </c>
       <c r="N10">
-        <v>5.7</v>
+        <v>6.3</v>
       </c>
       <c r="O10">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="P10">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="Q10">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="R10">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="T10">
-        <v>35.5</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -3142,58 +3148,58 @@
         <v>1.4</v>
       </c>
       <c r="C11">
+        <v>3.2</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="D11">
-        <v>3.9</v>
-      </c>
       <c r="E11">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="F11">
+        <v>5.4</v>
+      </c>
+      <c r="G11">
+        <v>7.3</v>
+      </c>
+      <c r="H11">
         <v>5.7</v>
       </c>
-      <c r="G11">
+      <c r="I11">
         <v>6.6</v>
       </c>
-      <c r="H11">
-        <v>7.9</v>
-      </c>
-      <c r="I11">
-        <v>6.9</v>
-      </c>
       <c r="J11">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="K11">
-        <v>9.1</v>
+        <v>10.3</v>
       </c>
       <c r="L11">
-        <v>8.5</v>
+        <v>10.5</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="N11">
-        <v>7.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O11">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="P11">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="Q11">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="R11">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="S11">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="T11">
-        <v>25.9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -3207,55 +3213,55 @@
         <v>2.2</v>
       </c>
       <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>3.1</v>
+      </c>
+      <c r="F12">
+        <v>5.2</v>
+      </c>
+      <c r="G12">
+        <v>7.9</v>
+      </c>
+      <c r="H12">
+        <v>6.6</v>
+      </c>
+      <c r="I12">
+        <v>9</v>
+      </c>
+      <c r="J12">
+        <v>9.9</v>
+      </c>
+      <c r="K12">
+        <v>9.4</v>
+      </c>
+      <c r="L12">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="M12">
+        <v>8.4</v>
+      </c>
+      <c r="N12">
+        <v>8.1</v>
+      </c>
+      <c r="O12">
+        <v>7.2</v>
+      </c>
+      <c r="P12">
+        <v>4.4</v>
+      </c>
+      <c r="Q12">
         <v>3.5</v>
       </c>
-      <c r="E12">
-        <v>2.9</v>
-      </c>
-      <c r="F12">
-        <v>4.2</v>
-      </c>
-      <c r="G12">
-        <v>6.4</v>
-      </c>
-      <c r="H12">
-        <v>7.5</v>
-      </c>
-      <c r="I12">
-        <v>8.9</v>
-      </c>
-      <c r="J12">
-        <v>10.8</v>
-      </c>
-      <c r="K12">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="L12">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="M12">
-        <v>9.1</v>
-      </c>
-      <c r="N12">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="O12">
-        <v>5.5</v>
-      </c>
-      <c r="P12">
-        <v>5.5</v>
-      </c>
-      <c r="Q12">
-        <v>4.5</v>
-      </c>
       <c r="R12">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>0.3</v>
+        <v>0.9</v>
       </c>
       <c r="T12">
-        <v>20.4</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -3263,61 +3269,61 @@
         <v>9</v>
       </c>
       <c r="B13">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="C13">
+        <v>0.9</v>
+      </c>
+      <c r="D13">
         <v>0.5</v>
       </c>
-      <c r="D13">
-        <v>1.3</v>
-      </c>
       <c r="E13">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="F13">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="G13">
+        <v>3.2</v>
+      </c>
+      <c r="H13">
+        <v>5.2</v>
+      </c>
+      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="J13">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K13">
+        <v>7.6</v>
+      </c>
+      <c r="L13">
+        <v>7.3</v>
+      </c>
+      <c r="M13">
+        <v>12.5</v>
+      </c>
+      <c r="N13">
+        <v>11.8</v>
+      </c>
+      <c r="O13">
+        <v>11.6</v>
+      </c>
+      <c r="P13">
+        <v>8</v>
+      </c>
+      <c r="Q13">
+        <v>5.4</v>
+      </c>
+      <c r="R13">
         <v>3.9</v>
       </c>
-      <c r="H13">
-        <v>5.1</v>
-      </c>
-      <c r="I13">
-        <v>5.6</v>
-      </c>
-      <c r="J13">
-        <v>6.8</v>
-      </c>
-      <c r="K13">
-        <v>7.7</v>
-      </c>
-      <c r="L13">
-        <v>11</v>
-      </c>
-      <c r="M13">
-        <v>12.3</v>
-      </c>
-      <c r="N13">
-        <v>10.4</v>
-      </c>
-      <c r="O13">
-        <v>10.1</v>
-      </c>
-      <c r="P13">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="Q13">
-        <v>5.5</v>
-      </c>
-      <c r="R13">
-        <v>4.3</v>
-      </c>
       <c r="S13">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="T13">
-        <v>10.9</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -3325,61 +3331,61 @@
         <v>7</v>
       </c>
       <c r="B14">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="C14">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="D14">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="E14">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="F14">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="G14">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H14">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="I14">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="J14">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="K14">
         <v>7.4</v>
       </c>
       <c r="L14">
-        <v>9.800000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M14">
-        <v>9.9</v>
+        <v>9.6</v>
       </c>
       <c r="N14">
+        <v>11.2</v>
+      </c>
+      <c r="O14">
         <v>13.5</v>
       </c>
-      <c r="O14">
-        <v>12.5</v>
-      </c>
       <c r="P14">
-        <v>10.8</v>
+        <v>11.3</v>
       </c>
       <c r="Q14">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="R14">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="S14">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="T14">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -3387,61 +3393,61 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D15">
         <v>0.3</v>
       </c>
       <c r="E15">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G15">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H15">
         <v>2.4</v>
       </c>
       <c r="I15">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="J15">
-        <v>4.9</v>
+        <v>5.4</v>
       </c>
       <c r="K15">
-        <v>6.5</v>
+        <v>5.9</v>
       </c>
       <c r="L15">
-        <v>8.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M15">
-        <v>9.800000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="N15">
-        <v>9.4</v>
+        <v>9.9</v>
       </c>
       <c r="O15">
+        <v>11.8</v>
+      </c>
+      <c r="P15">
+        <v>11.9</v>
+      </c>
+      <c r="Q15">
         <v>12.2</v>
       </c>
-      <c r="P15">
-        <v>11.6</v>
-      </c>
-      <c r="Q15">
-        <v>11.1</v>
-      </c>
       <c r="R15">
-        <v>9.9</v>
+        <v>9</v>
       </c>
       <c r="S15">
-        <v>5.2</v>
+        <v>7</v>
       </c>
       <c r="T15">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -3449,61 +3455,61 @@
         <v>6</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C16">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D16">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="F16">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="G16">
         <v>1.8</v>
       </c>
       <c r="H16">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="I16">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J16">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="K16">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="L16">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="M16">
-        <v>8.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="N16">
-        <v>8.4</v>
+        <v>9.6</v>
       </c>
       <c r="O16">
-        <v>13.2</v>
+        <v>12.2</v>
       </c>
       <c r="P16">
         <v>14.7</v>
       </c>
       <c r="Q16">
-        <v>15.8</v>
+        <v>13.1</v>
       </c>
       <c r="R16">
-        <v>9.9</v>
+        <v>11</v>
       </c>
       <c r="S16">
         <v>6.2</v>
       </c>
       <c r="T16">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -3514,58 +3520,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D17">
+        <v>0.1</v>
+      </c>
+      <c r="E17">
         <v>0.2</v>
       </c>
-      <c r="E17">
-        <v>0.3</v>
-      </c>
       <c r="F17">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="G17">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="I17">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="J17">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="K17">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="L17">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="M17">
-        <v>6.4</v>
+        <v>5.9</v>
       </c>
       <c r="N17">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O17">
-        <v>11.1</v>
+        <v>8.5</v>
       </c>
       <c r="P17">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="Q17">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="R17">
-        <v>15.4</v>
+        <v>15.7</v>
       </c>
       <c r="S17">
-        <v>14.4</v>
+        <v>15.6</v>
       </c>
       <c r="T17">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -3579,55 +3585,55 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E18">
+        <v>0.3</v>
+      </c>
+      <c r="F18">
         <v>0</v>
       </c>
-      <c r="F18">
-        <v>0.1</v>
-      </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I18">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="J18">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="K18">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="M18">
-        <v>3.1</v>
+        <v>4.3</v>
       </c>
       <c r="N18">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O18">
-        <v>5.8</v>
+        <v>7.5</v>
       </c>
       <c r="P18">
-        <v>10.3</v>
+        <v>11.3</v>
       </c>
       <c r="Q18">
-        <v>16.5</v>
+        <v>16.1</v>
       </c>
       <c r="R18">
-        <v>24.5</v>
+        <v>22.3</v>
       </c>
       <c r="S18">
-        <v>30.5</v>
+        <v>29.1</v>
       </c>
       <c r="T18">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -3644,10 +3650,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3656,40 +3662,40 @@
         <v>0.2</v>
       </c>
       <c r="I19">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J19">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="K19">
         <v>0.6</v>
       </c>
       <c r="L19">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="N19">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="O19">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="P19">
-        <v>8</v>
+        <v>10.1</v>
       </c>
       <c r="Q19">
-        <v>15.2</v>
+        <v>15.6</v>
       </c>
       <c r="R19">
-        <v>25.1</v>
+        <v>25.9</v>
       </c>
       <c r="S19">
-        <v>38.9</v>
+        <v>35.9</v>
       </c>
       <c r="T19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -3733,54 +3739,54 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="D2">
-        <v>122.02</v>
+        <v>131.095</v>
       </c>
       <c r="E2">
-        <v>488.0799999999999</v>
+        <v>524.38</v>
       </c>
       <c r="F2">
-        <v>82.19999999999999</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="D3">
-        <v>131.095</v>
+        <v>122.02</v>
       </c>
       <c r="E3">
-        <v>524.38</v>
+        <v>488.0799999999999</v>
       </c>
       <c r="F3">
-        <v>82</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="G3" t="s">
         <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3788,7 +3794,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>0.75</v>
@@ -3800,13 +3806,13 @@
         <v>448.0599999999999</v>
       </c>
       <c r="F4">
-        <v>77.60000000000001</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G4" t="s">
         <v>62</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3814,10 +3820,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.625</v>
       </c>
       <c r="D5">
         <v>114.455</v>
@@ -3826,13 +3832,13 @@
         <v>457.8200000000001</v>
       </c>
       <c r="F5">
-        <v>59.4</v>
+        <v>67.60000000000001</v>
       </c>
       <c r="G5" t="s">
         <v>63</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3852,13 +3858,13 @@
         <v>469.76</v>
       </c>
       <c r="F6">
-        <v>54.1</v>
+        <v>52.8</v>
       </c>
       <c r="G6" t="s">
         <v>64</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3866,7 +3872,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>0.75</v>
@@ -3878,13 +3884,13 @@
         <v>442.86</v>
       </c>
       <c r="F7">
-        <v>50.7</v>
+        <v>52</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -3904,13 +3910,13 @@
         <v>432.16</v>
       </c>
       <c r="F8">
-        <v>41.7</v>
+        <v>41.2</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3930,13 +3936,13 @@
         <v>442.86</v>
       </c>
       <c r="F9">
-        <v>39.5</v>
+        <v>35.3</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -3956,13 +3962,13 @@
         <v>446.5</v>
       </c>
       <c r="F10">
-        <v>35.5</v>
+        <v>34.5</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3982,13 +3988,13 @@
         <v>417.0599999999999</v>
       </c>
       <c r="F11">
-        <v>25.9</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4008,13 +4014,13 @@
         <v>420.46</v>
       </c>
       <c r="F12">
-        <v>20.4</v>
+        <v>21.6</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4022,7 +4028,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>0.25</v>
@@ -4034,13 +4040,13 @@
         <v>426.94</v>
       </c>
       <c r="F13">
-        <v>10.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4048,7 +4054,7 @@
         <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>0.75</v>
@@ -4060,13 +4066,13 @@
         <v>387.74</v>
       </c>
       <c r="F14">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4086,13 +4092,13 @@
         <v>380.92</v>
       </c>
       <c r="F15">
-        <v>4.8</v>
+        <v>3.9</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4112,13 +4118,13 @@
         <v>376.42</v>
       </c>
       <c r="F16">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4126,7 +4132,7 @@
         <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17">
         <v>0.25</v>
@@ -4138,13 +4144,13 @@
         <v>372.5599999999999</v>
       </c>
       <c r="F17">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4152,7 +4158,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>0.25</v>
@@ -4164,13 +4170,13 @@
         <v>368.68</v>
       </c>
       <c r="F18">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4178,7 +4184,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>0.25</v>
@@ -4190,13 +4196,13 @@
         <v>362.8199999999999</v>
       </c>
       <c r="F19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -4217,16 +4223,16 @@
         <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4237,7 +4243,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>23</v>
@@ -4246,7 +4252,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4257,7 +4263,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>20</v>
@@ -4266,7 +4272,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4277,7 +4283,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>13</v>
@@ -4286,7 +4292,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4297,7 +4303,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -4306,7 +4312,7 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4317,7 +4323,7 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -4326,7 +4332,7 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4337,7 +4343,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -4346,7 +4352,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4357,7 +4363,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D8">
         <v>3</v>
@@ -4366,7 +4372,7 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4377,7 +4383,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -4386,7 +4392,7 @@
         <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4397,7 +4403,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4406,7 +4412,7 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4417,7 +4423,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -4426,7 +4432,7 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4437,7 +4443,7 @@
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>-2</v>
@@ -4446,7 +4452,7 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4457,7 +4463,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D13">
         <v>-4</v>
@@ -4466,7 +4472,7 @@
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4477,7 +4483,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D14">
         <v>-5</v>
@@ -4486,7 +4492,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4497,7 +4503,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D15">
         <v>-7</v>
@@ -4506,7 +4512,7 @@
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4517,7 +4523,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D16">
         <v>-12</v>
@@ -4526,7 +4532,7 @@
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4537,7 +4543,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D17">
         <v>-12</v>
@@ -4546,7 +4552,7 @@
         <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4557,7 +4563,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D18">
         <v>-19</v>
@@ -4566,7 +4572,7 @@
         <v>22</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4577,7 +4583,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D19">
         <v>-22</v>
@@ -4586,7 +4592,7 @@
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4604,19 +4610,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4636,7 +4642,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4656,7 +4662,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4676,7 +4682,7 @@
         <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4696,7 +4702,7 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4716,7 +4722,7 @@
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4736,7 +4742,7 @@
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4756,7 +4762,7 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4776,7 +4782,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4796,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4816,7 +4822,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4836,7 +4842,7 @@
         <v>-2</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4856,7 +4862,7 @@
         <v>-4</v>
       </c>
       <c r="F13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4876,7 +4882,7 @@
         <v>-5</v>
       </c>
       <c r="F14" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4896,7 +4902,7 @@
         <v>-7</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4916,7 +4922,7 @@
         <v>-12</v>
       </c>
       <c r="F16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4936,7 +4942,7 @@
         <v>-12</v>
       </c>
       <c r="F17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4956,7 +4962,7 @@
         <v>-19</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4976,7 +4982,7 @@
         <v>-22</v>
       </c>
       <c r="F19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4994,25 +5000,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/The Girl's Room 💞🏈 2025.xlsx
+++ b/leagues/The Girl's Room 💞🏈 2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="128">
   <si>
     <t>Tush Push Director 🍑</t>
   </si>
@@ -77,25 +77,28 @@
     <t>Lamb of Goedert</t>
   </si>
   <si>
-    <t>2-2-0</t>
-  </si>
-  <si>
-    <t>3-1-0</t>
-  </si>
-  <si>
-    <t>0-4-0</t>
-  </si>
-  <si>
-    <t>4-0-0</t>
-  </si>
-  <si>
-    <t>1-3-0</t>
-  </si>
-  <si>
-    <t>2-1-1</t>
-  </si>
-  <si>
-    <t>1-2-1</t>
+    <t>3-2-0</t>
+  </si>
+  <si>
+    <t>4-1-0</t>
+  </si>
+  <si>
+    <t>1-4-0</t>
+  </si>
+  <si>
+    <t>5-0-0</t>
+  </si>
+  <si>
+    <t>2-3-0</t>
+  </si>
+  <si>
+    <t>2-2-1</t>
+  </si>
+  <si>
+    <t>0-5-0</t>
+  </si>
+  <si>
+    <t>1-3-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -194,49 +197,46 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>2-2</t>
-  </si>
-  <si>
-    <t>3-1</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
-    <t>9.7-4.3-1.1</t>
-  </si>
-  <si>
-    <t>9.6-5.3-0.1</t>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>10.4-4.4-0.1</t>
   </si>
   <si>
     <t>9.7-5.2-0.1</t>
   </si>
   <si>
-    <t>8.7-5.1-1.1</t>
-  </si>
-  <si>
-    <t>8.4-6.5-0.1</t>
-  </si>
-  <si>
-    <t>8.6-6.3-0.1</t>
-  </si>
-  <si>
-    <t>8.3-6.5-0.1</t>
-  </si>
-  <si>
-    <t>7.9-7.0-0.1</t>
-  </si>
-  <si>
-    <t>7.8-7.1-0.1</t>
-  </si>
-  <si>
-    <t>7.6-7.3-0.1</t>
-  </si>
-  <si>
-    <t>7.4-7.5-0.1</t>
-  </si>
-  <si>
-    <t>6.6-8.3-0.1</t>
+    <t>9.1-5.8-0.1</t>
+  </si>
+  <si>
+    <t>8.8-6.1-0.1</t>
+  </si>
+  <si>
+    <t>8.0-5.9-1.1</t>
+  </si>
+  <si>
+    <t>7.9-6.0-1.1</t>
+  </si>
+  <si>
+    <t>8.3-6.6-0.1</t>
+  </si>
+  <si>
+    <t>8.0-6.9-0.1</t>
+  </si>
+  <si>
+    <t>7.3-7.6-0.1</t>
+  </si>
+  <si>
+    <t>7.1-7.8-0.1</t>
   </si>
   <si>
     <t>6.7-8.2-0.1</t>
@@ -245,30 +245,27 @@
     <t>6.1-8.8-0.1</t>
   </si>
   <si>
-    <t>6.0-8.9-0.1</t>
-  </si>
-  <si>
-    <t>5.3-9.6-0.1</t>
-  </si>
-  <si>
-    <t>4.5-10.4-0.1</t>
-  </si>
-  <si>
-    <t>4.2-10.7-0.1</t>
-  </si>
-  <si>
-    <t>10-4-1</t>
+    <t>5.7-9.2-0.1</t>
+  </si>
+  <si>
+    <t>5.5-9.4-0.1</t>
+  </si>
+  <si>
+    <t>4.1-10.8-0.1</t>
+  </si>
+  <si>
+    <t>3.7-11.2-0.1</t>
   </si>
   <si>
     <t>10-5</t>
   </si>
   <si>
-    <t>9-5-1</t>
-  </si>
-  <si>
     <t>9-6</t>
   </si>
   <si>
+    <t>8-6-1</t>
+  </si>
+  <si>
     <t>8-7</t>
   </si>
   <si>
@@ -278,12 +275,12 @@
     <t>6-9</t>
   </si>
   <si>
-    <t>5-10</t>
-  </si>
-  <si>
     <t>4-11</t>
   </si>
   <si>
+    <t>3-12</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -305,39 +302,39 @@
     <t>Brianna Goebel</t>
   </si>
   <si>
+    <t>Sumita Gangwani</t>
+  </si>
+  <si>
+    <t>Amanda Pasquale</t>
+  </si>
+  <si>
     <t>Shae Marx</t>
   </si>
   <si>
-    <t>Sumita Gangwani</t>
-  </si>
-  <si>
-    <t>Amanda Pasquale</t>
-  </si>
-  <si>
     <t>Hillary Dale</t>
   </si>
   <si>
+    <t>Rebecca Schneider</t>
+  </si>
+  <si>
+    <t>Grace Stockbower</t>
+  </si>
+  <si>
     <t>Emily Carey</t>
   </si>
   <si>
-    <t>Grace Stockbower</t>
-  </si>
-  <si>
-    <t>Rebecca Schneider</t>
-  </si>
-  <si>
     <t>Hannah Miller</t>
   </si>
   <si>
     <t>Faith Pon</t>
   </si>
   <si>
+    <t>Nikki Papalia</t>
+  </si>
+  <si>
     <t>Swathi Veeravalli</t>
   </si>
   <si>
-    <t>Nikki Papalia</t>
-  </si>
-  <si>
     <t>Allie Kardon</t>
   </si>
   <si>
@@ -347,45 +344,33 @@
     <t>Nicole Coppins</t>
   </si>
   <si>
-    <t>↑8</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑4</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↑4</t>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓4</t>
   </si>
   <si>
     <t>↓5</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓7</t>
-  </si>
-  <si>
-    <t>↓11</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -396,6 +381,9 @@
   </si>
   <si>
     <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
   </si>
   <si>
     <t>Week</t>
@@ -909,7 +897,7 @@
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
@@ -927,31 +915,31 @@
         <v>21</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
         <v>18</v>
       </c>
       <c r="P3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -962,13 +950,13 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -986,13 +974,13 @@
         <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
         <v>22</v>
@@ -1010,7 +998,7 @@
         <v>18</v>
       </c>
       <c r="S4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1033,43 +1021,43 @@
         <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O5" t="s">
         <v>18</v>
       </c>
       <c r="P5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1080,13 +1068,13 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -1104,13 +1092,13 @@
         <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N6" t="s">
         <v>22</v>
@@ -1125,10 +1113,10 @@
         <v>19</v>
       </c>
       <c r="R6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1139,13 +1127,13 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
         <v>18</v>
@@ -1163,31 +1151,31 @@
         <v>21</v>
       </c>
       <c r="K7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O7" t="s">
         <v>18</v>
       </c>
       <c r="P7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1198,22 +1186,22 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F8" t="s">
         <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
@@ -1222,31 +1210,31 @@
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O8" t="s">
         <v>18</v>
       </c>
       <c r="P8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1287,7 +1275,7 @@
         <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N9" t="s">
         <v>18</v>
@@ -1322,7 +1310,7 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
@@ -1346,7 +1334,7 @@
         <v>19</v>
       </c>
       <c r="M10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N10" t="s">
         <v>18</v>
@@ -1372,58 +1360,58 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1434,55 +1422,55 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="O12" t="s">
         <v>18</v>
       </c>
       <c r="P12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1490,58 +1478,58 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
         <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O13" t="s">
         <v>18</v>
       </c>
       <c r="P13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1558,7 +1546,7 @@
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
@@ -1579,10 +1567,10 @@
         <v>21</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N14" t="s">
         <v>18</v>
@@ -1611,13 +1599,13 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
         <v>18</v>
@@ -1638,10 +1626,10 @@
         <v>19</v>
       </c>
       <c r="L15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N15" t="s">
         <v>22</v>
@@ -1659,7 +1647,7 @@
         <v>19</v>
       </c>
       <c r="S15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1670,13 +1658,13 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
         <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
         <v>18</v>
@@ -1697,10 +1685,10 @@
         <v>18</v>
       </c>
       <c r="L16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N16" t="s">
         <v>18</v>
@@ -1726,58 +1714,58 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="R17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1785,58 +1773,58 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q18" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1847,13 +1835,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
@@ -1871,13 +1859,13 @@
         <v>19</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N19" t="s">
         <v>18</v>
@@ -1886,16 +1874,16 @@
         <v>19</v>
       </c>
       <c r="P19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1913,13 +1901,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1930,7 +1918,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
@@ -1944,10 +1932,10 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>1.388888888888889</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1955,13 +1943,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>1.5</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1972,7 +1960,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>1.611111111111111</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1983,13 +1971,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C6">
-        <v>1.666666666666667</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2000,7 +1988,7 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>1.722222222222222</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -2011,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>1.777777777777778</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -2025,13 +2013,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1.888888888888889</v>
+        <v>2.388888888888889</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2039,13 +2027,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>1.944444444444444</v>
+        <v>2.444444444444445</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2053,10 +2041,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="D11" t="s">
         <v>18</v>
@@ -2067,13 +2055,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>2.111111111111111</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2081,13 +2069,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>2.166666666666667</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2095,10 +2083,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>2.277777777777778</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -2109,13 +2097,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>2.388888888888889</v>
+        <v>2.944444444444445</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2126,10 +2114,10 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>2.388888888888889</v>
+        <v>3</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2137,13 +2125,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>2.611111111111111</v>
+        <v>3.222222222222222</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2151,10 +2139,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>2.666666666666667</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -2165,13 +2153,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>2.777777777777778</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2189,16 +2177,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2209,10 +2197,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>3.277777777777778</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="D2">
-        <v>1.277777777777778</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -2223,16 +2211,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>2.944444444444445</v>
+        <v>3.444444444444445</v>
       </c>
       <c r="D3">
-        <v>0.9444444444444446</v>
+        <v>0.4444444444444446</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2240,16 +2228,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>2.555555555555555</v>
+        <v>3.388888888888889</v>
       </c>
       <c r="D4">
-        <v>0.5555555555555554</v>
+        <v>-0.6111111111111112</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2257,16 +2245,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>2.5</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D5">
-        <v>-0.5</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2274,16 +2262,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>2.444444444444445</v>
+        <v>3.111111111111111</v>
       </c>
       <c r="D6">
-        <v>0.4444444444444446</v>
+        <v>-0.8888888888888888</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2291,16 +2279,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>2.444444444444445</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>0.4444444444444446</v>
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2311,13 +2299,13 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>2.444444444444445</v>
+        <v>2.944444444444445</v>
       </c>
       <c r="D8">
-        <v>0.4444444444444446</v>
+        <v>0.9444444444444446</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2325,16 +2313,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>2.388888888888889</v>
+        <v>2.722222222222222</v>
       </c>
       <c r="D9">
-        <v>-0.6111111111111112</v>
+        <v>-0.2777777777777777</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2342,16 +2330,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>2.722222222222222</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.7222222222222223</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2359,16 +2347,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>1.944444444444444</v>
+        <v>2.555555555555555</v>
       </c>
       <c r="D11">
-        <v>-0.05555555555555558</v>
+        <v>-1.444444444444445</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2376,13 +2364,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>1.833333333333333</v>
+        <v>2.444444444444445</v>
       </c>
       <c r="D12">
-        <v>-0.1666666666666667</v>
+        <v>-0.5555555555555554</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -2393,16 +2381,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>1.833333333333333</v>
+        <v>2</v>
       </c>
       <c r="D13">
-        <v>0.8333333333333333</v>
+        <v>-1</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2410,16 +2398,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C14">
-        <v>1.611111111111111</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>-1.388888888888889</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2427,16 +2415,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>1.388888888888889</v>
+        <v>1.944444444444444</v>
       </c>
       <c r="D15">
-        <v>-0.6111111111111112</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2444,16 +2432,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>1.388888888888889</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="D16">
-        <v>-0.6111111111111112</v>
+        <v>-0.2222222222222223</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2461,13 +2449,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>1.111111111111111</v>
+        <v>1.722222222222222</v>
       </c>
       <c r="D17">
-        <v>0.1111111111111112</v>
+        <v>-0.2777777777777777</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
@@ -2487,7 +2475,7 @@
         <v>-0.05555555555555558</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2498,13 +2486,13 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>0.8333333333333334</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="D19">
-        <v>-0.1666666666666666</v>
+        <v>-0.1111111111111112</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2522,114 +2510,114 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>30.1</v>
+        <v>32.5</v>
       </c>
       <c r="C2">
-        <v>19.3</v>
+        <v>20.2</v>
       </c>
       <c r="D2">
-        <v>13.4</v>
+        <v>13.8</v>
       </c>
       <c r="E2">
-        <v>10.2</v>
+        <v>11.2</v>
       </c>
       <c r="F2">
-        <v>6.5</v>
+        <v>5.8</v>
       </c>
       <c r="G2">
-        <v>5.6</v>
+        <v>4.2</v>
       </c>
       <c r="H2">
-        <v>5.6</v>
+        <v>3.3</v>
       </c>
       <c r="I2">
         <v>3.1</v>
       </c>
       <c r="J2">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="K2">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="M2">
+        <v>0.7</v>
+      </c>
+      <c r="N2">
         <v>0.4</v>
       </c>
-      <c r="N2">
-        <v>0.8</v>
-      </c>
       <c r="O2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2641,7 +2629,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>85.09999999999999</v>
+        <v>87.7</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2649,52 +2637,52 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>16.8</v>
+        <v>19.7</v>
       </c>
       <c r="D3">
-        <v>16.2</v>
+        <v>13.5</v>
       </c>
       <c r="E3">
-        <v>11.1</v>
+        <v>12.4</v>
       </c>
       <c r="F3">
-        <v>11.6</v>
+        <v>7.5</v>
       </c>
       <c r="G3">
-        <v>7.2</v>
+        <v>6.1</v>
       </c>
       <c r="H3">
         <v>6.1</v>
       </c>
       <c r="I3">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J3">
         <v>2.8</v>
       </c>
       <c r="K3">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="L3">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="M3">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="N3">
         <v>0.4</v>
       </c>
       <c r="O3">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P3">
+        <v>0.2</v>
+      </c>
+      <c r="Q3">
         <v>0.1</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2703,818 +2691,818 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>80.40000000000001</v>
+        <v>82.2</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>11.9</v>
+      </c>
+      <c r="C4">
+        <v>11.7</v>
+      </c>
+      <c r="D4">
+        <v>10.7</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>10.5</v>
+      </c>
+      <c r="G4">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>16.1</v>
-      </c>
-      <c r="C4">
-        <v>16.6</v>
-      </c>
-      <c r="D4">
-        <v>13.6</v>
-      </c>
-      <c r="E4">
-        <v>10.5</v>
-      </c>
-      <c r="F4">
-        <v>10.7</v>
-      </c>
-      <c r="G4">
-        <v>7.9</v>
-      </c>
       <c r="H4">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="I4">
-        <v>5.3</v>
+        <v>6.4</v>
       </c>
       <c r="J4">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="K4">
-        <v>3.1</v>
+        <v>6.1</v>
       </c>
       <c r="L4">
-        <v>2.2</v>
+        <v>4.3</v>
       </c>
       <c r="M4">
-        <v>1.6</v>
+        <v>3.4</v>
       </c>
       <c r="N4">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="O4">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="P4">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="Q4">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>75.40000000000001</v>
+        <v>62.8</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>11.5</v>
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>10.8</v>
       </c>
       <c r="E5">
-        <v>14.6</v>
+        <v>11.8</v>
       </c>
       <c r="F5">
-        <v>8.9</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5">
+        <v>6.9</v>
+      </c>
+      <c r="I5">
         <v>9.1</v>
       </c>
-      <c r="H5">
-        <v>8.9</v>
-      </c>
-      <c r="I5">
-        <v>4.5</v>
-      </c>
       <c r="J5">
-        <v>4.7</v>
+        <v>6.1</v>
       </c>
       <c r="K5">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="L5">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="N5">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="O5">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="P5">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="Q5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>67.59999999999999</v>
+        <v>59.3</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>5.8</v>
+        <v>5.1</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>8.4</v>
       </c>
       <c r="D6">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E6">
-        <v>11.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F6">
-        <v>10.1</v>
+        <v>8.9</v>
       </c>
       <c r="G6">
-        <v>9.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="H6">
-        <v>8.800000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="I6">
-        <v>7.9</v>
+        <v>7.2</v>
       </c>
       <c r="J6">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="K6">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="L6">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="M6">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="N6">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="O6">
         <v>2.7</v>
       </c>
       <c r="P6">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="R6">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>52.8</v>
+        <v>49.7</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>7.4</v>
+        <v>4.1</v>
       </c>
       <c r="C7">
-        <v>8.699999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="D7">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E7">
         <v>8.5</v>
       </c>
-      <c r="E7">
-        <v>9.5</v>
-      </c>
       <c r="F7">
-        <v>9.300000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="G7">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="H7">
-        <v>7.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I7">
-        <v>8.5</v>
+        <v>6.9</v>
       </c>
       <c r="J7">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="K7">
-        <v>5.3</v>
+        <v>7.7</v>
       </c>
       <c r="L7">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="M7">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="N7">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O7">
-        <v>2.2</v>
+        <v>2.9</v>
       </c>
       <c r="P7">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="Q7">
         <v>0.8</v>
       </c>
       <c r="R7">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="S7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="T7">
-        <v>52</v>
+        <v>46.8</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>5.4</v>
+        <v>4.4</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="F8">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="G8">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="H8">
-        <v>11.2</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="I8">
-        <v>11.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J8">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="K8">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="L8">
-        <v>6.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M8">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="N8">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="O8">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="P8">
+        <v>1.6</v>
+      </c>
+      <c r="Q8">
         <v>1</v>
       </c>
-      <c r="Q8">
-        <v>0.9</v>
-      </c>
       <c r="R8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T8">
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>2.2</v>
+      </c>
+      <c r="C9">
+        <v>4.7</v>
+      </c>
+      <c r="D9">
+        <v>6.5</v>
+      </c>
+      <c r="E9">
+        <v>6.7</v>
+      </c>
+      <c r="F9">
+        <v>8.5</v>
+      </c>
+      <c r="G9">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="I9">
+        <v>10.5</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9">
+        <v>7.3</v>
+      </c>
+      <c r="L9">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="M9">
+        <v>6.6</v>
+      </c>
+      <c r="N9">
+        <v>5.4</v>
+      </c>
+      <c r="O9">
+        <v>1.8</v>
+      </c>
+      <c r="P9">
+        <v>1.7</v>
+      </c>
+      <c r="Q9">
+        <v>1.4</v>
+      </c>
+      <c r="R9">
+        <v>0.1</v>
+      </c>
+      <c r="S9">
         <v>0</v>
       </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>3.6</v>
-      </c>
-      <c r="D9">
-        <v>5.6</v>
-      </c>
-      <c r="E9">
-        <v>7</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>9.1</v>
-      </c>
-      <c r="H9">
-        <v>9.4</v>
-      </c>
-      <c r="I9">
-        <v>10.8</v>
-      </c>
-      <c r="J9">
-        <v>7.8</v>
-      </c>
-      <c r="K9">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="L9">
-        <v>7.3</v>
-      </c>
-      <c r="M9">
-        <v>7.2</v>
-      </c>
-      <c r="N9">
-        <v>5</v>
-      </c>
-      <c r="O9">
-        <v>3.3</v>
-      </c>
-      <c r="P9">
-        <v>2.8</v>
-      </c>
-      <c r="Q9">
-        <v>1.9</v>
-      </c>
-      <c r="R9">
-        <v>0.4</v>
-      </c>
-      <c r="S9">
-        <v>0.6</v>
-      </c>
       <c r="T9">
-        <v>35.3</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="C10">
-        <v>3.7</v>
+        <v>5.7</v>
       </c>
       <c r="D10">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="E10">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>6.9</v>
+        <v>7.9</v>
       </c>
       <c r="G10">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="H10">
-        <v>7.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I10">
-        <v>8.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="J10">
         <v>8.800000000000001</v>
       </c>
       <c r="K10">
-        <v>8.6</v>
+        <v>8.1</v>
       </c>
       <c r="L10">
-        <v>8.5</v>
+        <v>5.6</v>
       </c>
       <c r="M10">
-        <v>5.5</v>
+        <v>6.8</v>
       </c>
       <c r="N10">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="O10">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="P10">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="Q10">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="R10">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="S10">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="T10">
-        <v>34.5</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11">
+        <v>2.9</v>
+      </c>
+      <c r="C11">
+        <v>5.3</v>
+      </c>
+      <c r="D11">
+        <v>7.2</v>
+      </c>
+      <c r="E11">
+        <v>6.6</v>
+      </c>
+      <c r="F11">
+        <v>6.2</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>7.4</v>
+      </c>
+      <c r="I11">
+        <v>7.6</v>
+      </c>
+      <c r="J11">
+        <v>10.2</v>
+      </c>
+      <c r="K11">
+        <v>7.8</v>
+      </c>
+      <c r="L11">
+        <v>7.9</v>
+      </c>
+      <c r="M11">
+        <v>7.3</v>
+      </c>
+      <c r="N11">
+        <v>5.4</v>
+      </c>
+      <c r="O11">
+        <v>5.3</v>
+      </c>
+      <c r="P11">
+        <v>3</v>
+      </c>
+      <c r="Q11">
         <v>1.4</v>
       </c>
-      <c r="C11">
-        <v>3.2</v>
-      </c>
-      <c r="D11">
-        <v>3</v>
-      </c>
-      <c r="E11">
-        <v>4.7</v>
-      </c>
-      <c r="F11">
-        <v>5.4</v>
-      </c>
-      <c r="G11">
-        <v>7.3</v>
-      </c>
-      <c r="H11">
-        <v>5.7</v>
-      </c>
-      <c r="I11">
-        <v>6.6</v>
-      </c>
-      <c r="J11">
-        <v>9.4</v>
-      </c>
-      <c r="K11">
-        <v>10.3</v>
-      </c>
-      <c r="L11">
-        <v>10.5</v>
-      </c>
-      <c r="M11">
-        <v>7.2</v>
-      </c>
-      <c r="N11">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="O11">
-        <v>6.1</v>
-      </c>
-      <c r="P11">
-        <v>4.5</v>
-      </c>
-      <c r="Q11">
-        <v>3.3</v>
-      </c>
       <c r="R11">
-        <v>2.1</v>
+        <v>0.5</v>
       </c>
       <c r="S11">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>25</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="C12">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12">
-        <v>3.1</v>
+        <v>4.8</v>
       </c>
       <c r="F12">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="G12">
-        <v>7.9</v>
+        <v>5.5</v>
       </c>
       <c r="H12">
-        <v>6.6</v>
+        <v>7.7</v>
       </c>
       <c r="I12">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J12">
-        <v>9.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K12">
-        <v>9.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L12">
-        <v>9.199999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="M12">
-        <v>8.4</v>
+        <v>6.5</v>
       </c>
       <c r="N12">
-        <v>8.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="O12">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="P12">
-        <v>4.4</v>
+        <v>5.7</v>
       </c>
       <c r="Q12">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S12">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="T12">
-        <v>21.6</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="C13">
         <v>0.9</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="E13">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="F13">
-        <v>3.2</v>
+        <v>4.4</v>
       </c>
       <c r="G13">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="H13">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="I13">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J13">
         <v>8.199999999999999</v>
       </c>
       <c r="K13">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="L13">
-        <v>7.3</v>
+        <v>8.6</v>
       </c>
       <c r="M13">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="N13">
-        <v>11.8</v>
+        <v>10.5</v>
       </c>
       <c r="O13">
-        <v>11.6</v>
+        <v>11.1</v>
       </c>
       <c r="P13">
-        <v>8</v>
+        <v>9.4</v>
       </c>
       <c r="Q13">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="R13">
-        <v>3.9</v>
+        <v>3.2</v>
       </c>
       <c r="S13">
-        <v>1.7</v>
+        <v>0.3</v>
       </c>
       <c r="T13">
-        <v>9.800000000000001</v>
+        <v>14.2</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B14">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C14">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D14">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="E14">
         <v>1.2</v>
       </c>
       <c r="F14">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="G14">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="H14">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="I14">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="J14">
-        <v>8.6</v>
+        <v>7.3</v>
       </c>
       <c r="K14">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="L14">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="M14">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="N14">
-        <v>11.2</v>
+        <v>11.5</v>
       </c>
       <c r="O14">
-        <v>13.5</v>
+        <v>11.7</v>
       </c>
       <c r="P14">
-        <v>11.3</v>
+        <v>10.3</v>
       </c>
       <c r="Q14">
-        <v>7.5</v>
+        <v>8.1</v>
       </c>
       <c r="R14">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="S14">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="T14">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C15">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="D15">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="E15">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="F15">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="G15">
         <v>1.9</v>
       </c>
       <c r="H15">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="I15">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="J15">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="K15">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="L15">
-        <v>9.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="M15">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N15">
-        <v>9.9</v>
+        <v>10.9</v>
       </c>
       <c r="O15">
-        <v>11.8</v>
+        <v>12.2</v>
       </c>
       <c r="P15">
-        <v>11.9</v>
+        <v>13.4</v>
       </c>
       <c r="Q15">
-        <v>12.2</v>
+        <v>12.6</v>
       </c>
       <c r="R15">
-        <v>9</v>
+        <v>10.1</v>
       </c>
       <c r="S15">
-        <v>7</v>
+        <v>2.9</v>
       </c>
       <c r="T15">
-        <v>3.9</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>0.2</v>
       </c>
-      <c r="C16">
-        <v>0.1</v>
-      </c>
-      <c r="D16">
-        <v>0.4</v>
-      </c>
       <c r="E16">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F16">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="G16">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H16">
-        <v>2.4</v>
+        <v>1.6</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="J16">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K16">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="L16">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="M16">
-        <v>8.9</v>
+        <v>7.8</v>
       </c>
       <c r="N16">
+        <v>11.7</v>
+      </c>
+      <c r="O16">
+        <v>13.3</v>
+      </c>
+      <c r="P16">
+        <v>15.5</v>
+      </c>
+      <c r="Q16">
+        <v>13.9</v>
+      </c>
+      <c r="R16">
         <v>9.6</v>
       </c>
-      <c r="O16">
-        <v>12.2</v>
-      </c>
-      <c r="P16">
-        <v>14.7</v>
-      </c>
-      <c r="Q16">
-        <v>13.1</v>
-      </c>
-      <c r="R16">
-        <v>11</v>
-      </c>
       <c r="S16">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="T16">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3529,49 +3517,49 @@
         <v>0.2</v>
       </c>
       <c r="F17">
+        <v>0.6</v>
+      </c>
+      <c r="G17">
+        <v>1.2</v>
+      </c>
+      <c r="H17">
         <v>0.7</v>
       </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
-        <v>1.8</v>
-      </c>
       <c r="I17">
+        <v>1.9</v>
+      </c>
+      <c r="J17">
         <v>2.2</v>
       </c>
-      <c r="J17">
-        <v>2.6</v>
-      </c>
       <c r="K17">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>5.3</v>
+        <v>4.3</v>
       </c>
       <c r="M17">
-        <v>5.9</v>
+        <v>7.9</v>
       </c>
       <c r="N17">
         <v>8.300000000000001</v>
       </c>
       <c r="O17">
-        <v>8.5</v>
+        <v>12.7</v>
       </c>
       <c r="P17">
+        <v>19.2</v>
+      </c>
+      <c r="Q17">
+        <v>20.1</v>
+      </c>
+      <c r="R17">
         <v>12.9</v>
       </c>
-      <c r="Q17">
-        <v>15.4</v>
-      </c>
-      <c r="R17">
-        <v>15.7</v>
-      </c>
       <c r="S17">
-        <v>15.6</v>
+        <v>4.6</v>
       </c>
       <c r="T17">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -3588,52 +3576,52 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G18">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H18">
         <v>0.3</v>
       </c>
       <c r="I18">
+        <v>0.4</v>
+      </c>
+      <c r="J18">
+        <v>0.8</v>
+      </c>
+      <c r="K18">
         <v>0.7</v>
       </c>
-      <c r="J18">
-        <v>0.6</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
       <c r="L18">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="M18">
-        <v>4.3</v>
+        <v>1.6</v>
       </c>
       <c r="N18">
-        <v>4.4</v>
+        <v>2.9</v>
       </c>
       <c r="O18">
-        <v>7.5</v>
+        <v>5.3</v>
       </c>
       <c r="P18">
-        <v>11.3</v>
+        <v>6.7</v>
       </c>
       <c r="Q18">
-        <v>16.1</v>
+        <v>14</v>
       </c>
       <c r="R18">
-        <v>22.3</v>
+        <v>27.5</v>
       </c>
       <c r="S18">
-        <v>29.1</v>
+        <v>38.8</v>
       </c>
       <c r="T18">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -3644,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3653,49 +3641,49 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I19">
+        <v>0.1</v>
+      </c>
+      <c r="J19">
+        <v>0.1</v>
+      </c>
+      <c r="K19">
+        <v>0.4</v>
+      </c>
+      <c r="L19">
+        <v>0.8</v>
+      </c>
+      <c r="M19">
         <v>0.6</v>
       </c>
-      <c r="J19">
-        <v>0.4</v>
-      </c>
-      <c r="K19">
-        <v>0.6</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>1.9</v>
-      </c>
       <c r="N19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="O19">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
-        <v>10.1</v>
+        <v>6.6</v>
       </c>
       <c r="Q19">
-        <v>15.6</v>
+        <v>12.9</v>
       </c>
       <c r="R19">
-        <v>25.9</v>
+        <v>27.8</v>
       </c>
       <c r="S19">
-        <v>35.9</v>
+        <v>46</v>
       </c>
       <c r="T19">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
@@ -3713,51 +3701,51 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C2">
-        <v>0.625</v>
+        <v>0.8</v>
       </c>
       <c r="D2">
-        <v>131.095</v>
+        <v>114.084</v>
       </c>
       <c r="E2">
-        <v>524.38</v>
+        <v>570.42</v>
       </c>
       <c r="F2">
-        <v>85.09999999999999</v>
+        <v>87.7</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H2" t="s">
         <v>78</v>
@@ -3768,48 +3756,48 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D3">
-        <v>122.02</v>
+        <v>121.932</v>
       </c>
       <c r="E3">
-        <v>488.0799999999999</v>
+        <v>609.66</v>
       </c>
       <c r="F3">
-        <v>80.40000000000001</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="G3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>58</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="D4">
-        <v>112.015</v>
+        <v>112.376</v>
       </c>
       <c r="E4">
-        <v>448.0599999999999</v>
+        <v>561.88</v>
       </c>
       <c r="F4">
-        <v>75.40000000000001</v>
+        <v>62.8</v>
       </c>
       <c r="G4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H4" t="s">
         <v>79</v>
@@ -3817,340 +3805,340 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="C5">
-        <v>0.625</v>
+        <v>0.6</v>
       </c>
       <c r="D5">
-        <v>114.455</v>
+        <v>117.26</v>
       </c>
       <c r="E5">
-        <v>457.8200000000001</v>
+        <v>586.3</v>
       </c>
       <c r="F5">
-        <v>67.60000000000001</v>
+        <v>59.3</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>0.5</v>
       </c>
       <c r="D6">
-        <v>117.44</v>
+        <v>122.576</v>
       </c>
       <c r="E6">
-        <v>469.76</v>
+        <v>612.88</v>
       </c>
       <c r="F6">
-        <v>52.8</v>
+        <v>49.7</v>
       </c>
       <c r="G6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>110.715</v>
+        <v>113.668</v>
       </c>
       <c r="E7">
-        <v>442.86</v>
+        <v>568.34</v>
       </c>
       <c r="F7">
-        <v>52</v>
+        <v>46.8</v>
       </c>
       <c r="G7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D8">
-        <v>108.04</v>
+        <v>108.232</v>
       </c>
       <c r="E8">
-        <v>432.16</v>
+        <v>541.16</v>
       </c>
       <c r="F8">
-        <v>41.2</v>
+        <v>40.9</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="D9">
-        <v>110.715</v>
+        <v>107.704</v>
       </c>
       <c r="E9">
-        <v>442.86</v>
+        <v>538.52</v>
       </c>
       <c r="F9">
-        <v>35.3</v>
+        <v>39.6</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>111.625</v>
+        <v>116.676</v>
       </c>
       <c r="E10">
-        <v>446.5</v>
+        <v>583.38</v>
       </c>
       <c r="F10">
-        <v>34.5</v>
+        <v>38.4</v>
       </c>
       <c r="G10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D11">
-        <v>104.265</v>
+        <v>102.704</v>
       </c>
       <c r="E11">
-        <v>417.0599999999999</v>
+        <v>513.52</v>
       </c>
       <c r="F11">
-        <v>25</v>
+        <v>36.2</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D12">
-        <v>105.115</v>
+        <v>108.784</v>
       </c>
       <c r="E12">
-        <v>420.46</v>
+        <v>543.92</v>
       </c>
       <c r="F12">
-        <v>21.6</v>
+        <v>21.1</v>
       </c>
       <c r="G12" t="s">
         <v>70</v>
       </c>
       <c r="H12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
         <v>59</v>
       </c>
       <c r="C13">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="D13">
-        <v>106.735</v>
+        <v>99.244</v>
       </c>
       <c r="E13">
-        <v>426.94</v>
+        <v>496.22</v>
       </c>
       <c r="F13">
-        <v>9.800000000000001</v>
+        <v>14.2</v>
       </c>
       <c r="G13" t="s">
         <v>71</v>
       </c>
       <c r="H13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C14">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="D14">
-        <v>96.935</v>
+        <v>100.764</v>
       </c>
       <c r="E14">
-        <v>387.74</v>
+        <v>503.8199999999999</v>
       </c>
       <c r="F14">
-        <v>8.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="G14" t="s">
         <v>72</v>
       </c>
       <c r="H14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C15">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="D15">
-        <v>95.22999999999999</v>
+        <v>97.79999999999998</v>
       </c>
       <c r="E15">
-        <v>380.92</v>
+        <v>488.9999999999999</v>
       </c>
       <c r="F15">
-        <v>3.9</v>
+        <v>6.1</v>
       </c>
       <c r="G15" t="s">
         <v>73</v>
       </c>
       <c r="H15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C16">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D16">
-        <v>94.10499999999999</v>
+        <v>101.708</v>
       </c>
       <c r="E16">
-        <v>376.42</v>
+        <v>508.54</v>
       </c>
       <c r="F16">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="G16" t="s">
         <v>74</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="D17">
-        <v>93.13999999999999</v>
+        <v>95.53999999999999</v>
       </c>
       <c r="E17">
-        <v>372.5599999999999</v>
+        <v>477.6999999999999</v>
       </c>
       <c r="F17">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="G17" t="s">
         <v>75</v>
       </c>
       <c r="H17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4158,25 +4146,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C18">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D18">
-        <v>92.17</v>
+        <v>82.26000000000001</v>
       </c>
       <c r="E18">
-        <v>368.68</v>
+        <v>411.3</v>
       </c>
       <c r="F18">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="G18" t="s">
         <v>76</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4184,25 +4172,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="D19">
-        <v>90.70499999999998</v>
+        <v>83.69199999999998</v>
       </c>
       <c r="E19">
-        <v>362.8199999999999</v>
+        <v>418.4599999999999</v>
       </c>
       <c r="F19">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G19" t="s">
         <v>77</v>
       </c>
       <c r="H19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4220,19 +4208,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4243,16 +4231,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4263,16 +4251,16 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4283,16 +4271,16 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4303,16 +4291,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4320,19 +4308,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4340,19 +4328,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4360,16 +4348,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
         <v>110</v>
@@ -4383,16 +4371,16 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4400,19 +4388,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4423,16 +4411,16 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4440,19 +4428,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12">
         <v>-2</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4463,16 +4451,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4483,16 +4471,16 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D14">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E14" t="s">
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4500,19 +4488,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D15">
-        <v>-7</v>
+        <v>-9</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4520,19 +4508,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D16">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4543,16 +4531,16 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D17">
-        <v>-12</v>
+        <v>-15</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4563,16 +4551,16 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D18">
-        <v>-19</v>
+        <v>-23</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4583,16 +4571,16 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D19">
-        <v>-22</v>
+        <v>-27</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4602,30 +4590,33 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>120</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -4641,11 +4632,14 @@
       <c r="E2">
         <v>23</v>
       </c>
-      <c r="F2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -4661,11 +4655,14 @@
       <c r="E3">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F3">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -4681,11 +4678,14 @@
       <c r="E4">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -4701,71 +4701,83 @@
       <c r="E5">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>-3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-4</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
+      <c r="B8">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C8">
         <v>14</v>
       </c>
-      <c r="D6">
+      <c r="D8">
         <v>15</v>
       </c>
-      <c r="E6">
+      <c r="E8">
         <v>5</v>
       </c>
-      <c r="F6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>-3</v>
-      </c>
-      <c r="E7">
+      <c r="F8">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>-4</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -4781,13 +4793,16 @@
       <c r="E9">
         <v>2</v>
       </c>
-      <c r="F9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -4796,16 +4811,19 @@
         <v>-3</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E10">
+        <v>-2</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="F10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -4821,13 +4839,16 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -4836,16 +4857,19 @@
         <v>-3</v>
       </c>
       <c r="D12">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
         <v>-2</v>
       </c>
-      <c r="F12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -4861,11 +4885,14 @@
       <c r="E13">
         <v>-4</v>
       </c>
-      <c r="F13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13">
+        <v>-3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -4881,51 +4908,60 @@
       <c r="E14">
         <v>-5</v>
       </c>
-      <c r="F14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="F14">
+        <v>-7</v>
+      </c>
+      <c r="G14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B15">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>-6</v>
       </c>
       <c r="D15">
         <v>-7</v>
       </c>
       <c r="E15">
-        <v>-7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-12</v>
+      </c>
+      <c r="F15">
+        <v>-9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
         <v>7</v>
       </c>
-      <c r="B16">
-        <v>-5</v>
-      </c>
       <c r="C16">
-        <v>-6</v>
+        <v>3</v>
       </c>
       <c r="D16">
         <v>-7</v>
       </c>
       <c r="E16">
-        <v>-12</v>
-      </c>
-      <c r="F16" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-7</v>
+      </c>
+      <c r="F16">
+        <v>-11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -4941,11 +4977,14 @@
       <c r="E17">
         <v>-12</v>
       </c>
-      <c r="F17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="F17">
+        <v>-15</v>
+      </c>
+      <c r="G17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -4961,11 +5000,14 @@
       <c r="E18">
         <v>-19</v>
       </c>
-      <c r="F18" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="F18">
+        <v>-23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -4981,8 +5023,11 @@
       <c r="E19">
         <v>-22</v>
       </c>
-      <c r="F19" t="s">
-        <v>120</v>
+      <c r="F19">
+        <v>-27</v>
+      </c>
+      <c r="G19" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4992,7 +5037,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5000,25 +5045,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5026,25 +5071,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F2">
-        <v>-5</v>
+        <v>-9</v>
       </c>
       <c r="G2">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5052,25 +5097,25 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
       <c r="E3">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="G3">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5078,25 +5123,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>-7</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>-12</v>
-      </c>
-      <c r="F4">
-        <v>-3</v>
-      </c>
       <c r="G4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5104,25 +5149,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="F5">
+        <v>-3</v>
+      </c>
+      <c r="G5">
         <v>9</v>
       </c>
-      <c r="G5">
-        <v>7</v>
-      </c>
       <c r="H5" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5130,25 +5175,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5159,22 +5204,22 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5182,25 +5227,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5211,22 +5256,22 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>-13</v>
+        <v>-1</v>
       </c>
       <c r="F9">
-        <v>-9</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5234,25 +5279,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="F10">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -5260,25 +5305,51 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>-13</v>
+      </c>
+      <c r="F11">
+        <v>-9</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>-3</v>
+      </c>
+      <c r="F12">
+        <v>-6</v>
+      </c>
+      <c r="G12">
         <v>3</v>
       </c>
-      <c r="C11" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11">
-        <v>15</v>
-      </c>
-      <c r="F11">
-        <v>17</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11" t="s">
-        <v>3</v>
+      <c r="H12" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Girl's Room 💞🏈 2025.xlsx
+++ b/leagues/The Girl's Room 💞🏈 2025.xlsx
@@ -11,17 +11,18 @@
     <sheet name="Wins Against Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
-    <sheet name="Record Odds" sheetId="5" r:id="rId5"/>
-    <sheet name="Louie Power Index" sheetId="6" r:id="rId6"/>
-    <sheet name="LPI By Week" sheetId="7" r:id="rId7"/>
-    <sheet name="Biggest Upsets" sheetId="8" r:id="rId8"/>
+    <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
+    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
+    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
+    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
+    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="137">
   <si>
     <t>Tush Push Director 🍑</t>
   </si>
@@ -176,6 +177,24 @@
     <t>Chance of Making Playoffs</t>
   </si>
   <si>
+    <t>Week_1</t>
+  </si>
+  <si>
+    <t>Week_2</t>
+  </si>
+  <si>
+    <t>Week_3</t>
+  </si>
+  <si>
+    <t>Week_4</t>
+  </si>
+  <si>
+    <t>Week_5</t>
+  </si>
+  <si>
+    <t>Week_6</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -209,52 +228,58 @@
     <t>1-4</t>
   </si>
   <si>
-    <t>10.4-4.4-0.1</t>
+    <t>10.5-4.4-0.1</t>
   </si>
   <si>
     <t>9.7-5.2-0.1</t>
   </si>
   <si>
-    <t>9.1-5.8-0.1</t>
+    <t>9.1-5.9-0.1</t>
   </si>
   <si>
     <t>8.8-6.1-0.1</t>
   </si>
   <si>
-    <t>8.0-5.9-1.1</t>
+    <t>8.2-5.7-1.1</t>
   </si>
   <si>
     <t>7.9-6.0-1.1</t>
   </si>
   <si>
-    <t>8.3-6.6-0.1</t>
-  </si>
-  <si>
-    <t>8.0-6.9-0.1</t>
+    <t>7.9-7.0-0.1</t>
+  </si>
+  <si>
+    <t>8.2-6.6-0.1</t>
+  </si>
+  <si>
+    <t>8.2-6.7-0.1</t>
+  </si>
+  <si>
+    <t>7.4-7.5-0.1</t>
   </si>
   <si>
     <t>7.3-7.6-0.1</t>
   </si>
   <si>
-    <t>7.1-7.8-0.1</t>
-  </si>
-  <si>
-    <t>6.7-8.2-0.1</t>
+    <t>6.8-8.1-0.1</t>
   </si>
   <si>
     <t>6.1-8.8-0.1</t>
   </si>
   <si>
-    <t>5.7-9.2-0.1</t>
+    <t>5.6-9.3-0.1</t>
   </si>
   <si>
     <t>5.5-9.4-0.1</t>
   </si>
   <si>
-    <t>4.1-10.8-0.1</t>
-  </si>
-  <si>
-    <t>3.7-11.2-0.1</t>
+    <t>4.0-10.9-0.1</t>
+  </si>
+  <si>
+    <t>3.8-11.1-0.1</t>
+  </si>
+  <si>
+    <t>11-4</t>
   </si>
   <si>
     <t>10-5</t>
@@ -273,6 +298,9 @@
   </si>
   <si>
     <t>6-9</t>
+  </si>
+  <si>
+    <t>5-10</t>
   </si>
   <si>
     <t>4-11</t>
@@ -2575,49 +2603,49 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>32.5</v>
+        <v>31.9</v>
       </c>
       <c r="C2">
-        <v>20.2</v>
+        <v>23.4</v>
       </c>
       <c r="D2">
-        <v>13.8</v>
+        <v>14.5</v>
       </c>
       <c r="E2">
-        <v>11.2</v>
+        <v>10.3</v>
       </c>
       <c r="F2">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="G2">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="H2">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="I2">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="J2">
-        <v>2.7</v>
+        <v>1.3</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="L2">
-        <v>1.1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>0.4</v>
       </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2629,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>87.7</v>
+        <v>89.8</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2637,52 +2665,52 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>23</v>
+        <v>24.1</v>
       </c>
       <c r="C3">
-        <v>19.7</v>
+        <v>18.2</v>
       </c>
       <c r="D3">
-        <v>13.5</v>
+        <v>12.9</v>
       </c>
       <c r="E3">
-        <v>12.4</v>
+        <v>10.3</v>
       </c>
       <c r="F3">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="H3">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="I3">
-        <v>4.1</v>
+        <v>4.9</v>
       </c>
       <c r="J3">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="L3">
+        <v>1.4</v>
+      </c>
+      <c r="M3">
         <v>1.1</v>
       </c>
-      <c r="M3">
-        <v>0.9</v>
-      </c>
       <c r="N3">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="O3">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="P3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Q3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2691,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>82.2</v>
+        <v>80.90000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2699,61 +2727,61 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>11.9</v>
+        <v>9.5</v>
       </c>
       <c r="C4">
-        <v>11.7</v>
+        <v>10.9</v>
       </c>
       <c r="D4">
-        <v>10.7</v>
+        <v>11.4</v>
       </c>
       <c r="E4">
-        <v>10</v>
+        <v>10.2</v>
       </c>
       <c r="F4">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>9.9</v>
       </c>
       <c r="H4">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="I4">
-        <v>6.4</v>
+        <v>6.9</v>
       </c>
       <c r="J4">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="K4">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="L4">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="M4">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="P4">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>62.8</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2761,61 +2789,61 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10.7</v>
       </c>
       <c r="D5">
-        <v>10.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E5">
-        <v>11.8</v>
+        <v>10.2</v>
       </c>
       <c r="F5">
-        <v>9.699999999999999</v>
+        <v>11.6</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>9.1</v>
       </c>
       <c r="H5">
         <v>6.9</v>
       </c>
       <c r="I5">
-        <v>9.1</v>
+        <v>6.3</v>
       </c>
       <c r="J5">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="K5">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="M5">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="N5">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="O5">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>59.3</v>
+        <v>60.4</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -2823,61 +2851,61 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>5.1</v>
+        <v>7.1</v>
       </c>
       <c r="C6">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="D6">
-        <v>9.199999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="E6">
-        <v>9.199999999999999</v>
+        <v>12.3</v>
       </c>
       <c r="F6">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G6">
-        <v>8.9</v>
+        <v>6.7</v>
       </c>
       <c r="H6">
-        <v>10.3</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I6">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="J6">
-        <v>6.1</v>
+        <v>7.4</v>
       </c>
       <c r="K6">
-        <v>8.300000000000001</v>
+        <v>5.4</v>
       </c>
       <c r="L6">
         <v>4.6</v>
       </c>
       <c r="M6">
+        <v>4</v>
+      </c>
+      <c r="N6">
         <v>3.9</v>
       </c>
-      <c r="N6">
-        <v>3.6</v>
-      </c>
       <c r="O6">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="P6">
-        <v>1.9</v>
+        <v>1.3</v>
       </c>
       <c r="Q6">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>49.7</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -2885,123 +2913,123 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="C7">
-        <v>6.2</v>
+        <v>5.3</v>
       </c>
       <c r="D7">
-        <v>8.800000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="E7">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="F7">
-        <v>10.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G7">
-        <v>8.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="H7">
-        <v>8.800000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="I7">
-        <v>6.9</v>
+        <v>9.4</v>
       </c>
       <c r="J7">
-        <v>7.6</v>
+        <v>6.7</v>
       </c>
       <c r="K7">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="L7">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M7">
-        <v>5.6</v>
+        <v>5.1</v>
       </c>
       <c r="N7">
         <v>4.5</v>
       </c>
       <c r="O7">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P7">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q7">
         <v>0.8</v>
       </c>
       <c r="R7">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="S7">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="T7">
-        <v>46.8</v>
+        <v>45.2</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="C8">
-        <v>4.4</v>
+        <v>5.4</v>
       </c>
       <c r="D8">
+        <v>7.1</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>6.5</v>
+      </c>
+      <c r="G8">
+        <v>9.5</v>
+      </c>
+      <c r="H8">
+        <v>7.6</v>
+      </c>
+      <c r="I8">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J8">
+        <v>7.6</v>
+      </c>
+      <c r="K8">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="L8">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>6.6</v>
-      </c>
-      <c r="F8">
-        <v>9.6</v>
-      </c>
-      <c r="G8">
-        <v>10.3</v>
-      </c>
-      <c r="H8">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="I8">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="J8">
-        <v>8.1</v>
-      </c>
-      <c r="K8">
-        <v>8</v>
-      </c>
-      <c r="L8">
-        <v>8.199999999999999</v>
-      </c>
       <c r="M8">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="N8">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="O8">
+        <v>4.6</v>
+      </c>
+      <c r="P8">
         <v>3.1</v>
       </c>
-      <c r="P8">
-        <v>1.6</v>
-      </c>
       <c r="Q8">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="R8">
+        <v>0.5</v>
+      </c>
+      <c r="S8">
         <v>0.2</v>
       </c>
-      <c r="S8">
-        <v>0.1</v>
-      </c>
       <c r="T8">
-        <v>40.9</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -3009,123 +3037,123 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="C9">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>6.7</v>
+        <v>5.8</v>
       </c>
       <c r="F9">
-        <v>8.5</v>
+        <v>9.9</v>
       </c>
       <c r="G9">
-        <v>11</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H9">
-        <v>8.800000000000001</v>
+        <v>10.4</v>
       </c>
       <c r="I9">
-        <v>10.5</v>
+        <v>10.1</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K9">
-        <v>7.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="L9">
-        <v>8.800000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="M9">
-        <v>6.6</v>
+        <v>5.5</v>
       </c>
       <c r="N9">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="O9">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="P9">
         <v>1.7</v>
       </c>
       <c r="Q9">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="R9">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="T9">
-        <v>39.6</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="C10">
-        <v>5.7</v>
+        <v>4.3</v>
       </c>
       <c r="D10">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="F10">
+        <v>8.9</v>
+      </c>
+      <c r="G10">
         <v>7.9</v>
       </c>
-      <c r="G10">
-        <v>8.5</v>
-      </c>
       <c r="H10">
-        <v>9.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="I10">
-        <v>10.1</v>
+        <v>8.1</v>
       </c>
       <c r="J10">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="K10">
         <v>8.1</v>
       </c>
       <c r="L10">
-        <v>5.6</v>
+        <v>7.8</v>
       </c>
       <c r="M10">
-        <v>6.8</v>
+        <v>5.5</v>
       </c>
       <c r="N10">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="O10">
-        <v>2.9</v>
+        <v>4.8</v>
       </c>
       <c r="P10">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="Q10">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R10">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="S10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>38.4</v>
+        <v>37.4</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -3133,61 +3161,61 @@
         <v>7</v>
       </c>
       <c r="B11">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="C11">
-        <v>5.3</v>
+        <v>4.2</v>
       </c>
       <c r="D11">
-        <v>7.2</v>
+        <v>6.6</v>
       </c>
       <c r="E11">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="F11">
-        <v>6.2</v>
+        <v>6.7</v>
       </c>
       <c r="G11">
+        <v>7.5</v>
+      </c>
+      <c r="H11">
+        <v>8.1</v>
+      </c>
+      <c r="I11">
+        <v>9.4</v>
+      </c>
+      <c r="J11">
+        <v>8.6</v>
+      </c>
+      <c r="K11">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L11">
         <v>8</v>
-      </c>
-      <c r="H11">
-        <v>7.4</v>
-      </c>
-      <c r="I11">
-        <v>7.6</v>
-      </c>
-      <c r="J11">
-        <v>10.2</v>
-      </c>
-      <c r="K11">
-        <v>7.8</v>
-      </c>
-      <c r="L11">
-        <v>7.9</v>
       </c>
       <c r="M11">
         <v>7.3</v>
       </c>
       <c r="N11">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="O11">
-        <v>5.3</v>
+        <v>3.9</v>
       </c>
       <c r="P11">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q11">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="R11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>36.2</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -3195,61 +3223,61 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9</v>
+        <v>1.2</v>
       </c>
       <c r="C12">
         <v>2.4</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>4.3</v>
       </c>
       <c r="E12">
         <v>4.8</v>
       </c>
       <c r="F12">
-        <v>4.5</v>
+        <v>5.3</v>
       </c>
       <c r="G12">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="H12">
-        <v>7.7</v>
+        <v>6.1</v>
       </c>
       <c r="I12">
+        <v>7.9</v>
+      </c>
+      <c r="J12">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K12">
         <v>8.5</v>
       </c>
-      <c r="J12">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K12">
-        <v>8.699999999999999</v>
-      </c>
       <c r="L12">
-        <v>10.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="M12">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="N12">
-        <v>9.300000000000001</v>
+        <v>7.2</v>
       </c>
       <c r="O12">
-        <v>7.7</v>
+        <v>6.6</v>
       </c>
       <c r="P12">
-        <v>5.7</v>
+        <v>6.6</v>
       </c>
       <c r="Q12">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="R12">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="S12">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="T12">
-        <v>21.1</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -3260,58 +3288,58 @@
         <v>0.5</v>
       </c>
       <c r="C13">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="D13">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="E13">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="F13">
-        <v>4.4</v>
+        <v>3.4</v>
       </c>
       <c r="G13">
-        <v>4.3</v>
+        <v>6</v>
       </c>
       <c r="H13">
-        <v>5.1</v>
+        <v>6.6</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>6.5</v>
       </c>
       <c r="J13">
-        <v>8.199999999999999</v>
+        <v>6.9</v>
       </c>
       <c r="K13">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="L13">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="M13">
+        <v>9.6</v>
+      </c>
+      <c r="N13">
         <v>11.5</v>
       </c>
-      <c r="N13">
-        <v>10.5</v>
-      </c>
       <c r="O13">
-        <v>11.1</v>
+        <v>10.6</v>
       </c>
       <c r="P13">
-        <v>9.4</v>
+        <v>7.9</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R13">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="S13">
         <v>0.3</v>
       </c>
       <c r="T13">
-        <v>14.2</v>
+        <v>15.7</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -3319,61 +3347,61 @@
         <v>11</v>
       </c>
       <c r="B14">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="C14">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="D14">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="F14">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="G14">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H14">
+        <v>4.6</v>
+      </c>
+      <c r="I14">
         <v>4.4</v>
       </c>
-      <c r="I14">
-        <v>4.8</v>
-      </c>
       <c r="J14">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="K14">
-        <v>7.5</v>
+        <v>8.6</v>
       </c>
       <c r="L14">
-        <v>8.5</v>
+        <v>8.9</v>
       </c>
       <c r="M14">
-        <v>10.5</v>
+        <v>9.9</v>
       </c>
       <c r="N14">
-        <v>11.5</v>
+        <v>12.1</v>
       </c>
       <c r="O14">
         <v>11.7</v>
       </c>
       <c r="P14">
-        <v>10.3</v>
+        <v>9.6</v>
       </c>
       <c r="Q14">
-        <v>8.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="R14">
-        <v>4.6</v>
+        <v>4</v>
       </c>
       <c r="S14">
-        <v>1.9</v>
+        <v>0.8</v>
       </c>
       <c r="T14">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -3384,58 +3412,58 @@
         <v>0.1</v>
       </c>
       <c r="C15">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D15">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E15">
         <v>0.9</v>
       </c>
       <c r="F15">
-        <v>1.9</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1.9</v>
+        <v>2.7</v>
       </c>
       <c r="H15">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="I15">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="J15">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="K15">
-        <v>5.1</v>
+        <v>6.2</v>
       </c>
       <c r="L15">
-        <v>7.6</v>
+        <v>6.2</v>
       </c>
       <c r="M15">
-        <v>8.199999999999999</v>
+        <v>10.6</v>
       </c>
       <c r="N15">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="O15">
+        <v>11.9</v>
+      </c>
+      <c r="P15">
+        <v>13.6</v>
+      </c>
+      <c r="Q15">
         <v>12.2</v>
       </c>
-      <c r="P15">
-        <v>13.4</v>
-      </c>
-      <c r="Q15">
-        <v>12.6</v>
-      </c>
       <c r="R15">
-        <v>10.1</v>
+        <v>9.5</v>
       </c>
       <c r="S15">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="T15">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -3443,61 +3471,61 @@
         <v>9</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="E16">
+        <v>0.1</v>
+      </c>
+      <c r="F16">
         <v>0.5</v>
       </c>
-      <c r="F16">
+      <c r="G16">
+        <v>1.8</v>
+      </c>
+      <c r="H16">
         <v>1.2</v>
       </c>
-      <c r="G16">
-        <v>1.7</v>
-      </c>
-      <c r="H16">
-        <v>1.6</v>
-      </c>
       <c r="I16">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="J16">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="K16">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L16">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="M16">
-        <v>7.8</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="N16">
-        <v>11.7</v>
+        <v>11.2</v>
       </c>
       <c r="O16">
-        <v>13.3</v>
+        <v>13</v>
       </c>
       <c r="P16">
-        <v>15.5</v>
+        <v>14.7</v>
       </c>
       <c r="Q16">
-        <v>13.9</v>
+        <v>15.2</v>
       </c>
       <c r="R16">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="S16">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="T16">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -3508,58 +3536,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E17">
         <v>0.2</v>
       </c>
       <c r="F17">
+        <v>0.4</v>
+      </c>
+      <c r="G17">
+        <v>0.5</v>
+      </c>
+      <c r="H17">
         <v>0.6</v>
       </c>
-      <c r="G17">
-        <v>1.2</v>
-      </c>
-      <c r="H17">
-        <v>0.7</v>
-      </c>
       <c r="I17">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="J17">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2.3</v>
       </c>
       <c r="L17">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="M17">
-        <v>7.9</v>
+        <v>6.9</v>
       </c>
       <c r="N17">
-        <v>8.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="O17">
-        <v>12.7</v>
+        <v>14.5</v>
       </c>
       <c r="P17">
-        <v>19.2</v>
+        <v>17.4</v>
       </c>
       <c r="Q17">
-        <v>20.1</v>
+        <v>20.8</v>
       </c>
       <c r="R17">
-        <v>12.9</v>
+        <v>13.4</v>
       </c>
       <c r="S17">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="T17">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -3579,49 +3607,49 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0.1</v>
       </c>
       <c r="H18">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="I18">
         <v>0.4</v>
       </c>
       <c r="J18">
+        <v>0.3</v>
+      </c>
+      <c r="K18">
         <v>0.8</v>
       </c>
-      <c r="K18">
-        <v>0.7</v>
-      </c>
       <c r="L18">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="M18">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="N18">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="O18">
-        <v>5.3</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>6.7</v>
+        <v>7.8</v>
       </c>
       <c r="Q18">
-        <v>14</v>
+        <v>13.9</v>
       </c>
       <c r="R18">
-        <v>27.5</v>
+        <v>28.6</v>
       </c>
       <c r="S18">
-        <v>38.8</v>
+        <v>39.6</v>
       </c>
       <c r="T18">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -3632,7 +3660,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -3641,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -3650,37 +3678,37 @@
         <v>0</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0.7</v>
+      </c>
+      <c r="K19">
         <v>0.1</v>
       </c>
-      <c r="J19">
-        <v>0.1</v>
-      </c>
-      <c r="K19">
-        <v>0.4</v>
-      </c>
       <c r="L19">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="M19">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="N19">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O19">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="P19">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="Q19">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="R19">
-        <v>27.8</v>
+        <v>28</v>
       </c>
       <c r="S19">
-        <v>46</v>
+        <v>45.9</v>
       </c>
       <c r="T19">
         <v>0.1</v>
@@ -3692,6 +3720,453 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>94.59999999999999</v>
+      </c>
+      <c r="C2">
+        <v>85.2</v>
+      </c>
+      <c r="D2">
+        <v>56.49999999999999</v>
+      </c>
+      <c r="E2">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="F2">
+        <v>86.8</v>
+      </c>
+      <c r="G2">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>38.5</v>
+      </c>
+      <c r="C3">
+        <v>60.4</v>
+      </c>
+      <c r="D3">
+        <v>59.4</v>
+      </c>
+      <c r="E3">
+        <v>80.5</v>
+      </c>
+      <c r="F3">
+        <v>82.89999999999999</v>
+      </c>
+      <c r="G3">
+        <v>80.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>67.7</v>
+      </c>
+      <c r="D4">
+        <v>69</v>
+      </c>
+      <c r="E4">
+        <v>52.90000000000001</v>
+      </c>
+      <c r="F4">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="G4">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>37.4</v>
+      </c>
+      <c r="C5">
+        <v>84.5</v>
+      </c>
+      <c r="D5">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>31.5</v>
+      </c>
+      <c r="F5">
+        <v>59.59999999999999</v>
+      </c>
+      <c r="G5">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>28.8</v>
+      </c>
+      <c r="C6">
+        <v>12.6</v>
+      </c>
+      <c r="D6">
+        <v>62.3</v>
+      </c>
+      <c r="E6">
+        <v>83.5</v>
+      </c>
+      <c r="F6">
+        <v>54.50000000000001</v>
+      </c>
+      <c r="G6">
+        <v>55.40000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>37</v>
+      </c>
+      <c r="C7">
+        <v>11.9</v>
+      </c>
+      <c r="D7">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="E7">
+        <v>68.7</v>
+      </c>
+      <c r="F7">
+        <v>38.1</v>
+      </c>
+      <c r="G7">
+        <v>44.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>16.1</v>
+      </c>
+      <c r="C8">
+        <v>33.2</v>
+      </c>
+      <c r="D8">
+        <v>46.3</v>
+      </c>
+      <c r="E8">
+        <v>37.1</v>
+      </c>
+      <c r="F8">
+        <v>42.9</v>
+      </c>
+      <c r="G8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.8</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>9.9</v>
+      </c>
+      <c r="E9">
+        <v>21.3</v>
+      </c>
+      <c r="F9">
+        <v>36.7</v>
+      </c>
+      <c r="G9">
+        <v>39.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>29.9</v>
+      </c>
+      <c r="C10">
+        <v>31.5</v>
+      </c>
+      <c r="D10">
+        <v>7.7</v>
+      </c>
+      <c r="E10">
+        <v>12.4</v>
+      </c>
+      <c r="F10">
+        <v>31.3</v>
+      </c>
+      <c r="G10">
+        <v>35.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C11">
+        <v>39.6</v>
+      </c>
+      <c r="D11">
+        <v>68.30000000000001</v>
+      </c>
+      <c r="E11">
+        <v>54.7</v>
+      </c>
+      <c r="F11">
+        <v>41.5</v>
+      </c>
+      <c r="G11">
+        <v>35.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="C12">
+        <v>91.40000000000001</v>
+      </c>
+      <c r="D12">
+        <v>14.5</v>
+      </c>
+      <c r="E12">
+        <v>36.8</v>
+      </c>
+      <c r="F12">
+        <v>21.8</v>
+      </c>
+      <c r="G12">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>64.2</v>
+      </c>
+      <c r="C13">
+        <v>3.8</v>
+      </c>
+      <c r="D13">
+        <v>5.3</v>
+      </c>
+      <c r="E13">
+        <v>4.3</v>
+      </c>
+      <c r="F13">
+        <v>17.8</v>
+      </c>
+      <c r="G13">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>10.6</v>
+      </c>
+      <c r="C14">
+        <v>48.2</v>
+      </c>
+      <c r="D14">
+        <v>54.90000000000001</v>
+      </c>
+      <c r="E14">
+        <v>21.6</v>
+      </c>
+      <c r="F14">
+        <v>7.8</v>
+      </c>
+      <c r="G14">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0.5</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>2.4</v>
+      </c>
+      <c r="F15">
+        <v>6.5</v>
+      </c>
+      <c r="G15">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>17.8</v>
+      </c>
+      <c r="E16">
+        <v>10.7</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>23.4</v>
+      </c>
+      <c r="C17">
+        <v>28.8</v>
+      </c>
+      <c r="D17">
+        <v>11.8</v>
+      </c>
+      <c r="E17">
+        <v>2.3</v>
+      </c>
+      <c r="F17">
+        <v>1.3</v>
+      </c>
+      <c r="G17">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>0.6</v>
+      </c>
+      <c r="C18">
+        <v>1.2</v>
+      </c>
+      <c r="D18">
+        <v>3.6</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
+        <v>0.1</v>
+      </c>
+      <c r="G18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>0.4</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.8</v>
+      </c>
+      <c r="E19">
+        <v>0.4</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -3704,25 +4179,25 @@
         <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -3730,7 +4205,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>0.8</v>
@@ -3742,13 +4217,13 @@
         <v>570.42</v>
       </c>
       <c r="F2">
-        <v>87.7</v>
+        <v>89.8</v>
       </c>
       <c r="G2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -3756,7 +4231,7 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>0.6</v>
@@ -3768,13 +4243,13 @@
         <v>609.66</v>
       </c>
       <c r="F3">
-        <v>82.19999999999999</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -3782,7 +4257,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>0.8</v>
@@ -3794,13 +4269,13 @@
         <v>561.88</v>
       </c>
       <c r="F4">
-        <v>62.8</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -3808,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C5">
         <v>0.6</v>
@@ -3820,13 +4295,13 @@
         <v>586.3</v>
       </c>
       <c r="F5">
-        <v>59.3</v>
+        <v>60.4</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -3846,13 +4321,13 @@
         <v>612.88</v>
       </c>
       <c r="F6">
-        <v>49.7</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -3872,39 +4347,39 @@
         <v>568.34</v>
       </c>
       <c r="F7">
-        <v>46.8</v>
+        <v>45.2</v>
       </c>
       <c r="G7" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="D8">
-        <v>108.232</v>
+        <v>116.676</v>
       </c>
       <c r="E8">
-        <v>541.16</v>
+        <v>583.38</v>
       </c>
       <c r="F8">
-        <v>40.9</v>
+        <v>38.9</v>
       </c>
       <c r="G8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -3912,7 +4387,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>0.6</v>
@@ -3924,39 +4399,39 @@
         <v>538.52</v>
       </c>
       <c r="F9">
-        <v>39.6</v>
+        <v>37.9</v>
       </c>
       <c r="G9" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C10">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="D10">
-        <v>116.676</v>
+        <v>108.232</v>
       </c>
       <c r="E10">
-        <v>583.38</v>
+        <v>541.16</v>
       </c>
       <c r="F10">
-        <v>38.4</v>
+        <v>37.4</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -3964,7 +4439,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C11">
         <v>0.8</v>
@@ -3976,13 +4451,13 @@
         <v>513.52</v>
       </c>
       <c r="F11">
-        <v>36.2</v>
+        <v>34.5</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -3990,7 +4465,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>0.4</v>
@@ -4002,13 +4477,13 @@
         <v>543.92</v>
       </c>
       <c r="F12">
-        <v>21.1</v>
+        <v>23.4</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -4016,7 +4491,7 @@
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C13">
         <v>0.6</v>
@@ -4028,13 +4503,13 @@
         <v>496.22</v>
       </c>
       <c r="F13">
-        <v>14.2</v>
+        <v>15.7</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -4042,7 +4517,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C14">
         <v>0.4</v>
@@ -4054,13 +4529,13 @@
         <v>503.8199999999999</v>
       </c>
       <c r="F14">
-        <v>8.9</v>
+        <v>9.9</v>
       </c>
       <c r="G14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4068,7 +4543,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C15">
         <v>0.4</v>
@@ -4080,13 +4555,13 @@
         <v>488.9999999999999</v>
       </c>
       <c r="F15">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="G15" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4094,7 +4569,7 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C16">
         <v>0.2</v>
@@ -4106,13 +4581,13 @@
         <v>508.54</v>
       </c>
       <c r="F16">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="G16" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4120,7 +4595,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C17">
         <v>0.4</v>
@@ -4132,13 +4607,13 @@
         <v>477.6999999999999</v>
       </c>
       <c r="F17">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="G17" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H17" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4146,7 +4621,7 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C18">
         <v>0.2</v>
@@ -4158,13 +4633,13 @@
         <v>411.3</v>
       </c>
       <c r="F18">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4172,7 +4647,7 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C19">
         <v>0.2</v>
@@ -4187,10 +4662,10 @@
         <v>0.1</v>
       </c>
       <c r="G19" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H19" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -4198,7 +4673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -4211,16 +4686,16 @@
         <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4231,7 +4706,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="D2">
         <v>25</v>
@@ -4240,7 +4715,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4251,7 +4726,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D3">
         <v>24</v>
@@ -4260,7 +4735,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4271,7 +4746,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D4">
         <v>15</v>
@@ -4280,7 +4755,7 @@
         <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4291,7 +4766,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D5">
         <v>13</v>
@@ -4300,7 +4775,7 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4311,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -4320,7 +4795,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4331,7 +4806,7 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -4340,7 +4815,7 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4351,7 +4826,7 @@
         <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -4360,7 +4835,7 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4371,7 +4846,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="D9">
         <v>3</v>
@@ -4380,7 +4855,7 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4391,7 +4866,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -4400,7 +4875,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4411,7 +4886,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="D11">
         <v>-1</v>
@@ -4420,7 +4895,7 @@
         <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4431,7 +4906,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D12">
         <v>-2</v>
@@ -4440,7 +4915,7 @@
         <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4451,7 +4926,7 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D13">
         <v>-3</v>
@@ -4460,7 +4935,7 @@
         <v>22</v>
       </c>
       <c r="F13" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4471,7 +4946,7 @@
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="D14">
         <v>-7</v>
@@ -4480,7 +4955,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4491,7 +4966,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D15">
         <v>-9</v>
@@ -4500,7 +4975,7 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4511,7 +4986,7 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="D16">
         <v>-11</v>
@@ -4520,7 +4995,7 @@
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4531,7 +5006,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D17">
         <v>-15</v>
@@ -4540,7 +5015,7 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4551,7 +5026,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="D18">
         <v>-23</v>
@@ -4560,7 +5035,7 @@
         <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4571,7 +5046,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="D19">
         <v>-27</v>
@@ -4580,7 +5055,7 @@
         <v>20</v>
       </c>
       <c r="F19" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4588,7 +5063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -4598,22 +5073,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -4636,7 +5111,7 @@
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -4659,7 +5134,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -4682,7 +5157,7 @@
         <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -4705,7 +5180,7 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -4728,7 +5203,7 @@
         <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -4751,7 +5226,7 @@
         <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -4774,7 +5249,7 @@
         <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -4797,7 +5272,7 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -4820,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -4843,7 +5318,7 @@
         <v>-1</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4866,7 +5341,7 @@
         <v>-2</v>
       </c>
       <c r="G12" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -4889,7 +5364,7 @@
         <v>-3</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -4912,7 +5387,7 @@
         <v>-7</v>
       </c>
       <c r="G14" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -4935,7 +5410,7 @@
         <v>-9</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -4958,7 +5433,7 @@
         <v>-11</v>
       </c>
       <c r="G16" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -4981,7 +5456,7 @@
         <v>-15</v>
       </c>
       <c r="G17" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -5004,7 +5479,7 @@
         <v>-23</v>
       </c>
       <c r="G18" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -5027,7 +5502,7 @@
         <v>-27</v>
       </c>
       <c r="G19" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -5035,7 +5510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -5045,25 +5520,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/The Girl's Room 💞🏈 2025.xlsx
+++ b/leagues/The Girl's Room 💞🏈 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="143">
   <si>
     <t>Tush Push Director 🍑</t>
   </si>
@@ -78,28 +78,34 @@
     <t>Lamb of Goedert</t>
   </si>
   <si>
-    <t>3-2-0</t>
-  </si>
-  <si>
-    <t>4-1-0</t>
-  </si>
-  <si>
-    <t>1-4-0</t>
-  </si>
-  <si>
-    <t>5-0-0</t>
-  </si>
-  <si>
-    <t>2-3-0</t>
-  </si>
-  <si>
-    <t>2-2-1</t>
-  </si>
-  <si>
-    <t>0-5-0</t>
-  </si>
-  <si>
-    <t>1-3-1</t>
+    <t>4-2-0</t>
+  </si>
+  <si>
+    <t>2-4-0</t>
+  </si>
+  <si>
+    <t>6-0-0</t>
+  </si>
+  <si>
+    <t>3-3-0</t>
+  </si>
+  <si>
+    <t>5-1-0</t>
+  </si>
+  <si>
+    <t>2-3-1</t>
+  </si>
+  <si>
+    <t>1-5-0</t>
+  </si>
+  <si>
+    <t>0-6-0</t>
+  </si>
+  <si>
+    <t>1-4-1</t>
+  </si>
+  <si>
+    <t>3-2-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -195,6 +201,9 @@
     <t>Week_6</t>
   </si>
   <si>
+    <t>Week_7</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -216,84 +225,81 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>3-2</t>
-  </si>
-  <si>
-    <t>2-3</t>
-  </si>
-  <si>
-    <t>1-4</t>
-  </si>
-  <si>
-    <t>10.5-4.4-0.1</t>
-  </si>
-  <si>
-    <t>9.7-5.2-0.1</t>
-  </si>
-  <si>
-    <t>9.1-5.9-0.1</t>
-  </si>
-  <si>
-    <t>8.8-6.1-0.1</t>
-  </si>
-  <si>
-    <t>8.2-5.7-1.1</t>
-  </si>
-  <si>
-    <t>7.9-6.0-1.1</t>
-  </si>
-  <si>
-    <t>7.9-7.0-0.1</t>
-  </si>
-  <si>
-    <t>8.2-6.6-0.1</t>
-  </si>
-  <si>
-    <t>8.2-6.7-0.1</t>
-  </si>
-  <si>
-    <t>7.4-7.5-0.1</t>
-  </si>
-  <si>
-    <t>7.3-7.6-0.1</t>
-  </si>
-  <si>
-    <t>6.8-8.1-0.1</t>
-  </si>
-  <si>
-    <t>6.1-8.8-0.1</t>
-  </si>
-  <si>
-    <t>5.6-9.3-0.1</t>
-  </si>
-  <si>
-    <t>5.5-9.4-0.1</t>
-  </si>
-  <si>
-    <t>4.0-10.9-0.1</t>
-  </si>
-  <si>
-    <t>3.8-11.1-0.1</t>
-  </si>
-  <si>
-    <t>11-4</t>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>10.1-4.8-0.1</t>
+  </si>
+  <si>
+    <t>9.9-5.0-0.1</t>
+  </si>
+  <si>
+    <t>10.0-4.9-0.1</t>
+  </si>
+  <si>
+    <t>9.5-5.5-0.1</t>
+  </si>
+  <si>
+    <t>9.2-5.7-0.1</t>
+  </si>
+  <si>
+    <t>8.6-5.4-1.0</t>
+  </si>
+  <si>
+    <t>8.6-6.3-0.1</t>
+  </si>
+  <si>
+    <t>8.3-6.6-0.1</t>
+  </si>
+  <si>
+    <t>6.9-7.0-1.1</t>
+  </si>
+  <si>
+    <t>7.0-8.0-0.1</t>
+  </si>
+  <si>
+    <t>6.5-8.4-0.1</t>
+  </si>
+  <si>
+    <t>6.0-8.9-0.1</t>
+  </si>
+  <si>
+    <t>5.8-9.1-0.1</t>
+  </si>
+  <si>
+    <t>5.4-9.5-0.1</t>
+  </si>
+  <si>
+    <t>5.0-10.0-0.1</t>
+  </si>
+  <si>
+    <t>3.5-11.5-0.1</t>
   </si>
   <si>
     <t>10-5</t>
   </si>
   <si>
-    <t>9-6</t>
-  </si>
-  <si>
-    <t>8-6-1</t>
+    <t>9-5-1</t>
   </si>
   <si>
     <t>8-7</t>
   </si>
   <si>
+    <t>7-7-1</t>
+  </si>
+  <si>
     <t>7-8</t>
   </si>
   <si>
@@ -303,9 +309,6 @@
     <t>5-10</t>
   </si>
   <si>
-    <t>4-11</t>
-  </si>
-  <si>
     <t>3-12</t>
   </si>
   <si>
@@ -318,12 +321,12 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Malini Ragoopath</t>
+  </si>
+  <si>
     <t>Kiana McIntosh</t>
   </si>
   <si>
-    <t>Malini Ragoopath</t>
-  </si>
-  <si>
     <t>Lily Lamb</t>
   </si>
   <si>
@@ -333,69 +336,81 @@
     <t>Sumita Gangwani</t>
   </si>
   <si>
+    <t>Shae Marx</t>
+  </si>
+  <si>
+    <t>Grace Stockbower</t>
+  </si>
+  <si>
+    <t>Rebecca Schneider</t>
+  </si>
+  <si>
     <t>Amanda Pasquale</t>
   </si>
   <si>
-    <t>Shae Marx</t>
-  </si>
-  <si>
     <t>Hillary Dale</t>
   </si>
   <si>
-    <t>Rebecca Schneider</t>
-  </si>
-  <si>
-    <t>Grace Stockbower</t>
-  </si>
-  <si>
     <t>Emily Carey</t>
   </si>
   <si>
+    <t>Faith Pon</t>
+  </si>
+  <si>
+    <t>Allie Kardon</t>
+  </si>
+  <si>
     <t>Hannah Miller</t>
   </si>
   <si>
-    <t>Faith Pon</t>
+    <t>Swathi Veeravalli</t>
   </si>
   <si>
     <t>Nikki Papalia</t>
   </si>
   <si>
-    <t>Swathi Veeravalli</t>
-  </si>
-  <si>
-    <t>Allie Kardon</t>
-  </si>
-  <si>
     <t>Grace Schiavone</t>
   </si>
   <si>
     <t>Nicole Coppins</t>
   </si>
   <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑4</t>
+    <t>0</t>
   </si>
   <si>
     <t>↑3</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
     <t>↓5</t>
   </si>
   <si>
@@ -412,6 +427,9 @@
   </si>
   <si>
     <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
   </si>
   <si>
     <t>Week</t>
@@ -869,28 +887,28 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
@@ -902,13 +920,13 @@
         <v>18</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -916,58 +934,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="S3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -975,58 +993,58 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R4" t="s">
         <v>18</v>
       </c>
       <c r="S4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1034,58 +1052,58 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" t="s">
         <v>22</v>
       </c>
-      <c r="L5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M5" t="s">
-        <v>18</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>19</v>
-      </c>
       <c r="R5" t="s">
         <v>18</v>
       </c>
       <c r="S5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1093,58 +1111,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
         <v>18</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1155,10 +1173,10 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
@@ -1170,40 +1188,40 @@
         <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M7" t="s">
         <v>18</v>
       </c>
       <c r="N7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O7" t="s">
         <v>18</v>
       </c>
       <c r="P7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1211,58 +1229,58 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
-      </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I8" t="s">
         <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O8" t="s">
         <v>18</v>
       </c>
       <c r="P8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1273,55 +1291,55 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" t="s">
-        <v>19</v>
-      </c>
       <c r="J9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M9" t="s">
         <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="S9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1329,58 +1347,58 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
         <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" t="s">
         <v>22</v>
       </c>
-      <c r="N10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" t="s">
-        <v>19</v>
-      </c>
       <c r="Q10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1388,49 +1406,49 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s">
         <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q11" t="s">
         <v>18</v>
@@ -1439,7 +1457,7 @@
         <v>18</v>
       </c>
       <c r="S11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1450,40 +1468,40 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>19</v>
-      </c>
       <c r="J12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
         <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="O12" t="s">
         <v>18</v>
@@ -1492,13 +1510,13 @@
         <v>18</v>
       </c>
       <c r="Q12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="R12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1506,58 +1524,58 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="P13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="S13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1565,55 +1583,55 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
         <v>22</v>
       </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" t="s">
-        <v>19</v>
-      </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N14" t="s">
         <v>18</v>
       </c>
       <c r="O14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="P14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S14" t="s">
         <v>18</v>
@@ -1624,58 +1642,58 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" t="s">
+      <c r="K15" t="s">
         <v>22</v>
       </c>
-      <c r="E15" t="s">
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" t="s">
         <v>22</v>
       </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>19</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" t="s">
         <v>22</v>
       </c>
-      <c r="O15" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>19</v>
-      </c>
       <c r="R15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1686,55 +1704,55 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
         <v>22</v>
       </c>
-      <c r="D16" t="s">
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
+        <v>18</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+      <c r="M16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N16" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q16" t="s">
         <v>22</v>
       </c>
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" t="s">
-        <v>18</v>
-      </c>
-      <c r="O16" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>19</v>
-      </c>
       <c r="R16" t="s">
         <v>18</v>
       </c>
       <c r="S16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1742,58 +1760,58 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
         <v>24</v>
       </c>
-      <c r="F17" t="s">
-        <v>20</v>
-      </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="O17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P17" t="s">
         <v>24</v>
       </c>
       <c r="Q17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1801,58 +1819,58 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s">
         <v>24</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" t="s">
         <v>24</v>
       </c>
-      <c r="F18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="K18" t="s">
+        <v>19</v>
+      </c>
+      <c r="L18" t="s">
         <v>24</v>
       </c>
-      <c r="I18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" t="s">
-        <v>20</v>
-      </c>
       <c r="M18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" t="s">
         <v>24</v>
       </c>
-      <c r="O18" t="s">
-        <v>20</v>
-      </c>
       <c r="P18" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>19</v>
+      </c>
+      <c r="R18" t="s">
         <v>24</v>
       </c>
-      <c r="Q18" t="s">
-        <v>22</v>
-      </c>
-      <c r="R18" t="s">
-        <v>20</v>
-      </c>
       <c r="S18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1863,55 +1881,55 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="O19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P19" t="s">
         <v>18</v>
       </c>
       <c r="Q19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R19" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="S19" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1929,13 +1947,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1946,10 +1964,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1.111111111111111</v>
+        <v>1.5</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1960,10 +1978,10 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>1.666666666666667</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1974,7 +1992,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1.888888888888889</v>
+        <v>2.055555555555555</v>
       </c>
       <c r="D4" t="s">
         <v>23</v>
@@ -1988,7 +2006,7 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>2.111111111111111</v>
+        <v>2.555555555555555</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1999,13 +2017,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>2.111111111111111</v>
+        <v>2.722222222222222</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2013,10 +2031,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>2.166666666666667</v>
+        <v>2.833333333333333</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -2027,13 +2045,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>2.222222222222222</v>
+        <v>2.944444444444445</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2041,13 +2059,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>2.388888888888889</v>
+        <v>2.944444444444445</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2058,10 +2076,10 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>2.444444444444445</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2069,13 +2087,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2083,10 +2101,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>2.777777777777778</v>
+        <v>3.055555555555555</v>
       </c>
       <c r="D12" t="s">
         <v>19</v>
@@ -2097,13 +2115,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>2.777777777777778</v>
+        <v>3.222222222222222</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2111,13 +2129,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>2.888888888888889</v>
+        <v>3.388888888888889</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2125,13 +2143,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>2.944444444444445</v>
+        <v>3.5</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2139,13 +2157,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2153,13 +2171,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>3.222222222222222</v>
+        <v>3.722222222222222</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2167,10 +2185,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>3.333333333333333</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D18" t="s">
         <v>19</v>
@@ -2181,13 +2199,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>3.333333333333333</v>
+        <v>4.277777777777778</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2205,16 +2223,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2225,7 +2243,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>4.111111111111111</v>
+        <v>5.111111111111111</v>
       </c>
       <c r="D2">
         <v>1.111111111111111</v>
@@ -2242,10 +2260,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.444444444444445</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D3">
-        <v>0.4444444444444446</v>
+        <v>0.333333333333333</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -2256,16 +2274,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>3.388888888888889</v>
+        <v>4.055555555555555</v>
       </c>
       <c r="D4">
-        <v>-0.6111111111111112</v>
+        <v>-0.9444444444444446</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2273,16 +2291,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>3.166666666666667</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2290,16 +2308,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>3.111111111111111</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="D6">
-        <v>-0.8888888888888888</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2307,16 +2325,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>3.277777777777778</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>-0.7222222222222223</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2324,16 +2342,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>2.944444444444445</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D8">
-        <v>0.9444444444444446</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2341,16 +2359,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>2.722222222222222</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D9">
-        <v>-0.2777777777777777</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2358,16 +2376,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>2.722222222222222</v>
+        <v>3.111111111111111</v>
       </c>
       <c r="D10">
-        <v>0.7222222222222223</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2375,13 +2393,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>2.555555555555555</v>
+        <v>3.055555555555555</v>
       </c>
       <c r="D11">
-        <v>-1.444444444444445</v>
+        <v>1.055555555555555</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -2392,16 +2410,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>2.444444444444445</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="D12">
-        <v>-0.5555555555555554</v>
+        <v>-2.111111111111111</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2409,16 +2427,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>2.722222222222222</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>0.7222222222222223</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2426,16 +2444,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.3333333333333335</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2443,16 +2461,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>1.944444444444444</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="D15">
-        <v>0.9444444444444444</v>
+        <v>0.2222222222222223</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2460,16 +2478,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C16">
-        <v>1.777777777777778</v>
+        <v>2.055555555555555</v>
       </c>
       <c r="D16">
-        <v>-0.2222222222222223</v>
+        <v>-0.9444444444444446</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2477,16 +2495,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C17">
-        <v>1.722222222222222</v>
+        <v>2</v>
       </c>
       <c r="D17">
-        <v>-0.2777777777777777</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2497,13 +2515,13 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>0.9444444444444444</v>
+        <v>1.444444444444444</v>
       </c>
       <c r="D18">
-        <v>-0.05555555555555558</v>
+        <v>-0.5555555555555556</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2514,13 +2532,13 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>0.8888888888888888</v>
+        <v>1.055555555555556</v>
       </c>
       <c r="D19">
-        <v>-0.1111111111111112</v>
+        <v>0.05555555555555558</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2538,99 +2556,99 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="C2">
-        <v>23.4</v>
+        <v>19.8</v>
       </c>
       <c r="D2">
-        <v>14.5</v>
+        <v>12.6</v>
       </c>
       <c r="E2">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="F2">
-        <v>6.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G2">
-        <v>3.6</v>
+        <v>5.9</v>
       </c>
       <c r="H2">
+        <v>4.6</v>
+      </c>
+      <c r="I2">
         <v>3.1</v>
       </c>
-      <c r="I2">
-        <v>2.7</v>
-      </c>
       <c r="J2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="K2">
-        <v>1.8</v>
+        <v>1.2</v>
       </c>
       <c r="L2">
         <v>0.5</v>
@@ -2639,10 +2657,10 @@
         <v>0.3</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="O2">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="P2">
         <v>0.1</v>
@@ -2657,60 +2675,60 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>89.8</v>
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>24.1</v>
+        <v>15.6</v>
       </c>
       <c r="C3">
-        <v>18.2</v>
+        <v>16.1</v>
       </c>
       <c r="D3">
-        <v>12.9</v>
+        <v>18.1</v>
       </c>
       <c r="E3">
-        <v>10.3</v>
+        <v>14.6</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>11.1</v>
       </c>
       <c r="G3">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>5.4</v>
       </c>
       <c r="I3">
-        <v>4.9</v>
+        <v>4.3</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K3">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="L3">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="M3">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="N3">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="O3">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="P3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2719,7 +2737,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>80.90000000000001</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2727,61 +2745,61 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>9.5</v>
+        <v>20.8</v>
       </c>
       <c r="C4">
-        <v>10.9</v>
+        <v>17.4</v>
       </c>
       <c r="D4">
-        <v>11.4</v>
+        <v>14.9</v>
       </c>
       <c r="E4">
-        <v>10.2</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>10.1</v>
+        <v>9</v>
       </c>
       <c r="G4">
-        <v>9.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H4">
-        <v>7.9</v>
+        <v>5.9</v>
       </c>
       <c r="I4">
-        <v>6.9</v>
+        <v>4.4</v>
       </c>
       <c r="J4">
-        <v>6.2</v>
+        <v>2.9</v>
       </c>
       <c r="K4">
-        <v>5</v>
+        <v>1.1</v>
       </c>
       <c r="L4">
-        <v>4.7</v>
+        <v>1.3</v>
       </c>
       <c r="M4">
-        <v>3.3</v>
+        <v>0.8</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="O4">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="P4">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="Q4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>62</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2789,297 +2807,297 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>9.5</v>
+        <v>14.2</v>
       </c>
       <c r="C5">
-        <v>10.7</v>
+        <v>14.9</v>
       </c>
       <c r="D5">
-        <v>9.300000000000001</v>
+        <v>13.8</v>
       </c>
       <c r="E5">
-        <v>10.2</v>
+        <v>10.6</v>
       </c>
       <c r="F5">
-        <v>11.6</v>
+        <v>11.8</v>
       </c>
       <c r="G5">
-        <v>9.1</v>
+        <v>10.3</v>
       </c>
       <c r="H5">
-        <v>6.9</v>
+        <v>8.1</v>
       </c>
       <c r="I5">
-        <v>6.3</v>
+        <v>6.8</v>
       </c>
       <c r="J5">
-        <v>5.8</v>
+        <v>3.6</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="L5">
-        <v>4.2</v>
+        <v>1.7</v>
       </c>
       <c r="M5">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="N5">
-        <v>2.6</v>
+        <v>0.6</v>
       </c>
       <c r="O5">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0.2</v>
       </c>
       <c r="R5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>60.4</v>
+        <v>75.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>7.1</v>
+        <v>5.1</v>
       </c>
       <c r="C6">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>9.5</v>
+        <v>12.9</v>
       </c>
       <c r="E6">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="F6">
-        <v>8.800000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="G6">
-        <v>6.7</v>
+        <v>11.4</v>
       </c>
       <c r="H6">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>7.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="J6">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="K6">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="L6">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="M6">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="N6">
-        <v>3.9</v>
+        <v>1.3</v>
       </c>
       <c r="O6">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="P6">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="R6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>53</v>
+        <v>65.3</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>7.2</v>
+      </c>
+      <c r="C7">
+        <v>10.7</v>
+      </c>
+      <c r="D7">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>11.6</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+      <c r="G7">
+        <v>10.8</v>
+      </c>
+      <c r="H7">
+        <v>8.6</v>
+      </c>
+      <c r="I7">
+        <v>9</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>3.9</v>
+      </c>
+      <c r="L7">
+        <v>3.8</v>
+      </c>
+      <c r="M7">
+        <v>2.4</v>
+      </c>
+      <c r="N7">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>4.4</v>
-      </c>
-      <c r="C7">
-        <v>5.3</v>
-      </c>
-      <c r="D7">
-        <v>7.3</v>
-      </c>
-      <c r="E7">
-        <v>9.5</v>
-      </c>
-      <c r="F7">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="G7">
-        <v>9.4</v>
-      </c>
-      <c r="H7">
-        <v>9.5</v>
-      </c>
-      <c r="I7">
-        <v>9.4</v>
-      </c>
-      <c r="J7">
-        <v>6.7</v>
-      </c>
-      <c r="K7">
-        <v>6</v>
-      </c>
-      <c r="L7">
-        <v>6.3</v>
-      </c>
-      <c r="M7">
-        <v>5.1</v>
-      </c>
-      <c r="N7">
-        <v>4.5</v>
-      </c>
       <c r="O7">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="P7">
-        <v>2.1</v>
+        <v>0.6</v>
       </c>
       <c r="Q7">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="R7">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="S7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>45.2</v>
+        <v>62.3</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>5.4</v>
+        <v>4.9</v>
       </c>
       <c r="D8">
-        <v>7.1</v>
+        <v>5.1</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F8">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="G8">
-        <v>9.5</v>
+        <v>10.7</v>
       </c>
       <c r="H8">
-        <v>7.6</v>
+        <v>12</v>
       </c>
       <c r="I8">
-        <v>8.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J8">
-        <v>7.6</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K8">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="L8">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="M8">
-        <v>7.1</v>
+        <v>5.1</v>
       </c>
       <c r="N8">
-        <v>4.9</v>
+        <v>3.8</v>
       </c>
       <c r="O8">
-        <v>4.6</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>3.1</v>
+        <v>1.2</v>
       </c>
       <c r="Q8">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="R8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>38.9</v>
+        <v>40.4</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>2.5</v>
+        <v>1.3</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="E9">
-        <v>5.8</v>
+        <v>7.4</v>
       </c>
       <c r="F9">
-        <v>9.9</v>
+        <v>7</v>
       </c>
       <c r="G9">
-        <v>9.699999999999999</v>
+        <v>10.3</v>
       </c>
       <c r="H9">
-        <v>10.4</v>
+        <v>11.4</v>
       </c>
       <c r="I9">
-        <v>10.1</v>
+        <v>10.9</v>
       </c>
       <c r="J9">
-        <v>9.699999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="K9">
-        <v>8.699999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="L9">
-        <v>6.8</v>
+        <v>6.2</v>
       </c>
       <c r="M9">
-        <v>5.5</v>
+        <v>4.3</v>
       </c>
       <c r="N9">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="O9">
+        <v>3.5</v>
+      </c>
+      <c r="P9">
         <v>2.5</v>
-      </c>
-      <c r="P9">
-        <v>1.7</v>
       </c>
       <c r="Q9">
         <v>0.9</v>
@@ -3088,134 +3106,134 @@
         <v>0.2</v>
       </c>
       <c r="S9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>37.9</v>
+        <v>36.2</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>3.4</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>4.3</v>
+        <v>1.2</v>
       </c>
       <c r="D10">
-        <v>6.3</v>
+        <v>1.8</v>
       </c>
       <c r="E10">
-        <v>6.6</v>
+        <v>4.2</v>
       </c>
       <c r="F10">
-        <v>8.9</v>
+        <v>5.4</v>
       </c>
       <c r="G10">
-        <v>7.9</v>
+        <v>7.1</v>
       </c>
       <c r="H10">
-        <v>9.4</v>
+        <v>8.5</v>
       </c>
       <c r="I10">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="J10">
-        <v>9.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K10">
-        <v>8.1</v>
+        <v>11.8</v>
       </c>
       <c r="L10">
-        <v>7.8</v>
+        <v>11.2</v>
       </c>
       <c r="M10">
-        <v>5.5</v>
+        <v>10.2</v>
       </c>
       <c r="N10">
-        <v>4.4</v>
+        <v>6.9</v>
       </c>
       <c r="O10">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="P10">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="Q10">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="R10">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T10">
-        <v>37.4</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>2.7</v>
+        <v>0.2</v>
       </c>
       <c r="C11">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="D11">
-        <v>6.6</v>
+        <v>1.5</v>
       </c>
       <c r="E11">
-        <v>6.8</v>
+        <v>3.6</v>
       </c>
       <c r="F11">
-        <v>6.7</v>
+        <v>4.9</v>
       </c>
       <c r="G11">
-        <v>7.5</v>
+        <v>4.9</v>
       </c>
       <c r="H11">
-        <v>8.1</v>
+        <v>7.2</v>
       </c>
       <c r="I11">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J11">
+        <v>10.2</v>
+      </c>
+      <c r="K11">
         <v>9.4</v>
       </c>
-      <c r="J11">
-        <v>8.6</v>
-      </c>
-      <c r="K11">
-        <v>8.699999999999999</v>
-      </c>
       <c r="L11">
-        <v>8</v>
+        <v>9.9</v>
       </c>
       <c r="M11">
-        <v>7.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="N11">
-        <v>5.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O11">
-        <v>3.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P11">
-        <v>3.1</v>
+        <v>6.4</v>
       </c>
       <c r="Q11">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="R11">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>34.5</v>
+        <v>16.2</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -3223,185 +3241,185 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
+        <v>0.3</v>
+      </c>
+      <c r="D12">
+        <v>0.4</v>
+      </c>
+      <c r="E12">
         <v>1.2</v>
       </c>
-      <c r="C12">
-        <v>2.4</v>
-      </c>
-      <c r="D12">
-        <v>4.3</v>
-      </c>
-      <c r="E12">
-        <v>4.8</v>
-      </c>
       <c r="F12">
-        <v>5.3</v>
+        <v>2.3</v>
       </c>
       <c r="G12">
-        <v>5.4</v>
+        <v>3.4</v>
       </c>
       <c r="H12">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="I12">
-        <v>7.9</v>
+        <v>6.7</v>
       </c>
       <c r="J12">
-        <v>9.699999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="K12">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="L12">
-        <v>9.300000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="M12">
-        <v>9</v>
+        <v>10.8</v>
       </c>
       <c r="N12">
-        <v>7.2</v>
+        <v>10.3</v>
       </c>
       <c r="O12">
-        <v>6.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="P12">
-        <v>6.6</v>
+        <v>9.1</v>
       </c>
       <c r="Q12">
-        <v>3.7</v>
+        <v>6</v>
       </c>
       <c r="R12">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="S12">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="T12">
-        <v>23.4</v>
+        <v>7.7</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>1.1</v>
+      </c>
+      <c r="F13">
+        <v>2.1</v>
+      </c>
+      <c r="G13">
+        <v>2.7</v>
+      </c>
+      <c r="H13">
+        <v>5</v>
+      </c>
+      <c r="I13">
+        <v>6.3</v>
+      </c>
+      <c r="J13">
+        <v>7.1</v>
+      </c>
+      <c r="K13">
+        <v>13</v>
+      </c>
+      <c r="L13">
+        <v>10.4</v>
+      </c>
+      <c r="M13">
+        <v>11.6</v>
+      </c>
+      <c r="N13">
+        <v>13.2</v>
+      </c>
+      <c r="O13">
+        <v>7</v>
+      </c>
+      <c r="P13">
+        <v>7.7</v>
+      </c>
+      <c r="Q13">
+        <v>6.8</v>
+      </c>
+      <c r="R13">
         <v>4</v>
       </c>
-      <c r="B13">
-        <v>0.5</v>
-      </c>
-      <c r="C13">
+      <c r="S13">
         <v>1.4</v>
       </c>
-      <c r="D13">
-        <v>2.1</v>
-      </c>
-      <c r="E13">
-        <v>2.3</v>
-      </c>
-      <c r="F13">
-        <v>3.4</v>
-      </c>
-      <c r="G13">
-        <v>6</v>
-      </c>
-      <c r="H13">
-        <v>6.6</v>
-      </c>
-      <c r="I13">
+      <c r="T13">
         <v>6.5</v>
-      </c>
-      <c r="J13">
-        <v>6.9</v>
-      </c>
-      <c r="K13">
-        <v>8.1</v>
-      </c>
-      <c r="L13">
-        <v>10</v>
-      </c>
-      <c r="M13">
-        <v>9.6</v>
-      </c>
-      <c r="N13">
-        <v>11.5</v>
-      </c>
-      <c r="O13">
-        <v>10.6</v>
-      </c>
-      <c r="P13">
-        <v>7.9</v>
-      </c>
-      <c r="Q13">
-        <v>4</v>
-      </c>
-      <c r="R13">
-        <v>2.3</v>
-      </c>
-      <c r="S13">
-        <v>0.3</v>
-      </c>
-      <c r="T13">
-        <v>15.7</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="C14">
         <v>0.4</v>
       </c>
       <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="E14">
-        <v>1.7</v>
-      </c>
       <c r="F14">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="G14">
-        <v>3.8</v>
+        <v>2.3</v>
       </c>
       <c r="H14">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="I14">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="J14">
         <v>6.8</v>
       </c>
       <c r="K14">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="L14">
-        <v>8.9</v>
+        <v>9.5</v>
       </c>
       <c r="M14">
-        <v>9.9</v>
+        <v>9</v>
       </c>
       <c r="N14">
-        <v>12.1</v>
+        <v>10.3</v>
       </c>
       <c r="O14">
-        <v>11.7</v>
+        <v>13</v>
       </c>
       <c r="P14">
-        <v>9.6</v>
+        <v>12.2</v>
       </c>
       <c r="Q14">
-        <v>8.699999999999999</v>
+        <v>10.2</v>
       </c>
       <c r="R14">
-        <v>4</v>
+        <v>5.4</v>
       </c>
       <c r="S14">
-        <v>0.8</v>
+        <v>2.9</v>
       </c>
       <c r="T14">
-        <v>9.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -3409,123 +3427,123 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="E15">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="G15">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H15">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="I15">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J15">
-        <v>4.1</v>
+        <v>5.9</v>
       </c>
       <c r="K15">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="L15">
-        <v>6.2</v>
+        <v>8.5</v>
       </c>
       <c r="M15">
+        <v>9.9</v>
+      </c>
+      <c r="N15">
+        <v>10.4</v>
+      </c>
+      <c r="O15">
+        <v>14</v>
+      </c>
+      <c r="P15">
         <v>10.6</v>
       </c>
-      <c r="N15">
-        <v>11</v>
-      </c>
-      <c r="O15">
-        <v>11.9</v>
-      </c>
-      <c r="P15">
-        <v>13.6</v>
-      </c>
       <c r="Q15">
-        <v>12.2</v>
+        <v>11.6</v>
       </c>
       <c r="R15">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S15">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="T15">
-        <v>6.2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <v>0.1</v>
       </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
       <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
         <v>0.7</v>
       </c>
-      <c r="E16">
-        <v>0.1</v>
-      </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="G16">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="I16">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="J16">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="K16">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="L16">
-        <v>7.7</v>
+        <v>6.7</v>
       </c>
       <c r="M16">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="N16">
-        <v>11.2</v>
+        <v>10.4</v>
       </c>
       <c r="O16">
-        <v>13</v>
+        <v>10.3</v>
       </c>
       <c r="P16">
-        <v>14.7</v>
+        <v>11.8</v>
       </c>
       <c r="Q16">
-        <v>15.2</v>
+        <v>13.8</v>
       </c>
       <c r="R16">
-        <v>10</v>
+        <v>14.2</v>
       </c>
       <c r="S16">
-        <v>5.1</v>
+        <v>7.3</v>
       </c>
       <c r="T16">
-        <v>3.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -3533,16 +3551,16 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="E17">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="F17">
         <v>0.4</v>
@@ -3551,43 +3569,43 @@
         <v>0.5</v>
       </c>
       <c r="H17">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="I17">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="K17">
-        <v>2.3</v>
+        <v>4.4</v>
       </c>
       <c r="L17">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="M17">
-        <v>6.9</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="N17">
-        <v>8.9</v>
+        <v>10.5</v>
       </c>
       <c r="O17">
-        <v>14.5</v>
+        <v>11.5</v>
       </c>
       <c r="P17">
-        <v>17.4</v>
+        <v>15.1</v>
       </c>
       <c r="Q17">
-        <v>20.8</v>
+        <v>16.4</v>
       </c>
       <c r="R17">
-        <v>13.4</v>
+        <v>14.7</v>
       </c>
       <c r="S17">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="T17">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -3607,49 +3625,49 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G18">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H18">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="I18">
+        <v>0.8</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>2.7</v>
+      </c>
+      <c r="L18">
+        <v>2.9</v>
+      </c>
+      <c r="M18">
+        <v>4.7</v>
+      </c>
+      <c r="N18">
+        <v>6</v>
+      </c>
+      <c r="O18">
+        <v>9</v>
+      </c>
+      <c r="P18">
+        <v>13.2</v>
+      </c>
+      <c r="Q18">
+        <v>17.4</v>
+      </c>
+      <c r="R18">
+        <v>24.1</v>
+      </c>
+      <c r="S18">
+        <v>17.2</v>
+      </c>
+      <c r="T18">
         <v>0.4</v>
-      </c>
-      <c r="J18">
-        <v>0.3</v>
-      </c>
-      <c r="K18">
-        <v>0.8</v>
-      </c>
-      <c r="L18">
-        <v>1.2</v>
-      </c>
-      <c r="M18">
-        <v>1.1</v>
-      </c>
-      <c r="N18">
-        <v>2.1</v>
-      </c>
-      <c r="O18">
-        <v>4</v>
-      </c>
-      <c r="P18">
-        <v>7.8</v>
-      </c>
-      <c r="Q18">
-        <v>13.9</v>
-      </c>
-      <c r="R18">
-        <v>28.6</v>
-      </c>
-      <c r="S18">
-        <v>39.6</v>
-      </c>
-      <c r="T18">
-        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -3669,49 +3687,49 @@
         <v>0</v>
       </c>
       <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>0.1</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="K19">
+        <v>0.3</v>
+      </c>
+      <c r="L19">
         <v>0.1</v>
       </c>
-      <c r="L19">
-        <v>0.7</v>
-      </c>
       <c r="M19">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="N19">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="O19">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="P19">
-        <v>7</v>
+        <v>5.3</v>
       </c>
       <c r="Q19">
-        <v>12.6</v>
+        <v>9</v>
       </c>
       <c r="R19">
-        <v>28</v>
+        <v>19.9</v>
       </c>
       <c r="S19">
-        <v>45.9</v>
+        <v>60.7</v>
       </c>
       <c r="T19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3721,199 +3739,223 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>37.6</v>
+      </c>
+      <c r="C2">
+        <v>63.8</v>
+      </c>
+      <c r="D2">
+        <v>59.9</v>
+      </c>
+      <c r="E2">
+        <v>77.5</v>
+      </c>
+      <c r="F2">
+        <v>84.5</v>
+      </c>
+      <c r="G2">
+        <v>91.5</v>
+      </c>
+      <c r="H2">
+        <v>90.40000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3">
+        <v>21.2</v>
+      </c>
+      <c r="C3">
+        <v>66.90000000000001</v>
+      </c>
+      <c r="D3">
+        <v>69.8</v>
+      </c>
+      <c r="E3">
+        <v>51.2</v>
+      </c>
+      <c r="F3">
+        <v>64.3</v>
+      </c>
+      <c r="G3">
+        <v>79.80000000000001</v>
+      </c>
+      <c r="H3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>94.59999999999999</v>
-      </c>
-      <c r="C2">
-        <v>85.2</v>
-      </c>
-      <c r="D2">
-        <v>56.49999999999999</v>
-      </c>
-      <c r="E2">
-        <v>78.40000000000001</v>
-      </c>
-      <c r="F2">
-        <v>86.8</v>
-      </c>
-      <c r="G2">
-        <v>89.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>38.5</v>
-      </c>
-      <c r="C3">
-        <v>60.4</v>
-      </c>
-      <c r="D3">
-        <v>59.4</v>
-      </c>
-      <c r="E3">
-        <v>80.5</v>
-      </c>
-      <c r="F3">
-        <v>82.89999999999999</v>
-      </c>
-      <c r="G3">
-        <v>80.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="B4">
-        <v>20</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="C4">
-        <v>67.7</v>
+        <v>84.39999999999999</v>
       </c>
       <c r="D4">
-        <v>69</v>
+        <v>55.8</v>
       </c>
       <c r="E4">
-        <v>52.90000000000001</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="F4">
-        <v>67.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="G4">
-        <v>62.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>80.80000000000001</v>
+      </c>
+      <c r="H4">
+        <v>82.09999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>37.4</v>
+        <v>39.2</v>
       </c>
       <c r="C5">
-        <v>84.5</v>
+        <v>81.8</v>
       </c>
       <c r="D5">
-        <v>46</v>
+        <v>40.7</v>
       </c>
       <c r="E5">
+        <v>32.4</v>
+      </c>
+      <c r="F5">
+        <v>59.8</v>
+      </c>
+      <c r="G5">
+        <v>72.5</v>
+      </c>
+      <c r="H5">
+        <v>76.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>19.4</v>
+      </c>
+      <c r="C6">
+        <v>32.2</v>
+      </c>
+      <c r="D6">
+        <v>47.5</v>
+      </c>
+      <c r="E6">
+        <v>40.3</v>
+      </c>
+      <c r="F6">
+        <v>40.5</v>
+      </c>
+      <c r="G6">
+        <v>60.5</v>
+      </c>
+      <c r="H6">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7">
+        <v>13.6</v>
+      </c>
+      <c r="D7">
+        <v>64.7</v>
+      </c>
+      <c r="E7">
+        <v>84.3</v>
+      </c>
+      <c r="F7">
+        <v>56.59999999999999</v>
+      </c>
+      <c r="G7">
+        <v>64.8</v>
+      </c>
+      <c r="H7">
+        <v>63.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
         <v>31.5</v>
       </c>
-      <c r="F5">
-        <v>59.59999999999999</v>
-      </c>
-      <c r="G5">
-        <v>58.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>28.8</v>
-      </c>
-      <c r="C6">
-        <v>12.6</v>
-      </c>
-      <c r="D6">
-        <v>62.3</v>
-      </c>
-      <c r="E6">
-        <v>83.5</v>
-      </c>
-      <c r="F6">
-        <v>54.50000000000001</v>
-      </c>
-      <c r="G6">
-        <v>55.40000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>37</v>
-      </c>
-      <c r="C7">
-        <v>11.9</v>
-      </c>
-      <c r="D7">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="E7">
-        <v>68.7</v>
-      </c>
-      <c r="F7">
-        <v>38.1</v>
-      </c>
-      <c r="G7">
-        <v>44.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>16.1</v>
-      </c>
       <c r="C8">
+        <v>32.7</v>
+      </c>
+      <c r="D8">
+        <v>7.8</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
         <v>33.2</v>
       </c>
-      <c r="D8">
-        <v>46.3</v>
-      </c>
-      <c r="E8">
-        <v>37.1</v>
-      </c>
-      <c r="F8">
-        <v>42.9</v>
-      </c>
       <c r="G8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>41</v>
+      </c>
+      <c r="H8">
+        <v>38.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -3922,39 +3964,45 @@
         <v>9.9</v>
       </c>
       <c r="E9">
-        <v>21.3</v>
+        <v>20.8</v>
       </c>
       <c r="F9">
-        <v>36.7</v>
+        <v>34.8</v>
       </c>
       <c r="G9">
-        <v>39.2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>43.8</v>
+      </c>
+      <c r="H9">
+        <v>37.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>29.9</v>
+        <v>33.6</v>
       </c>
       <c r="C10">
-        <v>31.5</v>
+        <v>11.4</v>
       </c>
       <c r="D10">
-        <v>7.7</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E10">
-        <v>12.4</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="F10">
-        <v>31.3</v>
+        <v>42.6</v>
       </c>
       <c r="G10">
-        <v>35.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>19.7</v>
+      </c>
+      <c r="H10">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -3962,96 +4010,108 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C11">
-        <v>39.6</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="D11">
-        <v>68.30000000000001</v>
+        <v>68.5</v>
       </c>
       <c r="E11">
-        <v>54.7</v>
+        <v>51.5</v>
       </c>
       <c r="F11">
-        <v>41.5</v>
+        <v>39</v>
       </c>
       <c r="G11">
-        <v>35.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>14.8</v>
+      </c>
+      <c r="H11">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>89.90000000000001</v>
+        <v>90.2</v>
       </c>
       <c r="C12">
-        <v>91.40000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="D12">
         <v>14.5</v>
       </c>
       <c r="E12">
-        <v>36.8</v>
+        <v>35.9</v>
       </c>
       <c r="F12">
-        <v>21.8</v>
+        <v>19.5</v>
       </c>
       <c r="G12">
-        <v>23.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>10.1</v>
+      </c>
+      <c r="H12">
+        <v>8.200000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B13">
-        <v>64.2</v>
+        <v>63.6</v>
       </c>
       <c r="C13">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D13">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="E13">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="F13">
-        <v>17.8</v>
+        <v>16.8</v>
       </c>
       <c r="G13">
-        <v>14.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>5.5</v>
+      </c>
+      <c r="H13">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B14">
-        <v>10.6</v>
+        <v>7.3</v>
       </c>
       <c r="C14">
-        <v>48.2</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>54.90000000000001</v>
+        <v>17.1</v>
       </c>
       <c r="E14">
-        <v>21.6</v>
+        <v>11.7</v>
       </c>
       <c r="F14">
-        <v>7.8</v>
+        <v>2.9</v>
       </c>
       <c r="G14">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>7.9</v>
+      </c>
+      <c r="H14">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B15">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -4060,104 +4120,119 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="F15">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="G15">
-        <v>4.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>3.8</v>
+      </c>
+      <c r="H15">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16">
-        <v>7.399999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>46.40000000000001</v>
       </c>
       <c r="D16">
-        <v>17.8</v>
+        <v>55.2</v>
       </c>
       <c r="E16">
-        <v>10.7</v>
+        <v>21.7</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>9.4</v>
       </c>
       <c r="G16">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>2.2</v>
+      </c>
+      <c r="H16">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B17">
-        <v>23.4</v>
+        <v>19.9</v>
       </c>
       <c r="C17">
-        <v>28.8</v>
+        <v>31.6</v>
       </c>
       <c r="D17">
-        <v>11.8</v>
+        <v>12.6</v>
       </c>
       <c r="E17">
-        <v>2.3</v>
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="G17">
-        <v>2.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18">
+        <v>0.2</v>
+      </c>
+      <c r="C18">
+        <v>1.5</v>
+      </c>
+      <c r="D18">
+        <v>2.6</v>
+      </c>
+      <c r="E18">
+        <v>0.4</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0.3</v>
+      </c>
+      <c r="H18">
         <v>0.6</v>
       </c>
-      <c r="C18">
-        <v>1.2</v>
-      </c>
-      <c r="D18">
-        <v>3.6</v>
-      </c>
-      <c r="E18">
-        <v>0.5</v>
-      </c>
-      <c r="F18">
-        <v>0.1</v>
-      </c>
-      <c r="G18">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="E19">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>0</v>
       </c>
     </row>
@@ -4176,80 +4251,80 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D2">
-        <v>114.084</v>
+        <v>125.5333333333333</v>
       </c>
       <c r="E2">
-        <v>570.42</v>
+        <v>753.2</v>
       </c>
       <c r="F2">
-        <v>89.8</v>
+        <v>88.59999999999999</v>
       </c>
       <c r="G2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C3">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D3">
-        <v>121.932</v>
+        <v>112.8266666666667</v>
       </c>
       <c r="E3">
-        <v>609.66</v>
+        <v>676.96</v>
       </c>
       <c r="F3">
-        <v>80.90000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4257,25 +4332,25 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D4">
-        <v>112.376</v>
+        <v>114.91</v>
       </c>
       <c r="E4">
-        <v>561.88</v>
+        <v>689.46</v>
       </c>
       <c r="F4">
-        <v>62</v>
+        <v>82.8</v>
       </c>
       <c r="G4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4283,48 +4358,48 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>117.26</v>
+        <v>118.4866666666667</v>
       </c>
       <c r="E5">
-        <v>586.3</v>
+        <v>710.92</v>
       </c>
       <c r="F5">
-        <v>60.4</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="C6">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6">
-        <v>122.576</v>
+        <v>109.8266666666667</v>
       </c>
       <c r="E6">
-        <v>612.88</v>
+        <v>658.96</v>
       </c>
       <c r="F6">
-        <v>53</v>
+        <v>65.3</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s">
         <v>88</v>
@@ -4332,132 +4407,132 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D7">
-        <v>113.668</v>
+        <v>120.63</v>
       </c>
       <c r="E7">
-        <v>568.34</v>
+        <v>723.78</v>
       </c>
       <c r="F7">
-        <v>45.2</v>
+        <v>62.3</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C8">
-        <v>0.4</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D8">
-        <v>116.676</v>
+        <v>99.66333333333334</v>
       </c>
       <c r="E8">
-        <v>583.38</v>
+        <v>597.98</v>
       </c>
       <c r="F8">
-        <v>38.9</v>
+        <v>40.40000000000001</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D9">
-        <v>107.704</v>
+        <v>104.5466666666667</v>
       </c>
       <c r="E9">
-        <v>538.52</v>
+        <v>627.28</v>
       </c>
       <c r="F9">
-        <v>37.9</v>
+        <v>36.2</v>
       </c>
       <c r="G9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>0.6</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D10">
-        <v>108.232</v>
+        <v>107.6066666666667</v>
       </c>
       <c r="E10">
-        <v>541.16</v>
+        <v>645.64</v>
       </c>
       <c r="F10">
-        <v>37.4</v>
+        <v>20.2</v>
       </c>
       <c r="G10" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C11">
-        <v>0.8</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D11">
-        <v>102.704</v>
+        <v>110.28</v>
       </c>
       <c r="E11">
-        <v>513.52</v>
+        <v>661.6800000000001</v>
       </c>
       <c r="F11">
-        <v>34.5</v>
+        <v>16.2</v>
       </c>
       <c r="G11" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -4465,77 +4540,77 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C12">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D12">
-        <v>108.784</v>
+        <v>104.98</v>
       </c>
       <c r="E12">
-        <v>543.92</v>
+        <v>629.88</v>
       </c>
       <c r="F12">
-        <v>23.4</v>
+        <v>7.7</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C13">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D13">
-        <v>99.244</v>
+        <v>103.6866666666667</v>
       </c>
       <c r="E13">
-        <v>496.22</v>
+        <v>622.12</v>
       </c>
       <c r="F13">
-        <v>15.7</v>
+        <v>6.5</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C14">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="D14">
-        <v>100.764</v>
+        <v>92.56</v>
       </c>
       <c r="E14">
-        <v>503.8199999999999</v>
+        <v>555.36</v>
       </c>
       <c r="F14">
-        <v>9.9</v>
+        <v>5.7</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4543,51 +4618,51 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C15">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D15">
-        <v>97.79999999999998</v>
+        <v>98.24666666666666</v>
       </c>
       <c r="E15">
-        <v>488.9999999999999</v>
+        <v>589.48</v>
       </c>
       <c r="F15">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C16">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D16">
-        <v>101.708</v>
+        <v>90.53333333333332</v>
       </c>
       <c r="E16">
-        <v>508.54</v>
+        <v>543.2</v>
       </c>
       <c r="F16">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -4595,25 +4670,25 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C17">
-        <v>0.4</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D17">
-        <v>95.53999999999999</v>
+        <v>96.25666666666666</v>
       </c>
       <c r="E17">
-        <v>477.6999999999999</v>
+        <v>577.54</v>
       </c>
       <c r="F17">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="G17" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4621,25 +4696,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C18">
-        <v>0.2</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D18">
-        <v>82.26000000000001</v>
+        <v>83.96333333333334</v>
       </c>
       <c r="E18">
-        <v>411.3</v>
+        <v>503.78</v>
       </c>
       <c r="F18">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="G18" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4647,25 +4722,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C19">
-        <v>0.2</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D19">
-        <v>83.69199999999998</v>
+        <v>82.68999999999998</v>
       </c>
       <c r="E19">
-        <v>418.4599999999999</v>
+        <v>496.14</v>
       </c>
       <c r="F19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4683,19 +4758,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4703,19 +4778,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D2">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4723,19 +4798,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4746,16 +4821,16 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4766,7 +4841,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <v>13</v>
@@ -4775,7 +4850,7 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4786,7 +4861,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6">
         <v>7</v>
@@ -4795,7 +4870,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4803,19 +4878,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4823,19 +4898,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4843,19 +4918,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4863,19 +4938,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4883,19 +4958,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4906,16 +4981,16 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D12">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4923,19 +4998,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D13">
-        <v>-3</v>
+        <v>-5</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4943,19 +5018,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D14">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4963,19 +5038,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D15">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4986,16 +5061,16 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D16">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5003,19 +5078,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D17">
-        <v>-15</v>
+        <v>-17</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5026,16 +5101,16 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D18">
-        <v>-23</v>
+        <v>-28</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5046,13 +5121,13 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D19">
-        <v>-27</v>
+        <v>-29</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
         <v>124</v>
@@ -5065,454 +5140,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>4</v>
-      </c>
-      <c r="D2">
-        <v>15</v>
-      </c>
-      <c r="E2">
-        <v>23</v>
-      </c>
-      <c r="F2">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>-3</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>-4</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>14</v>
-      </c>
-      <c r="D8">
-        <v>15</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>9</v>
-      </c>
-      <c r="D9">
-        <v>-2</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>-3</v>
-      </c>
-      <c r="D10">
-        <v>-3</v>
-      </c>
-      <c r="E10">
-        <v>-2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>-5</v>
-      </c>
-      <c r="C11">
-        <v>-7</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>-1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>-3</v>
-      </c>
-      <c r="D12">
-        <v>-1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>-2</v>
-      </c>
-      <c r="G12" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>-6</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>-5</v>
-      </c>
-      <c r="E13">
-        <v>-4</v>
-      </c>
-      <c r="F13">
-        <v>-3</v>
-      </c>
-      <c r="G13" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>-1</v>
-      </c>
-      <c r="C14">
-        <v>-9</v>
-      </c>
-      <c r="D14">
-        <v>-9</v>
-      </c>
-      <c r="E14">
-        <v>-5</v>
-      </c>
-      <c r="F14">
-        <v>-7</v>
-      </c>
-      <c r="G14" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15">
-        <v>-5</v>
-      </c>
-      <c r="C15">
-        <v>-6</v>
-      </c>
-      <c r="D15">
-        <v>-7</v>
-      </c>
-      <c r="E15">
-        <v>-12</v>
-      </c>
-      <c r="F15">
-        <v>-9</v>
-      </c>
-      <c r="G15" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>-7</v>
-      </c>
-      <c r="E16">
-        <v>-7</v>
-      </c>
-      <c r="F16">
-        <v>-11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>-5</v>
-      </c>
-      <c r="C17">
-        <v>-1</v>
-      </c>
-      <c r="D17">
-        <v>-8</v>
-      </c>
-      <c r="E17">
-        <v>-12</v>
-      </c>
-      <c r="F17">
-        <v>-15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>-7</v>
-      </c>
-      <c r="C18">
-        <v>-8</v>
-      </c>
-      <c r="D18">
-        <v>-12</v>
-      </c>
-      <c r="E18">
-        <v>-19</v>
-      </c>
-      <c r="F18">
-        <v>-23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>-6</v>
-      </c>
-      <c r="C19">
-        <v>-13</v>
-      </c>
-      <c r="D19">
-        <v>-11</v>
-      </c>
-      <c r="E19">
-        <v>-22</v>
-      </c>
-      <c r="F19">
-        <v>-27</v>
-      </c>
-      <c r="G19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5538,7 +5166,511 @@
         <v>135</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>13</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>-3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>-5</v>
+      </c>
+      <c r="C8">
+        <v>-7</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>-1</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>-3</v>
+      </c>
+      <c r="D9">
+        <v>-3</v>
+      </c>
+      <c r="E9">
+        <v>-2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-4</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>-2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>-3</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>-2</v>
+      </c>
+      <c r="G12">
+        <v>-3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-9</v>
+      </c>
+      <c r="D13">
+        <v>-9</v>
+      </c>
+      <c r="E13">
+        <v>-5</v>
+      </c>
+      <c r="F13">
+        <v>-7</v>
+      </c>
+      <c r="G13">
+        <v>-5</v>
+      </c>
+      <c r="H13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>-5</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>-8</v>
+      </c>
+      <c r="E14">
+        <v>-12</v>
+      </c>
+      <c r="F14">
+        <v>-15</v>
+      </c>
+      <c r="G14">
+        <v>-10</v>
+      </c>
+      <c r="H14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>-6</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-5</v>
+      </c>
+      <c r="E15">
+        <v>-4</v>
+      </c>
+      <c r="F15">
+        <v>-3</v>
+      </c>
+      <c r="G15">
+        <v>-11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>-7</v>
+      </c>
+      <c r="E16">
+        <v>-7</v>
+      </c>
+      <c r="F16">
+        <v>-11</v>
+      </c>
+      <c r="G16">
+        <v>-14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>-5</v>
+      </c>
+      <c r="C17">
+        <v>-6</v>
+      </c>
+      <c r="D17">
+        <v>-7</v>
+      </c>
+      <c r="E17">
+        <v>-12</v>
+      </c>
+      <c r="F17">
+        <v>-9</v>
+      </c>
+      <c r="G17">
+        <v>-17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-7</v>
+      </c>
+      <c r="C18">
+        <v>-8</v>
+      </c>
+      <c r="D18">
+        <v>-12</v>
+      </c>
+      <c r="E18">
+        <v>-19</v>
+      </c>
+      <c r="F18">
+        <v>-23</v>
+      </c>
+      <c r="G18">
+        <v>-28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19">
+        <v>-6</v>
+      </c>
+      <c r="C19">
+        <v>-13</v>
+      </c>
+      <c r="D19">
+        <v>-11</v>
+      </c>
+      <c r="E19">
+        <v>-22</v>
+      </c>
+      <c r="F19">
+        <v>-27</v>
+      </c>
+      <c r="G19">
+        <v>-29</v>
+      </c>
+      <c r="H19" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
         <v>136</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5572,25 +5704,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E3">
-        <v>13</v>
+        <v>-29</v>
       </c>
       <c r="F3">
-        <v>-5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5598,25 +5730,25 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
       <c r="E4">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5624,25 +5756,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>-7</v>
+      </c>
+      <c r="F5">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>-12</v>
-      </c>
-      <c r="F5">
-        <v>-3</v>
-      </c>
       <c r="G5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5650,25 +5782,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
         <v>17</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>7</v>
       </c>
-      <c r="F6">
-        <v>15</v>
-      </c>
       <c r="G6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5676,25 +5808,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>-12</v>
       </c>
       <c r="F7">
+        <v>-3</v>
+      </c>
+      <c r="G7">
         <v>9</v>
       </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
       <c r="H7" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5702,25 +5834,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5731,22 +5863,22 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5754,77 +5886,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10">
-        <v>-7</v>
+        <v>6</v>
       </c>
       <c r="F10">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>-13</v>
-      </c>
-      <c r="F11">
-        <v>-9</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12">
-        <v>-3</v>
-      </c>
-      <c r="F12">
-        <v>-6</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Girl's Room 💞🏈 2025.xlsx
+++ b/leagues/The Girl's Room 💞🏈 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="148">
   <si>
     <t>Tush Push Director 🍑</t>
   </si>
@@ -78,34 +78,37 @@
     <t>Lamb of Goedert</t>
   </si>
   <si>
-    <t>4-2-0</t>
-  </si>
-  <si>
-    <t>2-4-0</t>
-  </si>
-  <si>
-    <t>6-0-0</t>
-  </si>
-  <si>
-    <t>3-3-0</t>
-  </si>
-  <si>
-    <t>5-1-0</t>
-  </si>
-  <si>
-    <t>2-3-1</t>
-  </si>
-  <si>
-    <t>1-5-0</t>
-  </si>
-  <si>
-    <t>0-6-0</t>
-  </si>
-  <si>
-    <t>1-4-1</t>
-  </si>
-  <si>
-    <t>3-2-1</t>
+    <t>5-2-0</t>
+  </si>
+  <si>
+    <t>3-4-0</t>
+  </si>
+  <si>
+    <t>7-0-0</t>
+  </si>
+  <si>
+    <t>6-1-0</t>
+  </si>
+  <si>
+    <t>4-3-0</t>
+  </si>
+  <si>
+    <t>2-4-1</t>
+  </si>
+  <si>
+    <t>1-6-0</t>
+  </si>
+  <si>
+    <t>2-5-0</t>
+  </si>
+  <si>
+    <t>0-7-0</t>
+  </si>
+  <si>
+    <t>1-5-1</t>
+  </si>
+  <si>
+    <t>3-3-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -204,6 +207,9 @@
     <t>Week_7</t>
   </si>
   <si>
+    <t>Week_8</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -225,84 +231,96 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>5-1</t>
-  </si>
-  <si>
-    <t>2-4</t>
-  </si>
-  <si>
-    <t>3-3</t>
-  </si>
-  <si>
-    <t>1-5</t>
-  </si>
-  <si>
-    <t>10.1-4.8-0.1</t>
-  </si>
-  <si>
-    <t>9.9-5.0-0.1</t>
-  </si>
-  <si>
-    <t>10.0-4.9-0.1</t>
-  </si>
-  <si>
-    <t>9.5-5.5-0.1</t>
-  </si>
-  <si>
-    <t>9.2-5.7-0.1</t>
-  </si>
-  <si>
-    <t>8.6-5.4-1.0</t>
-  </si>
-  <si>
-    <t>8.6-6.3-0.1</t>
-  </si>
-  <si>
-    <t>8.3-6.6-0.1</t>
-  </si>
-  <si>
-    <t>6.9-7.0-1.1</t>
-  </si>
-  <si>
-    <t>7.0-8.0-0.1</t>
+    <t>5-2</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>2-5</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>10.4-4.5-0.1</t>
+  </si>
+  <si>
+    <t>10.4-4.6-0.1</t>
+  </si>
+  <si>
+    <t>9.7-5.2-0.1</t>
+  </si>
+  <si>
+    <t>9.6-5.3-0.1</t>
+  </si>
+  <si>
+    <t>9.3-5.6-0.1</t>
+  </si>
+  <si>
+    <t>7.7-6.2-1.0</t>
+  </si>
+  <si>
+    <t>8.4-6.6-0.1</t>
+  </si>
+  <si>
+    <t>7.3-7.7</t>
+  </si>
+  <si>
+    <t>7.2-7.8-0.1</t>
+  </si>
+  <si>
+    <t>6.2-7.7-1.1</t>
   </si>
   <si>
     <t>6.5-8.4-0.1</t>
   </si>
   <si>
-    <t>6.0-8.9-0.1</t>
-  </si>
-  <si>
-    <t>5.8-9.1-0.1</t>
-  </si>
-  <si>
-    <t>5.4-9.5-0.1</t>
-  </si>
-  <si>
-    <t>5.0-10.0-0.1</t>
-  </si>
-  <si>
-    <t>3.5-11.5-0.1</t>
+    <t>6.2-8.7-0.1</t>
+  </si>
+  <si>
+    <t>5.9-9.0</t>
+  </si>
+  <si>
+    <t>5.0-10.0</t>
+  </si>
+  <si>
+    <t>5.3-9.7-0.1</t>
+  </si>
+  <si>
+    <t>4.7-10.2-0.1</t>
+  </si>
+  <si>
+    <t>3.2-11.7-0.1</t>
+  </si>
+  <si>
+    <t>11-4</t>
   </si>
   <si>
     <t>10-5</t>
   </si>
   <si>
-    <t>9-5-1</t>
+    <t>9-6</t>
+  </si>
+  <si>
+    <t>8-6-1</t>
   </si>
   <si>
     <t>8-7</t>
   </si>
   <si>
-    <t>7-7-1</t>
-  </si>
-  <si>
     <t>7-8</t>
   </si>
   <si>
+    <t>6-8-1</t>
+  </si>
+  <si>
     <t>6-9</t>
   </si>
   <si>
@@ -327,10 +345,16 @@
     <t>Kiana McIntosh</t>
   </si>
   <si>
+    <t>Brianna Goebel</t>
+  </si>
+  <si>
     <t>Lily Lamb</t>
   </si>
   <si>
-    <t>Brianna Goebel</t>
+    <t>Rebecca Schneider</t>
+  </si>
+  <si>
+    <t>Grace Stockbower</t>
   </si>
   <si>
     <t>Sumita Gangwani</t>
@@ -339,81 +363,69 @@
     <t>Shae Marx</t>
   </si>
   <si>
-    <t>Grace Stockbower</t>
-  </si>
-  <si>
-    <t>Rebecca Schneider</t>
-  </si>
-  <si>
     <t>Amanda Pasquale</t>
   </si>
   <si>
     <t>Hillary Dale</t>
   </si>
   <si>
+    <t>Faith Pon</t>
+  </si>
+  <si>
     <t>Emily Carey</t>
   </si>
   <si>
-    <t>Faith Pon</t>
+    <t>Nikki Papalia</t>
+  </si>
+  <si>
+    <t>Hannah Miller</t>
   </si>
   <si>
     <t>Allie Kardon</t>
   </si>
   <si>
-    <t>Hannah Miller</t>
-  </si>
-  <si>
     <t>Swathi Veeravalli</t>
   </si>
   <si>
-    <t>Nikki Papalia</t>
+    <t>Nicole Coppins</t>
   </si>
   <si>
     <t>Grace Schiavone</t>
   </si>
   <si>
-    <t>Nicole Coppins</t>
-  </si>
-  <si>
-    <t>↑7</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑1</t>
   </si>
   <si>
     <t>↑4</t>
   </si>
   <si>
-    <t>↑2</t>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓2</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑3</t>
-  </si>
-  <si>
     <t>↑6</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓8</t>
+    <t>↓5</t>
   </si>
   <si>
     <t>↓3</t>
   </si>
   <si>
-    <t>↓5</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -430,6 +442,9 @@
   </si>
   <si>
     <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
   </si>
   <si>
     <t>Week</t>
@@ -878,37 +893,37 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
@@ -920,13 +935,13 @@
         <v>18</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -943,49 +958,49 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K3" t="s">
         <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N3" t="s">
         <v>19</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1005,16 +1020,16 @@
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -1023,25 +1038,25 @@
         <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M4" t="s">
         <v>19</v>
       </c>
       <c r="N4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S4" t="s">
         <v>19</v>
@@ -1058,34 +1073,34 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J5" t="s">
         <v>18</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
         <v>18</v>
@@ -1094,13 +1109,13 @@
         <v>18</v>
       </c>
       <c r="P5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S5" t="s">
         <v>19</v>
@@ -1114,7 +1129,7 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>24</v>
@@ -1123,43 +1138,43 @@
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K6" t="s">
         <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P6" t="s">
         <v>24</v>
       </c>
       <c r="Q6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="S6" t="s">
         <v>24</v>
@@ -1176,52 +1191,52 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J7" t="s">
         <v>20</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O7" t="s">
         <v>18</v>
       </c>
       <c r="P7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1229,58 +1244,58 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E8" t="s">
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N8" t="s">
         <v>24</v>
       </c>
       <c r="O8" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1303,43 +1318,43 @@
         <v>19</v>
       </c>
       <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M9" t="s">
         <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1347,58 +1362,58 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" t="s">
         <v>21</v>
       </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" t="s">
-        <v>22</v>
-      </c>
       <c r="M10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" t="s">
         <v>21</v>
       </c>
-      <c r="N10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" t="s">
-        <v>18</v>
-      </c>
-      <c r="P10" t="s">
-        <v>22</v>
-      </c>
       <c r="Q10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="S10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1406,58 +1421,58 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11" t="s">
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="M11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P11" t="s">
         <v>19</v>
       </c>
       <c r="Q11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="S11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1468,28 +1483,28 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K12" t="s">
         <v>18</v>
@@ -1498,7 +1513,7 @@
         <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N12" t="s">
         <v>19</v>
@@ -1510,10 +1525,10 @@
         <v>18</v>
       </c>
       <c r="Q12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="R12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="S12" t="s">
         <v>19</v>
@@ -1527,52 +1542,52 @@
         <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J13" t="s">
         <v>19</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="S13" t="s">
         <v>19</v>
@@ -1583,22 +1598,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
         <v>20</v>
       </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H14" t="s">
         <v>20</v>
@@ -1616,19 +1631,19 @@
         <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N14" t="s">
         <v>18</v>
       </c>
       <c r="O14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="R14" t="s">
         <v>20</v>
@@ -1642,58 +1657,58 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
         <v>21</v>
       </c>
-      <c r="D15" t="s">
+      <c r="K15" t="s">
         <v>21</v>
       </c>
-      <c r="E15" t="s">
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" t="s">
+        <v>22</v>
+      </c>
+      <c r="O15" t="s">
         <v>21</v>
       </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" t="s">
-        <v>22</v>
-      </c>
-      <c r="K15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" t="s">
-        <v>18</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="P15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" t="s">
         <v>21</v>
       </c>
-      <c r="O15" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15" t="s">
-        <v>22</v>
-      </c>
       <c r="S15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1710,20 +1725,20 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
         <v>21</v>
       </c>
-      <c r="G16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>22</v>
-      </c>
       <c r="J16" t="s">
         <v>18</v>
       </c>
@@ -1737,7 +1752,7 @@
         <v>19</v>
       </c>
       <c r="N16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O16" t="s">
         <v>18</v>
@@ -1746,7 +1761,7 @@
         <v>18</v>
       </c>
       <c r="Q16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R16" t="s">
         <v>18</v>
@@ -1760,16 +1775,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
         <v>24</v>
@@ -1781,19 +1796,19 @@
         <v>24</v>
       </c>
       <c r="I17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N17" t="s">
         <v>24</v>
@@ -1805,13 +1820,13 @@
         <v>24</v>
       </c>
       <c r="Q17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="S17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1819,34 +1834,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
         <v>24</v>
       </c>
       <c r="H18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J18" t="s">
         <v>24</v>
       </c>
       <c r="K18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="L18" t="s">
         <v>24</v>
@@ -1855,16 +1870,16 @@
         <v>24</v>
       </c>
       <c r="N18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O18" t="s">
         <v>24</v>
       </c>
       <c r="P18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R18" t="s">
         <v>24</v>
@@ -1881,40 +1896,40 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J19" t="s">
         <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M19" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O19" t="s">
         <v>18</v>
@@ -1923,10 +1938,10 @@
         <v>18</v>
       </c>
       <c r="Q19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="R19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S19" t="s">
         <v>19</v>
@@ -1947,13 +1962,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1964,10 +1979,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1.5</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1975,13 +1990,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1.777777777777778</v>
+        <v>2.277777777777778</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1989,13 +2004,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C4">
-        <v>2.055555555555555</v>
+        <v>2.611111111111111</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2003,13 +2018,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>2.555555555555555</v>
+        <v>2.944444444444445</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2017,13 +2032,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>2.722222222222222</v>
+        <v>3.277777777777778</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2031,13 +2046,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>2.833333333333333</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2045,13 +2060,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>2.944444444444445</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2059,13 +2074,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>2.944444444444445</v>
+        <v>3.388888888888889</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2073,13 +2088,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2087,10 +2102,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -2101,13 +2116,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>3.055555555555555</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2115,13 +2130,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>3.222222222222222</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2129,13 +2144,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>3.388888888888889</v>
+        <v>3.777777777777778</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2143,13 +2158,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>3.5</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2160,7 +2175,7 @@
         <v>8</v>
       </c>
       <c r="C16">
-        <v>3.555555555555555</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D16" t="s">
         <v>18</v>
@@ -2171,13 +2186,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>3.722222222222222</v>
+        <v>4.388888888888889</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2185,13 +2200,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>3.833333333333333</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2199,13 +2214,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>4.277777777777778</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2223,16 +2238,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2243,10 +2258,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>5.111111111111111</v>
+        <v>6.055555555555555</v>
       </c>
       <c r="D2">
-        <v>1.111111111111111</v>
+        <v>1.055555555555555</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -2260,10 +2275,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.333333333333333</v>
+        <v>5.055555555555555</v>
       </c>
       <c r="D3">
-        <v>0.333333333333333</v>
+        <v>0.05555555555555536</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -2274,16 +2289,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>4.055555555555555</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>-0.9444444444444446</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2291,16 +2306,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2311,13 +2326,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>3.888888888888889</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D6">
-        <v>0.8888888888888888</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2325,13 +2340,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>3.277777777777778</v>
+        <v>4.055555555555555</v>
       </c>
       <c r="D7">
-        <v>-0.7222222222222223</v>
+        <v>-0.9444444444444446</v>
       </c>
       <c r="E7" t="s">
         <v>18</v>
@@ -2342,16 +2357,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>3.166666666666667</v>
+        <v>3.722222222222222</v>
       </c>
       <c r="D8">
-        <v>-0.8333333333333335</v>
+        <v>-2.277777777777778</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2362,10 +2377,10 @@
         <v>17</v>
       </c>
       <c r="C9">
-        <v>3.166666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D9">
-        <v>1.166666666666667</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
@@ -2379,10 +2394,10 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>3.111111111111111</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D10">
-        <v>1.111111111111111</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -2396,10 +2411,10 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>3.055555555555555</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="D11">
-        <v>1.055555555555555</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -2410,13 +2425,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>2.888888888888889</v>
+        <v>3.5</v>
       </c>
       <c r="D12">
-        <v>-2.111111111111111</v>
+        <v>-0.5</v>
       </c>
       <c r="E12" t="s">
         <v>22</v>
@@ -2430,13 +2445,13 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>2.722222222222222</v>
+        <v>3.111111111111111</v>
       </c>
       <c r="D13">
-        <v>0.7222222222222223</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2447,10 +2462,10 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>2.333333333333333</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>0.3333333333333335</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
@@ -2461,16 +2476,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>2.222222222222222</v>
+        <v>2.333333333333333</v>
       </c>
       <c r="D15">
-        <v>0.2222222222222223</v>
+        <v>0.3333333333333335</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2478,16 +2493,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>2.055555555555555</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="D16">
-        <v>-0.9444444444444446</v>
+        <v>0.2222222222222223</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2495,13 +2510,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>-0.8333333333333335</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
@@ -2515,13 +2530,13 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>1.444444444444444</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="D18">
-        <v>-0.5555555555555556</v>
+        <v>-0.3888888888888888</v>
       </c>
       <c r="E18" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2532,10 +2547,10 @@
         <v>16</v>
       </c>
       <c r="C19">
-        <v>1.055555555555556</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="D19">
-        <v>0.05555555555555558</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
@@ -2556,64 +2571,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2621,49 +2636,49 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>31.8</v>
+        <v>33.4</v>
       </c>
       <c r="C2">
-        <v>19.8</v>
+        <v>20.4</v>
       </c>
       <c r="D2">
-        <v>12.6</v>
+        <v>13.3</v>
       </c>
       <c r="E2">
-        <v>10.2</v>
+        <v>11.7</v>
       </c>
       <c r="F2">
-        <v>8.300000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="G2">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="H2">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="I2">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="J2">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="K2">
-        <v>1.2</v>
+        <v>0.2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="M2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0.1</v>
       </c>
       <c r="P2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2675,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>88.59999999999999</v>
+        <v>92.3</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2683,52 +2698,52 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>15.6</v>
+        <v>18.6</v>
       </c>
       <c r="C3">
-        <v>16.1</v>
+        <v>24.9</v>
       </c>
       <c r="D3">
-        <v>18.1</v>
+        <v>18.6</v>
       </c>
       <c r="E3">
-        <v>14.6</v>
+        <v>14.1</v>
       </c>
       <c r="F3">
-        <v>11.1</v>
+        <v>9</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="H3">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="I3">
-        <v>4.3</v>
+        <v>2.5</v>
       </c>
       <c r="J3">
-        <v>2.9</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="L3">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="M3">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N3">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -2737,7 +2752,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>83.5</v>
+        <v>90.7</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2745,49 +2760,49 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>20.8</v>
+        <v>22</v>
       </c>
       <c r="C4">
-        <v>17.4</v>
+        <v>17.7</v>
       </c>
       <c r="D4">
-        <v>14.9</v>
+        <v>17.6</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="G4">
-        <v>8.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H4">
-        <v>5.9</v>
+        <v>3.8</v>
       </c>
       <c r="I4">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="J4">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="K4">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1.3</v>
+        <v>0.4</v>
       </c>
       <c r="M4">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="N4">
         <v>0.3</v>
       </c>
       <c r="O4">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="P4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2799,7 +2814,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>82.8</v>
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2807,52 +2822,52 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>14.2</v>
+        <v>12.3</v>
       </c>
       <c r="C5">
-        <v>14.9</v>
+        <v>14</v>
       </c>
       <c r="D5">
+        <v>15.7</v>
+      </c>
+      <c r="E5">
+        <v>14.6</v>
+      </c>
+      <c r="F5">
         <v>13.8</v>
       </c>
-      <c r="E5">
-        <v>10.6</v>
-      </c>
-      <c r="F5">
-        <v>11.8</v>
-      </c>
       <c r="G5">
-        <v>10.3</v>
+        <v>9.6</v>
       </c>
       <c r="H5">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I5">
-        <v>6.8</v>
+        <v>4.5</v>
       </c>
       <c r="J5">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="K5">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="L5">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="M5">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="N5">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="O5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -2861,51 +2876,51 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>75.59999999999999</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>5.1</v>
+        <v>7.7</v>
       </c>
       <c r="C6">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="D6">
-        <v>12.9</v>
+        <v>12.2</v>
       </c>
       <c r="E6">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="F6">
-        <v>14.3</v>
+        <v>14.8</v>
       </c>
       <c r="G6">
-        <v>11.4</v>
+        <v>10.7</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>11.1</v>
       </c>
       <c r="I6">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="J6">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="L6">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="M6">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="N6">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="O6">
         <v>0.4</v>
@@ -2914,7 +2929,7 @@
         <v>0.2</v>
       </c>
       <c r="Q6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <v>0</v>
@@ -2928,684 +2943,684 @@
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>7.2</v>
+        <v>4.7</v>
       </c>
       <c r="C7">
-        <v>10.7</v>
+        <v>7.9</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="E7">
-        <v>11.6</v>
+        <v>14.7</v>
       </c>
       <c r="F7">
-        <v>11</v>
+        <v>13.2</v>
       </c>
       <c r="G7">
-        <v>10.8</v>
+        <v>13.7</v>
       </c>
       <c r="H7">
-        <v>8.6</v>
+        <v>10.6</v>
       </c>
       <c r="I7">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="J7">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="K7">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="L7">
-        <v>3.8</v>
+        <v>2.5</v>
       </c>
       <c r="M7">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="O7">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="P7">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="Q7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>62.3</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>0.7</v>
       </c>
       <c r="C8">
-        <v>4.9</v>
+        <v>2.1</v>
       </c>
       <c r="D8">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="E8">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="F8">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>10.7</v>
+        <v>12.5</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>12.3</v>
       </c>
       <c r="I8">
-        <v>9.800000000000001</v>
+        <v>13.3</v>
       </c>
       <c r="J8">
-        <v>9.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="K8">
         <v>8.5</v>
       </c>
       <c r="L8">
-        <v>6.1</v>
+        <v>6.7</v>
       </c>
       <c r="M8">
-        <v>5.1</v>
+        <v>4.5</v>
       </c>
       <c r="N8">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P8">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="Q8">
         <v>0.6</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T8">
-        <v>40.4</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>1.3</v>
+        <v>0.3</v>
       </c>
       <c r="C9">
+        <v>3.3</v>
+      </c>
+      <c r="D9">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>6.2</v>
-      </c>
       <c r="E9">
-        <v>7.4</v>
+        <v>4.7</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>10.4</v>
       </c>
       <c r="G9">
-        <v>10.3</v>
+        <v>12.3</v>
       </c>
       <c r="H9">
-        <v>11.4</v>
+        <v>12.6</v>
       </c>
       <c r="I9">
-        <v>10.9</v>
+        <v>12.5</v>
       </c>
       <c r="J9">
-        <v>11.1</v>
+        <v>13</v>
       </c>
       <c r="K9">
-        <v>8.1</v>
+        <v>8.6</v>
       </c>
       <c r="L9">
-        <v>6.2</v>
+        <v>7.3</v>
       </c>
       <c r="M9">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="N9">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="O9">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="P9">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="R9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>36.2</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B10">
+        <v>0.2</v>
+      </c>
+      <c r="C10">
         <v>0.5</v>
       </c>
-      <c r="C10">
-        <v>1.2</v>
-      </c>
       <c r="D10">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="E10">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="F10">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="G10">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="H10">
+        <v>7.9</v>
+      </c>
+      <c r="I10">
+        <v>10.8</v>
+      </c>
+      <c r="J10">
+        <v>12.8</v>
+      </c>
+      <c r="K10">
+        <v>13.5</v>
+      </c>
+      <c r="L10">
+        <v>10</v>
+      </c>
+      <c r="M10">
         <v>8.5</v>
       </c>
-      <c r="I10">
-        <v>8.5</v>
-      </c>
-      <c r="J10">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="K10">
-        <v>11.8</v>
-      </c>
-      <c r="L10">
-        <v>11.2</v>
-      </c>
-      <c r="M10">
-        <v>10.2</v>
-      </c>
       <c r="N10">
-        <v>6.9</v>
+        <v>7.8</v>
       </c>
       <c r="O10">
-        <v>5.1</v>
+        <v>6</v>
       </c>
       <c r="P10">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="R10">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="S10">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="T10">
-        <v>20.2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>0.2</v>
       </c>
-      <c r="C11">
-        <v>1.1</v>
-      </c>
       <c r="D11">
+        <v>1.3</v>
+      </c>
+      <c r="E11">
         <v>1.5</v>
       </c>
-      <c r="E11">
-        <v>3.6</v>
-      </c>
       <c r="F11">
-        <v>4.9</v>
+        <v>3.9</v>
       </c>
       <c r="G11">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="H11">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="I11">
-        <v>8.300000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J11">
-        <v>10.2</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K11">
-        <v>9.4</v>
+        <v>11.4</v>
       </c>
       <c r="L11">
-        <v>9.9</v>
+        <v>13.1</v>
       </c>
       <c r="M11">
-        <v>9.699999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="N11">
-        <v>8.300000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O11">
-        <v>8.199999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="P11">
-        <v>6.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q11">
-        <v>3.5</v>
+        <v>2.2</v>
       </c>
       <c r="R11">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="S11">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="T11">
-        <v>16.2</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <v>0.1</v>
       </c>
-      <c r="C12">
-        <v>0.3</v>
-      </c>
       <c r="D12">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="E12">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="F12">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="G12">
-        <v>3.4</v>
+        <v>2.9</v>
       </c>
       <c r="H12">
-        <v>5.6</v>
+        <v>6.8</v>
       </c>
       <c r="I12">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="J12">
         <v>8.9</v>
       </c>
       <c r="K12">
-        <v>8.4</v>
+        <v>12.2</v>
       </c>
       <c r="L12">
+        <v>12.5</v>
+      </c>
+      <c r="M12">
+        <v>11.7</v>
+      </c>
+      <c r="N12">
         <v>11.3</v>
       </c>
-      <c r="M12">
-        <v>10.8</v>
-      </c>
-      <c r="N12">
-        <v>10.3</v>
-      </c>
       <c r="O12">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="P12">
-        <v>9.1</v>
+        <v>6.3</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>4.3</v>
       </c>
       <c r="R12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S12">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="T12">
-        <v>7.7</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E13">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="F13">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="G13">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I13">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="J13">
-        <v>7.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K13">
-        <v>13</v>
+        <v>9.9</v>
       </c>
       <c r="L13">
-        <v>10.4</v>
+        <v>10.8</v>
       </c>
       <c r="M13">
-        <v>11.6</v>
+        <v>12.4</v>
       </c>
       <c r="N13">
-        <v>13.2</v>
+        <v>13.4</v>
       </c>
       <c r="O13">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P13">
-        <v>7.7</v>
+        <v>8.9</v>
       </c>
       <c r="Q13">
-        <v>6.8</v>
+        <v>4.1</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="S13">
-        <v>1.4</v>
+        <v>0.8</v>
       </c>
       <c r="T13">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>0.1</v>
       </c>
-      <c r="C14">
-        <v>0.4</v>
-      </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.5</v>
       </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
       <c r="F14">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="G14">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H14">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="I14">
-        <v>4.5</v>
+        <v>5.4</v>
       </c>
       <c r="J14">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="K14">
-        <v>6.8</v>
+        <v>10</v>
       </c>
       <c r="L14">
-        <v>9.5</v>
+        <v>11.7</v>
       </c>
       <c r="M14">
-        <v>9</v>
+        <v>12.6</v>
       </c>
       <c r="N14">
+        <v>13.7</v>
+      </c>
+      <c r="O14">
+        <v>11.6</v>
+      </c>
+      <c r="P14">
         <v>10.3</v>
       </c>
-      <c r="O14">
-        <v>13</v>
-      </c>
-      <c r="P14">
-        <v>12.2</v>
-      </c>
       <c r="Q14">
-        <v>10.2</v>
+        <v>6.1</v>
       </c>
       <c r="R14">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="S14">
-        <v>2.9</v>
+        <v>1.2</v>
       </c>
       <c r="T14">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0.4</v>
+      </c>
+      <c r="F15">
+        <v>0.2</v>
+      </c>
+      <c r="G15">
+        <v>1.1</v>
+      </c>
+      <c r="H15">
+        <v>1.1</v>
+      </c>
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0.4</v>
-      </c>
-      <c r="E15">
-        <v>0.6</v>
-      </c>
-      <c r="F15">
-        <v>1.3</v>
-      </c>
-      <c r="G15">
-        <v>1.7</v>
-      </c>
-      <c r="H15">
-        <v>2.8</v>
-      </c>
-      <c r="I15">
-        <v>3.6</v>
-      </c>
       <c r="J15">
-        <v>5.9</v>
+        <v>3.8</v>
       </c>
       <c r="K15">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="L15">
-        <v>8.5</v>
+        <v>7.6</v>
       </c>
       <c r="M15">
-        <v>9.9</v>
+        <v>11.8</v>
       </c>
       <c r="N15">
-        <v>10.4</v>
+        <v>12.1</v>
       </c>
       <c r="O15">
+        <v>12.9</v>
+      </c>
+      <c r="P15">
         <v>14</v>
       </c>
-      <c r="P15">
-        <v>10.6</v>
-      </c>
       <c r="Q15">
-        <v>11.6</v>
+        <v>15.5</v>
       </c>
       <c r="R15">
-        <v>9.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S15">
         <v>2.6</v>
       </c>
       <c r="T15">
-        <v>4</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>0</v>
       </c>
       <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
         <v>0.1</v>
       </c>
-      <c r="D16">
+      <c r="F16">
+        <v>0.2</v>
+      </c>
+      <c r="G16">
         <v>0.1</v>
       </c>
-      <c r="E16">
-        <v>0.7</v>
-      </c>
-      <c r="F16">
+      <c r="H16">
+        <v>0.1</v>
+      </c>
+      <c r="I16">
+        <v>0.8</v>
+      </c>
+      <c r="J16">
         <v>1.1</v>
       </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
-        <v>1.7</v>
-      </c>
-      <c r="I16">
-        <v>2.5</v>
-      </c>
-      <c r="J16">
-        <v>4.2</v>
-      </c>
       <c r="K16">
-        <v>4.7</v>
+        <v>2.8</v>
       </c>
       <c r="L16">
-        <v>6.7</v>
+        <v>4.5</v>
       </c>
       <c r="M16">
-        <v>9.4</v>
+        <v>5.7</v>
       </c>
       <c r="N16">
-        <v>10.4</v>
+        <v>7.9</v>
       </c>
       <c r="O16">
-        <v>10.3</v>
+        <v>11.8</v>
       </c>
       <c r="P16">
-        <v>11.8</v>
+        <v>16.7</v>
       </c>
       <c r="Q16">
-        <v>13.8</v>
+        <v>19.8</v>
       </c>
       <c r="R16">
-        <v>14.2</v>
+        <v>19.1</v>
       </c>
       <c r="S16">
-        <v>7.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="T16">
-        <v>3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H17">
         <v>0.9</v>
       </c>
       <c r="I17">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="J17">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="K17">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="M17">
-        <v>9.300000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="N17">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="O17">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="P17">
-        <v>15.1</v>
+        <v>15.8</v>
       </c>
       <c r="Q17">
-        <v>16.4</v>
+        <v>15.4</v>
       </c>
       <c r="R17">
-        <v>14.7</v>
+        <v>16.9</v>
       </c>
       <c r="S17">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="T17">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -3625,49 +3640,49 @@
         <v>0</v>
       </c>
       <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>0.1</v>
       </c>
-      <c r="G18">
-        <v>0.3</v>
-      </c>
       <c r="H18">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="I18">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="L18">
         <v>2.9</v>
       </c>
       <c r="M18">
-        <v>4.7</v>
+        <v>3.6</v>
       </c>
       <c r="N18">
-        <v>6</v>
+        <v>5.4</v>
       </c>
       <c r="O18">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P18">
-        <v>13.2</v>
+        <v>13.9</v>
       </c>
       <c r="Q18">
-        <v>17.4</v>
+        <v>19.4</v>
       </c>
       <c r="R18">
-        <v>24.1</v>
+        <v>22.2</v>
       </c>
       <c r="S18">
-        <v>17.2</v>
+        <v>19</v>
       </c>
       <c r="T18">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -3696,37 +3711,37 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>0.3</v>
       </c>
-      <c r="L19">
-        <v>0.1</v>
-      </c>
       <c r="M19">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="N19">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="P19">
-        <v>5.3</v>
+        <v>4.1</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>10.3</v>
       </c>
       <c r="R19">
-        <v>19.9</v>
+        <v>21</v>
       </c>
       <c r="S19">
-        <v>60.7</v>
+        <v>60.4</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -3739,492 +3754,546 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2">
-        <v>37.6</v>
+        <v>38.1</v>
       </c>
       <c r="C2">
-        <v>63.8</v>
+        <v>63.3</v>
       </c>
       <c r="D2">
-        <v>59.9</v>
+        <v>57.49999999999999</v>
       </c>
       <c r="E2">
-        <v>77.5</v>
+        <v>79.80000000000001</v>
       </c>
       <c r="F2">
-        <v>84.5</v>
+        <v>81.5</v>
       </c>
       <c r="G2">
-        <v>91.5</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="H2">
-        <v>90.40000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>92.30000000000001</v>
+      </c>
+      <c r="I2">
+        <v>93.30000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>92.80000000000001</v>
+      </c>
+      <c r="C3">
+        <v>85.39999999999999</v>
+      </c>
+      <c r="D3">
+        <v>57.4</v>
+      </c>
+      <c r="E3">
+        <v>78.10000000000001</v>
+      </c>
+      <c r="F3">
+        <v>89.09999999999999</v>
+      </c>
+      <c r="G3">
+        <v>83</v>
+      </c>
+      <c r="H3">
+        <v>94</v>
+      </c>
+      <c r="I3">
+        <v>91.60000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
-        <v>21.2</v>
-      </c>
-      <c r="C3">
-        <v>66.90000000000001</v>
-      </c>
-      <c r="D3">
-        <v>69.8</v>
-      </c>
-      <c r="E3">
-        <v>51.2</v>
-      </c>
-      <c r="F3">
-        <v>64.3</v>
-      </c>
-      <c r="G3">
-        <v>79.80000000000001</v>
-      </c>
-      <c r="H3">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="B4">
-        <v>93.89999999999999</v>
+        <v>21.7</v>
       </c>
       <c r="C4">
-        <v>84.39999999999999</v>
+        <v>67.30000000000001</v>
       </c>
       <c r="D4">
-        <v>55.8</v>
+        <v>67.90000000000001</v>
       </c>
       <c r="E4">
-        <v>80.10000000000001</v>
+        <v>53.1</v>
       </c>
       <c r="F4">
-        <v>88</v>
+        <v>66.60000000000001</v>
       </c>
       <c r="G4">
-        <v>80.80000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="H4">
-        <v>82.09999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="I4">
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5">
-        <v>39.2</v>
+        <v>37.5</v>
       </c>
       <c r="C5">
-        <v>81.8</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>40.7</v>
+        <v>42.1</v>
       </c>
       <c r="E5">
-        <v>32.4</v>
+        <v>33.4</v>
       </c>
       <c r="F5">
-        <v>59.8</v>
+        <v>59.2</v>
       </c>
       <c r="G5">
-        <v>72.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="H5">
-        <v>76.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>80.5</v>
+      </c>
+      <c r="I5">
+        <v>78.90000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>28.4</v>
+      </c>
+      <c r="C6">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>33</v>
+      </c>
+      <c r="G6">
+        <v>41.09999999999999</v>
+      </c>
+      <c r="H6">
+        <v>61.2</v>
+      </c>
+      <c r="I6">
+        <v>67.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>11.1</v>
+      </c>
+      <c r="E7">
+        <v>20.8</v>
+      </c>
+      <c r="F7">
+        <v>36.2</v>
+      </c>
+      <c r="G7">
+        <v>40.1</v>
+      </c>
+      <c r="H7">
+        <v>58.09999999999999</v>
+      </c>
+      <c r="I7">
+        <v>63.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>28.1</v>
+      </c>
+      <c r="C8">
+        <v>13.4</v>
+      </c>
+      <c r="D8">
+        <v>64.60000000000001</v>
+      </c>
+      <c r="E8">
+        <v>85.7</v>
+      </c>
+      <c r="F8">
+        <v>55.3</v>
+      </c>
+      <c r="G8">
+        <v>63.9</v>
+      </c>
+      <c r="H8">
+        <v>34</v>
+      </c>
+      <c r="I8">
+        <v>36.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>19.4</v>
-      </c>
-      <c r="C6">
-        <v>32.2</v>
-      </c>
-      <c r="D6">
-        <v>47.5</v>
-      </c>
-      <c r="E6">
-        <v>40.3</v>
-      </c>
-      <c r="F6">
+      <c r="B9">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>30.8</v>
+      </c>
+      <c r="D9">
+        <v>48.8</v>
+      </c>
+      <c r="E9">
+        <v>38.9</v>
+      </c>
+      <c r="F9">
+        <v>44.2</v>
+      </c>
+      <c r="G9">
+        <v>61.4</v>
+      </c>
+      <c r="H9">
+        <v>28.8</v>
+      </c>
+      <c r="I9">
+        <v>33.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="C10">
         <v>40.5</v>
       </c>
-      <c r="G6">
-        <v>60.5</v>
-      </c>
-      <c r="H6">
-        <v>66.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
+      <c r="D10">
+        <v>71.2</v>
+      </c>
+      <c r="E10">
+        <v>53.5</v>
+      </c>
+      <c r="F10">
+        <v>37</v>
+      </c>
+      <c r="G10">
+        <v>14</v>
+      </c>
+      <c r="H10">
+        <v>21.4</v>
+      </c>
+      <c r="I10">
+        <v>17.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>89.60000000000001</v>
+      </c>
+      <c r="C11">
+        <v>91.8</v>
+      </c>
+      <c r="D11">
+        <v>15.1</v>
+      </c>
+      <c r="E11">
         <v>32</v>
       </c>
-      <c r="C7">
-        <v>13.6</v>
-      </c>
-      <c r="D7">
-        <v>64.7</v>
-      </c>
-      <c r="E7">
-        <v>84.3</v>
-      </c>
-      <c r="F7">
-        <v>56.59999999999999</v>
-      </c>
-      <c r="G7">
-        <v>64.8</v>
-      </c>
-      <c r="H7">
-        <v>63.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>31.5</v>
-      </c>
-      <c r="C8">
-        <v>32.7</v>
-      </c>
-      <c r="D8">
-        <v>7.8</v>
-      </c>
-      <c r="E8">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>33.2</v>
-      </c>
-      <c r="G8">
-        <v>41</v>
-      </c>
-      <c r="H8">
-        <v>38.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>1.1</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>9.9</v>
-      </c>
-      <c r="E9">
-        <v>20.8</v>
-      </c>
-      <c r="F9">
-        <v>34.8</v>
-      </c>
-      <c r="G9">
-        <v>43.8</v>
-      </c>
-      <c r="H9">
-        <v>37.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
+      <c r="F11">
+        <v>21.6</v>
+      </c>
+      <c r="G11">
+        <v>11.5</v>
+      </c>
+      <c r="H11">
+        <v>13.8</v>
+      </c>
+      <c r="I11">
+        <v>9.800000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>33.6</v>
-      </c>
-      <c r="C10">
-        <v>11.4</v>
-      </c>
-      <c r="D10">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="E10">
-        <v>70.09999999999999</v>
-      </c>
-      <c r="F10">
-        <v>42.6</v>
-      </c>
-      <c r="G10">
-        <v>19.7</v>
-      </c>
-      <c r="H10">
-        <v>19.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C11">
-        <v>39.90000000000001</v>
-      </c>
-      <c r="D11">
-        <v>68.5</v>
-      </c>
-      <c r="E11">
-        <v>51.5</v>
-      </c>
-      <c r="F11">
-        <v>39</v>
-      </c>
-      <c r="G11">
-        <v>14.8</v>
-      </c>
-      <c r="H11">
-        <v>13.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="B12">
-        <v>90.2</v>
+        <v>37.8</v>
       </c>
       <c r="C12">
-        <v>90.5</v>
+        <v>12.6</v>
       </c>
       <c r="D12">
-        <v>14.5</v>
+        <v>63.2</v>
       </c>
       <c r="E12">
-        <v>35.9</v>
+        <v>72.2</v>
       </c>
       <c r="F12">
-        <v>19.5</v>
+        <v>38.2</v>
       </c>
       <c r="G12">
-        <v>10.1</v>
+        <v>18.3</v>
       </c>
       <c r="H12">
-        <v>8.200000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>9.5</v>
+      </c>
+      <c r="I12">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>63.6</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>5.4</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>4.7</v>
+        <v>2.4</v>
       </c>
       <c r="F13">
-        <v>16.8</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="G13">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="H13">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>8.5</v>
+      </c>
+      <c r="I13">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B14">
-        <v>7.3</v>
+        <v>7.8</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.1</v>
+        <v>15.7</v>
       </c>
       <c r="E14">
-        <v>11.7</v>
+        <v>10.8</v>
       </c>
       <c r="F14">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="G14">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="H14">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>62.6</v>
+      </c>
+      <c r="C15">
+        <v>3.8</v>
+      </c>
+      <c r="D15">
+        <v>4.6</v>
+      </c>
+      <c r="E15">
+        <v>4.8</v>
+      </c>
+      <c r="F15">
+        <v>16.8</v>
+      </c>
+      <c r="G15">
+        <v>4.6</v>
+      </c>
+      <c r="H15">
         <v>2</v>
       </c>
-      <c r="B15">
-        <v>0.4</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>2.1</v>
-      </c>
-      <c r="F15">
-        <v>6.4</v>
-      </c>
-      <c r="G15">
-        <v>3.8</v>
-      </c>
-      <c r="H15">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16">
-        <v>8.4</v>
+        <v>12.6</v>
       </c>
       <c r="C16">
-        <v>46.40000000000001</v>
+        <v>46</v>
       </c>
       <c r="D16">
-        <v>55.2</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="E16">
-        <v>21.7</v>
+        <v>21.3</v>
       </c>
       <c r="F16">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>2.2</v>
+        <v>3.5</v>
       </c>
       <c r="H16">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.6</v>
+      </c>
+      <c r="I16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B17">
-        <v>19.9</v>
+        <v>21.9</v>
       </c>
       <c r="C17">
-        <v>31.6</v>
+        <v>30.3</v>
       </c>
       <c r="D17">
-        <v>12.6</v>
+        <v>10.7</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="F17">
         <v>1.6</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>0.3</v>
+      </c>
+      <c r="I17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="C18">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="D18">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="E18">
         <v>0.4</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G18">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="H18">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>0.1</v>
+      </c>
+      <c r="I18">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0.1</v>
@@ -4233,6 +4302,9 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>0</v>
       </c>
     </row>
@@ -4251,28 +4323,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -4280,25 +4352,25 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C2">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D2">
-        <v>125.5333333333333</v>
+        <v>127.1514285714286</v>
       </c>
       <c r="E2">
-        <v>753.2</v>
+        <v>890.0599999999999</v>
       </c>
       <c r="F2">
-        <v>88.59999999999999</v>
+        <v>92.30000000000001</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -4306,25 +4378,25 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D3">
-        <v>112.8266666666667</v>
+        <v>118.52</v>
       </c>
       <c r="E3">
-        <v>676.96</v>
+        <v>829.6399999999999</v>
       </c>
       <c r="F3">
-        <v>83.5</v>
+        <v>90.7</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -4332,25 +4404,25 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C4">
-        <v>0.8333333333333334</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D4">
-        <v>114.91</v>
+        <v>116.9142857142857</v>
       </c>
       <c r="E4">
-        <v>689.46</v>
+        <v>818.4000000000001</v>
       </c>
       <c r="F4">
-        <v>82.8</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4358,337 +4430,337 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D5">
-        <v>118.4866666666667</v>
+        <v>118.7228571428571</v>
       </c>
       <c r="E5">
-        <v>710.92</v>
+        <v>831.0599999999999</v>
       </c>
       <c r="F5">
-        <v>75.59999999999999</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="D6">
-        <v>109.8266666666667</v>
+        <v>104.4914285714286</v>
       </c>
       <c r="E6">
-        <v>658.96</v>
+        <v>731.4400000000001</v>
       </c>
       <c r="F6">
         <v>65.3</v>
       </c>
       <c r="G6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C7">
-        <v>0.5833333333333334</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D7">
-        <v>120.63</v>
+        <v>108.6885714285714</v>
       </c>
       <c r="E7">
-        <v>723.78</v>
+        <v>760.8199999999999</v>
       </c>
       <c r="F7">
-        <v>62.3</v>
+        <v>63.7</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="C8">
-        <v>0.8333333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>99.66333333333334</v>
+        <v>115.1142857142857</v>
       </c>
       <c r="E8">
-        <v>597.98</v>
+        <v>805.8</v>
       </c>
       <c r="F8">
-        <v>40.40000000000001</v>
+        <v>36.1</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C9">
-        <v>0.6666666666666666</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D9">
-        <v>104.5466666666667</v>
+        <v>104.04</v>
       </c>
       <c r="E9">
-        <v>627.28</v>
+        <v>728.28</v>
       </c>
       <c r="F9">
-        <v>36.2</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="C10">
-        <v>0.4166666666666667</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D10">
-        <v>107.6066666666667</v>
+        <v>108.4714285714286</v>
       </c>
       <c r="E10">
-        <v>645.64</v>
+        <v>759.3</v>
       </c>
       <c r="F10">
-        <v>20.2</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C11">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D11">
-        <v>110.28</v>
+        <v>104.7371428571429</v>
       </c>
       <c r="E11">
-        <v>661.6800000000001</v>
+        <v>733.16</v>
       </c>
       <c r="F11">
-        <v>16.2</v>
+        <v>12.5</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>0.3333333333333333</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D12">
-        <v>104.98</v>
+        <v>108.2085714285714</v>
       </c>
       <c r="E12">
-        <v>629.88</v>
+        <v>757.46</v>
       </c>
       <c r="F12">
-        <v>7.7</v>
+        <v>6.4</v>
       </c>
       <c r="G12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C13">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D13">
-        <v>103.6866666666667</v>
+        <v>100.74</v>
       </c>
       <c r="E13">
-        <v>622.12</v>
+        <v>705.1799999999999</v>
       </c>
       <c r="F13">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="G13" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C14">
-        <v>0.5</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D14">
-        <v>92.56</v>
+        <v>102.6057142857143</v>
       </c>
       <c r="E14">
-        <v>555.36</v>
+        <v>718.24</v>
       </c>
       <c r="F14">
-        <v>5.7</v>
+        <v>3.2</v>
       </c>
       <c r="G14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C15">
-        <v>0.3333333333333333</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D15">
-        <v>98.24666666666666</v>
+        <v>88.84285714285714</v>
       </c>
       <c r="E15">
-        <v>589.48</v>
+        <v>621.9</v>
       </c>
       <c r="F15">
-        <v>4</v>
+        <v>1.7</v>
       </c>
       <c r="G15" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C16">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D16">
-        <v>90.53333333333332</v>
+        <v>88.65428571428571</v>
       </c>
       <c r="E16">
-        <v>543.2</v>
+        <v>620.5799999999999</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="G16" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C17">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D17">
-        <v>96.25666666666666</v>
+        <v>89.49999999999999</v>
       </c>
       <c r="E17">
-        <v>577.54</v>
+        <v>626.4999999999999</v>
       </c>
       <c r="F17">
-        <v>1.6</v>
+        <v>0.3</v>
       </c>
       <c r="G17" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -4696,25 +4768,25 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C18">
-        <v>0.3333333333333333</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D18">
-        <v>83.96333333333334</v>
+        <v>81.96571428571428</v>
       </c>
       <c r="E18">
-        <v>503.78</v>
+        <v>573.76</v>
       </c>
       <c r="F18">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H18" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -4722,25 +4794,25 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C19">
-        <v>0.1666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D19">
-        <v>82.68999999999998</v>
+        <v>80.09142857142855</v>
       </c>
       <c r="E19">
-        <v>496.14</v>
+        <v>560.6399999999999</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4758,19 +4830,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4781,16 +4853,16 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4801,16 +4873,16 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4818,19 +4890,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="D4">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4838,19 +4910,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D5">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4858,19 +4930,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4878,10 +4950,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -4890,7 +4962,7 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4898,10 +4970,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -4910,7 +4982,7 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4918,19 +4990,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="D9">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4941,10 +5013,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -4961,7 +5033,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -4970,7 +5042,7 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4978,19 +5050,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="D12">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="E12" t="s">
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4998,19 +5070,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D13">
         <v>-5</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5018,19 +5090,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D14">
-        <v>-10</v>
+        <v>-11</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5041,16 +5113,16 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D15">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5058,19 +5130,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="D16">
         <v>-14</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5078,19 +5150,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D17">
-        <v>-17</v>
+        <v>-19</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5098,19 +5170,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="D18">
-        <v>-28</v>
+        <v>-27</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5118,19 +5190,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D19">
-        <v>-29</v>
+        <v>-31</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -5140,7 +5212,568 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2">
+        <v>8</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>31</v>
+      </c>
+      <c r="H2">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>29</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>-3</v>
+      </c>
+      <c r="D6">
+        <v>-3</v>
+      </c>
+      <c r="E6">
+        <v>-2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-5</v>
+      </c>
+      <c r="C7">
+        <v>-7</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>-3</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-4</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>7</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>-2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>-9</v>
+      </c>
+      <c r="D12">
+        <v>-9</v>
+      </c>
+      <c r="E12">
+        <v>-5</v>
+      </c>
+      <c r="F12">
+        <v>-7</v>
+      </c>
+      <c r="G12">
+        <v>-5</v>
+      </c>
+      <c r="H12">
+        <v>-4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>-3</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>-2</v>
+      </c>
+      <c r="G13">
+        <v>-3</v>
+      </c>
+      <c r="H13">
+        <v>-5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>-5</v>
+      </c>
+      <c r="C14">
+        <v>-6</v>
+      </c>
+      <c r="D14">
+        <v>-7</v>
+      </c>
+      <c r="E14">
+        <v>-12</v>
+      </c>
+      <c r="F14">
+        <v>-9</v>
+      </c>
+      <c r="G14">
+        <v>-17</v>
+      </c>
+      <c r="H14">
+        <v>-11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>-6</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-5</v>
+      </c>
+      <c r="E15">
+        <v>-4</v>
+      </c>
+      <c r="F15">
+        <v>-3</v>
+      </c>
+      <c r="G15">
+        <v>-11</v>
+      </c>
+      <c r="H15">
+        <v>-12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>-5</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <v>-8</v>
+      </c>
+      <c r="E16">
+        <v>-12</v>
+      </c>
+      <c r="F16">
+        <v>-15</v>
+      </c>
+      <c r="G16">
+        <v>-10</v>
+      </c>
+      <c r="H16">
+        <v>-14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>-7</v>
+      </c>
+      <c r="E17">
+        <v>-7</v>
+      </c>
+      <c r="F17">
+        <v>-11</v>
+      </c>
+      <c r="G17">
+        <v>-14</v>
+      </c>
+      <c r="H17">
+        <v>-19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>-6</v>
+      </c>
+      <c r="C18">
+        <v>-13</v>
+      </c>
+      <c r="D18">
+        <v>-11</v>
+      </c>
+      <c r="E18">
+        <v>-22</v>
+      </c>
+      <c r="F18">
+        <v>-27</v>
+      </c>
+      <c r="G18">
+        <v>-29</v>
+      </c>
+      <c r="H18">
+        <v>-27</v>
+      </c>
+      <c r="I18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>-7</v>
+      </c>
+      <c r="C19">
+        <v>-8</v>
+      </c>
+      <c r="D19">
+        <v>-12</v>
+      </c>
+      <c r="E19">
+        <v>-19</v>
+      </c>
+      <c r="F19">
+        <v>-23</v>
+      </c>
+      <c r="G19">
+        <v>-28</v>
+      </c>
+      <c r="H19">
+        <v>-31</v>
+      </c>
+      <c r="I19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5148,529 +5781,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>8</v>
-      </c>
-      <c r="D2">
-        <v>17</v>
-      </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>24</v>
-      </c>
-      <c r="G2">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>13</v>
-      </c>
-      <c r="E5">
-        <v>11</v>
-      </c>
-      <c r="F5">
-        <v>13</v>
-      </c>
-      <c r="G5">
-        <v>13</v>
-      </c>
-      <c r="H5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>-3</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>14</v>
-      </c>
-      <c r="D7">
-        <v>15</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>-5</v>
-      </c>
-      <c r="C8">
-        <v>-7</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>-1</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>-3</v>
-      </c>
-      <c r="D9">
-        <v>-3</v>
-      </c>
-      <c r="E9">
-        <v>-2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>-4</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>-2</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>-3</v>
-      </c>
-      <c r="D12">
-        <v>-1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>-2</v>
-      </c>
-      <c r="G12">
-        <v>-3</v>
-      </c>
-      <c r="H12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>-1</v>
-      </c>
-      <c r="C13">
-        <v>-9</v>
-      </c>
-      <c r="D13">
-        <v>-9</v>
-      </c>
-      <c r="E13">
-        <v>-5</v>
-      </c>
-      <c r="F13">
-        <v>-7</v>
-      </c>
-      <c r="G13">
-        <v>-5</v>
-      </c>
-      <c r="H13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>-5</v>
-      </c>
-      <c r="C14">
-        <v>-1</v>
-      </c>
-      <c r="D14">
-        <v>-8</v>
-      </c>
-      <c r="E14">
-        <v>-12</v>
-      </c>
-      <c r="F14">
-        <v>-15</v>
-      </c>
-      <c r="G14">
-        <v>-10</v>
-      </c>
-      <c r="H14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>-6</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>-5</v>
-      </c>
-      <c r="E15">
-        <v>-4</v>
-      </c>
-      <c r="F15">
-        <v>-3</v>
-      </c>
-      <c r="G15">
-        <v>-11</v>
-      </c>
-      <c r="H15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>7</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-      <c r="D16">
-        <v>-7</v>
-      </c>
-      <c r="E16">
-        <v>-7</v>
-      </c>
-      <c r="F16">
-        <v>-11</v>
-      </c>
-      <c r="G16">
-        <v>-14</v>
-      </c>
-      <c r="H16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17">
-        <v>-5</v>
-      </c>
-      <c r="C17">
-        <v>-6</v>
-      </c>
-      <c r="D17">
-        <v>-7</v>
-      </c>
-      <c r="E17">
-        <v>-12</v>
-      </c>
-      <c r="F17">
-        <v>-9</v>
-      </c>
-      <c r="G17">
-        <v>-17</v>
-      </c>
-      <c r="H17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>-7</v>
-      </c>
-      <c r="C18">
-        <v>-8</v>
-      </c>
-      <c r="D18">
-        <v>-12</v>
-      </c>
-      <c r="E18">
-        <v>-19</v>
-      </c>
-      <c r="F18">
-        <v>-23</v>
-      </c>
-      <c r="G18">
-        <v>-28</v>
-      </c>
-      <c r="H18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19">
-        <v>-6</v>
-      </c>
-      <c r="C19">
-        <v>-13</v>
-      </c>
-      <c r="D19">
-        <v>-11</v>
-      </c>
-      <c r="E19">
-        <v>-22</v>
-      </c>
-      <c r="F19">
-        <v>-27</v>
-      </c>
-      <c r="G19">
-        <v>-29</v>
-      </c>
-      <c r="H19" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5730,25 +5859,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
         <v>17</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
       <c r="F4">
-        <v>-5</v>
+        <v>-11</v>
       </c>
       <c r="G4">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="H4" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5756,25 +5885,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5">
+        <v>30</v>
+      </c>
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
-        <v>-7</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
       <c r="G5">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5782,25 +5911,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6">
         <v>13</v>
       </c>
-      <c r="E6">
-        <v>17</v>
-      </c>
       <c r="F6">
-        <v>7</v>
+        <v>-5</v>
       </c>
       <c r="G6">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5808,25 +5937,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>-7</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>-12</v>
-      </c>
-      <c r="F7">
-        <v>-3</v>
-      </c>
       <c r="G7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5834,77 +5963,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
         <v>17</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="F8">
-        <v>15</v>
-      </c>
       <c r="G8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>9</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>6</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Girl's Room 💞🏈 2025.xlsx
+++ b/leagues/The Girl's Room 💞🏈 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="149">
   <si>
     <t>Tush Push Director 🍑</t>
   </si>
@@ -225,6 +225,9 @@
     <t>Playoff_Chance_Pct</t>
   </si>
   <si>
+    <t>Last_Place_Chance_Pct</t>
+  </si>
+  <si>
     <t>Expected_Final_Record</t>
   </si>
   <si>
@@ -249,16 +252,19 @@
     <t>1-6</t>
   </si>
   <si>
+    <t>10.5-4.5-0.1</t>
+  </si>
+  <si>
     <t>10.4-4.5-0.1</t>
   </si>
   <si>
-    <t>10.4-4.6-0.1</t>
+    <t>10.3-4.6-0.1</t>
   </si>
   <si>
     <t>9.7-5.2-0.1</t>
   </si>
   <si>
-    <t>9.6-5.3-0.1</t>
+    <t>9.6-5.4</t>
   </si>
   <si>
     <t>9.3-5.6-0.1</t>
@@ -267,31 +273,31 @@
     <t>7.7-6.2-1.0</t>
   </si>
   <si>
-    <t>8.4-6.6-0.1</t>
-  </si>
-  <si>
-    <t>7.3-7.7</t>
-  </si>
-  <si>
-    <t>7.2-7.8-0.1</t>
-  </si>
-  <si>
-    <t>6.2-7.7-1.1</t>
-  </si>
-  <si>
-    <t>6.5-8.4-0.1</t>
-  </si>
-  <si>
-    <t>6.2-8.7-0.1</t>
-  </si>
-  <si>
-    <t>5.9-9.0</t>
-  </si>
-  <si>
-    <t>5.0-10.0</t>
-  </si>
-  <si>
-    <t>5.3-9.7-0.1</t>
+    <t>8.3-6.6-0.1</t>
+  </si>
+  <si>
+    <t>7.3-7.6-0.1</t>
+  </si>
+  <si>
+    <t>7.0-7.9-0.1</t>
+  </si>
+  <si>
+    <t>6.3-7.6-1.1</t>
+  </si>
+  <si>
+    <t>6.6-8.4-0.1</t>
+  </si>
+  <si>
+    <t>6.2-8.8-0.1</t>
+  </si>
+  <si>
+    <t>6.0-8.9-0.1</t>
+  </si>
+  <si>
+    <t>5.2-9.8</t>
+  </si>
+  <si>
+    <t>4.9-10.0-0.1</t>
   </si>
   <si>
     <t>4.7-10.2-0.1</t>
@@ -310,9 +316,6 @@
   </si>
   <si>
     <t>8-6-1</t>
-  </si>
-  <si>
-    <t>8-7</t>
   </si>
   <si>
     <t>7-8</t>
@@ -2636,46 +2639,46 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="C2">
-        <v>20.4</v>
+        <v>19.4</v>
       </c>
       <c r="D2">
-        <v>13.3</v>
+        <v>16.4</v>
       </c>
       <c r="E2">
-        <v>11.7</v>
+        <v>11.2</v>
       </c>
       <c r="F2">
-        <v>7.8</v>
+        <v>8.5</v>
       </c>
       <c r="G2">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="H2">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="I2">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="J2">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="K2">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="L2">
         <v>0.3</v>
       </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>0.1</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
       <c r="O2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -2690,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>92.3</v>
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2698,37 +2701,37 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>18.6</v>
+        <v>20.4</v>
       </c>
       <c r="C3">
-        <v>24.9</v>
+        <v>23.2</v>
       </c>
       <c r="D3">
-        <v>18.6</v>
+        <v>17.1</v>
       </c>
       <c r="E3">
-        <v>14.1</v>
+        <v>16.6</v>
       </c>
       <c r="F3">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="G3">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="H3">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="I3">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="K3">
         <v>0.9</v>
       </c>
       <c r="L3">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="M3">
         <v>0.1</v>
@@ -2752,7 +2755,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>90.7</v>
+        <v>92.5</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2760,46 +2763,46 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>22</v>
+        <v>22.8</v>
       </c>
       <c r="C4">
-        <v>17.7</v>
+        <v>17.2</v>
       </c>
       <c r="D4">
-        <v>17.6</v>
+        <v>13.1</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4">
-        <v>9.4</v>
+        <v>13.1</v>
       </c>
       <c r="G4">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="H4">
-        <v>3.8</v>
+        <v>5.6</v>
       </c>
       <c r="I4">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="J4">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="L4">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="M4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="O4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
@@ -2814,7 +2817,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>88.90000000000001</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2822,46 +2825,46 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>14.6</v>
       </c>
       <c r="D5">
-        <v>15.7</v>
+        <v>18.1</v>
       </c>
       <c r="E5">
-        <v>14.6</v>
+        <v>14.3</v>
       </c>
       <c r="F5">
-        <v>13.8</v>
+        <v>9.9</v>
       </c>
       <c r="G5">
-        <v>9.6</v>
+        <v>10.3</v>
       </c>
       <c r="H5">
-        <v>8.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I5">
-        <v>4.5</v>
+        <v>4.9</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K5">
         <v>1.7</v>
       </c>
       <c r="L5">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="M5">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="N5">
         <v>0.2</v>
       </c>
       <c r="O5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2876,7 +2879,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>80</v>
+        <v>79.59999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -2884,49 +2887,49 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>7.7</v>
+        <v>6.3</v>
       </c>
       <c r="C6">
-        <v>8.9</v>
+        <v>9.4</v>
       </c>
       <c r="D6">
+        <v>10.5</v>
+      </c>
+      <c r="E6">
+        <v>12.1</v>
+      </c>
+      <c r="F6">
+        <v>13.1</v>
+      </c>
+      <c r="G6">
+        <v>13.1</v>
+      </c>
+      <c r="H6">
         <v>12.2</v>
       </c>
-      <c r="E6">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>14.8</v>
-      </c>
-      <c r="G6">
-        <v>10.7</v>
-      </c>
-      <c r="H6">
-        <v>11.1</v>
-      </c>
       <c r="I6">
-        <v>8.6</v>
+        <v>9.1</v>
       </c>
       <c r="J6">
-        <v>7.3</v>
+        <v>6.7</v>
       </c>
       <c r="K6">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="L6">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="N6">
         <v>0.5</v>
       </c>
       <c r="O6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="P6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2938,7 +2941,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>65.3</v>
+        <v>64.5</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -2946,52 +2949,52 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>4.7</v>
+        <v>3.5</v>
       </c>
       <c r="C7">
-        <v>7.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D7">
+        <v>11.8</v>
+      </c>
+      <c r="E7">
+        <v>11.3</v>
+      </c>
+      <c r="F7">
+        <v>14.1</v>
+      </c>
+      <c r="G7">
+        <v>13.2</v>
+      </c>
+      <c r="H7">
+        <v>12.5</v>
+      </c>
+      <c r="I7">
         <v>9.5</v>
       </c>
-      <c r="E7">
-        <v>14.7</v>
-      </c>
-      <c r="F7">
-        <v>13.2</v>
-      </c>
-      <c r="G7">
-        <v>13.7</v>
-      </c>
-      <c r="H7">
-        <v>10.6</v>
-      </c>
-      <c r="I7">
-        <v>8.9</v>
-      </c>
       <c r="J7">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="K7">
-        <v>4.3</v>
+        <v>4.9</v>
       </c>
       <c r="L7">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M7">
-        <v>2.2</v>
+        <v>1.4</v>
       </c>
       <c r="N7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="P7">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -3000,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>63.7</v>
+        <v>62.6</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -3008,61 +3011,61 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="C8">
-        <v>2.1</v>
+        <v>4.2</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="E8">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="F8">
-        <v>8</v>
+        <v>9.9</v>
       </c>
       <c r="G8">
-        <v>12.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="H8">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="I8">
-        <v>13.3</v>
+        <v>12</v>
       </c>
       <c r="J8">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="K8">
         <v>9.6</v>
       </c>
-      <c r="K8">
-        <v>8.5</v>
-      </c>
       <c r="L8">
-        <v>6.7</v>
+        <v>5.7</v>
       </c>
       <c r="M8">
-        <v>4.5</v>
+        <v>5.1</v>
       </c>
       <c r="N8">
-        <v>3.7</v>
+        <v>5.1</v>
       </c>
       <c r="O8">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="P8">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="Q8">
         <v>0.6</v>
       </c>
       <c r="R8">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="S8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -3073,49 +3076,49 @@
         <v>0.3</v>
       </c>
       <c r="C9">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="E9">
-        <v>4.7</v>
+        <v>6.1</v>
       </c>
       <c r="F9">
-        <v>10.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G9">
-        <v>12.3</v>
+        <v>12.9</v>
       </c>
       <c r="H9">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="I9">
-        <v>12.5</v>
+        <v>15.1</v>
       </c>
       <c r="J9">
-        <v>13</v>
+        <v>11.2</v>
       </c>
       <c r="K9">
-        <v>8.6</v>
+        <v>7.7</v>
       </c>
       <c r="L9">
-        <v>7.3</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M9">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="N9">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="O9">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="Q9">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -3124,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>35</v>
+        <v>34.1</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -3132,61 +3135,61 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="C10">
+        <v>0.8</v>
+      </c>
+      <c r="D10">
+        <v>1.6</v>
+      </c>
+      <c r="E10">
+        <v>2.6</v>
+      </c>
+      <c r="F10">
+        <v>5.6</v>
+      </c>
+      <c r="G10">
+        <v>6.5</v>
+      </c>
+      <c r="H10">
+        <v>8.1</v>
+      </c>
+      <c r="I10">
+        <v>11.2</v>
+      </c>
+      <c r="J10">
+        <v>12.2</v>
+      </c>
+      <c r="K10">
+        <v>13.2</v>
+      </c>
+      <c r="L10">
+        <v>11.6</v>
+      </c>
+      <c r="M10">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="N10">
+        <v>7.7</v>
+      </c>
+      <c r="O10">
+        <v>4.3</v>
+      </c>
+      <c r="P10">
+        <v>3.3</v>
+      </c>
+      <c r="Q10">
+        <v>1.3</v>
+      </c>
+      <c r="R10">
         <v>0.5</v>
       </c>
-      <c r="D10">
-        <v>1.4</v>
-      </c>
-      <c r="E10">
-        <v>2.9</v>
-      </c>
-      <c r="F10">
-        <v>5.2</v>
-      </c>
-      <c r="G10">
-        <v>6.8</v>
-      </c>
-      <c r="H10">
-        <v>7.9</v>
-      </c>
-      <c r="I10">
-        <v>10.8</v>
-      </c>
-      <c r="J10">
-        <v>12.8</v>
-      </c>
-      <c r="K10">
-        <v>13.5</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10">
-        <v>8.5</v>
-      </c>
-      <c r="N10">
-        <v>7.8</v>
-      </c>
-      <c r="O10">
-        <v>6</v>
-      </c>
-      <c r="P10">
-        <v>2.7</v>
-      </c>
-      <c r="Q10">
-        <v>2.1</v>
-      </c>
-      <c r="R10">
-        <v>0.7</v>
-      </c>
       <c r="S10">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="T10">
-        <v>17</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -3197,58 +3200,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="D11">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
         <v>1.5</v>
       </c>
       <c r="F11">
+        <v>2.5</v>
+      </c>
+      <c r="G11">
+        <v>5.3</v>
+      </c>
+      <c r="H11">
+        <v>7.4</v>
+      </c>
+      <c r="I11">
+        <v>7.7</v>
+      </c>
+      <c r="J11">
+        <v>12.7</v>
+      </c>
+      <c r="K11">
+        <v>13.6</v>
+      </c>
+      <c r="L11">
+        <v>12.3</v>
+      </c>
+      <c r="M11">
+        <v>10.3</v>
+      </c>
+      <c r="N11">
+        <v>9.6</v>
+      </c>
+      <c r="O11">
+        <v>7.7</v>
+      </c>
+      <c r="P11">
         <v>3.9</v>
       </c>
-      <c r="G11">
-        <v>5.6</v>
-      </c>
-      <c r="H11">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>9.6</v>
-      </c>
-      <c r="J11">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="K11">
-        <v>11.4</v>
-      </c>
-      <c r="L11">
-        <v>13.1</v>
-      </c>
-      <c r="M11">
-        <v>11.8</v>
-      </c>
-      <c r="N11">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="O11">
-        <v>6.3</v>
-      </c>
-      <c r="P11">
-        <v>4.5</v>
-      </c>
       <c r="Q11">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="R11">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="S11">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="T11">
-        <v>12.5</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -3259,58 +3262,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E12">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="F12">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="G12">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="H12">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
       <c r="I12">
         <v>6.8</v>
       </c>
       <c r="J12">
-        <v>8.9</v>
+        <v>11</v>
       </c>
       <c r="K12">
-        <v>12.2</v>
+        <v>11</v>
       </c>
       <c r="L12">
-        <v>12.5</v>
+        <v>11.3</v>
       </c>
       <c r="M12">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="N12">
-        <v>11.3</v>
+        <v>10.5</v>
       </c>
       <c r="O12">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="P12">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="Q12">
-        <v>4.3</v>
+        <v>3.8</v>
       </c>
       <c r="R12">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="S12">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="T12">
-        <v>6.4</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -3321,58 +3324,58 @@
         <v>0.1</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="E13">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="F13">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H13">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="I13">
-        <v>6.1</v>
+        <v>7.4</v>
       </c>
       <c r="J13">
-        <v>8.699999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="K13">
-        <v>9.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="L13">
+        <v>11.1</v>
+      </c>
+      <c r="M13">
+        <v>12.9</v>
+      </c>
+      <c r="N13">
         <v>10.8</v>
       </c>
-      <c r="M13">
-        <v>12.4</v>
-      </c>
-      <c r="N13">
-        <v>13.4</v>
-      </c>
       <c r="O13">
-        <v>11</v>
+        <v>10.3</v>
       </c>
       <c r="P13">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="Q13">
-        <v>4.1</v>
+        <v>5.6</v>
       </c>
       <c r="R13">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="S13">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="T13">
-        <v>6.4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -3386,13 +3389,13 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E14">
+        <v>0.2</v>
+      </c>
+      <c r="F14">
         <v>0.5</v>
-      </c>
-      <c r="F14">
-        <v>0.7</v>
       </c>
       <c r="G14">
         <v>1.9</v>
@@ -3401,40 +3404,40 @@
         <v>3.4</v>
       </c>
       <c r="I14">
-        <v>5.4</v>
+        <v>4.6</v>
       </c>
       <c r="J14">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="K14">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="L14">
-        <v>11.7</v>
+        <v>13</v>
       </c>
       <c r="M14">
+        <v>13.1</v>
+      </c>
+      <c r="N14">
+        <v>14.1</v>
+      </c>
+      <c r="O14">
         <v>12.6</v>
       </c>
-      <c r="N14">
-        <v>13.7</v>
-      </c>
-      <c r="O14">
-        <v>11.6</v>
-      </c>
       <c r="P14">
-        <v>10.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q14">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="R14">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="S14">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="T14">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -3451,57 +3454,57 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="F15">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="G15">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H15">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>3.6</v>
       </c>
       <c r="J15">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="K15">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="L15">
-        <v>7.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M15">
-        <v>11.8</v>
+        <v>12.3</v>
       </c>
       <c r="N15">
-        <v>12.1</v>
+        <v>13.3</v>
       </c>
       <c r="O15">
-        <v>12.9</v>
+        <v>13.7</v>
       </c>
       <c r="P15">
-        <v>14</v>
+        <v>14.6</v>
       </c>
       <c r="Q15">
-        <v>15.5</v>
+        <v>10</v>
       </c>
       <c r="R15">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="S15">
         <v>2.6</v>
       </c>
       <c r="T15">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3513,57 +3516,57 @@
         <v>0</v>
       </c>
       <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
         <v>0.1</v>
       </c>
-      <c r="F16">
-        <v>0.2</v>
-      </c>
       <c r="G16">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="H16">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="I16">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J16">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="K16">
-        <v>2.8</v>
+        <v>3.7</v>
       </c>
       <c r="L16">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="M16">
-        <v>5.7</v>
+        <v>6.8</v>
       </c>
       <c r="N16">
-        <v>7.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="O16">
-        <v>11.8</v>
+        <v>13.7</v>
       </c>
       <c r="P16">
-        <v>16.7</v>
+        <v>15.3</v>
       </c>
       <c r="Q16">
-        <v>19.8</v>
+        <v>19.1</v>
       </c>
       <c r="R16">
-        <v>19.1</v>
+        <v>16.1</v>
       </c>
       <c r="S16">
-        <v>9.300000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="T16">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3575,49 +3578,49 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>0.3</v>
       </c>
-      <c r="H17">
-        <v>0.9</v>
-      </c>
       <c r="I17">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="J17">
-        <v>2.8</v>
+        <v>1.9</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="L17">
-        <v>5.9</v>
+        <v>3.9</v>
       </c>
       <c r="M17">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="N17">
-        <v>10.7</v>
+        <v>6.4</v>
       </c>
       <c r="O17">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="P17">
-        <v>15.8</v>
+        <v>15.3</v>
       </c>
       <c r="Q17">
-        <v>15.4</v>
+        <v>21.7</v>
       </c>
       <c r="R17">
-        <v>16.9</v>
+        <v>21.9</v>
       </c>
       <c r="S17">
-        <v>5.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="T17">
         <v>0.3</v>
@@ -3643,46 +3646,46 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H18">
         <v>0.2</v>
       </c>
       <c r="I18">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="K18">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="L18">
         <v>2.9</v>
       </c>
       <c r="M18">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="N18">
-        <v>5.4</v>
+        <v>5.8</v>
       </c>
       <c r="O18">
-        <v>9.199999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="P18">
-        <v>13.9</v>
+        <v>15.4</v>
       </c>
       <c r="Q18">
-        <v>19.4</v>
+        <v>18.6</v>
       </c>
       <c r="R18">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="S18">
-        <v>19</v>
+        <v>17.6</v>
       </c>
       <c r="T18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -3714,34 +3717,34 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="L19">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="M19">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="O19">
-        <v>2.2</v>
+        <v>2.8</v>
       </c>
       <c r="P19">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="Q19">
-        <v>10.3</v>
+        <v>9.6</v>
       </c>
       <c r="R19">
-        <v>21</v>
+        <v>18.9</v>
       </c>
       <c r="S19">
-        <v>60.4</v>
+        <v>61.5</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -3791,28 +3794,28 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>38.1</v>
+        <v>39</v>
       </c>
       <c r="C2">
-        <v>63.3</v>
+        <v>60.6</v>
       </c>
       <c r="D2">
-        <v>57.49999999999999</v>
+        <v>57.3</v>
       </c>
       <c r="E2">
-        <v>79.80000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="F2">
-        <v>81.5</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="G2">
-        <v>90.10000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="H2">
-        <v>92.30000000000001</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="I2">
-        <v>93.30000000000001</v>
+        <v>94.39999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3820,28 +3823,28 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>92.80000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="C3">
-        <v>85.39999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="D3">
-        <v>57.4</v>
+        <v>62.7</v>
       </c>
       <c r="E3">
-        <v>78.10000000000001</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="F3">
-        <v>89.09999999999999</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G3">
-        <v>83</v>
+        <v>84.3</v>
       </c>
       <c r="H3">
-        <v>94</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="I3">
-        <v>91.60000000000001</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3849,28 +3852,28 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>21.7</v>
+        <v>21.2</v>
       </c>
       <c r="C4">
-        <v>67.30000000000001</v>
+        <v>66.5</v>
       </c>
       <c r="D4">
-        <v>67.90000000000001</v>
+        <v>70.19999999999999</v>
       </c>
       <c r="E4">
-        <v>53.1</v>
+        <v>51.2</v>
       </c>
       <c r="F4">
-        <v>66.60000000000001</v>
+        <v>62.7</v>
       </c>
       <c r="G4">
-        <v>80.2</v>
+        <v>81.39999999999999</v>
       </c>
       <c r="H4">
-        <v>91.90000000000001</v>
+        <v>90.10000000000001</v>
       </c>
       <c r="I4">
-        <v>88.8</v>
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3878,28 +3881,28 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>37.5</v>
+        <v>37.8</v>
       </c>
       <c r="C5">
-        <v>83</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D5">
         <v>42.1</v>
       </c>
       <c r="E5">
-        <v>33.4</v>
+        <v>32.9</v>
       </c>
       <c r="F5">
-        <v>59.2</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="G5">
-        <v>74.90000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="H5">
-        <v>80.5</v>
+        <v>80.80000000000001</v>
       </c>
       <c r="I5">
-        <v>78.90000000000001</v>
+        <v>80.60000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3907,28 +3910,28 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>28.4</v>
+        <v>28.1</v>
       </c>
       <c r="C6">
-        <v>31</v>
+        <v>29.9</v>
       </c>
       <c r="D6">
-        <v>9.300000000000001</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>10.4</v>
       </c>
       <c r="F6">
-        <v>33</v>
+        <v>34.4</v>
       </c>
       <c r="G6">
-        <v>41.09999999999999</v>
+        <v>39.6</v>
       </c>
       <c r="H6">
-        <v>61.2</v>
+        <v>64.60000000000001</v>
       </c>
       <c r="I6">
-        <v>67.2</v>
+        <v>66.2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3936,28 +3939,28 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>0.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D7">
-        <v>11.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="E7">
-        <v>20.8</v>
+        <v>19.3</v>
       </c>
       <c r="F7">
-        <v>36.2</v>
+        <v>36.8</v>
       </c>
       <c r="G7">
-        <v>40.1</v>
+        <v>44.8</v>
       </c>
       <c r="H7">
-        <v>58.09999999999999</v>
+        <v>59.8</v>
       </c>
       <c r="I7">
-        <v>63.9</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3965,28 +3968,28 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>28.1</v>
+        <v>32.5</v>
       </c>
       <c r="C8">
-        <v>13.4</v>
+        <v>12.7</v>
       </c>
       <c r="D8">
         <v>64.60000000000001</v>
       </c>
       <c r="E8">
-        <v>85.7</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="F8">
-        <v>55.3</v>
+        <v>56.8</v>
       </c>
       <c r="G8">
-        <v>63.9</v>
+        <v>63.5</v>
       </c>
       <c r="H8">
-        <v>34</v>
+        <v>36.6</v>
       </c>
       <c r="I8">
-        <v>36.2</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3994,28 +3997,28 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>18</v>
+        <v>19.7</v>
       </c>
       <c r="C9">
-        <v>30.8</v>
+        <v>35.2</v>
       </c>
       <c r="D9">
-        <v>48.8</v>
+        <v>46.7</v>
       </c>
       <c r="E9">
-        <v>38.9</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="F9">
-        <v>44.2</v>
+        <v>42.3</v>
       </c>
       <c r="G9">
-        <v>61.4</v>
+        <v>60.9</v>
       </c>
       <c r="H9">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="I9">
-        <v>33.6</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4026,25 +4029,25 @@
         <v>99.90000000000001</v>
       </c>
       <c r="C10">
-        <v>40.5</v>
+        <v>41.8</v>
       </c>
       <c r="D10">
-        <v>71.2</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="E10">
-        <v>53.5</v>
+        <v>52.3</v>
       </c>
       <c r="F10">
-        <v>37</v>
+        <v>38.5</v>
       </c>
       <c r="G10">
-        <v>14</v>
+        <v>14.4</v>
       </c>
       <c r="H10">
-        <v>21.4</v>
+        <v>20.7</v>
       </c>
       <c r="I10">
-        <v>17.3</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4052,28 +4055,28 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>89.60000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="C11">
-        <v>91.8</v>
+        <v>91.3</v>
       </c>
       <c r="D11">
-        <v>15.1</v>
+        <v>12.4</v>
       </c>
       <c r="E11">
-        <v>32</v>
+        <v>36.1</v>
       </c>
       <c r="F11">
         <v>21.6</v>
       </c>
       <c r="G11">
-        <v>11.5</v>
+        <v>7.8</v>
       </c>
       <c r="H11">
-        <v>13.8</v>
+        <v>11.7</v>
       </c>
       <c r="I11">
-        <v>9.800000000000001</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4081,28 +4084,28 @@
         <v>1</v>
       </c>
       <c r="B12">
-        <v>37.8</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="C12">
-        <v>12.6</v>
+        <v>11.1</v>
       </c>
       <c r="D12">
-        <v>63.2</v>
+        <v>65</v>
       </c>
       <c r="E12">
-        <v>72.2</v>
+        <v>69.39999999999999</v>
       </c>
       <c r="F12">
-        <v>38.2</v>
+        <v>39.7</v>
       </c>
       <c r="G12">
-        <v>18.3</v>
+        <v>16.5</v>
       </c>
       <c r="H12">
-        <v>9.5</v>
+        <v>8.799999999999999</v>
       </c>
       <c r="I12">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4110,7 +4113,7 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4119,16 +4122,16 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="F13">
-        <v>7.199999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="G13">
         <v>3.7</v>
       </c>
       <c r="H13">
-        <v>8.5</v>
+        <v>7.3</v>
       </c>
       <c r="I13">
         <v>6.3</v>
@@ -4139,25 +4142,25 @@
         <v>9</v>
       </c>
       <c r="B14">
-        <v>7.8</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>15.7</v>
+        <v>18.3</v>
       </c>
       <c r="E14">
-        <v>10.8</v>
+        <v>10.4</v>
       </c>
       <c r="F14">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="G14">
         <v>7.8</v>
       </c>
       <c r="H14">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I14">
         <v>3.1</v>
@@ -4168,25 +4171,25 @@
         <v>4</v>
       </c>
       <c r="B15">
-        <v>62.6</v>
+        <v>62.2</v>
       </c>
       <c r="C15">
-        <v>3.8</v>
+        <v>4.9</v>
       </c>
       <c r="D15">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="E15">
-        <v>4.8</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="F15">
-        <v>16.8</v>
+        <v>15.8</v>
       </c>
       <c r="G15">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="I15">
         <v>1.6</v>
@@ -4194,60 +4197,60 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>12.6</v>
+        <v>22.4</v>
       </c>
       <c r="C16">
-        <v>46</v>
+        <v>29.9</v>
       </c>
       <c r="D16">
-        <v>57.59999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="E16">
-        <v>21.3</v>
+        <v>2.9</v>
       </c>
       <c r="F16">
-        <v>9</v>
+        <v>1.6</v>
       </c>
       <c r="G16">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="H16">
+        <v>0.1</v>
+      </c>
+      <c r="I16">
         <v>0.6</v>
-      </c>
-      <c r="I16">
-        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>21.9</v>
+        <v>12.2</v>
       </c>
       <c r="C17">
-        <v>30.3</v>
+        <v>47.3</v>
       </c>
       <c r="D17">
-        <v>10.7</v>
+        <v>56.49999999999999</v>
       </c>
       <c r="E17">
-        <v>2.8</v>
+        <v>22.3</v>
       </c>
       <c r="F17">
-        <v>1.6</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>1.1</v>
+        <v>2.3</v>
       </c>
       <c r="H17">
         <v>0.3</v>
       </c>
       <c r="I17">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4255,28 +4258,28 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="C18">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="D18">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="E18">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F18">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="G18">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4284,16 +4287,16 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F19">
         <v>0.1</v>
@@ -4315,13 +4318,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -4346,13 +4349,16 @@
       <c r="H1" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2">
         <v>0.7142857142857143</v>
@@ -4364,21 +4370,24 @@
         <v>890.0599999999999</v>
       </c>
       <c r="F2">
-        <v>92.30000000000001</v>
-      </c>
-      <c r="G2" t="s">
-        <v>75</v>
+        <v>93.89999999999999</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>0.7142857142857143</v>
@@ -4390,21 +4399,24 @@
         <v>829.6399999999999</v>
       </c>
       <c r="F3">
-        <v>90.7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>75</v>
+        <v>92.5</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4">
         <v>0.8571428571428571</v>
@@ -4416,21 +4428,24 @@
         <v>818.4000000000001</v>
       </c>
       <c r="F4">
-        <v>88.90000000000001</v>
-      </c>
-      <c r="G4" t="s">
-        <v>76</v>
+        <v>88.8</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>78</v>
+      </c>
+      <c r="I4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C5">
         <v>0.7142857142857143</v>
@@ -4442,21 +4457,24 @@
         <v>831.0599999999999</v>
       </c>
       <c r="F5">
-        <v>80</v>
-      </c>
-      <c r="G5" t="s">
-        <v>77</v>
+        <v>79.60000000000001</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6">
         <v>0.8571428571428571</v>
@@ -4468,21 +4486,24 @@
         <v>731.4400000000001</v>
       </c>
       <c r="F6">
-        <v>65.3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>78</v>
+        <v>64.5</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>80</v>
+      </c>
+      <c r="I6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>0.7142857142857143</v>
@@ -4494,16 +4515,19 @@
         <v>760.8199999999999</v>
       </c>
       <c r="F7">
-        <v>63.7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>79</v>
+        <v>62.6</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>81</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -4520,21 +4544,24 @@
         <v>805.8</v>
       </c>
       <c r="F8">
-        <v>36.1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>80</v>
+        <v>35.9</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9">
         <v>0.5714285714285714</v>
@@ -4546,21 +4573,24 @@
         <v>728.28</v>
       </c>
       <c r="F9">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>81</v>
+        <v>34.1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
       <c r="H9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>0.4285714285714285</v>
@@ -4572,21 +4602,24 @@
         <v>759.3</v>
       </c>
       <c r="F10">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>82</v>
+        <v>17.2</v>
+      </c>
+      <c r="G10">
+        <v>0.1</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>0.4285714285714285</v>
@@ -4598,16 +4631,19 @@
         <v>733.16</v>
       </c>
       <c r="F11">
-        <v>12.5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>83</v>
+        <v>10.1</v>
+      </c>
+      <c r="G11">
+        <v>0.5</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>85</v>
+      </c>
+      <c r="I11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
@@ -4624,21 +4660,24 @@
         <v>757.46</v>
       </c>
       <c r="F12">
-        <v>6.4</v>
-      </c>
-      <c r="G12" t="s">
-        <v>84</v>
+        <v>8.799999999999999</v>
+      </c>
+      <c r="G12">
+        <v>0.1</v>
       </c>
       <c r="H12" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13">
         <v>0.4285714285714285</v>
@@ -4650,21 +4689,24 @@
         <v>705.1799999999999</v>
       </c>
       <c r="F13">
-        <v>6.4</v>
-      </c>
-      <c r="G13" t="s">
-        <v>85</v>
+        <v>7.000000000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.5</v>
       </c>
       <c r="H13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14">
         <v>0.2857142857142857</v>
@@ -4676,21 +4718,24 @@
         <v>718.24</v>
       </c>
       <c r="F14">
-        <v>3.2</v>
-      </c>
-      <c r="G14" t="s">
-        <v>86</v>
+        <v>2.8</v>
+      </c>
+      <c r="G14">
+        <v>1.4</v>
       </c>
       <c r="H14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15">
         <v>0.4285714285714285</v>
@@ -4702,73 +4747,82 @@
         <v>621.9</v>
       </c>
       <c r="F15">
-        <v>1.7</v>
-      </c>
-      <c r="G15" t="s">
-        <v>87</v>
+        <v>1.4</v>
+      </c>
+      <c r="G15">
+        <v>2.6</v>
       </c>
       <c r="H15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>89</v>
+      </c>
+      <c r="I15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C16">
         <v>0.2857142857142857</v>
       </c>
       <c r="D16">
-        <v>88.65428571428571</v>
+        <v>89.49999999999999</v>
       </c>
       <c r="E16">
-        <v>620.5799999999999</v>
+        <v>626.4999999999999</v>
       </c>
       <c r="F16">
-        <v>0.4</v>
-      </c>
-      <c r="G16" t="s">
-        <v>88</v>
+        <v>0.5</v>
+      </c>
+      <c r="G16">
+        <v>7.399999999999999</v>
       </c>
       <c r="H16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>90</v>
+      </c>
+      <c r="I16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C17">
         <v>0.2857142857142857</v>
       </c>
       <c r="D17">
-        <v>89.49999999999999</v>
+        <v>88.65428571428571</v>
       </c>
       <c r="E17">
-        <v>626.4999999999999</v>
+        <v>620.5799999999999</v>
       </c>
       <c r="F17">
         <v>0.3</v>
       </c>
-      <c r="G17" t="s">
-        <v>89</v>
+      <c r="G17">
+        <v>8.300000000000001</v>
       </c>
       <c r="H17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>91</v>
+      </c>
+      <c r="I17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <v>0.2857142857142857</v>
@@ -4780,21 +4834,24 @@
         <v>573.76</v>
       </c>
       <c r="F18">
-        <v>0.1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>17.6</v>
       </c>
       <c r="H18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C19">
         <v>0.1428571428571428</v>
@@ -4808,11 +4865,14 @@
       <c r="F19">
         <v>0</v>
       </c>
-      <c r="G19" t="s">
-        <v>91</v>
+      <c r="G19">
+        <v>61.5</v>
       </c>
       <c r="H19" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+      <c r="I19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4833,16 +4893,16 @@
         <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4853,7 +4913,7 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D2">
         <v>33</v>
@@ -4862,7 +4922,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4873,7 +4933,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D3">
         <v>30</v>
@@ -4882,7 +4942,7 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4893,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D4">
         <v>17</v>
@@ -4902,7 +4962,7 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4913,7 +4973,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D5">
         <v>13</v>
@@ -4922,7 +4982,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4933,7 +4993,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D6">
         <v>8</v>
@@ -4942,7 +5002,7 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4953,7 +5013,7 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D7">
         <v>7</v>
@@ -4962,7 +5022,7 @@
         <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4973,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D8">
         <v>5</v>
@@ -4982,7 +5042,7 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4993,7 +5053,7 @@
         <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D9">
         <v>5</v>
@@ -5002,7 +5062,7 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5013,7 +5073,7 @@
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D10">
         <v>5</v>
@@ -5022,7 +5082,7 @@
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5033,7 +5093,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -5042,7 +5102,7 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5053,7 +5113,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D12">
         <v>-4</v>
@@ -5062,7 +5122,7 @@
         <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5073,7 +5133,7 @@
         <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D13">
         <v>-5</v>
@@ -5082,7 +5142,7 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5093,7 +5153,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D14">
         <v>-11</v>
@@ -5102,7 +5162,7 @@
         <v>21</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5113,7 +5173,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D15">
         <v>-12</v>
@@ -5122,7 +5182,7 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5133,7 +5193,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D16">
         <v>-14</v>
@@ -5142,7 +5202,7 @@
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5153,7 +5213,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D17">
         <v>-19</v>
@@ -5162,7 +5222,7 @@
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5173,7 +5233,7 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D18">
         <v>-27</v>
@@ -5182,7 +5242,7 @@
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5193,7 +5253,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D19">
         <v>-31</v>
@@ -5202,7 +5262,7 @@
         <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5220,28 +5280,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5270,7 +5330,7 @@
         <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5299,7 +5359,7 @@
         <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5328,7 +5388,7 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5357,7 +5417,7 @@
         <v>13</v>
       </c>
       <c r="I5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5386,7 +5446,7 @@
         <v>8</v>
       </c>
       <c r="I6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5415,7 +5475,7 @@
         <v>7</v>
       </c>
       <c r="I7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5444,7 +5504,7 @@
         <v>5</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5473,7 +5533,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5502,7 +5562,7 @@
         <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5531,7 +5591,7 @@
         <v>1</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5560,7 +5620,7 @@
         <v>-4</v>
       </c>
       <c r="I12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5589,7 +5649,7 @@
         <v>-5</v>
       </c>
       <c r="I13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5618,7 +5678,7 @@
         <v>-11</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5647,7 +5707,7 @@
         <v>-12</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5676,7 +5736,7 @@
         <v>-14</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5705,7 +5765,7 @@
         <v>-19</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5734,7 +5794,7 @@
         <v>-27</v>
       </c>
       <c r="I18" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -5763,7 +5823,7 @@
         <v>-31</v>
       </c>
       <c r="I19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -5781,25 +5841,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:8">

--- a/leagues/The Girl's Room 💞🏈 2025.xlsx
+++ b/leagues/The Girl's Room 💞🏈 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="154">
   <si>
     <t>Tush Push Director 🍑</t>
   </si>
@@ -78,37 +78,37 @@
     <t>Lamb of Goedert</t>
   </si>
   <si>
-    <t>5-2-0</t>
-  </si>
-  <si>
-    <t>3-4-0</t>
-  </si>
-  <si>
-    <t>7-0-0</t>
-  </si>
-  <si>
-    <t>6-1-0</t>
-  </si>
-  <si>
-    <t>4-3-0</t>
-  </si>
-  <si>
-    <t>2-4-1</t>
-  </si>
-  <si>
-    <t>1-6-0</t>
-  </si>
-  <si>
-    <t>2-5-0</t>
-  </si>
-  <si>
-    <t>0-7-0</t>
-  </si>
-  <si>
-    <t>1-5-1</t>
-  </si>
-  <si>
-    <t>3-3-1</t>
+    <t>5-3-0</t>
+  </si>
+  <si>
+    <t>6-2-0</t>
+  </si>
+  <si>
+    <t>3-5-0</t>
+  </si>
+  <si>
+    <t>8-0-0</t>
+  </si>
+  <si>
+    <t>4-4-0</t>
+  </si>
+  <si>
+    <t>7-1-0</t>
+  </si>
+  <si>
+    <t>3-4-1</t>
+  </si>
+  <si>
+    <t>1-7-0</t>
+  </si>
+  <si>
+    <t>2-6-0</t>
+  </si>
+  <si>
+    <t>0-8-0</t>
+  </si>
+  <si>
+    <t>1-6-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -210,6 +210,9 @@
     <t>Week_8</t>
   </si>
   <si>
+    <t>Week_9</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -234,76 +237,76 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>5-2</t>
-  </si>
-  <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>3-4</t>
-  </si>
-  <si>
-    <t>2-5</t>
-  </si>
-  <si>
-    <t>1-6</t>
+    <t>7-1</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>5-3</t>
+  </si>
+  <si>
+    <t>4-4</t>
+  </si>
+  <si>
+    <t>3-5</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>11.3-3.7-0.1</t>
   </si>
   <si>
     <t>10.5-4.5-0.1</t>
   </si>
   <si>
-    <t>10.4-4.5-0.1</t>
-  </si>
-  <si>
-    <t>10.3-4.6-0.1</t>
-  </si>
-  <si>
-    <t>9.7-5.2-0.1</t>
-  </si>
-  <si>
-    <t>9.6-5.4</t>
-  </si>
-  <si>
-    <t>9.3-5.6-0.1</t>
-  </si>
-  <si>
-    <t>7.7-6.2-1.0</t>
-  </si>
-  <si>
-    <t>8.3-6.6-0.1</t>
-  </si>
-  <si>
-    <t>7.3-7.6-0.1</t>
-  </si>
-  <si>
-    <t>7.0-7.9-0.1</t>
-  </si>
-  <si>
-    <t>6.3-7.6-1.1</t>
-  </si>
-  <si>
-    <t>6.6-8.4-0.1</t>
-  </si>
-  <si>
-    <t>6.2-8.8-0.1</t>
-  </si>
-  <si>
-    <t>6.0-8.9-0.1</t>
-  </si>
-  <si>
-    <t>5.2-9.8</t>
-  </si>
-  <si>
-    <t>4.9-10.0-0.1</t>
-  </si>
-  <si>
-    <t>4.7-10.2-0.1</t>
-  </si>
-  <si>
-    <t>3.2-11.7-0.1</t>
+    <t>10.6-4.4-0.1</t>
+  </si>
+  <si>
+    <t>9.8-5.1-0.1</t>
+  </si>
+  <si>
+    <t>9.1-5.8-0.1</t>
+  </si>
+  <si>
+    <t>9.0-6.0-0.1</t>
+  </si>
+  <si>
+    <t>8.6-6.3-0.1</t>
+  </si>
+  <si>
+    <t>7.8-7.2-0.1</t>
+  </si>
+  <si>
+    <t>7.2-6.7-1.0</t>
+  </si>
+  <si>
+    <t>6.7-7.2-1.1</t>
+  </si>
+  <si>
+    <t>6.7-8.2-0.1</t>
+  </si>
+  <si>
+    <t>6.0-9.0</t>
+  </si>
+  <si>
+    <t>5.6-9.3-0.1</t>
+  </si>
+  <si>
+    <t>5.8-9.1-0.1</t>
+  </si>
+  <si>
+    <t>5.0-9.9-0.1</t>
+  </si>
+  <si>
+    <t>5.4-9.6-0.1</t>
+  </si>
+  <si>
+    <t>4.2-10.7-0.1</t>
+  </si>
+  <si>
+    <t>12-3</t>
   </si>
   <si>
     <t>11-4</t>
@@ -315,22 +318,22 @@
     <t>9-6</t>
   </si>
   <si>
-    <t>8-6-1</t>
+    <t>8-7</t>
+  </si>
+  <si>
+    <t>7-7-1</t>
   </si>
   <si>
     <t>7-8</t>
   </si>
   <si>
-    <t>6-8-1</t>
-  </si>
-  <si>
     <t>6-9</t>
   </si>
   <si>
     <t>5-10</t>
   </si>
   <si>
-    <t>3-12</t>
+    <t>4-11</t>
   </si>
   <si>
     <t>Owners</t>
@@ -342,91 +345,100 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>Kiana McIntosh</t>
+  </si>
+  <si>
     <t>Malini Ragoopath</t>
   </si>
   <si>
-    <t>Kiana McIntosh</t>
-  </si>
-  <si>
     <t>Brianna Goebel</t>
   </si>
   <si>
     <t>Lily Lamb</t>
   </si>
   <si>
+    <t>Shae Marx</t>
+  </si>
+  <si>
+    <t>Amanda Pasquale</t>
+  </si>
+  <si>
     <t>Rebecca Schneider</t>
   </si>
   <si>
+    <t>Hillary Dale</t>
+  </si>
+  <si>
+    <t>Sumita Gangwani</t>
+  </si>
+  <si>
     <t>Grace Stockbower</t>
   </si>
   <si>
-    <t>Sumita Gangwani</t>
-  </si>
-  <si>
-    <t>Shae Marx</t>
-  </si>
-  <si>
-    <t>Amanda Pasquale</t>
-  </si>
-  <si>
-    <t>Hillary Dale</t>
-  </si>
-  <si>
     <t>Faith Pon</t>
   </si>
   <si>
+    <t>Hannah Miller</t>
+  </si>
+  <si>
     <t>Emily Carey</t>
   </si>
   <si>
     <t>Nikki Papalia</t>
   </si>
   <si>
-    <t>Hannah Miller</t>
-  </si>
-  <si>
     <t>Allie Kardon</t>
   </si>
   <si>
     <t>Swathi Veeravalli</t>
   </si>
   <si>
+    <t>Grace Schiavone</t>
+  </si>
+  <si>
     <t>Nicole Coppins</t>
   </si>
   <si>
-    <t>Grace Schiavone</t>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑6</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
     <t>↓4</t>
   </si>
   <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
     <t>↑3</t>
   </si>
   <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↓5</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↓9</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -448,6 +460,9 @@
   </si>
   <si>
     <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
   </si>
   <si>
     <t>Week</t>
@@ -896,7 +911,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
@@ -905,28 +920,28 @@
         <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="M2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
@@ -941,7 +956,7 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S2" t="s">
         <v>22</v>
@@ -952,58 +967,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
       <c r="J3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1011,40 +1026,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
         <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L4" t="s">
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
         <v>22</v>
@@ -1056,13 +1071,13 @@
         <v>22</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1070,58 +1085,58 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
       <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
       <c r="K5" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" t="s">
-        <v>18</v>
-      </c>
       <c r="O5" t="s">
         <v>18</v>
       </c>
       <c r="P5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="Q5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1129,58 +1144,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" t="s">
         <v>25</v>
       </c>
-      <c r="H6" t="s">
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" t="s">
+        <v>22</v>
+      </c>
+      <c r="P6" t="s">
         <v>25</v>
       </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="Q6" t="s">
+        <v>22</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" t="s">
         <v>25</v>
-      </c>
-      <c r="K6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" t="s">
-        <v>25</v>
-      </c>
-      <c r="S6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1191,19 +1206,19 @@
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
         <v>22</v>
@@ -1212,34 +1227,34 @@
         <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
       </c>
       <c r="N7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="O7" t="s">
         <v>18</v>
       </c>
       <c r="P7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1247,58 +1262,58 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
       <c r="F8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="Q8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1309,40 +1324,40 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" t="s">
-        <v>21</v>
-      </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
         <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O9" t="s">
         <v>22</v>
@@ -1351,13 +1366,13 @@
         <v>22</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1365,55 +1380,55 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
       </c>
       <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" t="s">
         <v>19</v>
       </c>
-      <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" t="s">
-        <v>21</v>
-      </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
         <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O10" t="s">
         <v>18</v>
       </c>
       <c r="P10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="R10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S10" t="s">
         <v>22</v>
@@ -1427,55 +1442,55 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
       <c r="F11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J11" t="s">
         <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O11" t="s">
         <v>22</v>
       </c>
       <c r="P11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="R11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="S11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1483,58 +1498,58 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" t="s">
         <v>19</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" t="s">
         <v>19</v>
       </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
       <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
+        <v>22</v>
+      </c>
+      <c r="O12" t="s">
         <v>19</v>
       </c>
-      <c r="M12" t="s">
+      <c r="P12" t="s">
         <v>19</v>
       </c>
-      <c r="N12" t="s">
-        <v>19</v>
-      </c>
-      <c r="O12" t="s">
-        <v>18</v>
-      </c>
-      <c r="P12" t="s">
-        <v>18</v>
-      </c>
       <c r="Q12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R12" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="S12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1542,58 +1557,58 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O13" t="s">
         <v>22</v>
       </c>
       <c r="P13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="R13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="S13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1601,55 +1616,55 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="s">
         <v>21</v>
       </c>
-      <c r="D14" t="s">
+      <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="L14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" t="s">
+        <v>19</v>
+      </c>
+      <c r="P14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>23</v>
+      </c>
+      <c r="R14" t="s">
         <v>21</v>
-      </c>
-      <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s">
-        <v>20</v>
-      </c>
-      <c r="J14" t="s">
-        <v>20</v>
-      </c>
-      <c r="K14" t="s">
-        <v>20</v>
-      </c>
-      <c r="L14" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N14" t="s">
-        <v>18</v>
-      </c>
-      <c r="O14" t="s">
-        <v>21</v>
-      </c>
-      <c r="P14" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>21</v>
-      </c>
-      <c r="R14" t="s">
-        <v>20</v>
       </c>
       <c r="S14" t="s">
         <v>18</v>
@@ -1660,58 +1675,58 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" t="s">
         <v>19</v>
       </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
       <c r="I15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="S15" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1719,58 +1734,58 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s">
         <v>19</v>
       </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16" t="s">
+        <v>18</v>
+      </c>
+      <c r="O16" t="s">
         <v>19</v>
       </c>
-      <c r="M16" t="s">
+      <c r="P16" t="s">
         <v>19</v>
       </c>
-      <c r="N16" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" t="s">
-        <v>18</v>
-      </c>
       <c r="Q16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="S16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1781,55 +1796,55 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="J17" t="s">
         <v>26</v>
       </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H17" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" t="s">
+      <c r="K17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" t="s">
         <v>25</v>
       </c>
-      <c r="J17" t="s">
+      <c r="O17" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" t="s">
         <v>25</v>
       </c>
-      <c r="K17" t="s">
-        <v>25</v>
-      </c>
-      <c r="L17" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" t="s">
-        <v>25</v>
-      </c>
-      <c r="N17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" t="s">
-        <v>19</v>
-      </c>
-      <c r="P17" t="s">
-        <v>24</v>
-      </c>
       <c r="Q17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1837,58 +1852,58 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
         <v>26</v>
       </c>
-      <c r="E18" t="s">
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
         <v>26</v>
       </c>
-      <c r="F18" t="s">
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
         <v>25</v>
       </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" t="s">
+      <c r="N18" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" t="s">
         <v>26</v>
       </c>
-      <c r="I18" t="s">
+      <c r="P18" t="s">
         <v>25</v>
       </c>
-      <c r="J18" t="s">
-        <v>24</v>
-      </c>
-      <c r="K18" t="s">
+      <c r="Q18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" t="s">
+        <v>26</v>
+      </c>
+      <c r="S18" t="s">
         <v>25</v>
-      </c>
-      <c r="L18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" t="s">
-        <v>24</v>
-      </c>
-      <c r="N18" t="s">
-        <v>26</v>
-      </c>
-      <c r="O18" t="s">
-        <v>24</v>
-      </c>
-      <c r="P18" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>25</v>
-      </c>
-      <c r="R18" t="s">
-        <v>24</v>
-      </c>
-      <c r="S18" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1899,22 +1914,22 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
         <v>22</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
@@ -1923,16 +1938,16 @@
         <v>18</v>
       </c>
       <c r="K19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L19" t="s">
         <v>22</v>
       </c>
       <c r="M19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O19" t="s">
         <v>18</v>
@@ -1944,10 +1959,10 @@
         <v>22</v>
       </c>
       <c r="R19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="S19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1982,10 +1997,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1.666666666666667</v>
+        <v>1.722222222222222</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1993,13 +2008,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>2.277777777777778</v>
+        <v>2.722222222222222</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2007,13 +2022,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>2.611111111111111</v>
+        <v>3.111111111111111</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2021,13 +2036,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>2.944444444444445</v>
+        <v>3.5</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2035,13 +2050,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>3.277777777777778</v>
+        <v>3.555555555555555</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2049,13 +2064,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>3.333333333333333</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2063,13 +2078,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>3.333333333333333</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2077,13 +2092,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>3.388888888888889</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2091,13 +2106,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>3.5</v>
+        <v>4.055555555555555</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2105,10 +2120,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>3.555555555555555</v>
+        <v>4.055555555555555</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
@@ -2119,13 +2134,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>3.611111111111111</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2133,13 +2148,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>3.666666666666667</v>
+        <v>4.277777777777778</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2147,13 +2162,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>3.777777777777778</v>
+        <v>4.555555555555555</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2164,10 +2179,10 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>3.888888888888889</v>
+        <v>4.611111111111111</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2175,13 +2190,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>4.333333333333333</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2189,13 +2204,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>4.388888888888889</v>
+        <v>4.944444444444445</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2206,10 +2221,10 @@
         <v>7</v>
       </c>
       <c r="C18">
-        <v>4.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2220,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.666666666666667</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -2261,13 +2276,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>6.055555555555555</v>
+        <v>6.611111111111111</v>
       </c>
       <c r="D2">
-        <v>1.055555555555555</v>
+        <v>0.6111111111111107</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2275,16 +2290,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C3">
-        <v>5.055555555555555</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D3">
-        <v>0.05555555555555536</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2295,13 +2310,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>5.444444444444445</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>-0.5555555555555554</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2309,16 +2324,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>4.833333333333333</v>
+        <v>5.222222222222222</v>
       </c>
       <c r="D5">
-        <v>-1.166666666666667</v>
+        <v>0.2222222222222223</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2326,16 +2341,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>4.166666666666667</v>
+        <v>4.944444444444445</v>
       </c>
       <c r="D6">
-        <v>1.166666666666667</v>
+        <v>-1.055555555555555</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2343,16 +2358,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>4.055555555555555</v>
+        <v>4.777777777777778</v>
       </c>
       <c r="D7">
-        <v>-0.9444444444444446</v>
+        <v>1.777777777777778</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2360,16 +2375,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>3.722222222222222</v>
+        <v>4.555555555555555</v>
       </c>
       <c r="D8">
-        <v>-2.277777777777778</v>
+        <v>0.5555555555555554</v>
       </c>
       <c r="E8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2377,16 +2392,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>3.666666666666667</v>
+        <v>4.5</v>
       </c>
       <c r="D9">
-        <v>0.6666666666666665</v>
+        <v>1.5</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2394,16 +2409,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>3.666666666666667</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D10">
-        <v>1.666666666666667</v>
+        <v>-1.833333333333333</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2411,16 +2426,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>3.611111111111111</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="D11">
-        <v>0.6111111111111112</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2431,13 +2446,13 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>3.5</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D12">
-        <v>-0.5</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2448,13 +2463,13 @@
         <v>9</v>
       </c>
       <c r="C13">
-        <v>3.111111111111111</v>
+        <v>3.444444444444445</v>
       </c>
       <c r="D13">
-        <v>1.111111111111111</v>
+        <v>1.444444444444445</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2465,13 +2480,13 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>3.111111111111111</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2479,16 +2494,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C15">
-        <v>2.333333333333333</v>
+        <v>2.944444444444445</v>
       </c>
       <c r="D15">
-        <v>0.3333333333333335</v>
+        <v>-0.05555555555555536</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2496,16 +2511,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C16">
-        <v>2.222222222222222</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="D16">
-        <v>0.2222222222222223</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2516,13 +2531,13 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>2.166666666666667</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="D17">
-        <v>-0.8333333333333335</v>
+        <v>-0.7777777777777777</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2530,16 +2545,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>1.611111111111111</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="D18">
-        <v>-0.3888888888888888</v>
+        <v>-0.1111111111111112</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2547,16 +2562,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19">
-        <v>1.111111111111111</v>
+        <v>1.611111111111111</v>
       </c>
       <c r="D19">
-        <v>0.1111111111111112</v>
+        <v>-0.3888888888888888</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2636,46 +2651,46 @@
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2">
-        <v>33.2</v>
+        <v>47.2</v>
       </c>
       <c r="C2">
-        <v>19.4</v>
+        <v>21.3</v>
       </c>
       <c r="D2">
-        <v>16.4</v>
+        <v>14.2</v>
       </c>
       <c r="E2">
-        <v>11.2</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F2">
-        <v>8.5</v>
+        <v>4.2</v>
       </c>
       <c r="G2">
-        <v>5.2</v>
+        <v>2.2</v>
       </c>
       <c r="H2">
-        <v>2.6</v>
+        <v>1.4</v>
       </c>
       <c r="I2">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="J2">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -2693,48 +2708,48 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>93.90000000000001</v>
+        <v>97.90000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>20.4</v>
+        <v>27.4</v>
       </c>
       <c r="C3">
-        <v>23.2</v>
+        <v>23.7</v>
       </c>
       <c r="D3">
-        <v>17.1</v>
+        <v>18</v>
       </c>
       <c r="E3">
-        <v>16.6</v>
+        <v>12.2</v>
       </c>
       <c r="F3">
-        <v>9.5</v>
+        <v>8.4</v>
       </c>
       <c r="G3">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="H3">
-        <v>2.7</v>
+        <v>2.3</v>
       </c>
       <c r="I3">
-        <v>2.3</v>
+        <v>1.8</v>
       </c>
       <c r="J3">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="K3">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="L3">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -2755,51 +2770,51 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>92.5</v>
+        <v>95.09999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>22.8</v>
+        <v>15.2</v>
       </c>
       <c r="C4">
-        <v>17.2</v>
+        <v>27.7</v>
       </c>
       <c r="D4">
-        <v>13.1</v>
+        <v>21.2</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="F4">
-        <v>13.1</v>
+        <v>10.2</v>
       </c>
       <c r="G4">
-        <v>7.6</v>
+        <v>5.1</v>
       </c>
       <c r="H4">
-        <v>5.6</v>
+        <v>3.1</v>
       </c>
       <c r="I4">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="J4">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="K4">
         <v>0.4</v>
       </c>
       <c r="L4">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -2817,54 +2832,54 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>88.8</v>
+        <v>93.90000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>12.4</v>
+        <v>5.7</v>
       </c>
       <c r="C5">
-        <v>14.6</v>
+        <v>11</v>
       </c>
       <c r="D5">
+        <v>17.4</v>
+      </c>
+      <c r="E5">
         <v>18.1</v>
       </c>
-      <c r="E5">
-        <v>14.3</v>
-      </c>
       <c r="F5">
-        <v>9.9</v>
+        <v>17.1</v>
       </c>
       <c r="G5">
-        <v>10.3</v>
+        <v>11.2</v>
       </c>
       <c r="H5">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="I5">
-        <v>4.9</v>
+        <v>4.2</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K5">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
         <v>1.2</v>
       </c>
       <c r="M5">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="N5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2879,55 +2894,55 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>79.59999999999999</v>
+        <v>80.5</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>6.3</v>
+        <v>2.2</v>
       </c>
       <c r="C6">
-        <v>9.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D6">
-        <v>10.5</v>
+        <v>11.4</v>
       </c>
       <c r="E6">
-        <v>12.1</v>
+        <v>15.7</v>
       </c>
       <c r="F6">
-        <v>13.1</v>
+        <v>16.8</v>
       </c>
       <c r="G6">
         <v>13.1</v>
       </c>
       <c r="H6">
-        <v>12.2</v>
+        <v>10.8</v>
       </c>
       <c r="I6">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="J6">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="K6">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="M6">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="N6">
+        <v>0.4</v>
+      </c>
+      <c r="O6">
         <v>0.5</v>
       </c>
-      <c r="O6">
-        <v>0.2</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
@@ -2941,60 +2956,60 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>64.5</v>
+        <v>67.5</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>3.5</v>
       </c>
-      <c r="C7">
-        <v>8.699999999999999</v>
-      </c>
       <c r="D7">
-        <v>11.8</v>
+        <v>7.4</v>
       </c>
       <c r="E7">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="F7">
-        <v>14.1</v>
+        <v>10.9</v>
       </c>
       <c r="G7">
-        <v>13.2</v>
+        <v>15.6</v>
       </c>
       <c r="H7">
-        <v>12.5</v>
+        <v>15.1</v>
       </c>
       <c r="I7">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="J7">
-        <v>5.2</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K7">
-        <v>4.9</v>
+        <v>7.1</v>
       </c>
       <c r="L7">
-        <v>2.4</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O7">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="P7">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Q7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -3003,317 +3018,317 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>62.6</v>
+        <v>50.8</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="C8">
-        <v>4.2</v>
+        <v>2.6</v>
       </c>
       <c r="D8">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="E8">
-        <v>6.7</v>
+        <v>8.9</v>
       </c>
       <c r="F8">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="G8">
-        <v>9.699999999999999</v>
+        <v>14.3</v>
       </c>
       <c r="H8">
-        <v>11.8</v>
+        <v>14.9</v>
       </c>
       <c r="I8">
-        <v>12</v>
+        <v>13.3</v>
       </c>
       <c r="J8">
-        <v>9.300000000000001</v>
+        <v>12.1</v>
       </c>
       <c r="K8">
-        <v>9.6</v>
+        <v>6.8</v>
       </c>
       <c r="L8">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="M8">
-        <v>5.1</v>
+        <v>3.2</v>
       </c>
       <c r="N8">
-        <v>5.1</v>
+        <v>2.3</v>
       </c>
       <c r="O8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="Q8">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="R8">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>35.9</v>
+        <v>40.6</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9">
         <v>2.1</v>
       </c>
-      <c r="D9">
-        <v>4.4</v>
-      </c>
       <c r="E9">
-        <v>6.1</v>
+        <v>3.4</v>
       </c>
       <c r="F9">
-        <v>8.300000000000001</v>
+        <v>6.3</v>
       </c>
       <c r="G9">
-        <v>12.9</v>
+        <v>12.1</v>
       </c>
       <c r="H9">
+        <v>12.8</v>
+      </c>
+      <c r="I9">
+        <v>14.3</v>
+      </c>
+      <c r="J9">
+        <v>12.8</v>
+      </c>
+      <c r="K9">
         <v>12.4</v>
       </c>
-      <c r="I9">
-        <v>15.1</v>
-      </c>
-      <c r="J9">
-        <v>11.2</v>
-      </c>
-      <c r="K9">
-        <v>7.7</v>
-      </c>
       <c r="L9">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="M9">
-        <v>4.9</v>
+        <v>6.8</v>
       </c>
       <c r="N9">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O9">
-        <v>1.1</v>
+        <v>2.8</v>
       </c>
       <c r="P9">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="Q9">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>34.1</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="E10">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="F10">
-        <v>5.6</v>
+        <v>6.9</v>
       </c>
       <c r="G10">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="H10">
-        <v>8.1</v>
+        <v>11.8</v>
       </c>
       <c r="I10">
-        <v>11.2</v>
+        <v>14.7</v>
       </c>
       <c r="J10">
-        <v>12.2</v>
+        <v>13</v>
       </c>
       <c r="K10">
-        <v>13.2</v>
+        <v>13</v>
       </c>
       <c r="L10">
-        <v>11.6</v>
+        <v>8.5</v>
       </c>
       <c r="M10">
-        <v>9.300000000000001</v>
+        <v>5.9</v>
       </c>
       <c r="N10">
-        <v>7.7</v>
+        <v>4</v>
       </c>
       <c r="O10">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="P10">
-        <v>3.3</v>
+        <v>1.9</v>
       </c>
       <c r="Q10">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="T10">
-        <v>17.2</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="E11">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="F11">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="G11">
-        <v>5.3</v>
+        <v>4.7</v>
       </c>
       <c r="H11">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="I11">
+        <v>10.4</v>
+      </c>
+      <c r="J11">
+        <v>13.4</v>
+      </c>
+      <c r="K11">
+        <v>14.8</v>
+      </c>
+      <c r="L11">
+        <v>14.4</v>
+      </c>
+      <c r="M11">
+        <v>9.1</v>
+      </c>
+      <c r="N11">
         <v>7.7</v>
       </c>
-      <c r="J11">
-        <v>12.7</v>
-      </c>
-      <c r="K11">
-        <v>13.6</v>
-      </c>
-      <c r="L11">
-        <v>12.3</v>
-      </c>
-      <c r="M11">
-        <v>10.3</v>
-      </c>
-      <c r="N11">
-        <v>9.6</v>
-      </c>
       <c r="O11">
-        <v>7.7</v>
+        <v>3.9</v>
       </c>
       <c r="P11">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="Q11">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="R11">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="T11">
-        <v>10.1</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="E12">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="F12">
+        <v>3.2</v>
+      </c>
+      <c r="G12">
+        <v>4.4</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>6.6</v>
+      </c>
+      <c r="J12">
+        <v>11.2</v>
+      </c>
+      <c r="K12">
+        <v>14.6</v>
+      </c>
+      <c r="L12">
+        <v>12.7</v>
+      </c>
+      <c r="M12">
+        <v>14.2</v>
+      </c>
+      <c r="N12">
+        <v>10.1</v>
+      </c>
+      <c r="O12">
+        <v>7.2</v>
+      </c>
+      <c r="P12">
+        <v>3.8</v>
+      </c>
+      <c r="Q12">
         <v>2.9</v>
       </c>
-      <c r="G12">
-        <v>3.8</v>
-      </c>
-      <c r="H12">
-        <v>6.3</v>
-      </c>
-      <c r="I12">
-        <v>6.8</v>
-      </c>
-      <c r="J12">
-        <v>11</v>
-      </c>
-      <c r="K12">
-        <v>11</v>
-      </c>
-      <c r="L12">
-        <v>11.3</v>
-      </c>
-      <c r="M12">
-        <v>12.1</v>
-      </c>
-      <c r="N12">
-        <v>10.5</v>
-      </c>
-      <c r="O12">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="P12">
-        <v>6.6</v>
-      </c>
-      <c r="Q12">
-        <v>3.8</v>
-      </c>
       <c r="R12">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="S12">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="T12">
-        <v>8.800000000000001</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -3321,66 +3336,66 @@
         <v>2</v>
       </c>
       <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
         <v>0.1</v>
       </c>
-      <c r="C13">
-        <v>0.1</v>
-      </c>
-      <c r="D13">
+      <c r="F13">
+        <v>0.6</v>
+      </c>
+      <c r="G13">
         <v>0.9</v>
       </c>
-      <c r="E13">
-        <v>0.8</v>
-      </c>
-      <c r="F13">
-        <v>1.3</v>
-      </c>
-      <c r="G13">
-        <v>3.8</v>
-      </c>
       <c r="H13">
-        <v>4</v>
+        <v>2.4</v>
       </c>
       <c r="I13">
-        <v>7.4</v>
+        <v>4.2</v>
       </c>
       <c r="J13">
-        <v>9.4</v>
+        <v>4.5</v>
       </c>
       <c r="K13">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="L13">
+        <v>11.7</v>
+      </c>
+      <c r="M13">
         <v>11.1</v>
       </c>
-      <c r="M13">
-        <v>12.9</v>
-      </c>
       <c r="N13">
-        <v>10.8</v>
+        <v>14.8</v>
       </c>
       <c r="O13">
-        <v>10.3</v>
+        <v>15.3</v>
       </c>
       <c r="P13">
-        <v>9.1</v>
+        <v>10.4</v>
       </c>
       <c r="Q13">
-        <v>5.6</v>
+        <v>9.6</v>
       </c>
       <c r="R13">
-        <v>3.7</v>
+        <v>4.8</v>
       </c>
       <c r="S13">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="T13">
-        <v>7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3389,60 +3404,60 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E14">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G14">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H14">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="I14">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="J14">
-        <v>6.7</v>
+        <v>3.3</v>
       </c>
       <c r="K14">
-        <v>10.1</v>
+        <v>4</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M14">
-        <v>13.1</v>
+        <v>11.3</v>
       </c>
       <c r="N14">
         <v>14.1</v>
       </c>
       <c r="O14">
-        <v>12.6</v>
+        <v>12</v>
       </c>
       <c r="P14">
-        <v>8.199999999999999</v>
+        <v>14.7</v>
       </c>
       <c r="Q14">
-        <v>6.3</v>
+        <v>13.7</v>
       </c>
       <c r="R14">
-        <v>3.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S14">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="T14">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3454,52 +3469,52 @@
         <v>0</v>
       </c>
       <c r="E15">
+        <v>0.1</v>
+      </c>
+      <c r="F15">
         <v>0.2</v>
-      </c>
-      <c r="F15">
-        <v>0.6</v>
       </c>
       <c r="G15">
         <v>0.6</v>
       </c>
       <c r="H15">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="I15">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J15">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="K15">
-        <v>6.4</v>
+        <v>7.9</v>
       </c>
       <c r="L15">
-        <v>8.300000000000001</v>
+        <v>11.3</v>
       </c>
       <c r="M15">
-        <v>12.3</v>
+        <v>14.6</v>
       </c>
       <c r="N15">
-        <v>13.3</v>
+        <v>15</v>
       </c>
       <c r="O15">
-        <v>13.7</v>
+        <v>12.8</v>
       </c>
       <c r="P15">
-        <v>14.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="R15">
-        <v>8.5</v>
+        <v>6.7</v>
       </c>
       <c r="S15">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="T15">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -3516,57 +3531,57 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F16">
         <v>0.1</v>
       </c>
       <c r="G16">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H16">
+        <v>0.2</v>
+      </c>
+      <c r="I16">
         <v>0.5</v>
       </c>
-      <c r="I16">
-        <v>0.9</v>
-      </c>
       <c r="J16">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="K16">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="L16">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="M16">
-        <v>6.8</v>
+        <v>8.4</v>
       </c>
       <c r="N16">
-        <v>9.800000000000001</v>
+        <v>10.3</v>
       </c>
       <c r="O16">
         <v>13.7</v>
       </c>
       <c r="P16">
-        <v>15.3</v>
+        <v>16.9</v>
       </c>
       <c r="Q16">
-        <v>19.1</v>
+        <v>14.2</v>
       </c>
       <c r="R16">
-        <v>16.1</v>
+        <v>13.9</v>
       </c>
       <c r="S16">
-        <v>7.4</v>
+        <v>12.1</v>
       </c>
       <c r="T16">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3578,52 +3593,52 @@
         <v>0</v>
       </c>
       <c r="E17">
+        <v>0.1</v>
+      </c>
+      <c r="F17">
         <v>0.2</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.1</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
       <c r="H17">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I17">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="J17">
-        <v>1.9</v>
+        <v>2.9</v>
       </c>
       <c r="K17">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="L17">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="M17">
-        <v>5.1</v>
+        <v>7.3</v>
       </c>
       <c r="N17">
-        <v>6.4</v>
+        <v>9.4</v>
       </c>
       <c r="O17">
-        <v>11.5</v>
+        <v>15.1</v>
       </c>
       <c r="P17">
-        <v>15.3</v>
+        <v>16.9</v>
       </c>
       <c r="Q17">
-        <v>21.7</v>
+        <v>15.5</v>
       </c>
       <c r="R17">
-        <v>21.9</v>
+        <v>14.6</v>
       </c>
       <c r="S17">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="T17">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -3652,37 +3667,37 @@
         <v>0.2</v>
       </c>
       <c r="I18">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="J18">
         <v>0.7</v>
       </c>
       <c r="K18">
-        <v>1.6</v>
+        <v>0.2</v>
       </c>
       <c r="L18">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="M18">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="N18">
-        <v>5.8</v>
+        <v>3.8</v>
       </c>
       <c r="O18">
-        <v>10.4</v>
+        <v>5.5</v>
       </c>
       <c r="P18">
-        <v>15.4</v>
+        <v>9.1</v>
       </c>
       <c r="Q18">
-        <v>18.6</v>
+        <v>14.5</v>
       </c>
       <c r="R18">
-        <v>22.3</v>
+        <v>21.2</v>
       </c>
       <c r="S18">
-        <v>17.6</v>
+        <v>40.4</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -3714,37 +3729,37 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J19">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="K19">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="L19">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="M19">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="N19">
-        <v>1.1</v>
+        <v>3.2</v>
       </c>
       <c r="O19">
-        <v>2.8</v>
+        <v>6.4</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>11.9</v>
       </c>
       <c r="Q19">
-        <v>9.6</v>
+        <v>17.5</v>
       </c>
       <c r="R19">
-        <v>18.9</v>
+        <v>26.2</v>
       </c>
       <c r="S19">
-        <v>61.5</v>
+        <v>29.9</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -3757,13 +3772,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -3788,332 +3803,368 @@
       <c r="I1" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>21.4</v>
+      </c>
+      <c r="C2">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D2">
+        <v>68.40000000000001</v>
+      </c>
+      <c r="E2">
+        <v>52.7</v>
+      </c>
+      <c r="F2">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="G2">
+        <v>82.19999999999999</v>
+      </c>
+      <c r="H2">
+        <v>90.60000000000001</v>
+      </c>
+      <c r="I2">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="J2">
+        <v>98.40000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
-        <v>39</v>
-      </c>
-      <c r="C2">
-        <v>60.6</v>
-      </c>
-      <c r="D2">
-        <v>57.3</v>
-      </c>
-      <c r="E2">
-        <v>80.40000000000001</v>
-      </c>
-      <c r="F2">
-        <v>82.19999999999999</v>
-      </c>
-      <c r="G2">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="H2">
-        <v>93.10000000000001</v>
-      </c>
-      <c r="I2">
-        <v>94.39999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>37.5</v>
+      </c>
+      <c r="C3">
+        <v>61.2</v>
+      </c>
+      <c r="D3">
+        <v>58.09999999999999</v>
+      </c>
+      <c r="E3">
+        <v>81.2</v>
+      </c>
+      <c r="F3">
+        <v>82.89999999999999</v>
+      </c>
+      <c r="G3">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="H3">
+        <v>93.5</v>
+      </c>
+      <c r="I3">
+        <v>93.8</v>
+      </c>
+      <c r="J3">
+        <v>95.39999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
-        <v>92.40000000000001</v>
-      </c>
-      <c r="C3">
-        <v>84.7</v>
-      </c>
-      <c r="D3">
+      <c r="B4">
+        <v>93.60000000000001</v>
+      </c>
+      <c r="C4">
+        <v>84.8</v>
+      </c>
+      <c r="D4">
+        <v>58.5</v>
+      </c>
+      <c r="E4">
+        <v>79.40000000000001</v>
+      </c>
+      <c r="F4">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="G4">
+        <v>81.8</v>
+      </c>
+      <c r="H4">
+        <v>92.80000000000001</v>
+      </c>
+      <c r="I4">
+        <v>94.89999999999999</v>
+      </c>
+      <c r="J4">
+        <v>92.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>1.1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>9.700000000000001</v>
+      </c>
+      <c r="E5">
+        <v>21.1</v>
+      </c>
+      <c r="F5">
+        <v>34.4</v>
+      </c>
+      <c r="G5">
+        <v>40.9</v>
+      </c>
+      <c r="H5">
+        <v>60.9</v>
+      </c>
+      <c r="I5">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="J5">
+        <v>79.40000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>40.3</v>
+      </c>
+      <c r="C6">
+        <v>80.7</v>
+      </c>
+      <c r="D6">
+        <v>42.5</v>
+      </c>
+      <c r="E6">
+        <v>34.1</v>
+      </c>
+      <c r="F6">
+        <v>61.4</v>
+      </c>
+      <c r="G6">
+        <v>72.7</v>
+      </c>
+      <c r="H6">
+        <v>82</v>
+      </c>
+      <c r="I6">
+        <v>61.8</v>
+      </c>
+      <c r="J6">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>29.2</v>
+      </c>
+      <c r="C7">
+        <v>30.3</v>
+      </c>
+      <c r="D7">
+        <v>8.6</v>
+      </c>
+      <c r="E7">
+        <v>7.8</v>
+      </c>
+      <c r="F7">
+        <v>31.3</v>
+      </c>
+      <c r="G7">
+        <v>38.2</v>
+      </c>
+      <c r="H7">
+        <v>65.8</v>
+      </c>
+      <c r="I7">
+        <v>53.3</v>
+      </c>
+      <c r="J7">
+        <v>52.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>16.7</v>
+      </c>
+      <c r="C8">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>47.5</v>
+      </c>
+      <c r="E8">
+        <v>40.40000000000001</v>
+      </c>
+      <c r="F8">
+        <v>41.8</v>
+      </c>
+      <c r="G8">
         <v>62.7</v>
       </c>
-      <c r="E3">
-        <v>77.90000000000001</v>
-      </c>
-      <c r="F3">
-        <v>90.90000000000001</v>
-      </c>
-      <c r="G3">
-        <v>84.3</v>
-      </c>
-      <c r="H3">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="I3">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>21.2</v>
-      </c>
-      <c r="C4">
-        <v>66.5</v>
-      </c>
-      <c r="D4">
-        <v>70.19999999999999</v>
-      </c>
-      <c r="E4">
-        <v>51.2</v>
-      </c>
-      <c r="F4">
-        <v>62.7</v>
-      </c>
-      <c r="G4">
-        <v>81.39999999999999</v>
-      </c>
-      <c r="H4">
-        <v>90.10000000000001</v>
-      </c>
-      <c r="I4">
-        <v>86.59999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>37.8</v>
-      </c>
-      <c r="C5">
-        <v>82.59999999999999</v>
-      </c>
-      <c r="D5">
-        <v>42.1</v>
-      </c>
-      <c r="E5">
-        <v>32.9</v>
-      </c>
-      <c r="F5">
-        <v>58.59999999999999</v>
-      </c>
-      <c r="G5">
-        <v>73.7</v>
-      </c>
-      <c r="H5">
-        <v>80.80000000000001</v>
-      </c>
-      <c r="I5">
-        <v>80.60000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>28.1</v>
-      </c>
-      <c r="C6">
-        <v>29.9</v>
-      </c>
-      <c r="D6">
-        <v>8.799999999999999</v>
-      </c>
-      <c r="E6">
+      <c r="H8">
+        <v>29.1</v>
+      </c>
+      <c r="I8">
+        <v>46.9</v>
+      </c>
+      <c r="J8">
+        <v>41.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="C9">
+        <v>91.10000000000001</v>
+      </c>
+      <c r="D9">
+        <v>14.6</v>
+      </c>
+      <c r="E9">
+        <v>33.8</v>
+      </c>
+      <c r="F9">
+        <v>20.6</v>
+      </c>
+      <c r="G9">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H9">
         <v>10.4</v>
       </c>
-      <c r="F6">
-        <v>34.4</v>
-      </c>
-      <c r="G6">
-        <v>39.6</v>
-      </c>
-      <c r="H6">
-        <v>64.60000000000001</v>
-      </c>
-      <c r="I6">
-        <v>66.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="C7">
-        <v>0.1</v>
-      </c>
-      <c r="D7">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="E7">
-        <v>19.3</v>
-      </c>
-      <c r="F7">
-        <v>36.8</v>
-      </c>
-      <c r="G7">
-        <v>44.8</v>
-      </c>
-      <c r="H7">
-        <v>59.8</v>
-      </c>
-      <c r="I7">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
+      <c r="I9">
+        <v>21.8</v>
+      </c>
+      <c r="J9">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8">
-        <v>32.5</v>
-      </c>
-      <c r="C8">
-        <v>12.7</v>
-      </c>
-      <c r="D8">
-        <v>64.60000000000001</v>
-      </c>
-      <c r="E8">
-        <v>86.09999999999999</v>
-      </c>
-      <c r="F8">
+      <c r="B10">
+        <v>29.2</v>
+      </c>
+      <c r="C10">
+        <v>12.4</v>
+      </c>
+      <c r="D10">
+        <v>67.10000000000001</v>
+      </c>
+      <c r="E10">
+        <v>82.39999999999999</v>
+      </c>
+      <c r="F10">
         <v>56.8</v>
       </c>
-      <c r="G8">
-        <v>63.5</v>
-      </c>
-      <c r="H8">
-        <v>36.6</v>
-      </c>
-      <c r="I8">
-        <v>35.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>19.7</v>
-      </c>
-      <c r="C9">
-        <v>35.2</v>
-      </c>
-      <c r="D9">
-        <v>46.7</v>
-      </c>
-      <c r="E9">
-        <v>39.90000000000001</v>
-      </c>
-      <c r="F9">
+      <c r="G10">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="H10">
+        <v>34</v>
+      </c>
+      <c r="I10">
+        <v>22.3</v>
+      </c>
+      <c r="J10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>35.6</v>
+      </c>
+      <c r="C11">
+        <v>11.2</v>
+      </c>
+      <c r="D11">
+        <v>63.7</v>
+      </c>
+      <c r="E11">
+        <v>71.8</v>
+      </c>
+      <c r="F11">
         <v>42.3</v>
       </c>
-      <c r="G9">
-        <v>60.9</v>
-      </c>
-      <c r="H9">
-        <v>28.7</v>
-      </c>
-      <c r="I9">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
+      <c r="G11">
+        <v>17.4</v>
+      </c>
+      <c r="H11">
+        <v>7.9</v>
+      </c>
+      <c r="I11">
+        <v>15.8</v>
+      </c>
+      <c r="J11">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B10">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C10">
-        <v>41.8</v>
-      </c>
-      <c r="D10">
-        <v>67.40000000000001</v>
-      </c>
-      <c r="E10">
-        <v>52.3</v>
-      </c>
-      <c r="F10">
-        <v>38.5</v>
-      </c>
-      <c r="G10">
-        <v>14.4</v>
-      </c>
-      <c r="H10">
-        <v>20.7</v>
-      </c>
-      <c r="I10">
-        <v>17.6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>88.3</v>
-      </c>
-      <c r="C11">
-        <v>91.3</v>
-      </c>
-      <c r="D11">
-        <v>12.4</v>
-      </c>
-      <c r="E11">
-        <v>36.1</v>
-      </c>
-      <c r="F11">
-        <v>21.6</v>
-      </c>
-      <c r="G11">
-        <v>7.8</v>
-      </c>
-      <c r="H11">
-        <v>11.7</v>
-      </c>
-      <c r="I11">
-        <v>12.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B12">
-        <v>34.59999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="C12">
-        <v>11.1</v>
+        <v>43.4</v>
       </c>
       <c r="D12">
-        <v>65</v>
+        <v>68.5</v>
       </c>
       <c r="E12">
-        <v>69.39999999999999</v>
+        <v>51.9</v>
       </c>
       <c r="F12">
-        <v>39.7</v>
+        <v>37.1</v>
       </c>
       <c r="G12">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="H12">
-        <v>8.799999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="I12">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>9.9</v>
+      </c>
+      <c r="J12">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B13">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -4122,181 +4173,199 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="F13">
-        <v>6.2</v>
+        <v>7.1</v>
       </c>
       <c r="G13">
         <v>3.7</v>
       </c>
       <c r="H13">
-        <v>7.3</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="I13">
-        <v>6.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>2.6</v>
+      </c>
+      <c r="J13">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B14">
-        <v>7.399999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>18.3</v>
+        <v>19</v>
       </c>
       <c r="E14">
+        <v>12.4</v>
+      </c>
+      <c r="F14">
+        <v>2.5</v>
+      </c>
+      <c r="G14">
+        <v>8.4</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>0.5</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
+        <v>22.8</v>
+      </c>
+      <c r="C15">
+        <v>31.2</v>
+      </c>
+      <c r="D15">
         <v>10.4</v>
       </c>
-      <c r="F14">
-        <v>2.6</v>
-      </c>
-      <c r="G14">
-        <v>7.8</v>
-      </c>
-      <c r="H14">
-        <v>3.1</v>
-      </c>
-      <c r="I14">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
+      <c r="E15">
+        <v>3.5</v>
+      </c>
+      <c r="F15">
+        <v>1.1</v>
+      </c>
+      <c r="G15">
+        <v>1.1</v>
+      </c>
+      <c r="H15">
+        <v>0.4</v>
+      </c>
+      <c r="I15">
+        <v>0.8</v>
+      </c>
+      <c r="J15">
+        <v>0.7000000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B15">
-        <v>62.2</v>
-      </c>
-      <c r="C15">
+      <c r="B16">
+        <v>60.7</v>
+      </c>
+      <c r="C16">
+        <v>3.9</v>
+      </c>
+      <c r="D16">
+        <v>5.1</v>
+      </c>
+      <c r="E16">
         <v>4.9</v>
       </c>
-      <c r="D15">
-        <v>3.9</v>
-      </c>
-      <c r="E15">
-        <v>5.800000000000001</v>
-      </c>
-      <c r="F15">
-        <v>15.8</v>
-      </c>
-      <c r="G15">
-        <v>4.7</v>
-      </c>
-      <c r="H15">
-        <v>1.4</v>
-      </c>
-      <c r="I15">
+      <c r="F16">
+        <v>16.8</v>
+      </c>
+      <c r="G16">
+        <v>6.3</v>
+      </c>
+      <c r="H16">
         <v>1.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>22.4</v>
-      </c>
-      <c r="C16">
-        <v>29.9</v>
-      </c>
-      <c r="D16">
-        <v>12.1</v>
-      </c>
-      <c r="E16">
-        <v>2.9</v>
-      </c>
-      <c r="F16">
-        <v>1.6</v>
-      </c>
-      <c r="G16">
-        <v>1.7</v>
-      </c>
-      <c r="H16">
-        <v>0.1</v>
-      </c>
       <c r="I16">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.3</v>
+      </c>
+      <c r="J16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B17">
-        <v>12.2</v>
+        <v>11.4</v>
       </c>
       <c r="C17">
-        <v>47.3</v>
+        <v>47.9</v>
       </c>
       <c r="D17">
-        <v>56.49999999999999</v>
+        <v>55.00000000000001</v>
       </c>
       <c r="E17">
-        <v>22.3</v>
+        <v>19.9</v>
       </c>
       <c r="F17">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="G17">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="H17">
-        <v>0.3</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="I17">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.2</v>
+      </c>
+      <c r="J17">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18">
+        <v>0.6</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2.3</v>
+      </c>
+      <c r="E18">
         <v>0.3</v>
       </c>
-      <c r="C18">
-        <v>1.4</v>
-      </c>
-      <c r="D18">
-        <v>1.5</v>
-      </c>
-      <c r="E18">
-        <v>0.5</v>
-      </c>
       <c r="F18">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0.1</v>
@@ -4308,6 +4377,9 @@
         <v>0</v>
       </c>
       <c r="I19">
+        <v>0.1</v>
+      </c>
+      <c r="J19">
         <v>0</v>
       </c>
     </row>
@@ -4329,54 +4401,54 @@
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2">
-        <v>0.7142857142857143</v>
+        <v>0.875</v>
       </c>
       <c r="D2">
-        <v>127.1514285714286</v>
+        <v>121.0575</v>
       </c>
       <c r="E2">
-        <v>890.0599999999999</v>
+        <v>968.46</v>
       </c>
       <c r="F2">
-        <v>93.89999999999999</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s">
         <v>94</v>
@@ -4384,57 +4456,57 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C3">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>118.52</v>
+        <v>123.835</v>
       </c>
       <c r="E3">
-        <v>829.6399999999999</v>
+        <v>990.6799999999999</v>
       </c>
       <c r="F3">
-        <v>92.5</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4">
-        <v>0.8571428571428571</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>116.9142857142857</v>
+        <v>116.03</v>
       </c>
       <c r="E4">
-        <v>818.4000000000001</v>
+        <v>928.2399999999999</v>
       </c>
       <c r="F4">
-        <v>88.8</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s">
         <v>95</v>
@@ -4442,115 +4514,115 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C5">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="D5">
-        <v>118.7228571428571</v>
+        <v>109.9925</v>
       </c>
       <c r="E5">
-        <v>831.0599999999999</v>
+        <v>879.9399999999999</v>
       </c>
       <c r="F5">
-        <v>79.60000000000001</v>
+        <v>80.5</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I5" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C6">
-        <v>0.8571428571428571</v>
+        <v>0.625</v>
       </c>
       <c r="D6">
-        <v>104.4914285714286</v>
+        <v>115.1475</v>
       </c>
       <c r="E6">
-        <v>731.4400000000001</v>
+        <v>921.1799999999999</v>
       </c>
       <c r="F6">
-        <v>64.5</v>
+        <v>67.5</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C7">
-        <v>0.7142857142857143</v>
+        <v>0.75</v>
       </c>
       <c r="D7">
-        <v>108.6885714285714</v>
+        <v>103.865</v>
       </c>
       <c r="E7">
-        <v>760.8199999999999</v>
+        <v>830.9200000000001</v>
       </c>
       <c r="F7">
-        <v>62.6</v>
+        <v>50.8</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
       <c r="C8">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="D8">
-        <v>115.1142857142857</v>
+        <v>103.02</v>
       </c>
       <c r="E8">
-        <v>805.8</v>
+        <v>824.16</v>
       </c>
       <c r="F8">
-        <v>35.9</v>
+        <v>40.6</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
         <v>97</v>
@@ -4558,118 +4630,118 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C9">
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>104.04</v>
+        <v>106.7675</v>
       </c>
       <c r="E9">
-        <v>728.28</v>
+        <v>854.14</v>
       </c>
       <c r="F9">
-        <v>34.1</v>
+        <v>24.4</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>0.4285714285714285</v>
+        <v>0.4375</v>
       </c>
       <c r="D10">
-        <v>108.4714285714286</v>
+        <v>113.52</v>
       </c>
       <c r="E10">
-        <v>759.3</v>
+        <v>908.16</v>
       </c>
       <c r="F10">
-        <v>17.2</v>
+        <v>22.3</v>
       </c>
       <c r="G10">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>0.4285714285714285</v>
+        <v>0.4375</v>
       </c>
       <c r="D11">
-        <v>104.7371428571429</v>
+        <v>108.61</v>
       </c>
       <c r="E11">
-        <v>733.16</v>
+        <v>868.88</v>
       </c>
       <c r="F11">
-        <v>10.1</v>
+        <v>12.9</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="H11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>75</v>
       </c>
       <c r="C12">
-        <v>0.3571428571428572</v>
+        <v>0.375</v>
       </c>
       <c r="D12">
-        <v>108.2085714285714</v>
+        <v>106.39</v>
       </c>
       <c r="E12">
-        <v>757.46</v>
+        <v>851.1199999999999</v>
       </c>
       <c r="F12">
-        <v>8.799999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="G12">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="H12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4677,86 +4749,86 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C13">
-        <v>0.4285714285714285</v>
+        <v>0.375</v>
       </c>
       <c r="D13">
-        <v>100.74</v>
+        <v>97.13499999999999</v>
       </c>
       <c r="E13">
-        <v>705.1799999999999</v>
+        <v>777.0799999999999</v>
       </c>
       <c r="F13">
-        <v>7.000000000000001</v>
+        <v>1.6</v>
       </c>
       <c r="G13">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H13" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I13" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="D14">
-        <v>102.6057142857143</v>
+        <v>90.9075</v>
       </c>
       <c r="E14">
-        <v>718.24</v>
+        <v>727.26</v>
       </c>
       <c r="F14">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="G14">
-        <v>1.4</v>
+        <v>4.7</v>
       </c>
       <c r="H14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C15">
-        <v>0.4285714285714285</v>
+        <v>0.25</v>
       </c>
       <c r="D15">
-        <v>88.84285714285714</v>
+        <v>101.785</v>
       </c>
       <c r="E15">
-        <v>621.9</v>
+        <v>814.28</v>
       </c>
       <c r="F15">
-        <v>1.4</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="G15">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4764,57 +4836,57 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C16">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="D16">
-        <v>89.49999999999999</v>
+        <v>90.95500000000001</v>
       </c>
       <c r="E16">
-        <v>626.4999999999999</v>
+        <v>727.6399999999999</v>
       </c>
       <c r="F16">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="G16">
-        <v>7.399999999999999</v>
+        <v>12.1</v>
       </c>
       <c r="H16" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C17">
-        <v>0.2857142857142857</v>
+        <v>0.375</v>
       </c>
       <c r="D17">
-        <v>88.65428571428571</v>
+        <v>86.60499999999999</v>
       </c>
       <c r="E17">
-        <v>620.5799999999999</v>
+        <v>692.8399999999999</v>
       </c>
       <c r="F17">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="G17">
-        <v>8.300000000000001</v>
+        <v>7.5</v>
       </c>
       <c r="H17" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4822,28 +4894,28 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C18">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="D18">
-        <v>81.96571428571428</v>
+        <v>78.345</v>
       </c>
       <c r="E18">
-        <v>573.76</v>
+        <v>626.76</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>17.6</v>
+        <v>40.40000000000001</v>
       </c>
       <c r="H18" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I18" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4851,28 +4923,28 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C19">
-        <v>0.1428571428571428</v>
+        <v>0.25</v>
       </c>
       <c r="D19">
-        <v>80.09142857142855</v>
+        <v>83.815</v>
       </c>
       <c r="E19">
-        <v>560.6399999999999</v>
+        <v>670.5199999999999</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>61.5</v>
+        <v>29.9</v>
       </c>
       <c r="H19" t="s">
         <v>93</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4893,16 +4965,16 @@
         <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4910,19 +4982,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4930,19 +5002,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -4953,16 +5025,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D4">
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -4973,16 +5045,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4990,19 +5062,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5010,19 +5082,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5030,19 +5102,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5050,19 +5122,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5070,19 +5142,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5090,19 +5162,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5113,16 +5185,16 @@
         <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D12">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5130,19 +5202,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D13">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5150,19 +5222,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D14">
-        <v>-11</v>
+        <v>-8</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5170,19 +5242,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D15">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5193,16 +5265,16 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D16">
-        <v>-14</v>
+        <v>-11</v>
       </c>
       <c r="E16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5213,16 +5285,16 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D17">
-        <v>-19</v>
+        <v>-22</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5230,19 +5302,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D18">
-        <v>-27</v>
+        <v>-32</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5250,19 +5322,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D19">
-        <v>-31</v>
+        <v>-36</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5272,97 +5344,106 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <v>25</v>
+      </c>
+      <c r="G2">
+        <v>29</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>8</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>17</v>
       </c>
-      <c r="E2">
-        <v>20</v>
-      </c>
-      <c r="F2">
+      <c r="E3">
+        <v>20</v>
+      </c>
+      <c r="F3">
         <v>24</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>31</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>33</v>
       </c>
-      <c r="I2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="E3">
-        <v>23</v>
-      </c>
-      <c r="F3">
-        <v>25</v>
-      </c>
-      <c r="G3">
-        <v>29</v>
-      </c>
-      <c r="H3">
-        <v>30</v>
-      </c>
-      <c r="I3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="I3">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5387,11 +5468,14 @@
       <c r="H4">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -5416,185 +5500,206 @@
       <c r="H5">
         <v>13</v>
       </c>
-      <c r="I5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="I5">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>-3</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="E6">
-        <v>-2</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>8</v>
-      </c>
-      <c r="I6" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="D7">
         <v>-1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="H7">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="I7">
+        <v>11</v>
+      </c>
+      <c r="J7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>-3</v>
       </c>
       <c r="D8">
         <v>-3</v>
       </c>
       <c r="E8">
+        <v>-2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>-2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>-3</v>
+      </c>
+      <c r="E10">
         <v>4</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>14</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>-4</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
       </c>
       <c r="F10">
         <v>7</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H10">
         <v>5</v>
       </c>
-      <c r="I10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B11">
+        <v>-5</v>
+      </c>
+      <c r="C11">
+        <v>-7</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>-2</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
       <c r="F11">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -5619,98 +5724,110 @@
       <c r="H12">
         <v>-4</v>
       </c>
-      <c r="I12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="I12">
+        <v>-5</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-6</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-5</v>
+      </c>
+      <c r="E13">
+        <v>-4</v>
+      </c>
+      <c r="F13">
+        <v>-3</v>
+      </c>
+      <c r="G13">
+        <v>-11</v>
+      </c>
+      <c r="H13">
+        <v>-12</v>
+      </c>
+      <c r="I13">
+        <v>-7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>-3</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>-1</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>-2</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>-3</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>-5</v>
       </c>
-      <c r="I13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
+      <c r="I14">
+        <v>-8</v>
+      </c>
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>-5</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>-6</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>-7</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>-12</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>-9</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>-17</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>-11</v>
       </c>
-      <c r="I14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>-6</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>-5</v>
-      </c>
-      <c r="E15">
-        <v>-4</v>
-      </c>
-      <c r="F15">
-        <v>-3</v>
-      </c>
-      <c r="G15">
-        <v>-11</v>
-      </c>
-      <c r="H15">
-        <v>-12</v>
-      </c>
-      <c r="I15" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="I15">
+        <v>-10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -5735,11 +5852,14 @@
       <c r="H16">
         <v>-14</v>
       </c>
-      <c r="I16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="I16">
+        <v>-11</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -5764,66 +5884,75 @@
       <c r="H17">
         <v>-19</v>
       </c>
-      <c r="I17" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+      <c r="I17">
+        <v>-22</v>
+      </c>
+      <c r="J17" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>-7</v>
+      </c>
+      <c r="C18">
+        <v>-8</v>
+      </c>
+      <c r="D18">
+        <v>-12</v>
+      </c>
+      <c r="E18">
+        <v>-19</v>
+      </c>
+      <c r="F18">
+        <v>-23</v>
+      </c>
+      <c r="G18">
+        <v>-28</v>
+      </c>
+      <c r="H18">
+        <v>-31</v>
+      </c>
+      <c r="I18">
+        <v>-32</v>
+      </c>
+      <c r="J18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>-6</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>-13</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>-11</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>-22</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>-27</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>-29</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>-27</v>
       </c>
-      <c r="I18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19">
-        <v>-7</v>
-      </c>
-      <c r="C19">
-        <v>-8</v>
-      </c>
-      <c r="D19">
-        <v>-12</v>
-      </c>
-      <c r="E19">
-        <v>-19</v>
-      </c>
-      <c r="F19">
-        <v>-23</v>
-      </c>
-      <c r="G19">
-        <v>-28</v>
-      </c>
-      <c r="H19">
-        <v>-31</v>
-      </c>
-      <c r="I19" t="s">
-        <v>134</v>
+      <c r="I19">
+        <v>-36</v>
+      </c>
+      <c r="J19" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5833,7 +5962,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5841,25 +5970,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -5971,25 +6100,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E6">
+        <v>37</v>
+      </c>
+      <c r="F6">
         <v>13</v>
       </c>
-      <c r="F6">
-        <v>-5</v>
-      </c>
       <c r="G6">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H6" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5997,51 +6126,25 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4</v>
-      </c>
       <c r="E7">
-        <v>-7</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>-5</v>
       </c>
       <c r="G7">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>17</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>10</v>
-      </c>
-      <c r="H8" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Girl's Room 💞🏈 2025.xlsx
+++ b/leagues/The Girl's Room 💞🏈 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="153">
   <si>
     <t>Tush Push Director 🍑</t>
   </si>
@@ -78,37 +78,40 @@
     <t>Lamb of Goedert</t>
   </si>
   <si>
-    <t>5-3-0</t>
-  </si>
-  <si>
-    <t>6-2-0</t>
-  </si>
-  <si>
-    <t>3-5-0</t>
-  </si>
-  <si>
-    <t>8-0-0</t>
-  </si>
-  <si>
-    <t>4-4-0</t>
-  </si>
-  <si>
-    <t>7-1-0</t>
-  </si>
-  <si>
-    <t>3-4-1</t>
-  </si>
-  <si>
-    <t>1-7-0</t>
-  </si>
-  <si>
-    <t>2-6-0</t>
-  </si>
-  <si>
-    <t>0-8-0</t>
-  </si>
-  <si>
-    <t>1-6-1</t>
+    <t>6-3-0</t>
+  </si>
+  <si>
+    <t>7-2-0</t>
+  </si>
+  <si>
+    <t>4-5-0</t>
+  </si>
+  <si>
+    <t>9-0-0</t>
+  </si>
+  <si>
+    <t>3-6-0</t>
+  </si>
+  <si>
+    <t>5-4-0</t>
+  </si>
+  <si>
+    <t>4-4-1</t>
+  </si>
+  <si>
+    <t>2-7-0</t>
+  </si>
+  <si>
+    <t>1-8-0</t>
+  </si>
+  <si>
+    <t>8-1-0</t>
+  </si>
+  <si>
+    <t>2-6-1</t>
+  </si>
+  <si>
+    <t>0-9-0</t>
   </si>
   <si>
     <t>Teams</t>
@@ -213,6 +216,9 @@
     <t>Week_9</t>
   </si>
   <si>
+    <t>Week_10</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -237,76 +243,76 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-1</t>
-  </si>
-  <si>
-    <t>6-2</t>
-  </si>
-  <si>
-    <t>5-3</t>
-  </si>
-  <si>
-    <t>4-4</t>
-  </si>
-  <si>
-    <t>3-5</t>
-  </si>
-  <si>
-    <t>2-6</t>
-  </si>
-  <si>
-    <t>11.3-3.7-0.1</t>
-  </si>
-  <si>
-    <t>10.5-4.5-0.1</t>
-  </si>
-  <si>
-    <t>10.6-4.4-0.1</t>
-  </si>
-  <si>
-    <t>9.8-5.1-0.1</t>
-  </si>
-  <si>
-    <t>9.1-5.8-0.1</t>
-  </si>
-  <si>
-    <t>9.0-6.0-0.1</t>
-  </si>
-  <si>
-    <t>8.6-6.3-0.1</t>
-  </si>
-  <si>
-    <t>7.8-7.2-0.1</t>
-  </si>
-  <si>
-    <t>7.2-6.7-1.0</t>
-  </si>
-  <si>
-    <t>6.7-7.2-1.1</t>
-  </si>
-  <si>
-    <t>6.7-8.2-0.1</t>
+    <t>7-2</t>
+  </si>
+  <si>
+    <t>6-3</t>
+  </si>
+  <si>
+    <t>5-4</t>
+  </si>
+  <si>
+    <t>4-5</t>
+  </si>
+  <si>
+    <t>3-6</t>
+  </si>
+  <si>
+    <t>2-7</t>
+  </si>
+  <si>
+    <t>11.1-3.8</t>
+  </si>
+  <si>
+    <t>10.8-4.2</t>
+  </si>
+  <si>
+    <t>10.2-4.8</t>
+  </si>
+  <si>
+    <t>9.7-5.3-0.1</t>
+  </si>
+  <si>
+    <t>9.1-5.8</t>
+  </si>
+  <si>
+    <t>8.7-6.3</t>
+  </si>
+  <si>
+    <t>8.2-6.8</t>
+  </si>
+  <si>
+    <t>8.4-6.6-0.1</t>
+  </si>
+  <si>
+    <t>7.6-6.3-1.0</t>
+  </si>
+  <si>
+    <t>7.4-6.6-1.0</t>
+  </si>
+  <si>
+    <t>6.6-8.3</t>
   </si>
   <si>
     <t>6.0-9.0</t>
   </si>
   <si>
-    <t>5.6-9.3-0.1</t>
-  </si>
-  <si>
-    <t>5.8-9.1-0.1</t>
-  </si>
-  <si>
-    <t>5.0-9.9-0.1</t>
-  </si>
-  <si>
-    <t>5.4-9.6-0.1</t>
-  </si>
-  <si>
-    <t>4.2-10.7-0.1</t>
-  </si>
-  <si>
-    <t>12-3</t>
+    <t>6.2-8.7-0.1</t>
+  </si>
+  <si>
+    <t>5.5-9.5</t>
+  </si>
+  <si>
+    <t>5.2-9.7</t>
+  </si>
+  <si>
+    <t>5.0-10.0</t>
+  </si>
+  <si>
+    <t>4.1-10.9</t>
+  </si>
+  <si>
+    <t>3.9-11.0</t>
   </si>
   <si>
     <t>11-4</t>
@@ -321,6 +327,9 @@
     <t>8-7</t>
   </si>
   <si>
+    <t>8-6-1</t>
+  </si>
+  <si>
     <t>7-7-1</t>
   </si>
   <si>
@@ -357,39 +366,39 @@
     <t>Lily Lamb</t>
   </si>
   <si>
+    <t>Amanda Pasquale</t>
+  </si>
+  <si>
+    <t>Hillary Dale</t>
+  </si>
+  <si>
+    <t>Rebecca Schneider</t>
+  </si>
+  <si>
+    <t>Sumita Gangwani</t>
+  </si>
+  <si>
     <t>Shae Marx</t>
   </si>
   <si>
-    <t>Amanda Pasquale</t>
-  </si>
-  <si>
-    <t>Rebecca Schneider</t>
-  </si>
-  <si>
-    <t>Hillary Dale</t>
-  </si>
-  <si>
-    <t>Sumita Gangwani</t>
-  </si>
-  <si>
     <t>Grace Stockbower</t>
   </si>
   <si>
+    <t>Emily Carey</t>
+  </si>
+  <si>
     <t>Faith Pon</t>
   </si>
   <si>
+    <t>Nikki Papalia</t>
+  </si>
+  <si>
+    <t>Allie Kardon</t>
+  </si>
+  <si>
     <t>Hannah Miller</t>
   </si>
   <si>
-    <t>Emily Carey</t>
-  </si>
-  <si>
-    <t>Nikki Papalia</t>
-  </si>
-  <si>
-    <t>Allie Kardon</t>
-  </si>
-  <si>
     <t>Swathi Veeravalli</t>
   </si>
   <si>
@@ -399,48 +408,33 @@
     <t>Nicole Coppins</t>
   </si>
   <si>
-    <t>↑7</t>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓8</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑3</t>
   </si>
   <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑6</t>
+    <t>↓7</t>
   </si>
   <si>
     <t>↑2</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -463,6 +457,9 @@
   </si>
   <si>
     <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
   </si>
   <si>
     <t>Week</t>
@@ -917,10 +914,10 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -956,10 +953,10 @@
         <v>18</v>
       </c>
       <c r="R2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -979,31 +976,31 @@
         <v>28</v>
       </c>
       <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>26</v>
-      </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O3" t="s">
         <v>18</v>
@@ -1012,13 +1009,13 @@
         <v>18</v>
       </c>
       <c r="Q3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="R3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1038,16 +1035,16 @@
         <v>25</v>
       </c>
       <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
@@ -1056,28 +1053,28 @@
         <v>20</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" t="s">
         <v>20</v>
       </c>
       <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" t="s">
         <v>22</v>
       </c>
-      <c r="O4" t="s">
+      <c r="R4" t="s">
+        <v>23</v>
+      </c>
+      <c r="S4" t="s">
         <v>22</v>
-      </c>
-      <c r="P4" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1103,7 +1100,7 @@
         <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
         <v>18</v>
@@ -1112,13 +1109,13 @@
         <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
         <v>18</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s">
         <v>19</v>
@@ -1133,7 +1130,7 @@
         <v>19</v>
       </c>
       <c r="R5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="S5" t="s">
         <v>20</v>
@@ -1144,58 +1141,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
+      <c r="L6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="M6" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="N6" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
+      <c r="P6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" t="s">
+      <c r="R6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S6" t="s">
         <v>26</v>
-      </c>
-      <c r="I6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" t="s">
-        <v>22</v>
-      </c>
-      <c r="P6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1203,10 +1200,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -1215,46 +1212,46 @@
         <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K7" t="s">
         <v>20</v>
       </c>
       <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" t="s">
         <v>22</v>
       </c>
-      <c r="M7" t="s">
-        <v>22</v>
-      </c>
-      <c r="N7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" t="s">
+      <c r="Q7" t="s">
         <v>20</v>
       </c>
-      <c r="Q7" t="s">
-        <v>22</v>
-      </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1262,58 +1259,58 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>26</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
         <v>22</v>
       </c>
-      <c r="K8" t="s">
-        <v>20</v>
-      </c>
       <c r="L8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M8" t="s">
         <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" t="s">
-        <v>22</v>
-      </c>
       <c r="R8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1321,10 +1318,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -1333,22 +1330,22 @@
         <v>25</v>
       </c>
       <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
         <v>20</v>
       </c>
-      <c r="G9" t="s">
-        <v>22</v>
-      </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
         <v>18</v>
@@ -1357,22 +1354,22 @@
         <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Q9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="S9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1392,7 +1389,7 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -1410,10 +1407,10 @@
         <v>19</v>
       </c>
       <c r="L10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" t="s">
         <v>19</v>
@@ -1425,13 +1422,13 @@
         <v>19</v>
       </c>
       <c r="Q10" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="R10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1439,34 +1436,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
         <v>25</v>
       </c>
       <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>22</v>
-      </c>
-      <c r="H11" t="s">
-        <v>26</v>
       </c>
       <c r="I11" t="s">
         <v>20</v>
       </c>
       <c r="J11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" t="s">
         <v>22</v>
-      </c>
-      <c r="K11" t="s">
-        <v>26</v>
       </c>
       <c r="L11" t="s">
         <v>18</v>
@@ -1478,7 +1475,7 @@
         <v>18</v>
       </c>
       <c r="O11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P11" t="s">
         <v>20</v>
@@ -1487,10 +1484,10 @@
         <v>18</v>
       </c>
       <c r="R11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="S11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1507,16 +1504,16 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
         <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
         <v>19</v>
@@ -1528,13 +1525,13 @@
         <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O12" t="s">
         <v>19</v>
@@ -1543,13 +1540,13 @@
         <v>19</v>
       </c>
       <c r="Q12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R12" t="s">
         <v>20</v>
       </c>
       <c r="S12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1557,58 +1554,58 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E13" t="s">
         <v>25</v>
       </c>
       <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
         <v>20</v>
       </c>
-      <c r="G13" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>22</v>
       </c>
-      <c r="I13" t="s">
-        <v>20</v>
-      </c>
       <c r="J13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" t="s">
         <v>22</v>
       </c>
-      <c r="K13" t="s">
-        <v>20</v>
-      </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="O13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" t="s">
         <v>22</v>
       </c>
-      <c r="P13" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>20</v>
-      </c>
       <c r="R13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1616,28 +1613,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="J14" t="s">
         <v>21</v>
@@ -1658,16 +1655,16 @@
         <v>19</v>
       </c>
       <c r="P14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" t="s">
         <v>19</v>
       </c>
-      <c r="Q14" t="s">
-        <v>23</v>
-      </c>
       <c r="R14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="S14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1675,58 +1672,58 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
         <v>19</v>
       </c>
-      <c r="G15" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="L15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N15" t="s">
+        <v>23</v>
+      </c>
+      <c r="O15" t="s">
         <v>19</v>
       </c>
-      <c r="I15" t="s">
+      <c r="P15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R15" t="s">
         <v>19</v>
       </c>
-      <c r="J15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" t="s">
-        <v>19</v>
-      </c>
-      <c r="M15" t="s">
-        <v>19</v>
-      </c>
-      <c r="N15" t="s">
-        <v>18</v>
-      </c>
-      <c r="O15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" t="s">
-        <v>23</v>
-      </c>
       <c r="S15" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1734,58 +1731,58 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
         <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I16" t="s">
-        <v>23</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O16" t="s">
         <v>19</v>
       </c>
       <c r="P16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1793,40 +1790,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
         <v>25</v>
       </c>
-      <c r="G17" t="s">
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17" t="s">
         <v>25</v>
       </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" t="s">
-        <v>26</v>
-      </c>
       <c r="L17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N17" t="s">
         <v>25</v>
@@ -1835,16 +1832,16 @@
         <v>20</v>
       </c>
       <c r="P17" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q17" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" t="s">
-        <v>26</v>
-      </c>
       <c r="R17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="S17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1852,58 +1849,58 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G18" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" t="s">
         <v>26</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" t="s">
         <v>25</v>
-      </c>
-      <c r="I18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L18" t="s">
-        <v>26</v>
       </c>
       <c r="M18" t="s">
         <v>25</v>
       </c>
       <c r="N18" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>22</v>
+      </c>
+      <c r="R18" t="s">
         <v>25</v>
       </c>
-      <c r="O18" t="s">
+      <c r="S18" t="s">
         <v>26</v>
-      </c>
-      <c r="P18" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" t="s">
-        <v>26</v>
-      </c>
-      <c r="S18" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1911,58 +1908,58 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E19" t="s">
         <v>25</v>
       </c>
       <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" t="s">
         <v>22</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J19" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" t="s">
         <v>22</v>
       </c>
-      <c r="H19" t="s">
+      <c r="L19" t="s">
         <v>20</v>
       </c>
-      <c r="I19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="M19" t="s">
+        <v>25</v>
+      </c>
+      <c r="N19" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" t="s">
+        <v>23</v>
+      </c>
+      <c r="P19" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q19" t="s">
         <v>20</v>
       </c>
-      <c r="L19" t="s">
+      <c r="R19" t="s">
+        <v>20</v>
+      </c>
+      <c r="S19" t="s">
         <v>22</v>
-      </c>
-      <c r="M19" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" t="s">
-        <v>18</v>
-      </c>
-      <c r="O19" t="s">
-        <v>18</v>
-      </c>
-      <c r="P19" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S19" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1980,13 +1977,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1997,7 +1994,7 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>1.722222222222222</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="D2" t="s">
         <v>24</v>
@@ -2011,10 +2008,10 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>2.722222222222222</v>
+        <v>2.888888888888889</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2025,7 +2022,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3.111111111111111</v>
+        <v>3.777777777777778</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -2036,13 +2033,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>3.5</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2050,13 +2047,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>3.555555555555555</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2064,13 +2061,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>3.888888888888889</v>
+        <v>4.222222222222222</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2078,10 +2075,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>3.888888888888889</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -2092,13 +2089,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2106,13 +2103,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>4.055555555555555</v>
+        <v>4.388888888888889</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2120,13 +2117,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C11">
-        <v>4.055555555555555</v>
+        <v>4.611111111111111</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2137,10 +2134,10 @@
         <v>9</v>
       </c>
       <c r="C12">
-        <v>4.111111111111111</v>
+        <v>4.611111111111111</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2148,13 +2145,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>4.277777777777778</v>
+        <v>4.611111111111111</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2162,13 +2159,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>4.555555555555555</v>
+        <v>4.888888888888889</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2179,10 +2176,10 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>4.611111111111111</v>
+        <v>4.888888888888889</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2190,13 +2187,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>4.722222222222222</v>
+        <v>5.5</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2204,10 +2201,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C17">
-        <v>4.944444444444445</v>
+        <v>5.5</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
@@ -2218,13 +2215,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2232,13 +2229,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>5.166666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2256,16 +2253,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2276,10 +2273,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>6.611111111111111</v>
+        <v>7.166666666666667</v>
       </c>
       <c r="D2">
-        <v>0.6111111111111107</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
@@ -2290,16 +2287,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>5.833333333333333</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D3">
-        <v>-1.166666666666667</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2307,16 +2304,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>5.444444444444445</v>
+        <v>6.055555555555555</v>
       </c>
       <c r="D4">
-        <v>-0.5555555555555554</v>
+        <v>0.05555555555555536</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2324,16 +2321,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C5">
-        <v>5.222222222222222</v>
+        <v>5.944444444444445</v>
       </c>
       <c r="D5">
-        <v>0.2222222222222223</v>
+        <v>-1.055555555555555</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2341,16 +2338,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>4.944444444444445</v>
+        <v>5.722222222222222</v>
       </c>
       <c r="D6">
-        <v>-1.055555555555555</v>
+        <v>1.722222222222222</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2358,16 +2355,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>4.777777777777778</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D7">
-        <v>1.777777777777778</v>
+        <v>0.5555555555555554</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2375,16 +2372,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>4.555555555555555</v>
+        <v>5.222222222222222</v>
       </c>
       <c r="D8">
-        <v>0.5555555555555554</v>
+        <v>-0.7777777777777777</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2395,10 +2392,10 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>4.5</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D9">
-        <v>1.5</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E9" t="s">
         <v>24</v>
@@ -2412,13 +2409,13 @@
         <v>7</v>
       </c>
       <c r="C10">
-        <v>4.166666666666667</v>
+        <v>4.555555555555555</v>
       </c>
       <c r="D10">
-        <v>-1.833333333333333</v>
+        <v>-1.444444444444445</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2426,16 +2423,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>3.888888888888889</v>
+        <v>4.388888888888889</v>
       </c>
       <c r="D11">
-        <v>0.8888888888888888</v>
+        <v>-0.6111111111111107</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2443,16 +2440,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C12">
-        <v>3.833333333333333</v>
+        <v>4.222222222222222</v>
       </c>
       <c r="D12">
-        <v>-1.166666666666667</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2460,16 +2457,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>3.444444444444445</v>
+        <v>3.944444444444445</v>
       </c>
       <c r="D13">
-        <v>1.444444444444445</v>
+        <v>0.9444444444444446</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2480,10 +2477,10 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>3.111111111111111</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="D14">
-        <v>0.1111111111111112</v>
+        <v>-0.1666666666666665</v>
       </c>
       <c r="E14" t="s">
         <v>20</v>
@@ -2494,16 +2491,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C15">
-        <v>2.944444444444445</v>
+        <v>3.166666666666667</v>
       </c>
       <c r="D15">
-        <v>-0.05555555555555536</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2511,16 +2508,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>2.888888888888889</v>
+        <v>3.111111111111111</v>
       </c>
       <c r="D16">
-        <v>0.8888888888888888</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2537,7 +2534,7 @@
         <v>-0.7777777777777777</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2548,13 +2545,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.888888888888889</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="D18">
-        <v>-0.1111111111111112</v>
+        <v>0.2222222222222223</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2565,13 +2562,13 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>1.611111111111111</v>
+        <v>2.055555555555555</v>
       </c>
       <c r="D19">
-        <v>-0.3888888888888888</v>
+        <v>0.05555555555555536</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2589,105 +2586,105 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>47.2</v>
+        <v>35.9</v>
       </c>
       <c r="C2">
-        <v>21.3</v>
+        <v>32.6</v>
       </c>
       <c r="D2">
-        <v>14.2</v>
+        <v>15.3</v>
       </c>
       <c r="E2">
-        <v>8.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="F2">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="G2">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="H2">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -2708,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2716,37 +2713,37 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>27.4</v>
+        <v>36.6</v>
       </c>
       <c r="C3">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="D3">
         <v>18</v>
       </c>
       <c r="E3">
-        <v>12.2</v>
+        <v>9.4</v>
       </c>
       <c r="F3">
-        <v>8.4</v>
+        <v>5.6</v>
       </c>
       <c r="G3">
-        <v>5.4</v>
+        <v>3.1</v>
       </c>
       <c r="H3">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="I3">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="J3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="K3">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -2770,48 +2767,48 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>95.09999999999999</v>
+        <v>96.5</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>15.2</v>
+        <v>16.7</v>
       </c>
       <c r="C4">
-        <v>27.7</v>
+        <v>18.6</v>
       </c>
       <c r="D4">
-        <v>21.2</v>
+        <v>19.3</v>
       </c>
       <c r="E4">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="F4">
-        <v>10.2</v>
+        <v>11.1</v>
       </c>
       <c r="G4">
-        <v>5.1</v>
+        <v>7.9</v>
       </c>
       <c r="H4">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="I4">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="J4">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0.4</v>
       </c>
-      <c r="L4">
-        <v>0.3</v>
-      </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2832,51 +2829,51 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>93.90000000000001</v>
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>5.7</v>
+        <v>7.6</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>12.6</v>
       </c>
       <c r="D5">
-        <v>17.4</v>
+        <v>18.8</v>
       </c>
       <c r="E5">
         <v>18.1</v>
       </c>
       <c r="F5">
-        <v>17.1</v>
+        <v>15.2</v>
       </c>
       <c r="G5">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="H5">
-        <v>8.9</v>
+        <v>6.4</v>
       </c>
       <c r="I5">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="J5">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="K5">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="L5">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="M5">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="N5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0.1</v>
@@ -2894,54 +2891,54 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>80.5</v>
+        <v>83.3</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="C6">
-        <v>8.300000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="D6">
-        <v>11.4</v>
+        <v>9.1</v>
       </c>
       <c r="E6">
-        <v>15.7</v>
+        <v>14.8</v>
       </c>
       <c r="F6">
-        <v>16.8</v>
+        <v>14.1</v>
       </c>
       <c r="G6">
-        <v>13.1</v>
+        <v>14.9</v>
       </c>
       <c r="H6">
-        <v>10.8</v>
+        <v>13.4</v>
       </c>
       <c r="I6">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J6">
-        <v>6.4</v>
+        <v>7.2</v>
       </c>
       <c r="K6">
-        <v>2.7</v>
+        <v>5.5</v>
       </c>
       <c r="L6">
-        <v>1.5</v>
+        <v>3.4</v>
       </c>
       <c r="M6">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="N6">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="O6">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -2956,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>67.5</v>
+        <v>58.9</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -2964,49 +2961,49 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="C7">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D7">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="E7">
-        <v>11.4</v>
+        <v>6.8</v>
       </c>
       <c r="F7">
-        <v>10.9</v>
+        <v>11.5</v>
       </c>
       <c r="G7">
-        <v>15.6</v>
+        <v>12.1</v>
       </c>
       <c r="H7">
-        <v>15.1</v>
+        <v>13.5</v>
       </c>
       <c r="I7">
-        <v>11.5</v>
+        <v>13.7</v>
       </c>
       <c r="J7">
-        <v>8.300000000000001</v>
+        <v>11.7</v>
       </c>
       <c r="K7">
-        <v>7.1</v>
+        <v>10</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="M7">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="N7">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="O7">
         <v>0.4</v>
       </c>
       <c r="P7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -3018,60 +3015,60 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>50.8</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>0.7</v>
+      </c>
+      <c r="C8">
+        <v>1.7</v>
+      </c>
+      <c r="D8">
+        <v>4.4</v>
+      </c>
+      <c r="E8">
+        <v>8.4</v>
+      </c>
+      <c r="F8">
+        <v>10.1</v>
+      </c>
+      <c r="G8">
+        <v>12.5</v>
+      </c>
+      <c r="H8">
+        <v>12.1</v>
+      </c>
+      <c r="I8">
+        <v>12.5</v>
+      </c>
+      <c r="J8">
+        <v>10.6</v>
+      </c>
+      <c r="K8">
+        <v>10.4</v>
+      </c>
+      <c r="L8">
+        <v>5.7</v>
+      </c>
+      <c r="M8">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="N8">
+        <v>4.6</v>
+      </c>
+      <c r="O8">
+        <v>0.9</v>
+      </c>
+      <c r="P8">
         <v>0.3</v>
       </c>
-      <c r="C8">
-        <v>2.6</v>
-      </c>
-      <c r="D8">
-        <v>4.1</v>
-      </c>
-      <c r="E8">
-        <v>8.9</v>
-      </c>
-      <c r="F8">
-        <v>10.4</v>
-      </c>
-      <c r="G8">
-        <v>14.3</v>
-      </c>
-      <c r="H8">
-        <v>14.9</v>
-      </c>
-      <c r="I8">
-        <v>13.3</v>
-      </c>
-      <c r="J8">
-        <v>12.1</v>
-      </c>
-      <c r="K8">
-        <v>6.8</v>
-      </c>
-      <c r="L8">
-        <v>4.9</v>
-      </c>
-      <c r="M8">
-        <v>3.2</v>
-      </c>
-      <c r="N8">
-        <v>2.3</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>0.7</v>
-      </c>
       <c r="Q8">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -3080,69 +3077,69 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>40.6</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>3.4</v>
+        <v>5.6</v>
       </c>
       <c r="F9">
-        <v>6.3</v>
+        <v>10.9</v>
       </c>
       <c r="G9">
-        <v>12.1</v>
+        <v>12.7</v>
       </c>
       <c r="H9">
-        <v>12.8</v>
+        <v>13.4</v>
       </c>
       <c r="I9">
-        <v>14.3</v>
+        <v>13.7</v>
       </c>
       <c r="J9">
-        <v>12.8</v>
+        <v>11.1</v>
       </c>
       <c r="K9">
-        <v>12.4</v>
+        <v>11.5</v>
       </c>
       <c r="L9">
-        <v>7.5</v>
+        <v>8.9</v>
       </c>
       <c r="M9">
-        <v>6.8</v>
+        <v>5.3</v>
       </c>
       <c r="N9">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="O9">
-        <v>2.8</v>
+        <v>1.2</v>
       </c>
       <c r="P9">
-        <v>1.3</v>
+        <v>0.1</v>
       </c>
       <c r="Q9">
-        <v>0.9</v>
+        <v>0.1</v>
       </c>
       <c r="R9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>24.4</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -3150,61 +3147,61 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="D10">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="E10">
-        <v>3.2</v>
+        <v>6.3</v>
       </c>
       <c r="F10">
-        <v>6.9</v>
+        <v>7.7</v>
       </c>
       <c r="G10">
-        <v>9.5</v>
+        <v>12.1</v>
       </c>
       <c r="H10">
-        <v>11.8</v>
+        <v>12.5</v>
       </c>
       <c r="I10">
-        <v>14.7</v>
+        <v>11.9</v>
       </c>
       <c r="J10">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K10">
-        <v>13</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="L10">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="M10">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="O10">
-        <v>3.3</v>
+        <v>1.6</v>
       </c>
       <c r="P10">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="Q10">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="R10">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="S10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>22.3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -3215,125 +3212,125 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="E11">
-        <v>2.1</v>
+        <v>5.1</v>
       </c>
       <c r="F11">
-        <v>4.2</v>
+        <v>7.4</v>
       </c>
       <c r="G11">
-        <v>4.7</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>7</v>
+        <v>11.6</v>
       </c>
       <c r="I11">
-        <v>10.4</v>
+        <v>13.3</v>
       </c>
       <c r="J11">
-        <v>13.4</v>
+        <v>14.2</v>
       </c>
       <c r="K11">
-        <v>14.8</v>
+        <v>14.3</v>
       </c>
       <c r="L11">
-        <v>14.4</v>
+        <v>10.3</v>
       </c>
       <c r="M11">
-        <v>9.1</v>
+        <v>5.8</v>
       </c>
       <c r="N11">
-        <v>7.7</v>
+        <v>3.8</v>
       </c>
       <c r="O11">
-        <v>3.9</v>
+        <v>2.4</v>
       </c>
       <c r="P11">
-        <v>3.4</v>
+        <v>0.8</v>
       </c>
       <c r="Q11">
-        <v>1.8</v>
+        <v>0.4</v>
       </c>
       <c r="R11">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="S11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>12.9</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E12">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="F12">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="G12">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="H12">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="I12">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="J12">
-        <v>11.2</v>
+        <v>7.6</v>
       </c>
       <c r="K12">
-        <v>14.6</v>
+        <v>11.4</v>
       </c>
       <c r="L12">
-        <v>12.7</v>
+        <v>15.1</v>
       </c>
       <c r="M12">
-        <v>14.2</v>
+        <v>16.7</v>
       </c>
       <c r="N12">
-        <v>10.1</v>
+        <v>13.1</v>
       </c>
       <c r="O12">
-        <v>7.2</v>
+        <v>10</v>
       </c>
       <c r="P12">
-        <v>3.8</v>
+        <v>7.3</v>
       </c>
       <c r="Q12">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="R12">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="S12">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="T12">
-        <v>9.6</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3342,13 +3339,13 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="F13">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
         <v>0.9</v>
@@ -3357,45 +3354,45 @@
         <v>2.4</v>
       </c>
       <c r="I13">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="J13">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="K13">
-        <v>7.8</v>
+        <v>8.6</v>
       </c>
       <c r="L13">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="M13">
-        <v>11.1</v>
+        <v>14.1</v>
       </c>
       <c r="N13">
-        <v>14.8</v>
+        <v>17.3</v>
       </c>
       <c r="O13">
-        <v>15.3</v>
+        <v>14.1</v>
       </c>
       <c r="P13">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="Q13">
-        <v>9.6</v>
+        <v>5</v>
       </c>
       <c r="R13">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="T13">
-        <v>1.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3404,60 +3401,60 @@
         <v>0</v>
       </c>
       <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.2</v>
+      </c>
+      <c r="F14">
+        <v>0.2</v>
+      </c>
+      <c r="G14">
+        <v>1.5</v>
+      </c>
+      <c r="H14">
+        <v>2.8</v>
+      </c>
+      <c r="I14">
+        <v>4.3</v>
+      </c>
+      <c r="J14">
+        <v>6.9</v>
+      </c>
+      <c r="K14">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="L14">
+        <v>16.6</v>
+      </c>
+      <c r="M14">
+        <v>16.9</v>
+      </c>
+      <c r="N14">
+        <v>15.4</v>
+      </c>
+      <c r="O14">
+        <v>11.4</v>
+      </c>
+      <c r="P14">
+        <v>7.7</v>
+      </c>
+      <c r="Q14">
+        <v>4.8</v>
+      </c>
+      <c r="R14">
+        <v>1.8</v>
+      </c>
+      <c r="S14">
         <v>0.3</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0.3</v>
-      </c>
-      <c r="G14">
-        <v>0.6</v>
-      </c>
-      <c r="H14">
-        <v>1.7</v>
-      </c>
-      <c r="I14">
-        <v>2.1</v>
-      </c>
-      <c r="J14">
-        <v>3.3</v>
-      </c>
-      <c r="K14">
-        <v>4</v>
-      </c>
-      <c r="L14">
-        <v>8</v>
-      </c>
-      <c r="M14">
-        <v>11.3</v>
-      </c>
-      <c r="N14">
-        <v>14.1</v>
-      </c>
-      <c r="O14">
-        <v>12</v>
-      </c>
-      <c r="P14">
-        <v>14.7</v>
-      </c>
-      <c r="Q14">
-        <v>13.7</v>
-      </c>
-      <c r="R14">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="S14">
-        <v>4.7</v>
-      </c>
       <c r="T14">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3469,57 +3466,57 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <v>0.2</v>
       </c>
       <c r="G15">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H15">
-        <v>2.2</v>
+        <v>0.2</v>
       </c>
       <c r="I15">
-        <v>3.7</v>
+        <v>1.1</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="K15">
-        <v>7.9</v>
+        <v>2.8</v>
       </c>
       <c r="L15">
-        <v>11.3</v>
+        <v>6.5</v>
       </c>
       <c r="M15">
-        <v>14.6</v>
+        <v>10.4</v>
       </c>
       <c r="N15">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="O15">
-        <v>12.8</v>
+        <v>14.3</v>
       </c>
       <c r="P15">
-        <v>8.800000000000001</v>
+        <v>18.9</v>
       </c>
       <c r="Q15">
-        <v>8.199999999999999</v>
+        <v>13.4</v>
       </c>
       <c r="R15">
-        <v>6.7</v>
+        <v>9</v>
       </c>
       <c r="S15">
-        <v>2.9</v>
+        <v>6.6</v>
       </c>
       <c r="T15">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3531,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>0.2</v>
@@ -3543,40 +3540,40 @@
         <v>0.2</v>
       </c>
       <c r="I16">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="J16">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="K16">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="M16">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="N16">
-        <v>10.3</v>
+        <v>11.4</v>
       </c>
       <c r="O16">
-        <v>13.7</v>
+        <v>16</v>
       </c>
       <c r="P16">
-        <v>16.9</v>
+        <v>20.3</v>
       </c>
       <c r="Q16">
-        <v>14.2</v>
+        <v>19.4</v>
       </c>
       <c r="R16">
-        <v>13.9</v>
+        <v>11.9</v>
       </c>
       <c r="S16">
-        <v>12.1</v>
+        <v>5.1</v>
       </c>
       <c r="T16">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -3593,52 +3590,52 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0.2</v>
       </c>
       <c r="I17">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="J17">
-        <v>2.9</v>
+        <v>0.4</v>
       </c>
       <c r="K17">
-        <v>3.6</v>
+        <v>1.3</v>
       </c>
       <c r="L17">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="M17">
-        <v>7.3</v>
+        <v>4.6</v>
       </c>
       <c r="N17">
-        <v>9.4</v>
+        <v>7.4</v>
       </c>
       <c r="O17">
-        <v>15.1</v>
+        <v>12.4</v>
       </c>
       <c r="P17">
-        <v>16.9</v>
+        <v>15</v>
       </c>
       <c r="Q17">
-        <v>15.5</v>
+        <v>19.6</v>
       </c>
       <c r="R17">
-        <v>14.6</v>
+        <v>20.3</v>
       </c>
       <c r="S17">
-        <v>7.5</v>
+        <v>15.9</v>
       </c>
       <c r="T17">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -3664,40 +3661,40 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0.1</v>
       </c>
       <c r="J18">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="K18">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="L18">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="M18">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="N18">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="O18">
-        <v>5.5</v>
+        <v>7.9</v>
       </c>
       <c r="P18">
-        <v>9.1</v>
+        <v>8.6</v>
       </c>
       <c r="Q18">
-        <v>14.5</v>
+        <v>15.3</v>
       </c>
       <c r="R18">
-        <v>21.2</v>
+        <v>24.9</v>
       </c>
       <c r="S18">
-        <v>40.4</v>
+        <v>37.2</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -3729,37 +3726,37 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>0.4</v>
       </c>
-      <c r="K19">
-        <v>0.9</v>
-      </c>
-      <c r="L19">
-        <v>1.6</v>
-      </c>
       <c r="M19">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="N19">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="O19">
-        <v>6.4</v>
+        <v>7.3</v>
       </c>
       <c r="P19">
-        <v>11.9</v>
+        <v>10.3</v>
       </c>
       <c r="Q19">
-        <v>17.5</v>
+        <v>18.8</v>
       </c>
       <c r="R19">
         <v>26.2</v>
       </c>
       <c r="S19">
-        <v>29.9</v>
+        <v>33.3</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -3772,600 +3769,654 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>63</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>21.4</v>
+        <v>93.8</v>
       </c>
       <c r="C2">
-        <v>67.90000000000001</v>
+        <v>85.2</v>
       </c>
       <c r="D2">
-        <v>68.40000000000001</v>
+        <v>60.3</v>
       </c>
       <c r="E2">
-        <v>52.7</v>
+        <v>78.5</v>
       </c>
       <c r="F2">
-        <v>66.40000000000001</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="G2">
-        <v>82.19999999999999</v>
+        <v>81.89999999999999</v>
       </c>
       <c r="H2">
-        <v>90.60000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="I2">
-        <v>96.09999999999999</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="J2">
-        <v>98.40000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>97.5</v>
+      </c>
+      <c r="K2">
+        <v>98.59999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="C3">
-        <v>61.2</v>
+        <v>63.9</v>
       </c>
       <c r="D3">
-        <v>58.09999999999999</v>
+        <v>58.2</v>
       </c>
       <c r="E3">
+        <v>80.80000000000001</v>
+      </c>
+      <c r="F3">
+        <v>83.2</v>
+      </c>
+      <c r="G3">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="H3">
+        <v>91.8</v>
+      </c>
+      <c r="I3">
+        <v>93.40000000000001</v>
+      </c>
+      <c r="J3">
+        <v>95.59999999999999</v>
+      </c>
+      <c r="K3">
+        <v>97.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>20.8</v>
+      </c>
+      <c r="C4">
+        <v>70</v>
+      </c>
+      <c r="D4">
+        <v>69.19999999999999</v>
+      </c>
+      <c r="E4">
+        <v>51.9</v>
+      </c>
+      <c r="F4">
+        <v>62.6</v>
+      </c>
+      <c r="G4">
+        <v>81.3</v>
+      </c>
+      <c r="H4">
+        <v>90.7</v>
+      </c>
+      <c r="I4">
+        <v>96.8</v>
+      </c>
+      <c r="J4">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="K4">
+        <v>87.09999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>39.1</v>
+      </c>
+      <c r="C5">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="D5">
+        <v>41.09999999999999</v>
+      </c>
+      <c r="E5">
+        <v>34.1</v>
+      </c>
+      <c r="F5">
+        <v>61.6</v>
+      </c>
+      <c r="G5">
+        <v>72.8</v>
+      </c>
+      <c r="H5">
+        <v>81.8</v>
+      </c>
+      <c r="I5">
+        <v>62.7</v>
+      </c>
+      <c r="J5">
         <v>81.2</v>
       </c>
-      <c r="F3">
-        <v>82.89999999999999</v>
-      </c>
-      <c r="G3">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="H3">
-        <v>93.5</v>
-      </c>
-      <c r="I3">
-        <v>93.8</v>
-      </c>
-      <c r="J3">
-        <v>95.39999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>93.60000000000001</v>
-      </c>
-      <c r="C4">
-        <v>84.8</v>
-      </c>
-      <c r="D4">
-        <v>58.5</v>
-      </c>
-      <c r="E4">
-        <v>79.40000000000001</v>
-      </c>
-      <c r="F4">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="G4">
-        <v>81.8</v>
-      </c>
-      <c r="H4">
-        <v>92.80000000000001</v>
-      </c>
-      <c r="I4">
-        <v>94.89999999999999</v>
-      </c>
-      <c r="J4">
-        <v>92.7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="1" t="s">
+      <c r="K5">
+        <v>80.80000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>1.1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>9.700000000000001</v>
-      </c>
-      <c r="E5">
-        <v>21.1</v>
-      </c>
-      <c r="F5">
-        <v>34.4</v>
-      </c>
-      <c r="G5">
-        <v>40.9</v>
-      </c>
-      <c r="H5">
-        <v>60.9</v>
-      </c>
-      <c r="I5">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="J5">
-        <v>79.40000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="B6">
-        <v>40.3</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>80.7</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>42.5</v>
+        <v>8.5</v>
       </c>
       <c r="E6">
-        <v>34.1</v>
+        <v>19.2</v>
       </c>
       <c r="F6">
-        <v>61.4</v>
+        <v>34.9</v>
       </c>
       <c r="G6">
-        <v>72.7</v>
+        <v>42</v>
       </c>
       <c r="H6">
-        <v>82</v>
+        <v>56.2</v>
       </c>
       <c r="I6">
-        <v>61.8</v>
+        <v>77.5</v>
       </c>
       <c r="J6">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>58.59999999999999</v>
+      </c>
+      <c r="K6">
+        <v>62.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>29.2</v>
+        <v>29.7</v>
       </c>
       <c r="C7">
+        <v>31.8</v>
+      </c>
+      <c r="D7">
+        <v>8.1</v>
+      </c>
+      <c r="E7">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="F7">
+        <v>31.6</v>
+      </c>
+      <c r="G7">
+        <v>39.5</v>
+      </c>
+      <c r="H7">
+        <v>64.60000000000001</v>
+      </c>
+      <c r="I7">
+        <v>53.2</v>
+      </c>
+      <c r="J7">
+        <v>34.1</v>
+      </c>
+      <c r="K7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>88.5</v>
+      </c>
+      <c r="C8">
+        <v>90</v>
+      </c>
+      <c r="D8">
+        <v>12.9</v>
+      </c>
+      <c r="E8">
+        <v>36.4</v>
+      </c>
+      <c r="F8">
+        <v>19.6</v>
+      </c>
+      <c r="G8">
+        <v>10.3</v>
+      </c>
+      <c r="H8">
+        <v>11.3</v>
+      </c>
+      <c r="I8">
+        <v>21.7</v>
+      </c>
+      <c r="J8">
+        <v>42.4</v>
+      </c>
+      <c r="K8">
+        <v>38.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>33.8</v>
+      </c>
+      <c r="D9">
+        <v>48.7</v>
+      </c>
+      <c r="E9">
+        <v>36.8</v>
+      </c>
+      <c r="F9">
+        <v>42.8</v>
+      </c>
+      <c r="G9">
+        <v>62.8</v>
+      </c>
+      <c r="H9">
         <v>30.3</v>
       </c>
-      <c r="D7">
-        <v>8.6</v>
-      </c>
-      <c r="E7">
-        <v>7.8</v>
-      </c>
-      <c r="F7">
-        <v>31.3</v>
-      </c>
-      <c r="G7">
-        <v>38.2</v>
-      </c>
-      <c r="H7">
-        <v>65.8</v>
-      </c>
-      <c r="I7">
-        <v>53.3</v>
-      </c>
-      <c r="J7">
-        <v>52.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>16.7</v>
-      </c>
-      <c r="C8">
-        <v>33</v>
-      </c>
-      <c r="D8">
-        <v>47.5</v>
-      </c>
-      <c r="E8">
-        <v>40.40000000000001</v>
-      </c>
-      <c r="F8">
-        <v>41.8</v>
-      </c>
-      <c r="G8">
-        <v>62.7</v>
-      </c>
-      <c r="H8">
-        <v>29.1</v>
-      </c>
-      <c r="I8">
-        <v>46.9</v>
-      </c>
-      <c r="J8">
-        <v>41.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="C9">
-        <v>91.10000000000001</v>
-      </c>
-      <c r="D9">
-        <v>14.6</v>
-      </c>
-      <c r="E9">
-        <v>33.8</v>
-      </c>
-      <c r="F9">
-        <v>20.6</v>
-      </c>
-      <c r="G9">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="H9">
-        <v>10.4</v>
-      </c>
       <c r="I9">
-        <v>21.8</v>
+        <v>48.1</v>
       </c>
       <c r="J9">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>30.7</v>
+      </c>
+      <c r="K9">
+        <v>30.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>29.2</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>12.4</v>
+        <v>13.2</v>
       </c>
       <c r="D10">
-        <v>67.10000000000001</v>
+        <v>66</v>
       </c>
       <c r="E10">
-        <v>82.39999999999999</v>
+        <v>85</v>
       </c>
       <c r="F10">
-        <v>56.8</v>
+        <v>56.7</v>
       </c>
       <c r="G10">
-        <v>64.09999999999999</v>
+        <v>63.4</v>
       </c>
       <c r="H10">
-        <v>34</v>
+        <v>37.8</v>
       </c>
       <c r="I10">
-        <v>22.3</v>
+        <v>22.6</v>
       </c>
       <c r="J10">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>36.7</v>
+      </c>
+      <c r="K10">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B11">
-        <v>35.6</v>
+        <v>35.7</v>
       </c>
       <c r="C11">
-        <v>11.2</v>
+        <v>10.5</v>
       </c>
       <c r="D11">
-        <v>63.7</v>
+        <v>66.5</v>
       </c>
       <c r="E11">
-        <v>71.8</v>
+        <v>68.2</v>
       </c>
       <c r="F11">
-        <v>42.3</v>
+        <v>40.6</v>
       </c>
       <c r="G11">
-        <v>17.4</v>
+        <v>18.4</v>
       </c>
       <c r="H11">
-        <v>7.9</v>
+        <v>10.9</v>
       </c>
       <c r="I11">
-        <v>15.8</v>
+        <v>16.1</v>
       </c>
       <c r="J11">
-        <v>11.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>24.4</v>
+      </c>
+      <c r="K11">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0.3</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>2.3</v>
+      </c>
+      <c r="F12">
+        <v>6.1</v>
+      </c>
+      <c r="G12">
+        <v>3.3</v>
+      </c>
+      <c r="H12">
+        <v>7.3</v>
+      </c>
+      <c r="I12">
+        <v>2.2</v>
+      </c>
+      <c r="J12">
+        <v>5.899999999999999</v>
+      </c>
+      <c r="K12">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>9.6</v>
+      </c>
+      <c r="C13">
+        <v>0.3</v>
+      </c>
+      <c r="D13">
+        <v>18.6</v>
+      </c>
+      <c r="E13">
+        <v>10.7</v>
+      </c>
+      <c r="F13">
+        <v>1.9</v>
+      </c>
+      <c r="G13">
+        <v>7.6</v>
+      </c>
+      <c r="H13">
+        <v>2.5</v>
+      </c>
+      <c r="I13">
+        <v>1.2</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>99.8</v>
-      </c>
-      <c r="C12">
-        <v>43.4</v>
-      </c>
-      <c r="D12">
-        <v>68.5</v>
-      </c>
-      <c r="E12">
-        <v>51.9</v>
-      </c>
-      <c r="F12">
-        <v>37.1</v>
-      </c>
-      <c r="G12">
-        <v>15.5</v>
-      </c>
-      <c r="H12">
-        <v>20.4</v>
-      </c>
-      <c r="I12">
-        <v>9.9</v>
-      </c>
-      <c r="J12">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>0.8</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+      <c r="B14">
+        <v>99.59999999999999</v>
+      </c>
+      <c r="C14">
+        <v>37.3</v>
+      </c>
+      <c r="D14">
+        <v>68.2</v>
+      </c>
+      <c r="E14">
+        <v>55.7</v>
+      </c>
+      <c r="F14">
+        <v>39.1</v>
+      </c>
+      <c r="G14">
+        <v>15.4</v>
+      </c>
+      <c r="H14">
+        <v>18.1</v>
+      </c>
+      <c r="I14">
+        <v>8.9</v>
+      </c>
+      <c r="J14">
+        <v>1.6</v>
+      </c>
+      <c r="K14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>12.4</v>
+      </c>
+      <c r="C15">
+        <v>45.6</v>
+      </c>
+      <c r="D15">
+        <v>56.3</v>
+      </c>
+      <c r="E15">
+        <v>22.4</v>
+      </c>
+      <c r="F15">
+        <v>10.1</v>
+      </c>
+      <c r="G15">
         <v>2.4</v>
       </c>
-      <c r="F13">
-        <v>7.1</v>
-      </c>
-      <c r="G13">
-        <v>3.7</v>
-      </c>
-      <c r="H13">
-        <v>6.600000000000001</v>
-      </c>
-      <c r="I13">
-        <v>2.6</v>
-      </c>
-      <c r="J13">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>8.9</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>19</v>
-      </c>
-      <c r="E14">
-        <v>12.4</v>
-      </c>
-      <c r="F14">
+      <c r="H15">
+        <v>1.2</v>
+      </c>
+      <c r="I15">
+        <v>0.1</v>
+      </c>
+      <c r="J15">
+        <v>0.6</v>
+      </c>
+      <c r="K15">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <v>20.7</v>
+      </c>
+      <c r="C16">
+        <v>31.2</v>
+      </c>
+      <c r="D16">
+        <v>10.9</v>
+      </c>
+      <c r="E16">
+        <v>3.6</v>
+      </c>
+      <c r="F16">
         <v>2.5</v>
       </c>
-      <c r="G14">
-        <v>8.4</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>0.5</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15">
-        <v>22.8</v>
-      </c>
-      <c r="C15">
-        <v>31.2</v>
-      </c>
-      <c r="D15">
-        <v>10.4</v>
-      </c>
-      <c r="E15">
-        <v>3.5</v>
-      </c>
-      <c r="F15">
-        <v>1.1</v>
-      </c>
-      <c r="G15">
-        <v>1.1</v>
-      </c>
-      <c r="H15">
+      <c r="G16">
+        <v>0.6</v>
+      </c>
+      <c r="H16">
         <v>0.4</v>
       </c>
-      <c r="I15">
-        <v>0.8</v>
-      </c>
-      <c r="J15">
-        <v>0.7000000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="1" t="s">
+      <c r="I16">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="J16">
+        <v>0.2</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16">
-        <v>60.7</v>
-      </c>
-      <c r="C16">
-        <v>3.9</v>
-      </c>
-      <c r="D16">
-        <v>5.1</v>
-      </c>
-      <c r="E16">
-        <v>4.9</v>
-      </c>
-      <c r="F16">
-        <v>16.8</v>
-      </c>
-      <c r="G16">
-        <v>6.3</v>
-      </c>
-      <c r="H16">
-        <v>1.6</v>
-      </c>
-      <c r="I16">
-        <v>0.3</v>
-      </c>
-      <c r="J16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="B17">
-        <v>11.4</v>
+        <v>60.9</v>
       </c>
       <c r="C17">
-        <v>47.9</v>
+        <v>2.7</v>
       </c>
       <c r="D17">
-        <v>55.00000000000001</v>
+        <v>3.3</v>
       </c>
       <c r="E17">
-        <v>19.9</v>
+        <v>5.5</v>
       </c>
       <c r="F17">
-        <v>7.5</v>
+        <v>15.6</v>
       </c>
       <c r="G17">
-        <v>2.5</v>
+        <v>4.8</v>
       </c>
       <c r="H17">
-        <v>0.8999999999999999</v>
+        <v>1.4</v>
       </c>
       <c r="I17">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="J17">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>0.1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="D18">
+        <v>2.1</v>
+      </c>
+      <c r="E18">
+        <v>0.4</v>
+      </c>
+      <c r="F18">
+        <v>0.4</v>
+      </c>
+      <c r="G18">
         <v>0.6</v>
       </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>2.3</v>
-      </c>
-      <c r="E18">
-        <v>0.3</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0.4</v>
-      </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
         <v>0.1</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F19">
         <v>0.1</v>
@@ -4377,9 +4428,12 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>0</v>
       </c>
     </row>
@@ -4398,60 +4452,60 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2">
-        <v>0.875</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D2">
-        <v>121.0575</v>
+        <v>117.4755555555556</v>
       </c>
       <c r="E2">
-        <v>968.46</v>
+        <v>1057.28</v>
       </c>
       <c r="F2">
-        <v>97.89999999999999</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4459,115 +4513,115 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D3">
-        <v>123.835</v>
+        <v>121.7755555555556</v>
       </c>
       <c r="E3">
-        <v>990.6799999999999</v>
+        <v>1095.98</v>
       </c>
       <c r="F3">
-        <v>95.09999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="D4">
-        <v>116.03</v>
+        <v>114.7955555555556</v>
       </c>
       <c r="E4">
-        <v>928.2399999999999</v>
+        <v>1033.16</v>
       </c>
       <c r="F4">
-        <v>93.89999999999999</v>
+        <v>89.09999999999999</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C5">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>109.9925</v>
+        <v>116.4866666666667</v>
       </c>
       <c r="E5">
-        <v>879.9399999999999</v>
+        <v>1048.38</v>
       </c>
       <c r="F5">
-        <v>80.5</v>
+        <v>83.3</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C6">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D6">
-        <v>115.1475</v>
+        <v>106.8755555555556</v>
       </c>
       <c r="E6">
-        <v>921.1799999999999</v>
+        <v>961.8799999999999</v>
       </c>
       <c r="F6">
-        <v>67.5</v>
+        <v>58.9</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4575,86 +4629,86 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C7">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D7">
-        <v>103.865</v>
+        <v>103.2933333333334</v>
       </c>
       <c r="E7">
-        <v>830.9200000000001</v>
+        <v>929.6400000000001</v>
       </c>
       <c r="F7">
-        <v>50.8</v>
+        <v>40.5</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C8">
-        <v>0.625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D8">
-        <v>103.02</v>
+        <v>110.4444444444444</v>
       </c>
       <c r="E8">
-        <v>824.16</v>
+        <v>994</v>
       </c>
       <c r="F8">
-        <v>40.6</v>
+        <v>37.8</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D9">
-        <v>106.7675</v>
+        <v>103.3266666666667</v>
       </c>
       <c r="E9">
-        <v>854.14</v>
+        <v>929.9399999999999</v>
       </c>
       <c r="F9">
-        <v>24.4</v>
+        <v>33</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4665,25 +4719,25 @@
         <v>24</v>
       </c>
       <c r="C10">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>113.52</v>
+        <v>115.9</v>
       </c>
       <c r="E10">
-        <v>908.16</v>
+        <v>1043.1</v>
       </c>
       <c r="F10">
-        <v>22.3</v>
+        <v>32</v>
       </c>
       <c r="G10">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4694,170 +4748,170 @@
         <v>24</v>
       </c>
       <c r="C11">
-        <v>0.4375</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>108.61</v>
+        <v>109.2666666666667</v>
       </c>
       <c r="E11">
-        <v>868.88</v>
+        <v>983.4</v>
       </c>
       <c r="F11">
-        <v>12.9</v>
+        <v>22.8</v>
       </c>
       <c r="G11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C12">
-        <v>0.375</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="D12">
-        <v>106.39</v>
+        <v>99.93333333333332</v>
       </c>
       <c r="E12">
-        <v>851.1199999999999</v>
+        <v>899.3999999999999</v>
       </c>
       <c r="F12">
-        <v>9.6</v>
+        <v>3.6</v>
       </c>
       <c r="G12">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="D13">
+        <v>100.4044444444444</v>
+      </c>
+      <c r="E13">
+        <v>903.6399999999999</v>
+      </c>
+      <c r="F13">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
-        <v>75</v>
-      </c>
-      <c r="C13">
-        <v>0.375</v>
-      </c>
-      <c r="D13">
-        <v>97.13499999999999</v>
-      </c>
-      <c r="E13">
-        <v>777.0799999999999</v>
-      </c>
-      <c r="F13">
-        <v>1.6</v>
-      </c>
       <c r="G13">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C14">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D14">
-        <v>90.9075</v>
+        <v>104.3311111111111</v>
       </c>
       <c r="E14">
-        <v>727.26</v>
+        <v>938.98</v>
       </c>
       <c r="F14">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="G14">
-        <v>4.7</v>
+        <v>0.3</v>
       </c>
       <c r="H14" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I14" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D15">
-        <v>101.785</v>
+        <v>89.13777777777779</v>
       </c>
       <c r="E15">
-        <v>814.28</v>
+        <v>802.2399999999999</v>
       </c>
       <c r="F15">
-        <v>0.8999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="G15">
-        <v>2.9</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="H15" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I15" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C16">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D16">
-        <v>90.95500000000001</v>
+        <v>88.57111111111111</v>
       </c>
       <c r="E16">
-        <v>727.6399999999999</v>
+        <v>797.14</v>
       </c>
       <c r="F16">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G16">
-        <v>12.1</v>
+        <v>5.1</v>
       </c>
       <c r="H16" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I16" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4865,28 +4919,28 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C17">
-        <v>0.375</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D17">
-        <v>86.60499999999999</v>
+        <v>80.11555555555555</v>
       </c>
       <c r="E17">
-        <v>692.8399999999999</v>
+        <v>721.04</v>
       </c>
       <c r="F17">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>7.5</v>
+        <v>15.9</v>
       </c>
       <c r="H17" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4894,28 +4948,28 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C18">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D18">
-        <v>78.345</v>
+        <v>81.20666666666666</v>
       </c>
       <c r="E18">
-        <v>626.76</v>
+        <v>730.86</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>40.40000000000001</v>
+        <v>37.2</v>
       </c>
       <c r="H18" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I18" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4923,28 +4977,28 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C19">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="D19">
-        <v>83.815</v>
+        <v>84.80222222222223</v>
       </c>
       <c r="E19">
-        <v>670.5199999999999</v>
+        <v>763.2199999999999</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>29.9</v>
+        <v>33.3</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4962,19 +5016,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -4985,7 +5039,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D2">
         <v>37</v>
@@ -4994,7 +5048,7 @@
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5005,7 +5059,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D3">
         <v>31</v>
@@ -5014,7 +5068,7 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5025,7 +5079,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D4">
         <v>17</v>
@@ -5034,7 +5088,7 @@
         <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5045,16 +5099,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5062,16 +5116,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>129</v>
@@ -5082,16 +5136,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
         <v>130</v>
@@ -5105,7 +5159,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D8">
         <v>6</v>
@@ -5114,7 +5168,7 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5122,19 +5176,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5142,19 +5196,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5165,16 +5219,16 @@
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D11">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5182,19 +5236,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D12">
         <v>-5</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5202,19 +5256,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D13">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5222,19 +5276,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D14">
-        <v>-8</v>
+        <v>-11</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5242,19 +5296,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D15">
-        <v>-10</v>
+        <v>-13</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5262,19 +5316,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="D16">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5285,16 +5339,16 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D17">
-        <v>-22</v>
+        <v>-23</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5305,16 +5359,16 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D18">
-        <v>-32</v>
+        <v>-29</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5325,16 +5379,16 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D19">
-        <v>-36</v>
+        <v>-34</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5344,42 +5398,45 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -5407,11 +5464,14 @@
       <c r="I2">
         <v>37</v>
       </c>
-      <c r="J2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="J2">
+        <v>37</v>
+      </c>
+      <c r="K2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -5439,11 +5499,14 @@
       <c r="I3">
         <v>31</v>
       </c>
-      <c r="J3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="J3">
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5471,11 +5534,14 @@
       <c r="I4">
         <v>17</v>
       </c>
-      <c r="J4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="J4">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -5503,75 +5569,84 @@
       <c r="I5">
         <v>14</v>
       </c>
-      <c r="J5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>-4</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6">
-        <v>13</v>
-      </c>
-      <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>-4</v>
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
         <v>3</v>
       </c>
-      <c r="H7">
-        <v>5</v>
-      </c>
-      <c r="I7">
-        <v>11</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -5599,60 +5674,66 @@
       <c r="I8">
         <v>6</v>
       </c>
-      <c r="J8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8">
+        <v>6</v>
+      </c>
+      <c r="K8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>-2</v>
+        <v>-3</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G9">
+        <v>7</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9">
+        <v>6</v>
+      </c>
+      <c r="K9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D10">
-        <v>-3</v>
+        <v>15</v>
       </c>
       <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
         <v>4</v>
-      </c>
-      <c r="F10">
-        <v>7</v>
       </c>
       <c r="G10">
         <v>7</v>
@@ -5661,13 +5742,16 @@
         <v>5</v>
       </c>
       <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -5695,171 +5779,189 @@
       <c r="I11">
         <v>-1</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>-3</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>-2</v>
+      </c>
+      <c r="G12">
+        <v>-3</v>
+      </c>
+      <c r="H12">
+        <v>-5</v>
+      </c>
+      <c r="I12">
+        <v>-8</v>
+      </c>
+      <c r="J12">
+        <v>-5</v>
+      </c>
+      <c r="K12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>-1</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>-9</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>-9</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>-5</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>-7</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>-5</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>-4</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>-5</v>
       </c>
-      <c r="J12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
+      <c r="J13">
         <v>-6</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
         <v>-5</v>
       </c>
-      <c r="E13">
-        <v>-4</v>
-      </c>
-      <c r="F13">
-        <v>-3</v>
-      </c>
-      <c r="G13">
+      <c r="C14">
+        <v>-6</v>
+      </c>
+      <c r="D14">
+        <v>-7</v>
+      </c>
+      <c r="E14">
+        <v>-12</v>
+      </c>
+      <c r="F14">
+        <v>-9</v>
+      </c>
+      <c r="G14">
+        <v>-17</v>
+      </c>
+      <c r="H14">
         <v>-11</v>
       </c>
-      <c r="H13">
-        <v>-12</v>
-      </c>
-      <c r="I13">
-        <v>-7</v>
-      </c>
-      <c r="J13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>-3</v>
-      </c>
-      <c r="D14">
-        <v>-1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>-2</v>
-      </c>
-      <c r="G14">
-        <v>-3</v>
-      </c>
-      <c r="H14">
-        <v>-5</v>
-      </c>
       <c r="I14">
-        <v>-8</v>
-      </c>
-      <c r="J14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>-10</v>
+      </c>
+      <c r="J14">
+        <v>-11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>-5</v>
       </c>
       <c r="C15">
-        <v>-6</v>
+        <v>-1</v>
       </c>
       <c r="D15">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="E15">
         <v>-12</v>
       </c>
       <c r="F15">
-        <v>-9</v>
+        <v>-15</v>
       </c>
       <c r="G15">
-        <v>-17</v>
+        <v>-10</v>
       </c>
       <c r="H15">
+        <v>-14</v>
+      </c>
+      <c r="I15">
         <v>-11</v>
       </c>
-      <c r="I15">
-        <v>-10</v>
-      </c>
-      <c r="J15" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15">
+        <v>-13</v>
+      </c>
+      <c r="K15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B16">
+        <v>-6</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>-5</v>
       </c>
-      <c r="C16">
-        <v>-1</v>
-      </c>
-      <c r="D16">
-        <v>-8</v>
-      </c>
       <c r="E16">
+        <v>-4</v>
+      </c>
+      <c r="F16">
+        <v>-3</v>
+      </c>
+      <c r="G16">
+        <v>-11</v>
+      </c>
+      <c r="H16">
         <v>-12</v>
       </c>
-      <c r="F16">
-        <v>-15</v>
-      </c>
-      <c r="G16">
-        <v>-10</v>
-      </c>
-      <c r="H16">
+      <c r="I16">
+        <v>-7</v>
+      </c>
+      <c r="J16">
         <v>-14</v>
       </c>
-      <c r="I16">
-        <v>-11</v>
-      </c>
-      <c r="J16" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -5887,11 +5989,14 @@
       <c r="I17">
         <v>-22</v>
       </c>
-      <c r="J17" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="J17">
+        <v>-23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -5919,11 +6024,14 @@
       <c r="I18">
         <v>-32</v>
       </c>
-      <c r="J18" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="J18">
+        <v>-29</v>
+      </c>
+      <c r="K18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -5951,8 +6059,11 @@
       <c r="I19">
         <v>-36</v>
       </c>
-      <c r="J19" t="s">
-        <v>138</v>
+      <c r="J19">
+        <v>-34</v>
+      </c>
+      <c r="K19" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5962,7 +6073,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5970,25 +6081,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6126,24 +6237,50 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>-14</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
         <v>4</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>17</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>2</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>13</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>-5</v>
       </c>
-      <c r="G7">
-        <v>18</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
         <v>2</v>
       </c>
     </row>

--- a/leagues/The Girl's Room 💞🏈 2025.xlsx
+++ b/leagues/The Girl's Room 💞🏈 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="161">
   <si>
     <t>Tush Push Director 🍑</t>
   </si>
@@ -78,40 +78,43 @@
     <t>Lamb of Goedert</t>
   </si>
   <si>
-    <t>6-3-0</t>
-  </si>
-  <si>
-    <t>7-2-0</t>
-  </si>
-  <si>
-    <t>4-5-0</t>
-  </si>
-  <si>
-    <t>9-0-0</t>
-  </si>
-  <si>
-    <t>3-6-0</t>
-  </si>
-  <si>
-    <t>5-4-0</t>
-  </si>
-  <si>
-    <t>4-4-1</t>
-  </si>
-  <si>
-    <t>2-7-0</t>
-  </si>
-  <si>
-    <t>1-8-0</t>
-  </si>
-  <si>
-    <t>8-1-0</t>
-  </si>
-  <si>
-    <t>2-6-1</t>
-  </si>
-  <si>
-    <t>0-9-0</t>
+    <t>7-3-0</t>
+  </si>
+  <si>
+    <t>8-2-0</t>
+  </si>
+  <si>
+    <t>5-5-0</t>
+  </si>
+  <si>
+    <t>10-0-0</t>
+  </si>
+  <si>
+    <t>3-7-0</t>
+  </si>
+  <si>
+    <t>6-4-0</t>
+  </si>
+  <si>
+    <t>4-6-0</t>
+  </si>
+  <si>
+    <t>5-4-1</t>
+  </si>
+  <si>
+    <t>2-8-0</t>
+  </si>
+  <si>
+    <t>9-1-0</t>
+  </si>
+  <si>
+    <t>1-9-0</t>
+  </si>
+  <si>
+    <t>3-6-1</t>
+  </si>
+  <si>
+    <t>4-5-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -219,6 +222,9 @@
     <t>Week_10</t>
   </si>
   <si>
+    <t>Week_11</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -243,76 +249,82 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>7-2</t>
-  </si>
-  <si>
-    <t>6-3</t>
-  </si>
-  <si>
-    <t>5-4</t>
-  </si>
-  <si>
-    <t>4-5</t>
-  </si>
-  <si>
-    <t>3-6</t>
-  </si>
-  <si>
-    <t>2-7</t>
-  </si>
-  <si>
-    <t>11.1-3.8</t>
-  </si>
-  <si>
-    <t>10.8-4.2</t>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>7-3</t>
+  </si>
+  <si>
+    <t>6-4</t>
+  </si>
+  <si>
+    <t>5-5</t>
+  </si>
+  <si>
+    <t>4-6</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>2-8</t>
+  </si>
+  <si>
+    <t>11.3-3.6</t>
+  </si>
+  <si>
+    <t>10.2-4.7</t>
   </si>
   <si>
     <t>10.2-4.8</t>
   </si>
   <si>
-    <t>9.7-5.3-0.1</t>
-  </si>
-  <si>
-    <t>9.1-5.8</t>
+    <t>9.5-5.5</t>
   </si>
   <si>
     <t>8.7-6.3</t>
   </si>
   <si>
-    <t>8.2-6.8</t>
-  </si>
-  <si>
-    <t>8.4-6.6-0.1</t>
-  </si>
-  <si>
-    <t>7.6-6.3-1.0</t>
-  </si>
-  <si>
-    <t>7.4-6.6-1.0</t>
-  </si>
-  <si>
-    <t>6.6-8.3</t>
-  </si>
-  <si>
-    <t>6.0-9.0</t>
-  </si>
-  <si>
-    <t>6.2-8.7-0.1</t>
-  </si>
-  <si>
-    <t>5.5-9.5</t>
-  </si>
-  <si>
-    <t>5.2-9.7</t>
-  </si>
-  <si>
-    <t>5.0-10.0</t>
-  </si>
-  <si>
-    <t>4.1-10.9</t>
-  </si>
-  <si>
-    <t>3.9-11.0</t>
+    <t>8.0-6.0-1.0</t>
+  </si>
+  <si>
+    <t>8.4-6.5</t>
+  </si>
+  <si>
+    <t>8.3-6.7-0.1</t>
+  </si>
+  <si>
+    <t>8.0-7.0</t>
+  </si>
+  <si>
+    <t>7.0-7.0-1.0</t>
+  </si>
+  <si>
+    <t>7.3-7.7</t>
+  </si>
+  <si>
+    <t>6.8-8.2</t>
+  </si>
+  <si>
+    <t>6.3-8.6</t>
+  </si>
+  <si>
+    <t>6.1-8.9</t>
+  </si>
+  <si>
+    <t>5.9-9.1</t>
+  </si>
+  <si>
+    <t>4.5-10.5</t>
+  </si>
+  <si>
+    <t>3.7-11.3</t>
+  </si>
+  <si>
+    <t>3.6-11.4</t>
+  </si>
+  <si>
+    <t>12-3</t>
   </si>
   <si>
     <t>11-4</t>
@@ -324,12 +336,12 @@
     <t>9-6</t>
   </si>
   <si>
+    <t>8-6-1</t>
+  </si>
+  <si>
     <t>8-7</t>
   </si>
   <si>
-    <t>8-6-1</t>
-  </si>
-  <si>
     <t>7-7-1</t>
   </si>
   <si>
@@ -339,12 +351,12 @@
     <t>6-9</t>
   </si>
   <si>
-    <t>5-10</t>
-  </si>
-  <si>
     <t>4-11</t>
   </si>
   <si>
+    <t>3-12</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -363,42 +375,42 @@
     <t>Brianna Goebel</t>
   </si>
   <si>
+    <t>Grace Stockbower</t>
+  </si>
+  <si>
+    <t>Sumita Gangwani</t>
+  </si>
+  <si>
+    <t>Amanda Pasquale</t>
+  </si>
+  <si>
+    <t>Hillary Dale</t>
+  </si>
+  <si>
     <t>Lily Lamb</t>
   </si>
   <si>
-    <t>Amanda Pasquale</t>
-  </si>
-  <si>
-    <t>Hillary Dale</t>
+    <t>Emily Carey</t>
   </si>
   <si>
     <t>Rebecca Schneider</t>
   </si>
   <si>
-    <t>Sumita Gangwani</t>
-  </si>
-  <si>
     <t>Shae Marx</t>
   </si>
   <si>
-    <t>Grace Stockbower</t>
-  </si>
-  <si>
-    <t>Emily Carey</t>
-  </si>
-  <si>
     <t>Faith Pon</t>
   </si>
   <si>
     <t>Nikki Papalia</t>
   </si>
   <si>
+    <t>Hannah Miller</t>
+  </si>
+  <si>
     <t>Allie Kardon</t>
   </si>
   <si>
-    <t>Hannah Miller</t>
-  </si>
-  <si>
     <t>Swathi Veeravalli</t>
   </si>
   <si>
@@ -408,33 +420,42 @@
     <t>Nicole Coppins</t>
   </si>
   <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↑3</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓6</t>
+  </si>
+  <si>
+    <t>↑9</t>
+  </si>
+  <si>
+    <t>↑2</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓8</t>
-  </si>
-  <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓2</t>
+    <t>↓4</t>
   </si>
   <si>
     <t>↓7</t>
   </si>
   <si>
-    <t>↑2</t>
-  </si>
-  <si>
     <t>Week 1</t>
   </si>
   <si>
@@ -460,6 +481,9 @@
   </si>
   <si>
     <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
   </si>
   <si>
     <t>Week</t>
@@ -967,37 +991,37 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J3" t="s">
         <v>27</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
         <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N3" t="s">
         <v>23</v>
@@ -1015,7 +1039,7 @@
         <v>20</v>
       </c>
       <c r="S3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1026,31 +1050,31 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
         <v>23</v>
@@ -1062,19 +1086,19 @@
         <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P4" t="s">
         <v>23</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1085,52 +1109,52 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
+      <c r="G5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
       <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
         <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>18</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
       </c>
       <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" t="s">
         <v>23</v>
-      </c>
-      <c r="L5" t="s">
-        <v>18</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
         <v>18</v>
       </c>
-      <c r="P5" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>19</v>
-      </c>
       <c r="R5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S5" t="s">
         <v>20</v>
@@ -1144,13 +1168,13 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -1159,37 +1183,37 @@
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
         <v>26</v>
       </c>
-      <c r="L6" t="s">
-        <v>25</v>
-      </c>
       <c r="M6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P6" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" t="s">
         <v>26</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" t="s">
-        <v>25</v>
       </c>
       <c r="S6" t="s">
         <v>26</v>
@@ -1203,31 +1227,31 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
         <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
-        <v>18</v>
       </c>
       <c r="J7" t="s">
         <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
         <v>23</v>
@@ -1242,16 +1266,16 @@
         <v>18</v>
       </c>
       <c r="P7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" t="s">
         <v>22</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" t="s">
-        <v>20</v>
-      </c>
-      <c r="S7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1265,10 +1289,10 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -1277,10 +1301,10 @@
         <v>22</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
@@ -1289,28 +1313,28 @@
         <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M8" t="s">
         <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="Q8" t="s">
         <v>20</v>
       </c>
       <c r="R8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="S8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1318,58 +1342,58 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
       <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
         <v>23</v>
-      </c>
-      <c r="L9" t="s">
-        <v>18</v>
       </c>
       <c r="M9" t="s">
         <v>18</v>
       </c>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1389,22 +1413,22 @@
         <v>20</v>
       </c>
       <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
         <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>18</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" t="s">
         <v>19</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
         <v>27</v>
@@ -1416,7 +1440,7 @@
         <v>19</v>
       </c>
       <c r="O10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="P10" t="s">
         <v>19</v>
@@ -1445,7 +1469,7 @@
         <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1454,16 +1478,16 @@
         <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
         <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
         <v>18</v>
@@ -1487,7 +1511,7 @@
         <v>23</v>
       </c>
       <c r="S11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1504,25 +1528,25 @@
         <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
         <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" t="s">
         <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
         <v>23</v>
@@ -1531,10 +1555,10 @@
         <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P12" t="s">
         <v>19</v>
@@ -1543,7 +1567,7 @@
         <v>23</v>
       </c>
       <c r="R12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="S12" t="s">
         <v>23</v>
@@ -1557,19 +1581,19 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
         <v>22</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" t="s">
-        <v>25</v>
       </c>
       <c r="H13" t="s">
         <v>20</v>
@@ -1581,31 +1605,31 @@
         <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="O13" t="s">
         <v>23</v>
       </c>
       <c r="P13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="Q13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="S13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1619,28 +1643,28 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
         <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="J14" t="s">
         <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="L14" t="s">
         <v>19</v>
@@ -1649,10 +1673,10 @@
         <v>19</v>
       </c>
       <c r="N14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P14" t="s">
         <v>18</v>
@@ -1661,7 +1685,7 @@
         <v>19</v>
       </c>
       <c r="R14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="S14" t="s">
         <v>23</v>
@@ -1672,55 +1696,55 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
         <v>23</v>
       </c>
-      <c r="E15" t="s">
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
         <v>23</v>
       </c>
-      <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>23</v>
-      </c>
-      <c r="H15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" t="s">
-        <v>18</v>
       </c>
       <c r="J15" t="s">
         <v>27</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" t="s">
+        <v>23</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" t="s">
         <v>18</v>
       </c>
-      <c r="M15" t="s">
+      <c r="P15" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" t="s">
         <v>18</v>
-      </c>
-      <c r="N15" t="s">
-        <v>23</v>
-      </c>
-      <c r="O15" t="s">
-        <v>19</v>
-      </c>
-      <c r="P15" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15" t="s">
-        <v>19</v>
       </c>
       <c r="S15" t="s">
         <v>23</v>
@@ -1737,28 +1761,28 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
         <v>22</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G16" t="s">
         <v>22</v>
       </c>
       <c r="H16" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
         <v>18</v>
-      </c>
-      <c r="I16" t="s">
-        <v>19</v>
       </c>
       <c r="J16" t="s">
         <v>19</v>
       </c>
       <c r="K16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L16" t="s">
         <v>20</v>
@@ -1767,22 +1791,22 @@
         <v>23</v>
       </c>
       <c r="N16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" t="s">
         <v>23</v>
       </c>
-      <c r="O16" t="s">
-        <v>19</v>
-      </c>
-      <c r="P16" t="s">
-        <v>18</v>
-      </c>
       <c r="Q16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="R16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="S16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1790,34 +1814,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
         <v>26</v>
       </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17" t="s">
+        <v>28</v>
+      </c>
+      <c r="G17" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
         <v>26</v>
       </c>
-      <c r="F17" t="s">
+      <c r="J17" t="s">
+        <v>24</v>
+      </c>
+      <c r="K17" t="s">
         <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" t="s">
-        <v>25</v>
-      </c>
-      <c r="J17" t="s">
-        <v>22</v>
-      </c>
-      <c r="K17" t="s">
-        <v>25</v>
       </c>
       <c r="L17" t="s">
         <v>22</v>
@@ -1826,22 +1850,22 @@
         <v>22</v>
       </c>
       <c r="N17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P17" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q17" t="s">
         <v>26</v>
       </c>
-      <c r="Q17" t="s">
-        <v>25</v>
-      </c>
       <c r="R17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1849,25 +1873,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
         <v>22</v>
       </c>
       <c r="G18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I18" t="s">
         <v>22</v>
@@ -1879,28 +1903,28 @@
         <v>22</v>
       </c>
       <c r="L18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="O18" t="s">
         <v>22</v>
       </c>
       <c r="P18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Q18" t="s">
         <v>22</v>
       </c>
       <c r="R18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="S18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1914,22 +1938,22 @@
         <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J19" t="s">
         <v>23</v>
@@ -1941,25 +1965,25 @@
         <v>20</v>
       </c>
       <c r="M19" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q19" t="s">
         <v>20</v>
       </c>
       <c r="R19" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="S19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1977,13 +2001,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1994,10 +2018,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>2.666666666666667</v>
+        <v>3.111111111111111</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2008,10 +2032,10 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>2.888888888888889</v>
+        <v>3.777777777777778</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2019,13 +2043,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>3.777777777777778</v>
+        <v>4.277777777777778</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2036,10 +2060,10 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>4.111111111111111</v>
+        <v>4.277777777777778</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2047,13 +2071,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>4.166666666666667</v>
+        <v>4.611111111111111</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2061,13 +2085,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>4.222222222222222</v>
+        <v>4.777777777777778</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2075,13 +2099,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>4.333333333333333</v>
+        <v>4.777777777777778</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2089,13 +2113,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C9">
-        <v>4.333333333333333</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2103,13 +2127,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10">
-        <v>4.388888888888889</v>
+        <v>4.944444444444445</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2117,13 +2141,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>4.611111111111111</v>
+        <v>4.944444444444445</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2131,13 +2155,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>4.611111111111111</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2145,13 +2169,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>4.611111111111111</v>
+        <v>5.111111111111111</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2159,13 +2183,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>4.888888888888889</v>
+        <v>5.5</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2173,13 +2197,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>4.888888888888889</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2187,13 +2211,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>5.5</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2204,10 +2228,10 @@
         <v>13</v>
       </c>
       <c r="C17">
-        <v>5.5</v>
+        <v>5.777777777777778</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2218,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.555555555555555</v>
+        <v>6.277777777777778</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -2232,7 +2256,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>5.833333333333333</v>
+        <v>6.777777777777778</v>
       </c>
       <c r="D19" t="s">
         <v>19</v>
@@ -2253,16 +2277,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2273,13 +2297,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>7.166666666666667</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D2">
-        <v>0.166666666666667</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2290,10 +2314,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>6.333333333333333</v>
+        <v>7.055555555555555</v>
       </c>
       <c r="D3">
-        <v>-0.666666666666667</v>
+        <v>-0.9444444444444446</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -2307,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.055555555555555</v>
+        <v>7.055555555555555</v>
       </c>
       <c r="D4">
         <v>0.05555555555555536</v>
@@ -2321,16 +2345,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>5.944444444444445</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D5">
-        <v>-1.055555555555555</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2338,16 +2362,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>5.722222222222222</v>
+        <v>6.055555555555555</v>
       </c>
       <c r="D6">
-        <v>1.722222222222222</v>
+        <v>-0.9444444444444446</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2355,16 +2379,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>5.555555555555555</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>0.5555555555555554</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2372,16 +2396,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C8">
-        <v>5.222222222222222</v>
+        <v>5.944444444444445</v>
       </c>
       <c r="D8">
-        <v>-0.7777777777777777</v>
+        <v>0.9444444444444446</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2389,16 +2413,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>5.166666666666667</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D9">
-        <v>1.166666666666667</v>
+        <v>-0.4444444444444446</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2406,16 +2430,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>4.555555555555555</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D10">
-        <v>-1.444444444444445</v>
+        <v>0.166666666666667</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2423,16 +2447,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>4.388888888888889</v>
+        <v>5.111111111111111</v>
       </c>
       <c r="D11">
-        <v>-0.6111111111111107</v>
+        <v>1.111111111111111</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2440,16 +2464,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>4.222222222222222</v>
+        <v>4.777777777777778</v>
       </c>
       <c r="D12">
-        <v>1.222222222222222</v>
+        <v>-1.222222222222222</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2457,16 +2481,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>3.944444444444445</v>
+        <v>4.5</v>
       </c>
       <c r="D13">
-        <v>0.9444444444444446</v>
+        <v>-0.5</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2474,16 +2498,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>3.833333333333333</v>
+        <v>4.388888888888889</v>
       </c>
       <c r="D14">
-        <v>-0.1666666666666665</v>
+        <v>0.3888888888888893</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2494,13 +2518,13 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>3.166666666666667</v>
+        <v>4.111111111111111</v>
       </c>
       <c r="D15">
-        <v>0.1666666666666665</v>
+        <v>0.1111111111111107</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2511,13 +2535,13 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>3.111111111111111</v>
+        <v>3.611111111111111</v>
       </c>
       <c r="D16">
-        <v>0.1111111111111112</v>
+        <v>-0.3888888888888888</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2528,10 +2552,10 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>2.222222222222222</v>
+        <v>2.388888888888889</v>
       </c>
       <c r="D17">
-        <v>-0.7777777777777777</v>
+        <v>-0.6111111111111112</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
@@ -2551,7 +2575,7 @@
         <v>0.2222222222222223</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2562,13 +2586,13 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>2.055555555555555</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="D19">
-        <v>0.05555555555555536</v>
+        <v>0.1111111111111112</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2586,64 +2610,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2651,37 +2675,37 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>35.9</v>
+        <v>52.2</v>
       </c>
       <c r="C2">
-        <v>32.6</v>
+        <v>25.5</v>
       </c>
       <c r="D2">
-        <v>15.3</v>
+        <v>14</v>
       </c>
       <c r="E2">
-        <v>8.5</v>
+        <v>4.5</v>
       </c>
       <c r="F2">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="I2">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="J2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -2705,46 +2729,46 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>98.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>36.6</v>
+        <v>18.9</v>
       </c>
       <c r="C3">
-        <v>23.8</v>
+        <v>26.8</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>25.7</v>
       </c>
       <c r="E3">
-        <v>9.4</v>
+        <v>10.5</v>
       </c>
       <c r="F3">
-        <v>5.6</v>
+        <v>7.9</v>
       </c>
       <c r="G3">
-        <v>3.1</v>
+        <v>4.6</v>
       </c>
       <c r="H3">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="I3">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="J3">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="K3">
+        <v>0.3</v>
+      </c>
+      <c r="L3">
         <v>0.2</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
       <c r="M3">
         <v>0</v>
       </c>
@@ -2767,48 +2791,48 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>96.5</v>
+        <v>94.40000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>16.7</v>
+        <v>20.1</v>
       </c>
       <c r="C4">
-        <v>18.6</v>
+        <v>28.7</v>
       </c>
       <c r="D4">
-        <v>19.3</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>15.5</v>
+        <v>11.6</v>
       </c>
       <c r="F4">
-        <v>11.1</v>
+        <v>6</v>
       </c>
       <c r="G4">
-        <v>7.9</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="I4">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="J4">
-        <v>2.6</v>
+        <v>0.8</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="L4">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="M4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2829,54 +2853,54 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>89.09999999999999</v>
+        <v>93.40000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B5">
-        <v>7.6</v>
+        <v>6.6</v>
       </c>
       <c r="C5">
-        <v>12.6</v>
+        <v>11</v>
       </c>
       <c r="D5">
-        <v>18.8</v>
+        <v>15.1</v>
       </c>
       <c r="E5">
-        <v>18.1</v>
+        <v>20.6</v>
       </c>
       <c r="F5">
-        <v>15.2</v>
+        <v>13.8</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="H5">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="I5">
-        <v>4.8</v>
+        <v>5.1</v>
       </c>
       <c r="J5">
-        <v>2.7</v>
+        <v>4.4</v>
       </c>
       <c r="K5">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="L5">
         <v>0.7</v>
       </c>
       <c r="M5">
-        <v>0.4</v>
+        <v>1.1</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2891,58 +2915,58 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>83.3</v>
+        <v>78.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="C6">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>9.1</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>14.8</v>
+        <v>12.6</v>
       </c>
       <c r="F6">
-        <v>14.1</v>
+        <v>16.7</v>
       </c>
       <c r="G6">
-        <v>14.9</v>
+        <v>14.6</v>
       </c>
       <c r="H6">
-        <v>13.4</v>
+        <v>11.6</v>
       </c>
       <c r="I6">
-        <v>9.800000000000001</v>
+        <v>10.6</v>
       </c>
       <c r="J6">
-        <v>7.2</v>
+        <v>7.9</v>
       </c>
       <c r="K6">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="M6">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="N6">
+        <v>0.7</v>
+      </c>
+      <c r="O6">
+        <v>0.9</v>
+      </c>
+      <c r="P6">
         <v>0.2</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
         <v>0</v>
       </c>
@@ -2953,57 +2977,57 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>58.9</v>
+        <v>56.1</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="C7">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="D7">
-        <v>6.6</v>
+        <v>4.7</v>
       </c>
       <c r="E7">
-        <v>6.8</v>
+        <v>13</v>
       </c>
       <c r="F7">
-        <v>11.5</v>
+        <v>12.8</v>
       </c>
       <c r="G7">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="H7">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="I7">
-        <v>13.7</v>
+        <v>10.5</v>
       </c>
       <c r="J7">
-        <v>11.7</v>
+        <v>8.6</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L7">
-        <v>5.1</v>
+        <v>5.9</v>
       </c>
       <c r="M7">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="N7">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="O7">
-        <v>0.4</v>
+        <v>1.3</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -3015,60 +3039,60 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>40.5</v>
+        <v>44.9</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="C8">
         <v>1.7</v>
       </c>
       <c r="D8">
+        <v>4.6</v>
+      </c>
+      <c r="E8">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="F8">
+        <v>11.9</v>
+      </c>
+      <c r="G8">
+        <v>12.9</v>
+      </c>
+      <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>12.4</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>9.4</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
         <v>4.4</v>
       </c>
-      <c r="E8">
-        <v>8.4</v>
-      </c>
-      <c r="F8">
-        <v>10.1</v>
-      </c>
-      <c r="G8">
-        <v>12.5</v>
-      </c>
-      <c r="H8">
-        <v>12.1</v>
-      </c>
-      <c r="I8">
-        <v>12.5</v>
-      </c>
-      <c r="J8">
-        <v>10.6</v>
-      </c>
-      <c r="K8">
-        <v>10.4</v>
-      </c>
-      <c r="L8">
-        <v>5.7</v>
-      </c>
-      <c r="M8">
-        <v>5</v>
-      </c>
       <c r="N8">
-        <v>4.6</v>
+        <v>2.1</v>
       </c>
       <c r="O8">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
       <c r="P8">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -3077,60 +3101,60 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>37.8</v>
+        <v>40.8</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E9">
-        <v>5.6</v>
+        <v>7.9</v>
       </c>
       <c r="F9">
-        <v>10.9</v>
+        <v>9.1</v>
       </c>
       <c r="G9">
-        <v>12.7</v>
+        <v>10.8</v>
       </c>
       <c r="H9">
-        <v>13.4</v>
+        <v>12.3</v>
       </c>
       <c r="I9">
-        <v>13.7</v>
+        <v>12</v>
       </c>
       <c r="J9">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="K9">
-        <v>11.5</v>
+        <v>11.3</v>
       </c>
       <c r="L9">
-        <v>8.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="M9">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
       <c r="N9">
-        <v>1.7</v>
+        <v>4.6</v>
       </c>
       <c r="O9">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="P9">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="Q9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -3139,131 +3163,131 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>33</v>
+        <v>31.1</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1.6</v>
+        <v>0.1</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="E10">
-        <v>6.3</v>
+        <v>4.8</v>
       </c>
       <c r="F10">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="G10">
-        <v>12.1</v>
+        <v>11.3</v>
       </c>
       <c r="H10">
-        <v>12.5</v>
+        <v>13.4</v>
       </c>
       <c r="I10">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="J10">
-        <v>16</v>
+        <v>14.2</v>
       </c>
       <c r="K10">
-        <v>9.300000000000001</v>
+        <v>11</v>
       </c>
       <c r="L10">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M10">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="N10">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="O10">
-        <v>1.6</v>
+        <v>2.4</v>
       </c>
       <c r="P10">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="Q10">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="R10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>32</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="D11">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="E11">
-        <v>5.1</v>
+        <v>2.7</v>
       </c>
       <c r="F11">
-        <v>7.4</v>
+        <v>5.2</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>6.3</v>
       </c>
       <c r="H11">
-        <v>11.6</v>
+        <v>10</v>
       </c>
       <c r="I11">
-        <v>13.3</v>
+        <v>10.7</v>
       </c>
       <c r="J11">
-        <v>14.2</v>
+        <v>12.4</v>
       </c>
       <c r="K11">
-        <v>14.3</v>
+        <v>13.6</v>
       </c>
       <c r="L11">
-        <v>10.3</v>
+        <v>10.6</v>
       </c>
       <c r="M11">
-        <v>5.8</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="N11">
-        <v>3.8</v>
+        <v>9</v>
       </c>
       <c r="O11">
-        <v>2.4</v>
+        <v>4.9</v>
       </c>
       <c r="P11">
+        <v>2.9</v>
+      </c>
+      <c r="Q11">
         <v>0.8</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.4</v>
       </c>
-      <c r="R11">
-        <v>0.3</v>
-      </c>
       <c r="S11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="T11">
-        <v>22.8</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -3274,63 +3298,63 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="E12">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="F12">
-        <v>1.2</v>
+        <v>4.3</v>
       </c>
       <c r="G12">
-        <v>1.5</v>
+        <v>6.1</v>
       </c>
       <c r="H12">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I12">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="J12">
-        <v>7.6</v>
+        <v>11.2</v>
       </c>
       <c r="K12">
-        <v>11.4</v>
+        <v>10.9</v>
       </c>
       <c r="L12">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="M12">
-        <v>16.7</v>
+        <v>15.3</v>
       </c>
       <c r="N12">
-        <v>13.1</v>
+        <v>12.4</v>
       </c>
       <c r="O12">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="P12">
-        <v>7.3</v>
+        <v>3.9</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="R12">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>3.6</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3339,60 +3363,60 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>2.1</v>
       </c>
       <c r="G13">
-        <v>0.9</v>
+        <v>2.8</v>
       </c>
       <c r="H13">
-        <v>2.4</v>
+        <v>6.1</v>
       </c>
       <c r="I13">
-        <v>3.3</v>
+        <v>7.6</v>
       </c>
       <c r="J13">
-        <v>5.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K13">
-        <v>8.6</v>
+        <v>12.9</v>
       </c>
       <c r="L13">
-        <v>11.8</v>
+        <v>13</v>
       </c>
       <c r="M13">
-        <v>14.1</v>
+        <v>13.8</v>
       </c>
       <c r="N13">
-        <v>17.3</v>
+        <v>13.2</v>
       </c>
       <c r="O13">
-        <v>14.1</v>
+        <v>10.9</v>
       </c>
       <c r="P13">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="R13">
-        <v>4.4</v>
+        <v>0.4</v>
       </c>
       <c r="S13">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3404,52 +3428,52 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F14">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="G14">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H14">
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="J14">
-        <v>6.9</v>
+        <v>5.1</v>
       </c>
       <c r="K14">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="L14">
-        <v>16.6</v>
+        <v>12.3</v>
       </c>
       <c r="M14">
+        <v>13</v>
+      </c>
+      <c r="N14">
         <v>16.9</v>
       </c>
-      <c r="N14">
-        <v>15.4</v>
-      </c>
       <c r="O14">
-        <v>11.4</v>
+        <v>17.2</v>
       </c>
       <c r="P14">
-        <v>7.7</v>
+        <v>13.5</v>
       </c>
       <c r="Q14">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="R14">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="S14">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -3466,52 +3490,52 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F15">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G15">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="H15">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="I15">
-        <v>1.1</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="K15">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="L15">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="M15">
-        <v>10.4</v>
+        <v>12.7</v>
       </c>
       <c r="N15">
-        <v>14.7</v>
+        <v>15.6</v>
       </c>
       <c r="O15">
-        <v>14.3</v>
+        <v>20.2</v>
       </c>
       <c r="P15">
-        <v>18.9</v>
+        <v>23.1</v>
       </c>
       <c r="Q15">
-        <v>13.4</v>
+        <v>9.1</v>
       </c>
       <c r="R15">
-        <v>9</v>
+        <v>2.5</v>
       </c>
       <c r="S15">
-        <v>6.6</v>
+        <v>0.3</v>
       </c>
       <c r="T15">
-        <v>0.3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -3528,52 +3552,52 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G16">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I16">
+        <v>1.2</v>
+      </c>
+      <c r="J16">
+        <v>1.7</v>
+      </c>
+      <c r="K16">
+        <v>1.9</v>
+      </c>
+      <c r="L16">
+        <v>4.4</v>
+      </c>
+      <c r="M16">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="N16">
+        <v>16.2</v>
+      </c>
+      <c r="O16">
+        <v>21.9</v>
+      </c>
+      <c r="P16">
+        <v>24.5</v>
+      </c>
+      <c r="Q16">
+        <v>13.8</v>
+      </c>
+      <c r="R16">
+        <v>4.1</v>
+      </c>
+      <c r="S16">
         <v>0.4</v>
       </c>
-      <c r="J16">
-        <v>0.8</v>
-      </c>
-      <c r="K16">
-        <v>2.4</v>
-      </c>
-      <c r="L16">
-        <v>4.9</v>
-      </c>
-      <c r="M16">
-        <v>7</v>
-      </c>
-      <c r="N16">
-        <v>11.4</v>
-      </c>
-      <c r="O16">
-        <v>16</v>
-      </c>
-      <c r="P16">
-        <v>20.3</v>
-      </c>
-      <c r="Q16">
-        <v>19.4</v>
-      </c>
-      <c r="R16">
-        <v>11.9</v>
-      </c>
-      <c r="S16">
-        <v>5.1</v>
-      </c>
       <c r="T16">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -3599,40 +3623,40 @@
         <v>0</v>
       </c>
       <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
         <v>0.2</v>
       </c>
-      <c r="I17">
-        <v>0.3</v>
-      </c>
       <c r="J17">
+        <v>0.2</v>
+      </c>
+      <c r="K17">
+        <v>0.2</v>
+      </c>
+      <c r="L17">
         <v>0.4</v>
       </c>
-      <c r="K17">
-        <v>1.3</v>
-      </c>
-      <c r="L17">
-        <v>2.6</v>
-      </c>
       <c r="M17">
-        <v>4.6</v>
+        <v>0.8</v>
       </c>
       <c r="N17">
-        <v>7.4</v>
+        <v>1.9</v>
       </c>
       <c r="O17">
-        <v>12.4</v>
+        <v>6.1</v>
       </c>
       <c r="P17">
-        <v>15</v>
+        <v>13.9</v>
       </c>
       <c r="Q17">
-        <v>19.6</v>
+        <v>32.9</v>
       </c>
       <c r="R17">
-        <v>20.3</v>
+        <v>29.5</v>
       </c>
       <c r="S17">
-        <v>15.9</v>
+        <v>13.9</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -3664,37 +3688,37 @@
         <v>0</v>
       </c>
       <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <v>0.1</v>
       </c>
-      <c r="J18">
-        <v>0.1</v>
-      </c>
-      <c r="K18">
-        <v>0.5</v>
-      </c>
-      <c r="L18">
-        <v>0.5</v>
-      </c>
-      <c r="M18">
-        <v>1.4</v>
-      </c>
       <c r="N18">
-        <v>3.5</v>
+        <v>1.1</v>
       </c>
       <c r="O18">
-        <v>7.9</v>
+        <v>2.2</v>
       </c>
       <c r="P18">
-        <v>8.6</v>
+        <v>4.6</v>
       </c>
       <c r="Q18">
-        <v>15.3</v>
+        <v>18.4</v>
       </c>
       <c r="R18">
-        <v>24.9</v>
+        <v>29.4</v>
       </c>
       <c r="S18">
-        <v>37.2</v>
+        <v>44.2</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -3726,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -3735,28 +3759,28 @@
         <v>0</v>
       </c>
       <c r="L19">
+        <v>0.2</v>
+      </c>
+      <c r="M19">
         <v>0.4</v>
       </c>
-      <c r="M19">
-        <v>0.8</v>
-      </c>
       <c r="N19">
-        <v>2.8</v>
+        <v>0.4</v>
       </c>
       <c r="O19">
-        <v>7.3</v>
+        <v>2.5</v>
       </c>
       <c r="P19">
-        <v>10.3</v>
+        <v>4.2</v>
       </c>
       <c r="Q19">
-        <v>18.8</v>
+        <v>18.6</v>
       </c>
       <c r="R19">
-        <v>26.2</v>
+        <v>32.6</v>
       </c>
       <c r="S19">
-        <v>33.3</v>
+        <v>41.1</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -3769,45 +3793,48 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>65</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3815,354 +3842,384 @@
         <v>93.8</v>
       </c>
       <c r="C2">
-        <v>85.2</v>
+        <v>83.8</v>
       </c>
       <c r="D2">
-        <v>60.3</v>
+        <v>56.8</v>
       </c>
       <c r="E2">
-        <v>78.5</v>
+        <v>79</v>
       </c>
       <c r="F2">
-        <v>90.60000000000001</v>
+        <v>91</v>
       </c>
       <c r="G2">
-        <v>81.89999999999999</v>
+        <v>82.69999999999999</v>
       </c>
       <c r="H2">
         <v>93.7</v>
       </c>
       <c r="I2">
-        <v>93.89999999999999</v>
+        <v>93.30000000000001</v>
       </c>
       <c r="J2">
-        <v>97.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="K2">
-        <v>98.59999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>99.3</v>
+      </c>
+      <c r="L2">
+        <v>99.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>40.40000000000001</v>
+      </c>
+      <c r="C3">
+        <v>81.69999999999999</v>
+      </c>
+      <c r="D3">
+        <v>43.9</v>
+      </c>
+      <c r="E3">
+        <v>34.4</v>
+      </c>
+      <c r="F3">
+        <v>60.7</v>
+      </c>
+      <c r="G3">
+        <v>74.3</v>
+      </c>
+      <c r="H3">
+        <v>81.8</v>
+      </c>
+      <c r="I3">
+        <v>60.9</v>
+      </c>
+      <c r="J3">
+        <v>80.80000000000001</v>
+      </c>
+      <c r="K3">
+        <v>93.7</v>
+      </c>
+      <c r="L3">
+        <v>94.89999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>37.4</v>
-      </c>
-      <c r="C3">
-        <v>63.9</v>
-      </c>
-      <c r="D3">
-        <v>58.2</v>
-      </c>
-      <c r="E3">
-        <v>80.80000000000001</v>
-      </c>
-      <c r="F3">
-        <v>83.2</v>
-      </c>
-      <c r="G3">
-        <v>92.90000000000001</v>
-      </c>
-      <c r="H3">
-        <v>91.8</v>
-      </c>
-      <c r="I3">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="J3">
-        <v>95.59999999999999</v>
-      </c>
-      <c r="K3">
-        <v>97.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
+      <c r="B4">
+        <v>38.7</v>
+      </c>
+      <c r="C4">
+        <v>61.2</v>
+      </c>
+      <c r="D4">
+        <v>55.90000000000001</v>
+      </c>
+      <c r="E4">
+        <v>79.7</v>
+      </c>
+      <c r="F4">
+        <v>84.3</v>
+      </c>
+      <c r="G4">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="H4">
+        <v>92.30000000000001</v>
+      </c>
+      <c r="I4">
+        <v>93.8</v>
+      </c>
+      <c r="J4">
+        <v>96.7</v>
+      </c>
+      <c r="K4">
+        <v>92.30000000000001</v>
+      </c>
+      <c r="L4">
+        <v>93.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>20.8</v>
-      </c>
-      <c r="C4">
-        <v>70</v>
-      </c>
-      <c r="D4">
-        <v>69.19999999999999</v>
-      </c>
-      <c r="E4">
-        <v>51.9</v>
-      </c>
-      <c r="F4">
-        <v>62.6</v>
-      </c>
-      <c r="G4">
-        <v>81.3</v>
-      </c>
-      <c r="H4">
+      <c r="B5">
+        <v>21.4</v>
+      </c>
+      <c r="C5">
+        <v>65.90000000000001</v>
+      </c>
+      <c r="D5">
+        <v>65.8</v>
+      </c>
+      <c r="E5">
+        <v>51</v>
+      </c>
+      <c r="F5">
+        <v>61.9</v>
+      </c>
+      <c r="G5">
+        <v>80.7</v>
+      </c>
+      <c r="H5">
+        <v>91.10000000000001</v>
+      </c>
+      <c r="I5">
+        <v>95.89999999999999</v>
+      </c>
+      <c r="J5">
+        <v>89</v>
+      </c>
+      <c r="K5">
+        <v>75</v>
+      </c>
+      <c r="L5">
+        <v>76.90000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>90.40000000000001</v>
+      </c>
+      <c r="C6">
         <v>90.7</v>
       </c>
-      <c r="I4">
-        <v>96.8</v>
-      </c>
-      <c r="J4">
-        <v>87.40000000000001</v>
-      </c>
-      <c r="K4">
-        <v>87.09999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>39.1</v>
-      </c>
-      <c r="C5">
-        <v>83.59999999999999</v>
-      </c>
-      <c r="D5">
-        <v>41.09999999999999</v>
-      </c>
-      <c r="E5">
-        <v>34.1</v>
-      </c>
-      <c r="F5">
-        <v>61.6</v>
-      </c>
-      <c r="G5">
-        <v>72.8</v>
-      </c>
-      <c r="H5">
-        <v>81.8</v>
-      </c>
-      <c r="I5">
-        <v>62.7</v>
-      </c>
-      <c r="J5">
-        <v>81.2</v>
-      </c>
-      <c r="K5">
-        <v>80.80000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
+      <c r="D6">
+        <v>13.7</v>
+      </c>
+      <c r="E6">
+        <v>34.3</v>
+      </c>
+      <c r="F6">
+        <v>19.6</v>
+      </c>
+      <c r="G6">
+        <v>9.700000000000001</v>
+      </c>
+      <c r="H6">
+        <v>12.4</v>
+      </c>
+      <c r="I6">
+        <v>21.9</v>
+      </c>
+      <c r="J6">
+        <v>42.8</v>
+      </c>
+      <c r="K6">
+        <v>55.8</v>
+      </c>
+      <c r="L6">
+        <v>56.00000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6">
+      <c r="B7">
+        <v>1.3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>11.6</v>
+      </c>
+      <c r="E7">
+        <v>21.5</v>
+      </c>
+      <c r="F7">
+        <v>34.5</v>
+      </c>
+      <c r="G7">
+        <v>42.6</v>
+      </c>
+      <c r="H7">
+        <v>58.9</v>
+      </c>
+      <c r="I7">
+        <v>79.60000000000001</v>
+      </c>
+      <c r="J7">
+        <v>56.89999999999999</v>
+      </c>
+      <c r="K7">
+        <v>45.2</v>
+      </c>
+      <c r="L7">
+        <v>44.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>8.5</v>
-      </c>
-      <c r="E6">
-        <v>19.2</v>
-      </c>
-      <c r="F6">
-        <v>34.9</v>
-      </c>
-      <c r="G6">
-        <v>42</v>
-      </c>
-      <c r="H6">
-        <v>56.2</v>
-      </c>
-      <c r="I6">
-        <v>77.5</v>
-      </c>
-      <c r="J6">
-        <v>58.59999999999999</v>
-      </c>
-      <c r="K6">
-        <v>62.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
+      <c r="B8">
+        <v>35.3</v>
+      </c>
+      <c r="C8">
+        <v>12.1</v>
+      </c>
+      <c r="D8">
+        <v>64.8</v>
+      </c>
+      <c r="E8">
+        <v>71.2</v>
+      </c>
+      <c r="F8">
+        <v>41.2</v>
+      </c>
+      <c r="G8">
+        <v>19.7</v>
+      </c>
+      <c r="H8">
+        <v>9.9</v>
+      </c>
+      <c r="I8">
+        <v>14.1</v>
+      </c>
+      <c r="J8">
+        <v>22.1</v>
+      </c>
+      <c r="K8">
+        <v>43.8</v>
+      </c>
+      <c r="L8">
+        <v>44.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>29.7</v>
-      </c>
-      <c r="C7">
-        <v>31.8</v>
-      </c>
-      <c r="D7">
-        <v>8.1</v>
-      </c>
-      <c r="E7">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="F7">
-        <v>31.6</v>
-      </c>
-      <c r="G7">
+      <c r="B9">
+        <v>30.1</v>
+      </c>
+      <c r="C9">
+        <v>28.3</v>
+      </c>
+      <c r="D9">
+        <v>9.9</v>
+      </c>
+      <c r="E9">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>32.9</v>
+      </c>
+      <c r="G9">
         <v>39.5</v>
       </c>
-      <c r="H7">
-        <v>64.60000000000001</v>
-      </c>
-      <c r="I7">
-        <v>53.2</v>
-      </c>
-      <c r="J7">
-        <v>34.1</v>
-      </c>
-      <c r="K7">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>88.5</v>
-      </c>
-      <c r="C8">
-        <v>90</v>
-      </c>
-      <c r="D8">
-        <v>12.9</v>
-      </c>
-      <c r="E8">
-        <v>36.4</v>
-      </c>
-      <c r="F8">
-        <v>19.6</v>
-      </c>
-      <c r="G8">
-        <v>10.3</v>
-      </c>
-      <c r="H8">
-        <v>11.3</v>
-      </c>
-      <c r="I8">
-        <v>21.7</v>
-      </c>
-      <c r="J8">
-        <v>42.4</v>
-      </c>
-      <c r="K8">
-        <v>38.7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
+      <c r="H9">
+        <v>64</v>
+      </c>
+      <c r="I9">
+        <v>55.8</v>
+      </c>
+      <c r="J9">
+        <v>37.5</v>
+      </c>
+      <c r="K9">
+        <v>27</v>
+      </c>
+      <c r="L9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>33.8</v>
-      </c>
-      <c r="D9">
-        <v>48.7</v>
-      </c>
-      <c r="E9">
-        <v>36.8</v>
-      </c>
-      <c r="F9">
-        <v>42.8</v>
-      </c>
-      <c r="G9">
-        <v>62.8</v>
-      </c>
-      <c r="H9">
-        <v>30.3</v>
-      </c>
-      <c r="I9">
-        <v>48.1</v>
-      </c>
-      <c r="J9">
-        <v>30.7</v>
-      </c>
-      <c r="K9">
-        <v>30.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
+      <c r="B10">
+        <v>17.7</v>
+      </c>
+      <c r="C10">
+        <v>35.09999999999999</v>
+      </c>
+      <c r="D10">
+        <v>47.9</v>
+      </c>
+      <c r="E10">
+        <v>40.1</v>
+      </c>
+      <c r="F10">
+        <v>40.7</v>
+      </c>
+      <c r="G10">
+        <v>57.9</v>
+      </c>
+      <c r="H10">
+        <v>28.2</v>
+      </c>
+      <c r="I10">
+        <v>49.8</v>
+      </c>
+      <c r="J10">
+        <v>27.8</v>
+      </c>
+      <c r="K10">
+        <v>23.2</v>
+      </c>
+      <c r="L10">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
-        <v>32</v>
-      </c>
-      <c r="C10">
-        <v>13.2</v>
-      </c>
-      <c r="D10">
-        <v>66</v>
-      </c>
-      <c r="E10">
-        <v>85</v>
-      </c>
-      <c r="F10">
-        <v>56.7</v>
-      </c>
-      <c r="G10">
-        <v>63.4</v>
-      </c>
-      <c r="H10">
-        <v>37.8</v>
-      </c>
-      <c r="I10">
-        <v>22.6</v>
-      </c>
-      <c r="J10">
-        <v>36.7</v>
-      </c>
-      <c r="K10">
-        <v>29.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
       <c r="B11">
-        <v>35.7</v>
+        <v>29</v>
       </c>
       <c r="C11">
-        <v>10.5</v>
+        <v>15.2</v>
       </c>
       <c r="D11">
         <v>66.5</v>
       </c>
       <c r="E11">
-        <v>68.2</v>
+        <v>83</v>
       </c>
       <c r="F11">
-        <v>40.6</v>
+        <v>57.7</v>
       </c>
       <c r="G11">
-        <v>18.4</v>
+        <v>64.3</v>
       </c>
       <c r="H11">
-        <v>10.9</v>
+        <v>37.4</v>
       </c>
       <c r="I11">
-        <v>16.1</v>
+        <v>23.9</v>
       </c>
       <c r="J11">
-        <v>24.4</v>
+        <v>36.6</v>
       </c>
       <c r="K11">
-        <v>21.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>21.6</v>
+      </c>
+      <c r="L11">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B12">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4171,229 +4228,247 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="F12">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="G12">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H12">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="I12">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="J12">
-        <v>5.899999999999999</v>
+        <v>6.2</v>
       </c>
       <c r="K12">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>10</v>
+      </c>
+      <c r="L12">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B13">
-        <v>9.6</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="C13">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="D13">
-        <v>18.6</v>
+        <v>18.9</v>
       </c>
       <c r="E13">
-        <v>10.7</v>
+        <v>11</v>
       </c>
       <c r="F13">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="G13">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="H13">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="I13">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K13">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>7.3</v>
+      </c>
+      <c r="L13">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>99.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="C14">
-        <v>37.3</v>
+        <v>42.3</v>
       </c>
       <c r="D14">
-        <v>68.2</v>
+        <v>69.8</v>
       </c>
       <c r="E14">
-        <v>55.7</v>
+        <v>53</v>
       </c>
       <c r="F14">
-        <v>39.1</v>
+        <v>40.3</v>
       </c>
       <c r="G14">
         <v>15.4</v>
       </c>
       <c r="H14">
-        <v>18.1</v>
+        <v>18.9</v>
       </c>
       <c r="I14">
-        <v>8.9</v>
+        <v>7.5</v>
       </c>
       <c r="J14">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="K14">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>3.8</v>
+      </c>
+      <c r="L14">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B15">
-        <v>12.4</v>
+        <v>11.6</v>
       </c>
       <c r="C15">
-        <v>45.6</v>
+        <v>49.3</v>
       </c>
       <c r="D15">
-        <v>56.3</v>
+        <v>54.6</v>
       </c>
       <c r="E15">
-        <v>22.4</v>
+        <v>21.4</v>
       </c>
       <c r="F15">
-        <v>10.1</v>
+        <v>9.1</v>
       </c>
       <c r="G15">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="H15">
+        <v>0.2</v>
+      </c>
+      <c r="I15">
+        <v>0.2</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>1.2</v>
       </c>
-      <c r="I15">
-        <v>0.1</v>
-      </c>
-      <c r="J15">
-        <v>0.6</v>
-      </c>
-      <c r="K15">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16">
-        <v>20.7</v>
+        <v>20.9</v>
       </c>
       <c r="C16">
-        <v>31.2</v>
+        <v>30.5</v>
       </c>
       <c r="D16">
-        <v>10.9</v>
+        <v>12.2</v>
       </c>
       <c r="E16">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="F16">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="G16">
-        <v>0.6</v>
+        <v>1.3</v>
       </c>
       <c r="H16">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I16">
-        <v>0.8999999999999999</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="J16">
         <v>0.2</v>
       </c>
       <c r="K16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="L16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B17">
-        <v>60.9</v>
+        <v>61.5</v>
       </c>
       <c r="C17">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D17">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="E17">
-        <v>5.5</v>
+        <v>3.7</v>
       </c>
       <c r="F17">
-        <v>15.6</v>
+        <v>14.7</v>
       </c>
       <c r="G17">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="H17">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="I17">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="J17">
         <v>0.1</v>
       </c>
       <c r="K17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>0.1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18">
-        <v>0.7000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="C18">
-        <v>0.8999999999999999</v>
+        <v>0.6</v>
       </c>
       <c r="D18">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F18">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G18">
-        <v>0.6</v>
+        <v>0.1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -4401,39 +4476,45 @@
       <c r="K18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="E19">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
         <v>0.1</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <v>0</v>
       </c>
     </row>
@@ -4452,31 +4533,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4484,289 +4565,289 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C2">
-        <v>0.7777777777777778</v>
+        <v>0.8</v>
       </c>
       <c r="D2">
-        <v>117.4755555555556</v>
+        <v>116.308</v>
       </c>
       <c r="E2">
-        <v>1057.28</v>
+        <v>1163.08</v>
       </c>
       <c r="F2">
-        <v>98.09999999999999</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3">
-        <v>0.7777777777777778</v>
+        <v>0.7</v>
       </c>
       <c r="D3">
-        <v>121.7755555555556</v>
+        <v>117.99</v>
       </c>
       <c r="E3">
-        <v>1095.98</v>
+        <v>1179.9</v>
       </c>
       <c r="F3">
-        <v>96.5</v>
+        <v>94.39999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I3" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C4">
-        <v>0.7777777777777778</v>
+        <v>0.7</v>
       </c>
       <c r="D4">
-        <v>114.7955555555556</v>
+        <v>119.23</v>
       </c>
       <c r="E4">
-        <v>1033.16</v>
+        <v>1192.3</v>
       </c>
       <c r="F4">
-        <v>89.09999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I4" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="D5">
-        <v>116.4866666666667</v>
+        <v>110.264</v>
       </c>
       <c r="E5">
-        <v>1048.38</v>
+        <v>1102.64</v>
       </c>
       <c r="F5">
-        <v>83.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C6">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="D6">
-        <v>106.8755555555556</v>
+        <v>109.45</v>
       </c>
       <c r="E6">
-        <v>961.8799999999999</v>
+        <v>1094.5</v>
       </c>
       <c r="F6">
-        <v>58.9</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>0.6666666666666666</v>
+        <v>0.55</v>
       </c>
       <c r="D7">
-        <v>103.2933333333334</v>
+        <v>109.208</v>
       </c>
       <c r="E7">
-        <v>929.6400000000001</v>
+        <v>1092.08</v>
       </c>
       <c r="F7">
-        <v>40.5</v>
+        <v>44.9</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C8">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D8">
-        <v>110.4444444444444</v>
+        <v>105.39</v>
       </c>
       <c r="E8">
-        <v>994</v>
+        <v>1053.9</v>
       </c>
       <c r="F8">
-        <v>37.8</v>
+        <v>40.8</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C9">
-        <v>0.5555555555555556</v>
+        <v>0.6</v>
       </c>
       <c r="D9">
-        <v>103.3266666666667</v>
+        <v>101.274</v>
       </c>
       <c r="E9">
-        <v>929.9399999999999</v>
+        <v>1012.74</v>
       </c>
       <c r="F9">
-        <v>33</v>
+        <v>31.1</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
       <c r="D10">
-        <v>115.9</v>
+        <v>104.516</v>
       </c>
       <c r="E10">
-        <v>1043.1</v>
+        <v>1045.16</v>
       </c>
       <c r="F10">
-        <v>32</v>
+        <v>24.5</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="D11">
-        <v>109.2666666666667</v>
+        <v>113.288</v>
       </c>
       <c r="E11">
-        <v>983.4</v>
+        <v>1132.88</v>
       </c>
       <c r="F11">
-        <v>22.8</v>
+        <v>14.9</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4774,86 +4855,86 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C12">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
-        <v>99.93333333333332</v>
+        <v>100.262</v>
       </c>
       <c r="E12">
-        <v>899.3999999999999</v>
+        <v>1002.62</v>
       </c>
       <c r="F12">
-        <v>3.6</v>
+        <v>12.4</v>
       </c>
       <c r="G12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I12" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C13">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="D13">
-        <v>100.4044444444444</v>
+        <v>105.53</v>
       </c>
       <c r="E13">
-        <v>903.6399999999999</v>
+        <v>1055.3</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="G13">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C14">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="D14">
-        <v>104.3311111111111</v>
+        <v>99.648</v>
       </c>
       <c r="E14">
-        <v>938.98</v>
+        <v>996.4799999999999</v>
       </c>
       <c r="F14">
-        <v>1.9</v>
+        <v>2.6</v>
       </c>
       <c r="G14">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4861,28 +4942,28 @@
         <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C15">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="D15">
-        <v>89.13777777777779</v>
+        <v>92.27800000000001</v>
       </c>
       <c r="E15">
-        <v>802.2399999999999</v>
+        <v>922.7799999999999</v>
       </c>
       <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
         <v>0.3</v>
       </c>
-      <c r="G15">
-        <v>6.600000000000001</v>
-      </c>
       <c r="H15" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4890,28 +4971,28 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C16">
-        <v>0.3333333333333333</v>
+        <v>0.4</v>
       </c>
       <c r="D16">
-        <v>88.57111111111111</v>
+        <v>89.23400000000001</v>
       </c>
       <c r="E16">
-        <v>797.14</v>
+        <v>892.34</v>
       </c>
       <c r="F16">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="G16">
-        <v>5.1</v>
+        <v>0.4</v>
       </c>
       <c r="H16" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4919,28 +5000,28 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C17">
-        <v>0.3333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="D17">
-        <v>80.11555555555555</v>
+        <v>80.16200000000001</v>
       </c>
       <c r="E17">
-        <v>721.04</v>
+        <v>801.62</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>15.9</v>
+        <v>13.9</v>
       </c>
       <c r="H17" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4948,28 +5029,28 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C18">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="D18">
-        <v>81.20666666666666</v>
+        <v>79.30600000000001</v>
       </c>
       <c r="E18">
-        <v>730.86</v>
+        <v>793.0600000000001</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>37.2</v>
+        <v>44.2</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4977,28 +5058,28 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C19">
-        <v>0.2222222222222222</v>
+        <v>0.2</v>
       </c>
       <c r="D19">
-        <v>84.80222222222223</v>
+        <v>80.572</v>
       </c>
       <c r="E19">
-        <v>763.2199999999999</v>
+        <v>805.7199999999999</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>33.3</v>
+        <v>41.09999999999999</v>
       </c>
       <c r="H19" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I19" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -5016,19 +5097,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5039,16 +5120,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5059,16 +5140,16 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5079,16 +5160,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5096,19 +5177,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5116,19 +5197,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5136,19 +5217,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5156,19 +5237,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5176,19 +5257,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5196,19 +5277,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5216,19 +5297,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5236,19 +5317,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D12">
-        <v>-5</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5259,16 +5340,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D13">
-        <v>-6</v>
+        <v>-3</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5279,16 +5360,16 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D14">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5296,19 +5377,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D15">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5316,19 +5397,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D16">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5339,7 +5420,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D17">
         <v>-23</v>
@@ -5348,7 +5429,7 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5359,16 +5440,16 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D18">
-        <v>-29</v>
+        <v>-33</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5379,16 +5460,16 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D19">
-        <v>-34</v>
+        <v>-41</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5398,45 +5479,48 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>153</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -5467,11 +5551,14 @@
       <c r="J2">
         <v>37</v>
       </c>
-      <c r="K2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2">
+        <v>35</v>
+      </c>
+      <c r="L2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -5502,11 +5589,14 @@
       <c r="J3">
         <v>31</v>
       </c>
-      <c r="K3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -5537,291 +5627,318 @@
       <c r="J4">
         <v>17</v>
       </c>
-      <c r="K4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4">
+        <v>16</v>
+      </c>
+      <c r="L4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>-5</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>-7</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="I5">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="J5">
-        <v>13</v>
-      </c>
-      <c r="K5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>7</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>5</v>
       </c>
       <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>9</v>
+      </c>
+      <c r="L6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>-4</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
         <v>11</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>10</v>
       </c>
-      <c r="K6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>9</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>-2</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>3</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>1</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>1</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>3</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>8</v>
       </c>
-      <c r="K7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>13</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>14</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+      <c r="K9">
+        <v>7</v>
+      </c>
+      <c r="L9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>-3</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>-2</v>
+      </c>
+      <c r="G10">
+        <v>-3</v>
+      </c>
+      <c r="H10">
+        <v>-5</v>
+      </c>
+      <c r="I10">
+        <v>-8</v>
+      </c>
+      <c r="J10">
+        <v>-5</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <v>-3</v>
       </c>
-      <c r="D8">
+      <c r="D11">
         <v>-3</v>
       </c>
-      <c r="E8">
+      <c r="E11">
         <v>-2</v>
       </c>
-      <c r="F8">
+      <c r="F11">
         <v>1</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8">
-        <v>8</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="J8">
-        <v>6</v>
-      </c>
-      <c r="K8" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>-3</v>
-      </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>7</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="H9">
-        <v>5</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9">
-        <v>6</v>
-      </c>
-      <c r="K9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>5</v>
-      </c>
-      <c r="C10">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>15</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>4</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="H10">
-        <v>5</v>
-      </c>
-      <c r="I10">
-        <v>13</v>
-      </c>
-      <c r="J10">
-        <v>5</v>
-      </c>
-      <c r="K10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>-5</v>
-      </c>
-      <c r="C11">
-        <v>-7</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>-1</v>
       </c>
       <c r="G11">
         <v>5</v>
       </c>
       <c r="H11">
+        <v>8</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>6</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
         <v>7</v>
       </c>
-      <c r="I11">
-        <v>-1</v>
-      </c>
-      <c r="J11">
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>13</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
         <v>3</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>-3</v>
-      </c>
-      <c r="D12">
-        <v>-1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>-2</v>
-      </c>
-      <c r="G12">
-        <v>-3</v>
-      </c>
-      <c r="H12">
-        <v>-5</v>
-      </c>
-      <c r="I12">
-        <v>-8</v>
-      </c>
-      <c r="J12">
-        <v>-5</v>
-      </c>
-      <c r="K12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -5852,11 +5969,14 @@
       <c r="J13">
         <v>-6</v>
       </c>
-      <c r="K13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="K13">
+        <v>-3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -5887,81 +6007,90 @@
       <c r="J14">
         <v>-11</v>
       </c>
-      <c r="K14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="K14">
+        <v>-9</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>-6</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>-5</v>
+      </c>
+      <c r="E15">
+        <v>-4</v>
+      </c>
+      <c r="F15">
+        <v>-3</v>
+      </c>
+      <c r="G15">
+        <v>-11</v>
+      </c>
+      <c r="H15">
+        <v>-12</v>
+      </c>
+      <c r="I15">
+        <v>-7</v>
+      </c>
+      <c r="J15">
+        <v>-14</v>
+      </c>
+      <c r="K15">
+        <v>-12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>-5</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>-1</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>-8</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>-12</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>-15</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>-10</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>-14</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>-11</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>-13</v>
       </c>
-      <c r="K15" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>-6</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>-5</v>
-      </c>
-      <c r="E16">
-        <v>-4</v>
-      </c>
-      <c r="F16">
-        <v>-3</v>
-      </c>
-      <c r="G16">
-        <v>-11</v>
-      </c>
-      <c r="H16">
-        <v>-12</v>
-      </c>
-      <c r="I16">
-        <v>-7</v>
-      </c>
-      <c r="J16">
-        <v>-14</v>
-      </c>
-      <c r="K16" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="K16">
+        <v>-15</v>
+      </c>
+      <c r="L16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -5992,11 +6121,14 @@
       <c r="J17">
         <v>-23</v>
       </c>
-      <c r="K17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="K17">
+        <v>-23</v>
+      </c>
+      <c r="L17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -6027,11 +6159,14 @@
       <c r="J18">
         <v>-29</v>
       </c>
-      <c r="K18" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="K18">
+        <v>-33</v>
+      </c>
+      <c r="L18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -6062,8 +6197,11 @@
       <c r="J19">
         <v>-34</v>
       </c>
-      <c r="K19" t="s">
-        <v>136</v>
+      <c r="K19">
+        <v>-41</v>
+      </c>
+      <c r="L19" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -6073,7 +6211,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6081,25 +6219,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6107,25 +6245,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>-3</v>
       </c>
       <c r="F2">
-        <v>-9</v>
+        <v>32</v>
       </c>
       <c r="G2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6133,25 +6271,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>-29</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6159,25 +6297,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>-29</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4">
-        <v>17</v>
-      </c>
-      <c r="F4">
-        <v>-11</v>
-      </c>
       <c r="G4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6188,22 +6326,22 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>-11</v>
       </c>
       <c r="G5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6211,25 +6349,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6237,25 +6375,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7">
-        <v>-14</v>
+        <v>30</v>
       </c>
       <c r="F7">
         <v>5</v>
       </c>
       <c r="G7">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6263,25 +6401,77 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="E8">
+        <v>37</v>
+      </c>
+      <c r="F8">
         <v>13</v>
       </c>
-      <c r="F8">
-        <v>-5</v>
-      </c>
       <c r="G8">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H8" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+      <c r="F9">
+        <v>-15</v>
+      </c>
+      <c r="G9">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>-14</v>
+      </c>
+      <c r="F10">
+        <v>5</v>
+      </c>
+      <c r="G10">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Girl's Room 💞🏈 2025.xlsx
+++ b/leagues/The Girl's Room 💞🏈 2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="163">
   <si>
     <t>Tush Push Director 🍑</t>
   </si>
@@ -78,43 +78,46 @@
     <t>Lamb of Goedert</t>
   </si>
   <si>
-    <t>7-3-0</t>
-  </si>
-  <si>
-    <t>8-2-0</t>
-  </si>
-  <si>
-    <t>5-5-0</t>
-  </si>
-  <si>
-    <t>10-0-0</t>
-  </si>
-  <si>
-    <t>3-7-0</t>
-  </si>
-  <si>
-    <t>6-4-0</t>
-  </si>
-  <si>
-    <t>4-6-0</t>
-  </si>
-  <si>
-    <t>5-4-1</t>
-  </si>
-  <si>
-    <t>2-8-0</t>
-  </si>
-  <si>
-    <t>9-1-0</t>
-  </si>
-  <si>
-    <t>1-9-0</t>
-  </si>
-  <si>
-    <t>3-6-1</t>
-  </si>
-  <si>
-    <t>4-5-1</t>
+    <t>8-3-0</t>
+  </si>
+  <si>
+    <t>5-6-0</t>
+  </si>
+  <si>
+    <t>11-0-0</t>
+  </si>
+  <si>
+    <t>3-8-0</t>
+  </si>
+  <si>
+    <t>7-4-0</t>
+  </si>
+  <si>
+    <t>6-5-0</t>
+  </si>
+  <si>
+    <t>9-2-0</t>
+  </si>
+  <si>
+    <t>4-7-0</t>
+  </si>
+  <si>
+    <t>6-4-1</t>
+  </si>
+  <si>
+    <t>10-1-0</t>
+  </si>
+  <si>
+    <t>1-10-0</t>
+  </si>
+  <si>
+    <t>2-9-0</t>
+  </si>
+  <si>
+    <t>3-7-1</t>
+  </si>
+  <si>
+    <t>4-6-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -225,6 +228,9 @@
     <t>Week_11</t>
   </si>
   <si>
+    <t>Week_12</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -249,79 +255,82 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>8-2</t>
-  </si>
-  <si>
-    <t>7-3</t>
-  </si>
-  <si>
-    <t>6-4</t>
-  </si>
-  <si>
-    <t>5-5</t>
-  </si>
-  <si>
-    <t>4-6</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>2-8</t>
-  </si>
-  <si>
-    <t>11.3-3.6</t>
-  </si>
-  <si>
-    <t>10.2-4.7</t>
-  </si>
-  <si>
-    <t>10.2-4.8</t>
-  </si>
-  <si>
-    <t>9.5-5.5</t>
-  </si>
-  <si>
-    <t>8.7-6.3</t>
-  </si>
-  <si>
-    <t>8.0-6.0-1.0</t>
-  </si>
-  <si>
-    <t>8.4-6.5</t>
-  </si>
-  <si>
-    <t>8.3-6.7-0.1</t>
-  </si>
-  <si>
-    <t>8.0-7.0</t>
-  </si>
-  <si>
-    <t>7.0-7.0-1.0</t>
-  </si>
-  <si>
-    <t>7.3-7.7</t>
-  </si>
-  <si>
-    <t>6.8-8.2</t>
-  </si>
-  <si>
-    <t>6.3-8.6</t>
-  </si>
-  <si>
-    <t>6.1-8.9</t>
+    <t>9-2</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>7-4</t>
+  </si>
+  <si>
+    <t>6-5</t>
+  </si>
+  <si>
+    <t>5-6</t>
+  </si>
+  <si>
+    <t>4-7</t>
+  </si>
+  <si>
+    <t>3-8</t>
+  </si>
+  <si>
+    <t>2-9</t>
+  </si>
+  <si>
+    <t>11.8-3.2</t>
+  </si>
+  <si>
+    <t>10.6-4.3</t>
+  </si>
+  <si>
+    <t>10.5-4.4</t>
+  </si>
+  <si>
+    <t>9.0-5.9</t>
+  </si>
+  <si>
+    <t>9.0-6.0</t>
+  </si>
+  <si>
+    <t>8.8-6.2</t>
+  </si>
+  <si>
+    <t>8.1-5.8-1.0</t>
+  </si>
+  <si>
+    <t>8.1-6.9</t>
+  </si>
+  <si>
+    <t>7.4-7.6</t>
+  </si>
+  <si>
+    <t>7.5-7.5</t>
+  </si>
+  <si>
+    <t>6.6-7.4-1.0</t>
+  </si>
+  <si>
+    <t>6.9-8.1</t>
+  </si>
+  <si>
+    <t>6.6-8.3</t>
   </si>
   <si>
     <t>5.9-9.1</t>
   </si>
   <si>
-    <t>4.5-10.5</t>
-  </si>
-  <si>
-    <t>3.7-11.3</t>
-  </si>
-  <si>
-    <t>3.6-11.4</t>
+    <t>5.7-9.3</t>
+  </si>
+  <si>
+    <t>4.1-10.9</t>
+  </si>
+  <si>
+    <t>3.2-11.8</t>
+  </si>
+  <si>
+    <t>4.0-11.0</t>
   </si>
   <si>
     <t>12-3</t>
@@ -330,9 +339,6 @@
     <t>11-4</t>
   </si>
   <si>
-    <t>10-5</t>
-  </si>
-  <si>
     <t>9-6</t>
   </si>
   <si>
@@ -342,12 +348,12 @@
     <t>8-7</t>
   </si>
   <si>
+    <t>7-8</t>
+  </si>
+  <si>
     <t>7-7-1</t>
   </si>
   <si>
-    <t>7-8</t>
-  </si>
-  <si>
     <t>6-9</t>
   </si>
   <si>
@@ -372,30 +378,30 @@
     <t>Malini Ragoopath</t>
   </si>
   <si>
+    <t>Sumita Gangwani</t>
+  </si>
+  <si>
+    <t>Lily Lamb</t>
+  </si>
+  <si>
+    <t>Grace Stockbower</t>
+  </si>
+  <si>
+    <t>Emily Carey</t>
+  </si>
+  <si>
+    <t>Amanda Pasquale</t>
+  </si>
+  <si>
+    <t>Hillary Dale</t>
+  </si>
+  <si>
+    <t>Rebecca Schneider</t>
+  </si>
+  <si>
     <t>Brianna Goebel</t>
   </si>
   <si>
-    <t>Grace Stockbower</t>
-  </si>
-  <si>
-    <t>Sumita Gangwani</t>
-  </si>
-  <si>
-    <t>Amanda Pasquale</t>
-  </si>
-  <si>
-    <t>Hillary Dale</t>
-  </si>
-  <si>
-    <t>Lily Lamb</t>
-  </si>
-  <si>
-    <t>Emily Carey</t>
-  </si>
-  <si>
-    <t>Rebecca Schneider</t>
-  </si>
-  <si>
     <t>Shae Marx</t>
   </si>
   <si>
@@ -420,40 +426,37 @@
     <t>Nicole Coppins</t>
   </si>
   <si>
-    <t>↓2</t>
+    <t>↑2</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑6</t>
   </si>
   <si>
     <t>↑1</t>
   </si>
   <si>
+    <t>↑7</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓6</t>
-  </si>
-  <si>
-    <t>↑9</t>
-  </si>
-  <si>
-    <t>↑2</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>↓10</t>
+  </si>
+  <si>
+    <t>↓8</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -484,6 +487,9 @@
   </si>
   <si>
     <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
   </si>
   <si>
     <t>Week</t>
@@ -938,7 +944,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -950,19 +956,19 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
@@ -971,7 +977,7 @@
         <v>18</v>
       </c>
       <c r="P2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q2" t="s">
         <v>18</v>
@@ -980,7 +986,7 @@
         <v>18</v>
       </c>
       <c r="S2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -988,58 +994,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" t="s">
-        <v>24</v>
       </c>
       <c r="N3" t="s">
         <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="Q3" t="s">
         <v>23</v>
       </c>
       <c r="R3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1047,58 +1053,58 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
       <c r="M4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N4" t="s">
         <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P4" t="s">
         <v>23</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1106,37 +1112,37 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
       </c>
       <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
         <v>19</v>
       </c>
-      <c r="K5" t="s">
-        <v>20</v>
-      </c>
       <c r="L5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
@@ -1154,10 +1160,10 @@
         <v>18</v>
       </c>
       <c r="R5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1165,10 +1171,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -1177,46 +1183,46 @@
         <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" t="s">
         <v>28</v>
       </c>
       <c r="L6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P6" t="s">
         <v>28</v>
       </c>
       <c r="Q6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1224,25 +1230,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
       </c>
       <c r="I7" t="s">
         <v>23</v>
@@ -1251,31 +1257,31 @@
         <v>27</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M7" t="s">
         <v>23</v>
       </c>
       <c r="N7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P7" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q7" t="s">
         <v>23</v>
       </c>
-      <c r="O7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>20</v>
-      </c>
       <c r="R7" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1283,55 +1289,55 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
         <v>22</v>
       </c>
-      <c r="G8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+      <c r="M8" t="s">
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
         <v>23</v>
       </c>
-      <c r="K8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" t="s">
-        <v>20</v>
-      </c>
       <c r="P8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S8" t="s">
         <v>28</v>
@@ -1342,58 +1348,58 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" t="s">
         <v>22</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" t="s">
-        <v>23</v>
       </c>
       <c r="J9" t="s">
         <v>18</v>
       </c>
       <c r="K9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" t="s">
         <v>23</v>
       </c>
-      <c r="M9" t="s">
-        <v>18</v>
-      </c>
-      <c r="N9" t="s">
-        <v>20</v>
-      </c>
       <c r="O9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R9" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="S9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1401,22 +1407,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
@@ -1425,7 +1431,7 @@
         <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K10" t="s">
         <v>18</v>
@@ -1437,19 +1443,19 @@
         <v>23</v>
       </c>
       <c r="N10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q10" t="s">
         <v>27</v>
       </c>
       <c r="R10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S10" t="s">
         <v>23</v>
@@ -1460,58 +1466,58 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
       <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
         <v>23</v>
       </c>
-      <c r="E11" t="s">
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" t="s">
         <v>22</v>
       </c>
-      <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" t="s">
-        <v>23</v>
-      </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s">
         <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
         <v>18</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q11" t="s">
         <v>18</v>
       </c>
       <c r="R11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1519,25 +1525,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
         <v>19</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -1549,25 +1555,25 @@
         <v>18</v>
       </c>
       <c r="L12" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
         <v>23</v>
-      </c>
-      <c r="M12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" t="s">
-        <v>20</v>
       </c>
       <c r="O12" t="s">
         <v>18</v>
       </c>
       <c r="P12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>22</v>
+      </c>
+      <c r="R12" t="s">
         <v>19</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>23</v>
-      </c>
-      <c r="R12" t="s">
-        <v>24</v>
       </c>
       <c r="S12" t="s">
         <v>23</v>
@@ -1578,58 +1584,58 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O13" t="s">
         <v>23</v>
       </c>
       <c r="P13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="R13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1637,7 +1643,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1646,7 +1652,7 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -1658,19 +1664,19 @@
         <v>27</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K14" t="s">
         <v>27</v>
       </c>
       <c r="L14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="M14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="N14" t="s">
         <v>18</v>
@@ -1682,13 +1688,13 @@
         <v>18</v>
       </c>
       <c r="Q14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1696,22 +1702,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
         <v>23</v>
@@ -1720,10 +1726,10 @@
         <v>23</v>
       </c>
       <c r="J15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
         <v>23</v>
@@ -1732,16 +1738,16 @@
         <v>23</v>
       </c>
       <c r="N15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O15" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P15" t="s">
         <v>23</v>
       </c>
       <c r="Q15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R15" t="s">
         <v>18</v>
@@ -1758,55 +1764,55 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
         <v>22</v>
       </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>22</v>
       </c>
-      <c r="H16" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>18</v>
-      </c>
-      <c r="J16" t="s">
-        <v>19</v>
       </c>
       <c r="K16" t="s">
         <v>23</v>
       </c>
       <c r="L16" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="M16" t="s">
         <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="P16" t="s">
         <v>23</v>
       </c>
       <c r="Q16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1814,13 +1820,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
         <v>28</v>
@@ -1835,37 +1841,37 @@
         <v>28</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P17" t="s">
         <v>28</v>
       </c>
       <c r="Q17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="R17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="S17" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1873,10 +1879,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
@@ -1885,43 +1891,43 @@
         <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H18" t="s">
         <v>28</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="N18" t="s">
         <v>28</v>
       </c>
       <c r="O18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P18" t="s">
         <v>28</v>
       </c>
       <c r="Q18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="S18" t="s">
         <v>28</v>
@@ -1932,58 +1938,58 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="I19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" t="s">
         <v>23</v>
       </c>
-      <c r="K19" t="s">
-        <v>22</v>
-      </c>
-      <c r="L19" t="s">
-        <v>20</v>
-      </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="R19" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="S19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2001,13 +2007,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2018,10 +2024,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>3.111111111111111</v>
+        <v>3.388888888888889</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2032,10 +2038,10 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>3.777777777777778</v>
+        <v>3.888888888888889</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2043,13 +2049,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4">
-        <v>4.277777777777778</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2057,13 +2063,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>4.277777777777778</v>
+        <v>4.944444444444445</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2071,13 +2077,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>4.611111111111111</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2085,13 +2091,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>4.777777777777778</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2102,10 +2108,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>4.777777777777778</v>
+        <v>5.166666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2113,13 +2119,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>4.833333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2127,10 +2133,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>4.944444444444445</v>
+        <v>5.5</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -2141,13 +2147,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>4.944444444444445</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2158,7 +2164,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D12" t="s">
         <v>18</v>
@@ -2169,13 +2175,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C13">
-        <v>5.111111111111111</v>
+        <v>5.888888888888889</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2183,13 +2189,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2197,13 +2203,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>5.555555555555555</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2214,10 +2220,10 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>5.555555555555555</v>
+        <v>6.222222222222222</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2225,13 +2231,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>5.777777777777778</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2242,7 +2248,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.277777777777778</v>
+        <v>6.888888888888889</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -2256,10 +2262,10 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>6.777777777777778</v>
+        <v>7.277777777777778</v>
       </c>
       <c r="D19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -2277,16 +2283,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2297,10 +2303,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>7.666666666666667</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D2">
-        <v>0.666666666666667</v>
+        <v>0.6666666666666661</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -2311,16 +2317,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>7.055555555555555</v>
+        <v>7.944444444444445</v>
       </c>
       <c r="D3">
-        <v>-0.9444444444444446</v>
+        <v>-0.05555555555555536</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2328,16 +2334,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>7.055555555555555</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D4">
-        <v>0.05555555555555536</v>
+        <v>-1.166666666666667</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2348,13 +2354,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>6.166666666666667</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>0.166666666666667</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2362,16 +2368,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>6.055555555555555</v>
+        <v>6.444444444444445</v>
       </c>
       <c r="D6">
-        <v>-0.9444444444444446</v>
+        <v>2.444444444444445</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2379,16 +2385,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>6.277777777777778</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>-0.7222222222222223</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2399,13 +2405,13 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>5.944444444444445</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="D8">
-        <v>0.9444444444444446</v>
+        <v>0.1111111111111107</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2413,16 +2419,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>5.555555555555555</v>
+        <v>6.055555555555555</v>
       </c>
       <c r="D9">
-        <v>-0.4444444444444446</v>
+        <v>1.055555555555555</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2430,16 +2436,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>5.166666666666667</v>
+        <v>5.944444444444445</v>
       </c>
       <c r="D10">
-        <v>0.166666666666667</v>
+        <v>-0.05555555555555536</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2447,16 +2453,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>5.111111111111111</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D11">
-        <v>1.111111111111111</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2467,13 +2473,13 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>4.777777777777778</v>
+        <v>5.444444444444445</v>
       </c>
       <c r="D12">
-        <v>-1.222222222222222</v>
+        <v>-1.555555555555555</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2481,16 +2487,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>4.5</v>
+        <v>4.944444444444445</v>
       </c>
       <c r="D13">
-        <v>-0.5</v>
+        <v>0.9444444444444446</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2498,16 +2504,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>4.388888888888889</v>
+        <v>4.833333333333333</v>
       </c>
       <c r="D14">
-        <v>0.3888888888888893</v>
+        <v>-0.166666666666667</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2518,13 +2524,13 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>4.111111111111111</v>
+        <v>4.388888888888889</v>
       </c>
       <c r="D15">
-        <v>0.1111111111111107</v>
+        <v>0.3888888888888893</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2535,13 +2541,13 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>3.611111111111111</v>
+        <v>4.333333333333333</v>
       </c>
       <c r="D16">
-        <v>-0.3888888888888888</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2552,13 +2558,13 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>2.388888888888889</v>
+        <v>2.444444444444445</v>
       </c>
       <c r="D17">
-        <v>-0.6111111111111112</v>
+        <v>-0.5555555555555554</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2569,13 +2575,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>2.222222222222222</v>
+        <v>2.444444444444445</v>
       </c>
       <c r="D18">
-        <v>0.2222222222222223</v>
+        <v>-0.5555555555555554</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2592,7 +2598,7 @@
         <v>0.1111111111111112</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2610,64 +2616,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2675,31 +2681,31 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>52.2</v>
+        <v>62.6</v>
       </c>
       <c r="C2">
-        <v>25.5</v>
+        <v>23.3</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>11.6</v>
       </c>
       <c r="E2">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0.8</v>
       </c>
       <c r="G2">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -2729,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="T2">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -2737,37 +2743,37 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>18.9</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>26.8</v>
+        <v>33.2</v>
       </c>
       <c r="D3">
-        <v>25.7</v>
+        <v>32.6</v>
       </c>
       <c r="E3">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="F3">
-        <v>7.9</v>
+        <v>4.1</v>
       </c>
       <c r="G3">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="H3">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="I3">
-        <v>1.9</v>
+        <v>0.2</v>
       </c>
       <c r="J3">
-        <v>1.4</v>
+        <v>0.1</v>
       </c>
       <c r="K3">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -2791,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>94.40000000000001</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -2799,40 +2805,40 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>20.1</v>
+        <v>18.6</v>
       </c>
       <c r="C4">
-        <v>28.7</v>
+        <v>32.3</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>28.5</v>
       </c>
       <c r="E4">
-        <v>11.6</v>
+        <v>9.9</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="I4">
-        <v>2.6</v>
+        <v>0.4</v>
       </c>
       <c r="J4">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="K4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -2853,54 +2859,54 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>93.40000000000001</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>6.6</v>
+        <v>0.6</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="D5">
+        <v>9.9</v>
+      </c>
+      <c r="E5">
+        <v>21.6</v>
+      </c>
+      <c r="F5">
+        <v>19.8</v>
+      </c>
+      <c r="G5">
         <v>15.1</v>
       </c>
-      <c r="E5">
-        <v>20.6</v>
-      </c>
-      <c r="F5">
-        <v>13.8</v>
-      </c>
-      <c r="G5">
-        <v>11.3</v>
-      </c>
       <c r="H5">
-        <v>7.5</v>
+        <v>11.7</v>
       </c>
       <c r="I5">
-        <v>5.1</v>
+        <v>7.4</v>
       </c>
       <c r="J5">
-        <v>4.4</v>
+        <v>5.2</v>
       </c>
       <c r="K5">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L5">
-        <v>0.7</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="N5">
         <v>0.2</v>
       </c>
       <c r="O5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2915,57 +2921,57 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>78.40000000000001</v>
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+      <c r="D6">
+        <v>5.1</v>
+      </c>
+      <c r="E6">
+        <v>18.3</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>16.4</v>
+      </c>
+      <c r="H6">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>1.2</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>12.6</v>
-      </c>
-      <c r="F6">
-        <v>16.7</v>
-      </c>
-      <c r="G6">
-        <v>14.6</v>
-      </c>
-      <c r="H6">
-        <v>11.6</v>
-      </c>
       <c r="I6">
-        <v>10.6</v>
+        <v>9.9</v>
       </c>
       <c r="J6">
-        <v>7.9</v>
+        <v>10.2</v>
       </c>
       <c r="K6">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="L6">
-        <v>4.8</v>
+        <v>2.8</v>
       </c>
       <c r="M6">
-        <v>1.9</v>
+        <v>2.4</v>
       </c>
       <c r="N6">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="O6">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2977,57 +2983,57 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>56.1</v>
+        <v>57.4</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>0.5</v>
-      </c>
       <c r="C7">
-        <v>2.1</v>
+        <v>4.3</v>
       </c>
       <c r="D7">
-        <v>4.7</v>
+        <v>5.8</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>14.4</v>
       </c>
       <c r="F7">
-        <v>12.8</v>
+        <v>15.6</v>
       </c>
       <c r="G7">
-        <v>11.8</v>
+        <v>16.1</v>
       </c>
       <c r="H7">
-        <v>14</v>
+        <v>10.4</v>
       </c>
       <c r="I7">
-        <v>10.5</v>
+        <v>10.8</v>
       </c>
       <c r="J7">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="K7">
-        <v>8.800000000000001</v>
+        <v>4.9</v>
       </c>
       <c r="L7">
-        <v>5.9</v>
+        <v>4.8</v>
       </c>
       <c r="M7">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="N7">
-        <v>2.5</v>
+        <v>0.7</v>
       </c>
       <c r="O7">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -3039,57 +3045,57 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>44.9</v>
+        <v>57.2</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="C8">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>15.6</v>
+      </c>
+      <c r="F8">
+        <v>14.2</v>
+      </c>
+      <c r="G8">
+        <v>13.1</v>
+      </c>
+      <c r="H8">
+        <v>16.9</v>
+      </c>
+      <c r="I8">
+        <v>9.4</v>
+      </c>
+      <c r="J8">
+        <v>7.9</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
         <v>4.6</v>
       </c>
-      <c r="E8">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="F8">
-        <v>11.9</v>
-      </c>
-      <c r="G8">
-        <v>12.9</v>
-      </c>
-      <c r="H8">
-        <v>13</v>
-      </c>
-      <c r="I8">
-        <v>12.4</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <v>9.4</v>
-      </c>
-      <c r="L8">
-        <v>7</v>
-      </c>
       <c r="M8">
-        <v>4.4</v>
+        <v>1.5</v>
       </c>
       <c r="N8">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O8">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="P8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3101,57 +3107,57 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>40.8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="E9">
-        <v>7.9</v>
+        <v>5.8</v>
       </c>
       <c r="F9">
-        <v>9.1</v>
+        <v>10.1</v>
       </c>
       <c r="G9">
-        <v>10.8</v>
+        <v>13.1</v>
       </c>
       <c r="H9">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="I9">
-        <v>12</v>
+        <v>15.2</v>
       </c>
       <c r="J9">
-        <v>11.3</v>
+        <v>13.8</v>
       </c>
       <c r="K9">
-        <v>11.3</v>
+        <v>9.6</v>
       </c>
       <c r="L9">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="M9">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="N9">
-        <v>4.6</v>
+        <v>2.6</v>
       </c>
       <c r="O9">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3163,61 +3169,61 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>31.1</v>
+        <v>30.4</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
       </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>4.9</v>
+      </c>
+      <c r="G10">
+        <v>6.7</v>
+      </c>
+      <c r="H10">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I10">
+        <v>13.9</v>
+      </c>
+      <c r="J10">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>15.5</v>
+      </c>
+      <c r="L10">
+        <v>15.3</v>
+      </c>
+      <c r="M10">
+        <v>8.6</v>
+      </c>
+      <c r="N10">
+        <v>6.1</v>
+      </c>
+      <c r="O10">
+        <v>2.7</v>
+      </c>
+      <c r="P10">
+        <v>1.4</v>
+      </c>
+      <c r="Q10">
         <v>0.1</v>
       </c>
-      <c r="D10">
-        <v>1.5</v>
-      </c>
-      <c r="E10">
-        <v>4.8</v>
-      </c>
-      <c r="F10">
-        <v>6.8</v>
-      </c>
-      <c r="G10">
-        <v>11.3</v>
-      </c>
-      <c r="H10">
-        <v>13.4</v>
-      </c>
-      <c r="I10">
-        <v>12</v>
-      </c>
-      <c r="J10">
-        <v>14.2</v>
-      </c>
-      <c r="K10">
-        <v>11</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10">
-        <v>7.1</v>
-      </c>
-      <c r="N10">
-        <v>3.2</v>
-      </c>
-      <c r="O10">
-        <v>2.4</v>
-      </c>
-      <c r="P10">
-        <v>1.8</v>
-      </c>
-      <c r="Q10">
-        <v>0.4</v>
-      </c>
       <c r="R10">
         <v>0</v>
       </c>
@@ -3225,136 +3231,136 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>24.5</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2.7</v>
+        <v>0.6</v>
       </c>
       <c r="F11">
-        <v>5.2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>12.7</v>
       </c>
       <c r="I11">
-        <v>10.7</v>
+        <v>14.6</v>
       </c>
       <c r="J11">
-        <v>12.4</v>
+        <v>11.5</v>
       </c>
       <c r="K11">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="L11">
-        <v>10.6</v>
+        <v>15.2</v>
       </c>
       <c r="M11">
-        <v>9.699999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N11">
-        <v>9</v>
+        <v>6.2</v>
       </c>
       <c r="O11">
-        <v>4.9</v>
+        <v>4.5</v>
       </c>
       <c r="P11">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="Q11">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>14.9</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>4.3</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>6.1</v>
+        <v>4.8</v>
       </c>
       <c r="H12">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="I12">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="J12">
-        <v>11.2</v>
+        <v>12.6</v>
       </c>
       <c r="K12">
-        <v>10.9</v>
+        <v>14</v>
       </c>
       <c r="L12">
-        <v>14.9</v>
+        <v>11.8</v>
       </c>
       <c r="M12">
-        <v>15.3</v>
+        <v>13.1</v>
       </c>
       <c r="N12">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="O12">
-        <v>7</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="P12">
-        <v>3.9</v>
+        <v>5.1</v>
       </c>
       <c r="Q12">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>12.4</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3363,60 +3369,60 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="F13">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="G13">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="H13">
-        <v>6.1</v>
+        <v>4.4</v>
       </c>
       <c r="I13">
-        <v>7.6</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>8.300000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="K13">
-        <v>12.9</v>
+        <v>10.6</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>13.4</v>
       </c>
       <c r="M13">
-        <v>13.8</v>
+        <v>17.4</v>
       </c>
       <c r="N13">
-        <v>13.2</v>
+        <v>15.5</v>
       </c>
       <c r="O13">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="P13">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q13">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="R13">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3428,57 +3434,57 @@
         <v>0</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+      <c r="G14">
+        <v>1.4</v>
+      </c>
+      <c r="H14">
+        <v>1.1</v>
+      </c>
+      <c r="I14">
+        <v>2.6</v>
+      </c>
+      <c r="J14">
+        <v>4.3</v>
+      </c>
+      <c r="K14">
+        <v>7.1</v>
+      </c>
+      <c r="L14">
+        <v>9.1</v>
+      </c>
+      <c r="M14">
+        <v>17.2</v>
+      </c>
+      <c r="N14">
+        <v>21.3</v>
+      </c>
+      <c r="O14">
+        <v>18.7</v>
+      </c>
+      <c r="P14">
+        <v>13.9</v>
+      </c>
+      <c r="Q14">
+        <v>2.7</v>
+      </c>
+      <c r="R14">
         <v>0.1</v>
       </c>
-      <c r="F14">
-        <v>0.8</v>
-      </c>
-      <c r="G14">
-        <v>1.7</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>3.9</v>
-      </c>
-      <c r="J14">
-        <v>5.1</v>
-      </c>
-      <c r="K14">
-        <v>8.4</v>
-      </c>
-      <c r="L14">
-        <v>12.3</v>
-      </c>
-      <c r="M14">
-        <v>13</v>
-      </c>
-      <c r="N14">
-        <v>16.9</v>
-      </c>
-      <c r="O14">
-        <v>17.2</v>
-      </c>
-      <c r="P14">
-        <v>13.5</v>
-      </c>
-      <c r="Q14">
-        <v>4</v>
-      </c>
-      <c r="R14">
-        <v>1.1</v>
-      </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3490,57 +3496,57 @@
         <v>0</v>
       </c>
       <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0.4</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.7</v>
+      </c>
+      <c r="J15">
+        <v>2.2</v>
+      </c>
+      <c r="K15">
+        <v>6.2</v>
+      </c>
+      <c r="L15">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="M15">
+        <v>12.4</v>
+      </c>
+      <c r="N15">
+        <v>18</v>
+      </c>
+      <c r="O15">
+        <v>23.3</v>
+      </c>
+      <c r="P15">
+        <v>19.5</v>
+      </c>
+      <c r="Q15">
+        <v>5.2</v>
+      </c>
+      <c r="R15">
+        <v>1.3</v>
+      </c>
+      <c r="S15">
         <v>0.1</v>
       </c>
-      <c r="F15">
+      <c r="T15">
         <v>0.4</v>
-      </c>
-      <c r="G15">
-        <v>0.5</v>
-      </c>
-      <c r="H15">
-        <v>0.7</v>
-      </c>
-      <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15">
-        <v>2.4</v>
-      </c>
-      <c r="K15">
-        <v>3.3</v>
-      </c>
-      <c r="L15">
-        <v>7.1</v>
-      </c>
-      <c r="M15">
-        <v>12.7</v>
-      </c>
-      <c r="N15">
-        <v>15.6</v>
-      </c>
-      <c r="O15">
-        <v>20.2</v>
-      </c>
-      <c r="P15">
-        <v>23.1</v>
-      </c>
-      <c r="Q15">
-        <v>9.1</v>
-      </c>
-      <c r="R15">
-        <v>2.5</v>
-      </c>
-      <c r="S15">
-        <v>0.3</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3552,52 +3558,52 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
         <v>0.2</v>
       </c>
-      <c r="G16">
-        <v>0.1</v>
-      </c>
-      <c r="H16">
-        <v>0.3</v>
-      </c>
       <c r="I16">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="J16">
+        <v>0.7</v>
+      </c>
+      <c r="K16">
         <v>1.7</v>
       </c>
-      <c r="K16">
-        <v>1.9</v>
-      </c>
       <c r="L16">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="M16">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="N16">
-        <v>16.2</v>
+        <v>13.5</v>
       </c>
       <c r="O16">
-        <v>21.9</v>
+        <v>24.1</v>
       </c>
       <c r="P16">
-        <v>24.5</v>
+        <v>36.5</v>
       </c>
       <c r="Q16">
-        <v>13.8</v>
+        <v>6.9</v>
       </c>
       <c r="R16">
-        <v>4.1</v>
+        <v>2.1</v>
       </c>
       <c r="S16">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="T16">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -3626,37 +3632,37 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="M17">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="N17">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="O17">
-        <v>6.1</v>
+        <v>2.8</v>
       </c>
       <c r="P17">
-        <v>13.9</v>
+        <v>4.9</v>
       </c>
       <c r="Q17">
-        <v>32.9</v>
+        <v>35.5</v>
       </c>
       <c r="R17">
-        <v>29.5</v>
+        <v>34.4</v>
       </c>
       <c r="S17">
-        <v>13.9</v>
+        <v>21</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -3700,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
         <v>0.1</v>
       </c>
-      <c r="N18">
-        <v>1.1</v>
-      </c>
       <c r="O18">
-        <v>2.2</v>
+        <v>0.6</v>
       </c>
       <c r="P18">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="Q18">
-        <v>18.4</v>
+        <v>11</v>
       </c>
       <c r="R18">
-        <v>29.4</v>
+        <v>24.2</v>
       </c>
       <c r="S18">
-        <v>44.2</v>
+        <v>61.7</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -3759,28 +3765,28 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="M19">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="N19">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="O19">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="P19">
-        <v>4.2</v>
+        <v>6.2</v>
       </c>
       <c r="Q19">
-        <v>18.6</v>
+        <v>37</v>
       </c>
       <c r="R19">
-        <v>32.6</v>
+        <v>37.6</v>
       </c>
       <c r="S19">
-        <v>41.1</v>
+        <v>16.5</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -3793,680 +3799,731 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>67</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>93.8</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="C2">
-        <v>83.8</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D2">
-        <v>56.8</v>
+        <v>58.59999999999999</v>
       </c>
       <c r="E2">
-        <v>79</v>
+        <v>73.7</v>
       </c>
       <c r="F2">
-        <v>91</v>
+        <v>87.09999999999999</v>
       </c>
       <c r="G2">
-        <v>82.69999999999999</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="H2">
-        <v>93.7</v>
+        <v>93.10000000000001</v>
       </c>
       <c r="I2">
         <v>93.30000000000001</v>
       </c>
       <c r="J2">
-        <v>98.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="K2">
-        <v>99.3</v>
+        <v>99.7</v>
       </c>
       <c r="L2">
-        <v>99.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>40.40000000000001</v>
+        <v>39</v>
       </c>
       <c r="C3">
-        <v>81.69999999999999</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="D3">
-        <v>43.9</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="E3">
-        <v>34.4</v>
+        <v>80</v>
       </c>
       <c r="F3">
-        <v>60.7</v>
+        <v>81.89999999999999</v>
       </c>
       <c r="G3">
-        <v>74.3</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="H3">
+        <v>93.60000000000001</v>
+      </c>
+      <c r="I3">
+        <v>94</v>
+      </c>
+      <c r="J3">
+        <v>95.7</v>
+      </c>
+      <c r="K3">
+        <v>92.10000000000001</v>
+      </c>
+      <c r="L3">
+        <v>97.8</v>
+      </c>
+      <c r="M3">
+        <v>98.90000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
         <v>81.8</v>
       </c>
-      <c r="I3">
-        <v>60.9</v>
-      </c>
-      <c r="J3">
-        <v>80.80000000000001</v>
-      </c>
-      <c r="K3">
-        <v>93.7</v>
-      </c>
-      <c r="L3">
-        <v>94.89999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="1" t="s">
+      <c r="D4">
+        <v>44.7</v>
+      </c>
+      <c r="E4">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>61.2</v>
+      </c>
+      <c r="G4">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="H4">
+        <v>81.89999999999999</v>
+      </c>
+      <c r="I4">
+        <v>62.2</v>
+      </c>
+      <c r="J4">
+        <v>81.89999999999999</v>
+      </c>
+      <c r="K4">
+        <v>94</v>
+      </c>
+      <c r="L4">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="M4">
+        <v>98.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="C5">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="D5">
+        <v>14.5</v>
+      </c>
+      <c r="E5">
+        <v>36</v>
+      </c>
+      <c r="F5">
+        <v>21</v>
+      </c>
+      <c r="G5">
+        <v>10.4</v>
+      </c>
+      <c r="H5">
         <v>12</v>
       </c>
-      <c r="B4">
-        <v>38.7</v>
-      </c>
-      <c r="C4">
-        <v>61.2</v>
-      </c>
-      <c r="D4">
+      <c r="I5">
+        <v>22.8</v>
+      </c>
+      <c r="J5">
+        <v>40.1</v>
+      </c>
+      <c r="K5">
+        <v>55.40000000000001</v>
+      </c>
+      <c r="L5">
+        <v>75.09999999999999</v>
+      </c>
+      <c r="M5">
+        <v>71.39999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>21.3</v>
+      </c>
+      <c r="C6">
+        <v>68.8</v>
+      </c>
+      <c r="D6">
+        <v>68.7</v>
+      </c>
+      <c r="E6">
+        <v>51.2</v>
+      </c>
+      <c r="F6">
+        <v>64.7</v>
+      </c>
+      <c r="G6">
+        <v>80.2</v>
+      </c>
+      <c r="H6">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="I6">
+        <v>95.8</v>
+      </c>
+      <c r="J6">
+        <v>89.8</v>
+      </c>
+      <c r="K6">
+        <v>76.59999999999999</v>
+      </c>
+      <c r="L6">
         <v>55.90000000000001</v>
       </c>
-      <c r="E4">
-        <v>79.7</v>
-      </c>
-      <c r="F4">
-        <v>84.3</v>
-      </c>
-      <c r="G4">
-        <v>93.30000000000001</v>
-      </c>
-      <c r="H4">
-        <v>92.30000000000001</v>
-      </c>
-      <c r="I4">
-        <v>93.8</v>
-      </c>
-      <c r="J4">
-        <v>96.7</v>
-      </c>
-      <c r="K4">
-        <v>92.30000000000001</v>
-      </c>
-      <c r="L4">
-        <v>93.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>21.4</v>
-      </c>
-      <c r="C5">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="D5">
-        <v>65.8</v>
-      </c>
-      <c r="E5">
-        <v>51</v>
-      </c>
-      <c r="F5">
-        <v>61.9</v>
-      </c>
-      <c r="G5">
-        <v>80.7</v>
-      </c>
-      <c r="H5">
-        <v>91.10000000000001</v>
-      </c>
-      <c r="I5">
-        <v>95.89999999999999</v>
-      </c>
-      <c r="J5">
-        <v>89</v>
-      </c>
-      <c r="K5">
-        <v>75</v>
-      </c>
-      <c r="L5">
-        <v>76.90000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>90.40000000000001</v>
-      </c>
-      <c r="C6">
-        <v>90.7</v>
-      </c>
-      <c r="D6">
-        <v>13.7</v>
-      </c>
-      <c r="E6">
-        <v>34.3</v>
-      </c>
-      <c r="F6">
-        <v>19.6</v>
-      </c>
-      <c r="G6">
-        <v>9.700000000000001</v>
-      </c>
-      <c r="H6">
-        <v>12.4</v>
-      </c>
-      <c r="I6">
-        <v>21.9</v>
-      </c>
-      <c r="J6">
-        <v>42.8</v>
-      </c>
-      <c r="K6">
-        <v>55.8</v>
-      </c>
-      <c r="L6">
-        <v>56.00000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>59.09999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>1.3</v>
+        <v>31.8</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>31.6</v>
       </c>
       <c r="D7">
-        <v>11.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E7">
-        <v>21.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F7">
-        <v>34.5</v>
+        <v>30.6</v>
       </c>
       <c r="G7">
-        <v>42.6</v>
+        <v>41.09999999999999</v>
       </c>
       <c r="H7">
-        <v>58.9</v>
+        <v>61.5</v>
       </c>
       <c r="I7">
-        <v>79.60000000000001</v>
+        <v>52.40000000000001</v>
       </c>
       <c r="J7">
-        <v>56.89999999999999</v>
+        <v>34.9</v>
       </c>
       <c r="K7">
-        <v>45.2</v>
+        <v>24.8</v>
       </c>
       <c r="L7">
-        <v>44.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>51.6</v>
+      </c>
+      <c r="M7">
+        <v>55.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>35.3</v>
+        <v>36.7</v>
       </c>
       <c r="C8">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>65.5</v>
+      </c>
+      <c r="E8">
+        <v>73.7</v>
+      </c>
+      <c r="F8">
+        <v>39.90000000000001</v>
+      </c>
+      <c r="G8">
+        <v>18.2</v>
+      </c>
+      <c r="H8">
+        <v>11.1</v>
+      </c>
+      <c r="I8">
+        <v>13.5</v>
+      </c>
+      <c r="J8">
+        <v>24.7</v>
+      </c>
+      <c r="K8">
+        <v>40.7</v>
+      </c>
+      <c r="L8">
+        <v>56.8</v>
+      </c>
+      <c r="M8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="E9">
+        <v>21.4</v>
+      </c>
+      <c r="F9">
+        <v>35.7</v>
+      </c>
+      <c r="G9">
+        <v>42.6</v>
+      </c>
+      <c r="H9">
+        <v>56.99999999999999</v>
+      </c>
+      <c r="I9">
+        <v>80.80000000000001</v>
+      </c>
+      <c r="J9">
+        <v>59.59999999999999</v>
+      </c>
+      <c r="K9">
+        <v>49.3</v>
+      </c>
+      <c r="L9">
+        <v>25.7</v>
+      </c>
+      <c r="M9">
+        <v>30.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6.5</v>
+      </c>
+      <c r="C10">
+        <v>0.1</v>
+      </c>
+      <c r="D10">
+        <v>16.8</v>
+      </c>
+      <c r="E10">
+        <v>9.6</v>
+      </c>
+      <c r="F10">
+        <v>3.8</v>
+      </c>
+      <c r="G10">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>1.4</v>
+      </c>
+      <c r="J10">
+        <v>4.6</v>
+      </c>
+      <c r="K10">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="L10">
+        <v>12.4</v>
+      </c>
+      <c r="M10">
         <v>12.1</v>
       </c>
-      <c r="D8">
-        <v>64.8</v>
-      </c>
-      <c r="E8">
-        <v>71.2</v>
-      </c>
-      <c r="F8">
-        <v>41.2</v>
-      </c>
-      <c r="G8">
-        <v>19.7</v>
-      </c>
-      <c r="H8">
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>17.8</v>
+      </c>
+      <c r="C11">
+        <v>33.4</v>
+      </c>
+      <c r="D11">
+        <v>46.5</v>
+      </c>
+      <c r="E11">
+        <v>38.3</v>
+      </c>
+      <c r="F11">
+        <v>42.7</v>
+      </c>
+      <c r="G11">
+        <v>60.09999999999999</v>
+      </c>
+      <c r="H11">
+        <v>29.7</v>
+      </c>
+      <c r="I11">
+        <v>49</v>
+      </c>
+      <c r="J11">
+        <v>26.8</v>
+      </c>
+      <c r="K11">
+        <v>23.9</v>
+      </c>
+      <c r="L11">
+        <v>14.9</v>
+      </c>
+      <c r="M11">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>28.6</v>
+      </c>
+      <c r="C12">
+        <v>13.4</v>
+      </c>
+      <c r="D12">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="E12">
+        <v>84.89999999999999</v>
+      </c>
+      <c r="F12">
+        <v>59.8</v>
+      </c>
+      <c r="G12">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="H12">
+        <v>36.3</v>
+      </c>
+      <c r="I12">
+        <v>23</v>
+      </c>
+      <c r="J12">
+        <v>36.1</v>
+      </c>
+      <c r="K12">
+        <v>19</v>
+      </c>
+      <c r="L12">
+        <v>6.4</v>
+      </c>
+      <c r="M12">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>0.8</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>2.3</v>
+      </c>
+      <c r="F13">
+        <v>6.4</v>
+      </c>
+      <c r="G13">
+        <v>3.4</v>
+      </c>
+      <c r="H13">
+        <v>6.1</v>
+      </c>
+      <c r="I13">
+        <v>1.8</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>11.5</v>
+      </c>
+      <c r="L13">
+        <v>3.4</v>
+      </c>
+      <c r="M13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14">
+        <v>20.6</v>
+      </c>
+      <c r="C14">
+        <v>28.7</v>
+      </c>
+      <c r="D14">
+        <v>11.2</v>
+      </c>
+      <c r="E14">
+        <v>3.5</v>
+      </c>
+      <c r="F14">
+        <v>2.2</v>
+      </c>
+      <c r="G14">
+        <v>1.1</v>
+      </c>
+      <c r="H14">
+        <v>0.3</v>
+      </c>
+      <c r="I14">
+        <v>0.6</v>
+      </c>
+      <c r="J14">
+        <v>0.2</v>
+      </c>
+      <c r="K14">
+        <v>0.4</v>
+      </c>
+      <c r="L14">
+        <v>0.8</v>
+      </c>
+      <c r="M14">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>99.8</v>
+      </c>
+      <c r="C15">
+        <v>40.1</v>
+      </c>
+      <c r="D15">
+        <v>69</v>
+      </c>
+      <c r="E15">
+        <v>53.6</v>
+      </c>
+      <c r="F15">
+        <v>35.9</v>
+      </c>
+      <c r="G15">
+        <v>16.3</v>
+      </c>
+      <c r="H15">
+        <v>20.1</v>
+      </c>
+      <c r="I15">
+        <v>8.6</v>
+      </c>
+      <c r="J15">
+        <v>1.8</v>
+      </c>
+      <c r="K15">
+        <v>3.5</v>
+      </c>
+      <c r="L15">
+        <v>0.8</v>
+      </c>
+      <c r="M15">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>11.6</v>
+      </c>
+      <c r="C16">
+        <v>50.1</v>
+      </c>
+      <c r="D16">
+        <v>56.7</v>
+      </c>
+      <c r="E16">
+        <v>20.4</v>
+      </c>
+      <c r="F16">
         <v>9.9</v>
       </c>
-      <c r="I8">
-        <v>14.1</v>
-      </c>
-      <c r="J8">
-        <v>22.1</v>
-      </c>
-      <c r="K8">
-        <v>43.8</v>
-      </c>
-      <c r="L8">
-        <v>44.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>30.1</v>
-      </c>
-      <c r="C9">
-        <v>28.3</v>
-      </c>
-      <c r="D9">
-        <v>9.9</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>32.9</v>
-      </c>
-      <c r="G9">
-        <v>39.5</v>
-      </c>
-      <c r="H9">
-        <v>64</v>
-      </c>
-      <c r="I9">
-        <v>55.8</v>
-      </c>
-      <c r="J9">
-        <v>37.5</v>
-      </c>
-      <c r="K9">
-        <v>27</v>
-      </c>
-      <c r="L9">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>17.7</v>
-      </c>
-      <c r="C10">
-        <v>35.09999999999999</v>
-      </c>
-      <c r="D10">
-        <v>47.9</v>
-      </c>
-      <c r="E10">
-        <v>40.1</v>
-      </c>
-      <c r="F10">
-        <v>40.7</v>
-      </c>
-      <c r="G10">
-        <v>57.9</v>
-      </c>
-      <c r="H10">
-        <v>28.2</v>
-      </c>
-      <c r="I10">
-        <v>49.8</v>
-      </c>
-      <c r="J10">
-        <v>27.8</v>
-      </c>
-      <c r="K10">
-        <v>23.2</v>
-      </c>
-      <c r="L10">
-        <v>23.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11">
-        <v>29</v>
-      </c>
-      <c r="C11">
-        <v>15.2</v>
-      </c>
-      <c r="D11">
-        <v>66.5</v>
-      </c>
-      <c r="E11">
-        <v>83</v>
-      </c>
-      <c r="F11">
-        <v>57.7</v>
-      </c>
-      <c r="G11">
-        <v>64.3</v>
-      </c>
-      <c r="H11">
-        <v>37.4</v>
-      </c>
-      <c r="I11">
-        <v>23.9</v>
-      </c>
-      <c r="J11">
-        <v>36.6</v>
-      </c>
-      <c r="K11">
-        <v>21.6</v>
-      </c>
-      <c r="L11">
-        <v>15.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>0.5</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>2.7</v>
-      </c>
-      <c r="F12">
-        <v>7.1</v>
-      </c>
-      <c r="G12">
-        <v>2.7</v>
-      </c>
-      <c r="H12">
-        <v>7.5</v>
-      </c>
-      <c r="I12">
-        <v>1.1</v>
-      </c>
-      <c r="J12">
-        <v>6.2</v>
-      </c>
-      <c r="K12">
-        <v>10</v>
-      </c>
-      <c r="L12">
-        <v>12.4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>5.800000000000001</v>
-      </c>
-      <c r="C13">
+      <c r="G16">
+        <v>2.5</v>
+      </c>
+      <c r="H16">
+        <v>0.8</v>
+      </c>
+      <c r="I16">
         <v>0.1</v>
       </c>
-      <c r="D13">
-        <v>18.9</v>
-      </c>
-      <c r="E13">
-        <v>11</v>
-      </c>
-      <c r="F13">
-        <v>2.5</v>
-      </c>
-      <c r="G13">
-        <v>8.5</v>
-      </c>
-      <c r="H13">
-        <v>2.1</v>
-      </c>
-      <c r="I13">
-        <v>1.1</v>
-      </c>
-      <c r="J13">
-        <v>3.4</v>
-      </c>
-      <c r="K13">
-        <v>7.3</v>
-      </c>
-      <c r="L13">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14">
-        <v>42.3</v>
-      </c>
-      <c r="D14">
-        <v>69.8</v>
-      </c>
-      <c r="E14">
-        <v>53</v>
-      </c>
-      <c r="F14">
-        <v>40.3</v>
-      </c>
-      <c r="G14">
-        <v>15.4</v>
-      </c>
-      <c r="H14">
-        <v>18.9</v>
-      </c>
-      <c r="I14">
-        <v>7.5</v>
-      </c>
-      <c r="J14">
-        <v>1.3</v>
-      </c>
-      <c r="K14">
-        <v>3.8</v>
-      </c>
-      <c r="L14">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>11.6</v>
-      </c>
-      <c r="C15">
-        <v>49.3</v>
-      </c>
-      <c r="D15">
-        <v>54.6</v>
-      </c>
-      <c r="E15">
-        <v>21.4</v>
-      </c>
-      <c r="F15">
-        <v>9.1</v>
-      </c>
-      <c r="G15">
-        <v>2.1</v>
-      </c>
-      <c r="H15">
-        <v>0.2</v>
-      </c>
-      <c r="I15">
-        <v>0.2</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>1.2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16">
-        <v>20.9</v>
-      </c>
-      <c r="C16">
-        <v>30.5</v>
-      </c>
-      <c r="D16">
-        <v>12.2</v>
-      </c>
-      <c r="E16">
-        <v>2.4</v>
-      </c>
-      <c r="F16">
-        <v>1.6</v>
-      </c>
-      <c r="G16">
-        <v>1.3</v>
-      </c>
-      <c r="H16">
-        <v>0.2</v>
-      </c>
-      <c r="I16">
-        <v>0.7000000000000001</v>
-      </c>
       <c r="J16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.7000000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="L16">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B17">
-        <v>61.5</v>
+        <v>61.9</v>
       </c>
       <c r="C17">
-        <v>3.2</v>
+        <v>4.100000000000001</v>
       </c>
       <c r="D17">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="E17">
-        <v>3.7</v>
+        <v>6.5</v>
       </c>
       <c r="F17">
-        <v>14.7</v>
+        <v>16.9</v>
       </c>
       <c r="G17">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="H17">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="I17">
-        <v>0.3</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="J17">
         <v>0.1</v>
       </c>
       <c r="K17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.3</v>
+      </c>
+      <c r="D18">
+        <v>1.7</v>
+      </c>
+      <c r="E18">
+        <v>0.6</v>
+      </c>
+      <c r="F18">
+        <v>0.3</v>
+      </c>
+      <c r="G18">
         <v>0.5</v>
       </c>
-      <c r="C18">
-        <v>0.6</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18">
-        <v>0.5</v>
-      </c>
-      <c r="F18">
+      <c r="H18">
         <v>0.2</v>
       </c>
-      <c r="G18">
-        <v>0.1</v>
-      </c>
-      <c r="H18">
-        <v>0.1</v>
-      </c>
       <c r="I18">
         <v>0</v>
       </c>
@@ -4479,19 +4536,22 @@
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19">
-        <v>1.1</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.2</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="E19">
         <v>0.1</v>
@@ -4506,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -4515,6 +4575,9 @@
         <v>0</v>
       </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
         <v>0</v>
       </c>
     </row>
@@ -4533,31 +4596,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4565,28 +4628,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C2">
-        <v>0.8</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="D2">
-        <v>116.308</v>
+        <v>115.8436363636364</v>
       </c>
       <c r="E2">
-        <v>1163.08</v>
+        <v>1274.28</v>
       </c>
       <c r="F2">
-        <v>99.40000000000001</v>
+        <v>100</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4594,28 +4657,28 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C3">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D3">
-        <v>117.99</v>
+        <v>117.4181818181818</v>
       </c>
       <c r="E3">
-        <v>1179.9</v>
+        <v>1291.6</v>
       </c>
       <c r="F3">
-        <v>94.39999999999999</v>
+        <v>99</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4623,315 +4686,315 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4">
-        <v>0.7</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="D4">
-        <v>119.23</v>
+        <v>119.0472727272727</v>
       </c>
       <c r="E4">
-        <v>1192.3</v>
+        <v>1309.52</v>
       </c>
       <c r="F4">
-        <v>93.40000000000001</v>
+        <v>98.8</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C5">
-        <v>0.7</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D5">
-        <v>110.264</v>
+        <v>109.6309090909091</v>
       </c>
       <c r="E5">
-        <v>1102.64</v>
+        <v>1205.94</v>
       </c>
       <c r="F5">
-        <v>78.40000000000001</v>
+        <v>70.39999999999999</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C6">
-        <v>0.6</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D6">
-        <v>109.45</v>
+        <v>102.1309090909091</v>
       </c>
       <c r="E6">
-        <v>1094.5</v>
+        <v>1123.44</v>
       </c>
       <c r="F6">
-        <v>56.10000000000001</v>
+        <v>57.4</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="C7">
-        <v>0.55</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="D7">
-        <v>109.208</v>
+        <v>106.8890909090909</v>
       </c>
       <c r="E7">
-        <v>1092.08</v>
+        <v>1175.78</v>
       </c>
       <c r="F7">
-        <v>44.9</v>
+        <v>57.2</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="D8">
-        <v>105.39</v>
+        <v>105.3072727272727</v>
       </c>
       <c r="E8">
-        <v>1053.9</v>
+        <v>1158.38</v>
       </c>
       <c r="F8">
-        <v>40.8</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C9">
-        <v>0.6</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="D9">
-        <v>101.274</v>
+        <v>104.4636363636364</v>
       </c>
       <c r="E9">
-        <v>1012.74</v>
+        <v>1149.1</v>
       </c>
       <c r="F9">
-        <v>31.1</v>
+        <v>30.4</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D10">
-        <v>104.516</v>
+        <v>106.5381818181818</v>
       </c>
       <c r="E10">
-        <v>1045.16</v>
+        <v>1171.92</v>
       </c>
       <c r="F10">
-        <v>24.5</v>
+        <v>12.6</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C11">
-        <v>0.45</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D11">
-        <v>113.288</v>
+        <v>104.78</v>
       </c>
       <c r="E11">
-        <v>1132.88</v>
+        <v>1152.58</v>
       </c>
       <c r="F11">
-        <v>14.9</v>
+        <v>11.6</v>
       </c>
       <c r="G11">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>0.4090909090909091</v>
       </c>
       <c r="D12">
-        <v>100.262</v>
+        <v>112.5254545454546</v>
       </c>
       <c r="E12">
-        <v>1002.62</v>
+        <v>1237.78</v>
       </c>
       <c r="F12">
-        <v>12.4</v>
+        <v>5.800000000000001</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C13">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D13">
-        <v>105.53</v>
+        <v>98.64727272727272</v>
       </c>
       <c r="E13">
-        <v>1055.3</v>
+        <v>1085.12</v>
       </c>
       <c r="F13">
-        <v>5.7</v>
+        <v>4.5</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C14">
-        <v>0.4</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D14">
-        <v>99.648</v>
+        <v>91.18909090909091</v>
       </c>
       <c r="E14">
-        <v>996.4799999999999</v>
+        <v>1003.08</v>
       </c>
       <c r="F14">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="I14" t="s">
         <v>108</v>
@@ -4939,60 +5002,60 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C15">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D15">
+        <v>100.5781818181818</v>
+      </c>
+      <c r="E15">
+        <v>1106.36</v>
+      </c>
+      <c r="F15">
         <v>0.4</v>
       </c>
-      <c r="D15">
-        <v>92.27800000000001</v>
-      </c>
-      <c r="E15">
-        <v>922.7799999999999</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
       <c r="G15">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C16">
-        <v>0.4</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D16">
-        <v>89.23400000000001</v>
+        <v>90.80909090909091</v>
       </c>
       <c r="E16">
-        <v>892.34</v>
+        <v>998.8999999999999</v>
       </c>
       <c r="F16">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="I16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5000,28 +5063,28 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C17">
-        <v>0.3</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D17">
-        <v>80.16200000000001</v>
+        <v>77.51272727272728</v>
       </c>
       <c r="E17">
-        <v>801.62</v>
+        <v>852.64</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>13.9</v>
+        <v>21</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5029,28 +5092,28 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C18">
-        <v>0.2</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="D18">
-        <v>79.30600000000001</v>
+        <v>75.94363636363637</v>
       </c>
       <c r="E18">
-        <v>793.0600000000001</v>
+        <v>835.3800000000001</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>44.2</v>
+        <v>61.7</v>
       </c>
       <c r="H18" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="I18" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -5058,28 +5121,28 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C19">
-        <v>0.2</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="D19">
-        <v>80.572</v>
+        <v>79.36</v>
       </c>
       <c r="E19">
-        <v>805.7199999999999</v>
+        <v>872.9599999999999</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.09999999999999</v>
+        <v>16.5</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -5097,19 +5160,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5120,16 +5183,16 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5140,16 +5203,16 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D3">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5157,19 +5220,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5177,19 +5240,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5197,19 +5260,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5217,19 +5280,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5237,19 +5300,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5257,19 +5320,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5277,19 +5340,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5297,19 +5360,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5320,16 +5383,16 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5340,16 +5403,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D13">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5360,16 +5423,16 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D14">
-        <v>-9</v>
+        <v>-7</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5380,16 +5443,16 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D15">
-        <v>-12</v>
+        <v>-11</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5400,16 +5463,16 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D16">
         <v>-15</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5420,16 +5483,16 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D17">
-        <v>-23</v>
+        <v>-33</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5440,16 +5503,16 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D18">
-        <v>-33</v>
+        <v>-41</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5460,13 +5523,13 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D19">
-        <v>-41</v>
+        <v>-51</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F19" t="s">
         <v>143</v>
@@ -5479,48 +5542,51 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+        <v>155</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -5554,11 +5620,14 @@
       <c r="K2">
         <v>35</v>
       </c>
-      <c r="L2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2">
+        <v>37</v>
+      </c>
+      <c r="M2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -5592,241 +5661,262 @@
       <c r="K3">
         <v>32</v>
       </c>
-      <c r="L3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3">
+        <v>37</v>
+      </c>
+      <c r="M3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>-3</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4">
+        <v>7</v>
+      </c>
+      <c r="H4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
         <v>6</v>
       </c>
-      <c r="D4">
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="M4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>17</v>
+      </c>
+      <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>14</v>
+      </c>
+      <c r="J5">
+        <v>13</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>-5</v>
+      </c>
+      <c r="C6">
+        <v>-7</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>-1</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>7</v>
+      </c>
+      <c r="I6">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
         <v>11</v>
       </c>
-      <c r="F4">
-        <v>13</v>
-      </c>
-      <c r="G4">
-        <v>13</v>
-      </c>
-      <c r="H4">
-        <v>17</v>
-      </c>
-      <c r="I4">
-        <v>17</v>
-      </c>
-      <c r="J4">
-        <v>17</v>
-      </c>
-      <c r="K4">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>-5</v>
-      </c>
-      <c r="C5">
-        <v>-7</v>
-      </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>-1</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5">
-        <v>7</v>
-      </c>
-      <c r="I5">
-        <v>-1</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
+      <c r="L6">
+        <v>12</v>
+      </c>
+      <c r="M6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>-3</v>
-      </c>
-      <c r="E6">
-        <v>4</v>
-      </c>
-      <c r="F6">
-        <v>7</v>
-      </c>
-      <c r="G6">
-        <v>7</v>
-      </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>6</v>
-      </c>
-      <c r="K6">
-        <v>9</v>
-      </c>
-      <c r="L6" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>-4</v>
       </c>
       <c r="D7">
         <v>-1</v>
       </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>-2</v>
+      </c>
+      <c r="G7">
+        <v>-3</v>
+      </c>
+      <c r="H7">
+        <v>-5</v>
+      </c>
+      <c r="I7">
+        <v>-8</v>
+      </c>
+      <c r="J7">
+        <v>-5</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>-4</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>7</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>3</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>11</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>10</v>
-      </c>
-      <c r="K7">
-        <v>7</v>
-      </c>
-      <c r="L7" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>-2</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>3</v>
-      </c>
-      <c r="J8">
-        <v>8</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
-      <c r="L8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="L8">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K9">
         <v>7</v>
       </c>
-      <c r="L9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -5835,72 +5925,78 @@
         <v>-3</v>
       </c>
       <c r="D10">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E10">
+        <v>-2</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>-2</v>
-      </c>
       <c r="G10">
-        <v>-3</v>
+        <v>5</v>
       </c>
       <c r="H10">
-        <v>-5</v>
+        <v>8</v>
       </c>
       <c r="I10">
-        <v>-8</v>
+        <v>6</v>
       </c>
       <c r="J10">
-        <v>-5</v>
+        <v>6</v>
       </c>
       <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>-3</v>
+        <v>6</v>
       </c>
       <c r="D11">
-        <v>-3</v>
+        <v>13</v>
       </c>
       <c r="E11">
-        <v>-2</v>
+        <v>11</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H11">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J11">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>7</v>
+      </c>
+      <c r="M11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -5934,11 +6030,14 @@
       <c r="K12">
         <v>3</v>
       </c>
-      <c r="L12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="L12">
+        <v>2</v>
+      </c>
+      <c r="M12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -5972,11 +6071,14 @@
       <c r="K13">
         <v>-3</v>
       </c>
-      <c r="L13" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="L13">
+        <v>-1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -6010,11 +6112,14 @@
       <c r="K14">
         <v>-9</v>
       </c>
-      <c r="L14" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="L14">
+        <v>-7</v>
+      </c>
+      <c r="M14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -6048,11 +6153,14 @@
       <c r="K15">
         <v>-12</v>
       </c>
-      <c r="L15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="L15">
+        <v>-11</v>
+      </c>
+      <c r="M15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -6086,11 +6194,14 @@
       <c r="K16">
         <v>-15</v>
       </c>
-      <c r="L16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="L16">
+        <v>-15</v>
+      </c>
+      <c r="M16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -6124,11 +6235,14 @@
       <c r="K17">
         <v>-23</v>
       </c>
-      <c r="L17" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="L17">
+        <v>-33</v>
+      </c>
+      <c r="M17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -6162,11 +6276,14 @@
       <c r="K18">
         <v>-33</v>
       </c>
-      <c r="L18" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="L18">
+        <v>-41</v>
+      </c>
+      <c r="M18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -6200,7 +6317,10 @@
       <c r="K19">
         <v>-41</v>
       </c>
-      <c r="L19" t="s">
+      <c r="L19">
+        <v>-51</v>
+      </c>
+      <c r="M19" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6219,25 +6339,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6323,25 +6443,25 @@
         <v>3</v>
       </c>
       <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>17</v>
-      </c>
       <c r="F5">
-        <v>-11</v>
+        <v>37</v>
       </c>
       <c r="G5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6349,25 +6469,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F6">
-        <v>7</v>
+        <v>-11</v>
       </c>
       <c r="G6">
         <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6375,25 +6495,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G7">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6401,25 +6521,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F8">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G8">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6427,25 +6547,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F9">
-        <v>-15</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6453,25 +6573,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E10">
-        <v>-14</v>
+        <v>7</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>-15</v>
       </c>
       <c r="G10">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Girl's Room 💞🏈 2025.xlsx
+++ b/leagues/The Girl's Room 💞🏈 2025.xlsx
@@ -12,17 +12,18 @@
     <sheet name="Expected Wins" sheetId="3" r:id="rId3"/>
     <sheet name="Playoff Odds" sheetId="4" r:id="rId4"/>
     <sheet name="Playoff Odds By Week" sheetId="5" r:id="rId5"/>
-    <sheet name="Record Odds" sheetId="6" r:id="rId6"/>
-    <sheet name="Louie Power Index" sheetId="7" r:id="rId7"/>
-    <sheet name="LPI By Week" sheetId="8" r:id="rId8"/>
-    <sheet name="Biggest Upsets" sheetId="9" r:id="rId9"/>
+    <sheet name="Remaining Schedule Difficulty" sheetId="6" r:id="rId6"/>
+    <sheet name="Record Odds" sheetId="7" r:id="rId7"/>
+    <sheet name="Louie Power Index" sheetId="8" r:id="rId8"/>
+    <sheet name="LPI By Week" sheetId="9" r:id="rId9"/>
+    <sheet name="Biggest Upsets" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="166">
   <si>
     <t>Tush Push Director 🍑</t>
   </si>
@@ -231,6 +232,81 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Avg_Points_For</t>
+  </si>
+  <si>
+    <t>Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Points_For</t>
+  </si>
+  <si>
+    <t>Avg_Opp_Win_Pct</t>
+  </si>
+  <si>
+    <t>Avg_Opp_LPI</t>
+  </si>
+  <si>
+    <t>Games_Remaining</t>
+  </si>
+  <si>
+    <t>Shae Marx</t>
+  </si>
+  <si>
+    <t>Nicole Coppins</t>
+  </si>
+  <si>
+    <t>Swathi Veeravalli</t>
+  </si>
+  <si>
+    <t>Grace Schiavone</t>
+  </si>
+  <si>
+    <t>Hillary Dale</t>
+  </si>
+  <si>
+    <t>Lily Lamb</t>
+  </si>
+  <si>
+    <t>Nikki Papalia</t>
+  </si>
+  <si>
+    <t>Faith Pon</t>
+  </si>
+  <si>
+    <t>Allie Kardon</t>
+  </si>
+  <si>
+    <t>Emily Carey</t>
+  </si>
+  <si>
+    <t>Sumita Gangwani</t>
+  </si>
+  <si>
+    <t>Malini Ragoopath</t>
+  </si>
+  <si>
+    <t>Amanda Pasquale</t>
+  </si>
+  <si>
+    <t>Hannah Miller</t>
+  </si>
+  <si>
+    <t>Brianna Goebel</t>
+  </si>
+  <si>
+    <t>Grace Stockbower</t>
+  </si>
+  <si>
+    <t>Rebecca Schneider</t>
+  </si>
+  <si>
+    <t>Kiana McIntosh</t>
+  </si>
+  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -279,46 +355,40 @@
     <t>2-9</t>
   </si>
   <si>
-    <t>11.8-3.2</t>
-  </si>
-  <si>
-    <t>10.6-4.3</t>
-  </si>
-  <si>
-    <t>10.5-4.4</t>
-  </si>
-  <si>
-    <t>9.0-5.9</t>
-  </si>
-  <si>
-    <t>9.0-6.0</t>
+    <t>11.9-3.1</t>
+  </si>
+  <si>
+    <t>10.6-4.4</t>
+  </si>
+  <si>
+    <t>9.1-5.9</t>
   </si>
   <si>
     <t>8.8-6.2</t>
   </si>
   <si>
-    <t>8.1-5.8-1.0</t>
-  </si>
-  <si>
-    <t>8.1-6.9</t>
-  </si>
-  <si>
-    <t>7.4-7.6</t>
-  </si>
-  <si>
-    <t>7.5-7.5</t>
-  </si>
-  <si>
-    <t>6.6-7.4-1.0</t>
+    <t>8.9-6.1</t>
+  </si>
+  <si>
+    <t>8.2-6.8</t>
+  </si>
+  <si>
+    <t>8.1-6.8</t>
+  </si>
+  <si>
+    <t>7.3-7.7</t>
+  </si>
+  <si>
+    <t>7.4-7.5</t>
   </si>
   <si>
     <t>6.9-8.1</t>
   </si>
   <si>
-    <t>6.6-8.3</t>
-  </si>
-  <si>
-    <t>5.9-9.1</t>
+    <t>6.6-8.4</t>
+  </si>
+  <si>
+    <t>5.9-9.0</t>
   </si>
   <si>
     <t>5.7-9.3</t>
@@ -342,18 +412,12 @@
     <t>9-6</t>
   </si>
   <si>
-    <t>8-6-1</t>
-  </si>
-  <si>
     <t>8-7</t>
   </si>
   <si>
     <t>7-8</t>
   </si>
   <si>
-    <t>7-7-1</t>
-  </si>
-  <si>
     <t>6-9</t>
   </si>
   <si>
@@ -370,60 +434,6 @@
   </si>
   <si>
     <t>Change From Last Week</t>
-  </si>
-  <si>
-    <t>Kiana McIntosh</t>
-  </si>
-  <si>
-    <t>Malini Ragoopath</t>
-  </si>
-  <si>
-    <t>Sumita Gangwani</t>
-  </si>
-  <si>
-    <t>Lily Lamb</t>
-  </si>
-  <si>
-    <t>Grace Stockbower</t>
-  </si>
-  <si>
-    <t>Emily Carey</t>
-  </si>
-  <si>
-    <t>Amanda Pasquale</t>
-  </si>
-  <si>
-    <t>Hillary Dale</t>
-  </si>
-  <si>
-    <t>Rebecca Schneider</t>
-  </si>
-  <si>
-    <t>Brianna Goebel</t>
-  </si>
-  <si>
-    <t>Shae Marx</t>
-  </si>
-  <si>
-    <t>Faith Pon</t>
-  </si>
-  <si>
-    <t>Nikki Papalia</t>
-  </si>
-  <si>
-    <t>Hannah Miller</t>
-  </si>
-  <si>
-    <t>Allie Kardon</t>
-  </si>
-  <si>
-    <t>Swathi Veeravalli</t>
-  </si>
-  <si>
-    <t>Grace Schiavone</t>
-  </si>
-  <si>
-    <t>Nicole Coppins</t>
   </si>
   <si>
     <t>↑2</t>
@@ -1997,6 +2007,276 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2">
+        <v>-3</v>
+      </c>
+      <c r="F2">
+        <v>32</v>
+      </c>
+      <c r="G2">
+        <v>35</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>-9</v>
+      </c>
+      <c r="G3">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>-29</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>37</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>-11</v>
+      </c>
+      <c r="G6">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>37</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>7</v>
+      </c>
+      <c r="F10">
+        <v>-15</v>
+      </c>
+      <c r="G10">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
@@ -2681,22 +2961,22 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>62.6</v>
+        <v>63.2</v>
       </c>
       <c r="C2">
-        <v>23.3</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>11.6</v>
+        <v>11.2</v>
       </c>
       <c r="E2">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="F2">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -2740,34 +3020,34 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>20.2</v>
       </c>
       <c r="C3">
-        <v>33.2</v>
+        <v>35</v>
       </c>
       <c r="D3">
-        <v>32.6</v>
+        <v>27.8</v>
       </c>
       <c r="E3">
-        <v>10.8</v>
+        <v>10.1</v>
       </c>
       <c r="F3">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="H3">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="I3">
         <v>0.2</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2797,36 +3077,36 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>99</v>
+        <v>99.2</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>18.6</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>32.3</v>
+        <v>31.7</v>
       </c>
       <c r="D4">
-        <v>28.5</v>
+        <v>35.9</v>
       </c>
       <c r="E4">
-        <v>9.9</v>
+        <v>10.4</v>
       </c>
       <c r="F4">
-        <v>7.5</v>
+        <v>4.6</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="H4">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="I4">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J4">
         <v>0.1</v>
@@ -2859,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -2867,43 +3147,43 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="D5">
-        <v>9.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E5">
-        <v>21.6</v>
+        <v>27</v>
       </c>
       <c r="F5">
-        <v>19.8</v>
+        <v>22.7</v>
       </c>
       <c r="G5">
-        <v>15.1</v>
+        <v>13.7</v>
       </c>
       <c r="H5">
-        <v>11.7</v>
+        <v>7.3</v>
       </c>
       <c r="I5">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="J5">
-        <v>5.2</v>
+        <v>4.5</v>
       </c>
       <c r="K5">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="M5">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="N5">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -2921,55 +3201,55 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>70.40000000000001</v>
+        <v>77.3</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>4.4</v>
+      </c>
+      <c r="D6">
+        <v>8.4</v>
+      </c>
+      <c r="E6">
+        <v>16.6</v>
+      </c>
+      <c r="F6">
+        <v>15.2</v>
+      </c>
+      <c r="G6">
+        <v>13.6</v>
+      </c>
+      <c r="H6">
+        <v>10.1</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>8.1</v>
+      </c>
+      <c r="K6">
+        <v>4.9</v>
+      </c>
+      <c r="L6">
+        <v>3.3</v>
+      </c>
+      <c r="M6">
+        <v>2.9</v>
+      </c>
+      <c r="N6">
+        <v>0.9</v>
+      </c>
+      <c r="O6">
         <v>0.1</v>
       </c>
-      <c r="C6">
-        <v>1.5</v>
-      </c>
-      <c r="D6">
-        <v>5.1</v>
-      </c>
-      <c r="E6">
-        <v>18.3</v>
-      </c>
-      <c r="F6">
-        <v>16</v>
-      </c>
-      <c r="G6">
-        <v>16.4</v>
-      </c>
-      <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>9.9</v>
-      </c>
-      <c r="J6">
-        <v>10.2</v>
-      </c>
-      <c r="K6">
-        <v>6.2</v>
-      </c>
-      <c r="L6">
-        <v>2.8</v>
-      </c>
-      <c r="M6">
-        <v>2.4</v>
-      </c>
-      <c r="N6">
-        <v>1.1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
       <c r="P6">
         <v>0</v>
       </c>
@@ -2983,48 +3263,48 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>57.4</v>
+        <v>58.7</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C7">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
-        <v>5.8</v>
+        <v>4.7</v>
       </c>
       <c r="E7">
-        <v>14.4</v>
+        <v>15.7</v>
       </c>
       <c r="F7">
-        <v>15.6</v>
+        <v>16.2</v>
       </c>
       <c r="G7">
-        <v>16.1</v>
+        <v>15.2</v>
       </c>
       <c r="H7">
-        <v>10.4</v>
+        <v>14.7</v>
       </c>
       <c r="I7">
-        <v>10.8</v>
+        <v>10</v>
       </c>
       <c r="J7">
-        <v>8.800000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="K7">
-        <v>4.9</v>
+        <v>6.7</v>
       </c>
       <c r="L7">
-        <v>4.8</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="N7">
         <v>0.7</v>
@@ -3045,57 +3325,57 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>57.2</v>
+        <v>52.5</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="E8">
-        <v>15.6</v>
+        <v>7.1</v>
       </c>
       <c r="F8">
         <v>14.2</v>
       </c>
       <c r="G8">
-        <v>13.1</v>
+        <v>15</v>
       </c>
       <c r="H8">
-        <v>16.9</v>
+        <v>15.6</v>
       </c>
       <c r="I8">
-        <v>9.4</v>
+        <v>10.1</v>
       </c>
       <c r="J8">
-        <v>7.9</v>
+        <v>12.4</v>
       </c>
       <c r="K8">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="L8">
         <v>8</v>
       </c>
-      <c r="L8">
-        <v>4.6</v>
-      </c>
       <c r="M8">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="N8">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="O8">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3107,57 +3387,57 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B9">
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D9">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="E9">
-        <v>5.8</v>
+        <v>8.9</v>
       </c>
       <c r="F9">
-        <v>10.1</v>
+        <v>11.5</v>
       </c>
       <c r="G9">
+        <v>14.7</v>
+      </c>
+      <c r="H9">
         <v>13.1</v>
       </c>
-      <c r="H9">
-        <v>12.4</v>
-      </c>
       <c r="I9">
-        <v>15.2</v>
+        <v>14.4</v>
       </c>
       <c r="J9">
-        <v>13.8</v>
+        <v>11.3</v>
       </c>
       <c r="K9">
-        <v>9.6</v>
+        <v>10.8</v>
       </c>
       <c r="L9">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="M9">
-        <v>6.7</v>
+        <v>4.4</v>
       </c>
       <c r="N9">
-        <v>2.6</v>
+        <v>1.5</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="P9">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3169,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>30.4</v>
+        <v>36.7</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -3183,46 +3463,46 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>1.8</v>
       </c>
       <c r="F10">
-        <v>4.9</v>
+        <v>3.6</v>
       </c>
       <c r="G10">
-        <v>6.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H10">
-        <v>9.800000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="I10">
-        <v>13.9</v>
+        <v>12.9</v>
       </c>
       <c r="J10">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="K10">
         <v>15.5</v>
       </c>
       <c r="L10">
-        <v>15.3</v>
+        <v>12.3</v>
       </c>
       <c r="M10">
-        <v>8.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="N10">
-        <v>6.1</v>
+        <v>7.1</v>
       </c>
       <c r="O10">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="P10">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="Q10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -3231,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>12.6</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -3248,43 +3528,43 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>8.9</v>
       </c>
       <c r="H11">
-        <v>12.7</v>
+        <v>11.7</v>
       </c>
       <c r="I11">
-        <v>14.6</v>
+        <v>15</v>
       </c>
       <c r="J11">
-        <v>11.5</v>
+        <v>12.8</v>
       </c>
       <c r="K11">
-        <v>13.7</v>
+        <v>13.1</v>
       </c>
       <c r="L11">
-        <v>15.2</v>
+        <v>12.5</v>
       </c>
       <c r="M11">
-        <v>8.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="N11">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="O11">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="P11">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -3293,12 +3573,12 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>11.6</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3310,57 +3590,57 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="G12">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="H12">
+        <v>3.8</v>
+      </c>
+      <c r="I12">
+        <v>6.9</v>
+      </c>
+      <c r="J12">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K12">
         <v>8</v>
       </c>
-      <c r="I12">
-        <v>7.2</v>
-      </c>
-      <c r="J12">
-        <v>12.6</v>
-      </c>
-      <c r="K12">
-        <v>14</v>
-      </c>
       <c r="L12">
-        <v>11.8</v>
+        <v>13.8</v>
       </c>
       <c r="M12">
+        <v>17.6</v>
+      </c>
+      <c r="N12">
+        <v>15.6</v>
+      </c>
+      <c r="O12">
         <v>13.1</v>
       </c>
-      <c r="N12">
-        <v>12.3</v>
-      </c>
-      <c r="O12">
-        <v>8.800000000000001</v>
-      </c>
       <c r="P12">
-        <v>5.1</v>
+        <v>7</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="R12">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3369,60 +3649,60 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="G13">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="H13">
-        <v>4.4</v>
+        <v>7.1</v>
       </c>
       <c r="I13">
-        <v>6</v>
+        <v>7.6</v>
       </c>
       <c r="J13">
-        <v>8.6</v>
+        <v>11.8</v>
       </c>
       <c r="K13">
-        <v>10.6</v>
+        <v>14.9</v>
       </c>
       <c r="L13">
-        <v>13.4</v>
+        <v>12.5</v>
       </c>
       <c r="M13">
-        <v>17.4</v>
+        <v>13.7</v>
       </c>
       <c r="N13">
-        <v>15.5</v>
+        <v>12.8</v>
       </c>
       <c r="O13">
-        <v>11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="P13">
-        <v>8</v>
+        <v>6.1</v>
       </c>
       <c r="Q13">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3437,54 +3717,54 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G14">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>1.9</v>
+      </c>
+      <c r="J14">
+        <v>3.2</v>
+      </c>
+      <c r="K14">
+        <v>6.6</v>
+      </c>
+      <c r="L14">
+        <v>9.5</v>
+      </c>
+      <c r="M14">
+        <v>11.1</v>
+      </c>
+      <c r="N14">
+        <v>18.7</v>
+      </c>
+      <c r="O14">
+        <v>23.5</v>
+      </c>
+      <c r="P14">
+        <v>16.7</v>
+      </c>
+      <c r="Q14">
+        <v>4.4</v>
+      </c>
+      <c r="R14">
+        <v>1.3</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>1.1</v>
-      </c>
-      <c r="I14">
-        <v>2.6</v>
-      </c>
-      <c r="J14">
-        <v>4.3</v>
-      </c>
-      <c r="K14">
-        <v>7.1</v>
-      </c>
-      <c r="L14">
-        <v>9.1</v>
-      </c>
-      <c r="M14">
-        <v>17.2</v>
-      </c>
-      <c r="N14">
-        <v>21.3</v>
-      </c>
-      <c r="O14">
-        <v>18.7</v>
-      </c>
-      <c r="P14">
-        <v>13.9</v>
-      </c>
-      <c r="Q14">
-        <v>2.7</v>
-      </c>
-      <c r="R14">
-        <v>0.1</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>1.9</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3496,52 +3776,52 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G15">
+        <v>0.3</v>
+      </c>
+      <c r="H15">
+        <v>1.9</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>4.5</v>
+      </c>
+      <c r="K15">
+        <v>7.7</v>
+      </c>
+      <c r="L15">
+        <v>10.3</v>
+      </c>
+      <c r="M15">
+        <v>15.6</v>
+      </c>
+      <c r="N15">
+        <v>20</v>
+      </c>
+      <c r="O15">
+        <v>20.2</v>
+      </c>
+      <c r="P15">
+        <v>13.8</v>
+      </c>
+      <c r="Q15">
+        <v>1.7</v>
+      </c>
+      <c r="R15">
         <v>0.4</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>1.7</v>
-      </c>
-      <c r="J15">
-        <v>2.2</v>
-      </c>
-      <c r="K15">
-        <v>6.2</v>
-      </c>
-      <c r="L15">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="M15">
-        <v>12.4</v>
-      </c>
-      <c r="N15">
-        <v>18</v>
-      </c>
-      <c r="O15">
-        <v>23.3</v>
-      </c>
-      <c r="P15">
-        <v>19.5</v>
-      </c>
-      <c r="Q15">
-        <v>5.2</v>
-      </c>
-      <c r="R15">
-        <v>1.3</v>
       </c>
       <c r="S15">
         <v>0.1</v>
       </c>
       <c r="T15">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -3564,46 +3844,46 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0.7</v>
       </c>
       <c r="J16">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="K16">
+        <v>1.2</v>
+      </c>
+      <c r="L16">
+        <v>5.3</v>
+      </c>
+      <c r="M16">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="N16">
+        <v>12.8</v>
+      </c>
+      <c r="O16">
+        <v>22.2</v>
+      </c>
+      <c r="P16">
+        <v>38</v>
+      </c>
+      <c r="Q16">
+        <v>7.7</v>
+      </c>
+      <c r="R16">
         <v>1.7</v>
       </c>
-      <c r="L16">
-        <v>4.1</v>
-      </c>
-      <c r="M16">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="N16">
-        <v>13.5</v>
-      </c>
-      <c r="O16">
-        <v>24.1</v>
-      </c>
-      <c r="P16">
-        <v>36.5</v>
-      </c>
-      <c r="Q16">
-        <v>6.9</v>
-      </c>
-      <c r="R16">
-        <v>2.1</v>
-      </c>
       <c r="S16">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -3641,28 +3921,28 @@
         <v>0</v>
       </c>
       <c r="L17">
+        <v>0.3</v>
+      </c>
+      <c r="M17">
         <v>0.1</v>
       </c>
-      <c r="M17">
-        <v>0.6</v>
-      </c>
       <c r="N17">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="O17">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="P17">
-        <v>4.9</v>
+        <v>6.3</v>
       </c>
       <c r="Q17">
         <v>35.5</v>
       </c>
       <c r="R17">
-        <v>34.4</v>
+        <v>35.6</v>
       </c>
       <c r="S17">
-        <v>21</v>
+        <v>20.2</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -3706,25 +3986,25 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N18">
         <v>0.1</v>
       </c>
       <c r="O18">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="P18">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="R18">
-        <v>24.2</v>
+        <v>23</v>
       </c>
       <c r="S18">
-        <v>61.7</v>
+        <v>61.3</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -3765,28 +4045,28 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="N19">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="O19">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="P19">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="Q19">
-        <v>37</v>
+        <v>36.1</v>
       </c>
       <c r="R19">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="S19">
-        <v>16.5</v>
+        <v>17.9</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -3848,37 +4128,37 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>92.10000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="C2">
-        <v>82.59999999999999</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="D2">
-        <v>58.59999999999999</v>
+        <v>59.7</v>
       </c>
       <c r="E2">
-        <v>73.7</v>
+        <v>76.5</v>
       </c>
       <c r="F2">
-        <v>87.09999999999999</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="G2">
-        <v>82.09999999999999</v>
+        <v>86</v>
       </c>
       <c r="H2">
-        <v>93.10000000000001</v>
+        <v>94</v>
       </c>
       <c r="I2">
-        <v>93.30000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="J2">
-        <v>97.7</v>
+        <v>98.7</v>
       </c>
       <c r="K2">
         <v>99.7</v>
       </c>
       <c r="L2">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -3889,40 +4169,40 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>39</v>
+        <v>39.7</v>
       </c>
       <c r="C3">
-        <v>60.09999999999999</v>
+        <v>62.7</v>
       </c>
       <c r="D3">
-        <v>57.59999999999999</v>
+        <v>60</v>
       </c>
       <c r="E3">
-        <v>80</v>
+        <v>79.60000000000001</v>
       </c>
       <c r="F3">
-        <v>81.89999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="G3">
-        <v>90.40000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="H3">
-        <v>93.60000000000001</v>
+        <v>93.89999999999999</v>
       </c>
       <c r="I3">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="J3">
-        <v>95.7</v>
+        <v>97</v>
       </c>
       <c r="K3">
-        <v>92.10000000000001</v>
+        <v>95</v>
       </c>
       <c r="L3">
-        <v>97.8</v>
+        <v>98.3</v>
       </c>
       <c r="M3">
-        <v>98.90000000000001</v>
+        <v>99.5</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -3930,37 +4210,37 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>38.7</v>
       </c>
       <c r="C4">
-        <v>81.8</v>
+        <v>82.5</v>
       </c>
       <c r="D4">
-        <v>44.7</v>
+        <v>43.7</v>
       </c>
       <c r="E4">
-        <v>35</v>
+        <v>31.1</v>
       </c>
       <c r="F4">
-        <v>61.2</v>
+        <v>59.5</v>
       </c>
       <c r="G4">
-        <v>74.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="H4">
-        <v>81.89999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="I4">
-        <v>62.2</v>
+        <v>64.3</v>
       </c>
       <c r="J4">
-        <v>81.89999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K4">
-        <v>94</v>
+        <v>95.8</v>
       </c>
       <c r="L4">
-        <v>98.40000000000001</v>
+        <v>98.5</v>
       </c>
       <c r="M4">
         <v>98.8</v>
@@ -3971,40 +4251,40 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>89.40000000000001</v>
+        <v>90.60000000000001</v>
       </c>
       <c r="C5">
-        <v>91.90000000000001</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="D5">
-        <v>14.5</v>
+        <v>14.1</v>
       </c>
       <c r="E5">
-        <v>36</v>
+        <v>35.09999999999999</v>
       </c>
       <c r="F5">
-        <v>21</v>
+        <v>22.7</v>
       </c>
       <c r="G5">
-        <v>10.4</v>
+        <v>9.9</v>
       </c>
       <c r="H5">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="I5">
-        <v>22.8</v>
+        <v>25.9</v>
       </c>
       <c r="J5">
-        <v>40.1</v>
+        <v>44.5</v>
       </c>
       <c r="K5">
-        <v>55.40000000000001</v>
+        <v>57.9</v>
       </c>
       <c r="L5">
-        <v>75.09999999999999</v>
+        <v>76</v>
       </c>
       <c r="M5">
-        <v>71.39999999999999</v>
+        <v>76.3</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4012,37 +4292,37 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>21.3</v>
+        <v>23.4</v>
       </c>
       <c r="C6">
-        <v>68.8</v>
+        <v>68.60000000000001</v>
       </c>
       <c r="D6">
+        <v>72.59999999999999</v>
+      </c>
+      <c r="E6">
+        <v>53.40000000000001</v>
+      </c>
+      <c r="F6">
         <v>68.7</v>
       </c>
-      <c r="E6">
-        <v>51.2</v>
-      </c>
-      <c r="F6">
-        <v>64.7</v>
-      </c>
       <c r="G6">
-        <v>80.2</v>
+        <v>82.3</v>
       </c>
       <c r="H6">
-        <v>91.90000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="I6">
-        <v>95.8</v>
+        <v>97.39999999999999</v>
       </c>
       <c r="J6">
-        <v>89.8</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="K6">
-        <v>76.59999999999999</v>
+        <v>77</v>
       </c>
       <c r="L6">
-        <v>55.90000000000001</v>
+        <v>60.2</v>
       </c>
       <c r="M6">
         <v>59.09999999999999</v>
@@ -4053,40 +4333,40 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>31.8</v>
+        <v>30</v>
       </c>
       <c r="C7">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="D7">
-        <v>9.199999999999999</v>
+        <v>7.199999999999999</v>
       </c>
       <c r="E7">
-        <v>9.199999999999999</v>
+        <v>10.5</v>
       </c>
       <c r="F7">
-        <v>30.6</v>
+        <v>32.4</v>
       </c>
       <c r="G7">
-        <v>41.09999999999999</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="H7">
-        <v>61.5</v>
+        <v>62.1</v>
       </c>
       <c r="I7">
-        <v>52.40000000000001</v>
+        <v>55.7</v>
       </c>
       <c r="J7">
-        <v>34.9</v>
+        <v>37.2</v>
       </c>
       <c r="K7">
-        <v>24.8</v>
+        <v>28.6</v>
       </c>
       <c r="L7">
-        <v>51.6</v>
+        <v>49.2</v>
       </c>
       <c r="M7">
-        <v>55.3</v>
+        <v>53.5</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4094,40 +4374,40 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>36.7</v>
+        <v>27.8</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>8.6</v>
       </c>
       <c r="D8">
-        <v>65.5</v>
+        <v>57.2</v>
       </c>
       <c r="E8">
-        <v>73.7</v>
+        <v>64.5</v>
       </c>
       <c r="F8">
-        <v>39.90000000000001</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>18.2</v>
+        <v>12.8</v>
       </c>
       <c r="H8">
-        <v>11.1</v>
+        <v>5.4</v>
       </c>
       <c r="I8">
-        <v>13.5</v>
+        <v>8.5</v>
       </c>
       <c r="J8">
-        <v>24.7</v>
+        <v>18.4</v>
       </c>
       <c r="K8">
-        <v>40.7</v>
+        <v>32.7</v>
       </c>
       <c r="L8">
-        <v>56.8</v>
+        <v>42.8</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4135,40 +4415,40 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D9">
-        <v>8.699999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="E9">
-        <v>21.4</v>
+        <v>22.6</v>
       </c>
       <c r="F9">
-        <v>35.7</v>
+        <v>37.7</v>
       </c>
       <c r="G9">
-        <v>42.6</v>
+        <v>39.7</v>
       </c>
       <c r="H9">
-        <v>56.99999999999999</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="I9">
-        <v>80.80000000000001</v>
+        <v>79.80000000000001</v>
       </c>
       <c r="J9">
-        <v>59.59999999999999</v>
+        <v>57.59999999999999</v>
       </c>
       <c r="K9">
-        <v>49.3</v>
+        <v>48.3</v>
       </c>
       <c r="L9">
-        <v>25.7</v>
+        <v>29.2</v>
       </c>
       <c r="M9">
-        <v>30.7</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -4176,40 +4456,40 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.5</v>
+        <v>6.600000000000001</v>
       </c>
       <c r="C10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D10">
+        <v>16.1</v>
+      </c>
+      <c r="E10">
+        <v>11.4</v>
+      </c>
+      <c r="F10">
+        <v>3.2</v>
+      </c>
+      <c r="G10">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="H10">
+        <v>3.6</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10">
+        <v>3.7</v>
+      </c>
+      <c r="K10">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="L10">
         <v>16.8</v>
       </c>
-      <c r="E10">
-        <v>9.6</v>
-      </c>
-      <c r="F10">
-        <v>3.8</v>
-      </c>
-      <c r="G10">
-        <v>7.199999999999999</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>1.4</v>
-      </c>
-      <c r="J10">
-        <v>4.6</v>
-      </c>
-      <c r="K10">
-        <v>7.399999999999999</v>
-      </c>
-      <c r="L10">
-        <v>12.4</v>
-      </c>
       <c r="M10">
-        <v>12.1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4217,119 +4497,119 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>17.8</v>
+        <v>20</v>
       </c>
       <c r="C11">
-        <v>33.4</v>
+        <v>34.8</v>
       </c>
       <c r="D11">
-        <v>46.5</v>
+        <v>48.9</v>
       </c>
       <c r="E11">
-        <v>38.3</v>
+        <v>42.2</v>
       </c>
       <c r="F11">
-        <v>42.7</v>
+        <v>44.7</v>
       </c>
       <c r="G11">
-        <v>60.09999999999999</v>
+        <v>63.3</v>
       </c>
       <c r="H11">
-        <v>29.7</v>
+        <v>30.5</v>
       </c>
       <c r="I11">
-        <v>49</v>
+        <v>47.09999999999999</v>
       </c>
       <c r="J11">
-        <v>26.8</v>
+        <v>29.5</v>
       </c>
       <c r="K11">
-        <v>23.9</v>
+        <v>27.1</v>
       </c>
       <c r="L11">
-        <v>14.9</v>
+        <v>17.2</v>
       </c>
       <c r="M11">
-        <v>11.8</v>
+        <v>12.4</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12">
-        <v>28.6</v>
+        <v>0.3</v>
       </c>
       <c r="C12">
-        <v>13.4</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>66.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>84.89999999999999</v>
+        <v>2.1</v>
       </c>
       <c r="F12">
-        <v>59.8</v>
+        <v>7.3</v>
       </c>
       <c r="G12">
-        <v>64.40000000000001</v>
+        <v>3.1</v>
       </c>
       <c r="H12">
-        <v>36.3</v>
+        <v>7.3</v>
       </c>
       <c r="I12">
-        <v>23</v>
+        <v>2.2</v>
       </c>
       <c r="J12">
-        <v>36.1</v>
+        <v>6.5</v>
       </c>
       <c r="K12">
-        <v>19</v>
+        <v>9.6</v>
       </c>
       <c r="L12">
-        <v>6.4</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="M12">
-        <v>6.9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>24.7</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>7.399999999999999</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>61.9</v>
       </c>
       <c r="E13">
-        <v>2.3</v>
+        <v>81.89999999999999</v>
       </c>
       <c r="F13">
-        <v>6.4</v>
+        <v>51.2</v>
       </c>
       <c r="G13">
-        <v>3.4</v>
+        <v>57.9</v>
       </c>
       <c r="H13">
-        <v>6.1</v>
+        <v>33.5</v>
       </c>
       <c r="I13">
-        <v>1.8</v>
+        <v>18.7</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>32.3</v>
       </c>
       <c r="K13">
-        <v>11.5</v>
+        <v>16.7</v>
       </c>
       <c r="L13">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="M13">
         <v>4</v>
@@ -4340,37 +4620,37 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>20.6</v>
+        <v>24.7</v>
       </c>
       <c r="C14">
-        <v>28.7</v>
+        <v>30.6</v>
       </c>
       <c r="D14">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="E14">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F14">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="G14">
+        <v>0.6</v>
+      </c>
+      <c r="H14">
+        <v>0.1</v>
+      </c>
+      <c r="I14">
+        <v>1.3</v>
+      </c>
+      <c r="J14">
+        <v>0.3</v>
+      </c>
+      <c r="K14">
+        <v>0.5</v>
+      </c>
+      <c r="L14">
         <v>1.1</v>
-      </c>
-      <c r="H14">
-        <v>0.3</v>
-      </c>
-      <c r="I14">
-        <v>0.6</v>
-      </c>
-      <c r="J14">
-        <v>0.2</v>
-      </c>
-      <c r="K14">
-        <v>0.4</v>
-      </c>
-      <c r="L14">
-        <v>0.8</v>
       </c>
       <c r="M14">
         <v>1.6</v>
@@ -4384,37 +4664,37 @@
         <v>99.8</v>
       </c>
       <c r="C15">
-        <v>40.1</v>
+        <v>43.7</v>
       </c>
       <c r="D15">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E15">
-        <v>53.6</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="F15">
-        <v>35.9</v>
+        <v>40.8</v>
       </c>
       <c r="G15">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="H15">
-        <v>20.1</v>
+        <v>20.5</v>
       </c>
       <c r="I15">
-        <v>8.6</v>
+        <v>9.4</v>
       </c>
       <c r="J15">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="K15">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="L15">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="M15">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -4422,37 +4702,37 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>11.6</v>
+        <v>10.1</v>
       </c>
       <c r="C16">
-        <v>50.1</v>
+        <v>47.4</v>
       </c>
       <c r="D16">
-        <v>56.7</v>
+        <v>58.2</v>
       </c>
       <c r="E16">
-        <v>20.4</v>
+        <v>22.4</v>
       </c>
       <c r="F16">
-        <v>9.9</v>
+        <v>9.1</v>
       </c>
       <c r="G16">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="H16">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="I16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="K16">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -4463,22 +4743,22 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>61.9</v>
+        <v>67</v>
       </c>
       <c r="C17">
         <v>4.100000000000001</v>
       </c>
       <c r="D17">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="E17">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="F17">
-        <v>16.9</v>
+        <v>17.2</v>
       </c>
       <c r="G17">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="H17">
         <v>1.4</v>
@@ -4504,25 +4784,25 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>0.7000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="C18">
-        <v>0.3</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="D18">
         <v>1.7</v>
       </c>
       <c r="E18">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="F18">
+        <v>0.2</v>
+      </c>
+      <c r="G18">
         <v>0.3</v>
       </c>
-      <c r="G18">
-        <v>0.5</v>
-      </c>
       <c r="H18">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4545,13 +4825,13 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>0.7000000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.8999999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="E19">
         <v>0.1</v>
@@ -4595,554 +4875,551 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="s">
+      <c r="D2">
+        <v>106.89</v>
+      </c>
+      <c r="E2">
+        <v>0.636</v>
+      </c>
+      <c r="F2">
+        <v>114.41</v>
+      </c>
+      <c r="G2">
+        <v>0.705</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3">
+        <v>75.94</v>
+      </c>
+      <c r="E3">
+        <v>0.182</v>
+      </c>
+      <c r="F3">
+        <v>105.29</v>
+      </c>
+      <c r="G3">
+        <v>0.409</v>
+      </c>
+      <c r="H3">
+        <v>17.5</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4">
+        <v>77.51000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.273</v>
+      </c>
+      <c r="F4">
+        <v>108.03</v>
+      </c>
+      <c r="G4">
+        <v>0.614</v>
+      </c>
+      <c r="H4">
+        <v>11.5</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5">
+        <v>79.36</v>
+      </c>
+      <c r="E5">
+        <v>0.273</v>
+      </c>
+      <c r="F5">
+        <v>106.94</v>
+      </c>
+      <c r="G5">
+        <v>0.523</v>
+      </c>
+      <c r="H5">
+        <v>10.8</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6">
+        <v>109.63</v>
+      </c>
+      <c r="E6">
+        <v>0.636</v>
+      </c>
+      <c r="F6">
+        <v>105.52</v>
+      </c>
+      <c r="G6">
+        <v>0.545</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7">
+        <v>100.58</v>
+      </c>
+      <c r="E7">
+        <v>0.364</v>
+      </c>
+      <c r="F7">
+        <v>103.52</v>
+      </c>
+      <c r="G7">
+        <v>0.455</v>
+      </c>
+      <c r="H7">
+        <v>5.2</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8">
+        <v>102.13</v>
+      </c>
+      <c r="E8">
+        <v>0.636</v>
+      </c>
+      <c r="F8">
+        <v>103.83</v>
+      </c>
+      <c r="G8">
+        <v>0.545</v>
+      </c>
+      <c r="H8">
+        <v>4.8</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <v>98.65000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.455</v>
+      </c>
+      <c r="F9">
+        <v>100.55</v>
+      </c>
+      <c r="G9">
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <v>1.2</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2">
-        <v>0.8181818181818182</v>
-      </c>
-      <c r="D2">
-        <v>115.8436363636364</v>
-      </c>
-      <c r="E2">
-        <v>1274.28</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>84</v>
+      </c>
+      <c r="D10">
+        <v>91.19</v>
+      </c>
+      <c r="E10">
+        <v>0.455</v>
+      </c>
+      <c r="F10">
+        <v>101.94</v>
+      </c>
+      <c r="G10">
+        <v>0.545</v>
+      </c>
+      <c r="H10">
+        <v>-1.2</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
         <v>85</v>
       </c>
-      <c r="I2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D3">
-        <v>117.4181818181818</v>
-      </c>
-      <c r="E3">
-        <v>1291.6</v>
-      </c>
-      <c r="F3">
-        <v>99</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="D11">
+        <v>106.54</v>
+      </c>
+      <c r="E11">
+        <v>0.455</v>
+      </c>
+      <c r="F11">
+        <v>98.08</v>
+      </c>
+      <c r="G11">
+        <v>0.409</v>
+      </c>
+      <c r="H11">
+        <v>-1.5</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
         <v>86</v>
       </c>
-      <c r="I3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
+      <c r="D12">
+        <v>117.42</v>
+      </c>
+      <c r="E12">
+        <v>0.727</v>
+      </c>
+      <c r="F12">
+        <v>97.36</v>
+      </c>
+      <c r="G12">
+        <v>0.455</v>
+      </c>
+      <c r="H12">
+        <v>-1.8</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="D4">
-        <v>119.0472727272727</v>
-      </c>
-      <c r="E4">
-        <v>1309.52</v>
-      </c>
-      <c r="F4">
-        <v>98.8</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="C13" t="s">
         <v>87</v>
       </c>
-      <c r="I4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D5">
-        <v>109.6309090909091</v>
-      </c>
-      <c r="E5">
-        <v>1205.94</v>
-      </c>
-      <c r="F5">
-        <v>70.39999999999999</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="D13">
+        <v>119.05</v>
+      </c>
+      <c r="E13">
+        <v>0.727</v>
+      </c>
+      <c r="F13">
+        <v>100.23</v>
+      </c>
+      <c r="G13">
+        <v>0.545</v>
+      </c>
+      <c r="H13">
+        <v>-5</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
         <v>88</v>
       </c>
-      <c r="I5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D6">
-        <v>102.1309090909091</v>
-      </c>
-      <c r="E6">
-        <v>1123.44</v>
-      </c>
-      <c r="F6">
-        <v>57.4</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="D14">
+        <v>104.46</v>
+      </c>
+      <c r="E14">
+        <v>0.545</v>
+      </c>
+      <c r="F14">
+        <v>98.93000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.523</v>
+      </c>
+      <c r="H14">
+        <v>-7</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
         <v>89</v>
       </c>
-      <c r="I6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7">
-        <v>0.6363636363636364</v>
-      </c>
-      <c r="D7">
-        <v>106.8890909090909</v>
-      </c>
-      <c r="E7">
-        <v>1175.78</v>
-      </c>
-      <c r="F7">
-        <v>57.2</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="D15">
+        <v>90.81</v>
+      </c>
+      <c r="E15">
+        <v>0.364</v>
+      </c>
+      <c r="F15">
+        <v>99.23999999999999</v>
+      </c>
+      <c r="G15">
+        <v>0.477</v>
+      </c>
+      <c r="H15">
+        <v>-8.5</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
         <v>90</v>
       </c>
-      <c r="I7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8">
-        <v>0.5909090909090909</v>
-      </c>
-      <c r="D8">
-        <v>105.3072727272727</v>
-      </c>
-      <c r="E8">
-        <v>1158.38</v>
-      </c>
-      <c r="F8">
-        <v>50</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="D16">
+        <v>105.31</v>
+      </c>
+      <c r="E16">
+        <v>0.545</v>
+      </c>
+      <c r="F16">
+        <v>100.89</v>
+      </c>
+      <c r="G16">
+        <v>0.5679999999999999</v>
+      </c>
+      <c r="H16">
+        <v>-10.5</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
         <v>91</v>
       </c>
-      <c r="I8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C9">
-        <v>0.5454545454545454</v>
-      </c>
-      <c r="D9">
-        <v>104.4636363636364</v>
-      </c>
-      <c r="E9">
-        <v>1149.1</v>
-      </c>
-      <c r="F9">
-        <v>30.4</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="D17">
+        <v>104.78</v>
+      </c>
+      <c r="E17">
+        <v>0.455</v>
+      </c>
+      <c r="F17">
+        <v>92.44</v>
+      </c>
+      <c r="G17">
+        <v>0.386</v>
+      </c>
+      <c r="H17">
+        <v>-11</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
         <v>92</v>
       </c>
-      <c r="I9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D10">
-        <v>106.5381818181818</v>
-      </c>
-      <c r="E10">
-        <v>1171.92</v>
-      </c>
-      <c r="F10">
-        <v>12.6</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="D18">
+        <v>115.84</v>
+      </c>
+      <c r="E18">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="F18">
+        <v>91.67</v>
+      </c>
+      <c r="G18">
+        <v>0.409</v>
+      </c>
+      <c r="H18">
+        <v>-15</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>93</v>
       </c>
-      <c r="I10" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D11">
-        <v>104.78</v>
-      </c>
-      <c r="E11">
-        <v>1152.58</v>
-      </c>
-      <c r="F11">
-        <v>11.6</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I11" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12">
-        <v>0.4090909090909091</v>
-      </c>
-      <c r="D12">
-        <v>112.5254545454546</v>
-      </c>
-      <c r="E12">
-        <v>1237.78</v>
-      </c>
-      <c r="F12">
-        <v>5.800000000000001</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D13">
-        <v>98.64727272727272</v>
-      </c>
-      <c r="E13">
-        <v>1085.12</v>
-      </c>
-      <c r="F13">
-        <v>4.5</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>96</v>
-      </c>
-      <c r="I13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C14">
-        <v>0.4545454545454545</v>
-      </c>
-      <c r="D14">
-        <v>91.18909090909091</v>
-      </c>
-      <c r="E14">
-        <v>1003.08</v>
-      </c>
-      <c r="F14">
-        <v>1.9</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D15">
-        <v>100.5781818181818</v>
-      </c>
-      <c r="E15">
-        <v>1106.36</v>
-      </c>
-      <c r="F15">
-        <v>0.4</v>
-      </c>
-      <c r="G15">
-        <v>0.1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C16">
-        <v>0.3636363636363636</v>
-      </c>
-      <c r="D16">
-        <v>90.80909090909091</v>
-      </c>
-      <c r="E16">
-        <v>998.8999999999999</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="H16" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="1" t="s">
+      <c r="D19">
+        <v>112.53</v>
+      </c>
+      <c r="E19">
+        <v>0.364</v>
+      </c>
+      <c r="F19">
+        <v>89.75</v>
+      </c>
+      <c r="G19">
+        <v>0.295</v>
+      </c>
+      <c r="H19">
+        <v>-19.5</v>
+      </c>
+      <c r="I19">
         <v>4</v>
-      </c>
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="D17">
-        <v>77.51272727272728</v>
-      </c>
-      <c r="E17">
-        <v>852.64</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>21</v>
-      </c>
-      <c r="H17" t="s">
-        <v>100</v>
-      </c>
-      <c r="I17" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18">
-        <v>0.1818181818181818</v>
-      </c>
-      <c r="D18">
-        <v>75.94363636363637</v>
-      </c>
-      <c r="E18">
-        <v>835.3800000000001</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>61.7</v>
-      </c>
-      <c r="H18" t="s">
-        <v>101</v>
-      </c>
-      <c r="I18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19">
-        <v>0.2727272727272727</v>
-      </c>
-      <c r="D19">
-        <v>79.36</v>
-      </c>
-      <c r="E19">
-        <v>872.9599999999999</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>16.5</v>
-      </c>
-      <c r="H19" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" t="s">
-        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -5151,6 +5428,570 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2">
+        <v>0.8181818181818182</v>
+      </c>
+      <c r="D2">
+        <v>115.8436363636364</v>
+      </c>
+      <c r="E2">
+        <v>1274.28</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D3">
+        <v>119.0472727272727</v>
+      </c>
+      <c r="E3">
+        <v>1309.52</v>
+      </c>
+      <c r="F3">
+        <v>99.2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="D4">
+        <v>117.4181818181818</v>
+      </c>
+      <c r="E4">
+        <v>1291.6</v>
+      </c>
+      <c r="F4">
+        <v>98.90000000000001</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>111</v>
+      </c>
+      <c r="I4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C5">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D5">
+        <v>109.6309090909091</v>
+      </c>
+      <c r="E5">
+        <v>1205.94</v>
+      </c>
+      <c r="F5">
+        <v>77.3</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D6">
+        <v>106.8890909090909</v>
+      </c>
+      <c r="E6">
+        <v>1175.78</v>
+      </c>
+      <c r="F6">
+        <v>58.7</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7">
+        <v>0.6363636363636364</v>
+      </c>
+      <c r="D7">
+        <v>102.1309090909091</v>
+      </c>
+      <c r="E7">
+        <v>1123.44</v>
+      </c>
+      <c r="F7">
+        <v>52.5</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D8">
+        <v>104.4636363636364</v>
+      </c>
+      <c r="E8">
+        <v>1149.1</v>
+      </c>
+      <c r="F8">
+        <v>38</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
+        <v>115</v>
+      </c>
+      <c r="I8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C9">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="D9">
+        <v>105.3072727272727</v>
+      </c>
+      <c r="E9">
+        <v>1158.38</v>
+      </c>
+      <c r="F9">
+        <v>36.7</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D10">
+        <v>106.5381818181818</v>
+      </c>
+      <c r="E10">
+        <v>1171.92</v>
+      </c>
+      <c r="F10">
+        <v>13.7</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>117</v>
+      </c>
+      <c r="I10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D11">
+        <v>104.78</v>
+      </c>
+      <c r="E11">
+        <v>1152.58</v>
+      </c>
+      <c r="F11">
+        <v>13.4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>118</v>
+      </c>
+      <c r="I11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D12">
+        <v>98.64727272727272</v>
+      </c>
+      <c r="E12">
+        <v>1085.12</v>
+      </c>
+      <c r="F12">
+        <v>5.3</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D13">
+        <v>112.5254545454546</v>
+      </c>
+      <c r="E13">
+        <v>1237.78</v>
+      </c>
+      <c r="F13">
+        <v>4.3</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" t="s">
+        <v>120</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D14">
+        <v>100.5781818181818</v>
+      </c>
+      <c r="E14">
+        <v>1106.36</v>
+      </c>
+      <c r="F14">
+        <v>1.1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>121</v>
+      </c>
+      <c r="I14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15">
+        <v>0.4545454545454545</v>
+      </c>
+      <c r="D15">
+        <v>91.18909090909091</v>
+      </c>
+      <c r="E15">
+        <v>1003.08</v>
+      </c>
+      <c r="F15">
+        <v>0.8</v>
+      </c>
+      <c r="G15">
+        <v>0.1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>120</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16">
+        <v>0.3636363636363636</v>
+      </c>
+      <c r="D16">
+        <v>90.80909090909091</v>
+      </c>
+      <c r="E16">
+        <v>998.8999999999999</v>
+      </c>
+      <c r="F16">
+        <v>0.1</v>
+      </c>
+      <c r="G16">
+        <v>0.5</v>
+      </c>
+      <c r="H16" t="s">
+        <v>122</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D17">
+        <v>77.51272727272728</v>
+      </c>
+      <c r="E17">
+        <v>852.64</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>20.2</v>
+      </c>
+      <c r="H17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18">
+        <v>0.1818181818181818</v>
+      </c>
+      <c r="D18">
+        <v>75.94363636363637</v>
+      </c>
+      <c r="E18">
+        <v>835.3800000000001</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>61.3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19">
+        <v>0.2727272727272727</v>
+      </c>
+      <c r="D19">
+        <v>79.36</v>
+      </c>
+      <c r="E19">
+        <v>872.9599999999999</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>17.9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>125</v>
+      </c>
+      <c r="I19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -5163,16 +6004,16 @@
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5183,7 +6024,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="D2">
         <v>37</v>
@@ -5192,7 +6033,7 @@
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -5203,7 +6044,7 @@
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D3">
         <v>37</v>
@@ -5212,7 +6053,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -5223,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="D4">
         <v>13</v>
@@ -5232,7 +6073,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -5243,7 +6084,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>81</v>
       </c>
       <c r="D5">
         <v>13</v>
@@ -5252,7 +6093,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -5263,7 +6104,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="D6">
         <v>12</v>
@@ -5272,7 +6113,7 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5283,7 +6124,7 @@
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="D7">
         <v>11</v>
@@ -5292,7 +6133,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -5303,7 +6144,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="D8">
         <v>11</v>
@@ -5312,7 +6153,7 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -5323,7 +6164,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>9</v>
@@ -5332,7 +6173,7 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -5343,7 +6184,7 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="D10">
         <v>7</v>
@@ -5352,7 +6193,7 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -5363,7 +6204,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>7</v>
@@ -5372,7 +6213,7 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -5383,7 +6224,7 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -5392,7 +6233,7 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -5403,7 +6244,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="D13">
         <v>-1</v>
@@ -5412,7 +6253,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -5423,7 +6264,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>82</v>
       </c>
       <c r="D14">
         <v>-7</v>
@@ -5432,7 +6273,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -5443,7 +6284,7 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="D15">
         <v>-11</v>
@@ -5452,7 +6293,7 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -5463,7 +6304,7 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="D16">
         <v>-15</v>
@@ -5472,7 +6313,7 @@
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -5483,7 +6324,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="D17">
         <v>-33</v>
@@ -5492,7 +6333,7 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5503,7 +6344,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="D18">
         <v>-41</v>
@@ -5512,7 +6353,7 @@
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -5523,7 +6364,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>133</v>
+        <v>77</v>
       </c>
       <c r="D19">
         <v>-51</v>
@@ -5532,7 +6373,7 @@
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -5540,7 +6381,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M19"/>
   <sheetViews>
@@ -5550,40 +6391,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>115</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -5624,7 +6465,7 @@
         <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -5665,7 +6506,7 @@
         <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -5706,7 +6547,7 @@
         <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -5747,7 +6588,7 @@
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -5788,7 +6629,7 @@
         <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -5829,7 +6670,7 @@
         <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -5870,7 +6711,7 @@
         <v>11</v>
       </c>
       <c r="M8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -5911,7 +6752,7 @@
         <v>9</v>
       </c>
       <c r="M9" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -5952,7 +6793,7 @@
         <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -5993,7 +6834,7 @@
         <v>7</v>
       </c>
       <c r="M11" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -6034,7 +6875,7 @@
         <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -6075,7 +6916,7 @@
         <v>-1</v>
       </c>
       <c r="M13" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -6116,7 +6957,7 @@
         <v>-7</v>
       </c>
       <c r="M14" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -6157,7 +6998,7 @@
         <v>-11</v>
       </c>
       <c r="M15" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -6198,7 +7039,7 @@
         <v>-15</v>
       </c>
       <c r="M16" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -6239,7 +7080,7 @@
         <v>-33</v>
       </c>
       <c r="M17" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -6280,7 +7121,7 @@
         <v>-41</v>
       </c>
       <c r="M18" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -6321,277 +7162,7 @@
         <v>-51</v>
       </c>
       <c r="M19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2">
-        <v>-3</v>
-      </c>
-      <c r="F2">
-        <v>32</v>
-      </c>
-      <c r="G2">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>-9</v>
-      </c>
-      <c r="G3">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>-29</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>37</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>17</v>
-      </c>
-      <c r="F6">
-        <v>-11</v>
-      </c>
-      <c r="G6">
-        <v>28</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7">
-        <v>35</v>
-      </c>
-      <c r="F7">
-        <v>7</v>
-      </c>
-      <c r="G7">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>30</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>37</v>
-      </c>
-      <c r="F9">
-        <v>13</v>
-      </c>
-      <c r="G9">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>-15</v>
-      </c>
-      <c r="G10">
-        <v>22</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Girl's Room 💞🏈 2025.xlsx
+++ b/leagues/The Girl's Room 💞🏈 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="167">
   <si>
     <t>Tush Push Director 🍑</t>
   </si>
@@ -238,7 +238,7 @@
     <t>Avg_Points_For</t>
   </si>
   <si>
-    <t>Win_Pct</t>
+    <t>Team_Record</t>
   </si>
   <si>
     <t>Avg_Opp_Points_For</t>
@@ -355,40 +355,43 @@
     <t>2-9</t>
   </si>
   <si>
-    <t>11.9-3.1</t>
+    <t>11.8-3.2</t>
   </si>
   <si>
     <t>10.6-4.4</t>
   </si>
   <si>
-    <t>9.1-5.9</t>
+    <t>10.6-4.3</t>
+  </si>
+  <si>
+    <t>9.0-5.9</t>
   </si>
   <si>
     <t>8.8-6.2</t>
   </si>
   <si>
-    <t>8.9-6.1</t>
+    <t>8.9-6.0</t>
+  </si>
+  <si>
+    <t>8.1-6.8</t>
   </si>
   <si>
     <t>8.2-6.8</t>
   </si>
   <si>
-    <t>8.1-6.8</t>
-  </si>
-  <si>
-    <t>7.3-7.7</t>
-  </si>
-  <si>
-    <t>7.4-7.5</t>
+    <t>7.5-7.5</t>
+  </si>
+  <si>
+    <t>7.3-7.6</t>
+  </si>
+  <si>
+    <t>6.6-8.4</t>
   </si>
   <si>
     <t>6.9-8.1</t>
   </si>
   <si>
-    <t>6.6-8.4</t>
-  </si>
-  <si>
-    <t>5.9-9.0</t>
+    <t>5.8-9.1</t>
   </si>
   <si>
     <t>5.7-9.3</t>
@@ -400,7 +403,7 @@
     <t>3.2-11.8</t>
   </si>
   <si>
-    <t>4.0-11.0</t>
+    <t>4.0-10.9</t>
   </si>
   <si>
     <t>12-3</t>
@@ -2017,25 +2020,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2961,19 +2964,19 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>63.2</v>
+        <v>60.8</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>25.9</v>
       </c>
       <c r="D2">
-        <v>11.2</v>
+        <v>10.9</v>
       </c>
       <c r="E2">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="F2">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G2">
         <v>0.1</v>
@@ -3026,22 +3029,22 @@
         <v>20.2</v>
       </c>
       <c r="C3">
-        <v>35</v>
+        <v>32.6</v>
       </c>
       <c r="D3">
-        <v>27.8</v>
+        <v>31.5</v>
       </c>
       <c r="E3">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="G3">
         <v>1.1</v>
       </c>
       <c r="H3">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="I3">
         <v>0.2</v>
@@ -3077,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>99.2</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -3085,31 +3088,31 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>17.2</v>
       </c>
       <c r="C4">
-        <v>31.7</v>
+        <v>33.8</v>
       </c>
       <c r="D4">
-        <v>35.9</v>
+        <v>33.9</v>
       </c>
       <c r="E4">
-        <v>10.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F4">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="G4">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="H4">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="I4">
         <v>0.5</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -3139,7 +3142,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3147,46 +3150,46 @@
         <v>10</v>
       </c>
       <c r="B5">
+        <v>0.9</v>
+      </c>
+      <c r="C5">
+        <v>3.1</v>
+      </c>
+      <c r="D5">
+        <v>7.3</v>
+      </c>
+      <c r="E5">
+        <v>28.6</v>
+      </c>
+      <c r="F5">
+        <v>22.2</v>
+      </c>
+      <c r="G5">
+        <v>13.2</v>
+      </c>
+      <c r="H5">
+        <v>8.9</v>
+      </c>
+      <c r="I5">
+        <v>6.3</v>
+      </c>
+      <c r="J5">
+        <v>4.3</v>
+      </c>
+      <c r="K5">
+        <v>2.3</v>
+      </c>
+      <c r="L5">
+        <v>1.5</v>
+      </c>
+      <c r="M5">
         <v>1</v>
-      </c>
-      <c r="C5">
-        <v>4.2</v>
-      </c>
-      <c r="D5">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="E5">
-        <v>27</v>
-      </c>
-      <c r="F5">
-        <v>22.7</v>
-      </c>
-      <c r="G5">
-        <v>13.7</v>
-      </c>
-      <c r="H5">
-        <v>7.3</v>
-      </c>
-      <c r="I5">
-        <v>5.8</v>
-      </c>
-      <c r="J5">
-        <v>4.5</v>
-      </c>
-      <c r="K5">
-        <v>1.9</v>
-      </c>
-      <c r="L5">
-        <v>2.4</v>
-      </c>
-      <c r="M5">
-        <v>0.5</v>
       </c>
       <c r="N5">
         <v>0.3</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -3201,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>77.3</v>
+        <v>75.3</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3209,46 +3212,46 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="C6">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D6">
-        <v>8.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E6">
-        <v>16.6</v>
+        <v>15.8</v>
       </c>
       <c r="F6">
-        <v>15.2</v>
+        <v>17.1</v>
       </c>
       <c r="G6">
-        <v>13.6</v>
+        <v>11.9</v>
       </c>
       <c r="H6">
-        <v>10.1</v>
+        <v>11.2</v>
       </c>
       <c r="I6">
-        <v>11</v>
+        <v>11.3</v>
       </c>
       <c r="J6">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="K6">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L6">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="M6">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="N6">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="O6">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -3263,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>58.7</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -3274,40 +3277,40 @@
         <v>0.1</v>
       </c>
       <c r="C7">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="D7">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="E7">
-        <v>15.7</v>
+        <v>16.6</v>
       </c>
       <c r="F7">
-        <v>16.2</v>
+        <v>16.7</v>
       </c>
       <c r="G7">
-        <v>15.2</v>
+        <v>14.9</v>
       </c>
       <c r="H7">
-        <v>14.7</v>
+        <v>13.8</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="J7">
-        <v>10.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K7">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="N7">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -3325,12 +3328,12 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>52.5</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3339,43 +3342,43 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="E8">
-        <v>7.1</v>
+        <v>7.7</v>
       </c>
       <c r="F8">
-        <v>14.2</v>
+        <v>11.8</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>16.7</v>
       </c>
       <c r="H8">
-        <v>15.6</v>
+        <v>13.8</v>
       </c>
       <c r="I8">
-        <v>10.1</v>
+        <v>14.4</v>
       </c>
       <c r="J8">
-        <v>12.4</v>
+        <v>8.9</v>
       </c>
       <c r="K8">
-        <v>8.699999999999999</v>
+        <v>10.9</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>6.8</v>
       </c>
       <c r="M8">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="N8">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="O8">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="P8">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3387,12 +3390,12 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>38</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3401,40 +3404,40 @@
         <v>0.1</v>
       </c>
       <c r="D9">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="E9">
-        <v>8.9</v>
+        <v>7.6</v>
       </c>
       <c r="F9">
-        <v>11.5</v>
+        <v>12.9</v>
       </c>
       <c r="G9">
-        <v>14.7</v>
+        <v>14</v>
       </c>
       <c r="H9">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="I9">
-        <v>14.4</v>
+        <v>13.3</v>
       </c>
       <c r="J9">
-        <v>11.3</v>
+        <v>11.7</v>
       </c>
       <c r="K9">
-        <v>10.8</v>
+        <v>8.5</v>
       </c>
       <c r="L9">
-        <v>6.8</v>
+        <v>7.8</v>
       </c>
       <c r="M9">
-        <v>4.4</v>
+        <v>5.8</v>
       </c>
       <c r="N9">
-        <v>1.5</v>
+        <v>2.6</v>
       </c>
       <c r="O9">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0.2</v>
@@ -3449,12 +3452,12 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>36.7</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3463,43 +3466,43 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="F10">
-        <v>3.6</v>
+        <v>4.9</v>
       </c>
       <c r="G10">
-        <v>8.199999999999999</v>
+        <v>9.9</v>
       </c>
       <c r="H10">
-        <v>11.6</v>
+        <v>11.3</v>
       </c>
       <c r="I10">
-        <v>12.9</v>
+        <v>13.1</v>
       </c>
       <c r="J10">
-        <v>11.5</v>
+        <v>14.6</v>
       </c>
       <c r="K10">
-        <v>15.5</v>
+        <v>14.8</v>
       </c>
       <c r="L10">
-        <v>12.3</v>
+        <v>10.3</v>
       </c>
       <c r="M10">
-        <v>9.699999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="N10">
-        <v>7.1</v>
+        <v>6.6</v>
       </c>
       <c r="O10">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="P10">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -3511,12 +3514,12 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>13.7</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3528,40 +3531,40 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.9</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="G11">
         <v>8.9</v>
       </c>
       <c r="H11">
-        <v>11.7</v>
+        <v>11.5</v>
       </c>
       <c r="I11">
-        <v>15</v>
+        <v>12.6</v>
       </c>
       <c r="J11">
-        <v>12.8</v>
+        <v>13.2</v>
       </c>
       <c r="K11">
-        <v>13.1</v>
+        <v>13.5</v>
       </c>
       <c r="L11">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="M11">
-        <v>9</v>
+        <v>9.1</v>
       </c>
       <c r="N11">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="O11">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="P11">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q11">
         <v>0.2</v>
@@ -3573,12 +3576,12 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>13.4</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3590,49 +3593,49 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="F12">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="G12">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="H12">
-        <v>3.8</v>
+        <v>8.1</v>
       </c>
       <c r="I12">
         <v>6.9</v>
       </c>
       <c r="J12">
+        <v>13.4</v>
+      </c>
+      <c r="K12">
+        <v>14</v>
+      </c>
+      <c r="L12">
+        <v>11.1</v>
+      </c>
+      <c r="M12">
+        <v>12.2</v>
+      </c>
+      <c r="N12">
+        <v>13</v>
+      </c>
+      <c r="O12">
         <v>8.199999999999999</v>
       </c>
-      <c r="K12">
-        <v>8</v>
-      </c>
-      <c r="L12">
-        <v>13.8</v>
-      </c>
-      <c r="M12">
-        <v>17.6</v>
-      </c>
-      <c r="N12">
-        <v>15.6</v>
-      </c>
-      <c r="O12">
-        <v>13.1</v>
-      </c>
       <c r="P12">
-        <v>7</v>
+        <v>5.9</v>
       </c>
       <c r="Q12">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="R12">
+        <v>0.7</v>
+      </c>
+      <c r="S12">
         <v>0.1</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
       </c>
       <c r="T12">
         <v>5.3</v>
@@ -3640,7 +3643,7 @@
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3652,57 +3655,57 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F13">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="G13">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="H13">
-        <v>7.1</v>
+        <v>4.7</v>
       </c>
       <c r="I13">
-        <v>7.6</v>
+        <v>6.8</v>
       </c>
       <c r="J13">
-        <v>11.8</v>
+        <v>7.8</v>
       </c>
       <c r="K13">
-        <v>14.9</v>
+        <v>10.6</v>
       </c>
       <c r="L13">
-        <v>12.5</v>
+        <v>15.6</v>
       </c>
       <c r="M13">
-        <v>13.7</v>
+        <v>17.1</v>
       </c>
       <c r="N13">
-        <v>12.8</v>
+        <v>15.1</v>
       </c>
       <c r="O13">
-        <v>8.199999999999999</v>
+        <v>10.8</v>
       </c>
       <c r="P13">
-        <v>6.1</v>
+        <v>7.8</v>
       </c>
       <c r="Q13">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="R13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3720,51 +3723,51 @@
         <v>0.1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="I14">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="J14">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="K14">
-        <v>6.6</v>
+        <v>5.7</v>
       </c>
       <c r="L14">
         <v>9.5</v>
       </c>
       <c r="M14">
-        <v>11.1</v>
+        <v>18.6</v>
       </c>
       <c r="N14">
-        <v>18.7</v>
+        <v>22</v>
       </c>
       <c r="O14">
-        <v>23.5</v>
+        <v>18.4</v>
       </c>
       <c r="P14">
-        <v>16.7</v>
+        <v>14</v>
       </c>
       <c r="Q14">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="R14">
-        <v>1.3</v>
+        <v>0.2</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>1.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3776,52 +3779,52 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>1.9</v>
       </c>
-      <c r="I15">
-        <v>3</v>
-      </c>
       <c r="J15">
-        <v>4.5</v>
+        <v>2.7</v>
       </c>
       <c r="K15">
-        <v>7.7</v>
+        <v>6.1</v>
       </c>
       <c r="L15">
-        <v>10.3</v>
+        <v>10.1</v>
       </c>
       <c r="M15">
-        <v>15.6</v>
+        <v>11.6</v>
       </c>
       <c r="N15">
-        <v>20</v>
+        <v>15.2</v>
       </c>
       <c r="O15">
-        <v>20.2</v>
+        <v>25</v>
       </c>
       <c r="P15">
-        <v>13.8</v>
+        <v>18.4</v>
       </c>
       <c r="Q15">
-        <v>1.7</v>
+        <v>5.3</v>
       </c>
       <c r="R15">
-        <v>0.4</v>
+        <v>2.1</v>
       </c>
       <c r="S15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -3841,49 +3844,49 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G16">
         <v>0.1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I16">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="J16">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="K16">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="L16">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="M16">
-        <v>8.300000000000001</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="N16">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="O16">
-        <v>22.2</v>
+        <v>21.5</v>
       </c>
       <c r="P16">
-        <v>38</v>
+        <v>35.8</v>
       </c>
       <c r="Q16">
-        <v>7.7</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="R16">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="S16">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="T16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -3921,28 +3924,28 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0.1</v>
       </c>
       <c r="N17">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="O17">
-        <v>1.8</v>
+        <v>3.9</v>
       </c>
       <c r="P17">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="Q17">
-        <v>35.5</v>
+        <v>34.8</v>
       </c>
       <c r="R17">
-        <v>35.6</v>
+        <v>33.2</v>
       </c>
       <c r="S17">
-        <v>20.2</v>
+        <v>22</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -3986,25 +3989,25 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O18">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="P18">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>11.4</v>
       </c>
       <c r="R18">
-        <v>23</v>
+        <v>24.8</v>
       </c>
       <c r="S18">
-        <v>61.3</v>
+        <v>60.6</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -4042,31 +4045,31 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M19">
         <v>0.2</v>
       </c>
       <c r="N19">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="O19">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="P19">
-        <v>6</v>
+        <v>7.7</v>
       </c>
       <c r="Q19">
-        <v>36.1</v>
+        <v>34.9</v>
       </c>
       <c r="R19">
-        <v>37.7</v>
+        <v>37</v>
       </c>
       <c r="S19">
-        <v>17.9</v>
+        <v>17</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -4128,34 +4131,34 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>93.7</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="C2">
-        <v>84.59999999999999</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="D2">
-        <v>59.7</v>
+        <v>60.09999999999999</v>
       </c>
       <c r="E2">
-        <v>76.5</v>
+        <v>78.3</v>
       </c>
       <c r="F2">
-        <v>90.40000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="G2">
-        <v>86</v>
+        <v>83.39999999999999</v>
       </c>
       <c r="H2">
-        <v>94</v>
+        <v>92.60000000000001</v>
       </c>
       <c r="I2">
-        <v>94.5</v>
+        <v>93.8</v>
       </c>
       <c r="J2">
-        <v>98.7</v>
+        <v>98</v>
       </c>
       <c r="K2">
-        <v>99.7</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="L2">
         <v>100</v>
@@ -4166,84 +4169,84 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>39.7</v>
+        <v>39.1</v>
       </c>
       <c r="C3">
-        <v>62.7</v>
+        <v>82.89999999999999</v>
       </c>
       <c r="D3">
-        <v>60</v>
+        <v>44.2</v>
       </c>
       <c r="E3">
-        <v>79.60000000000001</v>
+        <v>32.3</v>
       </c>
       <c r="F3">
-        <v>83.7</v>
+        <v>62.8</v>
       </c>
       <c r="G3">
-        <v>93.8</v>
+        <v>74.5</v>
       </c>
       <c r="H3">
-        <v>93.89999999999999</v>
+        <v>84.8</v>
       </c>
       <c r="I3">
-        <v>93.8</v>
+        <v>63</v>
       </c>
       <c r="J3">
-        <v>97</v>
+        <v>84.3</v>
       </c>
       <c r="K3">
-        <v>95</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="L3">
-        <v>98.3</v>
+        <v>98.2</v>
       </c>
       <c r="M3">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>38.7</v>
+        <v>42.2</v>
       </c>
       <c r="C4">
+        <v>64.40000000000001</v>
+      </c>
+      <c r="D4">
+        <v>59.2</v>
+      </c>
+      <c r="E4">
         <v>82.5</v>
       </c>
-      <c r="D4">
-        <v>43.7</v>
-      </c>
-      <c r="E4">
-        <v>31.1</v>
-      </c>
       <c r="F4">
-        <v>59.5</v>
+        <v>84</v>
       </c>
       <c r="G4">
-        <v>76</v>
+        <v>92.2</v>
       </c>
       <c r="H4">
-        <v>84.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="I4">
-        <v>64.3</v>
+        <v>93.8</v>
       </c>
       <c r="J4">
-        <v>82.8</v>
+        <v>96.5</v>
       </c>
       <c r="K4">
-        <v>95.8</v>
+        <v>95.19999999999999</v>
       </c>
       <c r="L4">
-        <v>98.5</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="M4">
-        <v>98.8</v>
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -4251,40 +4254,40 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>90.60000000000001</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="C5">
-        <v>92.60000000000001</v>
+        <v>91.8</v>
       </c>
       <c r="D5">
-        <v>14.1</v>
+        <v>12.6</v>
       </c>
       <c r="E5">
-        <v>35.09999999999999</v>
+        <v>36.8</v>
       </c>
       <c r="F5">
-        <v>22.7</v>
+        <v>23.6</v>
       </c>
       <c r="G5">
-        <v>9.9</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>11.4</v>
+        <v>10.4</v>
       </c>
       <c r="I5">
-        <v>25.9</v>
+        <v>23.6</v>
       </c>
       <c r="J5">
-        <v>44.5</v>
+        <v>45.3</v>
       </c>
       <c r="K5">
-        <v>57.9</v>
+        <v>57.4</v>
       </c>
       <c r="L5">
-        <v>76</v>
+        <v>74.5</v>
       </c>
       <c r="M5">
-        <v>76.3</v>
+        <v>76.8</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -4292,40 +4295,40 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>23.4</v>
+        <v>19.9</v>
       </c>
       <c r="C6">
-        <v>68.60000000000001</v>
+        <v>68.7</v>
       </c>
       <c r="D6">
-        <v>72.59999999999999</v>
+        <v>72.39999999999999</v>
       </c>
       <c r="E6">
-        <v>53.40000000000001</v>
+        <v>52.40000000000001</v>
       </c>
       <c r="F6">
-        <v>68.7</v>
+        <v>64</v>
       </c>
       <c r="G6">
-        <v>82.3</v>
+        <v>81.69999999999999</v>
       </c>
       <c r="H6">
-        <v>90.90000000000001</v>
+        <v>93</v>
       </c>
       <c r="I6">
-        <v>97.39999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="J6">
-        <v>87.40000000000001</v>
+        <v>88.2</v>
       </c>
       <c r="K6">
-        <v>77</v>
+        <v>74.5</v>
       </c>
       <c r="L6">
         <v>60.2</v>
       </c>
       <c r="M6">
-        <v>59.09999999999999</v>
+        <v>61.1</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4333,204 +4336,204 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>30</v>
+        <v>32.7</v>
       </c>
       <c r="C7">
-        <v>31.4</v>
+        <v>31.9</v>
       </c>
       <c r="D7">
-        <v>7.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="F7">
-        <v>32.4</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="G7">
-        <v>39.90000000000001</v>
+        <v>41.9</v>
       </c>
       <c r="H7">
-        <v>62.1</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="I7">
-        <v>55.7</v>
+        <v>56.10000000000001</v>
       </c>
       <c r="J7">
-        <v>37.2</v>
+        <v>37.3</v>
       </c>
       <c r="K7">
-        <v>28.6</v>
+        <v>26.8</v>
       </c>
       <c r="L7">
-        <v>49.2</v>
+        <v>52</v>
       </c>
       <c r="M7">
-        <v>53.5</v>
+        <v>56.7</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>27.8</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="C8">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>57.2</v>
+        <v>9.700000000000001</v>
       </c>
       <c r="E8">
-        <v>64.5</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <v>37.1</v>
       </c>
       <c r="G8">
-        <v>12.8</v>
+        <v>44.3</v>
       </c>
       <c r="H8">
-        <v>5.4</v>
+        <v>61.5</v>
       </c>
       <c r="I8">
-        <v>8.5</v>
+        <v>77.7</v>
       </c>
       <c r="J8">
-        <v>18.4</v>
+        <v>59.09999999999999</v>
       </c>
       <c r="K8">
-        <v>32.7</v>
+        <v>49.6</v>
       </c>
       <c r="L8">
-        <v>42.8</v>
+        <v>28.5</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>33.4</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>1.3</v>
+        <v>29.1</v>
       </c>
       <c r="C9">
-        <v>0.1</v>
+        <v>5.3</v>
       </c>
       <c r="D9">
-        <v>10.1</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="E9">
-        <v>22.6</v>
+        <v>63.5</v>
       </c>
       <c r="F9">
-        <v>37.7</v>
+        <v>33.7</v>
       </c>
       <c r="G9">
-        <v>39.7</v>
+        <v>12.2</v>
       </c>
       <c r="H9">
-        <v>60.09999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="I9">
-        <v>79.80000000000001</v>
+        <v>11.1</v>
       </c>
       <c r="J9">
-        <v>57.59999999999999</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>48.3</v>
+        <v>34.59999999999999</v>
       </c>
       <c r="L9">
-        <v>29.2</v>
+        <v>41.09999999999999</v>
       </c>
       <c r="M9">
-        <v>36.3</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>6.600000000000001</v>
+        <v>15.9</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="D10">
-        <v>16.1</v>
+        <v>48.6</v>
       </c>
       <c r="E10">
-        <v>11.4</v>
+        <v>40</v>
       </c>
       <c r="F10">
-        <v>3.2</v>
+        <v>41.2</v>
       </c>
       <c r="G10">
-        <v>9.300000000000001</v>
+        <v>61.8</v>
       </c>
       <c r="H10">
-        <v>3.6</v>
+        <v>28.8</v>
       </c>
       <c r="I10">
-        <v>0.5</v>
+        <v>51.3</v>
       </c>
       <c r="J10">
-        <v>3.7</v>
+        <v>26.8</v>
       </c>
       <c r="K10">
-        <v>7.000000000000001</v>
+        <v>26.1</v>
       </c>
       <c r="L10">
-        <v>16.8</v>
+        <v>17.6</v>
       </c>
       <c r="M10">
-        <v>13</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>20</v>
+        <v>8.4</v>
       </c>
       <c r="C11">
-        <v>34.8</v>
+        <v>0.1</v>
       </c>
       <c r="D11">
-        <v>48.9</v>
+        <v>16.6</v>
       </c>
       <c r="E11">
-        <v>42.2</v>
+        <v>9.5</v>
       </c>
       <c r="F11">
-        <v>44.7</v>
+        <v>3.2</v>
       </c>
       <c r="G11">
-        <v>63.3</v>
+        <v>8.5</v>
       </c>
       <c r="H11">
-        <v>30.5</v>
+        <v>2.8</v>
       </c>
       <c r="I11">
-        <v>47.09999999999999</v>
+        <v>0.8</v>
       </c>
       <c r="J11">
-        <v>29.5</v>
+        <v>3.5</v>
       </c>
       <c r="K11">
-        <v>27.1</v>
+        <v>8.5</v>
       </c>
       <c r="L11">
-        <v>17.2</v>
+        <v>16.6</v>
       </c>
       <c r="M11">
-        <v>12.4</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -4538,7 +4541,7 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -4547,31 +4550,31 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="F12">
-        <v>7.3</v>
+        <v>8.4</v>
       </c>
       <c r="G12">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="H12">
-        <v>7.3</v>
+        <v>8.4</v>
       </c>
       <c r="I12">
         <v>2.2</v>
       </c>
       <c r="J12">
-        <v>6.5</v>
+        <v>6.9</v>
       </c>
       <c r="K12">
-        <v>9.6</v>
+        <v>8.5</v>
       </c>
       <c r="L12">
-        <v>4.399999999999999</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>6</v>
+        <v>5.800000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -4579,40 +4582,40 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="C13">
-        <v>7.399999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="D13">
-        <v>61.9</v>
+        <v>60.2</v>
       </c>
       <c r="E13">
-        <v>81.89999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="F13">
-        <v>51.2</v>
+        <v>49</v>
       </c>
       <c r="G13">
-        <v>57.9</v>
+        <v>61.7</v>
       </c>
       <c r="H13">
-        <v>33.5</v>
+        <v>28.7</v>
       </c>
       <c r="I13">
-        <v>18.7</v>
+        <v>17.5</v>
       </c>
       <c r="J13">
-        <v>32.3</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="K13">
-        <v>16.7</v>
+        <v>18.1</v>
       </c>
       <c r="L13">
+        <v>6.7</v>
+      </c>
+      <c r="M13">
         <v>5.4</v>
-      </c>
-      <c r="M13">
-        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -4620,40 +4623,40 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="C14">
-        <v>30.6</v>
+        <v>32.3</v>
       </c>
       <c r="D14">
-        <v>11.3</v>
+        <v>13.3</v>
       </c>
       <c r="E14">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F14">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="G14">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
+        <v>0.4</v>
+      </c>
+      <c r="I14">
+        <v>1.1</v>
+      </c>
+      <c r="J14">
         <v>0.1</v>
-      </c>
-      <c r="I14">
-        <v>1.3</v>
-      </c>
-      <c r="J14">
-        <v>0.3</v>
       </c>
       <c r="K14">
         <v>0.5</v>
       </c>
       <c r="L14">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="M14">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -4661,40 +4664,40 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="C15">
-        <v>43.7</v>
+        <v>44</v>
       </c>
       <c r="D15">
-        <v>73</v>
+        <v>72.89999999999999</v>
       </c>
       <c r="E15">
         <v>56.10000000000001</v>
       </c>
       <c r="F15">
-        <v>40.8</v>
+        <v>41.3</v>
       </c>
       <c r="G15">
-        <v>16.2</v>
+        <v>17.6</v>
       </c>
       <c r="H15">
-        <v>20.5</v>
+        <v>18.9</v>
       </c>
       <c r="I15">
-        <v>9.4</v>
+        <v>11</v>
       </c>
       <c r="J15">
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="K15">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="L15">
-        <v>0.7000000000000001</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>1.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -4702,37 +4705,37 @@
         <v>11</v>
       </c>
       <c r="B16">
-        <v>10.1</v>
+        <v>12.3</v>
       </c>
       <c r="C16">
-        <v>47.4</v>
+        <v>49.4</v>
       </c>
       <c r="D16">
-        <v>58.2</v>
+        <v>58.3</v>
       </c>
       <c r="E16">
-        <v>22.4</v>
+        <v>23.2</v>
       </c>
       <c r="F16">
-        <v>9.1</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G16">
         <v>2.8</v>
       </c>
       <c r="H16">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="I16">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="J16">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="K16">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="L16">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -4743,31 +4746,31 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>67</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="C17">
-        <v>4.100000000000001</v>
+        <v>4</v>
       </c>
       <c r="D17">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="E17">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="F17">
         <v>17.2</v>
       </c>
       <c r="G17">
-        <v>6.1</v>
+        <v>4.8</v>
       </c>
       <c r="H17">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="I17">
-        <v>0.7000000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="J17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -4784,28 +4787,28 @@
         <v>15</v>
       </c>
       <c r="B18">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C18">
-        <v>0.8999999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="D18">
-        <v>1.7</v>
+        <v>2.4</v>
       </c>
       <c r="E18">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="F18">
+        <v>0.1</v>
+      </c>
+      <c r="G18">
+        <v>0.5</v>
+      </c>
+      <c r="H18">
         <v>0.2</v>
       </c>
-      <c r="G18">
-        <v>0.3</v>
-      </c>
-      <c r="H18">
+      <c r="I18">
         <v>0.1</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -4825,19 +4828,19 @@
         <v>16</v>
       </c>
       <c r="B19">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="E19">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -4913,8 +4916,8 @@
       <c r="D2">
         <v>106.89</v>
       </c>
-      <c r="E2">
-        <v>0.636</v>
+      <c r="E2" t="s">
+        <v>22</v>
       </c>
       <c r="F2">
         <v>114.41</v>
@@ -4942,8 +4945,8 @@
       <c r="D3">
         <v>75.94</v>
       </c>
-      <c r="E3">
-        <v>0.182</v>
+      <c r="E3" t="s">
+        <v>29</v>
       </c>
       <c r="F3">
         <v>105.29</v>
@@ -4971,8 +4974,8 @@
       <c r="D4">
         <v>77.51000000000001</v>
       </c>
-      <c r="E4">
-        <v>0.273</v>
+      <c r="E4" t="s">
+        <v>21</v>
       </c>
       <c r="F4">
         <v>108.03</v>
@@ -5000,8 +5003,8 @@
       <c r="D5">
         <v>79.36</v>
       </c>
-      <c r="E5">
-        <v>0.273</v>
+      <c r="E5" t="s">
+        <v>21</v>
       </c>
       <c r="F5">
         <v>106.94</v>
@@ -5029,8 +5032,8 @@
       <c r="D6">
         <v>109.63</v>
       </c>
-      <c r="E6">
-        <v>0.636</v>
+      <c r="E6" t="s">
+        <v>22</v>
       </c>
       <c r="F6">
         <v>105.52</v>
@@ -5058,8 +5061,8 @@
       <c r="D7">
         <v>100.58</v>
       </c>
-      <c r="E7">
-        <v>0.364</v>
+      <c r="E7" t="s">
+        <v>25</v>
       </c>
       <c r="F7">
         <v>103.52</v>
@@ -5087,8 +5090,8 @@
       <c r="D8">
         <v>102.13</v>
       </c>
-      <c r="E8">
-        <v>0.636</v>
+      <c r="E8" t="s">
+        <v>22</v>
       </c>
       <c r="F8">
         <v>103.83</v>
@@ -5116,8 +5119,8 @@
       <c r="D9">
         <v>98.65000000000001</v>
       </c>
-      <c r="E9">
-        <v>0.455</v>
+      <c r="E9" t="s">
+        <v>19</v>
       </c>
       <c r="F9">
         <v>100.55</v>
@@ -5145,8 +5148,8 @@
       <c r="D10">
         <v>91.19</v>
       </c>
-      <c r="E10">
-        <v>0.455</v>
+      <c r="E10" t="s">
+        <v>19</v>
       </c>
       <c r="F10">
         <v>101.94</v>
@@ -5174,8 +5177,8 @@
       <c r="D11">
         <v>106.54</v>
       </c>
-      <c r="E11">
-        <v>0.455</v>
+      <c r="E11" t="s">
+        <v>19</v>
       </c>
       <c r="F11">
         <v>98.08</v>
@@ -5203,8 +5206,8 @@
       <c r="D12">
         <v>117.42</v>
       </c>
-      <c r="E12">
-        <v>0.727</v>
+      <c r="E12" t="s">
+        <v>18</v>
       </c>
       <c r="F12">
         <v>97.36</v>
@@ -5232,8 +5235,8 @@
       <c r="D13">
         <v>119.05</v>
       </c>
-      <c r="E13">
-        <v>0.727</v>
+      <c r="E13" t="s">
+        <v>18</v>
       </c>
       <c r="F13">
         <v>100.23</v>
@@ -5261,8 +5264,8 @@
       <c r="D14">
         <v>104.46</v>
       </c>
-      <c r="E14">
-        <v>0.545</v>
+      <c r="E14" t="s">
+        <v>23</v>
       </c>
       <c r="F14">
         <v>98.93000000000001</v>
@@ -5290,8 +5293,8 @@
       <c r="D15">
         <v>90.81</v>
       </c>
-      <c r="E15">
-        <v>0.364</v>
+      <c r="E15" t="s">
+        <v>25</v>
       </c>
       <c r="F15">
         <v>99.23999999999999</v>
@@ -5319,8 +5322,8 @@
       <c r="D16">
         <v>105.31</v>
       </c>
-      <c r="E16">
-        <v>0.545</v>
+      <c r="E16" t="s">
+        <v>23</v>
       </c>
       <c r="F16">
         <v>100.89</v>
@@ -5348,8 +5351,8 @@
       <c r="D17">
         <v>104.78</v>
       </c>
-      <c r="E17">
-        <v>0.455</v>
+      <c r="E17" t="s">
+        <v>19</v>
       </c>
       <c r="F17">
         <v>92.44</v>
@@ -5377,8 +5380,8 @@
       <c r="D18">
         <v>115.84</v>
       </c>
-      <c r="E18">
-        <v>0.8179999999999999</v>
+      <c r="E18" t="s">
+        <v>24</v>
       </c>
       <c r="F18">
         <v>91.67</v>
@@ -5406,8 +5409,8 @@
       <c r="D19">
         <v>112.53</v>
       </c>
-      <c r="E19">
-        <v>0.364</v>
+      <c r="E19" t="s">
+        <v>25</v>
       </c>
       <c r="F19">
         <v>89.75</v>
@@ -5490,7 +5493,7 @@
         <v>110</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5510,7 +5513,7 @@
         <v>1309.52</v>
       </c>
       <c r="F3">
-        <v>99.2</v>
+        <v>99</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -5519,7 +5522,7 @@
         <v>111</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5539,16 +5542,16 @@
         <v>1291.6</v>
       </c>
       <c r="F4">
-        <v>98.90000000000001</v>
+        <v>98.7</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5568,16 +5571,16 @@
         <v>1205.94</v>
       </c>
       <c r="F5">
-        <v>77.3</v>
+        <v>75.3</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5597,16 +5600,16 @@
         <v>1175.78</v>
       </c>
       <c r="F6">
-        <v>58.7</v>
+        <v>57.99999999999999</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5626,21 +5629,21 @@
         <v>1123.44</v>
       </c>
       <c r="F7">
-        <v>52.5</v>
+        <v>54.3</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
         <v>105</v>
@@ -5649,27 +5652,27 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="D8">
-        <v>104.4636363636364</v>
+        <v>105.3072727272727</v>
       </c>
       <c r="E8">
-        <v>1149.1</v>
+        <v>1158.38</v>
       </c>
       <c r="F8">
-        <v>38</v>
+        <v>37.5</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I8" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>105</v>
@@ -5678,27 +5681,27 @@
         <v>0.5454545454545454</v>
       </c>
       <c r="D9">
-        <v>105.3072727272727</v>
+        <v>104.4636363636364</v>
       </c>
       <c r="E9">
-        <v>1158.38</v>
+        <v>1149.1</v>
       </c>
       <c r="F9">
-        <v>36.7</v>
+        <v>35.8</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
         <v>106</v>
@@ -5707,19 +5710,19 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="D10">
-        <v>106.5381818181818</v>
+        <v>104.78</v>
       </c>
       <c r="E10">
-        <v>1171.92</v>
+        <v>1152.58</v>
       </c>
       <c r="F10">
-        <v>13.7</v>
+        <v>15.9</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I10" t="s">
         <v>130</v>
@@ -5727,7 +5730,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>106</v>
@@ -5736,106 +5739,106 @@
         <v>0.4545454545454545</v>
       </c>
       <c r="D11">
-        <v>104.78</v>
+        <v>106.5381818181818</v>
       </c>
       <c r="E11">
-        <v>1152.58</v>
+        <v>1171.92</v>
       </c>
       <c r="F11">
-        <v>13.4</v>
+        <v>15.1</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C12">
-        <v>0.4545454545454545</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D12">
-        <v>98.64727272727272</v>
+        <v>112.5254545454546</v>
       </c>
       <c r="E12">
-        <v>1085.12</v>
+        <v>1237.78</v>
       </c>
       <c r="F12">
         <v>5.3</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C13">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D13">
-        <v>112.5254545454546</v>
+        <v>98.64727272727272</v>
       </c>
       <c r="E13">
-        <v>1237.78</v>
+        <v>1085.12</v>
       </c>
       <c r="F13">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C14">
-        <v>0.3636363636363636</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="D14">
-        <v>100.5781818181818</v>
+        <v>91.18909090909091</v>
       </c>
       <c r="E14">
-        <v>1106.36</v>
+        <v>1003.08</v>
       </c>
       <c r="F14">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I14" t="s">
         <v>131</v>
@@ -5843,31 +5846,31 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C15">
-        <v>0.4545454545454545</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="D15">
-        <v>91.18909090909091</v>
+        <v>100.5781818181818</v>
       </c>
       <c r="E15">
-        <v>1003.08</v>
+        <v>1106.36</v>
       </c>
       <c r="F15">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="G15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5887,16 +5890,16 @@
         <v>998.8999999999999</v>
       </c>
       <c r="F16">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G16">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I16" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5919,13 +5922,13 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>20.2</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5948,13 +5951,13 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>61.3</v>
+        <v>60.6</v>
       </c>
       <c r="H18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -5977,13 +5980,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>17.9</v>
+        <v>17</v>
       </c>
       <c r="H19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6004,16 +6007,16 @@
         <v>32</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6033,7 +6036,7 @@
         <v>31</v>
       </c>
       <c r="F2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6053,7 +6056,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6073,7 +6076,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6093,7 +6096,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6113,7 +6116,7 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6133,7 +6136,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6153,7 +6156,7 @@
         <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6173,7 +6176,7 @@
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6193,7 +6196,7 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6213,7 +6216,7 @@
         <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6233,7 +6236,7 @@
         <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6253,7 +6256,7 @@
         <v>19</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6273,7 +6276,7 @@
         <v>22</v>
       </c>
       <c r="F14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6293,7 +6296,7 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6313,7 +6316,7 @@
         <v>19</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6333,7 +6336,7 @@
         <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6353,7 +6356,7 @@
         <v>21</v>
       </c>
       <c r="F18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6373,7 +6376,7 @@
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -6391,40 +6394,40 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -6465,7 +6468,7 @@
         <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -6506,7 +6509,7 @@
         <v>37</v>
       </c>
       <c r="M3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -6547,7 +6550,7 @@
         <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -6588,7 +6591,7 @@
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -6629,7 +6632,7 @@
         <v>12</v>
       </c>
       <c r="M6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -6670,7 +6673,7 @@
         <v>11</v>
       </c>
       <c r="M7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -6711,7 +6714,7 @@
         <v>11</v>
       </c>
       <c r="M8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -6752,7 +6755,7 @@
         <v>9</v>
       </c>
       <c r="M9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -6793,7 +6796,7 @@
         <v>7</v>
       </c>
       <c r="M10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -6834,7 +6837,7 @@
         <v>7</v>
       </c>
       <c r="M11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -6875,7 +6878,7 @@
         <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -6916,7 +6919,7 @@
         <v>-1</v>
       </c>
       <c r="M13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -6957,7 +6960,7 @@
         <v>-7</v>
       </c>
       <c r="M14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -6998,7 +7001,7 @@
         <v>-11</v>
       </c>
       <c r="M15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -7039,7 +7042,7 @@
         <v>-15</v>
       </c>
       <c r="M16" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -7080,7 +7083,7 @@
         <v>-33</v>
       </c>
       <c r="M17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -7121,7 +7124,7 @@
         <v>-41</v>
       </c>
       <c r="M18" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -7162,7 +7165,7 @@
         <v>-51</v>
       </c>
       <c r="M19" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Girl's Room 💞🏈 2025.xlsx
+++ b/leagues/The Girl's Room 💞🏈 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="169">
   <si>
     <t>Tush Push Director 🍑</t>
   </si>
@@ -79,46 +79,49 @@
     <t>Lamb of Goedert</t>
   </si>
   <si>
-    <t>8-3-0</t>
-  </si>
-  <si>
-    <t>5-6-0</t>
-  </si>
-  <si>
-    <t>11-0-0</t>
-  </si>
-  <si>
-    <t>3-8-0</t>
-  </si>
-  <si>
-    <t>7-4-0</t>
-  </si>
-  <si>
-    <t>6-5-0</t>
-  </si>
-  <si>
-    <t>9-2-0</t>
-  </si>
-  <si>
-    <t>4-7-0</t>
-  </si>
-  <si>
-    <t>6-4-1</t>
-  </si>
-  <si>
-    <t>10-1-0</t>
-  </si>
-  <si>
-    <t>1-10-0</t>
-  </si>
-  <si>
-    <t>2-9-0</t>
-  </si>
-  <si>
-    <t>3-7-1</t>
-  </si>
-  <si>
-    <t>4-6-1</t>
+    <t>9-3-0</t>
+  </si>
+  <si>
+    <t>8-4-0</t>
+  </si>
+  <si>
+    <t>5-7-0</t>
+  </si>
+  <si>
+    <t>12-0-0</t>
+  </si>
+  <si>
+    <t>3-9-0</t>
+  </si>
+  <si>
+    <t>7-5-0</t>
+  </si>
+  <si>
+    <t>6-6-0</t>
+  </si>
+  <si>
+    <t>10-2-0</t>
+  </si>
+  <si>
+    <t>4-8-0</t>
+  </si>
+  <si>
+    <t>6-5-1</t>
+  </si>
+  <si>
+    <t>11-1-0</t>
+  </si>
+  <si>
+    <t>1-11-0</t>
+  </si>
+  <si>
+    <t>2-10-0</t>
+  </si>
+  <si>
+    <t>4-7-1</t>
+  </si>
+  <si>
+    <t>5-6-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -232,6 +235,9 @@
     <t>Week_12</t>
   </si>
   <si>
+    <t>Week_13</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -253,13 +259,19 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Swathi Veeravalli</t>
+  </si>
+  <si>
+    <t>Emily Carey</t>
+  </si>
+  <si>
     <t>Shae Marx</t>
   </si>
   <si>
     <t>Nicole Coppins</t>
   </si>
   <si>
-    <t>Swathi Veeravalli</t>
+    <t>Allie Kardon</t>
   </si>
   <si>
     <t>Grace Schiavone</t>
@@ -268,45 +280,39 @@
     <t>Hillary Dale</t>
   </si>
   <si>
+    <t>Nikki Papalia</t>
+  </si>
+  <si>
+    <t>Faith Pon</t>
+  </si>
+  <si>
     <t>Lily Lamb</t>
   </si>
   <si>
-    <t>Nikki Papalia</t>
-  </si>
-  <si>
-    <t>Faith Pon</t>
-  </si>
-  <si>
-    <t>Allie Kardon</t>
-  </si>
-  <si>
-    <t>Emily Carey</t>
+    <t>Malini Ragoopath</t>
   </si>
   <si>
     <t>Sumita Gangwani</t>
   </si>
   <si>
-    <t>Malini Ragoopath</t>
+    <t>Kiana McIntosh</t>
+  </si>
+  <si>
+    <t>Hannah Miller</t>
+  </si>
+  <si>
+    <t>Brianna Goebel</t>
+  </si>
+  <si>
+    <t>Rebecca Schneider</t>
   </si>
   <si>
     <t>Amanda Pasquale</t>
   </si>
   <si>
-    <t>Hannah Miller</t>
-  </si>
-  <si>
-    <t>Brianna Goebel</t>
-  </si>
-  <si>
     <t>Grace Stockbower</t>
   </si>
   <si>
-    <t>Rebecca Schneider</t>
-  </si>
-  <si>
-    <t>Kiana McIntosh</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -331,105 +337,105 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>9-2</t>
-  </si>
-  <si>
-    <t>8-3</t>
-  </si>
-  <si>
-    <t>7-4</t>
-  </si>
-  <si>
-    <t>6-5</t>
-  </si>
-  <si>
-    <t>5-6</t>
-  </si>
-  <si>
-    <t>4-7</t>
-  </si>
-  <si>
-    <t>3-8</t>
-  </si>
-  <si>
-    <t>2-9</t>
-  </si>
-  <si>
-    <t>11.8-3.2</t>
-  </si>
-  <si>
-    <t>10.6-4.4</t>
-  </si>
-  <si>
-    <t>10.6-4.3</t>
-  </si>
-  <si>
-    <t>9.0-5.9</t>
-  </si>
-  <si>
-    <t>8.8-6.2</t>
-  </si>
-  <si>
-    <t>8.9-6.0</t>
-  </si>
-  <si>
-    <t>8.1-6.8</t>
-  </si>
-  <si>
-    <t>8.2-6.8</t>
-  </si>
-  <si>
-    <t>7.5-7.5</t>
-  </si>
-  <si>
-    <t>7.3-7.6</t>
-  </si>
-  <si>
-    <t>6.6-8.4</t>
-  </si>
-  <si>
-    <t>6.9-8.1</t>
-  </si>
-  <si>
-    <t>5.8-9.1</t>
-  </si>
-  <si>
-    <t>5.7-9.3</t>
-  </si>
-  <si>
-    <t>4.1-10.9</t>
-  </si>
-  <si>
-    <t>3.2-11.8</t>
-  </si>
-  <si>
-    <t>4.0-10.9</t>
-  </si>
-  <si>
-    <t>12-3</t>
+    <t>9-3</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>7-5</t>
+  </si>
+  <si>
+    <t>6-6</t>
+  </si>
+  <si>
+    <t>5-7</t>
+  </si>
+  <si>
+    <t>3-9</t>
+  </si>
+  <si>
+    <t>2-10</t>
+  </si>
+  <si>
+    <t>4-8</t>
+  </si>
+  <si>
+    <t>11.0-4.0</t>
+  </si>
+  <si>
+    <t>11.2-3.8</t>
+  </si>
+  <si>
+    <t>9.7-5.3</t>
+  </si>
+  <si>
+    <t>8.4-6.6</t>
+  </si>
+  <si>
+    <t>8.3-6.7</t>
+  </si>
+  <si>
+    <t>7.6-6.4-1.0</t>
+  </si>
+  <si>
+    <t>7.8-7.2</t>
+  </si>
+  <si>
+    <t>6.9-7.1-1.0</t>
+  </si>
+  <si>
+    <t>7.4-7.5</t>
+  </si>
+  <si>
+    <t>6.8-8.2</t>
+  </si>
+  <si>
+    <t>6.4-8.6</t>
+  </si>
+  <si>
+    <t>7.0-8.0</t>
+  </si>
+  <si>
+    <t>6.5-8.5</t>
+  </si>
+  <si>
+    <t>3.7-11.3</t>
+  </si>
+  <si>
+    <t>2.9-12.1</t>
+  </si>
+  <si>
+    <t>4.8-10.1</t>
   </si>
   <si>
     <t>11-4</t>
   </si>
   <si>
-    <t>9-6</t>
+    <t>10-5</t>
   </si>
   <si>
     <t>8-7</t>
   </si>
   <si>
+    <t>8-6-1</t>
+  </si>
+  <si>
+    <t>7-7-1</t>
+  </si>
+  <si>
     <t>7-8</t>
   </si>
   <si>
     <t>6-9</t>
   </si>
   <si>
-    <t>4-11</t>
-  </si>
-  <si>
     <t>3-12</t>
   </si>
   <si>
+    <t>5-10</t>
+  </si>
+  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -439,37 +445,34 @@
     <t>Change From Last Week</t>
   </si>
   <si>
-    <t>↑2</t>
+    <t>↑1</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↑4</t>
+  </si>
+  <si>
+    <t>↑7</t>
   </si>
   <si>
     <t>↑5</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑6</t>
-  </si>
-  <si>
-    <t>↑1</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↓9</t>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓4</t>
   </si>
   <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>↓10</t>
-  </si>
-  <si>
-    <t>↓8</t>
+    <t>↑8</t>
+  </si>
+  <si>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -503,6 +506,9 @@
   </si>
   <si>
     <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
   </si>
   <si>
     <t>Week</t>
@@ -951,13 +957,13 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
@@ -969,37 +975,37 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>18</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
       </c>
       <c r="S2" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1007,58 +1013,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="J3" t="s">
-        <v>24</v>
-      </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
         <v>23</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R3" t="s">
         <v>23</v>
       </c>
       <c r="S3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1066,58 +1072,58 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
       <c r="M4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
         <v>23</v>
       </c>
       <c r="O4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R4" t="s">
         <v>23</v>
       </c>
       <c r="S4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1125,22 +1131,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
         <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
       </c>
       <c r="H5" t="s">
         <v>23</v>
@@ -1149,22 +1155,22 @@
         <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" t="s">
         <v>19</v>
       </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
       <c r="M5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N5" t="s">
         <v>18</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5" t="s">
         <v>23</v>
@@ -1176,7 +1182,7 @@
         <v>23</v>
       </c>
       <c r="S5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1184,58 +1190,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
       <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" t="s">
-        <v>25</v>
-      </c>
-      <c r="P6" t="s">
-        <v>28</v>
-      </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S6" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1243,58 +1249,58 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" t="s">
+        <v>24</v>
+      </c>
+      <c r="S7" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" t="s">
-        <v>25</v>
-      </c>
-      <c r="L7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1302,58 +1308,58 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
       <c r="K8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1361,58 +1367,58 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
         <v>22</v>
       </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
       <c r="K9" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
         <v>23</v>
       </c>
-      <c r="L9" t="s">
-        <v>22</v>
-      </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N9" t="s">
         <v>23</v>
       </c>
       <c r="O9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1420,13 +1426,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -1435,7 +1441,7 @@
         <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
@@ -1444,31 +1450,31 @@
         <v>18</v>
       </c>
       <c r="J10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K10" t="s">
         <v>18</v>
       </c>
       <c r="L10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" t="s">
         <v>23</v>
-      </c>
-      <c r="N10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" t="s">
-        <v>22</v>
       </c>
       <c r="P10" t="s">
         <v>18</v>
       </c>
       <c r="Q10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S10" t="s">
         <v>23</v>
@@ -1479,58 +1485,58 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="K11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" t="s">
         <v>19</v>
       </c>
-      <c r="I11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K11" t="s">
-        <v>19</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
-      </c>
       <c r="M11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N11" t="s">
         <v>18</v>
       </c>
       <c r="O11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" t="s">
-        <v>18</v>
-      </c>
       <c r="R11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1538,16 +1544,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F12" t="s">
         <v>18</v>
@@ -1556,7 +1562,7 @@
         <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
         <v>18</v>
@@ -1568,25 +1574,25 @@
         <v>18</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N12" t="s">
         <v>23</v>
       </c>
       <c r="O12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P12" t="s">
         <v>18</v>
       </c>
       <c r="Q12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="R12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S12" t="s">
         <v>23</v>
@@ -1597,58 +1603,58 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J13" t="s">
         <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="O13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P13" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="Q13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="R13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1656,10 +1662,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>18</v>
@@ -1674,22 +1680,22 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N14" t="s">
         <v>18</v>
@@ -1701,13 +1707,13 @@
         <v>18</v>
       </c>
       <c r="Q14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="R14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="S14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1715,58 +1721,58 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" t="s">
+        <v>23</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>23</v>
+      </c>
+      <c r="L15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M15" t="s">
+        <v>24</v>
+      </c>
+      <c r="N15" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" t="s">
         <v>19</v>
       </c>
-      <c r="D15" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s">
-        <v>19</v>
-      </c>
-      <c r="H15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="S15" t="s">
         <v>24</v>
-      </c>
-      <c r="K15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" t="s">
-        <v>19</v>
-      </c>
-      <c r="O15" t="s">
-        <v>22</v>
-      </c>
-      <c r="P15" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>22</v>
-      </c>
-      <c r="R15" t="s">
-        <v>18</v>
-      </c>
-      <c r="S15" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1774,31 +1780,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F16" t="s">
         <v>23</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="J16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K16" t="s">
         <v>23</v>
@@ -1807,25 +1813,25 @@
         <v>23</v>
       </c>
       <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" t="s">
         <v>23</v>
       </c>
-      <c r="N16" t="s">
+      <c r="P16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>23</v>
+      </c>
+      <c r="R16" t="s">
         <v>19</v>
       </c>
-      <c r="O16" t="s">
-        <v>22</v>
-      </c>
-      <c r="P16" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>22</v>
-      </c>
-      <c r="R16" t="s">
-        <v>22</v>
-      </c>
       <c r="S16" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1833,58 +1839,58 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s">
-        <v>28</v>
-      </c>
       <c r="F17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H17" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O17" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" t="s">
         <v>29</v>
       </c>
-      <c r="J17" t="s">
-        <v>25</v>
-      </c>
-      <c r="K17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" t="s">
-        <v>21</v>
-      </c>
-      <c r="M17" t="s">
-        <v>21</v>
-      </c>
-      <c r="N17" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" t="s">
-        <v>25</v>
-      </c>
-      <c r="P17" t="s">
-        <v>28</v>
-      </c>
       <c r="Q17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1892,58 +1898,58 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" t="s">
+        <v>30</v>
+      </c>
+      <c r="O18" t="s">
+        <v>22</v>
+      </c>
+      <c r="P18" t="s">
         <v>29</v>
       </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J18" t="s">
-        <v>21</v>
-      </c>
-      <c r="K18" t="s">
-        <v>21</v>
-      </c>
-      <c r="L18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" t="s">
-        <v>29</v>
-      </c>
-      <c r="N18" t="s">
-        <v>28</v>
-      </c>
-      <c r="O18" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" t="s">
-        <v>28</v>
-      </c>
       <c r="Q18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="S18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1951,58 +1957,58 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
         <v>22</v>
       </c>
-      <c r="C19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" t="s">
-        <v>29</v>
-      </c>
       <c r="F19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="I19" t="s">
         <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
       </c>
       <c r="M19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N19" t="s">
         <v>23</v>
       </c>
       <c r="O19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R19" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="S19" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2020,25 +2026,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2046,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>-3</v>
+        <v>-43</v>
       </c>
       <c r="F2">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="G2">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -2072,25 +2078,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3">
-        <v>25</v>
+        <v>-3</v>
       </c>
       <c r="F3">
-        <v>-9</v>
+        <v>32</v>
       </c>
       <c r="G3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2098,25 +2104,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E4">
-        <v>-29</v>
+        <v>25</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>-9</v>
       </c>
       <c r="G4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2124,25 +2130,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>7</v>
+        <v>-29</v>
       </c>
       <c r="F5">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2150,25 +2156,25 @@
         <v>4</v>
       </c>
       <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>17</v>
-      </c>
       <c r="F6">
-        <v>-11</v>
+        <v>37</v>
       </c>
       <c r="G6">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2176,25 +2182,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E7">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>-11</v>
       </c>
       <c r="G7">
         <v>28</v>
       </c>
       <c r="H7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2202,25 +2208,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G8">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2228,25 +2234,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F9">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2254,25 +2260,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="F10">
-        <v>-15</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2290,13 +2296,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2307,10 +2313,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>3.388888888888889</v>
+        <v>4.277777777777778</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2321,10 +2327,10 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>3.888888888888889</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2335,10 +2341,10 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>4.666666666666667</v>
+        <v>5.111111111111111</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2346,13 +2352,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C5">
-        <v>4.944444444444445</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D5" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2360,13 +2366,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2374,13 +2380,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>5.166666666666667</v>
+        <v>5.611111111111111</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2388,13 +2394,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>5.166666666666667</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2402,13 +2408,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>5.333333333333333</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2416,13 +2422,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>5.5</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2430,13 +2436,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>5.555555555555555</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2444,13 +2450,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>5.555555555555555</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2458,13 +2464,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C13">
-        <v>5.888888888888889</v>
+        <v>6.5</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2475,10 +2481,10 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>6.555555555555555</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2486,13 +2492,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C15">
-        <v>6.111111111111111</v>
+        <v>6.555555555555555</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2500,13 +2506,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C16">
-        <v>6.222222222222222</v>
+        <v>6.611111111111111</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2514,13 +2520,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>6.333333333333333</v>
+        <v>6.777777777777778</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2531,7 +2537,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.888888888888889</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -2545,10 +2551,10 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>7.277777777777778</v>
+        <v>7.444444444444445</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2566,16 +2572,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2586,7 +2592,7 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>8.666666666666666</v>
+        <v>9.666666666666666</v>
       </c>
       <c r="D2">
         <v>0.6666666666666661</v>
@@ -2603,10 +2609,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>7.944444444444445</v>
+        <v>8.666666666666666</v>
       </c>
       <c r="D3">
-        <v>-0.05555555555555536</v>
+        <v>-0.3333333333333339</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -2620,13 +2626,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>7.833333333333333</v>
+        <v>8.611111111111111</v>
       </c>
       <c r="D4">
-        <v>-1.166666666666667</v>
+        <v>-0.3888888888888893</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2637,13 +2643,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>7.944444444444445</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>-0.05555555555555536</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2654,13 +2660,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>6.444444444444445</v>
+        <v>7.222222222222222</v>
       </c>
       <c r="D6">
-        <v>2.444444444444445</v>
+        <v>2.222222222222222</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2668,16 +2674,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7">
-        <v>6.277777777777778</v>
+        <v>6.555555555555555</v>
       </c>
       <c r="D7">
-        <v>-0.7222222222222223</v>
+        <v>0.5555555555555554</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2688,13 +2694,13 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>6.111111111111111</v>
+        <v>6.5</v>
       </c>
       <c r="D8">
-        <v>0.1111111111111107</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2705,13 +2711,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>6.055555555555555</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D9">
-        <v>1.055555555555555</v>
+        <v>1.333333333333333</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2719,13 +2725,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>5.944444444444445</v>
+        <v>6.277777777777778</v>
       </c>
       <c r="D10">
-        <v>-0.05555555555555536</v>
+        <v>-0.7222222222222223</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -2739,13 +2745,13 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>5.666666666666667</v>
+        <v>5.777777777777778</v>
       </c>
       <c r="D11">
-        <v>0.666666666666667</v>
+        <v>0.7777777777777777</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2756,13 +2762,13 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>5.444444444444445</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D12">
-        <v>-1.555555555555555</v>
+        <v>-1.333333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2773,13 +2779,13 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>4.944444444444445</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D13">
-        <v>0.9444444444444446</v>
+        <v>0.5555555555555554</v>
       </c>
       <c r="E13" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2790,13 +2796,13 @@
         <v>2</v>
       </c>
       <c r="C14">
-        <v>4.833333333333333</v>
+        <v>5.333333333333333</v>
       </c>
       <c r="D14">
-        <v>-0.166666666666667</v>
+        <v>-0.666666666666667</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2807,13 +2813,13 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>4.388888888888889</v>
+        <v>5.277777777777778</v>
       </c>
       <c r="D15">
-        <v>0.3888888888888893</v>
+        <v>0.2777777777777777</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2824,13 +2830,13 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>4.333333333333333</v>
+        <v>4.722222222222222</v>
       </c>
       <c r="D16">
-        <v>-0.666666666666667</v>
+        <v>-1.277777777777778</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2838,16 +2844,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C17">
-        <v>2.444444444444445</v>
+        <v>3</v>
       </c>
       <c r="D17">
-        <v>-0.5555555555555554</v>
+        <v>-1</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2855,16 +2861,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>2.444444444444445</v>
+        <v>2.611111111111111</v>
       </c>
       <c r="D18">
-        <v>-0.5555555555555554</v>
+        <v>-0.3888888888888888</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2875,13 +2881,13 @@
         <v>15</v>
       </c>
       <c r="C19">
-        <v>2.111111111111111</v>
+        <v>2.166666666666667</v>
       </c>
       <c r="D19">
-        <v>0.1111111111111112</v>
+        <v>0.1666666666666665</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2899,87 +2905,87 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>60.8</v>
+        <v>25.6</v>
       </c>
       <c r="C2">
-        <v>25.9</v>
+        <v>30.7</v>
       </c>
       <c r="D2">
-        <v>10.9</v>
+        <v>35.3</v>
       </c>
       <c r="E2">
-        <v>1.7</v>
+        <v>7.2</v>
       </c>
       <c r="F2">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="G2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3026,28 +3032,28 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>20.2</v>
+        <v>43.4</v>
       </c>
       <c r="C3">
-        <v>32.6</v>
+        <v>29.6</v>
       </c>
       <c r="D3">
-        <v>31.5</v>
+        <v>18.7</v>
       </c>
       <c r="E3">
-        <v>9.800000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="F3">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="G3">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="H3">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -3080,36 +3086,36 @@
         <v>0</v>
       </c>
       <c r="T3">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>17.2</v>
+        <v>29.6</v>
       </c>
       <c r="C4">
-        <v>33.8</v>
+        <v>33.5</v>
       </c>
       <c r="D4">
-        <v>33.9</v>
+        <v>30.5</v>
       </c>
       <c r="E4">
-        <v>8.800000000000001</v>
+        <v>5.8</v>
       </c>
       <c r="F4">
-        <v>4.3</v>
+        <v>0.6</v>
       </c>
       <c r="G4">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3142,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>98.7</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -3150,46 +3156,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>1.4</v>
       </c>
       <c r="C5">
-        <v>3.1</v>
+        <v>5.9</v>
       </c>
       <c r="D5">
-        <v>7.3</v>
+        <v>14.4</v>
       </c>
       <c r="E5">
-        <v>28.6</v>
+        <v>56.3</v>
       </c>
       <c r="F5">
-        <v>22.2</v>
+        <v>13.1</v>
       </c>
       <c r="G5">
-        <v>13.2</v>
+        <v>4.2</v>
       </c>
       <c r="H5">
-        <v>8.9</v>
+        <v>3.3</v>
       </c>
       <c r="I5">
-        <v>6.3</v>
+        <v>1.1</v>
       </c>
       <c r="J5">
-        <v>4.3</v>
+        <v>0.3</v>
       </c>
       <c r="K5">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -3204,51 +3210,51 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>75.3</v>
+        <v>95.3</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>8.800000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="E6">
-        <v>15.8</v>
+        <v>6.7</v>
       </c>
       <c r="F6">
-        <v>17.1</v>
+        <v>22.9</v>
       </c>
       <c r="G6">
-        <v>11.9</v>
+        <v>16.2</v>
       </c>
       <c r="H6">
-        <v>11.2</v>
+        <v>10.7</v>
       </c>
       <c r="I6">
-        <v>11.3</v>
+        <v>15.4</v>
       </c>
       <c r="J6">
-        <v>8.300000000000001</v>
+        <v>10.1</v>
       </c>
       <c r="K6">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="L6">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="M6">
-        <v>1.4</v>
+        <v>4.8</v>
       </c>
       <c r="N6">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -3266,51 +3272,51 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="D7">
-        <v>5.1</v>
+        <v>0.6</v>
       </c>
       <c r="E7">
-        <v>16.6</v>
+        <v>7.2</v>
       </c>
       <c r="F7">
-        <v>16.7</v>
+        <v>24.4</v>
       </c>
       <c r="G7">
-        <v>14.9</v>
+        <v>13.2</v>
       </c>
       <c r="H7">
-        <v>13.8</v>
+        <v>14.5</v>
       </c>
       <c r="I7">
-        <v>9.9</v>
+        <v>12.7</v>
       </c>
       <c r="J7">
-        <v>9.300000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="K7">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>4.8</v>
       </c>
       <c r="M7">
-        <v>1.9</v>
+        <v>6.3</v>
       </c>
       <c r="N7">
-        <v>0.3</v>
+        <v>1.4</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -3328,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>54.3</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -3342,43 +3348,43 @@
         <v>0</v>
       </c>
       <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8">
+        <v>6.4</v>
+      </c>
+      <c r="F8">
+        <v>13.4</v>
+      </c>
+      <c r="G8">
+        <v>19.8</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>9</v>
+      </c>
+      <c r="J8">
+        <v>13</v>
+      </c>
+      <c r="K8">
+        <v>12.3</v>
+      </c>
+      <c r="L8">
+        <v>4.6</v>
+      </c>
+      <c r="M8">
+        <v>2.8</v>
+      </c>
+      <c r="N8">
+        <v>2.8</v>
+      </c>
+      <c r="O8">
         <v>1.3</v>
       </c>
-      <c r="E8">
-        <v>7.7</v>
-      </c>
-      <c r="F8">
-        <v>11.8</v>
-      </c>
-      <c r="G8">
-        <v>16.7</v>
-      </c>
-      <c r="H8">
-        <v>13.8</v>
-      </c>
-      <c r="I8">
-        <v>14.4</v>
-      </c>
-      <c r="J8">
-        <v>8.9</v>
-      </c>
-      <c r="K8">
-        <v>10.9</v>
-      </c>
-      <c r="L8">
-        <v>6.8</v>
-      </c>
-      <c r="M8">
-        <v>4.8</v>
-      </c>
-      <c r="N8">
-        <v>2.3</v>
-      </c>
-      <c r="O8">
-        <v>0.6</v>
-      </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3390,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>37.5</v>
+        <v>39.9</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -3401,46 +3407,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>7.6</v>
+        <v>2.4</v>
       </c>
       <c r="F9">
-        <v>12.9</v>
+        <v>12.4</v>
       </c>
       <c r="G9">
-        <v>14</v>
+        <v>16.4</v>
       </c>
       <c r="H9">
-        <v>13.3</v>
+        <v>17.3</v>
       </c>
       <c r="I9">
-        <v>13.3</v>
+        <v>12</v>
       </c>
       <c r="J9">
-        <v>11.7</v>
+        <v>8.5</v>
       </c>
       <c r="K9">
-        <v>8.5</v>
+        <v>10.4</v>
       </c>
       <c r="L9">
-        <v>7.8</v>
+        <v>9.1</v>
       </c>
       <c r="M9">
-        <v>5.8</v>
+        <v>4.4</v>
       </c>
       <c r="N9">
+        <v>3.7</v>
+      </c>
+      <c r="O9">
         <v>2.6</v>
       </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
       <c r="P9">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3452,12 +3458,12 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>35.8</v>
+        <v>31.2</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3469,43 +3475,43 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1.1</v>
+        <v>0.1</v>
       </c>
       <c r="F10">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="G10">
-        <v>9.9</v>
+        <v>11.9</v>
       </c>
       <c r="H10">
-        <v>11.3</v>
+        <v>11.9</v>
       </c>
       <c r="I10">
-        <v>13.1</v>
+        <v>9.6</v>
       </c>
       <c r="J10">
-        <v>14.6</v>
+        <v>17.7</v>
       </c>
       <c r="K10">
-        <v>14.8</v>
+        <v>10.6</v>
       </c>
       <c r="L10">
-        <v>10.3</v>
+        <v>5.3</v>
       </c>
       <c r="M10">
-        <v>7.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N10">
-        <v>6.6</v>
+        <v>10.7</v>
       </c>
       <c r="O10">
-        <v>4.5</v>
+        <v>5.2</v>
       </c>
       <c r="P10">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -3514,12 +3520,12 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3531,43 +3537,43 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="F11">
         <v>4.2</v>
       </c>
       <c r="G11">
-        <v>8.9</v>
+        <v>8</v>
       </c>
       <c r="H11">
-        <v>11.5</v>
+        <v>9.6</v>
       </c>
       <c r="I11">
-        <v>12.6</v>
+        <v>14</v>
       </c>
       <c r="J11">
+        <v>10.3</v>
+      </c>
+      <c r="K11">
+        <v>7.5</v>
+      </c>
+      <c r="L11">
+        <v>12.4</v>
+      </c>
+      <c r="M11">
         <v>13.2</v>
       </c>
-      <c r="K11">
-        <v>13.5</v>
-      </c>
-      <c r="L11">
-        <v>13.5</v>
-      </c>
-      <c r="M11">
-        <v>9.1</v>
-      </c>
       <c r="N11">
-        <v>6.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O11">
-        <v>3.6</v>
+        <v>7.6</v>
       </c>
       <c r="P11">
-        <v>1.2</v>
+        <v>4.1</v>
       </c>
       <c r="Q11">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -3576,12 +3582,12 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>15.1</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3593,57 +3599,57 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="G12">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="H12">
         <v>8.1</v>
       </c>
       <c r="I12">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="J12">
-        <v>13.4</v>
+        <v>8</v>
       </c>
       <c r="K12">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="L12">
-        <v>11.1</v>
+        <v>14.3</v>
       </c>
       <c r="M12">
-        <v>12.2</v>
+        <v>10.9</v>
       </c>
       <c r="N12">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O12">
-        <v>8.199999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="P12">
-        <v>5.9</v>
+        <v>9</v>
       </c>
       <c r="Q12">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="R12">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -3655,52 +3661,52 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G13">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="H13">
-        <v>4.7</v>
+        <v>3.4</v>
       </c>
       <c r="I13">
-        <v>6.8</v>
+        <v>4.2</v>
       </c>
       <c r="J13">
-        <v>7.8</v>
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>10.6</v>
+        <v>12.8</v>
       </c>
       <c r="L13">
-        <v>15.6</v>
+        <v>12.6</v>
       </c>
       <c r="M13">
-        <v>17.1</v>
+        <v>11.1</v>
       </c>
       <c r="N13">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="O13">
-        <v>10.8</v>
+        <v>14.7</v>
       </c>
       <c r="P13">
-        <v>7.8</v>
+        <v>14.9</v>
       </c>
       <c r="Q13">
-        <v>0.4</v>
+        <v>2.2</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>3.3</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -3717,52 +3723,52 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F14">
-        <v>0.1</v>
+        <v>0.9</v>
       </c>
       <c r="G14">
-        <v>0.9</v>
+        <v>1.6</v>
       </c>
       <c r="H14">
+        <v>1.7</v>
+      </c>
+      <c r="I14">
+        <v>6.7</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+      <c r="K14">
+        <v>6.4</v>
+      </c>
+      <c r="L14">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="M14">
+        <v>14.7</v>
+      </c>
+      <c r="N14">
+        <v>16.3</v>
+      </c>
+      <c r="O14">
+        <v>17.7</v>
+      </c>
+      <c r="P14">
+        <v>16.4</v>
+      </c>
+      <c r="Q14">
         <v>0.7</v>
       </c>
-      <c r="I14">
-        <v>2.3</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-      <c r="K14">
-        <v>5.7</v>
-      </c>
-      <c r="L14">
-        <v>9.5</v>
-      </c>
-      <c r="M14">
-        <v>18.6</v>
-      </c>
-      <c r="N14">
-        <v>22</v>
-      </c>
-      <c r="O14">
-        <v>18.4</v>
-      </c>
-      <c r="P14">
-        <v>14</v>
-      </c>
-      <c r="Q14">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
         <v>2.6</v>
-      </c>
-      <c r="R14">
-        <v>0.2</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -3782,49 +3788,49 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G15">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="I15">
-        <v>1.9</v>
+        <v>3.5</v>
       </c>
       <c r="J15">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="K15">
-        <v>6.1</v>
+        <v>9.4</v>
       </c>
       <c r="L15">
-        <v>10.1</v>
+        <v>11.5</v>
       </c>
       <c r="M15">
-        <v>11.6</v>
+        <v>10.5</v>
       </c>
       <c r="N15">
-        <v>15.2</v>
+        <v>16</v>
       </c>
       <c r="O15">
-        <v>25</v>
+        <v>19.4</v>
       </c>
       <c r="P15">
-        <v>18.4</v>
+        <v>13.8</v>
       </c>
       <c r="Q15">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="R15">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -3847,46 +3853,46 @@
         <v>0.1</v>
       </c>
       <c r="G16">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="H16">
-        <v>0.1</v>
+        <v>1.9</v>
       </c>
       <c r="I16">
-        <v>0.5</v>
+        <v>3.3</v>
       </c>
       <c r="J16">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="K16">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="L16">
-        <v>6.2</v>
+        <v>10.8</v>
       </c>
       <c r="M16">
-        <v>8.800000000000001</v>
+        <v>12.7</v>
       </c>
       <c r="N16">
-        <v>12.7</v>
+        <v>13.6</v>
       </c>
       <c r="O16">
-        <v>21.5</v>
+        <v>16.7</v>
       </c>
       <c r="P16">
-        <v>35.8</v>
+        <v>26.6</v>
       </c>
       <c r="Q16">
-        <v>9.300000000000001</v>
+        <v>4.4</v>
       </c>
       <c r="R16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -3927,25 +3933,25 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>3.9</v>
+        <v>0.2</v>
       </c>
       <c r="P17">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="Q17">
-        <v>34.8</v>
+        <v>14.9</v>
       </c>
       <c r="R17">
-        <v>33.2</v>
+        <v>56.2</v>
       </c>
       <c r="S17">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -3992,22 +3998,22 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.4</v>
+        <v>3.4</v>
       </c>
       <c r="R18">
-        <v>24.8</v>
+        <v>26.1</v>
       </c>
       <c r="S18">
-        <v>60.6</v>
+        <v>70.5</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -4048,28 +4054,28 @@
         <v>0.1</v>
       </c>
       <c r="L19">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="M19">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="N19">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="O19">
-        <v>1.9</v>
+        <v>2.8</v>
       </c>
       <c r="P19">
-        <v>7.7</v>
+        <v>9.9</v>
       </c>
       <c r="Q19">
-        <v>34.9</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="R19">
-        <v>37</v>
+        <v>17.6</v>
       </c>
       <c r="S19">
-        <v>17</v>
+        <v>1.5</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -4082,689 +4088,737 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>69</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>92.60000000000001</v>
+        <v>38.3</v>
       </c>
       <c r="C2">
-        <v>85.59999999999999</v>
+        <v>80.60000000000001</v>
       </c>
       <c r="D2">
-        <v>60.09999999999999</v>
+        <v>44.6</v>
       </c>
       <c r="E2">
-        <v>78.3</v>
+        <v>29.6</v>
       </c>
       <c r="F2">
-        <v>89.5</v>
+        <v>61.4</v>
       </c>
       <c r="G2">
-        <v>83.39999999999999</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="H2">
-        <v>92.60000000000001</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="I2">
-        <v>93.8</v>
+        <v>61.7</v>
       </c>
       <c r="J2">
-        <v>98</v>
+        <v>80.10000000000001</v>
       </c>
       <c r="K2">
-        <v>99.59999999999999</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="L2">
-        <v>100</v>
+        <v>97.5</v>
       </c>
       <c r="M2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>39.1</v>
+        <v>36.4</v>
       </c>
       <c r="C3">
-        <v>82.89999999999999</v>
+        <v>61.3</v>
       </c>
       <c r="D3">
-        <v>44.2</v>
+        <v>60.3</v>
       </c>
       <c r="E3">
-        <v>32.3</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="F3">
-        <v>62.8</v>
+        <v>82</v>
       </c>
       <c r="G3">
-        <v>74.5</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="H3">
+        <v>92</v>
+      </c>
+      <c r="I3">
+        <v>93.8</v>
+      </c>
+      <c r="J3">
+        <v>96.3</v>
+      </c>
+      <c r="K3">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="L3">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="M3">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>93.5</v>
+      </c>
+      <c r="C4">
         <v>84.8</v>
       </c>
-      <c r="I3">
-        <v>63</v>
-      </c>
-      <c r="J3">
-        <v>84.3</v>
-      </c>
-      <c r="K3">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="L3">
-        <v>98.2</v>
-      </c>
-      <c r="M3">
-        <v>99.59999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>42.2</v>
-      </c>
-      <c r="C4">
-        <v>64.40000000000001</v>
-      </c>
       <c r="D4">
-        <v>59.2</v>
+        <v>58.2</v>
       </c>
       <c r="E4">
-        <v>82.5</v>
+        <v>78.8</v>
       </c>
       <c r="F4">
-        <v>84</v>
+        <v>88.2</v>
       </c>
       <c r="G4">
-        <v>92.2</v>
+        <v>83</v>
       </c>
       <c r="H4">
-        <v>94.59999999999999</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="I4">
-        <v>93.8</v>
+        <v>94.69999999999999</v>
       </c>
       <c r="J4">
-        <v>96.5</v>
+        <v>98</v>
       </c>
       <c r="K4">
-        <v>95.19999999999999</v>
+        <v>99.2</v>
       </c>
       <c r="L4">
-        <v>97.89999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="M4">
-        <v>99.59999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B5">
-        <v>90.90000000000001</v>
+        <v>89.5</v>
       </c>
       <c r="C5">
-        <v>91.8</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>12.6</v>
+        <v>15.1</v>
       </c>
       <c r="E5">
-        <v>36.8</v>
+        <v>33.90000000000001</v>
       </c>
       <c r="F5">
-        <v>23.6</v>
+        <v>19.9</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>10.6</v>
       </c>
       <c r="H5">
-        <v>10.4</v>
+        <v>11.1</v>
       </c>
       <c r="I5">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="J5">
-        <v>45.3</v>
+        <v>38.6</v>
       </c>
       <c r="K5">
-        <v>57.4</v>
+        <v>55.7</v>
       </c>
       <c r="L5">
-        <v>74.5</v>
+        <v>72.8</v>
       </c>
       <c r="M5">
-        <v>76.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>93</v>
+      </c>
+      <c r="N5">
+        <v>97.09999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>31.3</v>
+      </c>
+      <c r="C6">
+        <v>30.9</v>
+      </c>
+      <c r="D6">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="E6">
+        <v>9.5</v>
+      </c>
+      <c r="F6">
+        <v>32.8</v>
+      </c>
+      <c r="G6">
+        <v>37.9</v>
+      </c>
+      <c r="H6">
+        <v>62.7</v>
+      </c>
+      <c r="I6">
+        <v>50.2</v>
+      </c>
+      <c r="J6">
+        <v>36.2</v>
+      </c>
+      <c r="K6">
+        <v>28</v>
+      </c>
+      <c r="L6">
+        <v>48</v>
+      </c>
+      <c r="M6">
+        <v>42.1</v>
+      </c>
+      <c r="N6">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6">
-        <v>19.9</v>
-      </c>
-      <c r="C6">
-        <v>68.7</v>
-      </c>
-      <c r="D6">
-        <v>72.39999999999999</v>
-      </c>
-      <c r="E6">
-        <v>52.40000000000001</v>
-      </c>
-      <c r="F6">
-        <v>64</v>
-      </c>
-      <c r="G6">
-        <v>81.69999999999999</v>
-      </c>
-      <c r="H6">
-        <v>93</v>
-      </c>
-      <c r="I6">
-        <v>96.5</v>
-      </c>
-      <c r="J6">
-        <v>88.2</v>
-      </c>
-      <c r="K6">
-        <v>74.5</v>
-      </c>
-      <c r="L6">
-        <v>60.2</v>
-      </c>
-      <c r="M6">
-        <v>61.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B7">
-        <v>32.7</v>
+        <v>22.1</v>
       </c>
       <c r="C7">
-        <v>31.9</v>
+        <v>68</v>
       </c>
       <c r="D7">
+        <v>67.2</v>
+      </c>
+      <c r="E7">
+        <v>51.4</v>
+      </c>
+      <c r="F7">
+        <v>66.10000000000001</v>
+      </c>
+      <c r="G7">
+        <v>81.39999999999999</v>
+      </c>
+      <c r="H7">
+        <v>91.10000000000001</v>
+      </c>
+      <c r="I7">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="J7">
+        <v>87</v>
+      </c>
+      <c r="K7">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="L7">
+        <v>57.59999999999999</v>
+      </c>
+      <c r="M7">
+        <v>39.5</v>
+      </c>
+      <c r="N7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>37.4</v>
+      </c>
+      <c r="C8">
+        <v>11.9</v>
+      </c>
+      <c r="D8">
+        <v>66.3</v>
+      </c>
+      <c r="E8">
+        <v>71.39999999999999</v>
+      </c>
+      <c r="F8">
+        <v>40.6</v>
+      </c>
+      <c r="G8">
+        <v>20.2</v>
+      </c>
+      <c r="H8">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="I8">
+        <v>13.7</v>
+      </c>
+      <c r="J8">
+        <v>23.8</v>
+      </c>
+      <c r="K8">
+        <v>43.5</v>
+      </c>
+      <c r="L8">
+        <v>57.7</v>
+      </c>
+      <c r="M8">
+        <v>37.3</v>
+      </c>
+      <c r="N8">
+        <v>39.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.1</v>
+      </c>
+      <c r="D9">
+        <v>8.799999999999999</v>
+      </c>
+      <c r="E9">
+        <v>22.8</v>
+      </c>
+      <c r="F9">
+        <v>36.6</v>
+      </c>
+      <c r="G9">
+        <v>43.7</v>
+      </c>
+      <c r="H9">
+        <v>60.7</v>
+      </c>
+      <c r="I9">
+        <v>80.2</v>
+      </c>
+      <c r="J9">
+        <v>58.2</v>
+      </c>
+      <c r="K9">
+        <v>44.2</v>
+      </c>
+      <c r="L9">
+        <v>27</v>
+      </c>
+      <c r="M9">
+        <v>28.8</v>
+      </c>
+      <c r="N9">
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>29.2</v>
+      </c>
+      <c r="C10">
+        <v>12.3</v>
+      </c>
+      <c r="D10">
+        <v>64.3</v>
+      </c>
+      <c r="E10">
+        <v>83.2</v>
+      </c>
+      <c r="F10">
+        <v>55.50000000000001</v>
+      </c>
+      <c r="G10">
+        <v>63.6</v>
+      </c>
+      <c r="H10">
+        <v>35.8</v>
+      </c>
+      <c r="I10">
+        <v>24.3</v>
+      </c>
+      <c r="J10">
+        <v>40.5</v>
+      </c>
+      <c r="K10">
+        <v>22.4</v>
+      </c>
+      <c r="L10">
+        <v>7.5</v>
+      </c>
+      <c r="M10">
+        <v>24.7</v>
+      </c>
+      <c r="N10">
+        <v>16.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11">
+        <v>2.3</v>
+      </c>
+      <c r="F11">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="G11">
+        <v>3.8</v>
+      </c>
+      <c r="H11">
+        <v>6.3</v>
+      </c>
+      <c r="I11">
+        <v>3.7</v>
+      </c>
+      <c r="J11">
+        <v>7.1</v>
+      </c>
+      <c r="K11">
+        <v>9.9</v>
+      </c>
+      <c r="L11">
+        <v>3.8</v>
+      </c>
+      <c r="M11">
+        <v>13.3</v>
+      </c>
+      <c r="N11">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>17.9</v>
+      </c>
+      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>50.2</v>
+      </c>
+      <c r="E12">
+        <v>40</v>
+      </c>
+      <c r="F12">
+        <v>41</v>
+      </c>
+      <c r="G12">
+        <v>60.3</v>
+      </c>
+      <c r="H12">
+        <v>28.9</v>
+      </c>
+      <c r="I12">
+        <v>47.59999999999999</v>
+      </c>
+      <c r="J12">
+        <v>28.7</v>
+      </c>
+      <c r="K12">
+        <v>22.7</v>
+      </c>
+      <c r="L12">
+        <v>14.7</v>
+      </c>
+      <c r="M12">
+        <v>7.1</v>
+      </c>
+      <c r="N12">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E7">
-        <v>10.7</v>
-      </c>
-      <c r="F7">
-        <v>34.59999999999999</v>
-      </c>
-      <c r="G7">
-        <v>41.9</v>
-      </c>
-      <c r="H7">
-        <v>65.90000000000001</v>
-      </c>
-      <c r="I7">
-        <v>56.10000000000001</v>
-      </c>
-      <c r="J7">
-        <v>37.3</v>
-      </c>
-      <c r="K7">
-        <v>26.8</v>
-      </c>
-      <c r="L7">
-        <v>52</v>
-      </c>
-      <c r="M7">
-        <v>56.7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
+      <c r="B13">
+        <v>7.3</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>17.2</v>
+      </c>
+      <c r="E13">
+        <v>10.6</v>
+      </c>
+      <c r="F13">
+        <v>3.3</v>
+      </c>
+      <c r="G13">
+        <v>7.9</v>
+      </c>
+      <c r="H13">
+        <v>2.8</v>
+      </c>
+      <c r="I13">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="J13">
+        <v>3.4</v>
+      </c>
+      <c r="K13">
+        <v>7.399999999999999</v>
+      </c>
+      <c r="L13">
         <v>14</v>
       </c>
-      <c r="B8">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>9.700000000000001</v>
-      </c>
-      <c r="E8">
-        <v>20</v>
-      </c>
-      <c r="F8">
-        <v>37.1</v>
-      </c>
-      <c r="G8">
-        <v>44.3</v>
-      </c>
-      <c r="H8">
-        <v>61.5</v>
-      </c>
-      <c r="I8">
-        <v>77.7</v>
-      </c>
-      <c r="J8">
-        <v>59.09999999999999</v>
-      </c>
-      <c r="K8">
-        <v>49.6</v>
-      </c>
-      <c r="L8">
-        <v>28.5</v>
-      </c>
-      <c r="M8">
-        <v>33.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>29.1</v>
-      </c>
-      <c r="C9">
-        <v>5.3</v>
-      </c>
-      <c r="D9">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="E9">
-        <v>63.5</v>
-      </c>
-      <c r="F9">
-        <v>33.7</v>
-      </c>
-      <c r="G9">
-        <v>12.2</v>
-      </c>
-      <c r="H9">
-        <v>6.3</v>
-      </c>
-      <c r="I9">
-        <v>11.1</v>
-      </c>
-      <c r="J9">
-        <v>18</v>
-      </c>
-      <c r="K9">
-        <v>34.59999999999999</v>
-      </c>
-      <c r="L9">
-        <v>41.09999999999999</v>
-      </c>
-      <c r="M9">
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>15.9</v>
-      </c>
-      <c r="C10">
-        <v>32</v>
-      </c>
-      <c r="D10">
-        <v>48.6</v>
-      </c>
-      <c r="E10">
-        <v>40</v>
-      </c>
-      <c r="F10">
-        <v>41.2</v>
-      </c>
-      <c r="G10">
-        <v>61.8</v>
-      </c>
-      <c r="H10">
-        <v>28.8</v>
-      </c>
-      <c r="I10">
-        <v>51.3</v>
-      </c>
-      <c r="J10">
-        <v>26.8</v>
-      </c>
-      <c r="K10">
-        <v>26.1</v>
-      </c>
-      <c r="L10">
-        <v>17.6</v>
-      </c>
-      <c r="M10">
-        <v>13.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>8.4</v>
-      </c>
-      <c r="C11">
-        <v>0.1</v>
-      </c>
-      <c r="D11">
-        <v>16.6</v>
-      </c>
-      <c r="E11">
-        <v>9.5</v>
-      </c>
-      <c r="F11">
-        <v>3.2</v>
-      </c>
-      <c r="G11">
-        <v>8.5</v>
-      </c>
-      <c r="H11">
-        <v>2.8</v>
-      </c>
-      <c r="I11">
-        <v>0.8</v>
-      </c>
-      <c r="J11">
-        <v>3.5</v>
-      </c>
-      <c r="K11">
-        <v>8.5</v>
-      </c>
-      <c r="L11">
-        <v>16.6</v>
-      </c>
-      <c r="M11">
-        <v>13.7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>0.6</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1.9</v>
-      </c>
-      <c r="F12">
-        <v>8.4</v>
-      </c>
-      <c r="G12">
-        <v>3.6</v>
-      </c>
-      <c r="H12">
-        <v>8.4</v>
-      </c>
-      <c r="I12">
-        <v>2.2</v>
-      </c>
-      <c r="J12">
-        <v>6.9</v>
-      </c>
-      <c r="K12">
-        <v>8.5</v>
-      </c>
-      <c r="L12">
-        <v>4</v>
-      </c>
-      <c r="M12">
-        <v>5.800000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>24.8</v>
-      </c>
-      <c r="C13">
-        <v>6.3</v>
-      </c>
-      <c r="D13">
-        <v>60.2</v>
-      </c>
-      <c r="E13">
-        <v>82.8</v>
-      </c>
-      <c r="F13">
-        <v>49</v>
-      </c>
-      <c r="G13">
-        <v>61.7</v>
-      </c>
-      <c r="H13">
-        <v>28.7</v>
-      </c>
-      <c r="I13">
-        <v>17.5</v>
-      </c>
-      <c r="J13">
-        <v>33.90000000000001</v>
-      </c>
-      <c r="K13">
-        <v>18.1</v>
-      </c>
-      <c r="L13">
-        <v>6.7</v>
-      </c>
       <c r="M13">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5.1</v>
+      </c>
+      <c r="N13">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B14">
-        <v>24.6</v>
+        <v>20.4</v>
       </c>
       <c r="C14">
-        <v>32.3</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>13.3</v>
+        <v>10.7</v>
       </c>
       <c r="E14">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="F14">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="G14">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="H14">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="I14">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="J14">
         <v>0.1</v>
       </c>
       <c r="K14">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L14">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="M14">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>4.9</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>99.7</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>43.4</v>
       </c>
       <c r="D15">
-        <v>72.89999999999999</v>
+        <v>68.5</v>
       </c>
       <c r="E15">
-        <v>56.10000000000001</v>
+        <v>55.7</v>
       </c>
       <c r="F15">
-        <v>41.3</v>
+        <v>39.3</v>
       </c>
       <c r="G15">
-        <v>17.6</v>
+        <v>14.3</v>
       </c>
       <c r="H15">
-        <v>18.9</v>
+        <v>19.5</v>
       </c>
       <c r="I15">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="J15">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="K15">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="M15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3.3</v>
+      </c>
+      <c r="N15">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B16">
-        <v>12.3</v>
+        <v>11.9</v>
       </c>
       <c r="C16">
-        <v>49.4</v>
+        <v>45.8</v>
       </c>
       <c r="D16">
-        <v>58.3</v>
+        <v>55.3</v>
       </c>
       <c r="E16">
-        <v>23.2</v>
+        <v>22.4</v>
       </c>
       <c r="F16">
-        <v>9.300000000000001</v>
+        <v>8.1</v>
       </c>
       <c r="G16">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="H16">
-        <v>0.8</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="I16">
         <v>0.1</v>
       </c>
       <c r="J16">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="K16">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B17">
-        <v>64.90000000000001</v>
+        <v>62.3</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="E17">
-        <v>6.1</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>17.2</v>
+        <v>15.9</v>
       </c>
       <c r="G17">
-        <v>4.8</v>
+        <v>5.600000000000001</v>
       </c>
       <c r="H17">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="I17">
         <v>0.3</v>
@@ -4781,34 +4835,37 @@
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B18">
+        <v>0.5</v>
+      </c>
+      <c r="C18">
+        <v>0.8</v>
+      </c>
+      <c r="D18">
+        <v>0.8</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+      <c r="F18">
         <v>0.4</v>
       </c>
-      <c r="C18">
-        <v>1.3</v>
-      </c>
-      <c r="D18">
-        <v>2.4</v>
-      </c>
-      <c r="E18">
+      <c r="G18">
         <v>0.4</v>
       </c>
-      <c r="F18">
+      <c r="H18">
         <v>0.1</v>
       </c>
-      <c r="G18">
-        <v>0.5</v>
-      </c>
-      <c r="H18">
-        <v>0.2</v>
-      </c>
       <c r="I18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -4822,25 +4879,28 @@
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B19">
-        <v>0.7000000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2</v>
+        <v>0.8</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F19">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -4861,6 +4921,9 @@
         <v>0</v>
       </c>
       <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
         <v>0</v>
       </c>
     </row>
@@ -4879,28 +4942,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4908,28 +4971,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D2">
-        <v>106.89</v>
+        <v>76.88</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
       </c>
       <c r="F2">
-        <v>114.41</v>
+        <v>114.43</v>
       </c>
       <c r="G2">
-        <v>0.705</v>
+        <v>0.667</v>
       </c>
       <c r="H2">
-        <v>20</v>
+        <v>23.3</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -4937,28 +5000,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D3">
-        <v>75.94</v>
+        <v>103.77</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>105.29</v>
+        <v>106.33</v>
       </c>
       <c r="G3">
-        <v>0.409</v>
+        <v>0.514</v>
       </c>
       <c r="H3">
-        <v>17.5</v>
+        <v>15.3</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -4966,28 +5029,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D4">
-        <v>77.51000000000001</v>
+        <v>102.15</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>108.03</v>
+        <v>112.87</v>
       </c>
       <c r="G4">
-        <v>0.614</v>
+        <v>0.694</v>
       </c>
       <c r="H4">
-        <v>11.5</v>
+        <v>14.7</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4995,28 +5058,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5">
-        <v>79.36</v>
+        <v>75.11</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F5">
-        <v>106.94</v>
+        <v>103.59</v>
       </c>
       <c r="G5">
-        <v>0.523</v>
+        <v>0.472</v>
       </c>
       <c r="H5">
-        <v>10.8</v>
+        <v>14.3</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5024,28 +5087,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D6">
-        <v>109.63</v>
+        <v>90.51000000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6">
-        <v>105.52</v>
+        <v>110.01</v>
       </c>
       <c r="G6">
-        <v>0.545</v>
+        <v>0.611</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5053,28 +5116,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7">
-        <v>100.58</v>
+        <v>80.61</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7">
-        <v>103.52</v>
+        <v>106.13</v>
       </c>
       <c r="G7">
-        <v>0.455</v>
+        <v>0.528</v>
       </c>
       <c r="H7">
-        <v>5.2</v>
+        <v>10.7</v>
       </c>
       <c r="I7">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5082,28 +5145,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D8">
-        <v>102.13</v>
+        <v>111.93</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8">
-        <v>103.83</v>
+        <v>105.41</v>
       </c>
       <c r="G8">
-        <v>0.545</v>
+        <v>0.556</v>
       </c>
       <c r="H8">
-        <v>4.8</v>
+        <v>9</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5111,28 +5174,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D9">
-        <v>98.65000000000001</v>
+        <v>99.56999999999999</v>
       </c>
       <c r="E9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F9">
-        <v>100.55</v>
+        <v>103.36</v>
       </c>
       <c r="G9">
-        <v>0.5</v>
+        <v>0.542</v>
       </c>
       <c r="H9">
-        <v>1.2</v>
+        <v>9</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5140,28 +5203,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D10">
-        <v>91.19</v>
+        <v>97.72</v>
       </c>
       <c r="E10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F10">
-        <v>101.94</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="G10">
-        <v>0.545</v>
+        <v>0.444</v>
       </c>
       <c r="H10">
-        <v>-1.2</v>
+        <v>6.7</v>
       </c>
       <c r="I10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5169,28 +5232,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D11">
-        <v>106.54</v>
+        <v>100.29</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F11">
-        <v>98.08</v>
+        <v>103.64</v>
       </c>
       <c r="G11">
-        <v>0.409</v>
+        <v>0.514</v>
       </c>
       <c r="H11">
-        <v>-1.5</v>
+        <v>3</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5198,28 +5261,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D12">
-        <v>117.42</v>
+        <v>121.95</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12">
-        <v>97.36</v>
+        <v>96.98</v>
       </c>
       <c r="G12">
-        <v>0.455</v>
+        <v>0.5</v>
       </c>
       <c r="H12">
-        <v>-1.8</v>
+        <v>-8</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5227,28 +5290,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D13">
-        <v>119.05</v>
+        <v>117.08</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13">
-        <v>100.23</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="G13">
-        <v>0.545</v>
+        <v>0.417</v>
       </c>
       <c r="H13">
-        <v>-5</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5256,28 +5319,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D14">
-        <v>104.46</v>
+        <v>113.23</v>
       </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F14">
-        <v>98.93000000000001</v>
+        <v>93.06</v>
       </c>
       <c r="G14">
-        <v>0.523</v>
+        <v>0.333</v>
       </c>
       <c r="H14">
-        <v>-7</v>
+        <v>-11.7</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5288,25 +5351,25 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D15">
-        <v>90.81</v>
+        <v>93.83</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F15">
-        <v>99.23999999999999</v>
+        <v>92.2</v>
       </c>
       <c r="G15">
-        <v>0.477</v>
+        <v>0.361</v>
       </c>
       <c r="H15">
-        <v>-8.5</v>
+        <v>-16.3</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5317,25 +5380,25 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D16">
-        <v>105.31</v>
+        <v>103.69</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F16">
-        <v>100.89</v>
+        <v>97.06</v>
       </c>
       <c r="G16">
-        <v>0.5679999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="H16">
-        <v>-10.5</v>
+        <v>-16.7</v>
       </c>
       <c r="I16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5343,28 +5406,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D17">
-        <v>104.78</v>
+        <v>116.48</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17">
-        <v>92.44</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="G17">
-        <v>0.386</v>
+        <v>0.458</v>
       </c>
       <c r="H17">
-        <v>-11</v>
+        <v>-17</v>
       </c>
       <c r="I17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5372,28 +5435,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D18">
-        <v>115.84</v>
+        <v>104.25</v>
       </c>
       <c r="E18" t="s">
         <v>24</v>
       </c>
       <c r="F18">
-        <v>91.67</v>
+        <v>91.39</v>
       </c>
       <c r="G18">
-        <v>0.409</v>
+        <v>0.444</v>
       </c>
       <c r="H18">
-        <v>-15</v>
+        <v>-18</v>
       </c>
       <c r="I18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -5401,28 +5464,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19">
+        <v>101.62</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>89.62</v>
+      </c>
+      <c r="G19">
+        <v>0.444</v>
+      </c>
+      <c r="H19">
+        <v>-22</v>
+      </c>
+      <c r="I19">
         <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19">
-        <v>112.53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19">
-        <v>89.75</v>
-      </c>
-      <c r="G19">
-        <v>0.295</v>
-      </c>
-      <c r="H19">
-        <v>-19.5</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -5440,48 +5503,48 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C2">
-        <v>0.8181818181818182</v>
+        <v>0.75</v>
       </c>
       <c r="D2">
-        <v>115.8436363636364</v>
+        <v>117.085</v>
       </c>
       <c r="E2">
-        <v>1274.28</v>
+        <v>1405.02</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -5490,10 +5553,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5501,25 +5564,25 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C3">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="D3">
-        <v>119.0472727272727</v>
+        <v>121.9483333333333</v>
       </c>
       <c r="E3">
-        <v>1309.52</v>
+        <v>1463.38</v>
       </c>
       <c r="F3">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I3" t="s">
         <v>128</v>
@@ -5527,28 +5590,28 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C4">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="D4">
-        <v>117.4181818181818</v>
+        <v>116.4833333333333</v>
       </c>
       <c r="E4">
-        <v>1291.6</v>
+        <v>1397.8</v>
       </c>
       <c r="F4">
-        <v>98.7</v>
+        <v>100</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I4" t="s">
         <v>128</v>
@@ -5559,25 +5622,25 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5">
-        <v>0.6363636363636364</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D5">
-        <v>109.6309090909091</v>
+        <v>111.925</v>
       </c>
       <c r="E5">
-        <v>1205.94</v>
+        <v>1343.1</v>
       </c>
       <c r="F5">
-        <v>75.3</v>
+        <v>95.3</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I5" t="s">
         <v>129</v>
@@ -5585,60 +5648,60 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C6">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D6">
-        <v>106.8890909090909</v>
+        <v>99.57333333333334</v>
       </c>
       <c r="E6">
-        <v>1175.78</v>
+        <v>1194.88</v>
       </c>
       <c r="F6">
-        <v>57.99999999999999</v>
+        <v>46</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C7">
-        <v>0.6363636363636364</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D7">
-        <v>102.1309090909091</v>
+        <v>102.1466666666667</v>
       </c>
       <c r="E7">
-        <v>1123.44</v>
+        <v>1225.76</v>
       </c>
       <c r="F7">
-        <v>54.3</v>
+        <v>45.7</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5646,28 +5709,28 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="C8">
-        <v>0.5454545454545454</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="D8">
-        <v>105.3072727272727</v>
+        <v>103.6883333333333</v>
       </c>
       <c r="E8">
-        <v>1158.38</v>
+        <v>1244.26</v>
       </c>
       <c r="F8">
-        <v>37.5</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5675,25 +5738,25 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C9">
-        <v>0.5454545454545454</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>104.4636363636364</v>
+        <v>104.2466666666667</v>
       </c>
       <c r="E9">
-        <v>1149.1</v>
+        <v>1250.96</v>
       </c>
       <c r="F9">
-        <v>35.8</v>
+        <v>31.2</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I9" t="s">
         <v>130</v>
@@ -5701,118 +5764,118 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="C10">
-        <v>0.4545454545454545</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="D10">
-        <v>104.78</v>
+        <v>113.2333333333333</v>
       </c>
       <c r="E10">
-        <v>1152.58</v>
+        <v>1358.8</v>
       </c>
       <c r="F10">
-        <v>15.9</v>
+        <v>16.4</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C11">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="D11">
-        <v>106.5381818181818</v>
+        <v>97.72499999999998</v>
       </c>
       <c r="E11">
-        <v>1171.92</v>
+        <v>1172.7</v>
       </c>
       <c r="F11">
-        <v>15.1</v>
+        <v>12.9</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C12">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D12">
-        <v>112.5254545454546</v>
+        <v>101.6183333333333</v>
       </c>
       <c r="E12">
-        <v>1237.78</v>
+        <v>1219.42</v>
       </c>
       <c r="F12">
-        <v>5.3</v>
+        <v>3.7</v>
       </c>
       <c r="G12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C13">
-        <v>0.4545454545454545</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D13">
-        <v>98.64727272727272</v>
+        <v>103.77</v>
       </c>
       <c r="E13">
-        <v>1085.12</v>
+        <v>1245.24</v>
       </c>
       <c r="F13">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5820,28 +5883,28 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C14">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="D14">
-        <v>91.18909090909091</v>
+        <v>90.51000000000001</v>
       </c>
       <c r="E14">
-        <v>1003.08</v>
+        <v>1086.12</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2.6</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I14" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5849,19 +5912,19 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C15">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D15">
-        <v>100.5781818181818</v>
+        <v>100.29</v>
       </c>
       <c r="E15">
-        <v>1106.36</v>
+        <v>1203.48</v>
       </c>
       <c r="F15">
-        <v>0.6</v>
+        <v>2.6</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -5870,7 +5933,7 @@
         <v>122</v>
       </c>
       <c r="I15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5878,28 +5941,28 @@
         <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16">
-        <v>0.3636363636363636</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D16">
-        <v>90.80909090909091</v>
+        <v>93.83499999999999</v>
       </c>
       <c r="E16">
-        <v>998.8999999999999</v>
+        <v>1126.02</v>
       </c>
       <c r="F16">
-        <v>0.2</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="G16">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5907,28 +5970,28 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C17">
-        <v>0.2727272727272727</v>
+        <v>0.25</v>
       </c>
       <c r="D17">
-        <v>77.51272727272728</v>
+        <v>76.875</v>
       </c>
       <c r="E17">
-        <v>852.64</v>
+        <v>922.5</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="H17" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I17" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5936,28 +5999,28 @@
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C18">
-        <v>0.1818181818181818</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="D18">
-        <v>75.94363636363637</v>
+        <v>75.11166666666668</v>
       </c>
       <c r="E18">
-        <v>835.3800000000001</v>
+        <v>901.3400000000001</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>60.6</v>
+        <v>70.5</v>
       </c>
       <c r="H18" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -5965,28 +6028,28 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C19">
-        <v>0.2727272727272727</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="D19">
-        <v>79.36</v>
+        <v>80.61</v>
       </c>
       <c r="E19">
-        <v>872.9599999999999</v>
+        <v>967.3199999999999</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>17</v>
+        <v>1.5</v>
       </c>
       <c r="H19" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I19" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -6004,19 +6067,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6024,19 +6087,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6044,19 +6107,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6067,16 +6130,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6084,19 +6147,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6104,19 +6167,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6124,19 +6187,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6144,19 +6207,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D8">
         <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6164,19 +6227,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9">
         <v>10</v>
       </c>
-      <c r="C9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9">
-        <v>9</v>
-      </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6184,19 +6247,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6204,19 +6267,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6227,16 +6290,16 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6244,19 +6307,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6264,19 +6327,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D14">
-        <v>-7</v>
+        <v>-4</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6284,19 +6347,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D15">
         <v>-11</v>
       </c>
       <c r="E15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6307,13 +6370,13 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D16">
-        <v>-15</v>
+        <v>-19</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>146</v>
@@ -6330,13 +6393,13 @@
         <v>78</v>
       </c>
       <c r="D17">
-        <v>-33</v>
+        <v>-39</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6347,16 +6410,16 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D18">
-        <v>-41</v>
+        <v>-43</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6367,16 +6430,16 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D19">
-        <v>-51</v>
+        <v>-53</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -6386,133 +6449,142 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>161</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I2">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J2">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L2">
         <v>37</v>
       </c>
-      <c r="M2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="M2">
+        <v>38</v>
+      </c>
+      <c r="N2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I3">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J3">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K3">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>37</v>
       </c>
-      <c r="M3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="M3">
+        <v>35</v>
+      </c>
+      <c r="N3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -6549,218 +6621,236 @@
       <c r="L4">
         <v>13</v>
       </c>
-      <c r="M4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="M4">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>-4</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="E5">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G5">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="I5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J5">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K5">
         <v>7</v>
       </c>
       <c r="L5">
-        <v>13</v>
-      </c>
-      <c r="M5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>15</v>
+      </c>
+      <c r="N5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>-7</v>
+        <v>-3</v>
       </c>
       <c r="D6">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E6">
+        <v>-2</v>
+      </c>
+      <c r="F6">
         <v>1</v>
-      </c>
-      <c r="F6">
-        <v>-1</v>
       </c>
       <c r="G6">
         <v>5</v>
       </c>
       <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <v>6</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
         <v>7</v>
       </c>
-      <c r="I6">
-        <v>-1</v>
-      </c>
-      <c r="J6">
+      <c r="M6">
+        <v>14</v>
+      </c>
+      <c r="N6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>-2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
         <v>3</v>
       </c>
-      <c r="K6">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7">
+        <v>7</v>
+      </c>
+      <c r="L7">
+        <v>9</v>
+      </c>
+      <c r="M7">
+        <v>14</v>
+      </c>
+      <c r="N7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
         <v>11</v>
       </c>
-      <c r="L6">
-        <v>12</v>
-      </c>
-      <c r="M6" t="s">
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="I8">
+        <v>17</v>
+      </c>
+      <c r="J8">
+        <v>17</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>11</v>
+      </c>
+      <c r="N8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="1" t="s">
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
         <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>-3</v>
-      </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>-2</v>
-      </c>
-      <c r="G7">
-        <v>-3</v>
-      </c>
-      <c r="H7">
-        <v>-5</v>
-      </c>
-      <c r="I7">
-        <v>-8</v>
-      </c>
-      <c r="J7">
-        <v>-5</v>
-      </c>
-      <c r="K7">
-        <v>4</v>
-      </c>
-      <c r="L7">
-        <v>11</v>
-      </c>
-      <c r="M7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>-4</v>
-      </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>7</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>5</v>
-      </c>
-      <c r="I8">
-        <v>11</v>
-      </c>
-      <c r="J8">
-        <v>10</v>
-      </c>
-      <c r="K8">
-        <v>7</v>
-      </c>
-      <c r="L8">
-        <v>11</v>
-      </c>
-      <c r="M8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>-2</v>
+        <v>9</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J9">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="K9">
         <v>7</v>
       </c>
       <c r="L9">
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="M9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -6769,78 +6859,84 @@
         <v>-3</v>
       </c>
       <c r="D10">
+        <v>-1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>-2</v>
+      </c>
+      <c r="G10">
         <v>-3</v>
       </c>
-      <c r="E10">
-        <v>-2</v>
-      </c>
-      <c r="F10">
+      <c r="H10">
+        <v>-5</v>
+      </c>
+      <c r="I10">
+        <v>-8</v>
+      </c>
+      <c r="J10">
+        <v>-5</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>11</v>
+      </c>
+      <c r="M10">
+        <v>8</v>
+      </c>
+      <c r="N10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>-5</v>
+      </c>
+      <c r="C11">
+        <v>-7</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="F11">
+        <v>-1</v>
+      </c>
+      <c r="G11">
         <v>5</v>
       </c>
-      <c r="H10">
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>-1</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="L11">
+        <v>12</v>
+      </c>
+      <c r="M11">
         <v>8</v>
       </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="J10">
-        <v>6</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>7</v>
-      </c>
-      <c r="M10" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>13</v>
-      </c>
-      <c r="G11">
-        <v>13</v>
-      </c>
-      <c r="H11">
-        <v>17</v>
-      </c>
-      <c r="I11">
-        <v>17</v>
-      </c>
-      <c r="J11">
-        <v>17</v>
-      </c>
-      <c r="K11">
-        <v>16</v>
-      </c>
-      <c r="L11">
-        <v>7</v>
-      </c>
-      <c r="M11" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -6877,134 +6973,146 @@
       <c r="L12">
         <v>2</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>-6</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>-5</v>
+      </c>
+      <c r="E13">
+        <v>-4</v>
+      </c>
+      <c r="F13">
+        <v>-3</v>
+      </c>
+      <c r="G13">
+        <v>-11</v>
+      </c>
+      <c r="H13">
+        <v>-12</v>
+      </c>
+      <c r="I13">
+        <v>-7</v>
+      </c>
+      <c r="J13">
+        <v>-14</v>
+      </c>
+      <c r="K13">
+        <v>-12</v>
+      </c>
+      <c r="L13">
+        <v>-11</v>
+      </c>
+      <c r="M13">
+        <v>-3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-9</v>
+      </c>
+      <c r="D14">
+        <v>-9</v>
+      </c>
+      <c r="E14">
+        <v>-5</v>
+      </c>
+      <c r="F14">
+        <v>-7</v>
+      </c>
+      <c r="G14">
+        <v>-5</v>
+      </c>
+      <c r="H14">
+        <v>-4</v>
+      </c>
+      <c r="I14">
+        <v>-5</v>
+      </c>
+      <c r="J14">
+        <v>-6</v>
+      </c>
+      <c r="K14">
+        <v>-3</v>
+      </c>
+      <c r="L14">
+        <v>-1</v>
+      </c>
+      <c r="M14">
+        <v>-4</v>
+      </c>
+      <c r="N14" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13">
-        <v>-1</v>
-      </c>
-      <c r="C13">
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>-5</v>
+      </c>
+      <c r="C15">
+        <v>-6</v>
+      </c>
+      <c r="D15">
+        <v>-7</v>
+      </c>
+      <c r="E15">
+        <v>-12</v>
+      </c>
+      <c r="F15">
         <v>-9</v>
       </c>
-      <c r="D13">
+      <c r="G15">
+        <v>-17</v>
+      </c>
+      <c r="H15">
+        <v>-11</v>
+      </c>
+      <c r="I15">
+        <v>-10</v>
+      </c>
+      <c r="J15">
+        <v>-11</v>
+      </c>
+      <c r="K15">
         <v>-9</v>
       </c>
-      <c r="E13">
-        <v>-5</v>
-      </c>
-      <c r="F13">
+      <c r="L15">
         <v>-7</v>
       </c>
-      <c r="G13">
-        <v>-5</v>
-      </c>
-      <c r="H13">
-        <v>-4</v>
-      </c>
-      <c r="I13">
-        <v>-5</v>
-      </c>
-      <c r="J13">
-        <v>-6</v>
-      </c>
-      <c r="K13">
-        <v>-3</v>
-      </c>
-      <c r="L13">
-        <v>-1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>-5</v>
-      </c>
-      <c r="C14">
-        <v>-6</v>
-      </c>
-      <c r="D14">
-        <v>-7</v>
-      </c>
-      <c r="E14">
-        <v>-12</v>
-      </c>
-      <c r="F14">
-        <v>-9</v>
-      </c>
-      <c r="G14">
-        <v>-17</v>
-      </c>
-      <c r="H14">
+      <c r="M15">
         <v>-11</v>
       </c>
-      <c r="I14">
-        <v>-10</v>
-      </c>
-      <c r="J14">
-        <v>-11</v>
-      </c>
-      <c r="K14">
-        <v>-9</v>
-      </c>
-      <c r="L14">
-        <v>-7</v>
-      </c>
-      <c r="M14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>-6</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>-5</v>
-      </c>
-      <c r="E15">
-        <v>-4</v>
-      </c>
-      <c r="F15">
-        <v>-3</v>
-      </c>
-      <c r="G15">
-        <v>-11</v>
-      </c>
-      <c r="H15">
-        <v>-12</v>
-      </c>
-      <c r="I15">
-        <v>-7</v>
-      </c>
-      <c r="J15">
-        <v>-14</v>
-      </c>
-      <c r="K15">
-        <v>-12</v>
-      </c>
-      <c r="L15">
-        <v>-11</v>
-      </c>
-      <c r="M15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -7041,11 +7149,14 @@
       <c r="L16">
         <v>-15</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16">
+        <v>-19</v>
+      </c>
+      <c r="N16" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -7082,11 +7193,14 @@
       <c r="L17">
         <v>-33</v>
       </c>
-      <c r="M17" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="M17">
+        <v>-39</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -7123,11 +7237,14 @@
       <c r="L18">
         <v>-41</v>
       </c>
-      <c r="M18" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="M18">
+        <v>-43</v>
+      </c>
+      <c r="N18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -7164,8 +7281,11 @@
       <c r="L19">
         <v>-51</v>
       </c>
-      <c r="M19" t="s">
-        <v>147</v>
+      <c r="M19">
+        <v>-53</v>
+      </c>
+      <c r="N19" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Girl's Room 💞🏈 2025.xlsx
+++ b/leagues/The Girl's Room 💞🏈 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="175">
   <si>
     <t>Tush Push Director 🍑</t>
   </si>
@@ -79,49 +79,52 @@
     <t>Lamb of Goedert</t>
   </si>
   <si>
-    <t>9-3-0</t>
-  </si>
-  <si>
-    <t>8-4-0</t>
-  </si>
-  <si>
-    <t>5-7-0</t>
-  </si>
-  <si>
-    <t>12-0-0</t>
-  </si>
-  <si>
-    <t>3-9-0</t>
-  </si>
-  <si>
-    <t>7-5-0</t>
-  </si>
-  <si>
-    <t>6-6-0</t>
-  </si>
-  <si>
-    <t>10-2-0</t>
-  </si>
-  <si>
-    <t>4-8-0</t>
-  </si>
-  <si>
-    <t>6-5-1</t>
-  </si>
-  <si>
-    <t>11-1-0</t>
-  </si>
-  <si>
-    <t>1-11-0</t>
-  </si>
-  <si>
-    <t>2-10-0</t>
-  </si>
-  <si>
-    <t>4-7-1</t>
-  </si>
-  <si>
-    <t>5-6-1</t>
+    <t>10-3-0</t>
+  </si>
+  <si>
+    <t>8-5-0</t>
+  </si>
+  <si>
+    <t>6-7-0</t>
+  </si>
+  <si>
+    <t>13-0-0</t>
+  </si>
+  <si>
+    <t>3-10-0</t>
+  </si>
+  <si>
+    <t>7-6-0</t>
+  </si>
+  <si>
+    <t>11-2-0</t>
+  </si>
+  <si>
+    <t>9-4-0</t>
+  </si>
+  <si>
+    <t>5-8-0</t>
+  </si>
+  <si>
+    <t>6-6-1</t>
+  </si>
+  <si>
+    <t>4-9-0</t>
+  </si>
+  <si>
+    <t>7-5-1</t>
+  </si>
+  <si>
+    <t>12-1-0</t>
+  </si>
+  <si>
+    <t>2-11-0</t>
+  </si>
+  <si>
+    <t>1-12-0</t>
+  </si>
+  <si>
+    <t>4-8-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -238,6 +241,9 @@
     <t>Week_13</t>
   </si>
   <si>
+    <t>Week_14</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -259,57 +265,57 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Lily Lamb</t>
+  </si>
+  <si>
+    <t>Hillary Dale</t>
+  </si>
+  <si>
+    <t>Nicole Coppins</t>
+  </si>
+  <si>
     <t>Swathi Veeravalli</t>
   </si>
   <si>
+    <t>Shae Marx</t>
+  </si>
+  <si>
+    <t>Grace Schiavone</t>
+  </si>
+  <si>
+    <t>Allie Kardon</t>
+  </si>
+  <si>
+    <t>Faith Pon</t>
+  </si>
+  <si>
+    <t>Hannah Miller</t>
+  </si>
+  <si>
+    <t>Malini Ragoopath</t>
+  </si>
+  <si>
     <t>Emily Carey</t>
   </si>
   <si>
-    <t>Shae Marx</t>
-  </si>
-  <si>
-    <t>Nicole Coppins</t>
-  </si>
-  <si>
-    <t>Allie Kardon</t>
-  </si>
-  <si>
-    <t>Grace Schiavone</t>
-  </si>
-  <si>
-    <t>Hillary Dale</t>
-  </si>
-  <si>
     <t>Nikki Papalia</t>
   </si>
   <si>
-    <t>Faith Pon</t>
-  </si>
-  <si>
-    <t>Lily Lamb</t>
-  </si>
-  <si>
-    <t>Malini Ragoopath</t>
-  </si>
-  <si>
     <t>Sumita Gangwani</t>
   </si>
   <si>
+    <t>Amanda Pasquale</t>
+  </si>
+  <si>
     <t>Kiana McIntosh</t>
   </si>
   <si>
-    <t>Hannah Miller</t>
-  </si>
-  <si>
     <t>Brianna Goebel</t>
   </si>
   <si>
     <t>Rebecca Schneider</t>
   </si>
   <si>
-    <t>Amanda Pasquale</t>
-  </si>
-  <si>
     <t>Grace Stockbower</t>
   </si>
   <si>
@@ -337,76 +343,79 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>9-3</t>
-  </si>
-  <si>
-    <t>8-4</t>
-  </si>
-  <si>
-    <t>7-5</t>
-  </si>
-  <si>
-    <t>6-6</t>
-  </si>
-  <si>
-    <t>5-7</t>
-  </si>
-  <si>
-    <t>3-9</t>
-  </si>
-  <si>
-    <t>2-10</t>
-  </si>
-  <si>
-    <t>4-8</t>
-  </si>
-  <si>
-    <t>11.0-4.0</t>
+    <t>10-3</t>
+  </si>
+  <si>
+    <t>9-4</t>
+  </si>
+  <si>
+    <t>7-6</t>
+  </si>
+  <si>
+    <t>6-7</t>
+  </si>
+  <si>
+    <t>5-8</t>
+  </si>
+  <si>
+    <t>3-10</t>
+  </si>
+  <si>
+    <t>11.4-3.6</t>
   </si>
   <si>
     <t>11.2-3.8</t>
   </si>
   <si>
-    <t>9.7-5.3</t>
-  </si>
-  <si>
-    <t>8.4-6.6</t>
+    <t>11.6-3.4</t>
+  </si>
+  <si>
+    <t>10.0-5.0</t>
   </si>
   <si>
     <t>8.3-6.7</t>
   </si>
   <si>
-    <t>7.6-6.4-1.0</t>
-  </si>
-  <si>
-    <t>7.8-7.2</t>
-  </si>
-  <si>
-    <t>6.9-7.1-1.0</t>
-  </si>
-  <si>
-    <t>7.4-7.5</t>
-  </si>
-  <si>
-    <t>6.8-8.2</t>
-  </si>
-  <si>
-    <t>6.4-8.6</t>
+    <t>7.4-6.6-1.0</t>
+  </si>
+  <si>
+    <t>8.0-7.0</t>
+  </si>
+  <si>
+    <t>7.9-7.1</t>
+  </si>
+  <si>
+    <t>7.2-6.8-1.0</t>
+  </si>
+  <si>
+    <t>7.3-7.7</t>
   </si>
   <si>
     <t>7.0-8.0</t>
   </si>
   <si>
-    <t>6.5-8.5</t>
-  </si>
-  <si>
-    <t>3.7-11.3</t>
-  </si>
-  <si>
-    <t>2.9-12.1</t>
-  </si>
-  <si>
-    <t>4.8-10.1</t>
+    <t>6.1-8.9</t>
+  </si>
+  <si>
+    <t>5.8-9.2</t>
+  </si>
+  <si>
+    <t>6.6-8.4</t>
+  </si>
+  <si>
+    <t>3.5-11.5</t>
+  </si>
+  <si>
+    <t>3.6-11.4</t>
+  </si>
+  <si>
+    <t>5.4-9.6</t>
+  </si>
+  <si>
+    <t>5.7-9.3</t>
+  </si>
+  <si>
+    <t>12-3</t>
   </si>
   <si>
     <t>11-4</t>
@@ -415,12 +424,15 @@
     <t>10-5</t>
   </si>
   <si>
+    <t>9-6</t>
+  </si>
+  <si>
+    <t>8-6-1</t>
+  </si>
+  <si>
     <t>8-7</t>
   </si>
   <si>
-    <t>8-6-1</t>
-  </si>
-  <si>
     <t>7-7-1</t>
   </si>
   <si>
@@ -445,34 +457,37 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑6</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
+    <t>↓1</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓9</t>
+  </si>
+  <si>
     <t>↓2</t>
   </si>
   <si>
-    <t>↑4</t>
-  </si>
-  <si>
-    <t>↑7</t>
-  </si>
-  <si>
-    <t>↑5</t>
-  </si>
-  <si>
-    <t>↓3</t>
+    <t>↑3</t>
   </si>
   <si>
     <t>↓4</t>
   </si>
   <si>
-    <t>↓1</t>
-  </si>
-  <si>
-    <t>↑8</t>
-  </si>
-  <si>
-    <t>↓6</t>
+    <t>↓7</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -509,6 +524,9 @@
   </si>
   <si>
     <t>Week 12</t>
+  </si>
+  <si>
+    <t>Week 13</t>
   </si>
   <si>
     <t>Week</t>
@@ -960,52 +978,52 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
       </c>
       <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
       </c>
       <c r="J2" t="s">
         <v>18</v>
       </c>
       <c r="K2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
         <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>18</v>
       </c>
       <c r="N2" t="s">
         <v>18</v>
       </c>
       <c r="O2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="R2" t="s">
         <v>18</v>
       </c>
       <c r="S2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1019,16 +1037,16 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H3" t="s">
         <v>19</v>
@@ -1037,16 +1055,16 @@
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
         <v>23</v>
@@ -1058,13 +1076,13 @@
         <v>23</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="R3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1075,52 +1093,52 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
       </c>
       <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" t="s">
         <v>26</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>19</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" t="s">
         <v>20</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" t="s">
-        <v>20</v>
-      </c>
-      <c r="P4" t="s">
-        <v>24</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="S4" t="s">
         <v>20</v>
@@ -1134,55 +1152,55 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
       </c>
       <c r="I5" t="s">
         <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N5" t="s">
         <v>18</v>
       </c>
       <c r="O5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="Q5" t="s">
         <v>18</v>
       </c>
       <c r="R5" t="s">
+        <v>19</v>
+      </c>
+      <c r="S5" t="s">
         <v>23</v>
-      </c>
-      <c r="S5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1196,10 +1214,10 @@
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -1208,37 +1226,37 @@
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" t="s">
         <v>22</v>
       </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" t="s">
-        <v>30</v>
-      </c>
       <c r="M6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N6" t="s">
         <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P6" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="S6" t="s">
         <v>22</v>
@@ -1249,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
         <v>20</v>
@@ -1267,40 +1285,40 @@
         <v>20</v>
       </c>
       <c r="H7" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
         <v>24</v>
-      </c>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" t="s">
-        <v>25</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
       </c>
       <c r="L7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M7" t="s">
         <v>23</v>
       </c>
-      <c r="M7" t="s">
-        <v>24</v>
-      </c>
       <c r="N7" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" t="s">
         <v>19</v>
-      </c>
-      <c r="O7" t="s">
-        <v>23</v>
       </c>
       <c r="P7" t="s">
         <v>26</v>
       </c>
       <c r="Q7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S7" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1308,7 +1326,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
@@ -1320,46 +1338,46 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
       <c r="I8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
       </c>
       <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
         <v>26</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" t="s">
         <v>20</v>
       </c>
-      <c r="M8" t="s">
+      <c r="P8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" t="s">
         <v>20</v>
       </c>
-      <c r="N8" t="s">
-        <v>26</v>
-      </c>
-      <c r="O8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P8" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>24</v>
-      </c>
       <c r="R8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1367,55 +1385,55 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E9" t="s">
         <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I9" t="s">
         <v>23</v>
       </c>
       <c r="J9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" t="s">
+        <v>20</v>
+      </c>
+      <c r="L9" t="s">
         <v>19</v>
-      </c>
-      <c r="K9" t="s">
-        <v>24</v>
-      </c>
-      <c r="L9" t="s">
-        <v>23</v>
       </c>
       <c r="M9" t="s">
         <v>23</v>
       </c>
       <c r="N9" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q9" t="s">
         <v>23</v>
       </c>
-      <c r="O9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P9" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>24</v>
-      </c>
       <c r="R9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S9" t="s">
         <v>26</v>
@@ -1426,58 +1444,58 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
         <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
       </c>
       <c r="D10" t="s">
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
         <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J10" t="s">
         <v>18</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N10" t="s">
         <v>24</v>
       </c>
-      <c r="N10" t="s">
-        <v>25</v>
-      </c>
       <c r="O10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P10" t="s">
         <v>18</v>
       </c>
       <c r="Q10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1485,55 +1503,55 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
         <v>19</v>
       </c>
       <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>26</v>
       </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" t="s">
         <v>20</v>
-      </c>
-      <c r="J11" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" t="s">
-        <v>24</v>
       </c>
       <c r="N11" t="s">
         <v>18</v>
       </c>
       <c r="O11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="P11" t="s">
         <v>20</v>
       </c>
       <c r="Q11" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" t="s">
         <v>19</v>
-      </c>
-      <c r="R11" t="s">
-        <v>23</v>
       </c>
       <c r="S11" t="s">
         <v>20</v>
@@ -1544,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -1553,49 +1571,49 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="I12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="J12" t="s">
         <v>18</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M12" t="s">
         <v>19</v>
       </c>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O12" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P12" t="s">
         <v>18</v>
       </c>
       <c r="Q12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" t="s">
+        <v>23</v>
+      </c>
+      <c r="S12" t="s">
         <v>19</v>
-      </c>
-      <c r="R12" t="s">
-        <v>24</v>
-      </c>
-      <c r="S12" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1603,58 +1621,58 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s">
         <v>20</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
       <c r="G13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H13" t="s">
         <v>23</v>
       </c>
       <c r="I13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" t="s">
         <v>26</v>
-      </c>
-      <c r="J13" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" t="s">
-        <v>20</v>
       </c>
       <c r="L13" t="s">
         <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N13" t="s">
         <v>20</v>
       </c>
       <c r="O13" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>20</v>
+      </c>
+      <c r="R13" t="s">
+        <v>23</v>
+      </c>
+      <c r="S13" t="s">
         <v>26</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R13" t="s">
-        <v>24</v>
-      </c>
-      <c r="S13" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1662,16 +1680,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" t="s">
-        <v>18</v>
-      </c>
       <c r="E14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F14" t="s">
         <v>18</v>
@@ -1680,22 +1698,22 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="J14" t="s">
         <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N14" t="s">
         <v>18</v>
@@ -1707,13 +1725,13 @@
         <v>18</v>
       </c>
       <c r="Q14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" t="s">
         <v>25</v>
-      </c>
-      <c r="R14" t="s">
-        <v>25</v>
-      </c>
-      <c r="S14" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1724,25 +1742,25 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
         <v>23</v>
       </c>
       <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
         <v>20</v>
       </c>
-      <c r="H15" t="s">
-        <v>24</v>
-      </c>
       <c r="I15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J15" t="s">
         <v>18</v>
@@ -1751,10 +1769,10 @@
         <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N15" t="s">
         <v>20</v>
@@ -1763,16 +1781,16 @@
         <v>23</v>
       </c>
       <c r="P15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Q15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R15" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" t="s">
         <v>23</v>
-      </c>
-      <c r="R15" t="s">
-        <v>19</v>
-      </c>
-      <c r="S15" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1780,55 +1798,55 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16" t="s">
         <v>26</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
         <v>26</v>
       </c>
       <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K16" t="s">
         <v>19</v>
       </c>
-      <c r="I16" t="s">
+      <c r="L16" t="s">
         <v>19</v>
       </c>
-      <c r="J16" t="s">
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" t="s">
+        <v>23</v>
+      </c>
+      <c r="O16" t="s">
         <v>19</v>
       </c>
-      <c r="K16" t="s">
+      <c r="P16" t="s">
         <v>23</v>
       </c>
-      <c r="L16" t="s">
-        <v>23</v>
-      </c>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
-      <c r="N16" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16" t="s">
-        <v>23</v>
-      </c>
-      <c r="P16" t="s">
-        <v>24</v>
-      </c>
       <c r="Q16" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="R16" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="S16" t="s">
         <v>20</v>
@@ -1842,55 +1860,55 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F17" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
         <v>26</v>
       </c>
       <c r="K17" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="O17" t="s">
         <v>26</v>
       </c>
       <c r="P17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="R17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="S17" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1898,49 +1916,49 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" t="s">
         <v>26</v>
       </c>
-      <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
       <c r="G18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" t="s">
         <v>22</v>
-      </c>
-      <c r="K18" t="s">
-        <v>26</v>
-      </c>
-      <c r="L18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N18" t="s">
-        <v>30</v>
       </c>
       <c r="O18" t="s">
         <v>22</v>
       </c>
       <c r="P18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="Q18" t="s">
         <v>26</v>
@@ -1949,7 +1967,7 @@
         <v>26</v>
       </c>
       <c r="S18" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1960,22 +1978,22 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
         <v>20</v>
-      </c>
-      <c r="H19" t="s">
-        <v>24</v>
       </c>
       <c r="I19" t="s">
         <v>23</v>
@@ -1984,7 +2002,7 @@
         <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L19" t="s">
         <v>23</v>
@@ -1996,19 +2014,19 @@
         <v>23</v>
       </c>
       <c r="O19" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q19" t="s">
         <v>20</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>20</v>
       </c>
-      <c r="Q19" t="s">
-        <v>24</v>
-      </c>
-      <c r="R19" t="s">
-        <v>24</v>
-      </c>
       <c r="S19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2026,25 +2044,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2078,25 +2096,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E3">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>32</v>
+        <v>-50</v>
       </c>
       <c r="G3">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H3" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2104,25 +2122,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4">
-        <v>25</v>
+        <v>-53</v>
       </c>
       <c r="F4">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="G4">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2130,25 +2148,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5">
-        <v>-29</v>
+        <v>-3</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G5">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2156,25 +2174,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E6">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>-9</v>
+      </c>
+      <c r="G6">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
         <v>7</v>
-      </c>
-      <c r="F6">
-        <v>37</v>
-      </c>
-      <c r="G6">
-        <v>30</v>
-      </c>
-      <c r="H6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2182,25 +2200,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>-29</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7">
-        <v>17</v>
-      </c>
-      <c r="F7">
-        <v>-11</v>
-      </c>
       <c r="G7">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2208,25 +2226,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
       <c r="E8">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>37</v>
       </c>
       <c r="G8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2237,22 +2255,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>-11</v>
       </c>
       <c r="G9">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2260,25 +2278,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E10">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G10">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2296,13 +2314,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2313,10 +2331,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>4.277777777777778</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2327,10 +2345,10 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>4.722222222222222</v>
+        <v>5.444444444444445</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2341,7 +2359,7 @@
         <v>5</v>
       </c>
       <c r="C4">
-        <v>5.111111111111111</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -2352,13 +2370,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>5.333333333333333</v>
+        <v>5.777777777777778</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2369,10 +2387,10 @@
         <v>11</v>
       </c>
       <c r="C6">
-        <v>5.5</v>
+        <v>5.777777777777778</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2380,13 +2398,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>5.611111111111111</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2394,13 +2412,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>5.666666666666667</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2408,13 +2426,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>5.666666666666667</v>
+        <v>5.944444444444445</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2425,7 +2443,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>5.833333333333333</v>
+        <v>6.055555555555555</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -2436,10 +2454,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>6.166666666666667</v>
+        <v>6.611111111111111</v>
       </c>
       <c r="D11" t="s">
         <v>23</v>
@@ -2450,13 +2468,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>6.333333333333333</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2464,13 +2482,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>6.5</v>
+        <v>6.722222222222222</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2478,13 +2496,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>6.555555555555555</v>
+        <v>7.277777777777778</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2492,13 +2510,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>6.555555555555555</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2506,13 +2524,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C16">
-        <v>6.611111111111111</v>
+        <v>7.5</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2523,10 +2541,10 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>6.777777777777778</v>
+        <v>7.666666666666667</v>
       </c>
       <c r="D17" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2537,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.222222222222222</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -2551,7 +2569,7 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>7.444444444444445</v>
+        <v>8.277777777777779</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
@@ -2572,16 +2590,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2592,10 +2610,10 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>9.666666666666666</v>
+        <v>10.5</v>
       </c>
       <c r="D2">
-        <v>0.6666666666666661</v>
+        <v>0.5</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
@@ -2606,13 +2624,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>8.666666666666666</v>
+        <v>9.333333333333334</v>
       </c>
       <c r="D3">
-        <v>-0.3333333333333339</v>
+        <v>-0.6666666666666661</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -2623,13 +2641,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>8.611111111111111</v>
+        <v>9.222222222222221</v>
       </c>
       <c r="D4">
-        <v>-0.3888888888888893</v>
+        <v>-0.7777777777777786</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -2643,13 +2661,13 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>7.944444444444445</v>
+        <v>8.611111111111111</v>
       </c>
       <c r="D5">
-        <v>-0.05555555555555536</v>
+        <v>-0.3888888888888893</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2660,13 +2678,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>7.222222222222222</v>
+        <v>8.111111111111111</v>
       </c>
       <c r="D6">
-        <v>2.222222222222222</v>
+        <v>2.111111111111111</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2677,13 +2695,13 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>6.555555555555555</v>
+        <v>7.555555555555555</v>
       </c>
       <c r="D7">
         <v>0.5555555555555554</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2691,16 +2709,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C8">
-        <v>6.5</v>
+        <v>6.888888888888889</v>
       </c>
       <c r="D8">
-        <v>0.5</v>
+        <v>1.888888888888889</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2708,13 +2726,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>6.333333333333333</v>
+        <v>6.722222222222222</v>
       </c>
       <c r="D9">
-        <v>1.333333333333333</v>
+        <v>0.7222222222222223</v>
       </c>
       <c r="E9" t="s">
         <v>20</v>
@@ -2728,10 +2746,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>6.277777777777778</v>
+        <v>6.611111111111111</v>
       </c>
       <c r="D10">
-        <v>-0.7222222222222223</v>
+        <v>-0.3888888888888893</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -2742,16 +2760,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>5.777777777777778</v>
+        <v>6.611111111111111</v>
       </c>
       <c r="D11">
-        <v>0.7777777777777777</v>
+        <v>0.6111111111111107</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2762,10 +2780,10 @@
         <v>7</v>
       </c>
       <c r="C12">
-        <v>5.666666666666667</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="D12">
-        <v>-1.333333333333333</v>
+        <v>-0.8888888888888893</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
@@ -2776,13 +2794,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>5.555555555555555</v>
+        <v>5.722222222222222</v>
       </c>
       <c r="D13">
-        <v>0.5555555555555554</v>
+        <v>-0.2777777777777777</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -2793,16 +2811,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C14">
-        <v>5.333333333333333</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="D14">
-        <v>-0.666666666666667</v>
+        <v>0.5555555555555554</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2813,13 +2831,13 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>5.277777777777778</v>
+        <v>5.5</v>
       </c>
       <c r="D15">
-        <v>0.2777777777777777</v>
+        <v>0.5</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2830,13 +2848,13 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>4.722222222222222</v>
+        <v>4.777777777777778</v>
       </c>
       <c r="D16">
-        <v>-1.277777777777778</v>
+        <v>-1.222222222222222</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2847,10 +2865,10 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="D17">
-        <v>-1</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
@@ -2861,13 +2879,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C18">
-        <v>2.611111111111111</v>
+        <v>2.944444444444445</v>
       </c>
       <c r="D18">
-        <v>-0.3888888888888888</v>
+        <v>-0.05555555555555536</v>
       </c>
       <c r="E18" t="s">
         <v>22</v>
@@ -2878,16 +2896,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>2.166666666666667</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="D19">
-        <v>0.1666666666666665</v>
+        <v>-0.2222222222222223</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2905,64 +2923,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2970,19 +2988,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.6</v>
+        <v>23</v>
       </c>
       <c r="C2">
-        <v>30.7</v>
+        <v>31.9</v>
       </c>
       <c r="D2">
-        <v>35.3</v>
+        <v>39.5</v>
       </c>
       <c r="E2">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="F2">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -3032,22 +3050,22 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>43.4</v>
+        <v>44.3</v>
       </c>
       <c r="C3">
-        <v>29.6</v>
+        <v>24.4</v>
       </c>
       <c r="D3">
-        <v>18.7</v>
+        <v>23.8</v>
       </c>
       <c r="E3">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="F3">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -3094,19 +3112,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>29.6</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>33.5</v>
+        <v>40.5</v>
       </c>
       <c r="D4">
-        <v>30.5</v>
+        <v>25.2</v>
       </c>
       <c r="E4">
-        <v>5.8</v>
+        <v>2.3</v>
       </c>
       <c r="F4">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -3156,31 +3174,31 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="C5">
-        <v>5.9</v>
+        <v>3.2</v>
       </c>
       <c r="D5">
-        <v>14.4</v>
+        <v>11.5</v>
       </c>
       <c r="E5">
-        <v>56.3</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="F5">
-        <v>13.1</v>
+        <v>2.8</v>
       </c>
       <c r="G5">
-        <v>4.2</v>
+        <v>0.2</v>
       </c>
       <c r="H5">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -3210,12 +3228,12 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>95.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3224,37 +3242,37 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>6.7</v>
+        <v>2.4</v>
       </c>
       <c r="F6">
-        <v>22.9</v>
+        <v>44.7</v>
       </c>
       <c r="G6">
-        <v>16.2</v>
+        <v>19.9</v>
       </c>
       <c r="H6">
-        <v>10.7</v>
+        <v>16.5</v>
       </c>
       <c r="I6">
-        <v>15.4</v>
+        <v>5.5</v>
       </c>
       <c r="J6">
-        <v>10.1</v>
+        <v>4.5</v>
       </c>
       <c r="K6">
-        <v>6.2</v>
+        <v>4</v>
       </c>
       <c r="L6">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="M6">
-        <v>4.8</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -3272,54 +3290,54 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>46</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>24.4</v>
+        <v>15.6</v>
       </c>
       <c r="G7">
-        <v>13.2</v>
+        <v>22.6</v>
       </c>
       <c r="H7">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="I7">
-        <v>12.7</v>
+        <v>19.9</v>
       </c>
       <c r="J7">
-        <v>9.1</v>
+        <v>14.8</v>
       </c>
       <c r="K7">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="L7">
-        <v>4.8</v>
+        <v>3.7</v>
       </c>
       <c r="M7">
-        <v>6.3</v>
+        <v>3.7</v>
       </c>
       <c r="N7">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -3334,12 +3352,12 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>45.7</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3348,43 +3366,43 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>6.4</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>13.4</v>
+        <v>14.2</v>
       </c>
       <c r="G8">
-        <v>19.8</v>
+        <v>14.6</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>14.7</v>
       </c>
       <c r="I8">
-        <v>9</v>
+        <v>18.3</v>
       </c>
       <c r="J8">
-        <v>13</v>
+        <v>10.8</v>
       </c>
       <c r="K8">
-        <v>12.3</v>
+        <v>9.6</v>
       </c>
       <c r="L8">
-        <v>4.6</v>
+        <v>13.8</v>
       </c>
       <c r="M8">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="N8">
-        <v>2.8</v>
+        <v>0.2</v>
       </c>
       <c r="O8">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -3396,12 +3414,12 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>39.9</v>
+        <v>28.8</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -3413,40 +3431,40 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="F9">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="G9">
-        <v>16.4</v>
+        <v>15.2</v>
       </c>
       <c r="H9">
-        <v>17.3</v>
+        <v>19.4</v>
       </c>
       <c r="I9">
-        <v>12</v>
+        <v>15.7</v>
       </c>
       <c r="J9">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="K9">
-        <v>10.4</v>
+        <v>10.9</v>
       </c>
       <c r="L9">
-        <v>9.1</v>
+        <v>11.7</v>
       </c>
       <c r="M9">
-        <v>4.4</v>
+        <v>5.1</v>
       </c>
       <c r="N9">
-        <v>3.7</v>
+        <v>0.2</v>
       </c>
       <c r="O9">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
@@ -3458,12 +3476,12 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>31.2</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3475,43 +3493,43 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>4.4</v>
+        <v>7.9</v>
       </c>
       <c r="G10">
-        <v>11.9</v>
+        <v>15.8</v>
       </c>
       <c r="H10">
-        <v>11.9</v>
+        <v>11</v>
       </c>
       <c r="I10">
-        <v>9.6</v>
+        <v>13</v>
       </c>
       <c r="J10">
-        <v>17.7</v>
+        <v>21.2</v>
       </c>
       <c r="K10">
-        <v>10.6</v>
+        <v>12.2</v>
       </c>
       <c r="L10">
-        <v>5.3</v>
+        <v>7.2</v>
       </c>
       <c r="M10">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N10">
-        <v>10.7</v>
+        <v>3.3</v>
       </c>
       <c r="O10">
-        <v>5.2</v>
+        <v>0.2</v>
       </c>
       <c r="P10">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="R10">
         <v>0</v>
@@ -3520,12 +3538,12 @@
         <v>0</v>
       </c>
       <c r="T10">
-        <v>16.4</v>
+        <v>23.7</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3537,40 +3555,40 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>9.9</v>
       </c>
       <c r="H11">
-        <v>9.6</v>
+        <v>17.4</v>
       </c>
       <c r="I11">
-        <v>14</v>
+        <v>14.2</v>
       </c>
       <c r="J11">
-        <v>10.3</v>
+        <v>18.8</v>
       </c>
       <c r="K11">
-        <v>7.5</v>
+        <v>19.8</v>
       </c>
       <c r="L11">
-        <v>12.4</v>
+        <v>7</v>
       </c>
       <c r="M11">
-        <v>13.2</v>
+        <v>3.9</v>
       </c>
       <c r="N11">
-        <v>8.300000000000001</v>
+        <v>4.8</v>
       </c>
       <c r="O11">
-        <v>7.6</v>
+        <v>1.5</v>
       </c>
       <c r="P11">
-        <v>4.1</v>
+        <v>0.2</v>
       </c>
       <c r="Q11">
         <v>0.1</v>
@@ -3582,12 +3600,12 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3602,40 +3620,40 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="G12">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H12">
-        <v>8.1</v>
+        <v>5.6</v>
       </c>
       <c r="I12">
-        <v>8.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J12">
-        <v>8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="K12">
-        <v>14.2</v>
+        <v>17.3</v>
       </c>
       <c r="L12">
-        <v>14.3</v>
+        <v>20.1</v>
       </c>
       <c r="M12">
+        <v>15.1</v>
+      </c>
+      <c r="N12">
         <v>10.9</v>
       </c>
-      <c r="N12">
-        <v>10</v>
-      </c>
       <c r="O12">
-        <v>11.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="P12">
-        <v>9</v>
+        <v>2.7</v>
       </c>
       <c r="Q12">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="R12">
         <v>0</v>
@@ -3644,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -3664,54 +3682,54 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>2.4</v>
+        <v>0.1</v>
       </c>
       <c r="H13">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="K13">
-        <v>12.8</v>
+        <v>11</v>
       </c>
       <c r="L13">
-        <v>12.6</v>
+        <v>10.2</v>
       </c>
       <c r="M13">
-        <v>11.1</v>
+        <v>23.4</v>
       </c>
       <c r="N13">
-        <v>15</v>
+        <v>23.4</v>
       </c>
       <c r="O13">
-        <v>14.7</v>
+        <v>9.1</v>
       </c>
       <c r="P13">
-        <v>14.9</v>
+        <v>10.6</v>
       </c>
       <c r="Q13">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>0.1</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3723,57 +3741,57 @@
         <v>0</v>
       </c>
       <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.7</v>
+      </c>
+      <c r="K14">
+        <v>3.5</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>5.6</v>
+      </c>
+      <c r="N14">
+        <v>14.1</v>
+      </c>
+      <c r="O14">
+        <v>25</v>
+      </c>
+      <c r="P14">
+        <v>30.4</v>
+      </c>
+      <c r="Q14">
+        <v>13.6</v>
+      </c>
+      <c r="R14">
         <v>0.1</v>
       </c>
-      <c r="F14">
-        <v>0.9</v>
-      </c>
-      <c r="G14">
-        <v>1.6</v>
-      </c>
-      <c r="H14">
-        <v>1.7</v>
-      </c>
-      <c r="I14">
-        <v>6.7</v>
-      </c>
-      <c r="J14">
-        <v>8</v>
-      </c>
-      <c r="K14">
-        <v>6.4</v>
-      </c>
-      <c r="L14">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="M14">
-        <v>14.7</v>
-      </c>
-      <c r="N14">
-        <v>16.3</v>
-      </c>
-      <c r="O14">
-        <v>17.7</v>
-      </c>
-      <c r="P14">
-        <v>16.4</v>
-      </c>
-      <c r="Q14">
-        <v>0.7</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -3788,40 +3806,40 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>3.2</v>
+      </c>
+      <c r="J15">
         <v>2.3</v>
       </c>
-      <c r="H15">
-        <v>3.6</v>
-      </c>
-      <c r="I15">
-        <v>3.5</v>
-      </c>
-      <c r="J15">
-        <v>4.3</v>
-      </c>
       <c r="K15">
-        <v>9.4</v>
+        <v>4</v>
       </c>
       <c r="L15">
-        <v>11.5</v>
+        <v>12.7</v>
       </c>
       <c r="M15">
-        <v>10.5</v>
+        <v>20.5</v>
       </c>
       <c r="N15">
-        <v>16</v>
+        <v>17.7</v>
       </c>
       <c r="O15">
-        <v>19.4</v>
+        <v>23.2</v>
       </c>
       <c r="P15">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="Q15">
-        <v>5.4</v>
+        <v>1.9</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -3830,12 +3848,12 @@
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3850,54 +3868,54 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>4.6</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>10.8</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>12.7</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>16.7</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>26.6</v>
+        <v>0.2</v>
       </c>
       <c r="Q16">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>34.6</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="T16">
-        <v>0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3939,19 +3957,19 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="Q17">
-        <v>14.9</v>
+        <v>4.3</v>
       </c>
       <c r="R17">
-        <v>56.2</v>
+        <v>58.1</v>
       </c>
       <c r="S17">
-        <v>28</v>
+        <v>37.5</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -3959,7 +3977,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -3986,34 +4004,34 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>18.3</v>
       </c>
       <c r="Q18">
-        <v>3.4</v>
+        <v>61.6</v>
       </c>
       <c r="R18">
-        <v>26.1</v>
+        <v>7.2</v>
       </c>
       <c r="S18">
-        <v>70.5</v>
+        <v>0.1</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -4021,7 +4039,7 @@
     </row>
     <row r="19" spans="1:20">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -4045,37 +4063,37 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="K19">
-        <v>0.1</v>
+        <v>3.8</v>
       </c>
       <c r="L19">
-        <v>0.3</v>
+        <v>3.9</v>
       </c>
       <c r="M19">
-        <v>0.3</v>
+        <v>7.4</v>
       </c>
       <c r="N19">
-        <v>0.9</v>
+        <v>22.8</v>
       </c>
       <c r="O19">
-        <v>2.8</v>
+        <v>24.7</v>
       </c>
       <c r="P19">
-        <v>9.9</v>
+        <v>24</v>
       </c>
       <c r="Q19">
-        <v>66.59999999999999</v>
+        <v>11.5</v>
       </c>
       <c r="R19">
-        <v>17.6</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <v>0</v>
@@ -4088,89 +4106,92 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>71</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>38.3</v>
+        <v>38.6</v>
       </c>
       <c r="C2">
-        <v>80.60000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="D2">
-        <v>44.6</v>
+        <v>44.2</v>
       </c>
       <c r="E2">
-        <v>29.6</v>
+        <v>30.7</v>
       </c>
       <c r="F2">
-        <v>61.4</v>
+        <v>62.9</v>
       </c>
       <c r="G2">
-        <v>73.59999999999999</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H2">
-        <v>84.09999999999999</v>
+        <v>81.10000000000001</v>
       </c>
       <c r="I2">
-        <v>61.7</v>
+        <v>62.9</v>
       </c>
       <c r="J2">
-        <v>80.10000000000001</v>
+        <v>82</v>
       </c>
       <c r="K2">
-        <v>92.80000000000001</v>
+        <v>92.10000000000001</v>
       </c>
       <c r="L2">
-        <v>97.5</v>
+        <v>97.89999999999999</v>
       </c>
       <c r="M2">
         <v>100</v>
@@ -4178,694 +4199,742 @@
       <c r="N2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>36.4</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="C3">
-        <v>61.3</v>
+        <v>84.8</v>
       </c>
       <c r="D3">
-        <v>60.3</v>
+        <v>54.3</v>
       </c>
       <c r="E3">
-        <v>79.90000000000001</v>
+        <v>76.7</v>
       </c>
       <c r="F3">
-        <v>82</v>
+        <v>88.7</v>
       </c>
       <c r="G3">
-        <v>89.90000000000001</v>
+        <v>82.8</v>
       </c>
       <c r="H3">
-        <v>92</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="I3">
-        <v>93.8</v>
+        <v>92.80000000000001</v>
       </c>
       <c r="J3">
-        <v>96.3</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="K3">
-        <v>93.30000000000001</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="L3">
-        <v>97.09999999999999</v>
+        <v>99.8</v>
       </c>
       <c r="M3">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="N3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="C4">
+        <v>91.5</v>
+      </c>
+      <c r="D4">
+        <v>12.5</v>
+      </c>
+      <c r="E4">
+        <v>33.4</v>
+      </c>
+      <c r="F4">
+        <v>20.7</v>
+      </c>
+      <c r="G4">
+        <v>8.799999999999999</v>
+      </c>
+      <c r="H4">
+        <v>11.9</v>
+      </c>
+      <c r="I4">
+        <v>21.3</v>
+      </c>
+      <c r="J4">
+        <v>40.3</v>
+      </c>
+      <c r="K4">
+        <v>55.2</v>
+      </c>
+      <c r="L4">
+        <v>73.2</v>
+      </c>
+      <c r="M4">
         <v>93.5</v>
       </c>
-      <c r="C4">
-        <v>84.8</v>
-      </c>
-      <c r="D4">
-        <v>58.2</v>
-      </c>
-      <c r="E4">
-        <v>78.8</v>
-      </c>
-      <c r="F4">
-        <v>88.2</v>
-      </c>
-      <c r="G4">
-        <v>83</v>
-      </c>
-      <c r="H4">
+      <c r="N4">
+        <v>99.7</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>38.6</v>
+      </c>
+      <c r="C5">
+        <v>63</v>
+      </c>
+      <c r="D5">
+        <v>58.3</v>
+      </c>
+      <c r="E5">
+        <v>78.40000000000001</v>
+      </c>
+      <c r="F5">
+        <v>81.89999999999999</v>
+      </c>
+      <c r="G5">
+        <v>91.5</v>
+      </c>
+      <c r="H5">
+        <v>93.5</v>
+      </c>
+      <c r="I5">
         <v>93.40000000000001</v>
       </c>
-      <c r="I4">
-        <v>94.69999999999999</v>
-      </c>
-      <c r="J4">
-        <v>98</v>
-      </c>
-      <c r="K4">
-        <v>99.2</v>
-      </c>
-      <c r="L4">
-        <v>99.8</v>
-      </c>
-      <c r="M4">
+      <c r="J5">
+        <v>96.89999999999999</v>
+      </c>
+      <c r="K5">
+        <v>93.30000000000001</v>
+      </c>
+      <c r="L5">
+        <v>97.8</v>
+      </c>
+      <c r="M5">
+        <v>99.90000000000001</v>
+      </c>
+      <c r="N5">
         <v>100</v>
       </c>
-      <c r="N4">
+      <c r="O5">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5">
-        <v>89.5</v>
-      </c>
-      <c r="C5">
-        <v>92</v>
-      </c>
-      <c r="D5">
-        <v>15.1</v>
-      </c>
-      <c r="E5">
-        <v>33.90000000000001</v>
-      </c>
-      <c r="F5">
-        <v>19.9</v>
-      </c>
-      <c r="G5">
+    <row r="6" spans="1:15">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="C6">
+        <v>0.1</v>
+      </c>
+      <c r="D6">
+        <v>7.7</v>
+      </c>
+      <c r="E6">
+        <v>21.4</v>
+      </c>
+      <c r="F6">
+        <v>36.4</v>
+      </c>
+      <c r="G6">
+        <v>41.3</v>
+      </c>
+      <c r="H6">
+        <v>58.7</v>
+      </c>
+      <c r="I6">
+        <v>78.90000000000001</v>
+      </c>
+      <c r="J6">
+        <v>56.8</v>
+      </c>
+      <c r="K6">
+        <v>49.4</v>
+      </c>
+      <c r="L6">
+        <v>25.3</v>
+      </c>
+      <c r="M6">
+        <v>29.4</v>
+      </c>
+      <c r="N6">
+        <v>60.7</v>
+      </c>
+      <c r="O6">
+        <v>66.60000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>29.8</v>
+      </c>
+      <c r="C7">
+        <v>13.7</v>
+      </c>
+      <c r="D7">
+        <v>65.10000000000001</v>
+      </c>
+      <c r="E7">
+        <v>83.89999999999999</v>
+      </c>
+      <c r="F7">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="G7">
+        <v>65.2</v>
+      </c>
+      <c r="H7">
+        <v>36.7</v>
+      </c>
+      <c r="I7">
+        <v>24.4</v>
+      </c>
+      <c r="J7">
+        <v>37.8</v>
+      </c>
+      <c r="K7">
+        <v>18.4</v>
+      </c>
+      <c r="L7">
+        <v>6.5</v>
+      </c>
+      <c r="M7">
+        <v>23.5</v>
+      </c>
+      <c r="N7">
+        <v>35.8</v>
+      </c>
+      <c r="O7">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="D8">
+        <v>72.2</v>
+      </c>
+      <c r="E8">
+        <v>50.8</v>
+      </c>
+      <c r="F8">
+        <v>63</v>
+      </c>
+      <c r="G8">
+        <v>81.89999999999999</v>
+      </c>
+      <c r="H8">
+        <v>90.2</v>
+      </c>
+      <c r="I8">
+        <v>96.8</v>
+      </c>
+      <c r="J8">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="K8">
+        <v>73</v>
+      </c>
+      <c r="L8">
+        <v>58.7</v>
+      </c>
+      <c r="M8">
+        <v>39.1</v>
+      </c>
+      <c r="N8">
+        <v>29.8</v>
+      </c>
+      <c r="O8">
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>32.9</v>
+      </c>
+      <c r="C9">
+        <v>33.5</v>
+      </c>
+      <c r="D9">
+        <v>8.1</v>
+      </c>
+      <c r="E9">
+        <v>11.2</v>
+      </c>
+      <c r="F9">
+        <v>31.1</v>
+      </c>
+      <c r="G9">
+        <v>39.2</v>
+      </c>
+      <c r="H9">
+        <v>65</v>
+      </c>
+      <c r="I9">
+        <v>54.3</v>
+      </c>
+      <c r="J9">
+        <v>37.5</v>
+      </c>
+      <c r="K9">
+        <v>29.9</v>
+      </c>
+      <c r="L9">
+        <v>50.1</v>
+      </c>
+      <c r="M9">
+        <v>42.1</v>
+      </c>
+      <c r="N9">
+        <v>32</v>
+      </c>
+      <c r="O9">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>31.7</v>
+      </c>
+      <c r="C10">
+        <v>10.5</v>
+      </c>
+      <c r="D10">
+        <v>62.9</v>
+      </c>
+      <c r="E10">
+        <v>72.89999999999999</v>
+      </c>
+      <c r="F10">
+        <v>40.9</v>
+      </c>
+      <c r="G10">
+        <v>20</v>
+      </c>
+      <c r="H10">
+        <v>8.799999999999999</v>
+      </c>
+      <c r="I10">
+        <v>16.4</v>
+      </c>
+      <c r="J10">
+        <v>24.8</v>
+      </c>
+      <c r="K10">
+        <v>45.1</v>
+      </c>
+      <c r="L10">
+        <v>53</v>
+      </c>
+      <c r="M10">
+        <v>35</v>
+      </c>
+      <c r="N10">
+        <v>14.8</v>
+      </c>
+      <c r="O10">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>19.8</v>
+      </c>
+      <c r="C11">
+        <v>30.2</v>
+      </c>
+      <c r="D11">
+        <v>49.9</v>
+      </c>
+      <c r="E11">
+        <v>41.6</v>
+      </c>
+      <c r="F11">
+        <v>43.5</v>
+      </c>
+      <c r="G11">
+        <v>63.4</v>
+      </c>
+      <c r="H11">
+        <v>28</v>
+      </c>
+      <c r="I11">
+        <v>46.2</v>
+      </c>
+      <c r="J11">
+        <v>27</v>
+      </c>
+      <c r="K11">
+        <v>22.3</v>
+      </c>
+      <c r="L11">
+        <v>14.6</v>
+      </c>
+      <c r="M11">
+        <v>5.7</v>
+      </c>
+      <c r="N11">
+        <v>19.8</v>
+      </c>
+      <c r="O11">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1.9</v>
+      </c>
+      <c r="F12">
+        <v>6.9</v>
+      </c>
+      <c r="G12">
+        <v>3.2</v>
+      </c>
+      <c r="H12">
+        <v>7.1</v>
+      </c>
+      <c r="I12">
+        <v>2.2</v>
+      </c>
+      <c r="J12">
+        <v>5.7</v>
+      </c>
+      <c r="K12">
+        <v>10.4</v>
+      </c>
+      <c r="L12">
+        <v>4.6</v>
+      </c>
+      <c r="M12">
+        <v>16.3</v>
+      </c>
+      <c r="N12">
+        <v>6.1</v>
+      </c>
+      <c r="O12">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>22.2</v>
+      </c>
+      <c r="C13">
+        <v>31.4</v>
+      </c>
+      <c r="D13">
         <v>10.6</v>
       </c>
-      <c r="H5">
-        <v>11.1</v>
-      </c>
-      <c r="I5">
-        <v>23.8</v>
-      </c>
-      <c r="J5">
-        <v>38.6</v>
-      </c>
-      <c r="K5">
-        <v>55.7</v>
-      </c>
-      <c r="L5">
-        <v>72.8</v>
-      </c>
-      <c r="M5">
-        <v>93</v>
-      </c>
-      <c r="N5">
-        <v>97.09999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>31.3</v>
-      </c>
-      <c r="C6">
-        <v>30.9</v>
-      </c>
-      <c r="D6">
-        <v>7.399999999999999</v>
-      </c>
-      <c r="E6">
-        <v>9.5</v>
-      </c>
-      <c r="F6">
-        <v>32.8</v>
-      </c>
-      <c r="G6">
-        <v>37.9</v>
-      </c>
-      <c r="H6">
-        <v>62.7</v>
-      </c>
-      <c r="I6">
-        <v>50.2</v>
-      </c>
-      <c r="J6">
-        <v>36.2</v>
-      </c>
-      <c r="K6">
-        <v>28</v>
-      </c>
-      <c r="L6">
-        <v>48</v>
-      </c>
-      <c r="M6">
-        <v>42.1</v>
-      </c>
-      <c r="N6">
-        <v>46.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>22.1</v>
-      </c>
-      <c r="C7">
-        <v>68</v>
-      </c>
-      <c r="D7">
-        <v>67.2</v>
-      </c>
-      <c r="E7">
-        <v>51.4</v>
-      </c>
-      <c r="F7">
-        <v>66.10000000000001</v>
-      </c>
-      <c r="G7">
-        <v>81.39999999999999</v>
-      </c>
-      <c r="H7">
-        <v>91.10000000000001</v>
-      </c>
-      <c r="I7">
-        <v>96.09999999999999</v>
-      </c>
-      <c r="J7">
-        <v>87</v>
-      </c>
-      <c r="K7">
-        <v>75.40000000000001</v>
-      </c>
-      <c r="L7">
-        <v>57.59999999999999</v>
-      </c>
-      <c r="M7">
-        <v>39.5</v>
-      </c>
-      <c r="N7">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>37.4</v>
-      </c>
-      <c r="C8">
-        <v>11.9</v>
-      </c>
-      <c r="D8">
-        <v>66.3</v>
-      </c>
-      <c r="E8">
-        <v>71.39999999999999</v>
-      </c>
-      <c r="F8">
-        <v>40.6</v>
-      </c>
-      <c r="G8">
-        <v>20.2</v>
-      </c>
-      <c r="H8">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="I8">
-        <v>13.7</v>
-      </c>
-      <c r="J8">
-        <v>23.8</v>
-      </c>
-      <c r="K8">
-        <v>43.5</v>
-      </c>
-      <c r="L8">
-        <v>57.7</v>
-      </c>
-      <c r="M8">
-        <v>37.3</v>
-      </c>
-      <c r="N8">
-        <v>39.3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>1.5</v>
+      </c>
+      <c r="G13">
+        <v>0.8</v>
+      </c>
+      <c r="H13">
+        <v>0.3</v>
+      </c>
+      <c r="I13">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="L13">
+        <v>2.4</v>
+      </c>
+      <c r="M13">
+        <v>4.6</v>
+      </c>
+      <c r="N13">
+        <v>1.1</v>
+      </c>
+      <c r="O13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
         <v>0.8999999999999999</v>
       </c>
-      <c r="C9">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>0.2</v>
+      </c>
+      <c r="F14">
+        <v>0.2</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C15">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="D15">
+        <v>2.2</v>
+      </c>
+      <c r="E15">
+        <v>0.3</v>
+      </c>
+      <c r="F15">
         <v>0.1</v>
       </c>
-      <c r="D9">
-        <v>8.799999999999999</v>
-      </c>
-      <c r="E9">
-        <v>22.8</v>
-      </c>
-      <c r="F9">
-        <v>36.6</v>
-      </c>
-      <c r="G9">
-        <v>43.7</v>
-      </c>
-      <c r="H9">
-        <v>60.7</v>
-      </c>
-      <c r="I9">
-        <v>80.2</v>
-      </c>
-      <c r="J9">
-        <v>58.2</v>
-      </c>
-      <c r="K9">
-        <v>44.2</v>
-      </c>
-      <c r="L9">
-        <v>27</v>
-      </c>
-      <c r="M9">
-        <v>28.8</v>
-      </c>
-      <c r="N9">
-        <v>32.6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>29.2</v>
-      </c>
-      <c r="C10">
+      <c r="G15">
+        <v>0.2</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>7.6</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>19</v>
+      </c>
+      <c r="E16">
         <v>12.3</v>
       </c>
-      <c r="D10">
-        <v>64.3</v>
-      </c>
-      <c r="E10">
-        <v>83.2</v>
-      </c>
-      <c r="F10">
-        <v>55.50000000000001</v>
-      </c>
-      <c r="G10">
-        <v>63.6</v>
-      </c>
-      <c r="H10">
-        <v>35.8</v>
-      </c>
-      <c r="I10">
-        <v>24.3</v>
-      </c>
-      <c r="J10">
-        <v>40.5</v>
-      </c>
-      <c r="K10">
-        <v>22.4</v>
-      </c>
-      <c r="L10">
-        <v>7.5</v>
-      </c>
-      <c r="M10">
-        <v>24.7</v>
-      </c>
-      <c r="N10">
-        <v>16.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11">
+      <c r="F16">
+        <v>2.8</v>
+      </c>
+      <c r="G16">
+        <v>6.4</v>
+      </c>
+      <c r="H16">
+        <v>3.4</v>
+      </c>
+      <c r="I16">
         <v>0.8999999999999999</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0.1</v>
-      </c>
-      <c r="E11">
-        <v>2.3</v>
-      </c>
-      <c r="F11">
-        <v>7.000000000000001</v>
-      </c>
-      <c r="G11">
-        <v>3.8</v>
-      </c>
-      <c r="H11">
-        <v>6.3</v>
-      </c>
-      <c r="I11">
-        <v>3.7</v>
-      </c>
-      <c r="J11">
-        <v>7.1</v>
-      </c>
-      <c r="K11">
-        <v>9.9</v>
-      </c>
-      <c r="L11">
-        <v>3.8</v>
-      </c>
-      <c r="M11">
-        <v>13.3</v>
-      </c>
-      <c r="N11">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>17.9</v>
-      </c>
-      <c r="C12">
-        <v>34</v>
-      </c>
-      <c r="D12">
-        <v>50.2</v>
-      </c>
-      <c r="E12">
-        <v>40</v>
-      </c>
-      <c r="F12">
-        <v>41</v>
-      </c>
-      <c r="G12">
-        <v>60.3</v>
-      </c>
-      <c r="H12">
-        <v>28.9</v>
-      </c>
-      <c r="I12">
-        <v>47.59999999999999</v>
-      </c>
-      <c r="J12">
-        <v>28.7</v>
-      </c>
-      <c r="K12">
-        <v>22.7</v>
-      </c>
-      <c r="L12">
+      <c r="J16">
+        <v>3.6</v>
+      </c>
+      <c r="K16">
+        <v>6.800000000000001</v>
+      </c>
+      <c r="L16">
         <v>14.7</v>
       </c>
-      <c r="M12">
-        <v>7.1</v>
-      </c>
-      <c r="N12">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13">
-        <v>7.3</v>
-      </c>
-      <c r="C13">
-        <v>0.1</v>
-      </c>
-      <c r="D13">
-        <v>17.2</v>
-      </c>
-      <c r="E13">
-        <v>10.6</v>
-      </c>
-      <c r="F13">
-        <v>3.3</v>
-      </c>
-      <c r="G13">
-        <v>7.9</v>
-      </c>
-      <c r="H13">
-        <v>2.8</v>
-      </c>
-      <c r="I13">
+      <c r="M16">
+        <v>6.1</v>
+      </c>
+      <c r="N16">
+        <v>0.2</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>48.4</v>
+      </c>
+      <c r="D17">
+        <v>58.9</v>
+      </c>
+      <c r="E17">
+        <v>21.8</v>
+      </c>
+      <c r="F17">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="G17">
+        <v>2.4</v>
+      </c>
+      <c r="H17">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="J13">
-        <v>3.4</v>
-      </c>
-      <c r="K13">
-        <v>7.399999999999999</v>
-      </c>
-      <c r="L13">
-        <v>14</v>
-      </c>
-      <c r="M13">
-        <v>5.1</v>
-      </c>
-      <c r="N13">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14">
-        <v>20.4</v>
-      </c>
-      <c r="C14">
-        <v>29</v>
-      </c>
-      <c r="D14">
-        <v>10.7</v>
-      </c>
-      <c r="E14">
-        <v>2.9</v>
-      </c>
-      <c r="F14">
-        <v>1.6</v>
-      </c>
-      <c r="G14">
-        <v>1.3</v>
-      </c>
-      <c r="H14">
-        <v>0.3</v>
-      </c>
-      <c r="I14">
-        <v>1.4</v>
-      </c>
-      <c r="J14">
-        <v>0.1</v>
-      </c>
-      <c r="K14">
-        <v>0.6</v>
-      </c>
-      <c r="L14">
-        <v>1.5</v>
-      </c>
-      <c r="M14">
-        <v>4.9</v>
-      </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>99.7</v>
-      </c>
-      <c r="C15">
-        <v>43.4</v>
-      </c>
-      <c r="D15">
-        <v>68.5</v>
-      </c>
-      <c r="E15">
-        <v>55.7</v>
-      </c>
-      <c r="F15">
-        <v>39.3</v>
-      </c>
-      <c r="G15">
-        <v>14.3</v>
-      </c>
-      <c r="H15">
-        <v>19.5</v>
-      </c>
-      <c r="I15">
-        <v>7.5</v>
-      </c>
-      <c r="J15">
-        <v>1.9</v>
-      </c>
-      <c r="K15">
-        <v>3.4</v>
-      </c>
-      <c r="L15">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="M15">
-        <v>3.3</v>
-      </c>
-      <c r="N15">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>11.9</v>
-      </c>
-      <c r="C16">
-        <v>45.8</v>
-      </c>
-      <c r="D16">
-        <v>55.3</v>
-      </c>
-      <c r="E16">
-        <v>22.4</v>
-      </c>
-      <c r="F16">
-        <v>8.1</v>
-      </c>
-      <c r="G16">
-        <v>2.5</v>
-      </c>
-      <c r="H16">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="I16">
-        <v>0.1</v>
-      </c>
-      <c r="J16">
-        <v>0.1</v>
-      </c>
-      <c r="K16">
-        <v>1.5</v>
-      </c>
-      <c r="L16">
-        <v>0.1</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
-      <c r="N16">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>62.3</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-      <c r="D17">
-        <v>4.2</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="F17">
-        <v>15.9</v>
-      </c>
-      <c r="G17">
-        <v>5.600000000000001</v>
-      </c>
-      <c r="H17">
-        <v>2.2</v>
       </c>
       <c r="I17">
         <v>0.3</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B18">
-        <v>0.5</v>
+        <v>62.7</v>
       </c>
       <c r="C18">
-        <v>0.8</v>
+        <v>3.1</v>
       </c>
       <c r="D18">
-        <v>0.8</v>
+        <v>4.8</v>
       </c>
       <c r="E18">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="F18">
-        <v>0.4</v>
+        <v>15.9</v>
       </c>
       <c r="G18">
-        <v>0.4</v>
+        <v>5.4</v>
       </c>
       <c r="H18">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -4882,48 +4951,54 @@
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>39.6</v>
       </c>
       <c r="D19">
-        <v>0.8</v>
+        <v>68.8</v>
       </c>
       <c r="E19">
-        <v>0.1</v>
+        <v>54.7</v>
       </c>
       <c r="F19">
-        <v>0.3</v>
+        <v>39.3</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>14.1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>0</v>
       </c>
     </row>
@@ -4942,28 +5017,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4971,28 +5046,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D2">
-        <v>76.88</v>
+        <v>96.45999999999999</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F2">
-        <v>114.43</v>
+        <v>115.2</v>
       </c>
       <c r="G2">
-        <v>0.667</v>
+        <v>0.635</v>
       </c>
       <c r="H2">
-        <v>23.3</v>
+        <v>29</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5000,28 +5075,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D3">
-        <v>103.77</v>
+        <v>112.33</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F3">
-        <v>106.33</v>
+        <v>113.09</v>
       </c>
       <c r="G3">
-        <v>0.514</v>
+        <v>0.577</v>
       </c>
       <c r="H3">
-        <v>15.3</v>
+        <v>26</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5029,28 +5104,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D4">
-        <v>102.15</v>
+        <v>78.52</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4">
-        <v>112.87</v>
+        <v>107.15</v>
       </c>
       <c r="G4">
-        <v>0.694</v>
+        <v>0.5</v>
       </c>
       <c r="H4">
-        <v>14.7</v>
+        <v>24.5</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5058,28 +5133,28 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D5">
-        <v>75.11</v>
+        <v>75.94</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F5">
-        <v>103.59</v>
+        <v>111.46</v>
       </c>
       <c r="G5">
-        <v>0.472</v>
+        <v>0.654</v>
       </c>
       <c r="H5">
-        <v>14.3</v>
+        <v>19</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5087,28 +5162,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>90.51000000000001</v>
+        <v>101.04</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>110.01</v>
+        <v>110.61</v>
       </c>
       <c r="G6">
-        <v>0.611</v>
+        <v>0.654</v>
       </c>
       <c r="H6">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5119,25 +5194,25 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>80.61</v>
+        <v>80.91</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
       <c r="F7">
-        <v>106.13</v>
+        <v>110.35</v>
       </c>
       <c r="G7">
-        <v>0.528</v>
+        <v>0.615</v>
       </c>
       <c r="H7">
-        <v>10.7</v>
+        <v>13</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5145,28 +5220,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D8">
-        <v>111.93</v>
+        <v>88.02</v>
       </c>
       <c r="E8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F8">
-        <v>105.41</v>
+        <v>110.35</v>
       </c>
       <c r="G8">
-        <v>0.556</v>
+        <v>0.615</v>
       </c>
       <c r="H8">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5174,28 +5249,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D9">
-        <v>99.56999999999999</v>
+        <v>97.16</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F9">
-        <v>103.36</v>
+        <v>99.2</v>
       </c>
       <c r="G9">
-        <v>0.542</v>
+        <v>0.462</v>
       </c>
       <c r="H9">
         <v>9</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5203,28 +5278,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10">
+        <v>91.88</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>100.77</v>
+      </c>
+      <c r="G10">
+        <v>0.423</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
         <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>86</v>
-      </c>
-      <c r="D10">
-        <v>97.72</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="G10">
-        <v>0.444</v>
-      </c>
-      <c r="H10">
-        <v>6.7</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5232,28 +5307,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D11">
-        <v>100.29</v>
+        <v>121.8</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F11">
-        <v>103.64</v>
+        <v>106.68</v>
       </c>
       <c r="G11">
-        <v>0.514</v>
+        <v>0.615</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5261,28 +5336,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D12">
-        <v>121.95</v>
+        <v>104.38</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F12">
-        <v>96.98</v>
+        <v>102.11</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>0.538</v>
       </c>
       <c r="H12">
-        <v>-8</v>
+        <v>4</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5290,28 +5365,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D13">
-        <v>117.08</v>
+        <v>99.42</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F13">
-        <v>93.09999999999999</v>
+        <v>100.67</v>
       </c>
       <c r="G13">
-        <v>0.417</v>
+        <v>0.519</v>
       </c>
       <c r="H13">
-        <v>-9.300000000000001</v>
+        <v>3.5</v>
       </c>
       <c r="I13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5319,28 +5394,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D14">
-        <v>113.23</v>
+        <v>116.4</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>93.06</v>
+        <v>86.2</v>
       </c>
       <c r="G14">
-        <v>0.333</v>
+        <v>0.308</v>
       </c>
       <c r="H14">
-        <v>-11.7</v>
+        <v>-19</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5348,28 +5423,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D15">
-        <v>93.83</v>
+        <v>106.52</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F15">
-        <v>92.2</v>
+        <v>86.55</v>
       </c>
       <c r="G15">
-        <v>0.361</v>
+        <v>0.346</v>
       </c>
       <c r="H15">
-        <v>-16.3</v>
+        <v>-20</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5377,28 +5452,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D16">
-        <v>103.69</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
         <v>27</v>
       </c>
       <c r="F16">
-        <v>97.06</v>
+        <v>87.48999999999999</v>
       </c>
       <c r="G16">
-        <v>0.5</v>
+        <v>0.308</v>
       </c>
       <c r="H16">
-        <v>-16.7</v>
+        <v>-26</v>
       </c>
       <c r="I16">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5406,28 +5481,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D17">
-        <v>116.48</v>
+        <v>100.3</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F17">
-        <v>91.59999999999999</v>
+        <v>88.97</v>
       </c>
       <c r="G17">
-        <v>0.458</v>
+        <v>0.385</v>
       </c>
       <c r="H17">
-        <v>-17</v>
+        <v>-29.5</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5435,28 +5510,28 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D18">
-        <v>104.25</v>
+        <v>116.64</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F18">
-        <v>91.39</v>
+        <v>84.47</v>
       </c>
       <c r="G18">
-        <v>0.444</v>
+        <v>0.423</v>
       </c>
       <c r="H18">
-        <v>-18</v>
+        <v>-36.5</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -5467,25 +5542,25 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D19">
-        <v>101.62</v>
+        <v>104.05</v>
       </c>
       <c r="E19" t="s">
         <v>20</v>
       </c>
       <c r="F19">
-        <v>89.62</v>
+        <v>84.47</v>
       </c>
       <c r="G19">
-        <v>0.444</v>
+        <v>0.423</v>
       </c>
       <c r="H19">
-        <v>-22</v>
+        <v>-36.5</v>
       </c>
       <c r="I19">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -5503,31 +5578,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5535,16 +5610,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D2">
-        <v>117.085</v>
+        <v>116.3984615384616</v>
       </c>
       <c r="E2">
-        <v>1405.02</v>
+        <v>1513.18</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -5556,7 +5631,7 @@
         <v>112</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5564,16 +5639,16 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C3">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D3">
-        <v>121.9483333333333</v>
+        <v>121.7984615384616</v>
       </c>
       <c r="E3">
-        <v>1463.38</v>
+        <v>1583.38</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -5582,10 +5657,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5593,16 +5668,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="D4">
-        <v>116.4833333333333</v>
+        <v>116.64</v>
       </c>
       <c r="E4">
-        <v>1397.8</v>
+        <v>1516.32</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -5611,10 +5686,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5622,231 +5697,231 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C5">
-        <v>0.6666666666666666</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="D5">
-        <v>111.925</v>
+        <v>112.3292307692308</v>
       </c>
       <c r="E5">
-        <v>1343.1</v>
+        <v>1460.28</v>
       </c>
       <c r="F5">
-        <v>95.3</v>
+        <v>100</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C6">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D6">
-        <v>99.57333333333334</v>
+        <v>106.52</v>
       </c>
       <c r="E6">
-        <v>1194.88</v>
+        <v>1384.76</v>
       </c>
       <c r="F6">
-        <v>46</v>
+        <v>67</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="C7">
-        <v>0.5833333333333334</v>
+        <v>0.5</v>
       </c>
       <c r="D7">
-        <v>102.1466666666667</v>
+        <v>113.9969230769231</v>
       </c>
       <c r="E7">
-        <v>1225.76</v>
+        <v>1481.96</v>
       </c>
       <c r="F7">
-        <v>45.7</v>
+        <v>38.2</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="C8">
-        <v>0.5416666666666666</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D8">
-        <v>103.6883333333333</v>
+        <v>99.42461538461541</v>
       </c>
       <c r="E8">
-        <v>1244.26</v>
+        <v>1292.52</v>
       </c>
       <c r="F8">
-        <v>39.90000000000001</v>
+        <v>28.8</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C9">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="D9">
-        <v>104.2466666666667</v>
+        <v>101.0384615384616</v>
       </c>
       <c r="E9">
-        <v>1250.96</v>
+        <v>1313.5</v>
       </c>
       <c r="F9">
-        <v>31.2</v>
+        <v>28</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I9" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C10">
-        <v>0.4583333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="D10">
-        <v>113.2333333333333</v>
+        <v>100.2953846153846</v>
       </c>
       <c r="E10">
-        <v>1358.8</v>
+        <v>1303.84</v>
       </c>
       <c r="F10">
-        <v>16.4</v>
+        <v>23.7</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C11">
-        <v>0.5</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D11">
-        <v>97.72499999999998</v>
+        <v>104.0523076923077</v>
       </c>
       <c r="E11">
-        <v>1172.7</v>
+        <v>1352.68</v>
       </c>
       <c r="F11">
-        <v>12.9</v>
+        <v>12.3</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I11" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C12">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D12">
-        <v>101.6183333333333</v>
+        <v>97.16461538461537</v>
       </c>
       <c r="E12">
-        <v>1219.42</v>
+        <v>1263.14</v>
       </c>
       <c r="F12">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5854,202 +5929,202 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C13">
-        <v>0.4166666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D13">
-        <v>103.77</v>
+        <v>104.3769230769231</v>
       </c>
       <c r="E13">
-        <v>1245.24</v>
+        <v>1356.9</v>
       </c>
       <c r="F13">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I13" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C14">
-        <v>0.5</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D14">
-        <v>90.51000000000001</v>
+        <v>91.88153846153847</v>
       </c>
       <c r="E14">
-        <v>1086.12</v>
+        <v>1194.46</v>
       </c>
       <c r="F14">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I14" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C15">
-        <v>0.4166666666666667</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="D15">
-        <v>100.29</v>
+        <v>88.02000000000001</v>
       </c>
       <c r="E15">
-        <v>1203.48</v>
+        <v>1144.26</v>
       </c>
       <c r="F15">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="I15" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C16">
-        <v>0.4166666666666667</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D16">
-        <v>93.83499999999999</v>
+        <v>75.93538461538461</v>
       </c>
       <c r="E16">
-        <v>1126.02</v>
+        <v>987.16</v>
       </c>
       <c r="F16">
-        <v>0.7000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>62.4</v>
       </c>
       <c r="H16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C17">
-        <v>0.25</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="D17">
-        <v>76.875</v>
+        <v>78.51538461538463</v>
       </c>
       <c r="E17">
-        <v>922.5</v>
+        <v>1020.7</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>28</v>
+        <v>37.5</v>
       </c>
       <c r="H17" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I17" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>110</v>
       </c>
       <c r="C18">
-        <v>0.1666666666666667</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D18">
-        <v>75.11166666666668</v>
+        <v>80.91230769230771</v>
       </c>
       <c r="E18">
-        <v>901.3400000000001</v>
+        <v>1051.86</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>70.5</v>
+        <v>0.1</v>
       </c>
       <c r="H18" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I18" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C19">
-        <v>0.3333333333333333</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="D19">
-        <v>80.61</v>
+        <v>96.46153846153847</v>
       </c>
       <c r="E19">
-        <v>967.3199999999999</v>
+        <v>1254</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="I19" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -6067,19 +6142,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6087,19 +6162,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6107,19 +6182,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6127,19 +6202,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6147,19 +6222,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6167,19 +6242,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6187,19 +6262,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6207,19 +6282,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6227,19 +6302,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6247,19 +6322,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="D10">
         <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6267,19 +6342,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6290,16 +6365,16 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="E12" t="s">
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6307,19 +6382,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D13">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6327,19 +6402,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D14">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6350,16 +6425,16 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D15">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6370,16 +6445,16 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D16">
-        <v>-19</v>
+        <v>-23</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6390,7 +6465,7 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D17">
         <v>-39</v>
@@ -6399,7 +6474,7 @@
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6410,16 +6485,16 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D18">
-        <v>-43</v>
+        <v>-50</v>
       </c>
       <c r="E18" t="s">
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6430,16 +6505,16 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D19">
         <v>-53</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -6449,232 +6524,247 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+        <v>167</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H2">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I2">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J2">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>37</v>
       </c>
       <c r="M2">
-        <v>38</v>
-      </c>
-      <c r="N2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>35</v>
+      </c>
+      <c r="N2">
+        <v>41</v>
+      </c>
+      <c r="O2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I3">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J3">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K3">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L3">
         <v>37</v>
       </c>
       <c r="M3">
-        <v>35</v>
-      </c>
-      <c r="N3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>38</v>
+      </c>
+      <c r="N3">
+        <v>39</v>
+      </c>
+      <c r="O3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="D4">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>7</v>
       </c>
       <c r="G4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H4">
         <v>5</v>
       </c>
       <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>10</v>
+      </c>
+      <c r="K4">
+        <v>7</v>
+      </c>
+      <c r="L4">
+        <v>11</v>
+      </c>
+      <c r="M4">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>21</v>
+      </c>
+      <c r="O4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>6</v>
-      </c>
-      <c r="K4">
-        <v>9</v>
-      </c>
-      <c r="L4">
-        <v>13</v>
-      </c>
-      <c r="M4">
-        <v>17</v>
-      </c>
-      <c r="N4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
-        <v>-4</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>7</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
       <c r="I5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K5">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L5">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M5">
-        <v>15</v>
-      </c>
-      <c r="N5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>17</v>
+      </c>
+      <c r="N5">
+        <v>17</v>
+      </c>
+      <c r="O5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -6683,260 +6773,278 @@
         <v>-3</v>
       </c>
       <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>-2</v>
+      </c>
+      <c r="G6">
         <v>-3</v>
       </c>
-      <c r="E6">
+      <c r="H6">
+        <v>-5</v>
+      </c>
+      <c r="I6">
+        <v>-8</v>
+      </c>
+      <c r="J6">
+        <v>-5</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>11</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>13</v>
+      </c>
+      <c r="O6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-5</v>
+      </c>
+      <c r="C7">
+        <v>-7</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>-1</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>-1</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>11</v>
+      </c>
+      <c r="L7">
+        <v>12</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>13</v>
+      </c>
+      <c r="O7" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>-3</v>
+      </c>
+      <c r="D8">
+        <v>-3</v>
+      </c>
+      <c r="E8">
         <v>-2</v>
       </c>
-      <c r="F6">
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="G8">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="H8">
         <v>8</v>
       </c>
-      <c r="I6">
+      <c r="I8">
         <v>6</v>
       </c>
-      <c r="J6">
+      <c r="J8">
         <v>6</v>
       </c>
-      <c r="K6">
+      <c r="K8">
         <v>3</v>
-      </c>
-      <c r="L6">
-        <v>7</v>
-      </c>
-      <c r="M6">
-        <v>14</v>
-      </c>
-      <c r="N6" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>-2</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>8</v>
-      </c>
-      <c r="K7">
-        <v>7</v>
-      </c>
-      <c r="L7">
-        <v>9</v>
-      </c>
-      <c r="M7">
-        <v>14</v>
-      </c>
-      <c r="N7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>13</v>
-      </c>
-      <c r="G8">
-        <v>13</v>
-      </c>
-      <c r="H8">
-        <v>17</v>
-      </c>
-      <c r="I8">
-        <v>17</v>
-      </c>
-      <c r="J8">
-        <v>17</v>
-      </c>
-      <c r="K8">
-        <v>16</v>
       </c>
       <c r="L8">
         <v>7</v>
       </c>
       <c r="M8">
-        <v>11</v>
-      </c>
-      <c r="N8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>14</v>
+      </c>
+      <c r="N8">
+        <v>13</v>
+      </c>
+      <c r="O8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>9</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>-2</v>
       </c>
       <c r="E9">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J9">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K9">
         <v>7</v>
       </c>
       <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>11</v>
+      </c>
+      <c r="O9" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>6</v>
+      </c>
+      <c r="D10">
         <v>13</v>
       </c>
-      <c r="M9">
+      <c r="E10">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
+      <c r="H10">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>17</v>
+      </c>
+      <c r="J10">
+        <v>17</v>
+      </c>
+      <c r="K10">
+        <v>16</v>
+      </c>
+      <c r="L10">
+        <v>7</v>
+      </c>
+      <c r="M10">
+        <v>11</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>13</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>13</v>
+      </c>
+      <c r="I11">
+        <v>14</v>
+      </c>
+      <c r="J11">
+        <v>13</v>
+      </c>
+      <c r="K11">
+        <v>7</v>
+      </c>
+      <c r="L11">
+        <v>13</v>
+      </c>
+      <c r="M11">
         <v>10</v>
       </c>
-      <c r="N9" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>-3</v>
-      </c>
-      <c r="D10">
-        <v>-1</v>
-      </c>
-      <c r="E10">
+      <c r="N11">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>-2</v>
-      </c>
-      <c r="G10">
-        <v>-3</v>
-      </c>
-      <c r="H10">
-        <v>-5</v>
-      </c>
-      <c r="I10">
-        <v>-8</v>
-      </c>
-      <c r="J10">
-        <v>-5</v>
-      </c>
-      <c r="K10">
-        <v>4</v>
-      </c>
-      <c r="L10">
-        <v>11</v>
-      </c>
-      <c r="M10">
-        <v>8</v>
-      </c>
-      <c r="N10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>-5</v>
-      </c>
-      <c r="C11">
-        <v>-7</v>
-      </c>
-      <c r="D11">
-        <v>-1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>-1</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>7</v>
-      </c>
-      <c r="I11">
-        <v>-1</v>
-      </c>
-      <c r="J11">
-        <v>3</v>
-      </c>
-      <c r="K11">
-        <v>11</v>
-      </c>
-      <c r="L11">
-        <v>12</v>
-      </c>
-      <c r="M11">
-        <v>8</v>
-      </c>
-      <c r="N11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -6976,99 +7084,108 @@
       <c r="M12">
         <v>1</v>
       </c>
-      <c r="N12" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="N12">
+        <v>-1</v>
+      </c>
+      <c r="O12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>-1</v>
+      </c>
+      <c r="C13">
+        <v>-9</v>
+      </c>
+      <c r="D13">
+        <v>-9</v>
+      </c>
+      <c r="E13">
+        <v>-5</v>
+      </c>
+      <c r="F13">
+        <v>-7</v>
+      </c>
+      <c r="G13">
+        <v>-5</v>
+      </c>
+      <c r="H13">
+        <v>-4</v>
+      </c>
+      <c r="I13">
+        <v>-5</v>
+      </c>
+      <c r="J13">
+        <v>-6</v>
+      </c>
+      <c r="K13">
+        <v>-3</v>
+      </c>
+      <c r="L13">
+        <v>-1</v>
+      </c>
+      <c r="M13">
+        <v>-4</v>
+      </c>
+      <c r="N13">
+        <v>-1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>-6</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>-5</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>-4</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>-3</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>-11</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>-12</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>-7</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>-14</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>-12</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>-11</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>-3</v>
       </c>
-      <c r="N13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>-1</v>
-      </c>
-      <c r="C14">
-        <v>-9</v>
-      </c>
-      <c r="D14">
-        <v>-9</v>
-      </c>
-      <c r="E14">
-        <v>-5</v>
-      </c>
-      <c r="F14">
-        <v>-7</v>
-      </c>
-      <c r="G14">
-        <v>-5</v>
-      </c>
-      <c r="H14">
-        <v>-4</v>
-      </c>
-      <c r="I14">
-        <v>-5</v>
-      </c>
-      <c r="J14">
-        <v>-6</v>
-      </c>
-      <c r="K14">
+      <c r="N14">
         <v>-3</v>
       </c>
-      <c r="L14">
-        <v>-1</v>
-      </c>
-      <c r="M14">
-        <v>-4</v>
-      </c>
-      <c r="N14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -7108,11 +7225,14 @@
       <c r="M15">
         <v>-11</v>
       </c>
-      <c r="N15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="N15">
+        <v>-6</v>
+      </c>
+      <c r="O15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -7152,11 +7272,14 @@
       <c r="M16">
         <v>-19</v>
       </c>
-      <c r="N16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="N16">
+        <v>-23</v>
+      </c>
+      <c r="O16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1" t="s">
         <v>4</v>
       </c>
@@ -7196,11 +7319,14 @@
       <c r="M17">
         <v>-39</v>
       </c>
-      <c r="N17" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="N17">
+        <v>-39</v>
+      </c>
+      <c r="O17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -7240,11 +7366,14 @@
       <c r="M18">
         <v>-43</v>
       </c>
-      <c r="N18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="N18">
+        <v>-50</v>
+      </c>
+      <c r="O18" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -7284,8 +7413,11 @@
       <c r="M19">
         <v>-53</v>
       </c>
-      <c r="N19" t="s">
-        <v>141</v>
+      <c r="N19">
+        <v>-53</v>
+      </c>
+      <c r="O19" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/leagues/The Girl's Room 💞🏈 2025.xlsx
+++ b/leagues/The Girl's Room 💞🏈 2025.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="180">
   <si>
     <t>Tush Push Director 🍑</t>
   </si>
@@ -79,52 +79,58 @@
     <t>Lamb of Goedert</t>
   </si>
   <si>
-    <t>10-3-0</t>
-  </si>
-  <si>
-    <t>8-5-0</t>
-  </si>
-  <si>
-    <t>6-7-0</t>
-  </si>
-  <si>
-    <t>13-0-0</t>
-  </si>
-  <si>
-    <t>3-10-0</t>
-  </si>
-  <si>
-    <t>7-6-0</t>
-  </si>
-  <si>
-    <t>11-2-0</t>
-  </si>
-  <si>
-    <t>9-4-0</t>
-  </si>
-  <si>
-    <t>5-8-0</t>
-  </si>
-  <si>
-    <t>6-6-1</t>
-  </si>
-  <si>
-    <t>4-9-0</t>
-  </si>
-  <si>
-    <t>7-5-1</t>
-  </si>
-  <si>
-    <t>12-1-0</t>
-  </si>
-  <si>
-    <t>2-11-0</t>
-  </si>
-  <si>
-    <t>1-12-0</t>
-  </si>
-  <si>
-    <t>4-8-1</t>
+    <t>11-3-0</t>
+  </si>
+  <si>
+    <t>9-5-0</t>
+  </si>
+  <si>
+    <t>7-7-0</t>
+  </si>
+  <si>
+    <t>14-0-0</t>
+  </si>
+  <si>
+    <t>3-11-0</t>
+  </si>
+  <si>
+    <t>8-6-0</t>
+  </si>
+  <si>
+    <t>12-2-0</t>
+  </si>
+  <si>
+    <t>10-4-0</t>
+  </si>
+  <si>
+    <t>6-8-0</t>
+  </si>
+  <si>
+    <t>6-7-1</t>
+  </si>
+  <si>
+    <t>4-10-0</t>
+  </si>
+  <si>
+    <t>8-5-1</t>
+  </si>
+  <si>
+    <t>5-9-0</t>
+  </si>
+  <si>
+    <t>13-1-0</t>
+  </si>
+  <si>
+    <t>1-13-0</t>
+  </si>
+  <si>
+    <t>2-12-0</t>
+  </si>
+  <si>
+    <t>4-9-1</t>
+  </si>
+  <si>
+    <t>7-6-1</t>
   </si>
   <si>
     <t>Teams</t>
@@ -244,6 +250,9 @@
     <t>Week_14</t>
   </si>
   <si>
+    <t>Week_15</t>
+  </si>
+  <si>
     <t>Owner</t>
   </si>
   <si>
@@ -265,60 +274,60 @@
     <t>Games_Remaining</t>
   </si>
   <si>
+    <t>Shae Marx</t>
+  </si>
+  <si>
+    <t>Nicole Coppins</t>
+  </si>
+  <si>
+    <t>Emily Carey</t>
+  </si>
+  <si>
+    <t>Swathi Veeravalli</t>
+  </si>
+  <si>
     <t>Lily Lamb</t>
   </si>
   <si>
+    <t>Allie Kardon</t>
+  </si>
+  <si>
     <t>Hillary Dale</t>
   </si>
   <si>
-    <t>Nicole Coppins</t>
-  </si>
-  <si>
-    <t>Swathi Veeravalli</t>
-  </si>
-  <si>
-    <t>Shae Marx</t>
-  </si>
-  <si>
     <t>Grace Schiavone</t>
   </si>
   <si>
-    <t>Allie Kardon</t>
+    <t>Sumita Gangwani</t>
+  </si>
+  <si>
+    <t>Nikki Papalia</t>
+  </si>
+  <si>
+    <t>Hannah Miller</t>
+  </si>
+  <si>
+    <t>Malini Ragoopath</t>
+  </si>
+  <si>
+    <t>Brianna Goebel</t>
   </si>
   <si>
     <t>Faith Pon</t>
   </si>
   <si>
-    <t>Hannah Miller</t>
-  </si>
-  <si>
-    <t>Malini Ragoopath</t>
-  </si>
-  <si>
-    <t>Emily Carey</t>
-  </si>
-  <si>
-    <t>Nikki Papalia</t>
-  </si>
-  <si>
-    <t>Sumita Gangwani</t>
+    <t>Grace Stockbower</t>
   </si>
   <si>
     <t>Amanda Pasquale</t>
   </si>
   <si>
+    <t>Rebecca Schneider</t>
+  </si>
+  <si>
     <t>Kiana McIntosh</t>
   </si>
   <si>
-    <t>Brianna Goebel</t>
-  </si>
-  <si>
-    <t>Rebecca Schneider</t>
-  </si>
-  <si>
-    <t>Grace Stockbower</t>
-  </si>
-  <si>
     <t>Current_Record</t>
   </si>
   <si>
@@ -343,76 +352,79 @@
     <t>Most_Likely_Record</t>
   </si>
   <si>
-    <t>10-3</t>
-  </si>
-  <si>
-    <t>9-4</t>
-  </si>
-  <si>
-    <t>7-6</t>
-  </si>
-  <si>
-    <t>6-7</t>
-  </si>
-  <si>
-    <t>5-8</t>
-  </si>
-  <si>
-    <t>3-10</t>
-  </si>
-  <si>
-    <t>11.4-3.6</t>
-  </si>
-  <si>
-    <t>11.2-3.8</t>
-  </si>
-  <si>
-    <t>11.6-3.4</t>
-  </si>
-  <si>
-    <t>10.0-5.0</t>
-  </si>
-  <si>
-    <t>8.3-6.7</t>
-  </si>
-  <si>
-    <t>7.4-6.6-1.0</t>
-  </si>
-  <si>
-    <t>8.0-7.0</t>
-  </si>
-  <si>
-    <t>7.9-7.1</t>
-  </si>
-  <si>
-    <t>7.2-6.8-1.0</t>
+    <t>11-3</t>
+  </si>
+  <si>
+    <t>10-4</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>7-7</t>
+  </si>
+  <si>
+    <t>5-9</t>
+  </si>
+  <si>
+    <t>6-8</t>
+  </si>
+  <si>
+    <t>4-10</t>
+  </si>
+  <si>
+    <t>3-11</t>
+  </si>
+  <si>
+    <t>11.7-3.3</t>
+  </si>
+  <si>
+    <t>10.8-4.2</t>
+  </si>
+  <si>
+    <t>10.7-4.3</t>
+  </si>
+  <si>
+    <t>10.6-4.4</t>
+  </si>
+  <si>
+    <t>8.7-6.3</t>
+  </si>
+  <si>
+    <t>8.5-6.5</t>
+  </si>
+  <si>
+    <t>7.7-6.3-1.0</t>
   </si>
   <si>
     <t>7.3-7.7</t>
   </si>
   <si>
-    <t>7.0-8.0</t>
-  </si>
-  <si>
-    <t>6.1-8.9</t>
-  </si>
-  <si>
-    <t>5.8-9.2</t>
+    <t>5.4-9.6</t>
+  </si>
+  <si>
+    <t>6.2-8.8</t>
+  </si>
+  <si>
+    <t>4.3-10.7</t>
+  </si>
+  <si>
+    <t>6.4-8.6</t>
+  </si>
+  <si>
+    <t>6.5-7.5-1.0</t>
+  </si>
+  <si>
+    <t>7.3-7.6</t>
   </si>
   <si>
     <t>6.6-8.4</t>
   </si>
   <si>
-    <t>3.5-11.5</t>
-  </si>
-  <si>
-    <t>3.6-11.4</t>
-  </si>
-  <si>
-    <t>5.4-9.6</t>
-  </si>
-  <si>
-    <t>5.7-9.3</t>
+    <t>3.3-11.7</t>
+  </si>
+  <si>
+    <t>5.3-9.7</t>
   </si>
   <si>
     <t>12-3</t>
@@ -421,33 +433,30 @@
     <t>11-4</t>
   </si>
   <si>
-    <t>10-5</t>
-  </si>
-  <si>
     <t>9-6</t>
   </si>
   <si>
     <t>8-6-1</t>
   </si>
   <si>
-    <t>8-7</t>
-  </si>
-  <si>
-    <t>7-7-1</t>
-  </si>
-  <si>
     <t>7-8</t>
   </si>
   <si>
+    <t>5-10</t>
+  </si>
+  <si>
     <t>6-9</t>
   </si>
   <si>
+    <t>4-11</t>
+  </si>
+  <si>
+    <t>6-8-1</t>
+  </si>
+  <si>
     <t>3-12</t>
   </si>
   <si>
-    <t>5-10</t>
-  </si>
-  <si>
     <t>Owners</t>
   </si>
   <si>
@@ -457,37 +466,40 @@
     <t>Change From Last Week</t>
   </si>
   <si>
+    <t>↑10</t>
+  </si>
+  <si>
     <t>↑6</t>
   </si>
   <si>
+    <t>↑12</t>
+  </si>
+  <si>
     <t>↑1</t>
   </si>
   <si>
+    <t>↓5</t>
+  </si>
+  <si>
+    <t>↓2</t>
+  </si>
+  <si>
+    <t>↓3</t>
+  </si>
+  <si>
+    <t>↓4</t>
+  </si>
+  <si>
+    <t>↑5</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>↑5</t>
-  </si>
-  <si>
     <t>↓1</t>
   </si>
   <si>
-    <t>↓3</t>
-  </si>
-  <si>
-    <t>↓9</t>
-  </si>
-  <si>
-    <t>↓2</t>
-  </si>
-  <si>
-    <t>↑3</t>
-  </si>
-  <si>
-    <t>↓4</t>
-  </si>
-  <si>
-    <t>↓7</t>
+    <t>↓6</t>
   </si>
   <si>
     <t>Week 1</t>
@@ -527,6 +539,9 @@
   </si>
   <si>
     <t>Week 13</t>
+  </si>
+  <si>
+    <t>Week 14</t>
   </si>
   <si>
     <t>Week</t>
@@ -975,19 +990,19 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="H2" t="s">
         <v>25</v>
@@ -1002,16 +1017,16 @@
         <v>25</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
         <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="P2" t="s">
         <v>25</v>
@@ -1023,7 +1038,7 @@
         <v>18</v>
       </c>
       <c r="S2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1037,49 +1052,49 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I3" t="s">
         <v>19</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
         <v>28</v>
       </c>
       <c r="N3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>20</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" t="s">
         <v>23</v>
-      </c>
-      <c r="O3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R3" t="s">
-        <v>19</v>
       </c>
       <c r="S3" t="s">
         <v>28</v>
@@ -1096,52 +1111,52 @@
         <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
         <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="K4" t="s">
         <v>28</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s">
         <v>26</v>
-      </c>
-      <c r="N4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" t="s">
-        <v>20</v>
       </c>
       <c r="Q4" t="s">
         <v>20</v>
       </c>
       <c r="R4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="S4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1155,10 +1170,10 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
         <v>23</v>
@@ -1179,13 +1194,13 @@
         <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M5" t="s">
         <v>23</v>
       </c>
       <c r="N5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O5" t="s">
         <v>23</v>
@@ -1217,7 +1232,7 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -1226,7 +1241,7 @@
         <v>22</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
         <v>28</v>
@@ -1241,7 +1256,7 @@
         <v>22</v>
       </c>
       <c r="M6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N6" t="s">
         <v>22</v>
@@ -1270,19 +1285,19 @@
         <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -1291,22 +1306,22 @@
         <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="K7" t="s">
         <v>26</v>
       </c>
       <c r="L7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7" t="s">
         <v>19</v>
       </c>
-      <c r="M7" t="s">
+      <c r="O7" t="s">
         <v>23</v>
-      </c>
-      <c r="N7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" t="s">
-        <v>19</v>
       </c>
       <c r="P7" t="s">
         <v>26</v>
@@ -1315,7 +1330,7 @@
         <v>23</v>
       </c>
       <c r="R7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S7" t="s">
         <v>28</v>
@@ -1338,7 +1353,7 @@
         <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
         <v>28</v>
@@ -1353,22 +1368,22 @@
         <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N8" t="s">
         <v>28</v>
       </c>
       <c r="O8" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q8" t="s">
         <v>20</v>
@@ -1377,7 +1392,7 @@
         <v>23</v>
       </c>
       <c r="S8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1394,10 +1409,10 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G9" t="s">
         <v>20</v>
@@ -1415,19 +1430,19 @@
         <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M9" t="s">
         <v>23</v>
       </c>
       <c r="N9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O9" t="s">
         <v>26</v>
       </c>
       <c r="P9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q9" t="s">
         <v>23</v>
@@ -1436,7 +1451,7 @@
         <v>23</v>
       </c>
       <c r="S9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -1447,55 +1462,55 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H10" t="s">
-        <v>18</v>
       </c>
       <c r="I10" t="s">
         <v>25</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K10" t="s">
         <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="O10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P10" t="s">
         <v>18</v>
       </c>
       <c r="Q10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="S10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1506,19 +1521,19 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F11" t="s">
         <v>28</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
         <v>20</v>
@@ -1533,16 +1548,16 @@
         <v>26</v>
       </c>
       <c r="L11" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M11" t="s">
         <v>20</v>
       </c>
       <c r="N11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="P11" t="s">
         <v>20</v>
@@ -1554,7 +1569,7 @@
         <v>19</v>
       </c>
       <c r="S11" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1624,55 +1639,55 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G13" t="s">
         <v>28</v>
       </c>
       <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" t="s">
         <v>23</v>
       </c>
-      <c r="I13" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" t="s">
-        <v>19</v>
-      </c>
       <c r="K13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" t="s">
         <v>26</v>
       </c>
-      <c r="L13" t="s">
-        <v>20</v>
-      </c>
       <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
         <v>26</v>
       </c>
-      <c r="N13" t="s">
-        <v>20</v>
-      </c>
       <c r="O13" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="Q13" t="s">
         <v>20</v>
       </c>
       <c r="R13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="S13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1683,7 +1698,7 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
@@ -1698,7 +1713,7 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s">
         <v>18</v>
@@ -1710,13 +1725,13 @@
         <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
         <v>24</v>
       </c>
       <c r="N14" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="O14" t="s">
         <v>18</v>
@@ -1742,55 +1757,55 @@
         <v>23</v>
       </c>
       <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
+      <c r="I15" t="s">
         <v>26</v>
       </c>
-      <c r="E15" t="s">
+      <c r="J15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
+        <v>20</v>
+      </c>
+      <c r="M15" t="s">
         <v>26</v>
       </c>
-      <c r="F15" t="s">
+      <c r="N15" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q15" t="s">
         <v>23</v>
       </c>
-      <c r="G15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H15" t="s">
+      <c r="R15" t="s">
+        <v>19</v>
+      </c>
+      <c r="S15" t="s">
         <v>20</v>
-      </c>
-      <c r="I15" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M15" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P15" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>19</v>
-      </c>
-      <c r="R15" t="s">
-        <v>25</v>
-      </c>
-      <c r="S15" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1828,13 +1843,13 @@
         <v>19</v>
       </c>
       <c r="L16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M16" t="s">
         <v>23</v>
       </c>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O16" t="s">
         <v>19</v>
@@ -1860,52 +1875,52 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
         <v>26</v>
       </c>
       <c r="K17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="L17" t="s">
         <v>28</v>
       </c>
       <c r="M17" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N17" t="s">
         <v>28</v>
       </c>
       <c r="O17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P17" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="Q17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="R17" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="S17" t="s">
         <v>22</v>
@@ -1922,34 +1937,34 @@
         <v>28</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F18" t="s">
         <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="H18" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K18" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="L18" t="s">
         <v>28</v>
       </c>
       <c r="M18" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N18" t="s">
         <v>22</v>
@@ -1958,7 +1973,7 @@
         <v>22</v>
       </c>
       <c r="P18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q18" t="s">
         <v>26</v>
@@ -1978,10 +1993,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
         <v>22</v>
@@ -2002,19 +2017,19 @@
         <v>23</v>
       </c>
       <c r="K19" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" t="s">
         <v>28</v>
       </c>
-      <c r="L19" t="s">
-        <v>23</v>
-      </c>
-      <c r="M19" t="s">
-        <v>22</v>
-      </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P19" t="s">
         <v>26</v>
@@ -2026,7 +2041,7 @@
         <v>20</v>
       </c>
       <c r="S19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2036,7 +2051,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2044,25 +2059,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -2070,22 +2085,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2">
-        <v>-43</v>
+        <v>11</v>
       </c>
       <c r="F2">
-        <v>8</v>
+        <v>-50</v>
       </c>
       <c r="G2">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="H2" t="s">
         <v>16</v>
@@ -2096,25 +2111,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>-50</v>
+        <v>-54</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -2122,25 +2137,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E4">
-        <v>-53</v>
+        <v>-43</v>
       </c>
       <c r="F4">
-        <v>-3</v>
+        <v>8</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2148,25 +2163,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>-3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>32</v>
+        <v>-50</v>
       </c>
       <c r="G5">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -2174,25 +2189,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>25</v>
+        <v>-53</v>
       </c>
       <c r="F6">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="G6">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -2200,25 +2215,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E7">
-        <v>-29</v>
+        <v>-3</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G7">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -2226,25 +2241,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
-        <v>3</v>
-      </c>
       <c r="E8">
-        <v>7</v>
+        <v>-26</v>
       </c>
       <c r="F8">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="G8">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -2252,22 +2267,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F9">
-        <v>-11</v>
+        <v>-9</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
         <v>7</v>
@@ -2278,25 +2293,51 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10">
-        <v>35</v>
+        <v>-29</v>
       </c>
       <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
         <v>7</v>
       </c>
-      <c r="G10">
-        <v>28</v>
-      </c>
-      <c r="H10" t="s">
-        <v>10</v>
+      <c r="F11">
+        <v>37</v>
+      </c>
+      <c r="G11">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2314,13 +2355,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2331,10 +2372,10 @@
         <v>3</v>
       </c>
       <c r="C2">
-        <v>4.666666666666667</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2345,10 +2386,10 @@
         <v>17</v>
       </c>
       <c r="C3">
-        <v>5.444444444444445</v>
+        <v>5.666666666666667</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2356,13 +2397,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>5.666666666666667</v>
+        <v>5.944444444444445</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2370,13 +2411,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>5.777777777777778</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2384,13 +2425,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>5.777777777777778</v>
+        <v>6.277777777777778</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2398,13 +2439,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>5.833333333333333</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2412,13 +2453,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C8">
-        <v>5.833333333333333</v>
+        <v>6.555555555555555</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2426,13 +2467,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>5.944444444444445</v>
+        <v>6.555555555555555</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2440,13 +2481,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C10">
-        <v>6.055555555555555</v>
+        <v>6.611111111111111</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2454,13 +2495,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>6.611111111111111</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2468,13 +2509,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
-        <v>6.666666666666667</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2485,7 +2526,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>6.722222222222222</v>
+        <v>7.388888888888889</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -2496,13 +2537,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C14">
-        <v>7.277777777777778</v>
+        <v>7.5</v>
       </c>
       <c r="D14" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2510,13 +2551,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>7.333333333333333</v>
+        <v>7.722222222222222</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2527,7 +2568,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>7.5</v>
+        <v>8.111111111111111</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
@@ -2538,13 +2579,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>7.666666666666667</v>
+        <v>8.166666666666666</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2555,7 +2596,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>7.833333333333333</v>
+        <v>8.777777777777779</v>
       </c>
       <c r="D18" t="s">
         <v>18</v>
@@ -2569,10 +2610,10 @@
         <v>8</v>
       </c>
       <c r="C19">
-        <v>8.277777777777779</v>
+        <v>8.888888888888889</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2590,16 +2631,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2610,13 +2651,13 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>10.5</v>
+        <v>11.38888888888889</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2624,13 +2665,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>9.333333333333334</v>
+        <v>9.777777777777779</v>
       </c>
       <c r="D3">
-        <v>-0.6666666666666661</v>
+        <v>-1.222222222222221</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -2641,16 +2682,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>9.222222222222221</v>
+        <v>9.611111111111111</v>
       </c>
       <c r="D4">
-        <v>-0.7777777777777786</v>
+        <v>-0.3888888888888893</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2661,7 +2702,7 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>8.611111111111111</v>
+        <v>9.611111111111111</v>
       </c>
       <c r="D5">
         <v>-0.3888888888888893</v>
@@ -2678,13 +2719,13 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>8.111111111111111</v>
+        <v>8.944444444444445</v>
       </c>
       <c r="D6">
-        <v>2.111111111111111</v>
+        <v>1.944444444444445</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2695,10 +2736,10 @@
         <v>14</v>
       </c>
       <c r="C7">
-        <v>7.555555555555555</v>
+        <v>8.444444444444445</v>
       </c>
       <c r="D7">
-        <v>0.5555555555555554</v>
+        <v>0.4444444444444446</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -2712,10 +2753,10 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>6.888888888888889</v>
+        <v>7.388888888888889</v>
       </c>
       <c r="D8">
-        <v>1.888888888888889</v>
+        <v>1.388888888888889</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
@@ -2729,13 +2770,13 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>6.722222222222222</v>
+        <v>7.055555555555555</v>
       </c>
       <c r="D9">
-        <v>0.7222222222222223</v>
+        <v>1.055555555555555</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2743,13 +2784,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C10">
-        <v>6.611111111111111</v>
+        <v>6.888888888888889</v>
       </c>
       <c r="D10">
-        <v>-0.3888888888888893</v>
+        <v>-1.111111111111111</v>
       </c>
       <c r="E10" t="s">
         <v>23</v>
@@ -2763,10 +2804,10 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>6.611111111111111</v>
+        <v>6.722222222222222</v>
       </c>
       <c r="D11">
-        <v>0.6111111111111107</v>
+        <v>0.7222222222222223</v>
       </c>
       <c r="E11" t="s">
         <v>27</v>
@@ -2777,16 +2818,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C12">
-        <v>6.111111111111111</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="D12">
-        <v>-0.8888888888888893</v>
+        <v>-0.333333333333333</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2794,16 +2835,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>5.722222222222222</v>
+        <v>6.166666666666667</v>
       </c>
       <c r="D13">
-        <v>-0.2777777777777777</v>
+        <v>1.166666666666667</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2811,13 +2852,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>5.555555555555555</v>
+        <v>5.888888888888889</v>
       </c>
       <c r="D14">
-        <v>0.5555555555555554</v>
+        <v>-0.1111111111111107</v>
       </c>
       <c r="E14" t="s">
         <v>26</v>
@@ -2831,13 +2872,13 @@
         <v>11</v>
       </c>
       <c r="C15">
-        <v>5.5</v>
+        <v>5.722222222222222</v>
       </c>
       <c r="D15">
-        <v>0.5</v>
+        <v>0.7222222222222223</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2848,10 +2889,10 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>4.777777777777778</v>
+        <v>5.222222222222222</v>
       </c>
       <c r="D16">
-        <v>-1.222222222222222</v>
+        <v>-1.777777777777778</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -2865,10 +2906,10 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>3.333333333333333</v>
+        <v>3.944444444444445</v>
       </c>
       <c r="D17">
-        <v>-1.666666666666667</v>
+        <v>-2.055555555555555</v>
       </c>
       <c r="E17" t="s">
         <v>26</v>
@@ -2882,13 +2923,13 @@
         <v>15</v>
       </c>
       <c r="C18">
-        <v>2.944444444444445</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="D18">
-        <v>-0.05555555555555536</v>
+        <v>-0.3333333333333335</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2923,64 +2964,64 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -2988,16 +3029,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="C2">
-        <v>31.9</v>
+        <v>10.3</v>
       </c>
       <c r="D2">
-        <v>39.5</v>
+        <v>13.1</v>
       </c>
       <c r="E2">
-        <v>5.6</v>
+        <v>6.7</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3047,19 +3088,19 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>44.3</v>
+        <v>3.1</v>
       </c>
       <c r="C3">
-        <v>24.4</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>23.8</v>
+        <v>42.3</v>
       </c>
       <c r="E3">
-        <v>7.5</v>
+        <v>35.6</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3109,19 +3150,19 @@
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>22.1</v>
       </c>
       <c r="C4">
-        <v>40.5</v>
+        <v>45.4</v>
       </c>
       <c r="D4">
-        <v>25.2</v>
+        <v>14.1</v>
       </c>
       <c r="E4">
-        <v>2.3</v>
+        <v>18.4</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -3174,22 +3215,22 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>4.9</v>
       </c>
       <c r="C5">
-        <v>3.2</v>
+        <v>25.3</v>
       </c>
       <c r="D5">
-        <v>11.5</v>
+        <v>30.5</v>
       </c>
       <c r="E5">
-        <v>81.59999999999999</v>
+        <v>39.3</v>
       </c>
       <c r="F5">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -3245,31 +3286,31 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>44.7</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G6">
-        <v>19.9</v>
+        <v>13.3</v>
       </c>
       <c r="H6">
-        <v>16.5</v>
+        <v>10.9</v>
       </c>
       <c r="I6">
-        <v>5.5</v>
+        <v>0.2</v>
       </c>
       <c r="J6">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -3290,12 +3331,12 @@
         <v>0</v>
       </c>
       <c r="T6">
-        <v>67</v>
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3310,34 +3351,34 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>15.6</v>
+        <v>14.4</v>
       </c>
       <c r="G7">
-        <v>22.6</v>
+        <v>44.8</v>
       </c>
       <c r="H7">
-        <v>14.4</v>
+        <v>31.3</v>
       </c>
       <c r="I7">
-        <v>19.9</v>
+        <v>9.5</v>
       </c>
       <c r="J7">
-        <v>14.8</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -3352,12 +3393,12 @@
         <v>0</v>
       </c>
       <c r="T7">
-        <v>38.2</v>
+        <v>59.2</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3372,31 +3413,31 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>14.2</v>
+        <v>10</v>
       </c>
       <c r="G8">
-        <v>14.6</v>
+        <v>37.9</v>
       </c>
       <c r="H8">
-        <v>14.7</v>
+        <v>36.9</v>
       </c>
       <c r="I8">
-        <v>18.3</v>
+        <v>12.4</v>
       </c>
       <c r="J8">
-        <v>10.8</v>
+        <v>2.8</v>
       </c>
       <c r="K8">
-        <v>9.6</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>13.8</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -3414,7 +3455,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>28.8</v>
+        <v>47.9</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -3431,34 +3472,34 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>15.2</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>19.4</v>
+        <v>15.8</v>
       </c>
       <c r="I9">
-        <v>15.7</v>
+        <v>14.6</v>
       </c>
       <c r="J9">
-        <v>9</v>
+        <v>14.3</v>
       </c>
       <c r="K9">
-        <v>10.9</v>
+        <v>29.1</v>
       </c>
       <c r="L9">
-        <v>11.7</v>
+        <v>17.6</v>
       </c>
       <c r="M9">
-        <v>5.1</v>
+        <v>4.6</v>
       </c>
       <c r="N9">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -3476,12 +3517,12 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -3496,54 +3537,54 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>7.9</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>15.8</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>21.2</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>12.2</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="O10">
-        <v>0.2</v>
+        <v>22.8</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>23.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -3558,40 +3599,40 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>9.9</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>17.4</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>14.2</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>18.8</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>19.8</v>
+        <v>1.8</v>
       </c>
       <c r="L11">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="M11">
-        <v>3.9</v>
+        <v>6.9</v>
       </c>
       <c r="N11">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="O11">
-        <v>1.5</v>
+        <v>32.3</v>
       </c>
       <c r="P11">
-        <v>0.2</v>
+        <v>38</v>
       </c>
       <c r="Q11">
-        <v>0.1</v>
+        <v>11.6</v>
       </c>
       <c r="R11">
         <v>0</v>
@@ -3600,12 +3641,12 @@
         <v>0</v>
       </c>
       <c r="T11">
-        <v>12.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -3620,49 +3661,49 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>5.6</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>9.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>17.3</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>20.1</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>15.1</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>10.9</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>8.300000000000001</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="T12">
-        <v>1.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -3685,37 +3726,37 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.7</v>
+        <v>6</v>
       </c>
       <c r="J13">
-        <v>7.5</v>
+        <v>17.2</v>
       </c>
       <c r="K13">
-        <v>11</v>
+        <v>13.9</v>
       </c>
       <c r="L13">
-        <v>10.2</v>
+        <v>9.1</v>
       </c>
       <c r="M13">
-        <v>23.4</v>
+        <v>24</v>
       </c>
       <c r="N13">
-        <v>23.4</v>
+        <v>24.2</v>
       </c>
       <c r="O13">
-        <v>9.1</v>
+        <v>5.4</v>
       </c>
       <c r="P13">
-        <v>10.6</v>
+        <v>0.2</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -3724,12 +3765,12 @@
         <v>0</v>
       </c>
       <c r="T13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -3753,34 +3794,34 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>21.3</v>
       </c>
       <c r="J14">
-        <v>0.7</v>
+        <v>22.3</v>
       </c>
       <c r="K14">
-        <v>3.5</v>
+        <v>10.1</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>15.3</v>
       </c>
       <c r="M14">
-        <v>5.6</v>
+        <v>19.5</v>
       </c>
       <c r="N14">
-        <v>14.1</v>
+        <v>10.2</v>
       </c>
       <c r="O14">
-        <v>25</v>
+        <v>1.3</v>
       </c>
       <c r="P14">
-        <v>30.4</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>13.6</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -3812,34 +3853,34 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>5.1</v>
       </c>
       <c r="I15">
-        <v>3.2</v>
+        <v>21.3</v>
       </c>
       <c r="J15">
-        <v>2.3</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="K15">
-        <v>4</v>
+        <v>7.9</v>
       </c>
       <c r="L15">
-        <v>12.7</v>
+        <v>24.3</v>
       </c>
       <c r="M15">
-        <v>20.5</v>
+        <v>23.5</v>
       </c>
       <c r="N15">
-        <v>17.7</v>
+        <v>8.4</v>
       </c>
       <c r="O15">
-        <v>23.2</v>
+        <v>0.2</v>
       </c>
       <c r="P15">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <v>0</v>
@@ -3853,7 +3894,7 @@
     </row>
     <row r="16" spans="1:20">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -3877,37 +3918,37 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>14.6</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>29.3</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.2</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="P16">
         <v>0.2</v>
       </c>
       <c r="Q16">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>34.6</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -3915,7 +3956,7 @@
     </row>
     <row r="17" spans="1:20">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -3960,16 +4001,16 @@
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>58.1</v>
+        <v>3.8</v>
       </c>
       <c r="S17">
-        <v>37.5</v>
+        <v>96.2</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -3977,7 +4018,7 @@
     </row>
     <row r="18" spans="1:20">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4001,37 +4042,37 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J18">
-        <v>0.1</v>
+        <v>4.8</v>
       </c>
       <c r="K18">
-        <v>0.1</v>
+        <v>20</v>
       </c>
       <c r="L18">
-        <v>1.2</v>
+        <v>25</v>
       </c>
       <c r="M18">
-        <v>2.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="N18">
-        <v>1.3</v>
+        <v>19.9</v>
       </c>
       <c r="O18">
-        <v>7.8</v>
+        <v>15.7</v>
       </c>
       <c r="P18">
-        <v>18.3</v>
+        <v>5.4</v>
       </c>
       <c r="Q18">
-        <v>61.6</v>
+        <v>0.4</v>
       </c>
       <c r="R18">
-        <v>7.2</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="T18">
         <v>0</v>
@@ -4063,31 +4104,31 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>3.9</v>
+        <v>0.1</v>
       </c>
       <c r="M19">
-        <v>7.4</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>22.8</v>
+        <v>12.4</v>
       </c>
       <c r="O19">
-        <v>24.7</v>
+        <v>16.6</v>
       </c>
       <c r="P19">
-        <v>24</v>
+        <v>41.2</v>
       </c>
       <c r="Q19">
-        <v>11.5</v>
+        <v>28.7</v>
       </c>
       <c r="R19">
         <v>0</v>
@@ -4106,95 +4147,98 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>74</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>38.6</v>
+        <v>37.9</v>
       </c>
       <c r="C2">
-        <v>81.59999999999999</v>
+        <v>83</v>
       </c>
       <c r="D2">
         <v>44.2</v>
       </c>
       <c r="E2">
-        <v>30.7</v>
+        <v>31.7</v>
       </c>
       <c r="F2">
-        <v>62.9</v>
+        <v>58.3</v>
       </c>
       <c r="G2">
-        <v>73.40000000000001</v>
+        <v>74.8</v>
       </c>
       <c r="H2">
-        <v>81.10000000000001</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="I2">
-        <v>62.9</v>
+        <v>64.8</v>
       </c>
       <c r="J2">
-        <v>82</v>
+        <v>82.19999999999999</v>
       </c>
       <c r="K2">
-        <v>92.10000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="L2">
-        <v>97.89999999999999</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="N2">
         <v>100</v>
@@ -4202,46 +4246,49 @@
       <c r="O2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3">
+        <v>93.7</v>
+      </c>
+      <c r="C3">
+        <v>83.59999999999999</v>
+      </c>
+      <c r="D3">
+        <v>58.7</v>
+      </c>
+      <c r="E3">
+        <v>77.7</v>
+      </c>
+      <c r="F3">
+        <v>89.2</v>
+      </c>
+      <c r="G3">
+        <v>82</v>
+      </c>
+      <c r="H3">
+        <v>94.8</v>
+      </c>
+      <c r="I3">
         <v>92.90000000000001</v>
       </c>
-      <c r="C3">
-        <v>84.8</v>
-      </c>
-      <c r="D3">
-        <v>54.3</v>
-      </c>
-      <c r="E3">
-        <v>76.7</v>
-      </c>
-      <c r="F3">
-        <v>88.7</v>
-      </c>
-      <c r="G3">
-        <v>82.8</v>
-      </c>
-      <c r="H3">
-        <v>93.40000000000001</v>
-      </c>
-      <c r="I3">
-        <v>92.80000000000001</v>
-      </c>
       <c r="J3">
-        <v>97.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="K3">
-        <v>98.90000000000001</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="L3">
-        <v>99.8</v>
+        <v>100</v>
       </c>
       <c r="M3">
-        <v>100</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="N3">
         <v>100</v>
@@ -4249,657 +4296,699 @@
       <c r="O3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>89.40000000000001</v>
+        <v>37.6</v>
       </c>
       <c r="C4">
+        <v>63</v>
+      </c>
+      <c r="D4">
+        <v>57.09999999999999</v>
+      </c>
+      <c r="E4">
+        <v>78.5</v>
+      </c>
+      <c r="F4">
+        <v>80.90000000000001</v>
+      </c>
+      <c r="G4">
+        <v>89.90000000000001</v>
+      </c>
+      <c r="H4">
+        <v>91.90000000000001</v>
+      </c>
+      <c r="I4">
+        <v>94.5</v>
+      </c>
+      <c r="J4">
+        <v>96.7</v>
+      </c>
+      <c r="K4">
         <v>91.5</v>
       </c>
-      <c r="D4">
-        <v>12.5</v>
-      </c>
-      <c r="E4">
-        <v>33.4</v>
-      </c>
-      <c r="F4">
-        <v>20.7</v>
-      </c>
-      <c r="G4">
-        <v>8.799999999999999</v>
-      </c>
-      <c r="H4">
-        <v>11.9</v>
-      </c>
-      <c r="I4">
-        <v>21.3</v>
-      </c>
-      <c r="J4">
-        <v>40.3</v>
-      </c>
-      <c r="K4">
-        <v>55.2</v>
-      </c>
       <c r="L4">
-        <v>73.2</v>
+        <v>98.3</v>
       </c>
       <c r="M4">
-        <v>93.5</v>
+        <v>100</v>
       </c>
       <c r="N4">
-        <v>99.7</v>
+        <v>100</v>
       </c>
       <c r="O4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>38.6</v>
+        <v>88.8</v>
       </c>
       <c r="C5">
-        <v>63</v>
+        <v>90.8</v>
       </c>
       <c r="D5">
-        <v>58.3</v>
+        <v>12.8</v>
       </c>
       <c r="E5">
-        <v>78.40000000000001</v>
+        <v>32.8</v>
       </c>
       <c r="F5">
-        <v>81.89999999999999</v>
+        <v>22.3</v>
       </c>
       <c r="G5">
-        <v>91.5</v>
+        <v>8.4</v>
       </c>
       <c r="H5">
-        <v>93.5</v>
+        <v>12.4</v>
       </c>
       <c r="I5">
-        <v>93.40000000000001</v>
+        <v>21.3</v>
       </c>
       <c r="J5">
-        <v>96.89999999999999</v>
+        <v>40.2</v>
       </c>
       <c r="K5">
-        <v>93.30000000000001</v>
+        <v>54.50000000000001</v>
       </c>
       <c r="L5">
-        <v>97.8</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="M5">
-        <v>99.90000000000001</v>
+        <v>94.19999999999999</v>
       </c>
       <c r="N5">
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="O5">
         <v>100</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B6">
+        <v>1.1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>8.799999999999999</v>
+      </c>
+      <c r="E6">
+        <v>24.4</v>
+      </c>
+      <c r="F6">
+        <v>36.7</v>
+      </c>
+      <c r="G6">
+        <v>39.90000000000001</v>
+      </c>
+      <c r="H6">
+        <v>61.2</v>
+      </c>
+      <c r="I6">
+        <v>77.8</v>
+      </c>
+      <c r="J6">
+        <v>58.2</v>
+      </c>
+      <c r="K6">
+        <v>44</v>
+      </c>
+      <c r="L6">
+        <v>25</v>
+      </c>
+      <c r="M6">
+        <v>27.4</v>
+      </c>
+      <c r="N6">
+        <v>63.9</v>
+      </c>
+      <c r="O6">
+        <v>86.40000000000001</v>
+      </c>
+      <c r="P6">
+        <v>90.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>28.5</v>
+      </c>
+      <c r="C7">
+        <v>34.2</v>
+      </c>
+      <c r="D7">
+        <v>8.6</v>
+      </c>
+      <c r="E7">
+        <v>12.9</v>
+      </c>
+      <c r="F7">
+        <v>31.7</v>
+      </c>
+      <c r="G7">
+        <v>40.9</v>
+      </c>
+      <c r="H7">
+        <v>66.2</v>
+      </c>
+      <c r="I7">
+        <v>54.3</v>
+      </c>
+      <c r="J7">
+        <v>34</v>
+      </c>
+      <c r="K7">
+        <v>27.1</v>
+      </c>
+      <c r="L7">
+        <v>50.4</v>
+      </c>
+      <c r="M7">
+        <v>47.59999999999999</v>
+      </c>
+      <c r="N7">
+        <v>31.3</v>
+      </c>
+      <c r="O7">
+        <v>50.2</v>
+      </c>
+      <c r="P7">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>30.1</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>64</v>
+      </c>
+      <c r="E8">
+        <v>85.2</v>
+      </c>
+      <c r="F8">
+        <v>54.3</v>
+      </c>
+      <c r="G8">
+        <v>65.10000000000001</v>
+      </c>
+      <c r="H8">
+        <v>32.3</v>
+      </c>
+      <c r="I8">
+        <v>22.1</v>
+      </c>
+      <c r="J8">
+        <v>37</v>
+      </c>
+      <c r="K8">
+        <v>22.4</v>
+      </c>
+      <c r="L8">
+        <v>7.3</v>
+      </c>
+      <c r="M8">
+        <v>23.4</v>
+      </c>
+      <c r="N8">
+        <v>36.1</v>
+      </c>
+      <c r="O8">
+        <v>49.5</v>
+      </c>
+      <c r="P8">
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>20.8</v>
+      </c>
+      <c r="C9">
+        <v>67.40000000000001</v>
+      </c>
+      <c r="D9">
+        <v>70</v>
+      </c>
+      <c r="E9">
+        <v>51.5</v>
+      </c>
+      <c r="F9">
+        <v>66.40000000000001</v>
+      </c>
+      <c r="G9">
+        <v>81.5</v>
+      </c>
+      <c r="H9">
+        <v>90.8</v>
+      </c>
+      <c r="I9">
+        <v>95.7</v>
+      </c>
+      <c r="J9">
+        <v>88.09999999999999</v>
+      </c>
+      <c r="K9">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="L9">
+        <v>54.3</v>
+      </c>
+      <c r="M9">
+        <v>39</v>
+      </c>
+      <c r="N9">
+        <v>30</v>
+      </c>
+      <c r="O9">
+        <v>9.4</v>
+      </c>
+      <c r="P9">
+        <v>4.100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>10.4</v>
+      </c>
+      <c r="C10">
+        <v>48.1</v>
+      </c>
+      <c r="D10">
+        <v>53.6</v>
+      </c>
+      <c r="E10">
+        <v>22.3</v>
+      </c>
+      <c r="F10">
+        <v>8.799999999999999</v>
+      </c>
+      <c r="G10">
+        <v>2.9</v>
+      </c>
+      <c r="H10">
+        <v>0.4</v>
+      </c>
+      <c r="I10">
+        <v>0.5</v>
+      </c>
+      <c r="J10">
+        <v>0.3</v>
+      </c>
+      <c r="K10">
+        <v>1.2</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0.6</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1.4</v>
+      </c>
+      <c r="E11">
+        <v>0.3</v>
+      </c>
+      <c r="F11">
+        <v>0.1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12">
+        <v>0.4</v>
+      </c>
+      <c r="C12">
         <v>0.8999999999999999</v>
       </c>
-      <c r="C6">
+      <c r="D12">
+        <v>2.1</v>
+      </c>
+      <c r="E12">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="F12">
+        <v>0.2</v>
+      </c>
+      <c r="G12">
+        <v>0.3</v>
+      </c>
+      <c r="H12">
         <v>0.1</v>
       </c>
-      <c r="D6">
-        <v>7.7</v>
-      </c>
-      <c r="E6">
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>9.4</v>
+      </c>
+      <c r="C13">
+        <v>0.1</v>
+      </c>
+      <c r="D13">
+        <v>15.9</v>
+      </c>
+      <c r="E13">
+        <v>12.2</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13">
+        <v>7.199999999999999</v>
+      </c>
+      <c r="H13">
+        <v>4.6</v>
+      </c>
+      <c r="I13">
+        <v>0.8</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>6.3</v>
+      </c>
+      <c r="L13">
+        <v>13.7</v>
+      </c>
+      <c r="M13">
+        <v>5.4</v>
+      </c>
+      <c r="N13">
+        <v>0.3</v>
+      </c>
+      <c r="O13">
+        <v>0.3</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>37.1</v>
+      </c>
+      <c r="C14">
+        <v>12.4</v>
+      </c>
+      <c r="D14">
+        <v>64.2</v>
+      </c>
+      <c r="E14">
+        <v>72.09999999999999</v>
+      </c>
+      <c r="F14">
+        <v>42.1</v>
+      </c>
+      <c r="G14">
+        <v>19.9</v>
+      </c>
+      <c r="H14">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="I14">
+        <v>14.5</v>
+      </c>
+      <c r="J14">
+        <v>25.1</v>
+      </c>
+      <c r="K14">
+        <v>43.4</v>
+      </c>
+      <c r="L14">
+        <v>56.59999999999999</v>
+      </c>
+      <c r="M14">
+        <v>33.6</v>
+      </c>
+      <c r="N14">
+        <v>14.1</v>
+      </c>
+      <c r="O14">
+        <v>1.9</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15">
         <v>21.4</v>
       </c>
-      <c r="F6">
-        <v>36.4</v>
-      </c>
-      <c r="G6">
-        <v>41.3</v>
-      </c>
-      <c r="H6">
-        <v>58.7</v>
-      </c>
-      <c r="I6">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="J6">
-        <v>56.8</v>
-      </c>
-      <c r="K6">
-        <v>49.4</v>
-      </c>
-      <c r="L6">
-        <v>25.3</v>
-      </c>
-      <c r="M6">
+      <c r="C15">
         <v>29.4</v>
       </c>
-      <c r="N6">
-        <v>60.7</v>
-      </c>
-      <c r="O6">
-        <v>66.60000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7">
-        <v>29.8</v>
-      </c>
-      <c r="C7">
-        <v>13.7</v>
-      </c>
-      <c r="D7">
-        <v>65.10000000000001</v>
-      </c>
-      <c r="E7">
-        <v>83.89999999999999</v>
-      </c>
-      <c r="F7">
-        <v>55.00000000000001</v>
-      </c>
-      <c r="G7">
-        <v>65.2</v>
-      </c>
-      <c r="H7">
-        <v>36.7</v>
-      </c>
-      <c r="I7">
-        <v>24.4</v>
-      </c>
-      <c r="J7">
-        <v>37.8</v>
-      </c>
-      <c r="K7">
-        <v>18.4</v>
-      </c>
-      <c r="L7">
-        <v>6.5</v>
-      </c>
-      <c r="M7">
-        <v>23.5</v>
-      </c>
-      <c r="N7">
-        <v>35.8</v>
-      </c>
-      <c r="O7">
-        <v>38.4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>67.90000000000001</v>
-      </c>
-      <c r="D8">
-        <v>72.2</v>
-      </c>
-      <c r="E8">
-        <v>50.8</v>
-      </c>
-      <c r="F8">
-        <v>63</v>
-      </c>
-      <c r="G8">
-        <v>81.89999999999999</v>
-      </c>
-      <c r="H8">
-        <v>90.2</v>
-      </c>
-      <c r="I8">
-        <v>96.8</v>
-      </c>
-      <c r="J8">
-        <v>88.09999999999999</v>
-      </c>
-      <c r="K8">
-        <v>73</v>
-      </c>
-      <c r="L8">
-        <v>58.7</v>
-      </c>
-      <c r="M8">
-        <v>39.1</v>
-      </c>
-      <c r="N8">
-        <v>29.8</v>
-      </c>
-      <c r="O8">
-        <v>30.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>32.9</v>
-      </c>
-      <c r="C9">
-        <v>33.5</v>
-      </c>
-      <c r="D9">
-        <v>8.1</v>
-      </c>
-      <c r="E9">
-        <v>11.2</v>
-      </c>
-      <c r="F9">
-        <v>31.1</v>
-      </c>
-      <c r="G9">
-        <v>39.2</v>
-      </c>
-      <c r="H9">
-        <v>65</v>
-      </c>
-      <c r="I9">
-        <v>54.3</v>
-      </c>
-      <c r="J9">
-        <v>37.5</v>
-      </c>
-      <c r="K9">
-        <v>29.9</v>
-      </c>
-      <c r="L9">
-        <v>50.1</v>
-      </c>
-      <c r="M9">
-        <v>42.1</v>
-      </c>
-      <c r="N9">
+      <c r="D15">
+        <v>14.6</v>
+      </c>
+      <c r="E15">
+        <v>2.9</v>
+      </c>
+      <c r="F15">
+        <v>1.4</v>
+      </c>
+      <c r="G15">
+        <v>1.2</v>
+      </c>
+      <c r="H15">
+        <v>0.3</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+      <c r="K15">
+        <v>0.4</v>
+      </c>
+      <c r="L15">
+        <v>1.1</v>
+      </c>
+      <c r="M15">
+        <v>4.9</v>
+      </c>
+      <c r="N15">
+        <v>0.6</v>
+      </c>
+      <c r="O15">
+        <v>2.1</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>18.2</v>
+      </c>
+      <c r="C16">
         <v>32</v>
       </c>
-      <c r="O9">
-        <v>25.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>31.7</v>
-      </c>
-      <c r="C10">
-        <v>10.5</v>
-      </c>
-      <c r="D10">
-        <v>62.9</v>
-      </c>
-      <c r="E10">
-        <v>72.89999999999999</v>
-      </c>
-      <c r="F10">
-        <v>40.9</v>
-      </c>
-      <c r="G10">
-        <v>20</v>
-      </c>
-      <c r="H10">
-        <v>8.799999999999999</v>
-      </c>
-      <c r="I10">
-        <v>16.4</v>
-      </c>
-      <c r="J10">
-        <v>24.8</v>
-      </c>
-      <c r="K10">
-        <v>45.1</v>
-      </c>
-      <c r="L10">
-        <v>53</v>
-      </c>
-      <c r="M10">
-        <v>35</v>
-      </c>
-      <c r="N10">
-        <v>14.8</v>
-      </c>
-      <c r="O10">
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
-      <c r="A11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>19.8</v>
-      </c>
-      <c r="C11">
-        <v>30.2</v>
-      </c>
-      <c r="D11">
-        <v>49.9</v>
-      </c>
-      <c r="E11">
-        <v>41.6</v>
-      </c>
-      <c r="F11">
-        <v>43.5</v>
-      </c>
-      <c r="G11">
-        <v>63.4</v>
-      </c>
-      <c r="H11">
-        <v>28</v>
-      </c>
-      <c r="I11">
-        <v>46.2</v>
-      </c>
-      <c r="J11">
-        <v>27</v>
-      </c>
-      <c r="K11">
-        <v>22.3</v>
-      </c>
-      <c r="L11">
-        <v>14.6</v>
-      </c>
-      <c r="M11">
-        <v>5.7</v>
-      </c>
-      <c r="N11">
-        <v>19.8</v>
-      </c>
-      <c r="O11">
-        <v>12.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
-      <c r="A12" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>1.9</v>
-      </c>
-      <c r="F12">
-        <v>6.9</v>
-      </c>
-      <c r="G12">
-        <v>3.2</v>
-      </c>
-      <c r="H12">
-        <v>7.1</v>
-      </c>
-      <c r="I12">
-        <v>2.2</v>
-      </c>
-      <c r="J12">
-        <v>5.7</v>
-      </c>
-      <c r="K12">
-        <v>10.4</v>
-      </c>
-      <c r="L12">
+      <c r="D16">
+        <v>48.8</v>
+      </c>
+      <c r="E16">
+        <v>37.9</v>
+      </c>
+      <c r="F16">
+        <v>42.2</v>
+      </c>
+      <c r="G16">
+        <v>62.3</v>
+      </c>
+      <c r="H16">
+        <v>28.6</v>
+      </c>
+      <c r="I16">
+        <v>47</v>
+      </c>
+      <c r="J16">
+        <v>28.6</v>
+      </c>
+      <c r="K16">
+        <v>28.2</v>
+      </c>
+      <c r="L16">
+        <v>15.2</v>
+      </c>
+      <c r="M16">
+        <v>4.2</v>
+      </c>
+      <c r="N16">
+        <v>19.1</v>
+      </c>
+      <c r="O16">
+        <v>0.2</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>63.1</v>
+      </c>
+      <c r="C17">
+        <v>3.8</v>
+      </c>
+      <c r="D17">
+        <v>4.3</v>
+      </c>
+      <c r="E17">
         <v>4.6</v>
       </c>
-      <c r="M12">
-        <v>16.3</v>
-      </c>
-      <c r="N12">
-        <v>6.1</v>
-      </c>
-      <c r="O12">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>22.2</v>
-      </c>
-      <c r="C13">
-        <v>31.4</v>
-      </c>
-      <c r="D13">
-        <v>10.6</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
+      <c r="F17">
+        <v>15.3</v>
+      </c>
+      <c r="G17">
+        <v>6.2</v>
+      </c>
+      <c r="H17">
         <v>1.5</v>
       </c>
-      <c r="G13">
-        <v>0.8</v>
-      </c>
-      <c r="H13">
-        <v>0.3</v>
-      </c>
-      <c r="I13">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="L13">
-        <v>2.4</v>
-      </c>
-      <c r="M13">
-        <v>4.6</v>
-      </c>
-      <c r="N13">
-        <v>1.1</v>
-      </c>
-      <c r="O13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0.5</v>
-      </c>
-      <c r="E14">
-        <v>0.2</v>
-      </c>
-      <c r="F14">
-        <v>0.2</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="C15">
-        <v>0.7000000000000001</v>
-      </c>
-      <c r="D15">
-        <v>2.2</v>
-      </c>
-      <c r="E15">
-        <v>0.3</v>
-      </c>
-      <c r="F15">
-        <v>0.1</v>
-      </c>
-      <c r="G15">
-        <v>0.2</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>7.6</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>19</v>
-      </c>
-      <c r="E16">
-        <v>12.3</v>
-      </c>
-      <c r="F16">
-        <v>2.8</v>
-      </c>
-      <c r="G16">
-        <v>6.4</v>
-      </c>
-      <c r="H16">
-        <v>3.4</v>
-      </c>
-      <c r="I16">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="J16">
-        <v>3.6</v>
-      </c>
-      <c r="K16">
-        <v>6.800000000000001</v>
-      </c>
-      <c r="L16">
-        <v>14.7</v>
-      </c>
-      <c r="M16">
-        <v>6.1</v>
-      </c>
-      <c r="N16">
-        <v>0.2</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17">
-        <v>11</v>
-      </c>
-      <c r="C17">
-        <v>48.4</v>
-      </c>
-      <c r="D17">
-        <v>58.9</v>
-      </c>
-      <c r="E17">
-        <v>21.8</v>
-      </c>
-      <c r="F17">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="G17">
-        <v>2.4</v>
-      </c>
-      <c r="H17">
-        <v>0.8999999999999999</v>
-      </c>
       <c r="I17">
-        <v>0.3</v>
+        <v>1.3</v>
       </c>
       <c r="J17">
         <v>0.1</v>
       </c>
       <c r="K17">
-        <v>0.7000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -4907,98 +4996,107 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B18">
-        <v>62.7</v>
+        <v>1.1</v>
       </c>
       <c r="C18">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>4.8</v>
+        <v>0.1</v>
       </c>
       <c r="E18">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="F18">
-        <v>15.9</v>
+        <v>7.8</v>
       </c>
       <c r="G18">
-        <v>5.4</v>
+        <v>2.7</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="I18">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>16.7</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>4.9</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>99.59999999999999</v>
+        <v>99.7</v>
       </c>
       <c r="C19">
-        <v>39.6</v>
+        <v>37.3</v>
       </c>
       <c r="D19">
-        <v>68.8</v>
+        <v>70.8</v>
       </c>
       <c r="E19">
-        <v>54.7</v>
+        <v>49.9</v>
       </c>
       <c r="F19">
         <v>39.3</v>
       </c>
       <c r="G19">
-        <v>14.1</v>
+        <v>14.8</v>
       </c>
       <c r="H19">
-        <v>20</v>
+        <v>18.3</v>
       </c>
       <c r="I19">
-        <v>8.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="J19">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="K19">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="M19">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
         <v>0</v>
       </c>
     </row>
@@ -5017,28 +5115,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5046,28 +5144,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D2">
-        <v>96.45999999999999</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>115.2</v>
+        <v>122.17</v>
       </c>
       <c r="G2">
-        <v>0.635</v>
+        <v>0.714</v>
       </c>
       <c r="H2">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5075,28 +5173,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D3">
-        <v>112.33</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F3">
-        <v>113.09</v>
+        <v>114.16</v>
       </c>
       <c r="G3">
-        <v>0.577</v>
+        <v>0.536</v>
       </c>
       <c r="H3">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5104,28 +5202,28 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D4">
-        <v>78.52</v>
+        <v>103.19</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F4">
-        <v>107.15</v>
+        <v>115.35</v>
       </c>
       <c r="G4">
-        <v>0.5</v>
+        <v>0.714</v>
       </c>
       <c r="H4">
-        <v>24.5</v>
+        <v>23</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5136,25 +5234,25 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D5">
-        <v>75.94</v>
+        <v>73.12</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
       </c>
       <c r="F5">
-        <v>111.46</v>
+        <v>107.98</v>
       </c>
       <c r="G5">
-        <v>0.654</v>
+        <v>0.571</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5162,28 +5260,28 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D6">
-        <v>101.04</v>
+        <v>96.48</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6">
-        <v>110.61</v>
+        <v>114.52</v>
       </c>
       <c r="G6">
-        <v>0.654</v>
+        <v>0.786</v>
       </c>
       <c r="H6">
-        <v>16.5</v>
+        <v>12</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5191,28 +5289,28 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D7">
-        <v>80.91</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>110.35</v>
+        <v>102.15</v>
       </c>
       <c r="G7">
-        <v>0.615</v>
+        <v>0.429</v>
       </c>
       <c r="H7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5220,28 +5318,28 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D8">
-        <v>88.02</v>
+        <v>115.35</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F8">
-        <v>110.35</v>
+        <v>103.19</v>
       </c>
       <c r="G8">
-        <v>0.615</v>
+        <v>0.429</v>
       </c>
       <c r="H8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5249,28 +5347,28 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D9">
-        <v>97.16</v>
+        <v>81.72</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F9">
-        <v>99.2</v>
+        <v>113.8</v>
       </c>
       <c r="G9">
-        <v>0.462</v>
+        <v>0.714</v>
       </c>
       <c r="H9">
         <v>9</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5278,28 +5376,28 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D10">
-        <v>91.88</v>
+        <v>114.52</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F10">
-        <v>100.77</v>
+        <v>96.48</v>
       </c>
       <c r="G10">
-        <v>0.423</v>
+        <v>0.357</v>
       </c>
       <c r="H10">
         <v>6</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5307,28 +5405,28 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D11">
-        <v>121.8</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F11">
-        <v>106.68</v>
+        <v>97.48</v>
       </c>
       <c r="G11">
-        <v>0.615</v>
+        <v>0.464</v>
       </c>
       <c r="H11">
         <v>5</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5336,28 +5434,28 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D12">
-        <v>104.38</v>
+        <v>90.34999999999999</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F12">
-        <v>102.11</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="G12">
-        <v>0.538</v>
+        <v>0.429</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5365,28 +5463,28 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D13">
-        <v>99.42</v>
+        <v>122.17</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F13">
-        <v>100.67</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="G13">
-        <v>0.519</v>
+        <v>0.5</v>
       </c>
       <c r="H13">
-        <v>3.5</v>
+        <v>-3</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5394,28 +5492,28 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D14">
-        <v>116.4</v>
+        <v>97.48</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F14">
-        <v>86.2</v>
+        <v>99.76000000000001</v>
       </c>
       <c r="G14">
-        <v>0.308</v>
+        <v>0.571</v>
       </c>
       <c r="H14">
-        <v>-19</v>
+        <v>-7</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5423,28 +5521,28 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D15">
-        <v>106.52</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="E15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F15">
-        <v>86.55</v>
+        <v>90.34999999999999</v>
       </c>
       <c r="G15">
-        <v>0.346</v>
+        <v>0.357</v>
       </c>
       <c r="H15">
-        <v>-20</v>
+        <v>-7</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5452,28 +5550,28 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D16">
-        <v>114</v>
+        <v>102.15</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F16">
-        <v>87.48999999999999</v>
+        <v>87.81999999999999</v>
       </c>
       <c r="G16">
-        <v>0.308</v>
+        <v>0.5</v>
       </c>
       <c r="H16">
         <v>-26</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5481,28 +5579,28 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17">
+        <v>107.98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17">
+        <v>73.12</v>
+      </c>
+      <c r="G17">
+        <v>0.214</v>
+      </c>
+      <c r="H17">
+        <v>-45</v>
+      </c>
+      <c r="I17">
         <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17">
-        <v>100.3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17">
-        <v>88.97</v>
-      </c>
-      <c r="G17">
-        <v>0.385</v>
-      </c>
-      <c r="H17">
-        <v>-29.5</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5513,25 +5611,25 @@
         <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D18">
-        <v>116.64</v>
+        <v>113.8</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="F18">
-        <v>84.47</v>
+        <v>81.72</v>
       </c>
       <c r="G18">
-        <v>0.423</v>
+        <v>0.429</v>
       </c>
       <c r="H18">
-        <v>-36.5</v>
+        <v>-50</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -5539,28 +5637,28 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D19">
-        <v>104.05</v>
+        <v>114.16</v>
       </c>
       <c r="E19" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F19">
-        <v>84.47</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="G19">
-        <v>0.423</v>
+        <v>0.286</v>
       </c>
       <c r="H19">
-        <v>-36.5</v>
+        <v>-54</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -5578,31 +5676,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -5610,16 +5708,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C2">
-        <v>0.7692307692307693</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="D2">
-        <v>116.3984615384616</v>
+        <v>114.5171428571429</v>
       </c>
       <c r="E2">
-        <v>1513.18</v>
+        <v>1603.24</v>
       </c>
       <c r="F2">
         <v>100</v>
@@ -5628,27 +5726,27 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C3">
-        <v>0.7692307692307693</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D3">
-        <v>121.7984615384616</v>
+        <v>113.7971428571428</v>
       </c>
       <c r="E3">
-        <v>1583.38</v>
+        <v>1593.16</v>
       </c>
       <c r="F3">
         <v>100</v>
@@ -5657,27 +5755,27 @@
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I3" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C4">
-        <v>0.7692307692307693</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D4">
-        <v>116.64</v>
+        <v>122.1728571428572</v>
       </c>
       <c r="E4">
-        <v>1516.32</v>
+        <v>1710.42</v>
       </c>
       <c r="F4">
         <v>100</v>
@@ -5686,10 +5784,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5697,16 +5795,16 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C5">
-        <v>0.6923076923076923</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="D5">
-        <v>112.3292307692308</v>
+        <v>115.3457142857143</v>
       </c>
       <c r="E5">
-        <v>1460.28</v>
+        <v>1614.84</v>
       </c>
       <c r="F5">
         <v>100</v>
@@ -5715,10 +5813,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5726,86 +5824,86 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C6">
-        <v>0.5384615384615384</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D6">
-        <v>106.52</v>
+        <v>107.9757142857143</v>
       </c>
       <c r="E6">
-        <v>1384.76</v>
+        <v>1511.66</v>
       </c>
       <c r="F6">
-        <v>67</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>111</v>
       </c>
       <c r="C7">
-        <v>0.5</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="D7">
-        <v>113.9969230769231</v>
+        <v>99.76000000000002</v>
       </c>
       <c r="E7">
-        <v>1481.96</v>
+        <v>1396.64</v>
       </c>
       <c r="F7">
-        <v>38.2</v>
+        <v>59.2</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="C8">
-        <v>0.5384615384615384</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="D8">
-        <v>99.42461538461541</v>
+        <v>114.1585714285714</v>
       </c>
       <c r="E8">
-        <v>1292.52</v>
+        <v>1598.22</v>
       </c>
       <c r="F8">
-        <v>28.8</v>
+        <v>47.9</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5813,115 +5911,115 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C9">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="D9">
-        <v>101.0384615384616</v>
+        <v>98.04285714285716</v>
       </c>
       <c r="E9">
-        <v>1313.5</v>
+        <v>1372.6</v>
       </c>
       <c r="F9">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>113</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D10">
-        <v>100.2953846153846</v>
+        <v>90.35142857142857</v>
       </c>
       <c r="E10">
-        <v>1303.84</v>
+        <v>1264.92</v>
       </c>
       <c r="F10">
-        <v>23.7</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C11">
-        <v>0.4615384615384616</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D11">
-        <v>104.0523076923077</v>
+        <v>81.72285714285715</v>
       </c>
       <c r="E11">
-        <v>1352.68</v>
+        <v>1144.12</v>
       </c>
       <c r="F11">
-        <v>12.3</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C12">
-        <v>0.4615384615384616</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="D12">
-        <v>97.16461538461537</v>
+        <v>79.89571428571431</v>
       </c>
       <c r="E12">
-        <v>1263.14</v>
+        <v>1118.54</v>
       </c>
       <c r="F12">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="H12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5929,45 +6027,45 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C13">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D13">
-        <v>104.3769230769231</v>
+        <v>103.1928571428572</v>
       </c>
       <c r="E13">
-        <v>1356.9</v>
+        <v>1444.7</v>
       </c>
       <c r="F13">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="C14">
-        <v>0.3846153846153846</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="D14">
-        <v>91.88153846153847</v>
+        <v>97.48428571428573</v>
       </c>
       <c r="E14">
-        <v>1194.46</v>
+        <v>1364.78</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -5976,10 +6074,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5987,16 +6085,16 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C15">
-        <v>0.4615384615384616</v>
+        <v>0.5</v>
       </c>
       <c r="D15">
-        <v>88.02000000000001</v>
+        <v>87.81857142857145</v>
       </c>
       <c r="E15">
-        <v>1144.26</v>
+        <v>1229.46</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -6005,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I15" t="s">
         <v>138</v>
@@ -6013,89 +6111,89 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C16">
-        <v>0.2307692307692308</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D16">
-        <v>75.93538461538461</v>
+        <v>102.1471428571429</v>
       </c>
       <c r="E16">
-        <v>987.16</v>
+        <v>1430.06</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>62.4</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C17">
-        <v>0.2307692307692308</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="D17">
-        <v>78.51538461538463</v>
+        <v>73.12428571428572</v>
       </c>
       <c r="E17">
-        <v>1020.7</v>
+        <v>1023.74</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>37.5</v>
+        <v>96.2</v>
       </c>
       <c r="H17" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C18">
-        <v>0.3846153846153846</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="D18">
-        <v>80.91230769230771</v>
+        <v>95.24285714285713</v>
       </c>
       <c r="E18">
-        <v>1051.86</v>
+        <v>1333.4</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6103,16 +6201,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C19">
-        <v>0.3846153846153846</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="D19">
-        <v>96.46153846153847</v>
+        <v>96.48142857142857</v>
       </c>
       <c r="E19">
-        <v>1254</v>
+        <v>1350.74</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -6121,10 +6219,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="I19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -6142,19 +6240,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6162,19 +6260,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>94</v>
       </c>
       <c r="D2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -6182,19 +6280,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="D3">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -6202,19 +6300,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -6222,19 +6320,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -6242,19 +6340,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -6268,13 +6366,13 @@
         <v>97</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -6282,19 +6380,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -6302,19 +6400,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
         <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -6322,19 +6420,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -6342,19 +6440,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -6362,19 +6460,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D12">
         <v>-1</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6382,13 +6480,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D13">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="E13" t="s">
         <v>20</v>
@@ -6405,16 +6503,16 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D14">
-        <v>-3</v>
+        <v>-7</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6425,16 +6523,16 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D15">
-        <v>-6</v>
+        <v>-7</v>
       </c>
       <c r="E15" t="s">
         <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6445,10 +6543,10 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D16">
-        <v>-23</v>
+        <v>-26</v>
       </c>
       <c r="E16" t="s">
         <v>20</v>
@@ -6465,16 +6563,16 @@
         <v>4</v>
       </c>
       <c r="C17" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D17">
-        <v>-39</v>
+        <v>-45</v>
       </c>
       <c r="E17" t="s">
         <v>22</v>
       </c>
       <c r="F17" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6485,7 +6583,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D18">
         <v>-50</v>
@@ -6494,7 +6592,7 @@
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6505,16 +6603,16 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D19">
-        <v>-53</v>
+        <v>-54</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -6524,292 +6622,310 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>172</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I2">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="J2">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="K2">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L2">
         <v>37</v>
       </c>
       <c r="M2">
+        <v>38</v>
+      </c>
+      <c r="N2">
+        <v>39</v>
+      </c>
+      <c r="O2">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>29</v>
+      </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
+      <c r="I3">
+        <v>37</v>
+      </c>
+      <c r="J3">
+        <v>37</v>
+      </c>
+      <c r="K3">
         <v>35</v>
-      </c>
-      <c r="N2">
-        <v>41</v>
-      </c>
-      <c r="O2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>8</v>
-      </c>
-      <c r="C3">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>17</v>
-      </c>
-      <c r="E3">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>24</v>
-      </c>
-      <c r="G3">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>33</v>
-      </c>
-      <c r="I3">
-        <v>31</v>
-      </c>
-      <c r="J3">
-        <v>31</v>
-      </c>
-      <c r="K3">
-        <v>32</v>
       </c>
       <c r="L3">
         <v>37</v>
       </c>
       <c r="M3">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="N3">
-        <v>39</v>
-      </c>
-      <c r="O3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>41</v>
+      </c>
+      <c r="O3">
+        <v>47</v>
+      </c>
+      <c r="P3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>-4</v>
+        <v>9</v>
       </c>
       <c r="D4">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>3</v>
       </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
         <v>3</v>
       </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>11</v>
-      </c>
       <c r="J4">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K4">
         <v>7</v>
       </c>
       <c r="L4">
+        <v>9</v>
+      </c>
+      <c r="M4">
+        <v>14</v>
+      </c>
+      <c r="N4">
         <v>11</v>
       </c>
-      <c r="M4">
-        <v>15</v>
-      </c>
-      <c r="N4">
-        <v>21</v>
-      </c>
-      <c r="O4" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="O4">
+        <v>23</v>
+      </c>
+      <c r="P4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>-4</v>
       </c>
       <c r="D5">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>7</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>5</v>
       </c>
       <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <v>21</v>
+      </c>
+      <c r="O5">
+        <v>22</v>
+      </c>
+      <c r="P5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>-3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+      <c r="G6">
+        <v>7</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
         <v>6</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>9</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>13</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>17</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>17</v>
       </c>
-      <c r="O5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>-3</v>
-      </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>-2</v>
-      </c>
-      <c r="G6">
-        <v>-3</v>
-      </c>
-      <c r="H6">
-        <v>-5</v>
-      </c>
-      <c r="I6">
-        <v>-8</v>
-      </c>
-      <c r="J6">
-        <v>-5</v>
-      </c>
-      <c r="K6">
-        <v>4</v>
-      </c>
-      <c r="L6">
-        <v>11</v>
-      </c>
-      <c r="M6">
-        <v>8</v>
-      </c>
-      <c r="N6">
-        <v>13</v>
-      </c>
-      <c r="O6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="O6">
+        <v>12</v>
+      </c>
+      <c r="P6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -6852,13 +6968,16 @@
       <c r="N7">
         <v>13</v>
       </c>
-      <c r="O7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="O7">
+        <v>11</v>
+      </c>
+      <c r="P7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -6867,278 +6986,296 @@
         <v>-3</v>
       </c>
       <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>-2</v>
+      </c>
+      <c r="G8">
         <v>-3</v>
       </c>
-      